--- a/Game simulations/Week 16/Jaguars at Jets.xlsx
+++ b/Game simulations/Week 16/Jaguars at Jets.xlsx
@@ -57,16 +57,16 @@
     <t>JetsAvg. FPTS</t>
   </si>
   <si>
-    <t>JSU(0.16817732306711133, 5.044344109434993, -0.7599998114175701, 56.75502983015148)</t>
-  </si>
-  <si>
-    <t>16 -5 -5 -4 5 -8 23 -11 12 10 1 5 5 -4 -1 3 -2 6 -11 -3 -4 -3 9 -13 16 -8 -14 -10 -26 7 6 -6 4 -25 -17 7 -14 -6 -10 2 -6 -15 -8 -8 8 -7 11 28 -9 -19 -13 -8 25 3 -6 -13 -25 -3 4 -11 13 -3 1 3 -20 18 3 -2 -24 -3 -17 -15 -3 -6 3 37 -2 -8 -6 -14 -3 12 3 -7 -3 -5 -15 21 -14 -3 -4 13 -6 -6 -3 -10 1 -24 -4 -2 -17 -4 5 -8 -14 10 -13 6 20 -9 -8 6 4 -6 -45 -2 -7 -2 2 -2 13 -19 3 4 -11 -2 -25 3 -14 1 -27 -14 -9 7 -1 -20 3 4 -7 18 -25 -20 17 2 4 -7 -7 -12 -3 -3 -10 -17 -21 -7 -10 -3 -5 -27 3 7 -3 -15 14 1 6 -4 7 3 -13 -1 6 -13 -12 -12 4 6 4 7 -20 -1 -27 3 -2 8 1 -1 0 3 -10 -16 11 12 -15 3 10 -2 -24 -4 -11 13 3 3 -6 -7 -11 6 -14 1 -7 2 7 3 -23 -15 -7 1 -12 4 3 -3 -11 -5 6 -5 -6 -14 -5 4 7 -3 -11 -10 -21 -4 3 -20 10 -3 -3 -6 17 -19 -17 -5 -10 6 5 16 10 1 7 3 24 -3 -6 -26 0 -9 8 -26 -12 -17 -21 -4 2 6 -9 -3 -5 -3 3 3 -25 -18 13 -11 -9 -26 -8 4 -17 -19 3 5 -3 -5 -3 -29 -7 -9 -3 20 -2 8 13 -6 3 -3 1 24 -4 -6 -12 -6 8 -1 -1 -9 -7 -3 6 -10 5 -6 4 0 -16 5 -9 -6 -15 17 -11 -30 2 14 -14 -5 -33 -3 -6 -3 -1 3 14 -32 4 3 -5 14 14 17 17 3 10 8 -25 3 -3 -8 -6 -6 -25 -26 -21 -18 -23 -1 10 -11 -7 -14 15 5 -5 7 -2 -5 -14 -6 -11 -27 -7 -12 -1 -13 3 1 -10 -7 4 -9 -20 -3 -12 6 -5 3 -6 -10 -24 -4 2 -14 14 -16 -6 -4 0 4 -9 3 -17 -19 -3 -7 1 -3 -7 -20 -3 1 -19 3 -8 4 -2 6 -4 6 3 -6 3 -6 5 5 -6 -10 7 4 -2 4 -17 -8 33 5 12 -8 10 6 9 3 -27 -5 5 -14 3 6 -26 -3 12 -8 2 5 3 7 26 3 -3 14 4 14 14 2 -3 3 -5 -5 -4 -3 -3 -9 -2 -7 -3 -17 -10 -20 4 3 4 -11 -12 -5 -1 11 -9 16 -10 3 -10 8 -7 3 -3 14 -30 -10 -13 -3 -7 -13 3 18 -1 -3 13 -5 -7 7 -17 14 3 -3 -15 -3 3 4 3 -6 -3 -13 7 -2 8 -9 0 4 4 -3 -1 -2 -4 0 4 8 3 -6 -13 2 -20 5 -23 6 -5 -2 14 -7 4 18 -13 -9 4 -20 14 -6 2 -6 3 -15 4 4 1 6 11 17 -2 -5 -24 -22 1 -19 17 -2 -7 0 -15 7 10 4 -18 -16 -7 -3 -3 6 -8 -14 -6 -6 -2 -3 -11 -3 22 19 12 -16 -28 -12 -9 -2 -4 -14 -10 16 2 -14 -26 24 -29 5 -8 14 -21 3 9 -5 4 13 -22 -27 -6 1 -20 -3 -9 1 13 13 17 -22 8 8 12 -6 3 -10 -23 14 -7 5 -10 27 -3 6 1 11 2 14 -7 1 -6 -18 -9 3 3 3 28 -16 -3 -6 -18 -3 -7 -7 -6 25 -8 8 3 -3 13 -4 -11 -6 -6 17 8 -6 3 -7 -3 3 -3 -17 3 13 3 -2 8 -17 -7 -6 -1 -3 -7 -6 -2 -3 19 -9 -14 3 3 -33 -6 -3 -13 -3 3 -6 -10 1 -6 -11 12 2 4 -2 -28 6 -11 -3 -3 -8 -9 8 -11 -2 -17 -3 -23 3 -11 -9 2 -30 -1 -6 -17 -7 -11 -24 6 14 10 -23 -5 -4 -6 11 -3 -3 -14 2 -10 -8 0 -12 3 -14 -18 -13 3 -7 -1 4 -6 11 -14 1 -8 -16 4 -17 -3 -4 -1 -22 -9 -13 -3 7 -15 -14 6 -10 -14 -14 -7 -20 -4 -6 -24 -3 -4 -13 -2 7 -20 -1 10 -6 12 -7 3 9 3 -13 -31 8 -7 -9 -1 10 5 3 -22 -26 -4 -32 3 -7 6 14 13 -6 -3 1 19 -4 -17 1 1 -10 -5 -20 7 4 -18 -1 -20 -3 -22 21 -17 -9 -20 -3 1 9 -9 7 -16 -5 -15 -27 -3 9 7 -5 -6 -3 -10 -13 -17 -21 -10 -3 -14 -7 32 10 -11 16 28 13 -10 -11 7 -3 -7 -2 -2 -3 0 -2 3 -13 3 -5 -11 2 10 -1 -9 -17 -3 -15 12 -6 -5 -11 -4 7 -13 3 -5 -5 -9 13 -3 14 14 -1 9 11 5 4 -23 -15 -3 -6 -6 7 -24 -8 12 -30 -12 5 11 -15 -7 -23 -17 -3 14 4 -17 -4 -10 -7 -7 3 6 3 -22 7 -7 -7 -5 3 11 17 -17 24 -3 10 23 9 -1 -15 -6 -3 -5 21 -17 -7 4 -6 -2 -14 -19 3 -6 -4 -13 -18 -22 1 10 -13 15 -7 -2 -16 7 3 2 3 -21 1 6 -6 -10 2 -12 -2 -3 -3 -3 4 -12 9 -6 -3 9 -9 3 7 20 -5 -5 -2 1 -11 1 -2 6 -17 -14 -3 -3 7 -6 24 -18 -3 -9 -18 8 -4 -27 7 -21 10 -7 -6 10 -8 -1 10 -2 -3 -11 -3 2 11 -14 -17 -3 -8 2 -3 10 -3 3 5 -17 7 -25 2 1 -18 -29 -13 -7 -3 -5 3 4 7 -4 -13 -6 6 6 -22 -1 -6 21 10 2 4 17 -29 -1 -1 7 10 -6 2 -11 -2 -31 -3 -3 -1 -11 -9 -15 10 -2 -7 -9 -13 -17 -5 -26 -15 -3 -5 -23 -17 4 -3 -5 6 6 13 3 3 6 -17 -24 3 -4 7 9 -1 8 -10 -2 -6 -16 -6 -14 -3 5 -2 -13 -6 -11 13 -2 13 -7 -26 -27 9 -4 -13 3 -11 -1 3 -6 10 -9 6 14 19 28 7 -1 -5 -20 -7 -26 3 -13 -5 -6 1 -3 -3 4 -39 -8 -3 -10 19 -15 -25 -7 5 2 -2 -17 3 4 -10 14 3 6 6 -24 -17 1 -3 2 3 -27 25 -7 -3 -14 -9 -3 -9 14 -18 20 -5 -10 -10 -1 -20 -6 -19 2 21 -7 18 -5 -14 -24 -3 -3 -4 1 15 -13 -10 3 15 -10 -20 -20 -24 -8 -10 -24 3 3 -7 -11 -1 9 -6 10 -4 3 14 -7 -2 -25 -7 -28 -3 -15 -17 -14 -13 -2 -10 -5 -9 -10 14 17 12 28 -4 -3 5 3 16 -3 -4 -9 -7 10 10 10 -19 -6 -6 -21 -3 11 -4 -4 -4 -9 -16 -20 10 -18 -1 -6 -9 -5 2 20 7 21 9 -20 0 1 14 -2 7 1 5 26 -5 -9 -14 8 4 7 -3 3 -12 7 -16 -27 -17 0 13 1 -3 -13 12 4 6 1 -10 -12 3 -5 -1 18 11 -9 21 -16 3 -11 -1 -20 -15 -3 -1 10 -12 17 6 -11 -22 -14 -8 -11 3 17 -3 -17 -20 -5 -3 19 8 -17 -26 -3 -3 7 6 6 21 4 2 -3 4 -6 23 10 -1 -14 3 -4 4 1 9 -3 7 -13 -6 6 -7 -13 -6 -16 -13 -3 -6 27 1 -24 -21 -18 5 5 -19 -13 3 -7 -25 -3 10 -19 -10 18 1 -23 9 5 -10 -12 6 -13 -8 18 -11 3 -7 -13 11 -17 -14 -5 11 -2 7 4 -7 -11 -11 7 1 -13 7 18 4 -3 5 -6 -23 -12 -10 -8 13 -15 16 7 -8 -1 7 -5 -11 -12 6 -6 -5 -14 -6 -11 -10 -12 6 -11 -1 -3 -5 -24 -15 -7 -21 13 -3 -1 -18 -4 -11 -2 -6 7 8 6 9 -18 -14 4 -11 13 -3 -3 9 4 -9 -21 4 -27 15 -12 0 -8 -5 16 -8 14 1 -2 -14 0 -11 -12 1 7 7 17 -21 5 -5 -20 -3 7 -6 -2 -3 -7 -8 -6 7 -10 -11 11 -3 3 -3 -21 -25 -17 -3 11 -3 9 -2 -4 10 -3 7 -8 3 -10 -5 1 -7 0 -22 -6 -6 -19 -23 -14 -3 -8 14 10 -2 3 -12 -15 5 -3 -26 -5 -24 5 18 -24 -7 -16 -18 4 -32 13 3 -10 7 3 -11 -8 -8 -7 -11 10 -2 4 -3 -8 -23 -6 -25 21 -4 8 20 -17 6 -19 -8 -1 -13 -3 18 -2 -6 14 -14 8 21 -8 -1 -29 -7 -14 -13 -3 -20 -24 10 7 -16 22 -3 -18 5 -9 1 6 3 3 -10 -14 12 2 -10 -12 -26 -30 -15 6 1 14 4 7 -3 -16 17 -31 4 16 -6 10 -19 -4 5 5 -3 -18 -10 -3 -3 3 24 -7 -14 -4 -2 -3 -13 -14 4 -22 3 3 -1 -3 -4 -7 -1 17 3 -3 3 -10 -3 -13 -20 -6 -4 9 -18 -2 -7 -20 -9 -19 -4 8 14 20 1 4 6 -17 -1 -7 -3 -14 -9 -6 1 -3 4 7 -7 -16 -11 -8 6 -8 -3 -15 7 -9 -14 -17 -13 -10 -23 -1 7 10 17 -2 -9 -25 -9 21 14 0 -2 10 -10 -5 -14 -17 -2 -10 6 -12 -10 -4 5 -5 4 -14 -20 -16 -7 -12 -1 7 -7 -4 -7 -5 -14 -26 -6 -25 14 -14 -3 -3 5 8 22 -3 -6 -17 -6 -4 -27 -2 -23 -21 -7 -2 11 -3 6 12 3 -8 -24 -26 -8 -3 -9 -13 -9 -13 -6 -11 4 6 6 -27 0 2 -1 -14 3 1 13 -8 -15 -5 -2 -2 -6 -14 10 -7 -2 10 -15 -11 -6 2 5 4 -2 -4 4 -12 -15 -13 1 13 -5 -6 11 -10 11 4 -17 17 -7 -3 7 -4 -3 -8 -2 6 -13 4 16 -3 21 -14 -3 -11 11 -2 -3 4 -17 -24 -11 -14 3 -8 -6 1 -11 27 -1 -17 17 -17 -8 -20 18 3 -3 3 -3 2 -4 2 1 -13 -3 -13 -7 -7 3 -20 20 -4 3 -6 14 -13 11 -12 13 -22 -12 1 -20 -12 -10 -13 10 -4 24 -11 10 -27 14 -5 -9 3 -13 15 13 -3 -30 -6 4 0 -4 -14 6 -2 -10 -3 17 -7 -11 -13 -13 -14 -9 3 3 -3 6 -12 -8 3 -3 21 1 -6 -11 -24 -21 7 21 -17 5 -11 10 -19 17 4 -5 -3 -4 7 12 -4 -6 -33 -5 -6 -16 10 -3 -4 -7 -10 2 -26 -13 7 11 -4 -22 -8 -28 4 10 5 -8 3 8 -11 -15 -19 -8 -16 -10 -10 14 -11 -12 9 -3 -2 -13 1 -13 12 8 20 -6 -16 9 -13 6 -13 4 4 -3 -14 -7 -13 1 -6 -13 -19 3 23 -12 -5 -19 -4 27 -3 3 -9 -5 -10 15 4 -21 -11 -1 6 17 3 -34 5 -4 7 -2 6 -7 7 3 -7 -9 2 17 -10 -8 -6 -2 -14 -13 -2 -8 3 8 -10 -3 1 -10 -15 -6 3 -3 13 -6 20 5 -24 -6 8 8 -7 13 15 -23 -11 -20 -9 10 3 -3 -11 -11 -8 3 -3 17 -5 -5 -4 -14 22 17 3 6 4 20 3 9 -4 -6 -10 15 3 -6 -5 -9 21 4 -5 -14 9 -3 13 -6 7 -3 -18 -13 -6 -2 -15 -14 -6 19 -11 -7 -21 -9 19 -27 -3 4 -3 -17 -21 -3 26 1 -7 9 -17 10 -11 12 1 7 -12 3 -3 -18 4 -4 8 -23 3 -2 7 -6 -16 -2 -3 -6 3 -3 -3 -4 3 -7 -6 7 -4 -12 7 3 9 -24 -14 7 6 14 24 -1 -4 -5 -13 -7 -24 -3 4 7 -13 7 -21 9 -37 2 -7 -9 -10 -9 -24 20 -9 10 3 -7 -10 18 -19 8 1 -17 -3 3 8 -6 5 -3 8 -5 -6 10 -4 -14 5 -5 6 14 2 9 -15 -10 14 -13 -9 3 -13 -13 -31 -24 -3 11 -10 -32 15 -16 13 22 5 3 -12 20 3 -14 7 4 -5 11 3 -2 4 -2 -7 -11 -4 -28 12 -6 -2 -6 8 24 3 9 -7 -12 -4 -11 -17 -7 -12 -18 6 -14 6 10 11 -9 -4 -19 7 -20 21 10 -3 -2 3 -16 4 6 5 -3 3 -10 -7 2 1 3 13 8 -27 -5 -3 -14 20 -3 7 -7 -3 -1 3 -17 -5 -13 16 8 21 -16 -14 -3 -8 14 1 5 -16 5 11 4 -6 -6 -3 18 7 -27 9 -3 4 -23 -5 -4 13 14 -17 11 5 -24 -31 3 -27 6 -19 14 5 11 17 22 3 -21 11 1 -1 -4 6 4 -12 13 4 -13 6 3 -10 2 -17 -1 11 -6 -10 11 -1 10 7 3 16 -14 -14 -3 6 5 -3 5 -27 5 14 1 -10 4 -7 -2 2 8 28 19 -6 -3 7 17 11 21 -30 -1 8 -10 23 6 -11 3 -8 -2 -10 -2 -14 7 -3 -3 -9 -16 -4 6 2 1 2 5 3 -10 11 -2 4 8 8 -5 -15 9 -18 3 10 -4 -2 7 9 -5 -27 -7 6 -14 3 -2 6 -7 -2 15 -10 -7 3 -8 -7 -28 -5 -8 -10 -8 -15 -5 9 -14 -12 10 -13 6 3 -16 -3 -8 -7 -5 15 -7 4 -10 -13 -11 -11 -3 12 -6 -13 -32 -10 -7 -7 -6 7 -3 -14 20 -23 -3 16 -16 -28 11 22 -15 -6 -2 16 15 -8 -17 17 -24 -2 -10 6 -23 -5 -2 -15 -1 -4 -9 -6 3 -16 -3 6 4 -3 -6 1 -12 -28 -13 -3 9 -11 -2 -3 -4 10 -24 -3 12 4 6 -3 2 12 28 -6 -3 11 4 -2 3 3 -29 -7 -14 -31 15 -9 4 23 -6 10 -3 -13 -4 7 -14 -7 -28 6 -27 -21 -4 6 7 -3 -13 -1 -11 3 15 -12 -2 -8 -12 0 -10 3 10 -6 -6 1 8 3 -15 -3 -14 -5 -8 8 -7 6 10 -21 -7 -7 -3 22 3 -4 0 -12 6 -23 -6 3 -11 3 14 8 -4 14 -3 -8 -3 5 -25 -3 -16 3 -3 2 -15 7 33 14 -17 10 3 10 -3 -30 4 0 38 13 8 -32 -4 -3 -22 -10 21 4 -7 11 -8 -6 5 -4 -8 -18 -17 -3 3 1 -2 15 -14 -7 4 -16 -24 -7 13 9 -14 -6 19 -3 3 -7 -7 -6 8 9 -14 5 3 9 -7 -11 8 4 5 -11 -6 3 -7 24 -1 -8 -7 -3 14 3 4 6 1 -12 6 -17 -1 -13 18 10 11 -3 -5 4 7 14 -13 14 -7 6 -11 4 -20 -3 -6 -14 -7 8 -9 5 -13 -17 7 7 -2 -6 -7 7 12 21 -6 -3 -4 -8 -8 -4 -6 8 10 -25 -1 7 -23 11 -10 0 -10 -9 -3 -2 -3 -3 2 -15 26 -16 3 -8 17 -3 -8 -4 -31 -15 -16 13 -10 -8 12 11 -20 -42 -17 -14 6 -11 -11 -7 -9 15 -13 -13 13 7 -5 -25 -1 10 -4 4 -6 1 -15 -11 -6 27 -3 6 20 -28 16 2 -19 -9 10 4 3 -9 9 7 -3 -5 -5 -6 14 -26 2 -12 -41 4 19 -14 -9 -20 -10 9 -30 8 -13 -13 6 -10 7 -9 12 -11 -10 0 25 -14 -10 -5 -15 20 -3 2 6 17 -3 3 -11 0 -16 9 22 -6 -3 6 -20 4 -1 4 -17 -10 7 -22 -8 3 3 -18 -12 -2 11 4 20 7 -3 -3 -7 0 8 11 6 4 -9 7 -4 -14 14 -22 3 6 7 21 -10 6 9 10 -13 -14 -9 -14 -16 -6 -6 14 -3 -4 -6 9 -1 13 -7 -3 -18 3 -11 -4 -13 1 8 -3 -3 -23 4 20 -11 3 -7 -7 -10 -30 14 -13 27 4 -10 -10 -3 -7 -19 21 15 -23 1 3 4 -12 -3 14 -1 -5 -17 5 -15 3 2 10 3 -14 -6 3 -7 4 5 -3 6 -4 -3 -10 -15 33 4 7 8 7 3 12 -7 -3 1 10 4 -9 -6 -3 11 -7 -5 -3 -2 -4 -17 -15 5 -3 -10 -4 22 -5 -15 3 -3 -6 6 -7 -7 1 9 28 -16 9 -19 -2 3 6 20 1 -6 29 -6 -20 -24 -7 -6 8 2 -17 -6 7 -3 -18 -3 4 -10 -15 -12 -25 6 -1 2 -5 -3 5 -15 12 -6 1 -9 4 -20 -6 -4 10 7 -26 -10 4 -8 -6 -7 -17 4 -9 3 -17 6 2 8 4 13 -16 -3 -23 -6 -3 -19 -13 -7 -1 13 16 2 12 -8 -20 -10 -5 -4 -14 10 -16 7 -17 -2 8 1 -19 10 9 -4 7 -9 6 -25 8 9 -3 15 -7 14 -3 13 -10 2 6 -6 8 -3 -22 14 -16 18 -40 19 -3 -7 -3 -28 8 -6 -6 -6 -14 7 1 15 -7 6 1 7 15 -12 -14 -12 9 -14 1 3 -2 -18 3 15 0 -24 -10 0 3 -3 -19 18 -3 1 -3 -3 8 15 -17 -21 -26 3 -2 -9 -1 -5 -10 -2 -16 3 -20 -6 -11 3 -3 -17 -14 -3 2 -10 -3 -3 5 -3 19 15 -11 -10 -7 -12 9 -7 28 -5 6 -11 11 -7 1 8 -3 8 -1 10 -11 7 -12 -28 8 4 -2 27 7 -16 -13 -7 -5 -19 7 -26 -12 15 -2 9 -3 6 -11 -6 -20 11 3 -10 -2 -7 8 4 -7 -19 13 11 -14 -10 -6 -3 -28 -6 -3 23 6 -7 8 10 -22 -1 0 11 -7 6 -3 5 5 8 21 -9 9 -16 4 -12 -15 -15 -6 -4 -9 -9 2 7 -4 -3 -9 -10 6 1 -8 -1 -3 -19 -7 4 -10 2 -2 -3 1 6 -5 8 -5 -10 -10 -3 -2 -3 7 -16 -23 13 -22 -14 12 -17 -4 -2 -10 -7 -20 24 3 1 8 9 3 -8 6 -8 3 14 -7 -16 16 10 -33 -2 -3 -7 14 24 5 20 8 6 7 1 10 4 22 -11 3 9 3 -11 1 -19 -9 -1 -4 6 -2 1 6 -3 -20 -6 -14 -2 14 -7 -3 -13 -2 -6 15 -6 -21 -10 9 -16 13 -14 -11 -6 3 16 -6 -5 7 3 3 -6 -4 -7 -3 20 -5 -8 4 -13 14 -15 8 11 -18 -20 -10 17 8 -4 -11 2 -8 13 -1 20 -1 -7 -2 5 11 -3 -7 -7 -29 -22 13 -13 -8 8 -6 -21 -3 -1 2 -23 -6 10 -15 -7 -6 -23 13 1 14 0 11 -7 -3 3 8 -20 16 17 8 -18 -2 -28 -11 -7 -13 -3 -5 10 -10 -10 -7 -11 -17 3 -30 -13 7 -23 -20 4 -2 3 -7 -11 8 11 -26 20 8 -4 -10 8 -5 -3 -9 -19 1 5 -10 1 4 6 24 -6 -3 -11 -6 8 -5 -1 2 4 -20 -4 -5 17 -14 4 -9 -7 1 -3 4 3 6 4 23 0 -2 -14 13 -31 8 -16 -6 4 3 1 14 11 -20 -19 4 5 -16 -7 1 -3 -2 -1 10 34 -15 -10 15 -11 -4 6 -13 -9 6 -9 6 13 -12 -2 -13 -1 -6 -20 11 -21 -4 -3 -19 -18 3 -6 -7 -9 5 -11 1 -3 -3 -9 -4 -7 10 -19 7 -22 10 7 -1 12 -5 -8 -1 -13 -11 -2 -6 -27 14 3 -15 -16 -11 -3 -8 -4 2 3 -10 -9 13 18 -2 -3 -3 18 -6 -7 -7 -4 4 12 -3 4 3 -13 3 -3 3 -30 -23 -6 -10 6 -8 -14 3 2 8 -8 -3 3 10 -5 31 -2 -5 -6 10 -12 -11 -19 -14 -20 4 -15 -3 -10 4 -23 -16 -14 3 -24 -11 -2 4 2 -16 25 0 -26 -4 13 7 11 -27 4 3 -30 -7 -7 7 -4 -18 10 -7 -7 7 -14 -9 6 -24 3 -7 -8 -2 -21 -6 -17 2 -21 -8 5 14 -15 -9 6 -7 -22 -11 -16 11 5 -7 6 9 3 1 -2 -13 -7 7 5 -6 -22 -7 11 -6 3 -19 11 9 9 -6 -18 -11 6 -9 2 4 -6 3 -4 1 -3 8 -7 4 4 11 -7 3 6 -3 10 -2 -10 -5 22 -3 -15 12 -2 3 2 -3 -10 -7 -3 -23 -10 5 -19 6 -10 0 -2 6 -20 -6 -6 -12 -5 3 -16 -17 -6 21 10 -21 -7 -3 2 3 15 -3 9 -29 14 20 22 6 2 5 -4 -10 -4 -17 3 10 -15 9 4 -2 2 -5 -15 3 -16 -9 8 6 -3 -12 -4 3 11 3 -7 -3 6 20 -9 -6 -5 6 -13 7 5 -22 1 7 -13 3 -4 -3 -4 0 5 -7 -3 -2 -3 -2 -9 -13 7 -7 -22 4 8 -3 -3 16 -7 12 -17 3 -7 17 5 16 14 6 -6 -9 -19 -5 4 -6 -7 -17 -25 -6 4 -6 18 -10 -5 30 -9 3 -9 -13 -4 2 6 -30 -3 11 -20 -21 -3 -24 -38 4 -7 -7 -2 14 4 14 8 -9 -11 -22 -4 -13 13 8 -5 3 10 -6 5 -3 -6 17 -18 4 -8 -5 -3 -3 9 -23 -20 3 15 -7 8 13 19 17 23 4 -21 -3 10 -3 -11 -2 -22 -8 -5 9 -6 -18 5 -26 15 -14 -7 -4 0 17 1 -17 -7 -7 9 7 -9 20 6 5 -16 3 -27 20 -12 -7 -3 -6 -12 30 3 -21 8 3 -9 -35 -8 -3 -4 -8 -6 7 -2 -3 -23 -10 -7 -12 11 10 -3 -21 8 -24 -19 9 -5 3 -3 -2 -34 -16 -5 -5 12 4 -3 -2 -3 -27 19 1 -10 -10 -3 4 3 7 -15 -24 -10 -3 3 3 11 -18 14 -3 3 -13 3 10 14 -3 -4 -4 1 1 2 -12 7 -21 7 0 -13 9 -12 -14 3 -2 -6 -10 -13 15 9 -6 -18 -2 14 10 -2 -8 -17 -36 -19 6 -6 1 -12 8 -6 -3 3 -1 -3 6 -9 4 -4 6 -14 -11 -9 -4 -6 2 -9 -7 1 -6 -5 -4 -7 -13 7 -23 -3 -5 -14 1 -10 -4 24 -4 3 3 -19 4 13 -26 7 -10 14 1 7 -24 15 -20 -14 3 -17 4 8 -3 5 -29 2 -24 -1 8 -4 -10 30 7 4 -21 4 -3 -18 -10 -8 -32 -2 11 -4 -7 10 6 4 -21 -23 7 9 -5 0 8 -3 14 3 6 -22 -2 11 -6 17 -15 -24 -17 -15 3 -5 7 9 -14 8 20 1 0 -11 14 -20 -7 -25 12 -17 4 4 -17 0 -7 -2 3 -4 -11 -30 -3 -14 -3 -5 3 -5 -3 5 19 -3 -16 3 -22 7 -10 9 -3 -1 -4 -6 8 4 -6 -13 5 -14 -1 -6 -10 4 4 -4 2 -11 17 10 -3 -2 -6 -4 -3 15 15 -7 -11 -11 -11 4 -31 -11 -4 -7 -3 -3 15 -13 -1 -5 11 12 14 -3 7 3 -3 -3 -2 -3 -8 -20 21 -7 7 -5 0 -13 4 -5 2 8 13 16 2 -10 -8 1 3 4 1 -14 -2 -19 -19 -15 5 -9 14 19 -13 17 -13 -6 -7 -6 11 2 2 10 -14 -3 3 1 15 -13 -3 -13 -23 -5 4 -5 -1 -7 -7 -9 -5 1 -7 9 -4 3 -4 2 9 -2 15 5 8 -11 -21 5 18 21 -9 3 9 -31 -14 -17 4 -3 -3 -20 2 1 -7 3 -2 4 -23 -26 -6 -16 -16 -3 4 3 -11 -9 13 13 24 3 -6 -10 -10 -6 -3 7 10 -16 11 -2 7 -3 8 3 -27 -5 -2 1 11 -9 -3 11 -5 4 3 4 3 4 -21 9 -25 6 -11 9 4 6 -8 6 -3 14 1 -2 21 7 4 6 4 -6 10 -14 -3 -3 -7 -6 3 -7 -17 -10 -7 -3 -20 15 -5 22 -24 -6 3 8 -5 -17 5 -19 -1 -26 -2 12 1 3 2 21 14 3 -5 -7 -15 -31 0 -3 -20 6 -11 -3 -10 -3 -13 -10 4 -14 -12 10 7 -4 -3 -30 -4 -4 -24 -20 -16 -14 11 7 -20 9 -10 6 -8 -19 0 -3 6 -4 -9 6 -3 -4 -4 -3 -15 14 7 -27 -5 -12 4 -7 7 5 7 -13 3 7 -3 7 -13 -21 9 -27 -11 -2 -3 3 4 3 -3 1 6 3 -10 -31 -3 2 7 4 -26 -27 -33 -3 -14 8 6 -3 -8 -3 7 -3 -10 8 -5 -18 -19 24 -16 -11 10 3 -5 -14 -7 -21 -5 -6 -10 3 31 -6 -13 -5 -6 -9 -18 -17 -7 13 -3 -6 3 -3 3 -7 8 0 7 -3 -7 -3 3 -18 2 8 2 -11 -23 -2 18 10 -8 5 4 -9 -2 3 -15 7 5 -1 3 -4 -4 -11 -2 -4 -2 -9 9 -16 6 3 -8 -8 -9 -9 -25 -14 -4 -19 -14 3 -22 9 -26 11 19 -1 -27 -7 7 -11 -16 -9 -7 1 4 -13 -4 -12 -3 23 -3 24 4 -15 -12 -3 -7 3 4 -3 -9 -7 -1 8 -17 -3 -3 7 17 -9 -5 1 -14 -4 4 -15 -2 -20 -27 -5 9 2 -17 3 -11 4 -4 -12 14 10 -3 6 -3 -4 14 6 3 1 -9 -8 -24 -7 -4 -6 -16 -7 -26 -5 9 -10 6 -25 -4 8 8 -6 -5 -16 -19 6 17 3 28 14 -7 31 -15 -10 1 6 3 -8 -11 -10 18 -6 -10 -3 5 -7 14 -3 -3 -20 -10 -8 17 -11 14 -4 3 -4 -9 8 4 -8 -6 4 -9 13 10 -6 2 8 -4 -8 -12 3 3 13 6 -3 -15 14 -13 3 -11 -17 -7 -3 1 -10 -4 -10 18 20 -7 5 -10 -3 24 3 2 -11 4 13 -5 -17 1 -3 19 -1 5 -4 -20 11 -5 -3 -6 -1 5 -3 -8 11 13 6 7 -12 -20 -11 17 4 -2 -1 -16 -5 3 -14 6 -23 23 3 -4 -6 -14 -13 -3 -12 -9 10 11 -4 -10 -2 6 -13 -14 -7 -17 21 -18 11 -7 -10 -4 11 -16 -3 -4 14 7 6 3 7 -24 -29 3 7 -7 -9 -17 3 6 8 3 9 -15 -7 1 -10 7 -3 4 -11 -7 -19 -11 7 -8 -18 -1 18 -15 6 9 -3 -1 1 3 -2 3 4 -19 1 -6 7 -2 4 -12 7 8 -3 -6 3 -13 -6 10 19 11 10 12 4 -23 -3 -11 2 -1 10 -11 5 23 14 -12 -4 3 -7 -9 6 9 -22 -5 -14 3 6 1 6 12 1 -3 -2 -19 10 -6 33 7 10 10 1 -22 -20 21 3 2 10 8 1 -13 -3 10 -4 -9 17 7 3 -3 -8 3 -17 1 5 -16 -24 -12 -11 -2 -7 18 -32 9 3 -3 -20 -6 -12 3 4 -11 9 -3 5 -6 7 3 -3 10 -16 -4 10 6 1 -3 -2 -18 -20 -5 -5 14 -14 -16 -1 -48 -8 -10 -17 7 -8 5 -3 -6 -14 -16 3 -3 20 -15 -24 34 -25 -2 -3 -5 1 -9 -33 -4 2 3 -13 2 -5 2 -19 -3 1 4 4 6 -2 -3 5 3 -14 8 3 -19 -26 -17 15 3 8 -1 -10 5 14 -8 -3 8 -10 -10 6 -11 -11 -10 7 28 -14 11 19 27 -3 6 -2 -3 -17 -3 -1 8 -5 -29 10 -14 4 9 -37 8 -6 -10 4 -12 -6 2 -37 2 -11 -3 -10 -3 -19 -21 10 -2 19 -3 -1 8 -5 -4 -7 -19 -6 -2 -21 3 -6 -2 2 -6 10 -7 -3 6 -3 11 -16 9 -27 5 -10 -4 2 -1 6 3 -12 -10 11 -12 -15 21 -11 -3 -6 -26 -20 -7 -9 -9 3 -6 -27 -32 -3 -1 17 -12 -16 -17 -20 11 -12 -4 -6 -17 -42 1 5 -19 -5 -2 2 -6 -14 -7 -3 12 -9 -31 20 8 27 -9 -21 3 3 -8 -30 7 -21 -3 -4 10 -3 -28 -11 1 19 -22 -6 8 -2 2 12 -9 15 17 -9 -7 -13 -9 -10 24 6 4 15 -21 -16 3 4 -3 -7 6 -12 -7 10 -9 2 4 -14 -10 15 7 -21 -6 -10 3 -14 16 13 -6 3 4 -3 1 -14 -14 24 -19 -4 2 6 19 -2 9 -17 4 14 -4 -11 3 7 12 -8 0 -26 -3 -20 -7 -10 10 -12 -6 4 -7 -3 3 -3 16 -2 3 11 -16 -4 -15 15 18 -12 -7 7 -1 -6 9 -20 -6 7 -14 -1 -18 31 -8 -14 -6 24 7 -14 -5 -15 3 -7 8 -8 11 13 -2 -13 21 -6 -10 -8 -14 4 -7 -4 -10 -30 24 6 -6 -10 -1 -3 -6 -14 3 24 7 8 7 17 -10 6 26 7 13 -3 -2 -33 -20 -8 -18 -9 18 7 7 -2 10 -18 -3 28 7 2 -8 8 -7 7 -7 -11 -5 1 -1 -4 5 3 -21 -14 -6 3 23 13 -3 -10 -21 -3 4 -13 -2 3 -1 11 -10 -29 -4 1 -17 -3 -6 -23 10 -10 8 -22 -11 -3 -14 3 29 -8 15 -7 -3 20 -3 -7 -22 -8 -3 -8 -10 -12 -15 25 7 -14 1 3 6 1 -15 1 -10 -3 -4 5 -12 -4 -25 -18 -11 4 -3 -8 -20 2 -3 -14 -2 -7 -10 12 -13 7 -8 4 0 18 6 -15 22 -23 7 -1 -2 14 10 3 3 3 10 -17 -8 -3 -27 9 3 3 -8 -3 -10 -10 -10 -9 -3 -9 -14 3 -3 1 -10 3 -15 -6 12 7 3 7 -18 18 -14 -17 3 7 6 -28 10 -2 -5 2 15 -3 -17 -22 -5 -13 -7 -11 -7 -6 15 -24 6 13 3 -14 -18 4 -17 -22 3 -1 2 -15 11 -5 18 8 -12 2 -13 22 11 -7 -4 8 -16 16 -6 38 -9 8 -1 -6 13 -20 -2 -3 10 -20 3 -10 10 -12 -14 11 2 -13 15 0 6 10 15 -12 -8 -4 10 -5 2 -26 -6 -10 3 4 11 -2 14 -9 -22 -20 -11 -6 -3 8 3 3 -3 -3 -8 11 17 -19 -3 -5 2 -6 -13 -8 -3 -7 -5 3 -3 11 3 -4 16 -31 -3 -7 -18 -16 -3 -12 -4 22 -15 -4 11 11 8 -22 -17 -5 4 -9 -11 -8 6 -10 -12 -6 5 1 11 -16 4 -13 10 -13 -10 11 -11 -11 -3 -22 -8 -18 -3 6 -9 -3 10 -5 18 13 -3 -26 3 -7 3 8 9 8 -13 -18 -11 -15 -2 -18 -2 -7 18 -14 -15 -7 1 4 -11 5 3 -5 11 -13 -15 4 14 -9 -15 -23 -18 13 -15 10 14 -13 -7 9 -10 19 -14 -7 9 -10 -8 -3 -3 -3 11 4 0 5 -13 -13 -4 8 14 -14 14 4 -5 3 -3 -2 2 -3 5 -3 7 -13 -3 -3 -3 -3 20 8 3 -30 4 -19 -16 -1 -14 0 -10 -6 -4 6 3 15 11 -6 2 1 15 -19 -18 -5 6 5 -3 4 5 -1 0 -1 -14 -5 -8 -9 -3 6 3 2 11 11 5 -6 -13 7 -3 2 -8 -32 7 -3 -14 -11 11 -8 1 -21 -20 5 -6 -4 -13 2 11 -8 -2 -2 -23 -12 -24 -23 7 -27 -18 -3 3 -6 -5 -6 -5 -3 4 -16 3 6 12 11 18 -3 3 -18 -24 8 -39 4 -33 -2 -2 10 1 9 10 -2 5 -24 -9 -8 -5 -14 6 10 -6 21 -9 -12 5 -2 -3 3 -3 4 -10 -12 -3 -14 -9 -5 -3 1 3 -19 6 -13 -13 -9 -18 17 -3 0 1 -1 -18 6 -7 4 -4 4 14 6 -16 4 -31 -3 27 3 -2 -30 -7 4 -33 3 -17 20 19 -7 -13 -3 25 3 3 -18 -19 10 -30 -18 9 11 7 8 12 -15 -19 9 -12 -11 3 -12 3 -10 -7 5 2 -26 10 23 3 3 -4 -3 -7 1 -10 -7 -4 -24 -3 8 -12 -3 -10 -3 -10 -3 -15 3 5 11 14 1 14 -5 -3 -11 14 -21 -4 -14 2 7 -15 -28 -6 -3 -4 -5 -13 -7 -6 13 8 -3 -13 -3 1 -3 6 14 8 -9 -10 -15 5 3 -5 -3 -13 -14 -4 -1 -24 -4 1 -7 -14 -16 20 -6 25 -3 10 24 2 -31 -13 -10 -3 -12 19 -1 15 -3 -12 -8 8 -4 -3 23 -3 -23 22 -3 15 -6 9 30 -6 -1 8 3 14 -27 -23 -2 -36 15 -4 -6 -3 7 -13 11 -3 3 3 3 -9 3 -7 -3 4 -13 -7 -7 -11 -6 -10 -13 -17 -3 4 -9 -3 7 12 10 0 -6 -4 3 -21 -8 -5 -7 -18 -4 -5 -17 7 -11 -2 -10 -26 7 2 4 -17 -4 10 -6 8 -23 -7 1 -21 -13 -1 22 -3 0 2 6 -8 -16 8 15 -1 -10 -18 -3 -12 -17 27 -10 -5 -14 -9 -17 -7 7 -2 12 -7 -7 -3 -3 27 22 29 4 5 11 2 1 17 17 11 -13 -2 -1 -7 15 8 -1 5 3 -20 -3 -3 6 -12 8 7 22 -47 2 3 -3 -21 -5 -2 -10 10 -9 -11 9 -6 -3 6 -10 -13 -7 -6 -5 12 6 -1 3 -6 -22 -7 -2 -3 -13 6 5 -7 -8 17 -11 -11 -15 4 -4 -20 -6 11 9 8 17 4 -23 -7 4 -11 6 6 -16 12 -16 -3 -12 14 -3 3 2 -9 3 -4 -24 3 -5 -1 -8 -17 7 -10 -6 -3 2 11 11 -6 -3 10 -7 -6 -12 14 -10 -4 12 -22 2 -3 6 -3 -16 7 -7 -1 8 -3 26 4 4 -11 7 -11 -3 -2 -10 3 -7 -2 13 -22 -7 2 -2 -2 15 -3 -1 5 -3 15 10 8 -9 -4 -22 -12 -10 18 14 -13 -16 11 -4 5 3 3 2 9 -5 3 4 -3 -7 3 -10 -11 -7 -15 6 -5 -8 -13 -24 -1 13 -17 -4 -14 11 6 12 -5 0 -3 3 -5 -6 1 -7 8 4 5 0 7 -17 -15 -11 3 -18 7 -3 -7 7 3 -19 -14 -3 2 -7 17 -4 -11 -12 -11 5 12 4 -19 -5 -7 -3 -3 -19 4 -7 2 16 6 -20 3 -17 -1 11 -6 9 -2 -3 18 9 18 3 6 0 -6 10 3 24 4 -10 -1 6 -5 -3 -9 -20 9 -11 -14 -1 -23 -10 11 -22 -3 -1 15 -4 7 7 -7 -11 -2 18 0 -10 -13 -14 -9 -3 6 -5 -4 11 21 -2 -3 2 -11 -6 -13 -11 -5 -18 14 -2 3 -24 18 -10 6 2 -2 -7 3 -5 -24 -7 -3 -3 -17 -14 17 6 6 -7 12 -8 1 24 4 -3 0 -8 -12 10 10 -13 13 2 -11 1 -7 -1 3 11 -8 4 -8 17 -8 -7 -3 6 -3 -3 -27 -6 -17 7 14 -9 -2 7 -3 -8 2 -1 -6 3 -11 -20 -8 -7 -7 10 -16 23 4 -15 -12 8 9 -22 10 3 -16 -6 -5 -14 -2 1 19 -26 -15 6 -4 -33 7 -15 14 -4 -14 -20 4 -9 -15 3 -7 -7 -4 3 6 2 -1 -17 -3 -13 3 -9 -7 3 -3 1 -6 -7 7 -36 10 8 -10 4 -9 -17 27 -31 -14 -8 3 -3 -15 -10 -6 -3 -14 -18 -21 18 3 10 8 -10 -3 -17 10 17 3 6 -5 7 3 10 16 -1 13 -6 -17 -21 1 -2 -2 1 -13 -8 -7 -11 6 -3 -20 8 17 -14 -27 7 3 -12 -10 -19 -3 -6 -10 4 -7 -2 7 -17 -1 3 3 -6 -11 -16 1 -16 -3 -4 -11 -3 -4 1 -10 -6 19 -19 -17 -8 -1 1 11 29 17 -14 -17 -6 3 6 -3 -3 -1 -10 -28 -3 -7 23 -3 -3 -7 12 -6 19 0 9 -14 -5 -3 11 6 1 -13 4 -3 23 -15 4 -10 9 -22 -7 -14 12 6 -3 -11 -3 -7 -4 -3 2 -17 -14 4 3 -15 -10 4 -26 1 0 -7 -7 -12 -11 -15 -1 5 8 -13 -19 25 -17 2 -10 -14 -13 -4 7 -3 -19 2 8 23 20 10 -12 1 9 21 -10 18 3 1 1 -8 -1 10 13 -14 -6 0 -10 -6 19 5 -4 -27 -12 -28 -13 -16 8 -16 2 -3 10 4 -11 -11 -9 -3 6 -13 -3 -14 -2 -14 -6 -12 -18 -10 -10 2 7 3 -3 14 -20 2 14 -8 1 -3 -26 -3 13 3 3 -13 -7 -3 -21 19 8 18 -3 3 11 14 21 13 14 -2 -6 -28 -22 3 -11 2 4 6 4 15 5 1 -17 -7 17 -15 -5 5 6 -3 10 7 10 10 7 14 8 -17 -6 3 8 3 6 -1 16 -3 17 -34 -2 -17 11 -17 -20 -7 3 1 -3 -3 -3 11 8 12 -20 -19 -9 -21 2 2 -23 -3 18 14 -4 -6 -3 -11 5 11 -4 13 -10 -9 10 9 -2 1 17 -2 -1 -9 11 -15 -18 10 12 20 -16 -20 -8 5 -11 -21 7 2 -13 -9 3 -5 6 -6 -23 7 -20 -6 17 -3 -7 -13 6 -17 -14 -16 -4 -27 -21 -9 -20 6 -26 3 -35 5 9 3 -11 -11 4 3 5 -3 3 17 -27 19 3 -26 -13 -19 8 4 3 -7 -6 -5 6 -5 -9 1 10 -21 -6 1 -4 -20 -12 -6 -6 21 10 -12 14 14 -5 -11 3 24 -3 -9 -3 8 6 2 -3 4 -2 -18 7 -5 -13 3 -18 14 5 -6 -7 7 3 -29 -3 3 14 16 -8 6 -3 -17 3 -5 -5 -3 -2 -6 4 -18 18 4 1 7 -7 21 -16 -3 -10 2 1 -11 7 -14 -3 -5 11 4 -3 -14 -14 -7 -31 17 -9 -7 -10 3 11 -9 -8 -2 -3 3 31 -6 -6 8 -18 -16 -12 -19 16 -7 -9 7 5 -10 -16 -5 2 32 -4 -19 -19 -6 -26 21 7 5 -24 -12 14 -3 14 -15 3 -3 -9 -3 -6 7 -16 -19 -7 -14 -3 -12 2 1 -13 -5 -4 0 1 5 -13 -16 -3 7 3 -18 -15 1 -10 -2 -3 15 4 -21 -2 -10 -13 -22 7 -12 -14 -9 6 -2 3 -17 -3 -17 -6 6 -14 -8 -13 0 -8 3 -6 6 3 -7 -8 -15 -4 4 1 -25 -5 -13 5 -6 20 -9 12 -24 -3 3 7 13 -8 -10 -8 -6 11 4 3 -5 7 -14 -24 7 5 -10 -22 10 -27 -13 -10 3 3 -17 -7 -7 6 -3 3 10 4 4 -2 -12 -2 -3 -11 -9 -6 -7 -23 -27 -10 11 14 -18 -12 9 -10 -10 4 -16 -4 8 -13 -16 7 20 7 10 -1 -9 3 3 -3 -12 -20 -3 -26 1 3 -13 -27 20 12 -10 -17 -3 7 -14 -7 3 -5 -3 -8 -18 -19 -7 19 3 -3 15 -14 24 -9 23 -7 -7 -6 13 -19 14 -17 8 -38 -3 -6 23 4 2 -25 -1 10 9 -6 2 -31 -8 -17 17 11 -3 -27 -1 -18 3 2 -4 1 10 -27 -3 -9 8 27 -5 -3 -3 6 -7 20 -8 -6 21 23 -8 -12 2 10 -3 -17 -6 -2 -16 7 -4 9 -7 20 -14 -3 8 -4 -8 3 -4 -10 -1 6 -6 -7 10 -7 -10 -12 1 3 3 7 -14 -9 14 4 8 7 -6 -25 -6 -14 17 2 10 11 -3 3 -3 14 -9 -3 3 -7 -2 3 12 10 7 -18 27 4 25 -25 7 -4 -4 6 17 7 3 -5 11 -14 8 -13 4 -5 -32 4 7 -10 4 -3 -4 8 3 -33 7 8 -6 -13 -24 -1 -8 14 -7 -5 13 -2 -2 -4 -12 -3 -17 -7 -11 4 16 3 -16 8 -10 -8 -12 6 14 -6 8 -14 17 8 -5 -13 -7 -4 -7 -13 -18 -3 28 23 3 1 -2 -13 -22 -6 13 1 -11 3 -11 6 -2 15 -4 -3 8 6 1 16 3 12 4 -19 -8 4 -15 -12 -3 -6 7 16 21 -6 3 -4 -6 -4 -10 1 17 -28 -8 14 -11 19 -5 4 3 -5 4 -32 -9 -9 -12 -11 4 -12 -15 -9 -3 -13 -12 -3 -1 4 -16 -2 17 -6 -11 -17 9 -6 -3 6 12 17 13 -18 -16 8 10 1 8 -1 10 -5 -13 -12 -3 10 26 -6 3 5 4 -21 -22 -11 -13 15 -17 -7 3 -7 20 4 -1 -23 4 6 10 3 -6 6 3 -19 3 -13 7 5 4 -3 -6 11 19 -26 -25 4 -7 -9 -11 -12 7 -20 -13 -6 -4 -10 8 -16 -11 20 -14 -8 3 21 -17 -3 25 13 -3 -3 -6 3 -2 1 2 1 2 10 -8 -23 -9 17 -14 -13 -3 -3 -3 16 -10 -8 30 -7 -1 -19 -4 -13 8 -3 7 -13 -12 1 8 -4 -1 -3 -3 2 -8 -5 -10 -13 5 8 -7 17 -10 -14 14 18 3 -15 14 -7 2 3 16 -3 8 -9 -6 -4 -14 2 -18 14 -11 -28 -28 -5 -3 -5 -3 3 -17 -6 7 -15 -26 10 13 -3 7 -9 -18 -2 7 -1 -16 17 -11 8 -1 11 -6 16 -5 -2 -19 14 4 21 -31 -5 3 7 7 18 -18 -6 -20 -13 -7 -3 -3 -28 14 1 -13 8 4 -1 3 5 -3 -17 16 -7 5 13 6 4 8 -8 -4 8 8 11 1 -13 3 -17 -16 10 0 10 3 4 6 -18 -2 -4 -8 1 -7 8 6 -13 14 25 -19 -7 -6 6 -30 -13 -7 3 -6 -2 4 8 -8 -23 -36 -1 -18 -4 -3 16 3 -4 -6 -2 -4 -11 1 -13 -17 -7 13 13 -20 4 -4 -10 6 -7 -2 7 7 -14 -16 -7 -25 8 1 -6 -22 -3 -3 -1 -14 -7 -10 -13 -4 -17 -3 -11 6 6 4 -7 -14 3 10 -6 -2 -16 -7 -17 -5 20 -2 6 -3 -12 -5 5 11 -11 -18 -3 3 -5 -11 11 13 -5 0 6 -3 -9 -5 -14 3 3 2 7 1 11 5 3 4 -3 13 -6 21 -4 -3 30 3 12 -11 -8 3 -20 -3 14 -20 -20 -13 -7 3 -10 -11 3 9 -5 18 10 11 2 3 -20 -3 0 13 -10 2 4 -1 17 -6 11 -13 -11 -5 -14 3 5 -3 -11 17 -17 4 -2 -2 29 6 0 -13 -19 -6 15 5 -13 6 0 0 -6 19 -6 5 -2 -18 -1 -1 8 -20 -26 3 -10 -5 8 -6 -14 -10 -6 -4 -16 -3 -12 0 -6 -17 23 16 -32 -2 24 -14 15 -16 -2 -27 4 -12 -32 -19 -11 -5 -3 -1 -15 -3 -11 -2 -6 18 -21 -11 -7 16 1 2 14 18 -20 -32 1 2 14 -10 -3 -10 11 -1 6 10 1 1 3 -2 -2 -5 -31 11 -9 6 -3 18 -24 -7 11 -30 -3 10 4 -15 -14 -6 -13 7 -1 15 -1 -7 -8 -3 7 -7 -13 7 -9 10 -14 -11 -5 5 4 -17 5 -30 -14 2 2 10 3 -29 8 -5 -2 3 10 21 -13 -13 21 6 -21 4 -4 -3 -16 -26 -24 -3 9 -7 5 -20 11 -2 -2 -17 -3 -10 3 16 21 -10 -11 -3 -6 -3 -4 4 0 -10 -7 -13 1 -14 -17 -10 -13 -22 7 11 -6 -11 -3 -6 18 8 -22 -4 -11 -14 1 2 10 6 -3 7 -10 23 -14 -9 -19 -10 24 17 -11 -6 6 -7 -5 -8 -24 2 -15 6 3 15 -6 7 -5 3 -8 6 4 3 -10 17 -10 -10 35 3 6 -12 -11 -3 -31 -1 -5 -17 -12 -10 -8 10 -3 -19 -7 4 3 18 -17 12 -20 -3 4 -17 -10 -23 14 10 -29 20 23 -1 4 1 21 -3 -6 -6 -10 -13 -10 -25 -5 4 7 3 7 -3 -16 4 -2 -1 4 18 -13 5 16 3 6 14 6 -14 -6 -5 -7 -10 1 -9 6 9 14 11 -7 -20 -3 7 -21 -9 3 3 -10 18 -10 -16 4 -5 11 -2 4 -18 -9 8 -7 3 14 30 -8 -4 -3 -10 13 -3 -3 23 -3 1 3 -14 -1 14 -3 -3 -3 1 22 -21 -5 6 -2 1 18 3 7 -3 -3 9 -1 -16 7 -17 -31 8 -7 -17 8 -5 10 -10 -3 -3 11 21 -3 -10 -17 -8 -3 3 -19 -4 13 11 -40 22 3 -6 -34 10 6 15 -10 5 -5 32 8 -6 -4 -11 -17 10 7 17 5 -7 -7 -7 12 -16 9 -21 -15 -7 -1 -24 4 -17 -9 -10 -24 -4 -10 14 -6 -9 3 -3 -8 -27 6 -8 1 -21 1 7 -7 6 -12 18 11 -30 -4 15 -3 6 -11 11 -31 -21 -10 -7 -14 -14 -25 4 3 -13 -14 -9 -5 1 -4 -1 -12 11 -16 24 -21 5 7 18 17 8 6 5 -1 3 -4 -10 -11 -8 -10 -6 -3 -6 4 10 -7 -7 4 -3 -3 -21 -6 -6 -6 -4 -7 -11 3 8 4 -14 -12 -6 18 8 31 -5 -3 6 -13 -6 3 3 3 4 -13 -10 8 5 21 -21 -3 -20 7 7 -23 3 -17 -16 -3 3 -3 20 -14 -3 -1 6 -6 -27 -5 3 -13 9 -6 1 11 3 -22 -2 -7 -2 1 3 -34 -5 3 7 3 -6 12 3 -5 -7 -22 20 6 18 -9 6 -6 -6 -5 0 -14 3 -8 3 -6 4 -16 17 -7 -8 -13 3 -3 8 -24 6 4 -7 6 -7 -17 -3 3 3 -11 -14 -24 -16 -22 -18 3 -7 6 4 -14 -10 22 2 7 7 15 -10 6 -2 -7 2 -3 5 -13 -21 -7 -26 -17 -6 6 -12 1 -7 7 -4 -7 1 -6 3 -3 4 -2 -24 8 10 3 13 1 -11 -11 14 -16 -10 17 2 -14 8 -14 3 -9 -11 -23 -9 20 -3 8 -14 -10 -3 -10 6 12 -4 -3 2 -6 -10 0 -3 0 -3 14 -6 14 -11 -18 2 6 3 -5 -20 -1 3 3 -7 -5 -10 10 -3 -3 4 -4 -7 1 9 -7 -4 -7 -8 -16 -17 6 -30 -9 -7 -2 13 2 20 -26 9 17 3 -2 18 6 -3 -5 -4 -19 -6 -9 15 -3 14 -17 -15 -10 12 -16 -17 -13 -11 -36 8 2 -1 10 4 9 -14 -3 9 -6 -6 -21 -5 4 7 -20 -4 15 6 7 -6 3 -19 -13 7 23 -6 -8 -15 -6 -18 32 -17 -10 -16 10 -6 -3 -3 4 9 9 -2 7 -8 -9 -11 7 7 3 -17 -3 5 -18 3 4 8 -5 5 -3 14 2 -9 5 20 8 25 -4 -17 -5 5 3 0 -16 -3 -9 11 3 -2 -8 -9 -14 23 -9 -7 6 17 -6 -14 -3 -16 -11 -13 -26 5 11 -20 11 21 -14 -4 19 -2 14 -10 -15 5 5 8 2 -5 -17 2 7 -6 -9 3 -8 -15 2 1 8 -19 -9 6 -31 -17 -17 -4 2 -9 -3 9 -3 4 29 -9 -3 2 -7 7 6 -1 -3 -22 -8 3 -12 -7 20 3 0 4 -23 28 -6 -18 -9 20 -9 -3 -5 -3 -3 -10 10 -7 0 14 -12 -6 -18 -12 -8 11 6 -7 -8 8 -2 7 -37 -2 -7 -5 0 19 3 19 20 -7 -12 7 -16 -7 -10 -14 -13 1 -6 -16 -6 -20 -27 -10 7 -6 16 -7 -6 -18 10 -7 4 -14 3 2 20 -25 8 10 -10 -22 15 1 5 4 -4 13 6 -14 7 11 -17 -2 6 -7 -3 -7 -2 -8 21 3 -3 3 6 -4 -3 3 -13 4 -6 -4 11 1 -13 -24 12 -12 -10 -4 4 1 -13 13 -3 5 -5 -12 3 -20 6 -14 -11 -1 4 9 5 -1 -6 -7 -16 7 -9 -22 3 -7 -6 -26 6 -1 -14 -7 -6 -10 8 -38 5 6 -14 25 -6 11 -15 3 -7 3 -3 -5 -3 -12 13 7 -5 -6 14 -25 -34 -26 9 -14 -4 32 -2 -3 -6 6 3 4 -5 -6 -3 -3 10 -6 11 17 -17 -7 -1 -6 -3 -6 20 3 -15 -18 -5 -18 -13 3 8 -13 10 -3 -19 -18 -5 3 -13 -17 11 1 -6 -10 17 -3 14 -2 -23 -26 -15 -6 4 7 21 0 6 -20 -3 6 3 -14 -10 3 -6 -8 -13 11 -12 -13 -1 4 -23 -24 -13 -9 -14 -1 -2 7 -2 -14 3 -21 8 13 -8 3 -6 5 -9 -10 7 -27 -22 7 -16 7 14 12 -20 -2 4 -6 10 -3 -7 -6 -3 -17 -14 -4 4 -2 6 -3 -22 -15 8 3 -10 -24 7 -18 7 -11 -13 7 6 -32 1 15 -19 14 -13 -8 8 12 -13 3 20 -21 -8 -4 -6 -14 1 -5 -2 -8 -17 -10 -3 -27 4 -26 -3 -3 -14 15 -12 4 -4 -6 3 16 -7 -13 -13 7 -8 4 -7 5 7 4 -19 34 14 -11 -5 -18 -5 -12 -6 -2 -38 3 -21 4 -3 6 8 1 5 -14 -8 -2 -12 -7 13 -14 -19 -13 -17 -7 -9 6 -4 -11 -23 -11 -10 10 17 6 -4 -19 -4 -15 -13 13 -3 13 5 -14 -12 -9 9 -4 -5 10 4 -19 -43 -3 4 -16 3 -16 4 -16 -12 -21 -26 1 3 -25 20 6 6 -3 -23 -6 -4 -16 19 17 -25 -1 -18 -5 -17 3 -11 6 6 6 15 7 -13 13 28 -10 -12 -18 -7 6 -1 14 -10 -3 -3 -14 -16 -6 3 1 -2 4 10 -3 2 -5 -7 6 -21 -7 16 14 10 -17 -3 -29 16 8 1 -3 -21 -17 20 -34 -3 -1 17 6 -15 16 23 3 -6 -7 -3 4 8 7 -14 -10 -7 -13 -7 3 -10 -5 3 -4 -17 -7 7 18 -2 6 -12 -9 -6 1 -20 -19 3 -19 -17 -8 7 -7 -16 4 -12 24 -10 -10 -18 -3 12 3 2 -3 10 -3 4 -4 -3 -27 -3 -11 8 32 4 -11 -5 -6 -15 -14 14 -3 -14 -14 -28 -22 14 -10 -4 14 -8 12 -7 3 -15 -15 -4 2 -8 -6 -35 -4 -6 2 -8 -3 -3 -23 3 -4 -3 -27 -9 -20 9 -15 3 3 7 -3 8 -6 9 -21 10 -5 3 3 14 -6 9 -3 -7 -6 -6 6 -9 6 1 -6 -9 3 -14 -22 -7 7 3 -17 -2 -8 12 7 1 -5 -6 8 3 -28 15 9 -5 4 12 7 5 -3 -2 7 -5 -5 -7 17 -21 4 -10 -3 -4 10 10 -5 4 -11 7 8 -7 9 14 -3 3 7 -11 -6 -11 -24 -2 -11 -10 1 -4 -3 -14 -7 9 -16 17 -19 -3 22 1 14 -13 9 -1 6 -11 -27 -5 -7 -25 -12 4 8 -3 -4 -19 -10 13 3 -7 -14 7 3 8 -4 -12 -6 -3 7 9 -10 1 -6 -4 1 3 2 -10 -15 -15 -14 -24 8 6 2 4 -6 -6 14 6 2 -25 18 15 1 10 -16 3 -27 -6 -17 8 6 -11 -24 -6 -1 1 -10 3 -24 -17 -16 7 -10 -13 -17 10 -19 -3 7 -8 -3 -17 -2 -39 -1 4 -3 -20 -5 3 -24 -1 9 3 -3 -6 15 12 -3 -21 -10 2 -9 -14 -13 -4 -3 31 3 -1 -19 3 -6 1 -1 25 13 -31 -16 -3 -20 6 14 1 24 7 19 16 -11 2 -28 -2 -3 3 -1 2 -3 -10 -10 -8 -18 17 18 14 -3 -3 -7 25 -12 -6 -2 -6 -6 8 -13 14 15 -17 -7 -11 3 -1 -6 2 -3 -1 11 -10 -1 -6 16 11 -6 8 -19 -16 4 13 -23 20 11 -7 3 -15 -11 -8 8 3 7 -17 26 10 3 10 5 -17 -1 -3 -13 -7 12 6 10 -6 -32 -7 -13 7 3 3 2 -7 -4 13 3 17 -9 -23 13 -39 -3 -1 0 10 -20 -19 -4 -6 -6 1 -20 -15 4 -6 9 -2 11 -17 -27 18 -12 4 -7 10 7 -3 -25 -14 -9 -7 8 -3 7 2 3 -10 -12 -22 -7 14 6 -10 8 -3 -21 0 -12 -10 -15 -31 -8 5 -15 -14 12 9 3 -5 20 -16 6 -11 18 -25 4 12 7 4 -12 1 5 -1 3 -3 3 -19 4 -4 3 3 -3 -3 -2 -17 -10 -13 1 -7 1 -2 7 -6 -21 31 8 -6 -2 7 1 17 -9 -18 10 11 6 -5 13 6 -11 1 -15 14 -3 26 -17 -9 -13 -17 12 17 -2 -19 -24 17 -3 5 4 -6 8 1 -9 -3 -16 14 20 7 4 -17 3 -10 17 -13 -30 28 -14 10 -20 -6 11 -6 9 7 0 7 13 -19</t>
-  </si>
-  <si>
-    <t>JSB(2.1892055759067643, 4.053191872958006, -27.960448041614654, 173.1211623301437)</t>
-  </si>
-  <si>
-    <t>30 43 31 52 51 22 23 41 18 30 61 39 25 44 41 23 40 34 37 31 22 31 45 45 38 26 34 24 26 41 40 46 30 53 29 41 46 26 36 36 34 27 20 20 26 45 31 48 29 31 33 32 51 43 38 27 35 37 28 51 55 41 61 41 32 44 43 28 50 31 31 51 37 24 57 43 40 26 44 28 37 34 35 33 31 43 37 35 46 23 24 41 40 40 17 44 43 36 36 56 37 16 37 50 26 36 45 46 32 21 26 38 38 34 45 46 33 44 32 32 27 41 49 30 45 16 51 45 34 33 39 20 37 27 33 52 43 22 27 44 31 50 23 42 42 33 35 70 35 31 62 37 47 47 22 23 39 53 29 47 43 53 34 25 32 30 27 51 33 39 36 33 42 32 30 44 50 49 26 27 33 45 22 40 39 35 48 45 16 28 23 38 27 35 66 16 30 38 37 33 29 23 40 49 51 26 48 31 27 36 31 35 37 33 53 41 32 52 17 51 29 31 18 45 26 28 33 28 21 35 23 38 51 24 23 40 44 29 39 32 47 39 41 47 38 20 23 36 44 33 41 29 60 37 34 26 38 29 30 26 32 37 57 30 38 34 29 37 55 51 49 37 39 30 27 43 37 48 38 30 37 37 49 35 35 57 37 35 39 43 43 26 28 32 55 18 27 47 25 30 30 38 24 32 32 49 43 41 27 23 34 24 35 40 28 26 50 49 31 28 31 57 31 44 20 14 38 33 55 25 60 51 29 41 20 48 50 41 33 42 34 63 17 23 34 30 45 23 39 48 50 38 37 32 33 30 29 27 30 31 41 26 27 35 47 35 42 45 46 60 45 33 27 40 47 43 41 23 38 33 36 29 56 29 26 32 29 33 32 44 42 36 20 26 46 36 52 38 28 22 37 45 29 39 23 25 41 35 27 40 37 27 51 23 38 42 32 44 32 46 29 26 31 40 29 47 34 44 35 30 44 10 29 20 63 35 36 24 34 44 35 43 43 25 35 26 43 54 38 23 26 50 50 43 23 25 26 29 51 20 24 26 26 28 51 37 43 43 36 35 31 33 30 27 43 17 30 48 30 51 30 41 38 33 45 17 35 36 30 37 38 32 33 45 23 48 36 36 41 27 33 53 43 44 27 39 33 19 35 41 45 48 29 43 45 45 51 48 29 48 35 33 27 42 26 23 26 24 22 57 33 44 58 40 50 18 37 26 41 30 40 41 49 38 43 44 32 13 38 36 33 49 46 38 28 34 22 40 35 41 28 30 27 40 51 23 44 39 36 44 27 33 23 36 55 26 27 41 38 44 48 44 27 15 21 38 38 48 34 32 30 49 39 37 28 43 34 22 44 36 37 30 44 34 36 28 46 48 46 30 29 45 44 34 49 23 45 29 44 33 34 41 26 43 20 43 39 47 41 39 37 38 40 38 26 46 45 36 49 36 33 29 30 27 57 48 31 23 32 46 27 33 34 30 23 31 29 43 34 46 37 34 42 33 49 39 42 37 40 40 23 35 27 10 29 18 26 45 46 34 29 19 35 37 15 45 23 13 31 54 52 29 27 48 53 51 43 48 44 49 33 37 32 37 23 33 26 37 47 29 29 28 42 33 26 25 26 28 44 22 42 36 43 35 51 40 45 34 35 30 37 29 37 29 47 43 46 52 19 46 29 33 39 62 38 48 52 29 43 36 46 37 35 43 28 30 30 40 26 40 43 42 44 33 35 47 19 22 26 29 14 47 52 30 42 41 47 24 69 28 37 19 31 27 29 34 26 24 26 40 25 40 30 26 44 37 28 33 30 43 40 39 24 40 40 43 61 49 23 19 57 34 35 43 33 24 47 29 40 56 42 38 43 25 26 34 27 36 23 33 33 38 23 27 25 52 47 40 33 16 30 25 46 23 50 33 23 29 54 23 35 23 21 39 50 23 43 53 35 27 41 17 32 31 44 55 23 39 52 35 46 35 44 58 41 44 54 19 38 35 41 29 19 40 42 45 48 28 51 39 41 37 37 34 16 39 37 45 29 29 26 40 39 45 30 19 41 43 51 33 27 39 57 40 40 25 23 43 33 28 53 47 29 48 40 63 30 34 52 48 32 35 37 29 55 47 53 29 28 56 29 28 30 23 25 29 42 23 42 53 25 41 25 31 37 51 37 44 57 44 51 49 27 33 40 45 49 27 35 39 36 34 50 40 33 23 34 64 31 44 38 33 30 45 41 47 42 36 41 65 28 29 27 13 12 46 38 26 32 36 29 43 9 42 28 29 38 31 49 29 53 13 26 33 19 32 27 37 33 36 34 49 40 37 23 43 38 38 18 37 23 32 48 16 47 39 33 44 19 24 36 44 33 30 36 43 45 29 44 29 40 23 45 36 30 43 30 45 49 45 45 35 43 38 33 30 47 33 41 31 45 43 16 39 44 31 26 54 38 40 49 40 33 24 56 24 23 29 23 33 27 22 20 40 17 36 51 37 29 39 29 29 41 24 30 33 43 19 23 33 44 33 29 29 29 31 30 31 17 34 20 27 45 37 36 31 30 37 58 27 23 41 46 36 30 34 36 32 34 23 33 46 27 20 41 39 22 33 47 32 39 39 28 39 23 31 43 45 12 44 29 24 42 33 46 47 19 47 26 27 42 29 25 29 26 33 37 37 30 51 32 29 16 41 29 43 25 43 36 36 37 51 48 60 26 23 26 34 50 29 53 35 28 37 33 49 41 39 34 23 29 35 34 50 40 49 44 36 19 34 48 49 30 27 13 30 19 20 44 43 57 50 39 47 27 38 35 47 50 46 26 24 22 50 24 39 31 19 31 13 33 34 28 32 51 34 27 36 37 13 44 51 31 49 34 47 30 36 37 43 44 54 31 30 46 46 45 37 31 46 35 30 21 39 44 38 36 35 34 38 27 43 43 36 30 22 15 30 34 36 36 33 32 23 29 36 32 39 27 15 26 58 25 32 44 33 27 29 44 29 39 38 32 16 41 31 37 48 49 22 27 45 36 41 47 37 61 24 34 32 19 36 38 37 37 25 44 51 15 33 36 41 31 29 40 35 43 45 44 12 29 48 25 44 32 54 31 31 43 45 23 32 25 49 19 20 49 32 43 37 39 42 40 33 24 30 37 44 68 33 38 39 48 31 32 28 13 29 35 49 33 30 40 25 25 38 44 33 43 46 33 33 30 41 32 37 25 25 33 23 47 37 15 28 19 28 56 39 29 53 41 38 32 40 55 30 32 23 35 25 25 23 43 46 39 37 32 33 38 41 43 37 27 31 45 41 30 38 31 37 34 29 44 42 36 57 33 38 47 52 25 47 53 41 40 40 26 49 40 50 31 30 32 18 37 39 29 33 44 31 49 39 33 43 37 36 24 37 36 42 19 32 26 33 46 42 28 29 47 29 29 37 22 45 49 30 27 27 26 60 58 11 54 40 34 39 44 34 40 59 18 45 49 31 49 35 23 59 32 37 39 46 22 31 33 40 38 33 30 29 23 17 29 27 27 31 23 29 29 45 15 16 48 36 41 69 38 45 22 35 47 55 32 40 44 40 39 43 50 23 30 26 48 46 31 26 39 37 51 58 25 36 43 30 50 37 22 38 22 44 27 29 22 41 43 33 46 38 33 35 30 44 50 31 30 59 30 43 35 44 42 40 37 46 19 32 45 41 41 36 28 40 26 40 26 41 42 33 29 39 34 25 37 40 36 30 41 52 52 29 30 35 37 33 34 31 29 28 48 36 34 44 28 44 44 49 38 25 48 22 21 49 36 35 37 32 30 32 30 55 42 25 37 21 30 46 21 37 23 46 27 42 16 30 31 33 28 38 40 43 49 41 49 24 55 27 31 37 23 31 52 29 41 40 20 44 15 62 36 35 38 45 25 28 40 40 34 45 56 34 35 33 33 57 38 21 32 47 49 22 55 39 36 33 46 56 20 35 29 41 39 46 43 19 36 43 43 47 22 51 36 23 37 35 33 48 42 36 30 44 25 34 49 42 36 38 46 16 30 47 33 28 34 48 36 41 24 33 35 41 24 41 39 52 46 26 37 20 40 29 37 31 32 34 37 34 51 26 30 33 28 43 41 33 30 37 29 34 24 31 36 50 56 22 63 31 39 37 61 26 49 50 24 26 27 26 42 43 34 37 33 39 32 59 39 44 36 34 34 24 39 30 16 15 37 34 44 41 38 30 36 36 56 39 47 25 27 19 26 49 30 43 28 29 31 33 43 25 36 59 38 30 46 45 30 30 35 41 32 37 23 37 40 37 50 35 38 43 42 29 38 34 27 17 39 33 45 37 29 32 60 50 23 29 15 33 26 42 44 25 41 37 41 45 61 37 32 32 36 37 20 42 47 35 32 33 34 40 27 34 24 36 39 22 38 24 45 42 41 28 33 37 43 47 33 53 29 36 40 28 32 28 26 26 46 30 37 29 49 45 39 41 48 29 45 31 37 48 32 40 43 35 39 21 20 41 56 47 63 39 47 43 41 44 33 33 30 37 43 24 33 30 58 38 39 35 26 22 50 51 28 41 36 28 46 27 27 43 30 50 36 40 38 44 43 34 41 26 29 43 19 26 52 42 22 56 59 18 45 51 26 41 53 47 40 38 40 28 40 33 33 40 47 56 38 23 42 47 31 33 52 33 33 37 37 34 37 55 42 39 39 55 35 47 50 41 30 27 23 29 40 37 17 34 35 24 49 40 26 25 25 31 33 39 12 37 36 32 34 50 26 19 42 32 37 30 36 23 13 36 39 34 45 45 13 34 40 33 56 42 32 40 35 45 29 37 37 26 51 22 29 37 55 37 24 23 43 39 19 31 36 26 50 29 37 50 22 40 37 33 30 40 30 29 51 38 39 41 27 36 37 26 35 23 37 40 33 35 36 33 44 30 29 40 40 33 29 55 47 39 51 41 43 32 23 43 41 45 40 41 47 33 55 30 23 42 39 25 26 49 29 56 24 30 26 37 29 30 39 36 44 26 37 38 47 23 37 30 31 63 46 19 32 32 33 23 39 50 28 33 52 40 50 51 60 45 39 41 24 37 28 33 19 23 35 37 49 34 33 39 30 37 36 26 31 28 29 33 38 30 25 34 33 37 49 35 28 40 43 31 44 33 26 36 60 48 33 35 20 40 44 47 33 30 20 33 29 35 27 27 51 36 37 31 44 44 45 30 41 46 37 49 54 26 23 42 35 22 45 43 47 40 32 38 19 29 44 40 40 40 42 32 40 60 51 43 19 40 48 35 31 41 36 36 34 26 38 16 47 29 44 37 27 46 41 58 39 16 37 36 30 34 25 31 37 38 33 36 61 37 33 40 41 37 29 34 46 31 39 35 29 25 43 31 29 47 34 32 47 16 46 37 38 46 13 15 30 33 37 38 40 54 23 48 13 33 35 29 30 29 23 22 27 48 31 43 25 34 45 23 39 40 39 40 47 29 35 36 45 33 65 45 45 30 44 30 40 45 42 55 28 37 36 44 41 45 23 20 36 29 33 22 33 39 44 50 54 31 46 41 37 29 41 47 34 33 16 34 45 28 30 34 40 43 26 43 51 51 37 41 50 27 40 22 51 36 37 29 40 44 22 22 54 47 37 51 37 36 36 38 44 45 28 27 23 30 31 44 16 46 46 33 33 41 24 23 44 44 30 33 37 25 47 25 52 26 43 36 26 41 38 29 30 49 33 50 41 28 29 46 44 38 35 35 15 34 32 24 33 36 15 42 37 36 47 35 41 35 30 36 33 25 31 33 42 34 27 46 36 37 49 26 39 37 42 26 37 33 46 36 40 49 34 33 40 30 36 41 32 31 45 46 44 36 20 43 33 42 33 29 44 33 26 47 22 43 40 36 29 26 33 24 46 41 43 41 43 36 43 30 24 36 37 48 22 26 23 22 44 40 26 49 51 52 22 65 51 57 33 50 59 41 47 36 23 40 44 37 39 30 41 26 41 42 40 43 47 28 42 33 29 47 41 43 45 43 32 44 48 32 32 42 31 24 32 54 39 34 37 29 43 54 25 32 34 19 20 44 49 27 47 41 46 23 30 36 26 40 45 40 37 43 45 46 48 38 34 23 32 37 25 41 35 30 29 45 50 43 19 57 40 35 30 41 24 45 42 52 26 58 39 50 32 24 31 22 34 61 22 33 37 48 34 29 38 48 60 29 45 45 41 48 59 26 27 44 36 44 19 47 29 46 34 37 29 37 13 41 48 46 23 34 51 29 27 27 21 32 36 19 31 32 23 27 44 27 42 39 49 42 39 38 54 31 32 26 29 41 47 38 30 31 43 33 22 45 40 27 34 31 36 49 38 46 17 50 48 47 46 23 29 47 51 37 27 36 30 35 33 26 33 24 51 36 26 60 30 40 34 22 51 43 41 37 37 38 32 38 37 35 16 49 39 48 35 44 58 49 46 37 35 34 42 53 47 42 27 22 26 50 29 56 54 65 40 34 17 29 27 35 27 33 33 27 21 25 45 35 30 22 36 40 33 27 33 34 57 37 42 40 56 30 36 47 51 22 16 43 37 33 33 43 25 19 44 38 26 36 26 47 36 45 40 35 46 28 29 42 34 19 31 40 44 33 49 42 35 36 48 49 34 16 37 45 50 37 38 20 31 23 29 29 28 22 45 28 32 23 32 26 36 19 36 29 44 35 36 40 49 37 36 38 32 29 30 34 41 23 29 25 34 46 25 32 30 39 25 30 20 20 48 23 48 27 33 30 38 29 16 47 40 25 34 16 26 38 42 31 42 40 29 35 19 39 37 40 37 21 46 41 53 32 29 31 55 54 44 37 29 39 47 36 44 54 33 63 50 16 52 37 19 19 39 45 37 33 29 58 26 43 20 51 31 29 55 33 43 36 30 31 52 34 29 33 22 53 49 26 44 17 22 43 47 24 13 26 35 27 22 41 31 31 42 22 27 40 29 43 31 39 35 42 24 49 25 37 29 30 52 34 39 33 17 21 40 38 21 49 27 29 54 36 41 47 58 43 46 32 39 12 43 38 54 38 35 32 40 32 29 38 33 37 30 29 42 38 53 46 57 30 45 36 47 29 25 47 44 40 37 35 42 46 34 42 36 47 40 62 36 48 18 41 23 36 37 37 37 26 36 26 36 33 50 45 29 40 31 33 19 19 45 31 44 28 54 42 26 22 39 16 48 52 50 47 37 36 28 33 33 58 27 30 39 47 26 37 34 51 37 43 41 20 29 39 24 24 18 44 32 23 48 38 22 44 40 35 51 39 45 54 34 18 56 32 48 27 45 45 21 26 33 33 37 32 46 36 29 32 27 31 36 30 45 47 44 50 36 26 59 43 47 50 49 47 51 37 42 41 23 49 26 43 26 49 35 43 44 38 44 15 40 40 51 45 31 57 40 29 30 48 17 63 27 29 31 33 23 38 41 42 9 55 40 33 58 37 35 27 33 54 33 32 25 38 23 27 50 38 36 24 22 39 47 30 53 27 37 33 33 46 24 59 30 37 37 44 63 34 26 23 45 38 50 27 20 44 33 55 27 23 34 44 48 25 48 32 43 37 42 41 40 34 52 19 54 17 27 26 49 33 41 46 61 37 29 36 36 38 35 45 40 38 43 37 28 47 16 23 47 38 26 27 28 19 33 33 33 36 50 30 36 29 27 36 37 38 33 30 24 15 16 29 27 36 39 27 46 42 46 31 22 58 30 41 48 42 49 25 20 45 41 32 42 40 29 26 43 54 50 36 39 36 45 33 26 50 35 40 52 38 39 27 30 30 36 63 23 29 43 23 39 37 9 31 30 46 44 47 38 49 26 26 46 26 26 41 35 39 32 34 39 26 33 30 47 36 31 32 23 40 35 22 32 25 43 37 37 34 10 35 49 46 39 36 30 33 14 41 50 31 36 54 22 51 34 36 29 30 26 47 33 42 29 39 36 43 37 37 47 39 29 40 33 47 40 38 40 33 41 25 36 35 24 24 45 27 26 45 33 13 14 34 35 41 45 23 50 38 30 43 32 50 36 46 51 39 39 29 25 36 44 26 55 45 31 29 48 33 41 37 54 44 40 37 19 29 34 45 32 48 34 30 24 24 37 31 37 43 19 39 44 39 30 48 38 40 37 45 38 40 33 41 28 42 40 32 33 37 26 30 33 47 27 31 30 31 32 34 35 34 30 34 27 45 28 50 26 36 37 37 48 29 38 19 30 37 28 35 55 47 30 41 30 40 21 22 27 43 36 46 19 37 32 29 20 33 44 16 45 43 40 38 51 39 42 37 47 50 55 26 53 37 29 29 45 29 23 57 22 41 38 39 55 36 16 41 45 26 19 56 49 33 51 22 26 33 40 29 27 16 43 45 48 22 36 31 24 47 39 48 36 37 35 44 40 39 17 16 30 34 29 28 31 19 35 49 29 30 29 56 22 26 36 38 31 30 40 46 43 45 42 31 37 30 39 46 30 18 37 57 34 48 62 33 29 42 28 23 36 34 23 44 37 16 22 22 36 37 40 26 44 27 45 51 27 38 31 46 33 59 39 36 44 24 27 27 39 34 15 56 44 37 33 38 22 33 18 29 30 55 40 19 20 43 23 46 49 22 31 22 15 49 27 40 29 45 31 36 33 33 55 35 26 34 35 23 40 47 41 43 45 35 26 32 45 38 45 26 36 24 23 30 33 43 58 33 38 36 37 43 47 20 29 44 40 38 35 28 37 29 32 60 51 42 29 30 53 37 23 38 39 55 24 42 20 22 28 34 26 46 40 35 31 36 23 40 21 36 33 41 45 30 37 27 43 37 29 46 40 42 46 54 39 30 30 16 49 37 30 35 25 36 30 30 43 29 49 32 39 46 48 45 40 16 23 37 37 41 29 26 40 27 32 37 36 25 33 35 42 21 41 33 31 38 37 44 40 37 39 45 42 43 30 29 39 51 35 44 42 42 37 37 44 47 40 29 45 27 37 23 28 48 46 20 23 53 35 22 32 41 23 37 30 28 32 42 30 25 30 29 43 35 13 34 40 12 58 23 37 40 33 43 50 52 34 19 35 36 26 24 40 22 23 37 42 30 41 27 34 25 29 36 40 31 37 40 23 38 56 38 29 49 45 27 41 50 23 39 27 40 33 31 23 51 46 55 31 28 37 29 28 60 34 25 41 34 44 37 50 41 54 39 24 38 51 25 43 19 27 55 19 25 46 20 37 44 29 33 20 32 19 29 38 56 36 37 55 32 31 49 49 38 43 44 22 26 21 30 59 47 30 45 40 29 30 31 49 46 30 47 29 37 51 23 40 62 22 39 63 32 38 15 22 23 51 43 53 24 38 27 32 37 31 53 30 22 9 43 39 31 52 26 17 41 19 33 28 52 51 44 30 33 33 16 32 33 21 13 62 47 21 32 26 23 28 32 30 41 27 59 28 48 28 20 30 40 34 43 50 49 36 32 33 40 24 34 31 37 37 39 20 43 44 24 34 40 27 45 36 48 42 43 69 27 28 53 22 41 47 45 37 35 57 38 41 52 38 30 38 51 39 39 44 41 46 25 38 32 33 33 58 43 40 40 35 37 44 54 35 39 45 16 42 39 60 46 52 30 27 28 35 30 37 40 30 40 46 22 23 28 55 24 18 28 27 37 33 39 33 32 26 31 32 23 26 48 52 51 12 23 59 38 31 53 37 33 47 45 34 40 48 27 54 49 40 46 47 37 50 31 22 38 41 26 41 22 29 38 29 30 37 40 27 39 37 39 35 51 33 23 30 23 36 47 38 47 37 39 24 26 40 44 40 27 33 26 27 44 42 36 24 36 22 43 23 30 29 14 48 36 31 33 47 39 27 43 41 36 45 37 16 33 31 51 47 55 41 31 51 32 26 29 39 37 35 29 22 15 40 46 33 47 41 31 52 39 36 33 46 34 47 36 34 30 36 39 25 48 39 54 22 43 41 45 43 29 32 33 33 29 31 40 41 26 37 28 30 22 38 45 51 27 27 41 43 47 49 23 16 51 43 13 33 29 23 19 21 41 22 37 22 22 33 16 41 25 40 37 41 35 38 27 39 55 33 37 38 29 36 37 37 40 26 39 41 31 36 36 37 32 34 36 46 57 38 37 37 27 41 27 36 51 40 30 24 34 45 41 22 42 23 26 41 49 48 31 39 37 44 57 37 33 29 31 23 28 53 36 29 10 39 39 55 40 35 33 30 28 22 32 37 40 33 30 27 55 16 38 36 44 50 34 29 29 27 48 23 33 37 24 19 23 60 39 37 40 44 42 57 34 29 37 25 47 33 38 22 40 53 41 40 41 48 37 31 39 47 37 26 43 32 20 31 31 30 45 49 38 36 52 40 30 27 36 35 50 22 38 30 40 36 40 31 33 26 33 36 40 50 37 38 15 32 30 37 20 51 22 44 37 59 34 33 61 33 36 38 37 33 43 39 45 43 41 59 27 47 33 37 33 43 44 23 29 28 37 37 33 54 23 50 63 27 36 41 28 46 39 47 31 42 40 18 33 34 37 33 49 22 40 37 44 33 30 36 23 44 29 33 50 21 47 39 32 50 61 51 20 39 47 26 23 38 31 55 13 37 38 23 17 23 25 40 26 25 43 25 29 31 30 36 46 46 23 29 54 28 36 40 39 30 29 36 31 33 33 47 43 37 42 22 23 28 30 22 35 51 42 26 57 40 40 35 31 25 40 44 33 34 23 34 37 32 51 51 39 33 25 21 29 30 49 33 41 38 33 30 32 47 57 23 44 44 21 30 35 27 35 16 43 49 27 39 28 39 51 31 13 45 35 37 33 20 30 30 35 30 50 39 21 35 22 31 41 29 24 22 40 32 44 49 26 33 52 48 34 51 27 41 40 50 35 58 26 22 27 32 25 39 50 26 37 34 32 32 50 31 30 41 46 37 65 40 34 27 57 47 44 45 48 37 40 49 30 48 26 30 29 17 33 54 59 53 32 36 22 37 49 32 42 37 30 23 46 36 40 46 50 31 25 30 40 28 34 36 58 26 37 43 53 48 59 29 34 33 43 43 31 41 51 47 30 38 38 42 26 41 35 22 29 24 49 50 45 28 39 23 29 39 21 49 25 45 16 32 35 37 49 34 45 39 15 26 37 41 26 31 48 26 37 35 36 22 33 38 43 17 48 46 29 37 23 28 28 40 45 45 24 53 24 37 38 36 36 34 47 34 63 53 41 42 29 33 46 36 35 36 37 38 26 33 34 45 25 50 47 31 33 39 23 37 49 38 34 31 55 35 41 35 32 49 23 44 29 33 25 29 27 42 42 47 38 43 20 35 43 33 45 23 60 45 22 51 25 48 55 22 38 54 41 34 51 40 49 41 46 24 31 45 44 18 38 29 37 37 32 33 34 37 31 37 52 32 32 31 35 21 40 27 42 39 34 35 40 35 40 32 33 31 26 31 42 52 53 33 36 36 39 48 26 27 37 34 36 26 47 33 31 22 30 39 37 47 21 25 40 29 35 49 49 30 58 40 23 28 37 44 44 37 43 37 26 46 30 29 22 37 23 45 35 20 41 43 29 38 32 30 24 34 45 37 30 34 20 47 33 40 46 44 47 54 20 50 23 33 52 29 51 46 42 44 35 29 26 35 30 34 37 44 23 47 33 35 33 28 36 31 25 38 31 34 45 35 39 30 24 32 28 29 49 23 54 26 41 25 32 23 29 35 32 45 30 23 20 32 37 42 28 32 34 31 29 24 35 34 48 23 51 39 29 34 50 43 35 39 39 20 23 41 52 48 36 39 43 48 48 36 30 40 36 26 37 26 37 27 36 35 25 39 32 32 41 35 39 26 23 22 33 49 26 40 27 31 54 36 42 26 36 37 57 42 29 49 32 21 41 29 22 36 30 27 32 49 40 28 45 44 31 49 37 43 26 38 34 39 23 45 35 42 55 54 23 33 31 40 28 41 46 23 30 28 48 23 48 33 43 39 29 30 50 28 40 47 41 30 23 59 26 26 33 33 49 45 35 36 44 33 39 35 38 30 51 42 43 55 51 34 32 26 28 28 24 51 27 37 35 25 33 39 22 24 34 22 43 33 30 43 36 29 27 34 26 13 32 45 36 50 38 36 29 37 39 46 36 51 20 38 55 26 23 30 29 49 40 40 30 47 36 28 26 49 28 49 35 38 32 44 29 45 39 44 20 34 38 37 40 33 30 38 32 26 38 41 25 37 43 30 36 51 43 16 28 43 15 42 26 49 47 39 48 39 40 26 41 34 27 52 37 38 46 40 38 45 46 33 67 37 41 20 58 37 33 30 33 41 26 24 28 40 44 39 16 36 44 44 26 40 24 41 23 46 44 45 38 41 26 39 23 28 36 44 27 33 29 36 53 26 40 38 29 24 39 21 30 30 30 35 40 41 44 24 36 31 13 27 29 23 55 35 36 23 23 33 40 32 41 35 25 29 50 27 37 22 33 32 23 47 41 60 41 38 27 57 37 32 45 44 30 54 34 31 43 34 31 47 40 33 41 31 34 29 33 42 54 51 26 36 30 29 37 33 38 13 9 32 47 35 13 36 51 22 31 32 24 51 52 45 22 21 40 48 30 29 42 22 41 16 36 41 39 48 44 26 36 40 31 44 49 53 27 28 14 38 43 49 41 24 37 46 37 33 21 43 37 36 29 44 36 24 29 37 49 32 43 37 35 42 41 47 34 44 25 35 19 48 42 20 31 37 19 40 40 50 50 39 28 47 41 37 36 39 39 25 43 33 40 33 30 26 19 23 34 54 44 23 38 43 49 46 21 35 37 38 20 32 30 19 22 37 39 38 52 28 36 48 38 33 32 27 34 33 40 36 37 30 32 31 28 22 32 48 45 36 25 59 26 40 16 33 18 40 30 36 31 36 52 48 36 49 48 37 30 28 51 42 26 31 46 31 32 35 31 29 23 56 31 37 37 43 29 28 26 33 60 43 33 37 53 37 45 45 46 40 37 35 35 36 36 51 46 36 54 57 34 45 29 26 48 39 45 28 37 47 44 26 44 12 46 29 35 49 42 36 43 22 25 30 43 31 23 37 34 38 40 29 34 35 43 24 33 30 27 37 46 53 33 51 26 33 34 39 52 45 41 36 44 22 27 30 42 27 19 27 22 31 39 29 31 51 53 35 28 34 31 47 29 44 27 35 44 40 47 27 25 22 25 28 19 37 30 46 29 49 29 37 44 46 19 25 19 50 36 40 26 34 36 51 23 43 46 32 37 51 41 19 33 23 29 29 31 40 34 35 44 30 25 30 33 26 40 44 46 30 68 37 41 37 34 40 33 29 45 30 43 26 43 49 38 37 37 26 33 48 31 36 43 23 44 29 22 35 51 51 40 31 31 37 42 38 46 41 37 48 25 45 46 61 47 26 29 12 16 25 34 37 30 58 30 37 40 24 29 19 33 34 39 65 40 51 34 33 37 32 42 23 50 52 37 24 49 31 44 42 34 51 44 53 36 36 44 27 41 36 42 37 38 23 30 43 54 34 30 30 35 43 40 25 30 29 23 23 24 30 36 29 38 37 29 37 33 37 43 28 39 27 35 38 51 43 44 33 33 18 36 33 50 30 36 34 30 42 22 37 43 39 37 50 50 53 36 39 43 51 38 43 39 27 37 43 49 45 34 43 38 30 42 29 45 27 26 36 47 31 29 52 43 35 56 37 36 33 45 42 40 44 29 29 45 30 37 27 33 10 49 30 56 41 32 26 29 42 29 36 37 29 29 23 23 34 27 34 33 45 31 40 27 36 34 38 21 47 42 32 37 36 35 39 33 40 45 32 37 33 37 29 29 38 48 44 47 28 41 37 43 5 29 41 42 30 45 44 44 33 41 42 16 48 20 51 31 46 44 42 49 23 30 55 26 39 53 33 37 38 26 32 30 31 23 51 47 34 43 47 26 37 36 26 39 26 29 34 47 57 42 36 53 30 34 31 27 27 37 31 31 45 31 45 43 49 37 38 31 33 47 37 48 22 45 29 35 16 23 45 21 40 36 40 36 22 43 59 38 53 47 64 38 39 35 41 65 30 52 40 47 26 38 37 16 56 18 54 23 27 13 41 33 27 34 15 64 22 26 38 44 20 41 49 36 48 29 54 43 43 38 47 20 37 37 27 35 42 36 25 27 29 23 41 50 53 30 23 37 34 27 35 29 51 33 26 25 31 21 34 19 35 29 40 43 51 26 44 40 27 42 47 36 23 37 27 25 58 24 38 29 37 33 32 45 28 22 39 27 26 49 32 34 31 49 40 34 27 28 23 39 32 39 25 50 23 37 43 43 30 22 34 32 37 31 32 23 30 23 45 38 31 36 26 30 44 36 43 56 40 35 51 36 23 39 24 50 49 53 25 26 43 27 34 32 37 36 39 23 34 29 30 31 26 28 42 40 24 38 50 58 31 26 57 48 47 37 25 34 29 54 38 22 37 33 45 43 50 50 51 47 46 47 28 33 26 40 36 47 45 19 19 43 47 38 34 49 38 36 32 44 30 40 61 36 35 28 25 51 37 40 15 43 37 38 51 53 37 36 43 33 43 34 39 42 33 24 33 55 29 36 26 23 40 24 21 40 45 35 59 40 25 27 28 44 29 26 21 45 29 43 9 46 39 29 41 49 37 47 54 37 42 55 37 36 47 48 49 29 64 38 31 33 45 53 31 47 36 55 22 36 28 26 43 37 33 29 46 37 50 43 50 29 32 37 32 34 60 38 51 50 36 44 39 38 29 23 29 26 23 41 40 19 29 38 29 40 31 33 33 28 33 7 55 43 52 30 26 44 31 46 29 49 38 29 30 37 27 38 23 28 37 46 53 43 47 36 28 36 45 30 36 44 46 30 40 19 29 29 24 41 29 27 37 34 43 28 54 33 42 32 47 64 42 51 40 46 26 28 30 41 25 36 45 33 37 29 29 37 46 36 26 57 26 41 31 32 29 29 33 36 27 45 40 67 22 33 29 40 30 41 26 15 51 40 36 35 55 30 36 35 22 31 40 44 37 56 22 31 36 26 31 20 50 41 29 44 33 54 16 47 21 43 32 22 40 32 52 37 63 37 13 49 46 43 34 26 35 45 23 39 37 51 33 41 31 67 20 33 39 36 22 40 30 24 39 23 47 43 40 34 45 31 39 30 46 31 48 36 39 30 29 38 40 30 35 37 30 43 35 36 29 41 45 30 30 19 43 50 31 35 27 36 16 27 39 40 45 41 48 29 40 30 51 56 41 47 37 26 28 25 29 34 44 30 39 38 41 29 33 29 29 24 31 52 25 30 35 28 31 29 52 53 36 32 33 55 23 50 19 47 31 35 35 34 29 18 27 22 31 43 33 44 42 31 35 49 45 43 13 48 40 53 32 33 34 39 51 29 48 53 47 16 9 29 47 36 38 39 40 47 46 40 20 41 31 35 41 36 37 38 31 34 22 43 37 36 44 40 25 26 25 39 32 57 41 25 33 34 47 33 43 59 36 30 40 53 30 25 37 53 42 34 47 34 28 56 39 37 53 28 30 45 39 25 40 35 36 47 40 46 26 22 50 49 29 24 47 42 40 33 28 22 42 50 31 28 36 23 45 29 37 38 25 49 40 42 32 20 38 28 38 30 42 27 41 41 40 26 32 48 40 31 51 26 45 27 41 37 19 45 29 47 33 32 36 23 43 37 34 41 39 42 26 20 40 38 31 23 40 36 40 38 41 29 33 45 33 35 33 37 41 34 29 36 33 28 32 45 34 36 35 40 57 40 29 26 27 44 31 35 40 42 65 29 45 48 25 37 39 37 29 23 29 22 40 26 31 37 47 30 36 43 29 38 40 30 34 29 29 39 31 30 33 58 15 36 23 50 33 23 44 35 41 45 29 38 30 36 26 36 54 44 37 31 33 33 30 53 21 37 45 30 44 29 21 32 38 37 31 25 33 34 31 44 16 30 33 35 23 46 32 44 43 47 43 21 29 23 43 36 37 37 43 35 57 27 53 43 44 55 33 26 42 57 33 44 41 32 37 15 27 30 27 20 47 36 26 38 26 40 33 52 18 40 38 37 43 31 36 37 37 43 28 34 30 23 36 36 24 25 47 33 43 32 28 29 32 33 19 43 43 45 37 46 38 34 32 35 37 23 53 43 29 44 20 38 44 44 28 27 49 19 33 30 51 36 28 39 37 33 28 45 47 29 44 43 34 50 25 31 37 29 41 36 39 37 31 42 44 31 23 45 48 20 34 44 44 26 47 30 33 45 35 43 44 22 33 30 50 36 33 55 40 50 27 47 43 52 36 46 31 26 43 23 29 23 55 12 37 22 45 19 20 49 32 22 37 39 33 32 52 27 39 47 28 37 27 37 44 43 39 30 34 33 53 42 45 42 44 27 44 33 54 26 23 42 34 23 29 23 37 38 46 60 20 37 40 22 29 24 26 37 19 40 47 44 36 33 37 33 25 19 46 20 23 52 44 37 35 27 39 38 36 34 46 23 22 23 47 53 20 30 27 19 16 22 50 61 39 50 43 45 49 19 61 48 51 29 38 30 42 42 42 34 49 37 37 40 41 37 39 38 29 40 40 22 37 38 28 36 36 36 34 25 36 53 40 41 38 39 29 29 43 43 42 54 43 48 47 37 33 27 52 44 16 17 31 35 48 41 23 45 29 40 42 53 13 33 43 37 41 48 30 21 29 39 41 46 19 25 32 37 32 50 39 26 35 22 46 39 19 30 51 34 30 31 32 37 43 45 49 33 39 40 29 22 32 33 34 39 31 31 40 27 61 29 45 38 33 38 44 20 33 57 32 50 28 30 23 49 46 16 42 41 36 15 33 32 54 41 28 52 26 57 22 22 27 38 28 47 52 35 28 50 27 37 35 27 26 37 38 28 42 47 34 39 34 20 37 36 22 23 29 37 29 34 51 35 29 35 30 41 44 34 33 32 41 38 31 45 41 44 24 40 23 49 37 35 31 46 38 33 36 39 44 30 13 36 36 37 44 42 43 47 35 40 32 39 38 25 40 28 33 49 33 42 24 22 40 55 27 27 33 30 60 23 34 40 22 40 12 34 26 32 34 26 51 24 25 41 41 30 33 55 50 43 46 41 23 19 36 27 52 34 25 31 37 27 17 40 36 35 44 43 26 54 33 36 41 36 44 33 32 28 31 26 53 38 27 30 33 26 65 30 46 22 30 37 37 54 28 26 37 25 39 16 43 39 38 38 41 43 50 43 16 26 49 23 35 33 46 51 47 42 36 40 43 34 37 43 41 26 37 46 32 31 33 34 16 40 58 39 20 33 36 31 41 32 63 50 40 60 53 23 36 41 34 37 33 41 45 35 43 35 46 28 47 43 36 26 16 43 34 18 31 45 29 47 25 37 16 43 34 37 49 40 37 22 33 45 23 26 35 26 39 42 28 16 58 30 23 32 40 50 31 53 31 49 41 33 29 37 38 9 44 55 36 25 50 30 40 29 23 43 48 33 23 25 51 36 22 44 36 39 35 47 22 19 34 49 47 19 54 47 20 52 29 37 51 44 26 47 22 39 43 32 19 31 36 48 26 24 57 33 38 41 22 45 36 29 36 43 40 28 42 42 46 42 35 48 40 37 29 31 29 35 43 26 41 33 38 38 39 57 37 37 22 30 41 33 36 31 37 46 19 37 40 30 19 36 51 42 30 27 43 51 23 41 39 38 30 20 50 53 13 49 31 40 28 27 47 44 48 31 29 53 27 37 32 19 33 41 32 36 38 40 30 26 38 37 47 19 21 51 44 24 32 36 37 42 26 48 30 38 42 33 47 38 46 27 34 37 47 27 26 20 30 31 33 39 54 30 22 32 20 53 48 25 30 28 45 22 17 36 12 40 58 35 47 31 37 33 47 33 40 44 36 30 36 25 38 41 47 34 30 33 45 40 39 34 38 43 53 47 34 47 50 57 22 43 37 23 30 18 22 33 34 23 24 54 38 48 45 23 19 40 44 40 45 36 45 45 31 45 24 29 31 51 31 43 41 25 26 42 57 23 37 26 45 29 16 27 33 41 19 23 30 35 47 42 53 22 35 72 37 36 31 34 27 34 45 28 26 62 25 47 31 48 29 49 27 51 44 22 45 26 17 54 43 40 31 30 56 32 41 49 20 29 33 43 19 48 29 23 51 35 29 23 30 26 30 47 48 40 41 25 26 47 23 33 26 34 34 46 47 34 35 36 54 47 33 32 20 32 39 38 39 48 26 54 44 66 22 36 51 40 44 38 23 39 52 50 16 44 28 29 30 22 33 36 38 32 37 57 53 55 19 51 37 17 28 34 36 33 43 55 16 25 22 44 36 32 52 41 46 34 34 23 30 35 33 20 38 29 19 37 36 22 35 31 43 35 34 51 42 36 41 35 44 35 42 40 43 26 46 45 53 39 33 39 47 30 29 33 27 25 19 37 36 26 37 29 25 28 35 27 44 40 38 44 42 37 41 26 35 36 43 28 53 47 25 47 32 39 16 50 35 48 44 50 37 15 55 35 40 29 22 30 31 29 44 29 52 47 50 29 31 34 29 44 50 62 58 49 37 39 32 37 42 27 40 19 29 12 37 37 20 38 32 28 36 31 34 57 42 34 32 35 47 44 43 46 15 47 36 30 35 35 40 34 45 41 46 42 34 29 26 53 41 48 33 33 37 48 26 36 41 38 29 30 42 47 35 26 38 41 51 37 39 51 29 32 42 26 22 35 47 21 30 37 36 29 32 40 37 36 31 58 41 26 30 29 32 37 25 30 35 41 29 42 32 34 31 30 45 29 22 13 9 19 51 50 36 28 39 30 44 19 19 42 37 36 48 40 34 26 31 49 30 13 29 18 37 46 45 39 34 43 49 35 29 27 51 16 30 16 16 30 25 43 28 24 38 57 26 35 45 40 36 22 50 43 44 33 51 37 53 23 29 29 34 27 34 43 37 37 33 40 41 39 46 22 57 30 35 25 29 35 9 33 34 33 23 37 38 47 29 26 33 42 64 51 37 43 33 69 30 37 34 43 31 19 36 33 31 58 40 37 46 48 38 32 47 36 43 45 64 54 48 50 17 17 34 33 49 37 33 33 27 46 22 43 39 33 13 43 38 22 23 23 52 44 30 44 28 26 23 37 3 40 39 38 32 19 33 33 35 27 54 46 38 31 36 50 33 43 28 45 29 37 39 22 27 48 26 65 44 17 39 34 21 39 39 34 53 38 43 36 42 41 33 35 50 23 40 38 23 33 23 36 30 45 52 48 34 37 32 24 44 27 61 30 27 37 53 40 34 50 24 41 35 37 36 36 34 32 42 42 34 31 67 37 46 19 34 43 29 63 22 39 44 38 43 47 33 29 54 27 45 29 59 31 52 37 53 23 54 34 23 17 32 24 33 39 29 33 35 18 35 29 45 28 28 33 26 59 57 34 33 51 61 39 40 58 51 33 27 36 32 30 24 45 34 26 26 37 32 28 23 26 41 32 42 28 23 33 34 31 57 29 48 52 40 36 25 40 41 31 47 29 29 43 26 30 50 36 38 43 33 34 30 54 30 34 52 31 25 35 22 20 64 33 36 43 35 25 21 19 26 37 26 26 18 37 27 33 44 41 31 26 37 23 24 40 30 26 22 43 33 25 43 31 34 30 28 49 40 40 46 26 31 27 49 47 37 48 37 20 32 48 55 28 56 24 36 43 32 28 30 40 31 34 43 20 32 34 29 36 36 36 37 33 40 33 27 43 41 25 44 36 37 49 44 38 47 51 43 41 22 25 34 36 47 38 58 27 43 50 47 30 40 32 29 43 23 36 30 32 37 37 28 25 20 9 33 29 40 53 35 24 50 30 23 41 29 58 48 36 41 36 16 41 54 37 29 12 52 47 29 58 19 40 28 33 26 13 46 27 39 31 27 29 32 36 41 32 40 38 43 50 42 36 48 37 23 52 35 23 30 41 34 43 23 39 27 37 37 49 29 42 37 30 34 25 37 29 48 40 15 35 32 54 51 38 45 39 35 29 40 36 23 37 37 31 28 44 37 56 35 23 55 46 47 30 26 23 28 43 59 32 23 37 48 37 35 40 26 35 36 34 30 33 39 33 38 34 25 31 26 43 60 29 41 32 35 30 53 26 51 35 38 51 23 29 30 46 23 45 41 37 44 47 43 45 36 27 39 24 33 29 28 36 29 32 27 48 37 34 42 55 34 38 42 29 42 33 43 39 37 17 24 50 33 40 40 12 38 36 36 26 37 46 35 26 36 44 33 51 58 41 31 26 55 37 41 64 27 12 49 34 33 28 40 45 33 34 30 34 26 45 30 35 34 46 27 32 30 36 47 22 34 45 46 50 47 36 36 30 22 39 29 49 44 24 31 34 26 19 37 29 30 24 25 29 39 40 40 39 37 9 29 40 30 31 17 33 50 38 22 29 33 49 30 32 26 42 44 36 39 39 33 31 35 19 26 29 40 42 40 35 39 22 37 39 39 38 31 30 21 43 40 35 39 48 26 34 41 28 19 38 16 40 38 49 26 14 43 50 31 45 51 33 37 29 35 31 40 39 35 49 34 20 41 34 40 51 20 38 38 36 37 32 48 21 22 33 26 15 37 30 28 23 31 37 27 39 32 37 20 40 29 33 36 45 38 19 57 26 55 34 37 41 40 33 31 41 35 43 43 60 22 37 29 34 22 51 40 47 48 30 33 39 40 34 50 41 46 37 40 16 35 46 22 53 51 26 47 33 36 51 52 39 49 32 25 44 33 30 48 27 33 50 13 32 41 40 29 23 24 19 47 36 21 44 33 34 26 32 22 28 40 36 23 39 40 31 37 34 36 44 36 54 23 54 27 32 43 22 38 35 30 25 43 39 55 40 44 13 41 33 56 39 32 20 44 33 23 40 33 42 30 48 40 37 25 38 50 37 16 39 33 22 56 29 37 26 51 36 30 34 42 21 44 19 27 27 25 38 36 33 53 35 30 25 46 54 57 25 36 39 32 32 48 50 47 41 52 45 40 36 27 35 46 52 34 38 41 41 26 37 33 49 39 43 12 30 37 43 45 44 30 35 30 38 43 24 39 25 39 37 39 29 40 18 49 37 24 37 44 28 39 49 57 24 52 49 30 24 64 32 41 26 39 31 37 34 34 34 37 23 32 30 16 33 37 71 35 32 41 37 29 33 38 52 42 39 33 41 19 34 34 50 58 19 20 47 26 36 35 29 42 38 50 31 39 30 44 40 37 30 39 27 48 53 19 30 40 38 51 43 55 22 22 41 27 59 39 26 48 31 33 37 58 43 58 45 35 38 39 29 36 32 33 54 44 13 41 39 37 28 37 51 16 57 49 13 30 42 20 40 37 40 33 20 37 59 39 23 28 27 41 22 16 26 36 16 34 30 63 30 23 26 43 44 23 44 38 31 41 37 49 26 50 24 51 39 26 29 34 40 45 48 26 40 54 48 30 58 40 40 30 39 43 39 41 58 50 22 52 41 24 40 42 40 41 49 35 29 38 29 33 23 34 29 27 37 37 25 23 30 40 43 41 30 19 43 43 14 26 49 15 33 26 40 40 35 34 39 20 49 35 40 52 37 33 49 45 30 62 32 53 31 47 34 24 57 56 27 53 33 38 38 47 49 37 36 41 33 45 41 35 33 16 44 23 28 22 50 29 28 31 33 40 47 49 26 35 35 45 51 6 17 36 36 51 30 33 30 57 54 41 33 36 37 37 35 34 39 14 39 43 31 26 17 47 19 41 49 26 36 54 59 22 43 62 27 37 39 26 33 31 26 22 30 20 17 53 31 38 45 40 30 33 35 22 16 57 29 46 44 50 42 42 58 48 30 26 34 46 49 38 27 19 24 42 37 41 32 37 22 50 49 44 26 55 41 16 37 44 49 42 39 44 27 37 44 31 51 41 32 31 31 28 61 47 22 29 38 31 35 80 45 27 17 41 28 41 48 51 27 28 32 59 40 41 36 37 51 53 39 31 37 48 27 19 51 41 37 44 31 40 50 34 31 36 47 43 30 31 34 54 42 31 41 39 46 49 22 28 22 40 35 30 54 29 35 35 37 26 26 36 40 32 36 33 40 55 43 25 45 45 33 32 28 35 25 29 44 39 46 36 31 32 32 19 48 44 27 29 34 45 27 35 41 51 38 34 51 19 23 36 30 43 30 51 37 39 37 41 41 32 42 22 40 38 41 41 33 23 43 44 33 38 27 29 37 21 29 27 39 29 39 38 30 38 39 48 26 40 25 34 47 36 26 33 36 37 45 69 38 18 16 21 38 41 37 41 26 59 33 46 43 27 46 51 38 54 54 41 14 54 16 40 43 47 32 32 44 33 49 36 29 41 34 44 35 35 19 32 30 12 35 42 37 34 42 47 30 34 19 29 25 23 21 21 47 38 58 35 41 41 37 42 43 28 27 27 19 27 22 25 68 47 43 36 26 44 47 41 23 21 30 24 51 20 39 59 32 43 45 33 54 15 40 29 35 27 51 30 37 36 37 30 23 37 35 44 20 40 63 37 29 36 34 34 39 50 35 39 36 37 19 36 46 48 44 46 40 31 40 37 39 54 69 43 65</t>
+    <t>NIG(27.88670230893269, -0.9069279250172952, -0.7804722400234266, 60.961147308483916)</t>
+  </si>
+  <si>
+    <t>-2 11 5 -14 -9 -16 17 -11 -3 -12 -13 -9 1 -28 -7 8 7 -24 -15 -16 8 -5 13 -14 -19 19 6 12 -12 3 1 -4 -29 -3 -15 -14 10 -10 -7 -1 -22 -1 3 24 -2 -2 -7 6 -23 -4 -1 -14 8 7 -3 -4 2 15 -6 1 -17 3 -7 -14 -7 21 22 -21 -3 9 -22 5 -12 -20 -12 -4 -22 -34 -3 -8 -5 -1 -18 15 5 2 21 -21 24 3 28 -20 2 -3 -11 -2 -23 -4 -31 17 1 7 3 -5 -10 -11 -14 2 21 7 -7 -17 -5 -34 -5 17 9 -6 5 -1 -14 -9 5 8 16 -13 -10 -6 -10 19 2 -9 -4 -3 3 -2 -22 10 -3 15 -5 -7 9 -33 -2 -1 7 -17 -3 -7 1 -31 3 -18 24 -31 3 -6 -20 -3 -8 -3 5 -2 1 1 -7 -17 -4 -15 2 -5 -7 -20 -3 -4 -10 -11 -25 -24 33 3 -21 -3 -14 -10 -10 -3 -6 -7 11 -9 -10 3 5 -11 3 -8 -20 -1 8 -8 -2 7 6 -21 8 -10 3 16 14 -8 3 6 -7 3 -10 3 10 -27 -6 -9 -14 -14 -5 1 -3 -6 -4 6 17 4 7 2 -12 -6 4 -28 -2 -10 14 3 5 21 -18 -15 7 -22 -13 11 -20 -15 -9 3 -10 -9 14 3 -2 29 13 -3 0 35 -13 0 -10 17 3 -3 -17 10 -6 3 6 2 -2 -3 -15 21 -14 2 9 -11 0 -17 -15 -15 -7 -27 14 -3 -5 -3 3 -7 -3 -1 24 4 -14 18 -7 3 -22 12 -7 -9 2 27 11 3 -12 7 6 15 27 -4 -17 4 14 -6 -6 1 -9 17 -4 2 -2 -31 -1 -8 7 6 -10 -10 3 -14 23 3 -4 -4 5 -4 -14 -6 -3 -13 -20 -5 -5 10 8 3 13 21 -15 -10 -14 -4 7 -17 19 -6 -3 2 1 -6 -8 10 4 -1 6 -18 3 7 -3 2 23 2 -16 7 -26 -12 19 -3 12 -26 -16 -3 -14 3 17 3 -2 3 -6 -10 3 1 17 -13 -27 -11 -3 -21 -3 6 -3 5 -15 -22 17 -11 -8 31 17 -17 -3 -3 -3 -1 -2 -11 -3 13 -4 -5 -27 -24 18 20 7 -2 -5 -24 22 -33 3 -16 -3 3 3 4 3 -4 12 -10 -3 6 -2 18 15 18 3 -12 8 14 -5 -11 7 23 -28 -1 8 18 14 -4 -6 9 -17 -20 -8 -6 4 -5 10 8 9 -6 -6 -15 -2 3 6 1 3 -22 -17 -14 -3 8 -11 -6 7 9 -3 14 4 7 -8 -9 16 -10 -11 -6 4 -7 -7 -23 -7 7 3 6 -31 -19 -9 -8 -12 22 -3 -7 3 10 8 10 -2 -7 2 14 -13 29 18 0 -19 6 -19 -10 16 -1 -6 4 -7 -17 -3 -5 -2 -3 -34 3 4 7 20 -8 -10 -3 -4 -4 3 10 -24 0 -11 -18 -7 4 -8 -3 -15 -1 -6 -7 -27 22 -19 -5 -2 8 9 -11 8 15 -4 1 -23 -19 7 -17 6 12 11 -13 1 6 -22 -17 -6 -17 -13 -10 -17 6 -12 -15 -7 -19 -6 10 -20 3 2 -3 -3 -6 -25 5 -11 -1 -21 -1 -25 -28 -5 -14 -10 2 11 -14 10 1 1 -13 -3 23 1 6 -7 10 -10 -14 -13 9 25 20 8 -14 -7 -3 -9 8 4 3 -14 -20 9 -3 -18 -15 11 4 -6 -6 -1 -13 -3 -8 6 -7 -20 -13 -13 7 -29 -2 -17 -15 -12 3 -8 -17 -17 -14 3 -1 -25 -13 -14 10 0 4 -27 -14 8 -23 11 -11 13 -8 14 -30 5 -7 -2 -3 -2 -4 -5 7 -18 -9 -18 -10 10 -3 3 -3 -11 -4 -15 -7 6 -9 -4 -17 24 -26 -1 -10 -3 3 -3 7 8 -4 -16 -11 -11 7 -21 -7 24 -7 -25 -1 -13 -1 -8 -5 -16 -23 -13 -10 7 13 18 -7 3 -8 10 -2 -3 -3 14 -8 -23 -6 -27 -17 -9 -6 -15 -10 -31 -10 3 -9 3 -4 -13 -2 3 -6 17 12 1 -14 -1 8 -6 11 -28 -12 -19 -3 -6 -3 -15 10 4 12 -13 0 13 11 -16 -9 7 -26 -1 -5 -6 -6 -1 -3 -16 5 -3 -3 -3 8 -7 6 10 -6 4 -3 3 -28 24 -4 24 2 6 -3 -3 11 -10 3 3 6 -11 4 10 -10 -11 -15 4 -3 -4 -3 -14 2 -6 -7 -7 -13 -16 -16 -5 -17 -3 -5 -13 7 2 22 -2 1 3 -3 3 -16 20 10 -8 -9 7 -17 1 -4 3 5 -9 -16 1 -17 -13 -2 -16 -4 18 6 -8 13 3 -26 -8 -19 -25 7 -2 3 -2 4 -2 -3 10 -3 -7 1 8 -1 -6 -17 -24 23 -2 -15 -10 -6 -39 8 -2 1 14 -15 4 -3 14 -1 15 -3 -3 -15 -16 -20 19 -2 -6 6 3 5 -4 -21 -8 -15 6 -3 7 -3 12 -33 9 -6 -3 18 -7 1 4 -12 -10 -2 -4 -4 10 7 8 3 3 14 -5 -20 -13 5 8 -8 -6 1 -7 -2 -17 -8 -11 5 7 -6 -28 1 -18 -4 -3 -14 -4 -21 -5 -27 7 12 5 8 6 3 -7 0 -7 11 -29 -17 -14 -3 -3 4 -3 -6 6 11 -3 -28 -3 -17 -7 -11 -7 21 -5 -15 -9 -23 16 5 17 -9 -9 -10 3 44 -6 6 -8 -17 4 11 -11 7 -5 -8 -4 -17 -3 -15 -3 -13 -1 -1 5 24 1 30 14 18 -15 10 -3 -28 4 -24 -2 -17 -6 15 -13 -8 14 -3 -5 3 4 -15 -7 -29 4 -5 24 -19 7 -3 -4 10 -10 17 2 -5 -10 2 14 7 -31 20 5 -3 8 3 17 -17 -5 -25 4 12 -12 1 4 -15 -7 6 20 -7 -10 -3 11 18 -1 2 6 9 -11 -7 -14 -21 11 -10 -7 -21 7 -13 -10 -10 -4 -9 -7 -3 7 -22 -4 6 8 21 7 7 -28 -2 7 12 -11 -8 -1 -2 -17 -7 8 -3 3 -2 14 -14 21 -26 -17 10 14 -10 -17 -10 -7 -10 15 -3 -10 7 -20 4 -20 16 18 -9 6 5 -6 -21 6 4 6 -7 -7 -1 6 -3 -12 13 1 19 -19 -8 -7 18 -14 -10 -8 -12 -13 7 -3 6 -21 13 -2 4 -9 3 1 -24 10 -17 3 6 -26 3 1 5 6 1 -12 -13 -14 7 15 15 -19 -22 -2 -12 -11 -8 18 8 -3 -4 -4 6 -3 15 -20 7 14 18 -15 -7 -10 21 7 -10 -31 -15 3 -10 7 -10 -2 -6 6 1 3 -5 -22 -9 -9 7 -12 -21 -3 -6 16 21 -5 -14 1 2 -3 -3 -20 11 -21 -13 -20 4 -10 2 -3 -42 12 2 5 -11 -4 11 -6 -13 7 1 -3 -15 2 -12 4 -23 -7 -27 -14 1 -22 -15 -14 -9 10 -4 1 -14 2 -6 -3 -7 -21 -11 8 -22 -21 23 -7 -16 -7 6 -3 -18 6 1 -11 3 25 -25 20 -13 -7 -6 -18 7 8 7 1 -1 -2 10 2 -13 4 11 -19 17 -26 4 15 -2 7 3 6 22 -9 -20 18 21 -17 -2 -17 16 -4 -6 7 8 1 6 7 10 11 -13 3 13 -7 -20 -25 4 -17 8 -16 -3 -6 -11 -3 -8 -9 -16 -7 -16 -3 13 -36 23 3 -13 1 5 -8 -6 3 19 2 -3 -9 -6 -25 -3 -3 -24 -25 -14 -10 -6 -7 -18 -3 3 -9 5 7 -25 3 -6 -9 11 -3 12 10 1 6 13 -17 0 7 -3 -3 -3 -12 -12 7 10 -7 20 -30 -5 7 9 -7 11 -7 11 16 21 24 12 -17 11 -8 14 -8 -6 1 8 1 -28 3 -9 1 13 -9 -7 10 -4 4 11 -3 -5 -11 -11 20 13 4 6 3 -8 -11 -35 2 11 -29 3 3 23 -21 -16 -3 4 13 6 -16 -16 -22 -9 -14 7 -7 7 1 3 -14 -18 4 -26 -9 -4 -5 -4 7 6 -1 -2 3 -22 -5 1 -6 -11 3 -7 -16 -3 -6 -8 8 -11 10 1 -1 11 2 4 7 -25 27 -13 -12 -33 -3 -10 3 -8 3 3 4 -7 -9 1 -24 -5 19 6 14 -4 14 -10 -12 -6 17 -3 -12 3 -3 -11 8 -17 2 -19 6 -9 -34 -3 -6 -10 14 6 3 -8 -18 4 -10 15 -5 18 -27 6 -9 9 7 4 3 -7 -3 -23 22 -20 11 10 -4 17 -20 8 3 -4 6 -5 -7 -7 18 15 -11 -1 -8 -7 -6 -3 -18 6 18 -19 1 -7 -3 5 -3 20 -3 3 -17 -7 3 17 -15 -2 -23 -2 -2 -4 10 -12 -10 -5 -11 6 21 7 14 -6 3 -19 -6 -6 -17 14 -4 11 3 -18 -28 -5 14 6 10 -4 7 6 1 -18 -19 0 -15 14 -3 12 -7 -4 -30 -11 -2 -27 17 3 4 10 3 26 2 5 13 8 -17 -19 -10 -17 4 -4 1 7 -6 20 7 18 -22 10 19 -18 12 4 -21 10 -6 -12 6 10 2 0 -13 -17 13 -12 6 6 -1 -2 -11 -9 22 -6 6 -16 7 -14 -21 17 6 -6 17 -1 -8 3 -21 -24 -12 5 10 3 -13 4 10 -5 -2 -15 7 11 11 8 -23 6 -7 -6 10 -6 3 1 11 13 -13 3 2 2 10 -20 -4 -3 3 -17 -18 2 3 -12 -5 -21 5 -2 2 -13 7 12 -17 1 6 -7 -2 -14 3 0 -2 -21 1 11 -12 3 -15 -18 -12 7 -20 -5 -20 -10 20 -6 14 18 -4 -14 22 14 18 3 -3 16 -2 -8 -20 -13 -18 -10 4 -14 -2 -6 -28 -9 3 -3 -7 1 -3 7 -23 3 -20 24 0 -10 -3 5 12 11 21 -15 2 -3 5 -6 -9 -27 -23 -30 6 -13 3 6 -8 6 -7 -14 -3 16 -29 -24 3 18 -7 -3 10 -8 -4 -23 -7 -13 -6 7 -11 -6 -5 -21 -10 -19 -20 -17 -7 -8 -7 -13 -9 7 -9 1 -7 14 -18 3 -11 -34 7 -1 -13 -9 10 24 -5 7 -4 15 14 11 2 10 7 -15 -9 3 -7 -6 4 -10 1 4 4 8 4 3 -20 -10 -11 -7 12 -10 -13 13 -2 -1 5 -4 -19 3 -6 6 -17 -3 -3 12 -22 3 -1 17 -15 -9 13 -11 14 21 -10 -10 3 7 -23 -10 10 3 -6 0 -4 -9 3 -15 30 -26 7 -3 -3 -3 -4 -4 24 7 -16 10 -3 -6 -10 12 15 -2 -15 11 4 -1 19 2 -5 6 22 -9 17 -8 3 14 -9 -8 -5 1 -10 -3 6 10 2 -5 -7 3 -9 -6 -2 -17 -24 -10 -3 -3 -7 -15 6 -14 7 12 -10 6 -12 -5 -21 22 7 2 -13 -28 -11 -31 -10 -11 4 -18 8 -13 -7 11 23 -8 -25 -9 3 15 -11 -7 -5 -19 -8 7 7 -17 -27 -3 7 -28 -23 19 -3 -27 3 -11 6 -32 11 -3 -3 0 10 -6 -12 6 -28 -18 -22 4 -10 -4 -13 16 -3 3 -13 3 -21 2 3 7 -7 3 -13 14 2 -10 -19 27 -17 0 -10 12 -14 -36 11 -11 17 -6 3 -10 -7 -12 -17 -3 14 0 -2 0 -2 3 -21 3 7 7 -24 -3 -6 -4 -9 -3 -5 3 -11 -3 -8 0 3 2 -14 -27 -10 -14 -14 -7 -14 -3 -14 9 -19 -8 18 -6 -12 6 2 -8 7 -3 4 -6 -20 -21 -5 -14 -5 -13 -4 -14 -5 -3 -2 -25 -16 16 -3 16 -20 -10 -3 -15 17 -6 5 -13 -18 -4 11 2 -3 -4 11 10 4 -10 -3 11 3 -5 4 -25 -12 -1 -3 -2 -3 -18 10 -29 3 12 10 13 2 12 -23 -12 4 14 -13 10 3 16 -7 -13 -7 -7 -13 -12 -10 -3 -6 -14 5 3 -6 -21 13 -11 -3 -25 12 3 10 -19 4 -14 -3 -9 4 -27 -21 -13 19 -29 -3 -16 -2 5 -10 4 -4 -6 1 -9 -9 -2 -3 11 -7 -10 -11 -13 15 3 5 -2 5 -6 -14 3 -3 -3 -5 8 5 -10 23 10 -4 -26 -24 -19 7 1 -19 -2 18 12 3 1 -27 -12 17 -11 -7 -23 -6 -4 -12 -13 14 -22 -6 -10 -6 14 11 -11 -16 -3 -9 8 -12 14 -4 -19 4 -8 -12 3 -3 20 1 11 3 -16 5 7 -9 10 -16 -10 -12 -20 -3 -7 -23 16 -3 14 -24 -3 -6 7 4 -6 -20 -1 -33 -5 -24 -19 -5 21 -8 0 2 -5 -5 -4 11 6 -21 4 -7 -1 3 -9 -7 -17 3 -3 15 -1 -12 -3 -7 -5 17 -28 -8 -3 8 12 17 0 -13 -13 10 3 3 -17 -5 -3 32 2 -17 -1 8 -3 -3 -9 -21 -12 -9 4 6 -8 -19 -14 -4 2 3 -3 10 10 1 10 3 -21 -10 -3 -5 -21 14 30 -17 5 4 -5 -3 -14 -1 17 -7 18 -11 6 2 -16 -15 0 17 -7 -3 -7 -21 11 -16 6 -6 10 -27 -9 14 -11 -3 -15 -7 14 5 10 -20 7 -5 20 -13 -3 11 10 4 2 -18 3 -14 -30 -14 -16 -17 3 14 -6 -26 -17 -8 -18 -24 -16 -3 6 2 -26 7 -4 -12 2 -15 1 1 4 -17 -14 13 -1 14 -6 -30 -6 17 -15 6 6 -4 15 -4 7 18 -15 5 -1 -24 -7 -3 8 -10 5 -3 -12 3 3 6 -1 -7 3 9 21 18 3 5 -3 -7 -14 -7 -17 0 4 -2 27 -23 -7 -28 -7 7 14 -10 4 4 -10 7 3 3 0 4 -34 4 22 -10 7 8 -8 -10 -3 14 -17 7 -5 -24 -18 -11 -6 15 3 -29 1 -6 4 -5 6 4 -11 -14 1 -7 -16 -4 2 17 -13 4 -3 20 6 -16 4 -9 -16 -8 5 -11 6 -4 -10 -12 -3 -20 -20 -8 -2 -7 -4 15 14 -25 -6 16 -8 3 7 11 -3 1 12 3 -1 -13 1 10 14 19 -14 -6 -14 5 -5 -4 7 -5 -11 3 8 3 -5 -4 3 -6 -3 -10 30 2 -14 3 -6 -11 -2 -3 5 -12 13 -3 -23 -21 9 1 -10 4 -9 -3 -16 12 1 -19 -2 3 -2 -19 -10 0 -37 -8 -7 -9 -13 -8 3 21 10 -3 11 -12 21 -5 -25 14 6 4 10 3 -19 2 6 -1 5 -3 -14 -5 -4 -6 7 -10 14 -3 -2 -6 1 16 -3 -13 4 -20 -5 5 -8 3 -3 -4 -6 17 -6 -31 19 -4 7 16 10 -13 -10 18 3 -19 -13 -3 -3 -14 -15 -24 -3 4 -4 -13 31 -13 -3 -21 7 -4 10 6 -25 1 3 9 -2 -13 -24 -5 37 4 21 -7 -7 -7 -10 7 1 3 7 -24 2 -15 -4 -5 3 -11 6 -10 -6 12 7 6 21 -40 3 14 7 -2 -10 -3 12 12 3 7 -13 10 8 -11 -13 -7 -19 -7 -22 -13 7 -14 -14 -13 -5 -2 -5 -7 11 5 -5 3 8 4 -7 -4 -12 3 -20 18 7 -12 -4 -24 -13 -7 3 4 -20 4 -3 -10 6 -2 9 3 -16 5 -13 -3 -20 14 3 -14 -9 -1 2 6 -22 10 -4 -3 -23 6 -9 8 -14 -18 -15 6 8 -6 -3 -25 5 -26 -11 -2 -8 21 -2 4 -27 13 -22 8 -5 3 1 -4 1 -12 -8 -9 5 -5 11 -7 -3 6 -21 6 -3 15 -14 -4 -16 -3 -12 -4 -7 8 -5 -10 -6 -21 11 1 23 -3 -13 6 -12 21 -7 -2 3 4 -7 -17 1 6 30 -3 7 -15 -18 3 -9 -10 -7 2 -10 -2 -12 5 -6 -2 -5 -7 -6 1 6 -2 -18 -5 -9 -8 5 24 15 -18 -4 -7 1 -10 -3 -7 18 3 3 -3 -8 -9 10 -8 -1 12 -7 -1 -4 -7 3 4 -19 11 3 -11 -7 7 7 -8 0 11 12 -13 3 1 -3 -3 7 -14 -9 -10 -9 -17 -2 -20 -14 1 7 -5 33 -3 -7 2 -22 -8 -3 -10 17 17 -14 -3 -3 4 16 5 -14 3 -3 8 -3 5 4 10 -8 -1 -2 -14 -16 -6 -13 -7 4 13 -10 15 -11 -9 -12 -3 -11 -6 -9 8 11 -9 -3 -2 -3 7 -15 7 -3 11 3 -17 -8 -15 -12 3 3 -4 -4 -8 15 -28 0 -13 3 -36 -11 -17 -28 1 -6 4 -6 -19 -14 -3 -28 -13 -13 -30 -28 -6 -9 -2 -3 1 -7 -7 -3 -24 -11 -18 9 5 -11 -8 5 5 -31 3 -10 6 3 4 -4 -29 8 14 -3 -1 -14 -25 -21 -9 4 -13 -16 -12 -14 7 -4 -14 -7 -10 1 -18 6 15 9 -6 10 17 -7 3 -3 1 -2 0 6 20 4 15 -3 -12 2 3 -8 -14 -9 -10 4 -15 12 -11 10 -4 7 -20 -18 -3 -7 -4 -3 10 -4 -23 -3 -13 -3 -5 2 -3 0 2 -8 25 20 -10 -3 6 -1 4 -9 10 -6 5 15 -12 14 -13 -2 7 5 11 5 -15 -7 3 -17 3 13 7 1 -21 7 -11 -19 -10 -7 -13 5 20 -9 -19 2 -5 -16 -3 -7 -6 -26 -1 3 -7 4 16 -14 -6 5 -14 -3 3 10 1 -6 6 -21 -6 5 -11 1 6 -15 -8 -3 8 -12 4 -6 8 14 4 12 -10 4 5 -6 -4 5 -4 30 -12 4 -28 -5 -25 -10 -5 -10 -3 3 -6 -13 -15 3 -5 9 7 1 -31 6 3 -13 10 -3 -16 -3 -7 -1 -20 -7 15 1 -5 7 14 8 -12 -19 -27 3 -2 -3 -10 23 -3 -12 -7 -5 5 -7 4 6 8 -10 -3 -16 2 -23 -1 -17 -14 -13 -2 2 13 -4 -12 -3 -14 -6 -21 5 -7 6 -12 4 -15 7 -4 -8 -16 -4 -7 1 -17 -6 -6 3 -3 -8 5 18 -2 -1 -13 4 -6 4 3 3 -21 6 -3 -13 6 19 -13 3 -22 5 -6 11 -16 -2 -11 3 -13 -21 -30 -10 -12 -29 5 6 -7 8 -14 -11 5 -7 11 8 19 8 -1 12 -21 -3 -10 8 -8 7 3 8 3 -1 8 7 -24 10 13 -4 2 -4 -9 -10 -7 7 5 5 -7 -10 -9 -5 -10 -2 4 2 -22 18 6 -32 -8 -9 -9 14 -20 7 -3 8 8 3 -13 -16 3 1 -7 11 -7 10 -22 -24 18 -14 -17 -4 -5 -18 -25 15 -17 20 29 -6 11 -18 -27 -5 -2 -19 -13 -3 -10 15 9 -28 4 -10 -22 3 -22 0 1 -37 11 7 -3 8 4 18 10 -3 15 -3 4 -7 3 -4 12 -7 -4 -7 -13 -3 -26 -18 -4 3 -6 -2 11 -6 -3 -7 -7 -26 -7 -4 11 -3 4 -8 -6 -5 -10 3 -26 -9 11 10 5 -18 -6 -8 8 -20 -18 5 -10 8 3 -9 8 -9 -3 -2 10 -7 5 5 -6 -4 -13 -24 18 6 -9 10 3 -15 -3 -3 -14 -11 11 10 -20 -7 6 -2 -3 -3 4 20 3 -14 -2 7 11 18 -22 -1 -6 -17 12 -11 -10 11 16 -20 -3 1 2 -20 -10 6 20 -7 -3 -23 5 -1 -11 -2 24 -10 -10 -5 20 -16 13 -3 -8 -14 13 -2 -8 -15 -2 11 13 3 -19 5 17 -23 -13 -3 -5 -1 -18 3 6 7 -11 -10 -14 3 -11 -3 -19 3 6 -6 -8 4 4 -3 -22 -14 11 7 15 -7 -9 -20 9 5 -2 3 16 4 -26 -7 -25 3 2 5 -6 -7 -3 14 -9 -14 -10 29 -7 -7 6 -20 3 3 -25 -17 4 -13 14 -3 16 5 5 21 -6 16 -15 -6 -3 -4 -17 11 -19 33 -3 -7 4 13 22 -6 -10 -29 -3 -3 13 -13 -13 -25 -1 -3 -4 18 1 1 -6 -18 -6 0 7 6 3 -7 -13 -12 -10 -13 -17 14 10 8 -7 3 -7 -3 -9 -22 7 -4 -4 -14 7 -6 -3 -11 -4 -19 -33 -9 -14 7 3 15 -33 -12 -2 -3 3 8 -8 -3 -10 -11 1 13 -4 8 -6 -4 -7 -7 -6 -6 4 -14 -20 21 7 -18 4 4 5 -13 -9 -16 -17 -19 -14 -11 -9 -12 -17 3 3 -6 7 20 14 8 14 -10 -2 -11 27 -10 -13 2 14 -3 -19 -26 -4 -7 -8 4 4 6 -2 -9 3 11 -28 -6 -14 1 -3 5 -20 6 16 -17 -3 -20 -12 7 14 -2 17 7 12 3 -16 -6 18 3 17 -2 -17 -26 1 -3 2 -27 -22 19 -18 -10 -12 2 8 7 -1 -6 -12 3 -3 -13 1 -5 -2 -4 16 -4 -18 -23 -3 4 2 -14 11 -4 -13 -21 -10 -8 -15 26 -11 -2 9 33 -2 -26 -7 -16 3 -2 -8 -7 -10 -11 1 7 13 14 -4 -3 -11 -9 -3 -10 3 -2 28 -6 14 7 25 -20 3 -3 17 -8 18 19 8 9 -22 -13 -3 -3 -10 -4 -21 -7 -2 10 -14 -6 -3 -7 -9 -12 4 -17 -37 3 -3 -15 -20 17 14 -5 -3 -3 -7 8 10 -9 -5 -3 -44 -3 -2 6 -5 -13 -30 4 9 4 11 3 -23 -20 -8 15 -16 -3 -2 -28 24 -11 6 -3 -14 3 13 5 -10 -21 -24 -10 -3 -3 30 -13 3 -3 -25 -13 -7 -4 9 -7 -10 13 7 11 7 -10 4 -18 21 10 -21 -13 -7 7 7 -7 11 -16 -3 -9 -3 -30 -8 -8 -1 -15 3 -10 -5 -14 4 -14 -13 3 6 6 8 11 16 -8 -22 2 3 3 -6 3 -13 -11 -3 -4 13 6 8 -7 -12 -13 -15 10 -7 9 -3 -17 0 -5 7 -6 17 0 14 -15 -2 -10 18 4 -9 -3 -26 -9 3 5 7 -7 -3 -7 -3 -9 -3 10 -6 9 -4 3 10 -20 6 -17 -7 -9 -2 -6 20 -15 -3 -6 -10 4 -8 7 -16 -5 3 -8 0 10 13 -9 -27 26 -20 -6 -25 -10 -23 -24 14 25 -24 11 -1 4 -2 -7 -15 -3 -3 14 10 -16 -3 -4 3 -18 5 -5 18 -10 -9 -6 34 -7 -17 -5 6 3 -15 -1 13 -14 -18 -10 -14 4 0 -2 3 -10 -6 -6 13 -17 -13 -4 1 -20 4 -6 17 -7 1 3 -21 -14 7 8 -3 15 -3 18 -4 8 11 -26 15 17 -2 10 6 -5 -4 -12 6 14 -7 -6 -8 -3 -9 -22 -3 -5 -14 13 1 -10 -27 5 17 9 -13 14 3 -30 -18 -7 7 -15 -3 4 -20 3 -18 8 25 -6 28 8 18 4 5 -10 3 -13 -14 -5 12 -11 -2 -14 6 10 -6 -6 -21 -13 -11 -4 -23 -26 -3 -14 2 -2 -3 -10 -10 4 -2 -12 -10 -7 8 -16 -4 5 -10 18 3 7 0 -6 19 -2 -6 -18 7 -11 2 -2 -17 15 16 -12 8 1 -15 -14 -17 -12 20 -3 -14 17 1 2 -14 -3 -12 -13 6 -8 -7 -26 13 4 -10 10 -11 6 -3 -14 -8 -17 -6 3 -25 -7 3 5 6 -7 2 2 -10 -11 6 -6 -8 6 4 3 -3 1 -5 14 -19 7 6 -10 7 -10 -1 1 9 -7 -11 -2 7 4 -2 3 -5 -3 -43 8 -23 11 -14 -37 10 -14 -3 -2 -13 3 -14 3 17 -7 -9 7 3 2 -7 -12 5 -5 8 -18 1 1 -27 -6 -15 13 7 -2 7 15 10 -14 3 11 -4 -14 28 1 -14 3 -21 -4 -6 -6 -8 20 12 13 -7 -3 7 -4 10 6 11 -4 -2 20 -17 -21 5 7 -6 -2 -3 -14 -17 5 -13 -4 -10 7 -5 -6 2 -14 -15 -3 15 -9 -3 4 -7 6 -3 -12 -6 5 -9 -3 -6 -27 3 14 1 13 4 7 -25 2 -3 20 2 -5 -6 -4 0 -6 11 -12 3 22 12 5 -3 -6 11 1 13 -13 -8 -3 -13 -10 7 -14 -1 -9 -19 -8 -3 -9 13 -8 -1 4 7 -14 -27 -17 -19 -11 6 -14 -13 3 10 4 -4 -17 -24 -3 -13 -1 -12 -3 16 -8 26 4 14 1 -11 1 11 -16 12 15 14 -7 7 -17 -6 -4 -31 -3 3 4 -2 -16 -2 3 -21 -8 -3 1 3 4 -3 -8 3 -17 17 13 -8 31 -3 10 -17 -14 -5 -13 -7 10 -3 3 4 -7 -6 4 17 16 -11 -22 -3 -15 6 -13 -15 3 17 -3 -7 -2 17 9 -4 -2 9 14 7 -7 -14 -4 3 -7 9 -26 -15 -3 -8 -17 -3 -7 -10 2 -14 11 -14 -6 -6 25 -3 1 -41 -7 -8 6 28 8 7 1 -15 -20 -9 -3 16 -11 -5 -4 -15 7 7 3 -7 10 3 3 -14 9 1 4 -20 1 9 3 13 -1 -2 4 11 21 -18 -6 -19 -19 -16 -2 15 -6 8 3 -15 6 -5 6 -9 -2 -6 20 -7 -21 -2 -4 11 -21 14 -6 -3 -7 12 -18 -3 -9 18 -12 0 -16 -14 -14 -17 8 -3 -6 -37 13 10 -1 -3 18 -7 -15 -18 -6 1 3 -36 -8 -3 3 23 2 -9 -3 -5 14 4 4 3 -36 4 8 11 -2 15 -2 -2 -27 -7 -4 -3 -10 -3 2 -6 -13 6 4 7 14 -14 -17 -2 10 -16 -28 -5 4 -16 -5 1 -15 -3 -11 4 -9 -3 -8 -18 -3 21 -8 -7 -1 7 -38 5 3 3 21 -6 7 -14 17 -19 6 1 -8 13 -15 -11 2 -9 -3 -6 -18 8 -12 7 4 -7 -6 18 -20 -10 -10 -10 1 3 -6 -8 3 -15 -21 -19 3 -17 18 -24 6 -3 -3 -14 1 6 2 -12 -4 -7 4 -6 -20 -3 -3 11 -3 3 -3 -7 16 13 20 -9 -12 5 11 -6 24 -14 -10 25 7 -5 10 -3 -7 2 3 -2 -10 -5 -6 -24 -6 2 -4 8 15 -3 3 3 3 5 9 7 4 1 3 -5 -2 12 -5 -4 -7 -24 4 -3 -5 -31 -7 11 3 -5 -10 10 -34 2 -3 6 -15 -9 12 8 -18 19 6 37 -26 -7 7 -4 -6 -15 -6 -7 6 10 18 -24 3 3 -28 -5 -10 -12 7 -19 -5 6 -3 -6 9 3 -12 -16 2 -5 -14 -14 -27 -3 -2 1 -11 -27 -26 23 -4 -3 7 7 -3 -23 7 5 -4 21 14 -11 -8 -5 -6 27 -9 9 -11 -16 11 -32 -6 -16 0 25 14 -5 -5 -20 -3 -18 9 6 -19 -6 -27 10 3 -6 17 -8 -24 15 1 -4 -13 -3 7 -3 11 -15 9 -17 -3 10 6 17 -10 -5 8 2 -14 -31 -12 -3 -7 -7 5 -3 -5 -21 -10 5 -9 -6 -3 -5 -33 4 9 -3 19 3 -11 5 -20 -9 -16 17 13 -2 -11 21 -7 -6 23 -5 0 4 -7 3 3 -22 -3 3 7 -7 6 -10 -3 -9 -10 14 7 -3 -16 5 10 11 -16 14 -15 3 -14 -2 -3 -3 9 5 12 -21 7 -14 2 5 -14 -7 -11 -7 11 7 -11 -4 11 -3 -2 11 -3 6 -14 -16 20 -13 8 4 -11 3 3 -3 -1 -10 -6 -15 -14 5 -16 3 -24 -1 -7 3 -3 -27 9 -13 -6 -5 3 -17 -3 -3 3 13 -4 17 -14 -7 11 6 -2 10 14 3 4 6 3 2 -4 -3 7 15 -19 -15 -1 -3 -10 7 -10 -7 -31 -11 -6 2 -3 -16 5 -14 -3 7 -5 -17 16 -10 6 -20 2 -3 -5 11 -10 -13 -9 -3 10 -6 -4 -9 -5 -6 4 -3 4 6 -16 -3 -3 -12 -8 -17 -22 -10 3 9 -4 3 -15 -11 -6 -7 24 -16 -7 -9 -11 10 8 10 7 6 -13 -3 -7 -17 -13 3 -7 -5 -14 -8 8 -20 -16 12 -4 -13 8 -3 3 20 -3 -8 -19 27 -2 -10 -3 8 1 3 -6 18 -3 -8 4 32 11 6 -6 12 7 -15 10 -13 17 -10 2 12 -3 -8 2 14 2 -16 -3 -13 -4 3 3 -4 -28 -18 6 -19 7 -14 5 -10 -3 3 -37 -33 -3 13 3 -3 -3 -3 -21 -10 -6 13 7 -15 7 -10 7 -7 8 -2 -11 7 -4 -6 -27 -13 4 -16 -3 2 17 18 17 -7 6 -11 10 20 3 4 3 -6 -7 -9 -3 -8 -10 8 6 -6 10 -10 -18 -14 1 -6 7 -9 -2 -4 6 -3 -17 2 -11 -15 6 -7 7 -3 7 3 -6 -7 -2 -21 13 7 7 -8 -19 0 -13 -3 -20 -20 -17 -9 3 -1 3 5 -25 -13 -10 2 -6 10 3 -12 -14 -3 -5 3 -5 -1 15 12 -21 10 7 4 -1 9 -3 8 7 -10 -16 14 -3 -26 -14 7 -7 -2 -6 3 -17 2 3 4 3 -13 -17 -22 5 -12 -11 -6 18 -5 -7 -2 -3 15 -13 -17 4 -6 -3 12 3 -2 -13 -18 24 -12 6 14 8 -2 8 -5 9 21 21 1 -13 -8 -6 0 1 -3 9 18 -11 17 21 -10 -17 1 6 -17 -17 -9 3 13 -18 -13 -9 -15 -3 -14 -8 0 -12 8 -22 -8 3 -35 18 -8 12 -9 -17 -10 -14 -4 -1 -12 -10 3 -9 -24 22 18 19 -2 -7 -8 0 -2 6 6 3 -8 15 8 -10 0 -8 -15 -12 -7 -3 -19 -20 -27 8 7 -1 5 -8 0 -4 -20 3 -9 -6 -13 -17 -9 9 8 -6 -13 -19 -5 2 -6 -10 -7 -15 23 12 4 -4 -17 -14 3 5 -28 4 4 2 1 3 -11 -3 -3 7 13 -12 -22 7 18 6 -1 3 6 11 3 6 -6 -1 17 -1 -14 -19 -17 -6 13 -2 14 25 9 -14 3 1 -3 3 -29 -12 3 -7 4 -13 -18 -10 -24 10 28 21 4 20 7 3 19 -10 -11 -1 7 -1 7 -1 -11 3 -11 -15 16 -7 21 -20 -5 -13 -7 -10 -5 -6 1 -14 -18 -4 7 -4 7 -10 -4 -7 -8 -14 24 -6 -3 -12 2 -20 7 6 -4 10 -3 12 -13 -29 -9 -8 -6 -5 -3 -3 -10 -6 10 17 -2 0 -5 -2 -15 0 -8 8 6 -8 -6 1 5 -9 -8 -33 -6 9 -12 3 -10 -23 4 -4 10 -11 3 3 6 -17 -18 -10 -8 -12 3 2 17 -3 -3 -17 -5 10 -5 3 4 -13 -7 -7 -2 16 -12 -6 13 -9 -9 -7 1 -4 6 1 -1 -3 -16 -16 -7 -20 -20 -11 -12 8 -7 4 8 5 -2 10 7 1 -3 16 3 -3 -2 -10 -4 -7 -20 16 -9 -3 -16 -12 5 -2 15 -8 10 3 12 -19 -7 -24 -11 2 8 -10 8 0 15 -16 -15 7 14 -13 -17 -5 -23 6 -26 -2 -7 -18 -9 1 -23 -6 2 21 4 13 -7 -11 -17 15 2 -2 7 -23 -2 -6 -7 -5 -1 -3 -3 5 28 7 -13 -2 -17 3 -12 5 -17 5 -8 -10 -13 -9 -15 5 -26 27 18 -10 6 4 -11 4 -7 -6 -25 4 3 1 10 -12 -17 -9 -7 7 -3 10 -3 3 3 6 7 -7 -21 3 3 -1 -8 -7 18 5 6 -3 1 -2 -2 -6 -29 -10 7 -6 -5 -13 -16 5 3 1 6 -12 -16 6 14 -1 3 -34 8 20 -3 18 -7 -3 4 33 13 -2 7 -11 -3 -8 -9 7 3 6 1 12 17 10 -22 -8 -3 -13 26 3 -11 21 -3 -10 -5 2 4 11 -8 4 -2 7 -3 -5 -4 11 -10 6 -7 7 -12 5 -7 -8 -3 -7 7 -4 -1 14 -13 -19 -15 3 -15 3 -17 -4 6 -3 4 -8 12 -3 -2 17 -4 -3 1 -2 17 -4 -26 -3 -12 20 -7 -3 -12 -14 7 -12 2 -3 -9 -12 -15 10 -6 -18 3 -13 11 6 17 -6 4 -22 6 -7 -6 16 6 -14 9 -15 14 14 7 1 3 -17 15 -8 -7 6 -2 11 2 -24 17 11 -20 -19 -9 -19 9 -7 3 -3 -16 -6 2 -16 -10 -17 7 13 -8 -17 -8 -2 -8 -7 -6 -15 5 13 -3 4 -5 6 16 6 -2 15 3 -3 8 -7 -8 -9 4 -3 12 -30 -11 28 1 5 -37 -3 3 10 -6 2 -6 -16 -7 -19 16 -26 -28 -28 -6 12 -3 1 -11 -14 -9 19 -20 5 18 -4 3 -5 -4 -13 -11 2 6 10 -13 -4 -10 -16 5 3 -8 -2 29 7 5 7 7 -5 -11 14 -1 -7 1 4 -48 -6 -12 -12 7 -18 -15 6 -5 -19 -2 -6 18 -17 -6 -18 11 -10 -2 -3 -7 -8 4 -6 -15 -3 3 2 24 -7 -1 -9 15 14 3 3 -7 24 3 -1 -2 -17 -24 -22 6 10 3 -2 -13 5 -11 2 -5 1 -6 -7 -17 -6 21 -2 6 4 -3 -7 -10 -22 -26 -12 4 -4 -6 -16 17 -3 12 -13 -3 -2 -20 22 13 2 -27 3 25 -6 7 -19 -10 -6 -10 -3 -4 8 -3 9 2 2 6 -6 23 -12 20 -15 -19 3 -8 3 -19 -22 6 -16 -3 -27 -10 -6 -3 -8 4 9 -6 -3 28 -10 -22 -10 -6 -9 -4 -16 9 11 6 -3 4 -16 -7 -12 -23 10 -3 4 -5 -7 1 -24 2 -1 -24 6 -29 -1 -3 11 9 -24 13 5 -20 16 -11 5 10 0 0 6 -8 11 -3 -6 6 8 -13 -2 -3 -10 1 10 -12 -7 -28 -9 -15 4 -3 -24 -6 -6 -17 -6 -3 -3 21 21 -10 7 3 -17 18 -16 15 -1 1 -12 -16 2 -1 -3 4 -9 -8 -14 -3 -1 -2 -3 -17 -10 18 -3 2 -19 16 15 -6 -4 12 3 -4 6 -16 15 3 -18 -36 17 -17 10 0 -14 6 -8 -6 -20 -3 -1 -6 10 -3 -3 2 4 -3 21 15 -22 -7 23 8 -18 -21 -6 7 -5 16 7 3 1 -14 7 -10 -3 7 1 -7 -4 -5 12 3 -22 -3 6 3 -6 -8 -5 11 -26 10 6 -17 3 7 3 -9 -20 -4 -28 15 8 -9 -16 -25 -17 5 10 -13 -5 19 -25 3 -8 -19 -10 -14 3 -24 -1 -11 -2 -10 -17 -5 -3 -11 14 -3 7 21 3 -14 -9 5 -5 4 -10 7 -8 4 -10 -14 -13 4 17 -3 -3 8 -3 11 -3 18 -2 20 21 -10 -7 -14 19 -10 3 -10 -3 7 -14 10 -17 -6 13 -7 10 0 -24 -3 14 4 -7 5 -6 6 -8 -4 20 11 -3 -3 -4 -21 -8 18 -27 -7 -16 -20 5 -4 -31 -2 -20 4 20 14 19 -19 -14 -3 -6 -5 -2 6 -11 -3 2 -6 -7 -2 -12 4 -9 -3 -7 1 -18 1 1 6 -8 -2 -3 2 -3 -5 -7 9 10 0 14 -13 -4 11 17 -8 3 -3 10 3 -1 4 -4 12 -14 -15 -9 -8 10 24 -4 -33 5 -4 5 16 10 -3 14 -6 -13 -3 -3 3 17 -14 -3 -34 11 -16 -2 10 -2 -3 -8 7 -2 -19 3 -6 -11 -18 4 -4 -14 -2 -28 -1 3 -5 -14 -9 -5 17 11 -3 -6 0 -27 -7 4 -30 -17 3 4 -16 7 -13 -19 3 -22 7 9 -2 -7 -5 11 -6 -3 -4 -3 -7 5 12 -4 6 19 10 -17 5 -7 10 18 -4 14 6 1 6 11 4 16 -8 -12 -6 31 -7 -22 -23 19 13 9 -8 10 -10 -6 -11 27 -11 -12 -3 8 6 2 8 10 -9 1 -17 14 -29 -15 -19 -3 -3 7 5 -7 -3 0 -24 -6 4 11 -6 -6 4 -19 4 14 4 -3 -9 -6 15 -9 -12 -21 -5 -1 -6 -3 25 -14 -13 -5 6 -7 7 7 3 4 3 -3 -27 12 -6 -8 -17 -22 -4 -7 15 -4 16 -12 -14 -3 9 -6 -5 -13 5 -1 -2 -15 3 -3 -3 -1 4 1 11 14 3 10 -6 -20 14 -9 12 -13 -19 -7 -3 -6 -4 1 -10 -17 -10 12 4 3 3 -3 -9 -7 -1 5 -8 3 7 8 5 -5 -11 -24 -10 -6 -5 -17 -10 7 4 24 1 3 0 -3 -6 -15 -32 1 4 -6 -5 -22 -28 -20 10 -11 -21 2 -8 -3 -6 -10 -6 3 4 1 -1 -7 -30 -5 -3 -2 -8 7 -14 -9 6 5 12 -6 -15 6 16 -4 -3 -8 -7 -24 -20 8 8 20 8 -4 -7 -3 -22 -10 5 -20 9 -3 -3 -10 13 -6 -22 -1 -11 -1 1 3 3 -6 -9 -10 -9 -2 -10 -5 -4 -32 14 4 -15 -4 -7 3 3 -11 4 -2 -9 -6 -8 7 3 19 1 16 10 5 10 -6 11 -17 27 3 -6 -18 -15 -2 -5 -5 4 12 11 -18 -13 -7 -10 -6 -13 7 3 4 21 11 -31 12 3 -4 -14 -2 -5 -19 -2 -17 7 5 29 2 -21 3 13 -30 -13 -7 -13 4 -15 -10 -10 4 11 6 -7 0 -9 12 -6 0 17 -6 -10 1 -6 -6 -8 -6 -4 -4 24 -3 -20 -3 3 -3 3 -6 -14 -3 -11 14 -10 -17 5 3 3 -8 -1 -7 8 6 -23 -6 -5 4 -3 10 -3 -8 10 -3 -11 -7 -38 1 -10 -5 -20 -7 25 -14 3 13 -3 -3 3 -7 3 -3 14 8 -1 12 -5 -24 3 -3 -1 -14 4 -1 -2 -1 -14 6 -12 -19 -6 -25 -30 -3 -4 -17 -9 -6 5 -11 -9 14 -14 -21 -3 -5 -2 -8 -24 -29 -7 -5 -8 12 3 21 -6 -11 6 -2 3 -12 8 3 -22 -6 8 -7 -7 6 6 3 6 -24 -5 -18 -13 0 1 4 15 -7 11 14 6 9 -1 -3 -13 -14 -6 -6 -17 3 -8 -29 -4 -29 -3 -20 3 26 6 -10 6 7 -5 -10 -13 -12 6 -13 4 -13 16 -20 4 -7 -13 -1 -3 -7 -12 4 6 -16 -11 13 -10 -7 -4 -32 -11 -6 -3 20 -3 4 4 -20 -17 -10 -6 7 1 -3 -6 13 11 -5 -8 12 -6 5 -4 3 3 17 -22 -17 -2 -7 6 4 5 10 -17 4 -11 -10 3 8 0 -6 -11 3 -6 3 -17 -6 8 5 -16 -12 -1 -4 -19 24 -6 5 -7 12 3 3 3 -1 -7 -16 -10 -15 -10 -3 -4 10 10 2 9 2 -3 6 6 -2 7 -14 6 -8 22 -3 -10 7 -2 -17 -34 -17 -7 6 3 -6 -6 -3 -3 7 5 5 -3 -6 4 14 -2 -6 -2 4 7 3 -10 -4 -12 -1 -6 3 19 -27 3 5 9 1 12 -6 6 -6 -9 -3 11 -5 -4 -10 20 -6 21 -14 3 -2 -17 4 10 -21 7 -15 -2 4 -3 -14 25 -10 -4 4 -12 -6 0 -22 -14 11 11 -15 -19 -11 -9 4 2 -17 -10 -12 7 -3 -6 21 -6 -24 16 17 -13 -2 21 -13 1 -5 -10 -3 3 -7 -10 7 17 -3 -16 -25 2 -5 -12 7 14 4 -17 3 -24 12 -14 -5 32 14 -14 9 8 2 -11 -24 -10 9 17 24 -3 5 -8 -21 4 -1 -17 -4 10 -10 2 -13 -9 14 5 10 10 -5 -7 -33 -10 10 1 7 -6 1 -3 -4 -6 -1 -1 14 -14 -1 -2 11 14 7 15 7 20 -36 3 -1 9 -8 -3 -11 -20 -9 8 -2 3 -6 3 -11 -13 -13 3 -11 -17 -8 3 11 5 -9 -1 -5 -2 -7 -4 -9 6 -7 13 6 13 1 1 -3 -5 -2 -17 8 4 1 24 6 -7 -6 -32 -4 -5 -8 -11 -9 -6 -3 1 3 -3 -7 -15 3 -17 14 -24 10 8 -10 18 -3 7 -11 -1 -27 -19 -17 -20 -9 14 -7 -8 4 -2 -13 13 -29 6 -5 -19 -24 3 -9 -6 3 -15 3 3 -20 14 7 -12 -13 8 -21 -3 18 -16 -11 -3 -11 1 7 -9 -3 21 -23 3 6 7 5 6 17 10 -2 -9 -28 3 -4 -14 -3 -4 15 -3 -7 5 7 -5 -7 10 -6 -17 -6 7 -3 -16 -14 5 3 2 -6 6 -19 -12 -3 8 -10 -11 -13 1 -7 -3 -3 2 3 17 -14 18 -7 3 9 9 -34 -19 1 3 -17 -18 8 -2 3 -8 -18 -12 -3 25 -14 -4 -6 -3 21 7 7 -7 -3 -15 -21 -11 -3 16 -7 -2 -13 3 12 2 3 -2 8 -7 -27 -4 7 -2 -3 -6 3 17 2 -5 7 16 -3 16 3 1 -6 12 -6 28 -20 -16 17 -16 -3 -3 18 -18 11 -37 -5 -12 -23 -15 -10 -1 14 -7 -3 -7 -6 -1 7 -2 24 -2 -1 3 -20 -3 -10 -11 -8 6 10 9 7 -6 3 -7 -5 17 -9 -3 8 -22 0 4 14 -7 -8 6 -3 -5 16 4 -11 15 1 22 -10 -3 -24 6 -3 6 -10 -23 -14 21 -10 -8 -15 11 3 -3 -10 -14 -3 -10 12 9 -4 5 -22 -6 0 -17 -5 -4 9 -6 -5 -17 -11 6 -17 10 -10 -6 -18 -2 5 -9 -20 -3 -6 -6 2 4 -6 4 -3 10 -7 -6 5 4 8 -13 -10 -2 28 -20 -25 1 2 4 5 9 10 4 10 7 1 -3 -4 -12 -17 -2 -7 3 -3 -28 2 -6 8 -9 10 -6 4 -14 6 7 -7 -7 4 16 6 -7 -8 2 17 22 4 -22 8 -3 17 -15 11 14 -9 -14 -16 -2 11 -20 -5 14 7 -20 -3 -3 -7 -4 -1 -3 11 1 4 25 -2 -4 -6 -13 -2 -5 -11 -10 -20 7 -9 -7 -5 -3 -14 -13 -2 -17 8 -6 -14 -3 16 -14 -5 -17 -3 21 12 -25 16 -6 -7 -16 -3 -2 7 -9 3 18 -3 -13 -23 6 -30 -6 -10 10 -21 -10 -7 6 -9 -11 -3 -6 14 -17 4 -3 -1 -9 7 0 -4 13 -12 -13 7 -8 17 4 -3 -7 -6 1 -3 11 15 -6 -17 -7 0 5 22 23 -18 -9 -10 1 2 -3 3 -8 3 -3 -4 -23 -13 -14 -7 7 1 -22 -24 -3 -2 -13 3 9 -11 3 -13 0 6 -26 6 -17 4 1 -2 3 -14 -10 -10 -7 12 -20 -5 13 5 3 -11 8 -31 -5 -3 -2 -25 -37 -8 -3 -27 -20 -6 -3 17 -13 12 3 -5 -17 -4 -21 2 4 -2 16 -2 -20 -7 5 -5 8 6 -18 6 8 20 3 4 -20 -6 -11 13 -20 -17 -7 -6 23 -5 16 -6 -8 -11 14 14 -8 9 13 3 14 18 -9 -12 -4 7 -16 7 1 7 -8 -16 -4 -6 -10 8 3 -29 -2 -10 3 9 7 27 -11 7 -3 21 -14 10 4 19 -3 1 -5 -3 11 9 -3 7 12 -12 -16 4 7 -4 7 -17 -14 -5 -10 -6 -14 -6 -11 6 10 -7 -10 4 8 -18 -3 -3 4 -17 -9 14 10 3 -6 -8 -15 -26 -5 3 3 4 -11 12 -15 -9 6 1 -2 -3 -1 7 4 -3 14 -4 13 6 7 2 6 -14 7 11 -4 -14 -16 9 11 -7 -40 -31 -4 4 3 5 -10 3 5 4 -3 4 -8 -20 -11 -20 -20 1 -3 3 10 -3 -4 -15 3 3 -32 4 14 -37 -7 -17 -1 -20 -36 -5 -9 4 -8 -8 6 -11 -3 5 -17 2 3 11 5 -6 -9 -15 2 7 3 13 -11 -15 -11 -19 -3 -7 -2 22 -15 -11 -6 19 1 -18 -21 6 -23 5 11 4 -1 -3 -3 2 -3 4 4 -15 -12 -18 -6 -14 10 -3 13 6 -8 -14 5 10 -8 8 -14 3 -17 -28 24 4 -20 -20 -13 8 10 7 -6 5 2 4 3 -4 -3 26 -7 3 5 10 -2 -4 -5 8 -6 6 8 2 6 -3 7 -11 4 -4 -7 0 -30 6 4 -30 14 -17 1 -7 -1 -6 15 6 -3 6 -18 6 3 -11 3 -10 3 10 13 -16 -7 -14 -7 -1 -9 9 4 16 6 -2 -9 -9 -4 -3 4 19 -4 -9 -4 24 13 1 -6 -11 22 -24 -15 -1 -3 3 -3 -11 -6 -15 5 -3 -3 2 -17 -16 11 -4 -3 3 5 -2 -3 -16 -3 -4 8 -20 -18 -4 -26 24 -6 -14 15 0 17 -6 -3 5 1 11 3 -10 1 -15 -4 -7 -15 -2 -11 7 -6 -5 5 -5 -6 -12 -8 -15 4 20 -6 -1 6 -10 -9 -9 -8 7 3 1 -7 6 -7 15 20 1 15 7 7 -3 -6 3 14 -14 -2 -19 -6 10 -7 -4 8 3 0 -12 -10 2 -16 -9 6 15 3 -5 -16 -16 -3 -27 -5 -16 -5 -3 -12 -3 -3 11 -8 6 -17 16 -6 -27 -5 -14 -32 3 2 3 -8 -15 3 -6 0 11 -6 -5 0 13 -7 5 -27 -2 8 -26 -16 -4 4 -8 -6 -3 -3 -19 8 -5 -14 -11 -2 7 -13 3 5 19 6 11 11 -5 -8 -10 -10 17 -24 -10 -2 -10 -7 -38 -9 -14 -8 2 7 22 -6 20 12 -6 -14 19 -5 -2 17 -10 -3 4 3 9 -9 -5 0 -4 -19 1 -16 -9 6 -10 13 17 -6 3 2 -11 -14 -14 -5 -24 -3 -17 3 -3 8 -3 -4 -43 -14 16 12 -3 -12 -9 -7 -12 -15 12 3 14 0 -6 -13 -1 -19 13 -17 -9 -2 -26 -5 -11 -4 -23 14 -11 -12 -14 10 -24 -2 -5 4 4 -6 -3 13 19 -7 11 -13 2 -1 -3 3 -11 6 -9 3 -4 -1 -3 -6 -2 -3 9 -16 -3 -4 -6 -5 -15 16 -9 -5 -13 -6 10 20 -7 -4 -2 6 -7 -1 16 7 -27 5 8 -9 -2 11 -7 -25 5 -6 -9 -6 6 13 -7 22 -3 -5 6 2 3 5 7 -9 -7 4 -17 14 -7 7 -5 2 1 -6 -27 8 3 4 -3 -7 -3 32 -19 5 -10 -7 -10 3 14 4 3 -4 -7 6 -20 -6 -14 -6 -6 8 -11 -1 4 -17 -13 -10 -10 -6 -2 -6 18 2 -14 8 -10 -3 9 8 -10 -5 -10 -7 20 6 -2 -7 3 -6 -14 6 -16 7 -7 7 -23 -5 -7 -2 -9 6 -13 5 -23 -7 -17 7 3 3 -20 0 21 -5 14 11 3 -1 -7 -4 -14 7 -14 5 -7 -3 1 -10 -2 -13 -8 -3 -8 3 21 1 -6 21 8 -23 -14 -9 32 -2 -3 6 -2 -10 11 -1 1 -13 -3 -3 14 -2 15 -13 -1 -14 4 -7 -3 9 -32 1 -23 -15 -2 -10 2 -7 4 4 -10 -7 -7 15 2 -2 -24 -14 -19 -5 -4 -5 -14 -6 4 5 4 -14 -13 4 -10 -10 -13 -15 7 -16 -11 6 3 3 -3 3 3 -23 -2 -11 -5 15 -7 -1 4 -7 21 2 -4 -1 -18 1 -18 -3 1 7 5 5 -10 -3 17 -3 -14 4 -10 -3 3 -14 3 0 -5 -13 4 0 -13 -14 -24 -26 -9 22 7 2 -20 -10 -21 22 0 -3 7 -6 -2 17 -5 7 2 9 -13 -10 -9 13 9 -8 -15 3 15 -26 -3 -20 -20 -14 6 -3 -7 4 -11 -3 10 -7 -20 -2 -13 -23 5 -3 18 10 -18 -10 -7 -27 3 -8 16 -2 10 -3 3 3 2 14 -21 -16 -3 4 -5 3 -14 1 -12 -17 24 -3 -7 -26 -14 -4 1 -22 -6 4 -22 3 -4 5 -2 14 -5 -4 17 -9 0 2 8 -6 -8 -20 -2 -6 -6 -21 10 -4 -10 9 3 -8 -3 14 4 -24 -3 -3 -1 4 -17 -3 -9 -21 9 -17 -21 -12 -3 -7 -12 7 -16 -2 4 15 4 10 -16 6 -4 -12 9 -10 7 -15 3 10 -21 -8 -7 -4 -14 6 4 -3 -5 14 -16 3 0 14 -8 15 7 -3 -6 -9 -41 -6 12 -8 -6 -11 -6 7 -7 4 27 -28 -22 -18 9 -6 9 -3 7 7 18 6 25 -13 5 -7 -14 14 -13 -16 -12 -31 -10 -14 -14 -3 -11 1 -9 -7 -5 3 -8 -9 -11 9 2 -10 -5 16 -6 -6 -3 -3 -20 -7 -3 -7 11 -4 -11 -6 4 -13 20 14 -20 -8 -1 4 10 -6 -11 -18 -2 10 3 3 -27 5 -3 -10 -5 -5 -38 -24 -17 7 12 -16 9 -6 -7 -15 -3 3 -17 -13 -24 19 4 -1 -3 18 -6 2 -16 -4 -13 -8 3 -6 -3 -7 -3 24 0 -5 -17 -4 -3 -7 3 -17 -11 16 5 2 14 -10 15 3 -21 16 -4 -10 -6 -17 -7 14 -21 -11 -1 3 -6 11 -8 25 -24 6 -3 25 -1 -3 23 2 -13 11 3 -2 6 -12 -17 -3 -30 10 6 1 8 12 -1 18 2 3 -16 -5 13 3 -18 11 -1 3 -10 -10 -6 -21 5 5 3 -3 2 -14 -7 -15 -3 -2 4 13 1 -6 -5 -26 1 -3 6 -3 -15 -1 4 3 -3 5 -3 -11 -2 6 -2 -3 4 -3 10 -6 -29 12 -33 -18 -27 -17 -4 7 3 9 -6 3 -18 -14 -13 10 -5 5 5 -17 6 -7 -1 10 -15 20 -3 6 6 -12 -4 -15 28 -7 6 -26 -11 -6 -20 -11 -6 -6 -17 -25 -4 -8 -16 -3 -17 0 -7 -4 -13 6 -8 -3 17 5 3 7 -7 3 12 -23 11 -26 -5 20 -3 -5 -25 14 -3 -9 -6 -7 -17 -16 12 1 -3 -6 3 -7 11 11 2 -14 -2 -4 -14 14 7 -7 -13 7 9 4 4 -7 -18 7 -7 -9 -14 -7 14 -3 7 -6 -21 34 17 -6 11 4 -6 17 21 8 -1 -24 9 11 -10 0 -1 -10 3 9 10 8 -6 -8 4 -3 -4 -2 -16 -16 -10 3 6 -4 -4 9 -3 14 -6 -4 1 4 -7 -11 -15 -3 -9 -3 7 -17 -20 -17 -7 -16 27 -6 -1 2 1 -6 -17 12 1 4 10 -17 -14 3 -13 -13 7 6 -13 10 -4 -3 -23 11 -10 -3 -12 5 -23 -11 -3 -3 -13 -11 14 -11 -14 3 6 -22 -16 3 -16 -3 -13 -7 -1 14 -15 11 21 7 7 2 -3 -27 -4 3 -17 -4 -10 -12 9 1 -7 7 -21 10 -3 -2 19 5 3 -16 14 3 -14 -11 16 4 -6 -10 -6 -6 -14 10 -13 -11 -5 -13 -13 -3 17 -11 7 10 13 -15 -5 12 -6 -6 -7 -3 13 -3 17 -5 -2 -3 -8 -1 6 7 17 -9 4 -10 18 7 -1 -19 -6 -6 -20 9 10 -11 -17 3 7 -19 -3 8 -6 -3 -5 -1 0 -5 -3 3 10 -25 -17 -11 -18 13 -13 6 8 13 -15 -10 -11 1 13 4 13 -1 -6 -27 -12 -17 -1 15 3 -31 -12 -11 -13 10 -16 3 -5 3 -8 15 15 -18 -19 -17 7 14 -5 10 3 14 -9 3 8 2 -9 -2 21 -2 -11 -14 -17 3 -21 -9 -17 10 -9 3 5 3 -3 -8 3 -9 -7 6 -6 -7 7 7 1 4 3 0 -4 -6 -8 -3 17 -3 -20 -5 -7 -3 10 12 -8 -12 -3 10 24 -6 -2 -13 -7 7 -5 -24 -3 -22 -1 16 -6 -3 11 7 32 -7 1 -15 -6 -21 10 35 -7 -5 -21 -6 1 -11 -21 8 -10 -4 -2 17 -20 5 -11 -20 -3 -24 -25 3 -20 -7 -9 15 -7 -8 -3 7 -16 -9 -2 1 -9 -15 13 -5 3 -2 -8 -6 15 -17 10 10 -13 -26 -1 -23 -4 -9 -14 3 8 4 7 16 -15 6 -17 -6 22 -9 2 -2 -15 -3 6 3 -4 -1 -6 15 -8 -25 -14 7 -3 -17 -15 -3 3 8 1 -2 -7 -5 9 -24 -4 -6 2 21 -22 -3 -20 -6 -20 -7 -4 2 -20 3 9 3 8 -18 7 3 22 -16 11 -11 9 -2 9 -15 -15 -3 -38 -5 11 -13 -20 5 14 -9 -19 15 18 -7 -8 -17 -9 -3 -3 -15 9 5 -6 -7 -20 -2 -16 -18 3 4 -7 8 14 15 1 -3 -10 -26 -6 5 6 -5 10 -2 -29 -12 10 -8 -4 -5 1 18 4 2 3 -20 -13 3 -13 -7 -6 -4 -10 -7 -15 2 5 -13 -20 -12 -3 -13 -27 -13 -6 -4 -31 6 7 10 -4 10 7 -7 -6 -8 0 -10 -15 0 -2 8 -1 -8 13 4 -18 -1 7 21 21 21 -10 -3 16</t>
+  </si>
+  <si>
+    <t>NIG(77.77400669411206, 35.55274629874881, -1.4411214076253804, 73.5772625335316)</t>
+  </si>
+  <si>
+    <t>28 51 33 34 39 22 29 51 43 38 41 37 39 40 27 26 19 44 43 36 46 45 39 34 33 39 40 32 44 39 25 16 45 41 41 34 42 38 41 31 54 25 37 50 30 44 35 48 35 44 55 40 32 41 29 38 34 41 36 47 35 35 25 20 33 35 54 33 29 29 40 51 32 40 40 38 22 34 37 52 25 41 24 47 37 44 33 63 36 15 48 26 16 15 31 36 29 44 45 29 19 27 43 37 44 37 26 50 33 41 19 29 43 40 47 29 33 34 23 53 40 31 51 40 50 33 30 32 36 37 22 59 36 31 65 26 36 30 35 47 35 27 47 57 28 47 33 37 41 41 31 43 31 56 36 37 27 46 48 37 36 49 35 28 39 41 31 35 30 15 26 47 47 60 59 16 50 23 47 42 57 51 61 23 46 48 24 47 40 47 29 37 50 29 35 49 29 44 46 11 26 40 36 43 20 21 38 30 37 52 26 34 43 26 19 23 24 35 36 41 50 33 32 46 33 33 29 40 48 42 51 22 25 36 32 58 40 34 48 30 42 17 41 41 36 29 33 28 33 43 46 43 37 31 28 45 26 31 42 43 27 17 34 41 39 34 28 17 35 31 37 30 60 51 40 22 34 47 39 27 40 32 23 29 34 45 21 33 35 47 26 29 47 51 29 31 51 61 56 24 26 30 47 51 54 50 41 21 42 33 29 51 32 35 36 27 41 62 37 30 40 52 26 27 23 43 44 26 42 47 31 48 35 32 22 56 43 40 29 39 24 44 49 44 46 40 35 53 38 31 39 30 50 37 27 39 35 50 42 44 21 29 33 18 45 28 39 36 42 30 30 25 20 68 43 33 37 40 29 38 30 33 52 48 57 49 36 38 36 23 42 51 37 23 30 41 40 36 43 27 43 47 41 51 35 27 29 38 37 43 43 52 67 57 46 43 17 57 45 31 43 31 36 29 29 41 38 43 51 36 38 32 19 22 49 36 48 55 23 22 9 15 29 22 67 30 50 36 23 40 28 42 29 52 57 46 60 40 41 29 35 53 62 45 40 44 40 30 26 23 37 26 40 12 50 25 30 40 35 34 26 47 34 43 42 29 29 58 23 40 21 40 23 26 31 51 37 48 48 33 38 23 46 44 43 40 22 35 25 29 49 41 43 34 37 25 37 26 32 28 49 27 31 42 42 38 42 27 28 40 59 43 36 40 51 32 39 36 22 33 44 44 33 29 9 45 52 35 40 35 38 27 32 36 58 43 22 34 47 24 44 46 51 46 41 38 8 43 41 43 32 27 27 40 25 43 30 34 33 45 36 43 36 25 29 37 47 29 48 44 29 39 33 48 36 37 40 29 39 22 31 32 40 31 41 35 54 24 38 27 32 43 45 26 51 39 41 39 41 39 45 44 47 40 22 50 31 54 36 31 31 41 31 61 29 40 47 22 30 26 41 39 25 34 48 48 47 57 29 54 22 45 42 26 47 23 36 35 29 22 40 46 25 31 37 26 38 33 20 25 31 25 35 28 37 21 40 37 36 49 31 46 37 53 41 39 40 44 34 24 33 48 52 49 29 27 25 32 40 36 43 35 22 31 28 28 25 25 40 29 44 44 30 37 41 23 29 44 43 31 26 33 28 51 48 44 19 30 35 37 35 41 34 16 44 45 41 33 33 13 52 19 51 33 25 35 20 21 42 43 33 22 33 33 50 41 37 54 38 42 29 45 20 40 35 46 39 57 15 26 43 42 31 30 29 29 43 36 27 22 37 40 23 36 27 20 33 34 54 37 34 32 33 35 32 47 53 44 52 46 27 48 33 49 30 29 19 26 47 39 36 40 33 51 42 29 43 27 23 40 35 20 16 50 44 43 37 34 24 22 54 34 28 29 37 23 44 49 37 44 23 36 16 38 23 43 30 29 30 29 34 44 40 19 47 19 50 52 29 31 23 19 33 47 48 54 50 65 29 57 41 50 48 30 34 29 33 37 41 44 41 33 43 54 47 31 53 36 30 42 50 40 20 25 45 40 32 51 37 37 30 37 36 30 22 49 16 43 33 41 34 33 26 43 44 59 42 21 36 40 39 54 44 33 38 31 36 29 34 29 41 31 31 43 42 26 33 16 32 34 23 53 22 33 54 27 18 37 19 37 44 33 31 26 43 52 25 41 44 40 42 54 22 30 42 33 40 27 45 24 45 32 33 37 26 28 38 19 47 42 35 34 29 25 27 40 46 33 28 30 31 52 44 47 25 55 39 44 43 48 26 15 33 32 27 23 47 43 42 49 29 36 43 32 42 39 63 44 31 23 19 63 33 27 31 43 37 37 38 37 37 35 27 38 45 58 54 46 62 37 58 29 47 33 35 62 38 31 31 49 31 41 33 33 19 52 47 42 34 36 35 36 35 60 44 36 36 45 20 33 47 28 40 31 33 29 30 33 69 63 36 51 36 33 41 51 32 36 30 37 44 47 58 28 40 19 51 42 39 29 26 39 51 37 33 37 46 44 40 19 44 29 35 42 32 35 36 51 37 30 33 42 38 53 29 41 40 45 47 30 33 33 19 29 22 36 30 35 39 37 33 50 30 40 48 27 19 41 38 28 35 26 37 26 41 22 37 41 38 37 37 32 28 40 41 26 49 44 26 30 37 50 33 34 47 51 30 27 46 36 46 16 44 29 18 33 66 35 18 44 34 13 35 27 42 23 42 25 43 35 41 38 27 42 40 24 36 58 19 41 51 48 39 33 44 34 45 49 27 30 16 55 41 34 40 23 39 47 50 43 28 25 48 27 29 47 47 48 22 46 41 40 24 34 37 44 28 42 37 47 32 33 46 52 41 53 38 41 19 44 37 21 43 36 33 30 22 56 22 13 45 39 34 39 37 55 40 45 41 20 22 39 25 40 39 30 27 37 48 45 39 27 42 36 38 36 51 42 44 42 45 41 16 37 36 41 33 39 35 29 42 42 44 43 39 55 48 21 28 33 26 37 28 22 45 28 26 46 35 21 35 51 34 46 33 51 33 30 19 40 31 34 30 53 35 23 63 43 40 47 25 42 50 35 34 33 33 25 30 24 28 47 44 43 51 43 26 44 35 36 39 37 40 34 53 52 44 41 51 26 31 28 38 40 19 54 47 26 35 42 43 27 29 27 41 32 45 30 37 48 30 43 44 57 23 24 29 42 35 22 51 31 46 35 21 39 27 37 40 32 31 43 44 45 9 32 67 45 35 30 73 28 30 46 35 50 37 43 39 45 49 37 43 40 37 29 39 28 36 33 42 39 45 34 49 45 43 47 42 36 39 52 43 20 44 37 13 35 31 45 25 29 36 33 38 24 51 23 38 40 44 18 47 32 33 42 9 39 39 33 31 41 30 20 10 17 37 33 31 43 54 39 38 48 37 48 41 41 38 35 35 41 35 51 55 32 37 38 25 42 30 38 44 27 20 33 27 33 31 37 26 34 30 48 49 38 53 52 33 46 47 44 43 34 29 47 48 23 23 35 34 23 40 50 40 51 44 41 33 43 46 44 35 37 39 45 36 45 37 34 41 22 37 39 38 47 41 25 44 33 47 42 34 44 20 36 36 40 43 51 38 27 35 21 34 43 34 39 40 29 48 43 18 28 48 32 47 26 38 36 28 51 25 24 55 22 51 39 43 42 37 33 33 37 22 48 29 22 16 37 40 48 29 38 54 25 39 47 42 39 39 41 26 41 38 57 50 26 36 33 39 33 23 29 23 34 23 35 37 27 51 29 39 28 35 36 30 10 30 26 30 31 29 26 47 41 48 48 29 37 40 46 45 26 36 43 29 50 46 29 40 26 44 30 47 34 27 44 37 20 27 34 43 38 39 28 48 51 36 33 23 31 36 22 37 56 42 49 47 32 51 47 52 31 16 44 33 27 42 26 27 36 36 16 35 24 58 22 35 44 32 40 32 42 58 36 39 37 33 36 24 42 39 42 43 39 40 40 24 36 33 42 41 37 50 54 35 33 40 35 39 44 42 33 38 41 25 50 24 45 22 41 49 43 41 26 37 60 41 36 30 26 23 33 23 19 27 51 40 16 16 20 16 29 15 43 62 28 31 44 53 35 43 32 30 55 53 42 29 33 12 37 40 52 31 34 36 33 25 43 26 23 53 54 24 59 40 51 34 34 32 32 26 52 38 26 40 34 36 37 29 38 44 54 56 41 46 36 42 40 44 40 40 35 31 47 37 33 33 35 57 37 56 38 32 36 41 33 64 45 41 39 40 17 37 34 15 27 43 30 24 19 37 40 40 26 33 34 29 50 45 44 51 44 39 21 24 40 36 37 27 27 38 27 37 24 33 55 30 19 34 41 47 28 33 59 23 19 43 33 47 32 70 23 23 54 25 25 25 29 46 36 31 41 30 29 32 29 36 30 27 29 37 35 33 48 36 42 43 42 58 50 30 37 40 38 35 35 36 38 33 41 32 39 19 44 37 35 40 44 29 41 29 44 34 37 41 35 39 29 41 37 42 47 56 22 37 21 47 28 22 51 26 32 32 23 21 43 36 54 33 23 37 51 52 28 30 33 50 28 37 42 44 42 29 38 29 17 38 43 33 22 45 40 34 21 37 42 29 26 37 40 39 35 22 35 12 42 44 29 21 41 45 38 30 45 44 44 51 45 27 39 40 28 41 30 42 44 40 39 33 36 33 54 33 46 37 53 30 27 52 38 28 33 25 37 37 22 39 37 21 41 29 41 25 47 26 35 39 31 39 21 33 40 29 19 43 39 35 51 26 50 43 57 31 60 36 46 46 40 34 42 34 36 36 32 31 40 29 37 31 45 27 26 37 25 33 35 47 46 50 42 43 39 53 40 30 30 34 36 31 37 43 34 37 38 19 32 37 27 26 36 30 26 32 43 47 23 41 33 36 43 54 44 23 31 29 23 51 45 60 24 51 50 42 41 30 48 48 41 46 31 24 23 25 56 36 34 32 36 16 20 33 23 42 32 54 39 29 46 23 19 50 40 43 43 36 37 42 34 31 44 34 16 31 33 23 52 19 39 44 30 51 44 49 28 31 42 36 38 29 31 43 41 42 25 32 43 31 36 51 36 16 41 31 42 24 25 40 30 51 18 36 26 47 10 43 38 13 47 19 47 31 32 42 29 32 32 19 51 40 33 27 37 31 37 34 29 30 33 30 20 23 23 30 27 53 39 41 65 37 36 30 43 22 22 36 40 33 31 43 46 43 37 27 44 25 33 15 43 37 36 51 32 26 43 35 31 43 26 49 30 39 36 30 38 48 19 61 39 37 30 38 54 29 55 47 32 37 37 25 35 26 32 38 25 58 36 26 22 34 32 47 37 30 23 35 42 32 40 42 33 22 34 32 23 31 32 19 31 35 36 33 27 37 30 42 38 54 40 45 33 29 42 45 42 24 37 24 27 38 40 34 39 57 33 52 45 35 27 58 26 38 41 51 36 23 32 27 20 41 39 51 31 13 35 41 35 71 33 32 37 39 51 41 32 34 23 48 58 43 34 55 19 30 55 23 37 35 15 44 34 57 33 52 37 43 23 39 58 21 38 32 32 47 48 46 18 43 37 38 38 41 44 37 27 36 51 37 37 20 30 55 41 22 33 29 56 33 53 37 36 23 24 46 22 33 32 23 27 23 27 27 37 36 20 18 38 47 33 48 23 43 29 35 34 35 36 34 41 19 34 33 35 41 30 52 30 44 49 32 42 26 32 43 33 34 32 46 43 32 42 50 30 43 46 40 40 41 30 44 28 47 27 19 52 43 38 13 59 34 38 36 34 31 41 42 26 44 29 34 39 30 43 29 41 36 47 37 26 22 43 29 26 35 49 20 25 25 37 15 49 36 43 43 35 25 34 49 29 54 36 42 33 53 19 34 41 33 48 38 36 16 44 35 37 43 58 44 40 30 50 28 33 40 32 38 51 34 37 27 39 44 18 37 26 39 15 47 33 20 22 19 46 38 31 42 39 49 58 28 18 37 19 22 37 34 34 44 36 43 36 42 31 45 42 38 44 56 31 38 36 40 36 27 22 35 48 45 26 36 42 33 25 43 23 27 44 37 55 39 27 16 32 39 20 48 20 39 35 44 37 25 23 23 26 37 33 22 49 42 37 22 48 34 40 49 32 29 50 43 35 48 27 31 37 33 29 27 44 40 43 59 22 32 19 45 28 35 36 39 22 34 37 34 55 43 41 24 23 27 38 29 41 26 53 47 39 34 44 36 58 43 39 26 52 25 19 37 32 39 36 40 7 16 32 43 42 40 33 30 55 47 22 42 33 43 46 23 35 38 52 45 40 43 65 16 25 44 36 13 42 36 49 51 27 33 31 40 37 50 35 28 36 33 31 51 35 33 27 36 44 36 49 61 39 29 34 31 36 37 43 38 41 33 39 33 52 41 39 31 19 30 30 29 46 33 35 37 26 42 40 24 43 42 41 46 51 20 41 22 30 23 30 48 43 47 35 22 38 25 53 33 33 53 52 25 41 40 46 41 39 30 33 33 43 25 19 31 52 36 35 42 44 43 40 30 41 56 38 26 33 47 37 50 34 30 49 36 18 36 47 45 50 51 45 35 40 34 55 54 43 27 60 24 54 30 28 23 29 34 53 20 40 38 43 34 40 46 35 37 29 32 35 40 20 41 34 30 47 31 28 38 19 47 19 22 47 48 26 37 55 33 35 31 37 42 51 26 53 35 32 24 30 35 38 36 41 30 39 58 32 21 37 25 37 51 33 34 48 39 53 28 43 34 39 23 43 54 36 37 53 15 40 31 29 46 41 36 44 30 32 43 42 46 33 41 26 39 26 44 58 47 35 52 37 36 43 50 38 49 41 66 43 55 30 29 51 29 36 29 38 26 35 18 53 29 36 13 43 30 39 29 23 37 49 27 33 26 54 31 36 49 37 39 43 35 25 28 23 36 39 37 44 26 34 39 19 37 47 35 41 32 40 34 35 24 37 23 48 35 21 36 42 43 34 51 51 40 53 51 44 42 42 43 22 20 44 34 31 27 10 31 42 35 41 39 32 37 31 26 29 34 57 45 23 42 21 27 33 13 41 29 57 35 44 37 42 37 37 36 34 32 39 34 54 27 37 54 41 37 56 33 32 30 48 33 56 45 54 47 41 50 28 20 33 36 37 19 47 63 37 24 23 44 43 43 17 26 47 29 45 37 30 30 37 36 38 37 46 32 45 15 46 39 49 37 38 27 30 54 26 25 44 48 19 22 31 30 32 43 29 46 30 49 41 27 35 27 36 32 26 40 30 39 35 26 30 23 40 26 29 22 24 55 38 51 30 16 27 34 38 45 33 56 29 44 24 37 37 33 45 31 54 29 38 30 38 31 50 28 31 20 33 24 61 38 46 39 47 38 20 33 34 33 19 33 43 41 27 35 49 29 13 47 55 33 39 31 49 22 27 29 49 26 39 19 58 35 36 45 35 40 32 45 49 41 50 36 40 50 37 56 31 37 28 33 18 48 47 52 21 31 43 56 53 24 43 32 44 24 48 40 42 34 32 28 44 29 34 38 29 30 30 26 34 34 25 31 24 53 44 15 31 26 31 57 37 39 15 41 33 43 62 39 31 42 49 36 51 49 45 40 41 27 33 47 27 40 26 52 33 33 29 22 31 28 43 51 40 33 21 33 41 30 24 46 42 33 28 36 43 51 35 32 61 30 40 47 22 12 37 32 36 47 23 41 40 46 10 33 25 30 38 48 42 41 33 47 32 32 43 31 20 37 36 36 39 41 30 32 36 43 43 47 44 31 25 40 33 33 29 38 31 54 45 30 32 29 37 41 53 36 16 32 35 29 28 35 46 36 31 33 55 37 38 37 20 33 36 31 39 30 20 40 33 37 36 45 25 46 33 30 24 33 42 28 52 45 42 33 41 29 19 25 30 37 57 16 54 44 46 66 48 26 44 36 37 37 28 52 27 37 26 32 51 45 44 39 25 27 37 33 42 34 50 30 34 43 36 57 36 37 51 43 42 47 20 23 42 33 39 44 33 39 31 46 53 51 48 58 30 52 35 48 26 39 57 23 27 53 40 30 44 46 31 33 35 30 33 37 16 26 41 28 53 33 31 40 38 36 37 26 36 29 26 35 41 49 58 27 50 29 31 42 34 40 23 36 23 44 21 23 36 43 50 12 36 34 46 24 29 30 32 35 37 32 41 51 28 24 41 37 43 34 44 27 44 36 40 49 44 37 45 29 35 40 51 51 36 40 47 26 26 37 31 16 20 29 40 38 39 29 36 44 47 28 23 42 43 16 37 36 26 43 25 36 26 36 46 26 33 45 51 33 33 29 36 30 36 24 39 36 58 27 37 52 30 39 32 42 43 44 23 27 27 43 29 37 43 41 17 29 39 44 37 26 27 39 24 34 37 17 41 25 15 52 46 20 38 38 45 36 42 37 41 33 33 43 46 21 25 38 43 30 36 32 33 53 49 40 39 34 55 37 28 35 46 36 47 55 35 32 40 45 43 43 43 16 47 42 41 52 31 43 41 48 60 27 40 49 44 35 31 47 39 37 13 36 55 34 48 22 43 57 35 25 47 47 31 33 31 44 44 47 53 32 38 38 32 27 40 37 21 41 40 42 27 59 20 50 26 27 57 27 29 29 36 19 30 36 28 27 40 35 43 30 43 61 23 34 41 45 33 53 38 44 65 35 34 34 29 36 35 55 33 34 26 40 36 55 39 34 26 36 42 26 47 35 36 26 42 33 41 43 36 37 19 40 29 29 38 31 37 21 30 19 46 38 48 38 44 28 29 33 22 41 46 32 23 53 50 42 45 54 30 50 40 48 35 43 37 58 36 44 33 43 37 34 38 22 35 57 34 38 41 26 40 29 19 30 37 30 32 48 23 23 44 31 56 19 29 36 41 44 25 48 30 26 32 40 35 33 40 48 41 43 39 47 19 30 48 44 22 40 43 31 30 30 26 51 30 33 21 38 48 33 50 37 22 39 33 40 40 33 42 55 36 44 33 30 37 41 19 31 42 36 29 29 37 31 50 35 48 34 32 26 27 37 34 51 33 23 62 50 37 26 33 40 39 51 29 42 38 37 33 40 38 34 30 37 41 23 36 16 41 37 43 43 33 38 51 20 53 17 15 39 40 52 29 29 23 58 31 58 42 33 33 36 24 43 30 29 45 57 40 40 47 36 29 30 40 36 43 28 31 20 43 33 23 38 35 30 30 37 43 42 47 43 43 51 39 49 24 47 41 24 27 21 35 25 22 44 50 53 44 41 19 33 49 33 49 29 30 29 37 31 36 46 50 41 49 59 28 45 38 30 56 39 21 36 32 32 45 30 26 36 36 37 29 20 23 19 25 49 30 27 40 40 27 60 47 33 36 27 29 31 31 40 33 33 46 43 40 20 15 36 38 50 36 37 23 40 23 51 41 53 33 47 49 31 29 37 36 20 35 36 29 42 32 20 35 35 37 30 38 26 31 37 38 30 22 34 47 40 47 37 26 34 36 41 43 33 44 38 32 37 44 35 30 34 43 42 41 25 30 36 39 41 37 29 26 50 44 59 44 37 58 23 23 38 30 29 12 40 47 29 25 46 37 27 19 33 42 38 22 34 44 26 42 39 30 34 48 41 37 47 34 39 26 36 46 37 39 13 23 21 46 41 44 51 39 37 44 22 34 23 76 47 31 54 36 52 43 32 34 40 48 31 32 36 35 29 42 29 45 40 37 39 38 39 67 43 9 41 26 31 58 44 31 41 55 45 38 36 29 44 42 45 26 34 40 36 16 29 30 43 53 34 35 50 43 42 34 36 28 32 50 47 53 23 32 23 26 37 28 42 30 41 44 38 22 26 36 36 33 54 36 34 49 24 44 45 39 52 46 41 36 32 36 33 43 34 44 31 43 52 48 48 27 41 54 55 28 26 23 26 29 35 32 34 43 18 33 26 48 49 26 41 16 30 30 27 54 17 40 42 29 54 43 45 27 37 29 40 35 32 28 30 29 40 32 20 34 58 23 35 25 61 34 49 39 56 16 45 16 19 39 31 41 35 60 41 42 32 43 49 43 49 34 29 43 28 49 30 34 51 50 19 45 26 37 37 33 31 41 55 30 49 42 57 25 52 36 39 19 39 56 29 39 41 30 19 47 56 26 23 23 16 26 48 13 44 45 47 42 46 40 40 38 42 33 33 31 41 48 36 34 57 30 36 26 37 35 33 25 42 44 25 48 29 33 19 30 38 31 37 40 34 48 29 35 43 37 31 36 27 34 23 38 40 37 45 37 26 47 43 40 25 25 36 39 43 16 31 34 30 33 54 10 48 32 37 40 39 40 32 33 37 46 23 33 27 39 36 23 41 16 35 52 51 39 31 26 37 49 41 46 31 36 27 46 49 29 47 29 34 28 39 29 30 30 30 51 56 37 33 49 46 33 40 40 40 30 40 47 45 53 37 60 50 51 34 33 47 37 12 32 37 35 37 24 42 46 30 23 39 20 45 31 37 22 29 34 39 43 37 27 30 37 31 30 35 20 37 13 33 42 29 29 38 41 26 22 41 56 55 52 37 33 28 19 37 37 31 29 25 44 57 37 52 50 51 20 27 39 46 22 23 25 15 40 21 23 40 23 29 55 16 30 34 45 32 24 46 45 29 47 41 41 24 32 54 26 27 27 43 46 35 37 28 37 51 24 39 27 47 31 41 38 29 15 20 41 27 36 34 39 33 49 41 33 36 44 23 39 44 40 33 19 30 26 29 40 40 29 41 58 47 34 47 30 54 48 65 47 36 36 45 39 40 24 57 35 52 36 29 33 52 44 34 36 40 38 23 46 37 50 37 25 38 27 51 30 33 37 22 18 41 35 52 50 29 29 43 36 41 45 25 32 36 44 43 36 22 38 43 44 29 36 44 39 25 30 45 34 25 32 48 39 38 30 27 34 46 31 40 38 30 48 43 30 30 51 33 27 17 31 16 59 43 44 24 23 41 36 7 37 13 44 37 41 45 27 36 19 32 37 19 32 33 38 39 27 29 34 29 23 40 50 34 40 21 44 33 20 50 40 36 16 52 25 45 26 32 29 35 41 43 23 35 30 36 40 31 37 26 27 54 30 30 36 47 44 40 32 23 45 43 37 17 31 19 40 33 20 23 46 11 37 34 36 42 30 43 33 39 42 31 49 36 37 30 38 33 40 38 26 40 22 32 49 29 55 37 33 37 51 27 28 41 31 33 30 42 37 28 47 44 38 37 39 37 27 43 59 47 36 36 46 30 31 26 35 35 38 32 34 37 36 43 32 27 53 44 32 43 40 33 40 30 24 36 9 25 34 33 24 28 41 45 33 40 43 28 29 23 36 30 30 35 34 48 47 23 26 25 39 47 40 67 28 31 39 33 37 47 35 35 10 61 26 47 36 51 32 47 49 53 29 38 31 32 34 50 12 51 38 53 39 34 35 52 27 26 35 40 53 30 37 34 29 32 50 39 35 28 27 51 33 37 37 15 33 37 43 46 40 23 46 31 46 40 46 45 42 23 19 47 29 27 51 35 36 33 57 60 37 33 39 38 33 43 49 21 31 31 48 33 44 23 25 24 37 47 19 40 43 29 32 30 35 37 35 58 25 35 19 55 12 22 17 29 42 34 21 23 44 25 22 37 44 26 35 23 40 22 33 29 33 35 42 53 33 40 34 39 32 41 29 41 43 27 31 22 17 37 42 17 43 24 50 22 32 13 26 42 39 23 25 37 45 22 34 25 34 37 42 45 58 53 47 37 29 41 35 25 20 35 35 35 37 37 43 27 30 29 34 39 35 26 40 30 52 23 22 50 23 36 30 37 53 41 57 55 43 29 22 41 24 49 49 23 44 32 17 30 23 50 15 41 45 31 40 30 20 26 36 35 53 29 30 47 43 29 36 24 40 29 19 34 44 23 30 48 58 45 37 18 74 43 34 22 31 31 44 31 41 35 48 33 30 16 35 29 39 58 26 36 33 34 39 29 53 31 33 17 25 31 26 48 34 26 30 50 38 41 40 35 23 40 35 28 37 27 22 50 51 34 39 49 26 52 39 32 24 56 23 40 32 40 25 41 44 39 31 42 46 30 37 38 28 48 30 36 23 59 22 21 59 36 44 42 40 51 39 40 25 50 31 15 49 39 37 49 29 31 65 29 41 24 40 39 27 37 19 42 13 21 26 30 37 13 28 20 47 19 16 50 29 36 43 38 23 27 32 35 30 20 35 36 29 62 41 37 39 42 30 40 32 46 56 42 44 46 39 40 41 37 54 36 12 25 29 28 37 39 44 27 25 51 13 35 36 27 36 33 45 27 27 26 33 42 33 43 32 34 43 43 29 27 45 25 51 33 30 42 30 38 47 18 46 31 51 45 31 19 29 26 33 36 41 22 33 23 37 40 41 16 36 34 41 48 52 39 19 36 28 23 43 36 29 38 35 33 51 28 49 50 31 48 42 29 33 64 37 61 41 51 22 52 29 34 51 28 53 48 38 34 40 54 34 48 54 39 37 47 55 47 19 32 40 40 41 57 29 42 55 23 33 22 23 33 26 59 49 29 41 27 54 39 47 39 35 40 18 46 48 32 28 34 29 55 38 48 30 23 51 36 28 36 13 68 42 31 39 44 34 30 43 50 19 22 46 30 50 52 45 46 27 20 36 52 32 43 34 25 29 47 48 41 40 25 25 19 58 40 42 26 43 27 28 41 37 31 35 38 26 31 43 59 48 32 30 41 15 29 32 24 44 37 40 35 25 34 50 28 42 53 49 39 35 31 41 27 44 34 41 24 36 25 71 22 47 57 40 34 63 29 39 40 25 35 32 43 34 28 43 31 34 29 41 23 43 59 12 37 39 52 27 30 28 30 16 34 41 50 38 39 51 37 44 29 33 33 23 13 45 37 31 57 43 36 27 33 20 33 41 55 30 29 34 19 28 42 30 39 38 33 38 28 35 26 42 50 54 29 36 30 48 41 40 44 30 37 54 13 35 43 32 54 25 9 43 36 40 30 37 22 34 43 46 55 48 28 40 48 40 26 19 59 33 36 33 40 29 28 51 22 37 38 44 38 37 39 43 54 37 42 30 46 36 29 30 29 51 37 31 29 22 53 43 36 25 47 33 42 36 42 40 33 41 43 33 61 32 30 39 33 31 30 30 27 26 42 35 48 38 19 32 26 33 30 44 27 39 17 44 29 43 26 30 30 35 36 40 29 29 44 52 25 44 39 36 52 23 36 43 27 36 35 46 40 42 26 54 35 28 41 49 26 33 23 19 35 34 44 42 41 32 23 43 51 34 44 45 30 19 33 47 23 55 44 16 27 35 16 48 39 33 29 33 43 47 46 19 31 40 35 37 36 49 43 29 46 30 25 29 45 43 54 55 56 44 40 36 37 44 33 46 51 16 9 55 22 30 37 41 47 65 23 36 37 37 17 26 33 35 27 31 51 29 26 27 24 43 38 45 27 36 42 48 49 38 13 32 37 33 42 47 53 33 42 30 36 38 40 39 51 40 36 48 37 32 47 25 30 55 33 22 27 37 37 52 37 39 29 26 33 18 23 42 36 44 9 39 32 29 37 33 37 58 31 40 30 23 36 36 36 27 43 49 24 29 44 40 41 33 44 39 47 42 45 45 21 50 31 28 13 19 35 49 47 29 31 44 20 57 30 34 30 31 22 29 50 45 39 50 57 30 26 49 12 46 31 55 32 34 19 28 30 43 29 36 39 38 54 58 43 33 37 28 17 26 42 34 46 33 46 36 26 40 37 35 40 40 37 19 65 29 43 22 27 46 22 43 30 46 29 31 34 49 49 37 47 33 27 29 22 12 28 52 16 51 25 55 30 49 48 42 20 33 46 45 43 49 57 30 29 60 42 20 28 29 35 37 26 45 56 21 38 43 26 30 23 34 43 47 51 43 51 16 20 38 26 38 27 43 36 46 40 40 52 46 31 33 31 48 29 41 26 25 24 22 43 41 30 33 51 38 34 36 33 50 22 36 33 23 34 30 47 27 45 39 55 23 39 34 35 55 33 30 48 34 36 54 25 30 35 46 29 41 32 40 44 29 20 30 23 44 30 45 49 24 44 26 47 41 49 28 42 39 41 51 29 32 29 17 25 44 29 27 30 43 46 42 48 34 31 30 33 29 29 32 47 39 42 19 63 42 41 36 18 22 31 47 36 58 44 50 28 30 48 30 37 15 30 55 39 42 34 40 33 28 51 37 37 32 33 33 56 24 38 9 30 34 25 35 44 44 34 40 23 38 46 41 39 37 46 35 43 46 28 42 57 39 30 34 45 40 42 31 12 37 40 22 46 64 46 43 32 52 39 59 26 27 44 42 33 40 59 44 45 44 37 35 29 56 34 33 48 24 51 41 51 51 15 44 31 37 20 44 49 43 24 26 38 34 46 37 21 40 26 40 25 48 23 52 25 36 12 33 48 51 41 44 43 30 54 38 43 40 39 37 41 33 30 19 55 31 58 56 27 51 33 32 34 26 39 31 36 37 36 14 31 33 22 29 29 44 36 37 32 47 50 43 32 16 42 43 38 26 28 41 57 24 36 37 49 36 32 42 34 28 26 34 35 35 54 50 43 41 38 36 35 27 53 48 27 35 38 48 51 54 41 37 30 33 23 19 26 33 48 29 39 25 35 16 51 12 15 38 41 28 29 40 34 35 37 44 36 40 53 27 27 31 29 26 22 34 31 26 15 44 37 57 35 30 27 29 33 37 37 44 37 28 34 35 36 37 33 44 30 31 53 29 29 34 49 33 41 27 54 43 25 19 28 30 39 40 16 30 54 39 24 41 49 37 34 43 37 31 34 30 26 35 30 45 58 37 30 37 36 37 27 46 50 37 34 33 19 42 38 56 37 40 36 47 47 24 26 42 36 40 37 45 23 36 47 34 50 47 47 22 32 35 44 45 36 46 30 32 26 53 37 34 37 40 43 42 32 51 37 36 40 25 30 30 30 41 29 53 47 38 33 41 40 44 58 35 44 31 39 39 37 30 24 46 47 30 35 37 20 31 49 42 31 27 16 30 36 28 43 37 40 36 30 16 51 31 22 43 40 16 45 26 32 55 51 23 41 23 38 51 40 29 36 22 44 36 53 46 27 40 39 51 32 39 52 30 44 26 50 40 41 51 41 42 47 19 29 29 45 40 34 55 41 36 30 17 37 36 44 41 55 39 31 34 33 33 22 27 33 37 54 35 30 23 27 39 46 36 32 37 30 45 47 21 50 30 36 34 40 41 54 51 34 44 26 26 46 37 39 50 29 43 39 41 26 44 30 32 29 47 31 24 35 34 40 30 40 30 35 39 43 40 45 21 25 37 29 41 51 35 37 26 44 40 42 43 34 56 24 25 24 34 22 37 51 32 41 31 32 51 33 19 50 23 43 26 47 43 34 55 41 43 35 38 43 37 39 24 34 36 29 44 42 29 33 50 44 46 48 29 37 64 45 33 37 27 22 49 51 37 43 25 50 25 41 34 57 24 40 34 38 51 36 39 63 45 45 40 32 41 36 23 30 18 30 35 23 43 29 27 33 49 38 37 27 32 33 47 51 30 16 20 33 23 16 39 44 42 19 57 32 37 34 29 48 33 36 40 49 54 34 34 30 31 45 64 38 29 12 38 26 29 30 35 43 19 36 37 29 36 48 41 26 45 34 29 30 74 35 44 44 42 35 36 31 36 58 44 66 34 38 22 39 37 34 16 49 46 43 15 49 32 41 26 40 53 51 45 33 43 31 50 29 36 33 32 30 47 30 38 26 42 29 44 27 31 21 49 24 34 41 40 32 33 21 55 33 36 28 53 52 32 57 43 27 51 40 50 43 38 25 33 36 36 31 32 33 39 28 34 39 33 51 28 53 41 43 44 31 30 32 40 37 43 36 17 27 37 41 42 37 29 55 64 33 41 17 24 15 44 30 30 25 32 41 40 23 26 34 26 31 56 46 33 38 20 48 32 28 44 48 43 40 35 35 23 43 34 48 25 43 34 44 23 43 37 31 40 49 41 34 28 35 62 35 42 27 58 51 40 36 37 37 27 44 53 38 29 40 33 27 48 49 33 43 29 23 33 23 23 40 40 39 54 51 30 41 29 25 50 28 17 20 33 40 52 26 33 26 47 36 29 30 57 21 40 39 37 41 26 32 53 49 39 30 48 30 53 55 25 36 40 23 33 30 43 46 42 57 46 48 31 22 54 38 25 13 26 26 37 38 56 43 38 33 50 53 22 53 41 17 42 36 29 33 31 31 34 34 26 49 37 44 43 52 47 47 34 37 26 40 34 34 35 49 36 25 34 46 41 38 33 28 34 50 41 33 39 51 41 38 30 26 30 45 33 38 53 36 60 37 48 29 46 21 36 36 40 29 30 42 25 27 37 42 13 51 35 26 30 46 35 36 15 43 37 44 23 30 41 40 16 33 16 23 34 51 36 37 32 20 26 53 23 40 21 29 54 20 25 46 18 35 30 33 38 48 35 27 30 29 43 37 39 45 16 44 41 36 51 38 30 38 40 39 50 51 48 40 42 33 34 34 30 36 37 10 41 54 43 62 57 51 42 39 46 40 29 49 39 43 37 43 26 34 32 30 54 16 16 33 51 44 28 26 41 40 29 43 33 31 23 31 33 30 36 32 26 33 29 29 37 28 36 54 38 39 48 45 28 29 24 46 53 19 41 36 30 39 40 25 28 38 22 46 40 20 38 30 41 31 37 45 29 23 28 12 49 22 36 33 37 26 27 42 30 46 45 47 36 39 25 39 47 22 29 35 49 38 27 23 29 16 47 56 33 26 25 38 42 67 17 44 36 60 19 44 46 54 39 52 30 43 42 56 33 29 36 39 33 26 55 24 33 49 36 44 44 50 19 37 42 45 38 64 29 31 33 44 30 31 35 56 31 57 38 40 49 33 42 40 35 32 37 48 25 35 49 26 50 27 19 45 32 37 43 32 51 42 30 37 20 31 37 45 25 49 33 31 32 37 43 21 27 31 43 30 31 30 41 32 19 19 32 27 35 33 35 39 42 37 52 38 33 38 32 27 34 48 38 51 40 41 43 26 31 31 37 31 37 41 59 41 32 30 22 48 22 44 51 41 43 43 27 63 37 40 15 34 53 42 30 30 31 33 29 60 33 33 50 29 43 50 35 29 29 43 42 26 39 46 53 40 21 45 36 22 43 37 43 47 21 51 43 33 37 43 34 33 43 32 31 30 30 33 34 43 30 48 39 42 41 23 47 23 25 45 25 48 34 23 40 27 43 34 40 53 37 36 12 32 41 44 15 32 44 29 25 19 41 37 23 52 51 23 40 30 27 37 35 41 40 25 33 23 31 62 20 36 51 34 44 12 43 51 34 26 38 29 27 33 33 25 29 41 31 29 51 32 41 30 25 31 38 16 41 16 30 47 41 30 25 56 9 20 47 45 30 33 47 36 37 38 35 31 38 44 32 34 38 22 43 28 29 49 36 24 43 37 25 36 51 29 28 27 34 41 29 27 34 43 19 30 36 38 29 45 32 33 30 43 36 26 36 23 47 38 51 33 33 23 23 51 40 54 50 30 40 41 34 32 47 33 36 22 45 21 47 34 30 29 36 44 39 42 52 65 26 33 22 28 45 31 63 23 38 28 37 36 32 43 38 41 42 34 46 51 37 36 37 18 39 37 27 32 29 36 44 26 46 36 29 49 34 43 34 34 36 16 26 30 35 44 27 40 57 28 26 43 28 30 34 20 31 39 48 50 39 29 36 24 44 19 61 29 42 38 51 34 41 55 41 56 28 48 52 9 16 18 24 38 36 27 13 33 36 22 26 35 36 46 29 34 50 34 38 29 29 35 51 26 37 40 22 40 29 52 39 26 39 40 37 43 31 28 59 45 43 33 30 55 22 36 26 53 30 37 37 44 20 19 29 55 45 23 38 55 36 37 28 20 28 23 32 42 23 31 43 53 42 31 36 26 31 52 25 30 41 35 45 44 43 25 59 26 36 34 36 30 33 44 33 42 39 25 33 36 46 29 44 43 45 29 27 56 36 41 32 25 13 34 43 38 51 39 48 45 37 39 47 34 43 47 38 47 46 23 48 29 38 19 36 43 29 26 29 31 30 29 19 34 47 13 29 50 36 35 48 47 35 33 53 43 13 38 38 40 26 23 40 41 44 41 34 44 36 31 36 26 49 25 25 49 57 26 43 29 31 30 49 37 32 47 47 20 32 51 51 27 32 45 39 43 36 61 36 36 36 36 36 38 33 37 35 20 24 30 26 52 32 23 22 40 18 39 39 38 49 33 38 43 15 36 20 40 37 32 32 46 37 25 29 24 36 39 40 36 41 28 33 33 41 26 40 44 40 44 48 57 39 22 44 43 29 39 33 29 45 45 41 40 30 38 45 23 27 37 31 23 29 21 33 30 40 22 30 27 38 47 31 34 33 22 24 20 38 29 34 40 27 38 36 54 36 49 37 22 45 37 40 24 23 36 30 31 56 29 29 51 16 45 36 29 39 32 33 28 53 31 39 44 29 38 38 45 40 33 36 40 38 39 57 30 34 44 39 23 41 40 43 36 58 37 65 30 35 43 42 37 28 54 26 25 26 38 27 37 65 50 23 22 59 37 29 44 42 34 57 39 43 31 44 52 29 43 28 50 20 28 37 37 43 29 26 29 45 47 68 33 33 40 41 37 41 43 41 35 33 23 41 30 40 29 57 40 39 29 34 45 12 43 33 31 36 19 31 35 34 29 42 28 43 40 44 34 20 24 15 33 32 26 34 51 42 36 40 40 29 37 34 30 42 40 40 19 30 36 47 60 31 36 44 49 22 29 44 31 59 29 22 36 34 51 46 40 26 26 30 54 31 27 35 22 22 25 26 44 32 30 30 38 23 33 27 41 46 59 38 31 26 24 18 41 45 35 44 31 46 47 30 33 32 33 33 27 37 30 46 48 44 21 41 38 37 30 43 30 23 38 44 25 33 40 23 46 42 35 27 37 43 29 23 42 29 29 35 31 30 43 44 43 50 43 23 47 22 35 44 35 16 32 26 38 30 40 30 26 40 33 30 43 26 43 31 33 17 29 52 31 31 24 27 35 16 31 27 6 65 33 43 32 32 26 49 30 48 32 45 34 36 43 43 42 49 31 33 49 28 27 33 26 33 41 21 21 29 32 35 40 26 32 19 20 44 33 30 32 43 20 46 34 36 30 47 34 29 43 19 34 52 17 41 39 22 39 31 36 29 31 31 40 42 29 30 26 39 55 42 66 37 36 9 40 31 39 34 24 23 34 39 48 47 41 33 41 38 20 32 62 36 16 64 40 23 41 49 52 25 34 57 36 31 41 21 29 25 44 51 31 39 40 30 44 37 46 24 30 30 25 52 35 46 20 42 33 36 48 26 26 32 48 45 57 44 23 24 31 36 31 37 29 47 40 44 47 19 36 61 54 30 47 43 34 29 36 43 48 26 39 36 57 45 57 37 34 43 48 59 32 30 44 37 32 45 55 40 49 40 37 26 32 38 45 33 47 33 23 21 38 32 35 23 38 55 34 31 40 40 54 62 22 25 52 36 56 27 47 25 45 31 39 52 27 47 23 43 32 43 21 38 45 15 18 36 27 47 16 23 28 32 37 27 30 29 33 25 32 40 34 41 42 30 50 35 33 48 55 53 25 26 29 28 37 49 55 33 26 23 20 66 27 27 46 17 19 32 26 23 35 41 33 51 32 23 46 33 27 33 32 47 12 33 40 57 38 29 41 29 32 41 33 38 39 52 43 34 42 35 58 41 34 62 40 54 32 20 26 39 19 38 35 33 32 58 48 30 20 38 62 26 40 36 37 43 52 10 29 16 27 40 40 36 41 51 34 54 36 46 33 41 27 37 25 21 28 51 30 53 19 51 33 29 53 31 35 32 20 39 43 34 31 33 33 41 36 54 17 26 53 25 29 33 16 44 39 34 49 36 29 49 33 32 33 26 53 46 45 38 42 43 54 44 38 29 33 27 47 31 43 34 28 27 41 33 42 42 41 31 33 38 39 39 31 22 30 46 41 30 58 50 33 27 43 28 42 52 26 53 43 30 23 26 40 24 37 30 48 39 34 36 36 33 39 27 42 25 34 37 23 29 51 23 29 36 37 33 33 47 29 30 47 33 16 30 31 64 33 30 59 19 49 25 37 42 43 37 55 32 28 36 29 51 46 51 34 25 33 30 34 39 42 42 54 47 40 33 36 40 30 47 58 40 37 19 34 22 43 33 33 28 35 33 24 37 53 29 38 33 43 47 32 43 32 54 42 34 43 27 50 37 37 16 19 26 36 35 37 51 29 42 30 50 16 41 47 37 54 40 36 28 31 23 41 26 48 33 22 63 30 41 43 34 33 30 39 44 33 33 44 34 22 27 52 20 42 46 41 50 27 42 62 39 16 29 31 32 36 40 28 46 26 50 54 34 27 30 38 36 39 51 34 43 34 28 24 29 29 53 28 29 31 35 27 49 29 65 26 43 41 32 33 38 22 16 41 36 16 38 38 50 38 43 34 45 27 37 44 33 32 53 16 46 54 16 29 31 32 22 49 34 44 38 39 55 29 32 35 47 26 44 32 38 31 40 47 43 24 27 44 36 52 15 46 29 15 33 19 58 26 37 19 43 41 40 26 49 22 42 37 36 20 26 49 29 43 29 27 43 43 38 31 43 39 46 36 25 36 48 68 29 37 32 27 29 33 37 16 45 40 50 33 48 42 40 48 33 16 44 26 29 40 38 30 31 37 27 43 51 30 33 23 38 38 31 21 36 36 59 32 27 51 23 37 55 31 30 47 28 25 49 50 40 32 42 30 27 32 37 32 37 29 57 42 54 53 35 44 29 39 51 33 39 28 37 22 40 30 29 45 45 38 38 36 26 35 33 42 33 45 47 29 46 51 44 37 30 36 37 37 33 29 61 22 39 31 35 40 40 26 43 59 42 50 32 33 34 18 33 52 28 31 58 37 33 45 42 35 19 37 42 36 40 33 33 29 43 31 40 48 35 29 43 28 30 39 47 40 25 32 33 43 46 17 41 47 30 43 45 39 45 59 16 26 52 37 34 9 34 40 45 36 49 52 41 29 44 41 45 45 32 55 46 32 19 44 35 41 47 51 42 41 43 10 47 46 43 40 58 32 30 33 34 33 20 36 37 40 34 37 40 32 43 39 24 32 22 43 35 40 35 28 33 34 38 23 29 37 39 33 39 51 30 41 45 26 25 42 35 25 39 54 43 41 40 33 23 30 36 27 45 42 31 19 65 37 58 42 48 44 46 40 41 41 33 33 35 38 36 39 44 33 27 23 34 27 32 29 55 26 33 40 37 26 49 30 40 37 39 34 19 44 29 43 30 36 33 44 43 29 30 26 34 38 36 29 30 16 22 28 44 43 32 22 10 35 43 28 26 16 31 16 39 35 55 37 37 37 27 49 40 23 35 22 27 32 27 30 47 42 45 18 41 36 52 37 46 15 27 39 39 38 27 22 52 37 29 31 30 31 32 43 39 29 23 59 41 29 48 29 40 49 20 38 44 55 30 35 47 21 49 32 41 37 27 33 55 50 51 33 36 37 35 30 30 30 9 47 27 47 33 36 31 36 37 43 39 36 46 29 26 27 42 36 40 30 34 48 32 42 39 43 29 47 19 37 23 37 27 30 19 29 39 24 36 40 35 29 45 29 51 63 44 51 22 39 26 33 37 33 22 50 36 27 41 25 48 26 26 35 30 41 41 23 27 55 29 46 34 31 35 27 46 53 37 33 36 49 45 43 36 19 25 34 32 33 43 28 43 33 45 58 27 45 26 33 26 43 45 45 45 37 38 25 25 30 36 23 29 35 28 27 27 36 47 23 39 26 33 36 37 34 29 23 38 22 51 36 49 50 37 26 37 57 21 21 37 22 43 49 49 29 33 50 45 49 13 26 54 35 27 27 39 36 45 52 30 38 22 31 43 29 20 33 33 49 38 44 42 40 37 24 24 34 42 45 27 33 35 44 35 48 19 22 46 23 23 33 46 33 41 31 24 41 22 35 31 43 39 46 39 23 49 40 50 24 30 31 42 49 35 52 49 36 37 37 20 33 47 61 47 44 23 27 36 37 40 31 65 29 27 33 43 30 34 40 41 45 30 16 45 40 41 37 44 29 40 29 52 30 47 56 33 40 29 26 54 31 32 40 15 35 34 29 24 31 40 43 32 31 28 47 51 31 29 35 39 46 41 26 25 49 45 30 22 60 48 27 52 37 40 34 44 33 34 44 40 35 45 43 26 50 33 63 40 22 49 37 51 36 23 43 35 51 56 41 29 27 26 47 40 43 51 39 44 47 30 35 43 29 29 61 43 19 34 41 26 36 48 46 29 36 13 40 40 39 39 29 44 38 26 37 40 39 22 30 69 40 30 24 22 33 39 36 44 22 9 40 47 29 41 27 26 30 30 41 37 36 33 55 34 42 35 61 41 47 18 40 45 26 27 22 36 22 47 41 40 52 20 56 33 42 22 22 41 48 49 28 44 19 33 33 33 27 36 59 30</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSB(2.8583865912706923, 3.506867161508216, -21.11825389586341, 121.97588248464737)</t>
-  </si>
-  <si>
-    <t>23 19 13 24 28 7 23 15 15 20 31 22 15 20 20 13 19 20 13 14 9 14 27 16 27 9 10 7 0 24 23 20 17 14 6 24 16 10 13 19 14 6 6 6 17 19 21 38 10 6 10 12 38 23 16 7 5 17 16 20 34 19 31 22 6 31 23 13 13 14 7 18 17 9 30 40 19 9 19 7 17 23 19 13 14 19 11 28 16 10 10 27 17 17 7 17 22 6 16 27 10 6 21 21 6 23 16 26 26 6 9 22 21 14 0 22 13 21 17 15 20 11 26 17 17 7 13 24 10 17 6 3 14 17 16 16 23 13 10 31 3 15 20 22 23 13 14 29 16 14 26 10 13 20 6 10 17 13 16 27 20 19 24 13 19 13 17 27 10 19 21 10 15 10 17 25 27 28 3 13 3 24 10 24 20 17 24 24 3 6 17 25 6 19 38 7 3 17 13 23 16 13 17 21 20 16 17 16 10 19 19 19 7 9 23 21 10 28 10 24 9 13 12 20 10 7 14 16 14 16 6 14 15 10 13 10 27 13 18 13 32 10 12 21 14 13 14 26 27 17 24 16 42 17 14 0 19 10 19 0 10 10 18 13 20 20 10 17 25 24 26 20 7 6 20 16 14 11 15 17 10 9 26 20 16 26 17 3 16 17 20 23 13 20 34 6 15 22 13 27 13 16 6 13 20 24 21 16 10 10 20 7 20 17 16 13 17 27 11 11 8 37 10 7 11 14 12 14 11 11 27 24 14 22 17 8 27 22 14 28 24 40 17 13 22 19 10 13 18 20 22 16 6 3 6 6 3 13 20 10 17 6 21 20 21 21 20 20 16 27 17 3 10 14 23 15 22 12 14 13 20 10 18 13 7 19 12 18 13 17 9 16 11 6 30 10 23 17 14 13 14 24 6 10 10 9 21 16 10 10 17 14 16 13 15 23 15 25 14 26 16 10 17 17 17 26 14 17 21 17 21 7 6 6 48 20 24 8 22 25 22 23 8 10 20 6 23 30 6 10 19 21 26 24 13 16 26 16 24 17 14 20 20 15 24 20 19 19 16 16 14 12 14 10 20 0 10 14 17 27 17 15 13 14 22 14 13 26 10 20 14 20 13 24 10 31 3 13 14 12 13 20 23 31 13 18 23 7 14 24 14 31 16 20 15 21 27 26 16 21 16 10 17 20 17 7 13 14 13 27 16 21 27 20 27 13 20 10 14 16 10 23 13 22 19 21 23 3 21 27 10 20 25 9 21 14 12 17 19 13 16 17 14 23 31 20 21 17 6 11 14 7 20 17 24 13 6 24 24 24 15 14 10 6 9 22 15 17 14 13 14 23 14 17 25 31 23 3 8 12 14 14 20 10 13 22 24 17 10 27 0 25 18 24 14 13 27 12 24 23 6 7 10 22 0 20 15 24 27 26 27 8 24 23 19 20 24 13 13 25 13 17 10 27 27 27 16 17 17 30 10 17 14 6 7 17 16 23 31 15 17 14 12 15 21 16 18 31 16 24 13 16 20 3 9 6 10 31 27 14 16 6 16 20 6 14 13 13 17 26 30 6 10 21 26 24 18 21 21 23 26 14 9 20 13 0 10 17 17 13 16 11 16 17 10 7 19 15 24 10 7 21 16 16 24 16 18 21 12 14 10 13 7 16 18 17 24 11 9 20 6 13 14 19 22 31 31 3 19 16 20 24 16 20 7 16 10 16 13 14 23 14 13 10 19 20 9 13 10 20 0 24 22 7 23 12 22 10 34 3 14 3 14 17 7 10 16 7 6 13 9 10 13 10 10 17 12 10 14 25 10 19 17 17 26 18 32 29 13 3 13 21 14 17 16 17 26 16 9 15 19 3 23 9 16 24 20 15 10 17 26 17 3 14 13 21 21 10 20 10 6 12 13 10 14 27 3 10 17 10 18 16 6 23 17 9 14 13 16 18 24 6 13 14 17 21 3 9 21 16 16 14 38 34 15 30 41 16 14 12 24 13 6 19 20 21 24 13 27 13 22 16 13 18 13 19 14 14 13 7 19 17 17 17 13 13 14 23 23 14 9 26 27 27 27 12 16 27 19 16 15 16 13 21 17 35 3 13 32 9 10 20 24 7 24 12 18 13 21 30 6 12 10 8 9 16 24 13 10 30 9 17 10 17 24 34 10 34 27 27 37 29 13 9 17 21 22 24 9 16 20 14 24 13 7 13 14 30 9 13 8 17 20 16 28 20 20 10 24 34 15 16 3 7 9 20 14 14 10 17 13 20 3 23 8 19 16 14 29 10 28 10 23 14 7 15 14 13 17 17 20 16 13 17 10 25 16 31 0 17 7 7 28 6 10 23 6 27 6 9 23 18 16 20 17 20 17 13 23 20 13 3 21 14 16 20 20 21 26 25 14 21 9 20 17 6 9 10 17 14 20 23 10 23 20 9 10 30 22 9 24 17 27 17 29 14 20 0 11 16 17 16 7 21 3 17 10 17 13 19 9 10 13 17 14 13 17 3 3 14 9 9 13 12 3 7 17 14 6 20 13 20 24 20 21 7 3 20 27 17 16 20 27 13 14 14 10 13 10 10 19 22 7 7 15 26 10 23 20 3 6 24 12 13 13 10 21 24 3 27 10 15 28 26 37 27 9 21 3 10 8 16 6 12 10 17 17 17 17 6 12 13 3 30 7 9 9 24 19 17 10 27 26 25 20 13 16 20 13 6 27 16 15 20 3 37 17 18 10 7 13 13 24 16 30 22 17 13 9 7 21 15 16 24 3 24 7 3 10 20 27 23 20 31 7 14 19 31 20 13 3 0 7 20 0 21 17 6 10 6 21 14 19 14 27 24 10 17 6 3 8 24 8 16 10 17 14 13 16 17 17 34 24 21 37 21 21 21 17 31 16 13 6 16 27 24 23 8 14 16 3 20 27 16 13 9 3 7 7 23 9 16 13 7 12 19 26 23 24 12 3 29 13 23 21 20 14 17 35 12 15 12 20 10 24 14 20 18 28 3 0 14 18 27 24 17 24 18 19 19 10 13 13 20 16 12 31 31 3 27 10 22 10 14 10 10 20 22 27 0 23 27 7 11 9 23 10 17 30 21 3 6 10 23 19 14 16 3 20 17 23 24 23 27 14 16 17 24 31 28 24 19 17 17 14 16 7 19 16 28 10 12 23 9 6 16 14 10 20 20 30 17 3 10 7 21 15 3 10 13 20 6 6 19 0 9 37 20 3 31 23 14 10 23 21 11 25 6 19 9 6 17 13 16 17 24 15 20 21 17 16 13 17 16 16 24 24 21 14 21 14 3 16 16 14 35 9 27 27 22 12 27 24 15 14 23 10 22 13 22 10 10 10 12 13 19 13 14 10 8 21 9 23 20 18 9 10 13 17 18 13 20 16 21 14 14 16 9 30 13 13 23 13 18 14 17 0 21 7 30 25 3 35 16 24 20 21 10 20 24 3 23 28 19 33 7 14 27 6 17 23 20 10 14 13 16 16 20 10 9 17 7 16 12 3 3 3 13 20 21 12 7 22 23 19 38 15 24 6 15 24 24 16 9 19 17 10 10 18 10 11 20 29 22 17 7 12 21 24 16 10 6 24 24 13 15 3 10 13 6 20 16 6 24 23 11 19 15 13 12 20 21 27 14 11 18 12 9 28 20 25 30 10 26 0 12 22 14 19 27 13 17 20 13 17 31 17 16 0 16 10 6 17 10 6 20 24 18 37 13 6 20 14 17 20 17 16 9 17 24 18 17 8 9 7 17 22 13 31 13 14 23 10 26 3 18 23 13 20 18 19 15 21 9 6 18 9 17 13 35 10 14 6 14 14 10 7 21 9 23 26 20 23 10 24 13 24 20 10 17 21 13 14 10 7 20 12 22 17 14 9 18 3 12 24 27 27 23 30 20 9 16 13 27 12 6 13 24 23 13 31 16 10 11 19 31 6 16 7 24 15 16 13 3 13 10 21 27 16 34 17 7 6 13 27 31 21 17 20 17 10 10 16 20 13 22 17 3 13 26 14 16 10 14 10 17 6 16 21 17 10 17 17 19 10 10 6 17 13 13 17 18 20 28 17 14 17 10 13 3 13 10 10 13 14 24 13 20 18 17 14 13 15 7 30 11 13 14 24 10 19 27 15 16 0 13 22 21 10 20 17 26 12 22 17 21 17 14 10 17 16 14 13 0 13 14 23 23 21 14 16 20 22 12 17 13 20 7 10 30 10 27 16 6 24 13 20 16 16 28 15 14 26 16 17 23 16 31 9 17 6 24 19 17 27 9 7 16 14 16 15 14 14 3 33 16 14 27 6 12 20 34 13 13 9 15 14 19 23 13 14 17 14 19 27 20 6 26 16 20 7 28 17 23 10 23 6 14 14 7 6 13 13 16 17 24 17 26 7 21 14 14 23 17 24 33 13 3 17 16 16 12 6 16 22 10 17 23 21 17 13 14 17 10 24 17 17 27 10 16 23 16 30 11 7 15 16 13 35 30 15 24 15 27 7 25 17 16 20 10 20 21 27 16 3 15 10 3 30 24 12 17 13 15 10 7 17 27 13 14 14 6 21 27 24 13 22 17 9 14 0 9 18 16 6 35 24 3 27 24 12 14 27 17 26 23 30 11 12 21 10 23 17 30 21 10 14 20 9 17 23 10 7 20 30 11 16 18 19 33 18 29 13 21 20 28 17 3 6 14 23 27 10 0 20 10 28 19 16 9 16 17 13 15 7 27 13 12 14 24 6 3 20 12 20 19 13 10 7 13 12 14 24 21 13 14 30 19 16 18 20 24 14 29 22 7 13 3 21 16 16 17 22 13 8 13 20 28 7 13 16 6 36 23 20 28 13 30 20 21 13 17 10 22 27 16 17 16 24 20 16 6 22 10 25 17 20 16 9 10 19 14 7 13 17 26 9 24 13 15 35 7 20 18 10 13 10 21 33 21 20 21 19 20 6 27 20 16 7 26 13 19 14 13 17 7 16 14 23 15 14 12 17 16 25 10 17 13 17 28 20 13 14 10 20 13 24 13 7 20 29 27 37 25 28 20 13 17 0 17 16 20 3 15 7 23 6 18 13 15 10 14 6 23 11 19 16 13 14 24 3 21 17 10 23 19 18 17 24 14 26 14 10 23 28 17 19 15 13 27 23 28 9 10 17 10 10 19 7 7 10 6 17 21 17 6 30 7 27 34 21 26 21 23 13 14 21 13 20 27 25 19 18 18 6 9 20 6 26 17 20 13 24 42 27 26 6 14 22 12 7 17 12 9 20 6 22 13 29 10 20 9 17 13 31 34 18 7 20 10 17 20 15 14 20 14 13 19 31 20 23 24 7 16 13 10 33 14 23 14 13 12 23 7 12 17 25 20 34 0 16 17 15 30 7 10 7 19 24 21 17 24 10 33 10 3 22 13 17 3 9 9 20 31 7 27 15 5 7 13 6 23 10 27 26 20 26 29 24 6 38 23 22 13 25 17 14 29 23 21 17 20 13 23 12 22 17 7 13 20 16 16 20 21 30 18 20 14 26 23 17 17 7 26 24 17 3 19 19 13 16 21 34 31 10 20 29 34 24 31 10 13 24 6 37 21 13 16 16 21 6 10 20 27 17 24 14 10 16 22 23 23 15 16 13 10 21 21 10 27 27 14 9 25 3 13 27 20 14 20 23 10 10 9 29 6 23 17 16 17 18 22 10 21 18 21 17 0 12 19 17 15 10 15 12 10 10 17 10 21 9 13 17 14 20 15 28 14 17 13 10 7 10 15 27 14 7 7 13 15 21 10 23 17 14 23 7 15 31 10 6 30 28 9 17 14 26 28 12 7 31 11 21 13 13 10 14 20 9 14 20 12 10 25 3 20 23 20 13 10 17 6 9 14 20 25 16 17 20 13 17 6 17 30 13 16 10 12 28 34 10 23 31 28 10 34 27 14 13 18 14 28 19 20 23 17 27 17 13 13 24 6 17 7 23 8 13 12 24 20 13 17 20 16 24 29 10 21 20 10 16 16 17 17 13 24 20 21 20 7 20 20 10 12 21 6 13 27 14 10 20 19 34 13 13 18 7 23 11 17 20 16 24 30 28 17 24 10 12 17 15 8 16 7 16 21 26 14 13 45 27 9 20 22 17 21 6 28 13 48 26 29 0 10 14 0 12 41 13 13 24 20 14 17 17 20 21 6 21 24 21 23 37 6 10 24 10 10 6 30 19 16 14 28 13 20 3 17 21 27 16 10 28 16 18 10 5 20 20 12 10 13 13 10 34 13 17 16 23 28 21 21 30 16 10 16 6 20 17 28 20 21 20 14 13 26 27 7 24 12 21 19 21 13 7 22 17 20 27 7 17 17 17 22 17 17 12 14 20 19 27 9 24 16 9 26 13 17 21 16 13 21 24 7 24 14 16 14 14 16 7 23 18 25 10 35 21 26 19 27 16 13 19 11 16 13 20 6 9 31 20 18 6 24 13 20 3 9 10 13 21 10 10 20 14 10 10 17 20 9 20 17 17 6 11 14 42 17 24 30 14 23 19 14 21 16 10 23 14 21 20 20 10 7 19 26 0 19 7 3 20 32 13 13 13 9 19 6 21 3 9 23 17 20 20 27 12 13 24 37 10 3 16 15 35 17 20 13 24 10 16 9 14 3 27 25 13 10 19 3 20 9 20 6 17 21 7 16 26 20 9 13 15 20 17 27 24 10 13 9 17 27 18 19 17 15 16 13 3 17 13 13 27 17 27 10 22 19 13 17 13 8 10 0 10 16 28 14 19 17 19 17 16 16 17 11 20 5 21 14 27 20 13 14 16 29 32 13 16 16 20 13 7 34 10 45 27 3 21 17 6 0 30 30 7 17 16 31 7 20 17 25 13 6 30 9 23 19 20 17 19 14 16 13 13 29 23 16 20 7 6 14 40 14 10 17 21 15 17 17 14 16 26 13 9 17 13 27 12 17 16 20 10 16 5 21 13 10 24 28 17 9 10 9 17 22 7 21 14 19 41 10 25 14 28 23 26 26 20 3 36 16 17 7 14 13 24 17 6 16 20 17 6 13 23 14 19 17 16 18 22 19 21 13 15 16 28 17 19 13 23 13 14 19 23 27 7 26 20 20 6 17 3 20 14 20 10 16 19 17 20 23 17 21 3 17 14 7 3 6 22 22 30 15 33 17 3 6 17 6 17 31 17 27 10 17 18 17 7 34 18 13 23 19 16 6 21 30 17 29 17 17 13 26 7 13 12 19 20 10 13 26 3 31 0 27 24 16 21 13 21 6 25 13 17 17 23 30 7 16 17 20 26 10 16 12 19 9 14 17 17 6 24 31 22 13 13 13 31 20 14 34 23 24 24 17 25 28 3 14 0 23 12 20 17 19 17 18 14 9 10 17 20 24 14 20 13 13 16 19 7 30 16 13 25 24 6 14 17 15 9 24 34 14 32 13 23 10 17 31 15 20 12 24 6 17 19 5 22 14 10 33 27 7 20 10 16 7 20 10 6 37 14 23 17 25 26 14 3 17 24 14 24 10 14 24 13 18 20 17 10 17 21 11 10 13 20 30 24 17 24 22 15 9 27 14 10 16 23 19 23 27 41 14 19 10 20 13 10 15 17 17 17 14 15 27 6 10 19 14 16 14 10 9 15 7 13 20 20 16 17 13 14 21 16 23 14 10 7 6 7 13 17 10 8 20 12 14 29 7 9 28 10 17 14 33 26 13 14 27 22 12 24 16 16 20 18 19 33 23 3 17 21 13 20 37 20 30 30 22 23 14 20 17 29 26 13 19 23 6 20 9 0 15 13 26 21 24 22 23 3 10 16 12 20 17 16 13 15 14 27 10 6 10 28 10 22 9 6 17 19 19 13 10 25 20 20 14 3 14 23 33 17 14 17 10 14 13 29 21 9 17 6 34 21 16 9 16 9 30 16 31 14 16 17 24 24 17 20 16 0 9 23 17 16 23 17 6 19 12 19 6 9 17 15 10 10 11 23 7 14 17 23 17 21 13 29 9 23 30 20 16 17 9 20 16 13 13 10 23 17 8 24 17 7 16 9 10 24 7 17 24 19 20 6 9 21 28 3 34 21 13 7 16 16 14 14 12 10 22 17 20 17 27 31 17 17 17 16 24 14 20 15 23 10 14 14 27 6 17 12 20 14 14 17 17 19 19 29 17 14 10 20 7 18 17 10 20 20 19 31 20 9 0 17 21 6 14 28 22 14 20 20 37 3 6 21 16 16 26 3 14 19 10 13 23 16 7 16 21 17 9 31 9 19 17 14 16 29 10 23 14 17 9 23 13 10 24 9 17 24 10 31 7 13 24 22 19 7 24 24 10 20 10 10 3 27 16 6 0 16 21 20 9 19 17 7 19 26 33 17 17 16 31 17 16 5 6 17 23 13 16 17 3 19 23 16 0 3 25 6 16 14 12 17 16 24 19 20 24 26 13 34 14 17 20 20 3 13 19 10 14 33 9 13 16 16 0 10 10 13 10 13 7 13 12 10 31 20 0 20 20 26 31 0 21 17 8 13 26 23 16 13 17 10 10 23 10 3 31 10 20 13 15 10 6 6 6 16 17 16 12 17 14 7 26 21 0 10 3 13 27 10 23 19 24 16 17 10 13 31 20 10 6 14 17 17 25 11 27 27 22 10 7 17 22 18 14 20 9 13 13 17 20 33 13 21 20 24 18 25 13 13 27 19 14 15 25 17 7 22 29 27 22 13 10 23 17 0 14 22 18 15 16 10 10 17 7 10 20 14 15 17 10 3 17 21 23 6 17 21 16 20 21 20 23 0 30 30 32 26 28 22 13 10 6 16 20 20 10 17 20 14 16 19 7 26 8 15 27 27 21 14 6 13 24 20 17 13 16 30 9 13 16 21 6 20 20 10 11 24 10 17 17 17 20 20 21 16 21 20 20 14 10 13 29 14 11 23 25 17 17 30 20 26 6 24 10 27 14 22 31 26 7 7 17 15 13 13 17 3 6 12 16 13 30 10 10 30 10 23 13 0 15 21 9 14 10 24 10 6 20 13 7 19 6 14 17 20 14 27 15 7 13 10 13 14 20 21 10 16 23 17 18 17 17 20 10 30 15 12 23 21 18 9 15 13 27 10 24 23 25 20 37 25 17 14 19 17 9 13 19 13 10 25 14 13 21 12 28 20 16 10 19 34 13 13 6 10 32 13 8 33 13 21 14 16 3 20 10 6 13 16 22 33 20 17 20 17 20 7 15 20 20 7 10 14 14 28 12 10 19 14 20 20 14 14 27 3 14 19 16 27 10 19 14 3 17 29 22 21 6 10 10 12 31 27 7 14 12 18 20 19 19 3 6 3 23 21 21 17 20 7 22 3 18 19 33 24 20 13 17 17 9 10 20 0 10 31 17 15 10 6 13 13 13 10 14 21 34 11 15 13 17 20 19 13 13 7 15 21 13 17 14 16 14 14 20 18 18 13 17 24 10 20 13 8 18 16 21 22 17 31 14 11 24 9 17 17 26 7 16 26 12 21 21 17 27 17 27 21 10 24 27 10 16 14 23 17 20 17 29 10 13 19 10 24 31 16 22 8 9 9 19 34 21 21 30 17 16 7 17 17 11 10 16 7 10 17 12 24 17 12 16 3 7 20 24 14 16 17 14 23 13 16 13 25 31 3 20 22 7 7 19 20 14 27 27 10 24 34 14 27 19 27 13 20 6 31 7 13 21 12 13 17 10 16 17 9 0 17 13 12 17 20 17 16 28 26 10 7 13 7 27 14 28 17 19 10 10 24 24 17 7 19 6 13 19 16 20 14 16 12 16 20 20 13 6 21 16 14 24 31 16 8 16 15 20 7 13 6 13 14 24 31 21 20 13 31 22 20 13 23 20 16 13 10 6 16 13 27 20 24 13 26 13 20 14 24 21 30 26 18 10 14 20 14 26 20 20 10 12 11 15 24 10 23 26 10 23 9 17 17 10 24 15 16 16 12 21 27 14 21 14 20 17 13 9 10 23 21 3 13 10 9 10 7 25 9 20 9 12 21 7 28 15 24 13 10 20 28 24 15 29 21 3 12 6 20 17 17 10 14 20 17 17 17 20 7 3 14 10 15 27 21 20 13 9 27 20 30 27 17 10 7 14 21 24 16 13 17 12 24 23 28 17 6 16 21 29 24 12 13 21 9 16 28 20 16 7 9 24 15 23 12 21 17 17 7 19 17 27 17 14 24 31 10 22 20 19 30 10 13 13 10 21 13 13 10 7 6 10 20 27 16 31 10 18 30 21 12 10 15 14 16 6 10 26 27 22 21 31 31 20 13 16 16 3 13 20 6 13 10 14 10 21 18 14 20 19 14 20 17 16 16 10 9 17 3 10 10 13 21 20 3 21 13 23 21 9 19 6 19 13 14 13 24 9 20 17 22 24 20 17 14 12 21 15 20 24 23 16 23 24 28 17 17 6 23 3 16 21 10 16 16 20 17 17 30 13 20 16 12 19 24 16 10 6 7 14 14 24 12 15 13 17 20 23 6 24 16 13 7 27 10 6 27 16 14 18 7 13 17 13 20 32 41 7 13 21 10 7 10 7 24 13 17 16 13 7 13 9 24 13 16 20 9 13 17 6 19 27 24 6 3 26 23 23 16 22 17 10 17 17 9 20 26 21 20 19 9 6 13 13 10 13 30 13 16 30 16 16 13 11 0 13 20 7 10 13 6 23 3 31 35 19 3 9 14 9 7 20 13 21 21 10 13 10 22 40 10 34 24 3 9 16 10 19 10 20 20 10 19 18 11 24 14 10 31 13 16 17 3 13 17 10 14 15 6 8 22 12 7 22 9 14 9 14 23 27 23 16 15 24 31 20 27 14 16 16 13 14 27 10 3 10 3 10 24 20 16 6 15 20 20 22 13 7 11 26 27 34 34 24 10 44 16 17 23 27 20 16 19 10 33 10 10 13 11 13 34 28 25 6 13 7 27 19 23 19 20 13 7 27 20 16 20 27 11 19 20 17 15 21 16 25 7 20 23 33 27 28 7 24 10 23 16 7 17 24 24 10 17 14 30 23 17 20 6 13 24 26 26 17 16 26 9 6 20 9 34 12 25 6 6 23 16 23 14 22 22 6 9 24 27 16 19 18 3 13 26 20 10 16 11 19 10 17 26 3 30 13 12 11 13 16 21 6 22 17 24 17 13 17 20 17 10 28 18 31 12 20 13 18 16 23 10 17 17 20 20 20 24 16 13 9 17 20 16 7 10 26 22 21 17 32 10 17 18 11 28 10 24 9 13 3 9 17 17 12 23 28 14 13 22 20 16 23 13 29 24 13 16 13 21 31 10 21 21 24 21 24 17 26 14 20 17 25 28 27 15 21 3 17 13 17 16 22 13 18 30 33 10 14 17 14 6 23 18 10 17 10 19 23 18 23 22 17 14 12 6 26 23 43 20 23 23 20 13 3 24 20 18 23 17 24 10 14 16 13 15 27 27 12 11 16 16 9 25 27 7 17 14 6 13 15 31 6 23 23 17 3 20 9 16 13 13 16 21 20 7 24 23 13 24 8 13 17 20 23 17 14 8 0 21 14 27 16 14 23 3 6 20 3 20 22 17 24 20 14 14 19 13 23 10 3 34 6 21 10 21 17 13 0 12 19 17 6 20 13 18 13 16 20 17 14 19 13 13 27 13 20 17 22 3 3 3 22 19 20 22 10 14 17 12 17 25 9 11 20 10 9 7 21 31 17 17 35 33 13 20 24 20 9 18 19 14 9 6 31 17 20 24 3 28 21 13 17 14 15 14 0 14 13 12 13 16 3 9 21 15 30 16 19 17 9 9 13 15 10 19 3 17 24 17 22 10 23 15 27 24 13 30 8 15 7 17 6 16 16 13 19 26 14 9 28 16 8 35 13 20 10 6 7 16 7 18 19 18 14 11 10 16 24 14 6 12 13 17 9 12 21 3 3 17 24 10 12 14 26 11 13 20 19 21 7 14 23 17 30 12 14 24 19 14 7 20 9 16 17 20 24 7 16 28 35 6 13 17 13 15 18 21 21 27 13 9 10 15 6 24 20 13 29 6 7 23 20 13 10 20 7 3 21 18 19 27 12 13 22 22 9 20 13 27 3 27 34 10 13 17 13 25 13 13 27 14 16 15 16 34 13 29 9 21 23 20 9 24 23 28 6 17 6 17 10 13 10 24 10 10 21 17 11 20 20 23 17 27 27 0 12 14 15 30 7 21 27 19 21 24 10 10 24 10 13 17 34 15 16 17 31 26 16 14 26 20 17 14 25 24 23 14 10 31 10 7 10 13 24 16 6 13 7 34 16 17 7 20 10 20 15 24 31 24 17 23 20 9 21 35 17 23 13 17 10 3 16 10 10 21 23 14 14 20 6 16 34 24 23 8 22 12 10 10 9 9 28 17 16 14 13 6 13 13 22 29 19 13 20 3 17 13 10 15 13 23 26 25 6 17 14 20 17 13 11 27 10 31 6 10 20 10 17 38 16 24 17 14 27 13 13 10 23 24 9 13 9 7 31 20 12 7 6 19 24 10 7 13 24 9 18 10 10 13 17 17 13 9 16 14 16 13 14 10 17 3 24 14 23 20 24 13 27 23 8 33 13 30 13 13 14 24 23 26 22 17 10 19 17 3 15 23 20 14 13 17 13 7 10 17 20 9 23 17 18 16 22 16 14 28 16 19 13 15 30 3 7 20 13 23 6 30 24 17 15 31 19 10 7 17 13 9 16 13 17 24 3 16 16 13 10 18 24 3 8 23 24 24 3 23 16 28 14 10 16 3 22 24 16 17 30 6 26 21 38 12 20 13 14 23 10 17 17 20 6 17 9 16 10 17 28 19 6 37 13 23 13 24 3 16 13 23 13 19 13 21 13 26 26 24 14 21 21 10 3 10 20 14 20 19 17 13 10 24 21 27 9 20 12 15 10 10 26 20 13 16 28 17 28 24 21 28 3 16 14 9 10 24 17 16 38 21 15 28 20 17 13 11 20 16 14 18 18 16 17 0 20 17 18 30 13 20 15 16 6 10 27 10 6 17 6 15 11 13 20 13 20 17 14 24 20 17 10 28 13 27 17 21 21 13 17 17 13 17 13 10 10 24 14 6 6 14 13 10 22 16 13 31 20 10 16 24 11 16 3 13 20 10 27 27 17 10 17 6 22 7 6 23 10 19 13 23 13 24 24 23 12 6 3 23 22 27 6 24 20 23 13 20 22 17 17 28 19 13 10 10 13 13 14 30 21 19 7 17 3 7 16 6 20 17 20 13 37 20 28 24 14 21 17 22 13 6 19 16 24 23 21 21 18 13 16 17 13 14 17 10 25 16 12 23 31 28 17 9 19 17 22 15 7 24 17 17 7 28 19 31 13 3 17 3 6 6 18 24 11 28 14 7 14 0 3 13 3 8 18 34 17 23 14 14 17 18 13 13 28 32 24 21 23 17 13 9 21 6 24 10 17 17 27 14 25 23 20 21 7 7 11 19 20 20 20 12 28 17 14 15 14 13 13 10 14 10 12 13 12 14 12 17 17 20 12 17 13 7 13 10 34 20 22 17 16 0 21 13 27 13 20 24 18 13 13 3 20 33 20 24 10 23 20 3 23 17 29 31 16 7 17 34 26 24 8 12 24 0 12 19 28 17 17 24 16 6 19 20 16 19 22 20 13 13 25 22 7 27 26 16 24 13 17 10 17 0 21 13 16 19 20 7 13 16 13 13 17 7 16 14 17 24 14 24 14 21 10 27 3 16 10 20 14 16 7 13 17 16 15 13 13 17 29 20 17 10 17 15 13 22 31 26 19 9 13 21 23 0 13 14 14 13 22 10 20 17 17 14 0 34 7 38 14 28 34 22 9 5 10 26 7 29 26 24 17 13 9 20 13 14 23 24 12 28 20 31 10 23 33 10 19 17 16 24 10 17 20 0 34 13 14 14 17 7 24 14 17 24 17 18 23 21 17 21 9 13 20 13 21 6 16 6 16 10 7 21 14 26 23 20 15 9 23 19 15 24 20 23 17 17 9 24 27 14 21 7 27 14 21 10 6 33 6 31 0 10 7 10 10 13 28 6 32 12 16 15 14 14 28 24 13 15 13 21 13 35 14 21 3 14 10 10 21 20 24 9 10 13 10 34 36 41 17 14 24 18 14 26 23 31 10 12 12 12 18 21 9 20 16 10 20 24 16 16 24 17 32 0 19 13 17 3 10 28 7 24 10 13 21 13 21 17 6 13 10 10 22 22 20 15 26 17 6 10 13 10 13 19 22 9 21 20 13 16 14 17 9 7 13 24 20 20 20 17 0 19 21 10 21 16 7 28 10 20 22 27 16 27 19 7 21 10 13 26 24 12 9 13 17 12 13 17 19 25 17 14 13 20 12 10 8 28 15 10 25 14 30 14 16 27 16 27 15 12 21 13 40 21 13 13 20 17 20 24 20 27 20 22 30 3 13 14 19 17 31 21 9 12 20 31 24 21 20 17 7 10 17 24 27 24 10 23 12 15 27 20 21 12 19 20 21 24 23 20 13 16 13 14 20 17 17 10 0 16 34 6 16 6 17 23 18 8 20 21 19 27 17 13 10 18 24 17 13 14 14 7 16 6 14 23 13 17 28 20 14 20 17 22 24 27 16 18 18 19 17 38 21 6 14 19 25 14 14 20 24 12 26 17 3 23 10 16 20 20 23 24 20 34 19 25 20 19 17 27 24 27 37 20 17 19 22 12 10 10 3 16 15 13 9 3 14 20 9 14 16 24 12 20 7 24 16 25 24 13 17 9 16 10 23 22 12 13 24 24 18 10 15 13 20 20 16 21 9 21 17 24 3 27 17 26 16 19 6 16 12 0 17 13 12 10 10 30 17 30 13 27 12 24 44 23 24 20 19 7 19 20 14 19 19 17 17 15 14 16 24 19 20 9 37 9 17 14 19 13 13 3 15 5 26 27 29 10 20 13 16 16 20 10 9 20 10 14 14 24 20 10 29 13 8 14 26 23 17 16 17 10 10 13 3 24 21 24 9 9 30 6 7 14 14 23 9 13 6 28 14 24 20 3 21 21 23 20 14 17 14 10 13 20 21 13 22 14 34 7 13 23 0 16 24 10 14 15 3 37 6 13 13 24 14 12 10 20 14 17 9 9 24 16 24 24 10 16 10 20 30 19 21 12 24 24 20 23 9 28 22 7 7 14 17 7 14 13 16 19 15 27 13 10 19 34 21 7 27 20 7 9 3 13 14 17 17 16 18 24 6 16 16 16 9 10 18 13 7 16 12 10 13 24 27 13 13 26 18 3 21 9 24 21 32 26 10 6 6 15 14 14 20 16 17 7 14 14 36 21 20 3 30 17 36 16 21 10 17 24 20 27 27 17 10 3 26 16 20 14 24 9 20 16 26 13 19 10 16 17 16 17 20 7 10 13 23 11 13 24 7 13 13 9 16 10 23 13 12 19 21 17 7 34 21 19 10 13 20 13 16 17 17 22 21 35 27 19 22 20 23 37 9 24 24 20 13 16 17 23 30 13 20 13 6 22 34 17 10 10 15 6 10 6 15 13 26 14 19 20 6 17 10 17 22 6 23 13 20 9 7 13 5 14 10 22 17 22 19 27 3 17 31 16 16 24 0 21 20 22 20 3 19 13 13 26 20 27 10 23 24 24 31 26 28 12 7 6 8 17 6 21 20 23 21 28 17 17 14 13 26 9 16 23 20 13 23 20 19 21 26 24 22 9 17 30 24 16 16 13 30 14 26 3 20 24 20 14 14 9 20 20 17 13 10 20 15 26 3 6 14 13 16 19 10 13 28 27 13 14 13 9 22 21 13 23 24 3 23 16 24 17 20 21 17 16 28 7 10 20 24 23 10 17 18 21 10 6 20 16 20 6 20 20 18 19 3 14 6 16 27 14 9 10 20 7 15 0 13 3 7 7 13 19 9 23 6 24 15 16 6 16 20 20 21 20 19 37 0 36 23 9 21 7 17 23 30 13 19 18 19 16 3 14 20 3 7 24 16 3 13 10 17 27 31 3 27 26 16 16 17 30 17 14 20 18 20 16 10 20 17 3 16 21 10 23 7 21 17 13 13 13 23 7 21 20 30 27 13 19 16 10 13 24 19 13 21 7 21 13 31 16 14 28 6 27 7 24 13 15 20 13 20 7 21 21 20 24 20 10 18 9 0 27 10 17 13 21 24 11 17 21 14 13 38 21 7 21 13 14 7 14 23 13 18 21 24 17 3 14 16 41 16 7 18 17 12 24 27 24 14 12 30 14 20 14 13 13 7 26 3 22 3 13 6 3 23 10 12 19 13 14 14 26 14 22 17 6 17 17 20 13 14 20 10 16 15 34 23 12 20 17 7 11 20 21 6 7 24 16 13 6 10 10 16 26 23 6 12 20 7 16 9 16 20 6 16 16 20 20 17 6 14 6 12 20 20 7 32 10 17 19 17 26 15 13 13 20 17 13 13 21 30 3 3 17 12 3 0 30 17 13 20 23 24 16 6 27 27 24 16 24 17 23 20 15 16 23 13 14 17 17 7 6 14 20 27 11 5 23 14 9 20 10 16 21 6 10 30 30 24 24 19 10 16 23 20 15 17 20 11 24 20 10 0 36 28 3 0 14 21 17 17 13 20 13 16 12 17 3 26 23 17 28 17 27 6 26 16 17 20 16 3 23 10 20 6 18 10 29 13 24 7 9 20 30 14 16 0 12 10 30 28 23 3 19 11 16 12 14 17 22 6 14 11 24 27 28 13 21 22 13 29 18 7 27 40 12 19 15 20 10 16 20 7 13 24 16 12 13 26 20 19 18 24 9 30 9 6 13 22 11 20 31 14 9 19 14 20 19 17 6 14 26 16 25 27 14 7 14 3 27 19 16 17 13 20 13 24 21 16 16 14 14 22 28 22 20 7 34 21 28 10 24 20 10 23 20 28 20 15 21 16 23 10 20 17 6 17 10 13 20 17 20 25 23 7 21 24 13 13 7 12 16 21 13 22 23 20 11 9 14 26 5 10 11 17 38 13 9 24 6 16 0 20 20 13 21 6 34 16 10 14 17 13 13 21 16 20 37 32 13 10 17 7 15 14 19 16 13 15 3 23 17 25 20 20 17 30 17 26 22 24 24 7 12 16 8 7 25 16 17 23 27 10 34 13 20 9 10 19 27 13 10 20 13 22 17 10 23 17 21 3 16 17 19 16 10 7 17 7 16 10 17 24 23 23 10 19 30 14 13 13 25 10 17 26 22 24 23 8 0 24 34 20 14 16 23 13 14 10 30 30 33 27 28 14 20 10 6 13 10 28 14 14 23 14 33 16 23 10 20 16 13 23 14 12 17 13 16 17 16 21 10 20 14 24 34 7 6 13 13 18 6 7 21 3 13 18 12 3 33 7 6 26 13 21 17 37 7 23 33 23 13 17 16 6 21 28 19 13 26 20 16 3 7 30 17 10 10 11 24 26 6 18 33 16 17 14 9 3 21 23 27 3 21 24 14 24 14 17 24 23 9 21 6 13 24 20 6 24 13 17 20 21 30 9 26 17 12 24 26 13 22 17 17 12 14 22 14 28 12 10 6 16 13 13 13 19 13 10 24 9 6 24 26 27 22 14 2 14 24 16 10 24 13 27 9 24 17 23 7 17 16 28 17 24 6 23 13 24 23 28 6 7 15 20 3 23 14 6 21 14 17 26 26 15 16 29 12 10 24 6 19 27 19 20 23 16 13 17 23 24 24 3 12 17 14 17 16 23 20 23 16 15 14 17 17 17 20 23 26 7 24 31 14 10 10 13 0 9 13 21 24 14 13 20 6 15 6 12 6 12 21 19 10 16 3 19 27 12 24 9 10 13 30 23 10 24 16 10 21 9 18 24 27 10 7 13 10 24 20 14 8 20 25 23 10 20 20 22 9 13 17 6 18 12 13 13 10 13 17 24 18 16 19 3 7 30 21 23 21 12 20 25 21 17 3 13 17 23 10 27 27 10 13 24 27 7 16 6 24 16 9 17 17 26 12 13 17 16 30 18 37 9 16 51 20 24 10 13 15 7 21 21 3 21 6 20 17 19 9 26 18 23 31 16 28 14 10 17 20 20 22 10 29 18 20 33 7 20 10 16 7 17 16 14 24 12 23 3 17 12 14 38 27 20 14 3 10 31 14 10 16 17 17 20 33 14 20 17 18 23 16 20 0 3 21 14 17 28 10 20 17 30 9 10 24 14 22 16 3 31 34 9 7 34 7 22 7 10 3 20 13 0 9 23 24 26 9 18 17 3 13 14 27 6 16 24 16 13 12 29 27 6 10 21 24 24 12 10 10 23 16 13 24 15 10 20 17 10 15 0 27 13 20 24 30 6 17 23 7 16 26 22 14 6 20 16 30 19 24 19 20 11 13 20 10 6 13 14 23 6 13 12 15 16 9 16 7 13 20 23 26 20 6 17 15 17 23 19 37 17 6 34 19 9 10 23 16 16 9 13 17 12 24 20 10 20 10 14 7 13 17 16 34 34 20 9 14 14 13 20 27 31 24 21 12 20 9 10 16 7 9 13 20 3 13 17 7 28 20 3 16 10 10 29 22 22 19 16 27 17 33 16 3 14 13 27 26 12 17 20 19 18 19 9 18 7 16 28 28 21 20 14 20 20 16 20 22 14 23 10 16 41 19 16 13 15 24 3 19 23 6 10 16 9 16 16 14 7 17 20 27 6 22 10 17 20 7 24 9 20 20 0 26 30 12 17 18 31 13 18 13 12 9 10 10 12 13 10 6 13 24 17 20 13 19 17 31 3 12 29 20 21 31 23 10 10 13 21 10 7 10 12 23 30 28 16 7 20 28 7 10 15 27 3 24 3 0 17 10 27 13 14 10 24 17 14 24 27 33 7 23 20 17 23 24 17 38 10 15 16 10 13 24 20 17 17 17 31 10 17 26 10 29 24 19 16 13 16 9 16 9 20 3 3 23 20 6 17 14 26 27 24 17 27 27 33 10 10 13 20 17 0 16 23 21 9 31 20 20 7 24 19 31 13 24 20 48 31 21 23 3 0 22 20 33 21 13 13 10 29 3 26 9 9 3 21 7 13 3 7 21 10 13 17 21 10 7 20 0 16 6 22 12 10 6 17 21 10 30 17 28 21 3 23 24 20 17 17 20 3 9 6 10 17 6 20 24 10 13 10 6 17 20 15 26 13 27 10 33 10 19 21 34 20 24 22 14 16 13 16 10 17 22 19 14 17 13 14 27 10 27 17 12 17 16 17 14 22 10 17 12 20 22 20 10 10 18 30 21 31 31 17 26 3 14 23 16 33 13 13 17 23 24 34 6 13 17 17 26 3 31 7 18 17 28 10 37 10 10 8 19 9 3 17 16 10 22 6 18 20 24 3 13 13 12 30 30 0 14 27 34 21 17 35 27 14 10 7 26 18 21 18 20 10 10 16 16 7 13 9 22 13 23 6 20 13 13 9 30 13 28 14 23 20 9 23 17 7 22 16 16 16 6 3 17 7 10 23 13 20 17 20 10 28 27 19 16 25 6 13 31 13 19 20 20 6 0 6 0 10 10 16 3 19 10 20 20 17 16 10 20 10 14 19 3 17 16 23 23 13 16 10 24 7 9 33 21 13 27 6 17 9 19 12 14 34 17 14 9 19 26 9 31 18 16 20 17 11 10 20 14 17 20 17 13 24 9 9 19 21 20 14 10 16 15 23 17 10 17 23 17 23 24 17 20 26 26 17 9 9 13 10 15 22 14 9 18 24 30 16 30 3 19 30 13 17 24 19 17 16 12 3 7 0 24 13 27 18 10 7 31 7 3 14 9 11 28 19 20 23 10 25 20 17 19 3 23 13 12 31 13 10 12 24 16 10 20 15 10 9 17 26 13 14 13 13 11 35 13 20 13 23 21 17 10 28 22 16 14 24 13 17 6 23 17 20 10 23 17 12 20 17 21 10 21 13 31 21 3 20 26 31 38 17 14 17 20 16 20 10 10 14 24 17 13 18 14 21 29 7 24 26 32 12 6 10 6 16 23 3 14 24 14 24 28 13 11 27 17 24 10 9 22 19 23 18 10 7 14 25 27 10 22 12 10 16 27 17 16 13 22 10 3 6 13 24 7 21 25 17 24 38 17 21 19 10 23 15 16 13 3 14 16 10 10 34 20 17 23 16 31 16 12 10 31 12 20 17 17 7 7 30 13 20 27 0 16 9 12 9 24 26 14 9 22 21 20 7 28 17 13 13 37 20 30 42 10 0 28 9 13 9 13 16 17 14 7 14 3 9 10 21 14 31 10 13 6 23 20 13 10 24 24 35 11 22 23 10 0 27 15 27 24 10 22 20 6 13 24 6 14 15 9 13 16 19 16 30 20 3 16 23 13 14 10 10 27 16 9 20 17 18 3 22 7 16 20 20 20 13 23 14 20 7 7 16 10 24 13 12 19 13 23 22 19 16 12 7 14 17 9 19 16 21 0 20 20 7 6 16 3 24 0 27 16 0 34 22 21 15 27 13 20 13 15 14 14 26 21 22 14 17 8 0 7 30 3 17 35 17 17 13 27 12 13 14 10 6 17 20 11 17 24 10 10 19 13 17 7 30 16 9 9 20 10 3 30 17 21 22 17 11 11 14 17 14 9 27 22 27 6 27 13 24 10 14 7 16 21 17 20 30 20 20 15 19 26 20 13 3 19 20 7 20 31 7 17 16 20 14 14 13 20 9 12 21 20 14 17 15 6 29 13 12 22 17 17 7 7 13 10 7 14 14 20 24 19 6 10 16 17 23 10 16 17 14 10 10 16 24 17 30 10 16 6 20 23 6 7 21 6 16 16 13 31 23 6 7 28 7 35 13 12 14 28 10 13 30 6 17 13 21 13 19 10 18 21 10 3 18 3 13 15 13 17 6 33 12 17 15 18 12 30 6 7 7 16 15 20 13 29 21 17 3 40 34 23 10 9 17 10 13 23 6 25 10 28 21 23 22 14 20 16 22 16 13 17 27 6 9 10 16 16 17 9 13 13 10 17 17 20 26 18 17 12 10 12 6 26 17 26 17 13 3 20 23 10 16 27 16 10 3 27 14 18 26 7 14 24 10 10 0 20 17 6 27 20 20 17 0 13 13 0 26 27 23 17 7 18 10 16 11 22 29 24 27 20 14 16 31 12 19 20 6 13 23 20 13 16 13 14 11 22 17 20 14 24 25 17 16 17 10 27 16 6 23 27 24 17 20 13 19 15 21 12 19 11 23 7 14 16 27 32 14 37 34 19 16 16 13 20 20 20 20 17 3 14 16 20 9 16 27 6 20 21 10 24 20 13 14 14 17 17 0 9 31 10 3 10 17 17 3 10 7 30 3 12 6 30 21 13 14 20 27 10 24 17 14 7 17 19 17 41 14 20 17 10 7 10 27 21 17 6 6 16 31 10 27 27 16 21 16 23 12 13 27 26 7 23 3 10 17 22 16 19 23 6 16 17 13 3 7 7 19 6 20 20 16 10 19 17 26 10 20 7 23 23 14 10 29 6 13 10 17 23 13 20 20 7 20 19 13 15 15 20 26 14 14 27 22 30 16 21 14 16 30 14 21 31 14 21 25 27 27 17 17 24 14 20 17 26 6 10 17 10 12 16 30 12 16 10 20 24 20 29 20 16 19 26 20 0 3 6 17 20 10 17 13 27 20 17 21 10 27 9 16 28 20 14 13 26 15 16 3 10 7 17 12 7 20 31 28 9 12 26 20 20 16 6 20 17 17 9 9 7 7 30 20 14 23 17 13 17 19 12 3 21 7 16 10 29 24 22 31 21 12 20 20 24 12 28 21 10 17 13 20 7 13 10 15 28 19 10 10 27 21 3 20 10 16 13 23 17 7 10 27 6 24 24 12 14 7 13 11 23 13 13 9 13 19 28 22 18 10 19 11 28 30 24 3 9 17 25 13 14 16 17 41 28 19 6 20 21 14 9 38 27 3 14 14 10 28 24 16 30 27 31 23 10 18 13 20 14 22 19 24 23 6 9 7 11 26 24 34 13 16 14 31 7 10 17 17 13 22 10 27 35 13 9 17 24 16 13 15 16 12 20 17 19 20 26 21 13 20 0 16 24 20 3 27 28 10 19 13 20 15 21 27 13 3 31 20 23 20 28 10 19 17 14 17 22 24 16 17 3 17 14 20 13 23 23 13 17 20 16 27 6 3 20 0 13 19 19 20 9 10 22 10 17 13 7 16 20 10 21 17 24 14 21 28 3 10 7 24 24 17 8 6 25 13 27 20 17 24 27 14 21 16 17 14 30 3 24 20 13 16 10 17 9 9 14 17 13 10 28 22 19 7 26 7 9 12 30 6 19 27 27 17 11 10 17 12 13 9 12 14 21 27 19 22 19 17 20 13 9 7 14 6 14 10 16 31 13 37 22 10 21 27 21 20 6 6 17 31 13 17 36 19 16 23 9 34 6 33 6 13 7 17 21 27 17 9 3 20 17 20 24 7 24 32 14 13 10 24 27 23 27 9 21 13 27 3 3 37 17 27 13 17 21 17 23 23 27 38 28 23</t>
-  </si>
-  <si>
-    <t>JSB(-335123.3267088069, 4574102.296615214, -41856522.63317175, 80756100.79972585)</t>
-  </si>
-  <si>
-    <t>20 25 19 29 23 21 29 15 21 23 28 24 24 28 31 21 27 34 17 21 27 24 25 33 28 23 21 28 19 27 22 28 23 20 17 13 20 17 21 27 23 20 27 20 17 25 24 27 26 20 30 27 25 29 20 21 24 25 28 30 34 27 28 21 23 33 24 24 16 17 26 24 23 18 35 29 31 22 24 20 23 18 37 25 28 22 22 29 36 18 24 27 21 13 12 22 22 29 21 26 19 21 21 26 22 24 22 28 24 11 24 26 19 23 15 22 19 17 21 24 24 22 30 19 16 13 30 27 24 19 25 24 23 23 23 22 24 21 15 18 21 21 20 21 26 27 23 30 33 22 30 20 25 19 16 26 24 19 16 22 32 22 19 13 18 18 25 29 20 23 22 26 27 16 19 26 23 18 22 17 24 33 18 17 18 23 26 24 13 18 21 24 16 22 24 23 26 17 18 29 14 27 27 26 22 17 16 18 23 24 18 21 28 19 22 19 25 24 16 22 25 14 19 24 18 27 16 23 26 23 18 24 17 20 24 17 19 22 26 18 23 28 23 30 25 24 22 26 25 20 23 17 31 24 22 21 15 22 23 24 21 13 27 23 20 22 24 26 28 23 27 24 20 22 25 35 19 28 22 27 21 17 32 25 21 25 21 20 25 20 22 24 18 20 19 23 22 22 20 28 18 22 18 21 24 21 21 24 20 24 25 23 18 24 16 26 36 28 27 21 17 20 20 29 18 20 29 21 25 22 21 26 23 22 21 23 27 33 22 25 24 29 30 21 22 27 31 19 26 21 26 26 14 17 22 17 20 23 23 11 15 23 25 27 21 31 20 25 20 21 27 26 24 22 23 30 26 25 29 22 23 30 27 25 17 20 21 25 22 20 18 16 18 23 27 23 29 24 29 20 27 22 27 19 18 24 27 24 18 29 18 16 25 24 20 26 23 32 22 27 20 20 16 17 22 27 19 23 27 18 29 19 18 20 27 18 23 13 23 18 22 24 15 22 22 16 25 27 20 22 26 27 24 28 21 22 25 13 26 23 17 21 26 22 28 29 29 20 22 26 21 28 21 21 22 20 23 22 20 28 21 17 18 21 21 22 19 24 19 19 17 17 22 24 17 20 18 27 24 19 18 32 28 30 19 22 31 27 17 19 18 25 17 21 30 33 28 21 21 27 21 25 23 17 25 16 35 20 16 22 19 23 24 32 25 18 21 23 21 20 21 23 22 21 23 21 23 25 21 24 24 20 28 28 17 27 12 23 27 22 23 20 21 31 23 22 26 22 20 23 18 20 22 21 28 25 17 31 27 20 23 26 23 27 18 31 21 28 23 20 18 22 29 26 20 20 18 16 17 23 33 23 22 21 22 22 26 22 23 27 18 33 19 21 24 21 28 22 24 26 23 19 27 28 21 23 24 17 20 17 22 26 21 25 18 27 24 17 24 25 25 14 17 24 20 28 21 15 21 21 15 23 21 16 18 28 15 24 25 29 28 24 31 26 27 25 24 30 23 27 29 15 24 23 26 19 21 25 23 23 16 19 24 33 21 17 28 21 27 31 25 23 16 26 20 25 21 21 31 23 28 22 35 26 25 25 21 28 32 21 20 28 20 21 19 25 21 22 23 25 19 18 28 18 15 21 22 25 35 18 19 23 17 31 28 22 29 23 19 20 22 25 13 29 13 24 30 25 24 28 25 20 30 29 22 34 27 21 22 20 28 27 23 24 24 26 16 23 18 23 25 28 20 26 27 25 20 20 21 18 22 19 28 24 17 17 26 20 18 29 20 22 21 23 16 19 22 15 23 23 26 23 19 29 25 25 31 26 20 14 28 19 32 20 19 16 30 24 28 31 25 19 24 22 29 24 21 21 22 16 28 22 22 18 19 33 21 20 22 19 31 28 20 23 19 25 27 21 25 19 31 26 22 21 27 26 22 18 31 24 24 11 14 24 26 29 25 21 26 18 28 27 31 26 23 21 29 27 24 23 22 25 25 24 29 27 28 16 25 22 18 29 29 18 21 19 23 26 20 16 32 25 24 33 19 19 30 26 25 21 20 19 26 24 22 24 22 28 21 20 29 18 22 26 19 28 26 23 28 29 17 24 18 20 21 30 23 25 28 30 30 22 29 22 25 26 23 22 30 24 18 17 17 22 25 31 24 32 24 29 23 21 26 23 27 27 24 29 21 17 23 21 25 24 21 19 21 26 19 32 21 20 27 22 30 16 22 25 31 27 20 24 21 20 16 29 17 26 21 18 17 32 24 25 26 31 23 21 26 24 14 17 26 20 25 32 20 27 16 27 21 25 28 23 21 30 24 36 10 22 25 25 28 18 29 25 23 22 14 22 33 21 21 25 18 26 23 18 28 19 23 20 19 16 21 30 21 15 26 27 27 19 24 16 19 20 27 20 32 24 20 23 22 22 18 22 23 31 25 20 18 21 30 17 26 20 26 23 14 20 18 29 20 16 19 23 18 26 24 17 18 27 25 21 23 19 19 18 24 21 27 16 21 24 26 17 19 32 14 21 23 29 24 20 22 18 20 25 16 20 18 19 21 27 17 24 20 21 23 22 20 20 21 19 25 25 23 21 25 22 23 24 19 23 17 20 22 23 15 24 20 18 25 25 27 24 27 28 28 19 17 28 17 28 22 21 23 24 23 24 18 21 24 26 18 29 29 28 16 28 20 18 26 29 26 25 28 20 28 20 26 29 18 24 15 30 24 23 18 19 19 20 20 26 24 22 27 24 20 22 25 31 23 23 25 24 25 17 27 24 26 19 20 28 22 26 19 26 26 22 20 26 24 28 26 25 20 18 15 24 28 28 27 17 24 28 23 20 16 21 20 33 26 24 23 35 18 22 25 16 19 31 23 19 24 16 26 24 21 24 20 21 18 25 24 20 18 25 13 18 21 17 26 23 24 26 19 24 28 22 33 18 17 17 24 17 28 23 28 20 19 21 20 22 21 19 19 20 31 16 25 21 17 29 18 21 19 27 22 28 19 35 18 26 25 31 29 22 24 23 24 28 18 20 26 21 38 25 22 25 21 25 19 14 12 25 22 21 24 19 26 27 23 22 30 21 19 20 21 23 16 18 27 18 27 20 21 28 21 24 24 19 26 23 28 22 17 12 21 19 35 27 22 27 26 19 26 23 17 17 22 18 23 21 19 22 22 28 27 23 26 21 24 28 16 23 25 20 17 16 30 19 18 22 26 18 23 18 17 26 25 24 26 27 29 28 19 29 18 22 19 21 24 23 21 24 29 25 18 20 24 22 23 16 27 17 23 20 27 23 21 17 23 19 21 23 20 26 22 27 21 26 27 30 30 23 24 31 25 24 17 28 15 16 19 22 18 23 33 26 25 25 24 23 21 26 19 23 19 29 17 23 22 21 21 19 20 23 32 23 19 30 23 21 31 21 14 24 22 30 32 19 29 23 21 23 27 17 31 24 23 24 29 24 25 21 15 26 29 18 22 18 20 26 25 29 18 21 27 22 23 23 17 18 20 28 23 25 27 31 21 17 27 35 19 22 18 26 22 24 17 36 25 27 25 25 23 27 20 24 13 18 13 25 21 20 23 21 23 26 19 18 25 26 24 23 20 23 20 26 26 18 22 23 19 20 27 21 17 24 32 25 24 29 23 21 30 18 26 19 30 24 22 17 14 14 19 23 25 27 19 28 30 29 26 24 17 24 20 19 25 15 25 27 21 28 26 18 27 20 30 17 22 15 25 22 29 26 24 24 29 27 26 30 22 23 34 29 26 23 21 29 25 23 25 19 26 24 25 25 18 22 17 20 23 29 18 25 21 26 25 28 22 16 24 23 16 23 24 26 26 24 32 21 21 21 21 20 17 24 21 19 21 30 13 22 24 34 19 27 22 26 12 22 24 21 29 22 21 21 27 28 21 19 21 18 19 24 27 25 24 19 26 17 29 25 25 18 20 17 26 15 27 13 22 20 19 30 25 25 20 21 20 23 25 16 28 19 24 22 25 16 28 29 25 30 22 18 18 18 21 21 24 21 30 21 20 16 23 28 13 25 21 23 20 20 18 20 28 18 26 12 22 27 28 24 30 17 22 23 17 21 31 24 27 26 16 19 23 20 23 29 29 24 32 32 23 20 26 17 25 25 29 20 26 19 22 28 21 21 19 25 16 23 26 21 22 28 24 26 23 24 22 23 29 25 26 23 23 23 23 23 26 25 19 20 26 17 24 24 23 22 15 19 26 21 21 23 18 40 25 14 26 23 23 25 22 24 18 28 22 27 23 23 27 16 18 30 32 16 18 22 26 22 23 19 20 20 21 21 42 34 32 20 24 22 20 19 25 22 14 16 19 18 35 19 22 26 21 24 23 20 28 18 26 20 21 26 23 25 17 14 20 22 23 26 27 27 33 20 25 24 24 21 31 20 18 22 21 21 25 25 20 27 24 22 19 19 17 21 25 24 17 29 26 25 25 23 20 18 22 25 26 16 17 23 31 29 19 25 33 26 23 34 22 29 19 17 24 23 26 28 29 21 16 24 16 14 26 28 24 24 22 21 25 23 23 26 14 20 22 19 23 26 20 23 25 21 24 20 22 18 31 27 16 26 29 19 27 19 25 27 25 28 21 16 28 21 35 20 22 25 26 21 26 15 27 25 19 24 28 25 20 34 30 20 31 30 27 26 28 28 19 32 28 28 19 17 15 23 18 26 25 18 16 17 22 20 22 27 25 16 18 26 19 24 22 20 27 26 30 26 25 30 25 23 26 17 19 25 21 22 29 25 21 26 23 24 27 27 22 28 23 22 31 10 17 21 27 26 24 29 22 23 15 23 23 23 21 17 27 28 35 21 18 26 25 31 26 17 22 25 24 26 25 23 22 28 19 20 25 16 22 22 20 21 22 20 23 26 25 20 13 25 25 24 13 21 22 22 31 17 24 18 22 24 21 21 22 19 20 18 20 24 22 19 22 20 18 25 18 26 21 20 25 18 28 20 27 21 23 22 17 18 20 16 25 22 20 19 23 26 16 21 26 21 31 26 22 21 29 21 27 23 25 26 26 18 24 25 25 25 17 21 20 21 20 19 21 24 24 31 29 24 26 26 19 25 20 31 14 26 21 27 34 24 22 14 33 13 27 31 18 27 17 28 26 25 21 26 21 24 22 26 22 16 18 24 29 26 12 22 27 18 26 19 25 25 26 31 28 18 28 23 12 17 25 20 17 24 27 23 28 18 14 26 32 13 20 29 14 12 26 28 22 27 15 24 22 18 19 25 20 26 16 25 19 21 24 21 25 16 24 23 27 30 35 22 24 23 22 19 18 22 26 23 18 20 25 25 20 24 21 19 20 22 19 24 24 20 17 17 26 26 16 21 20 20 24 24 25 18 20 26 18 23 25 29 17 21 22 18 14 23 17 23 33 14 22 23 28 10 26 26 21 19 23 17 22 17 17 25 21 28 27 22 22 29 28 19 29 27 21 21 29 22 27 26 22 25 23 22 22 23 16 29 23 22 32 20 27 19 27 25 29 27 30 27 20 19 23 27 27 21 18 29 23 21 25 22 22 24 37 17 24 31 24 23 19 27 26 18 22 23 35 23 24 23 30 25 23 20 29 29 24 26 23 20 23 16 26 23 23 17 18 23 17 24 22 24 21 27 22 27 23 20 25 17 24 19 19 18 24 25 25 18 26 26 21 22 27 26 23 19 20 30 22 21 25 23 31 23 27 21 22 19 28 15 24 22 17 22 23 20 24 23 25 20 27 21 24 28 26 21 32 19 25 22 21 20 31 22 22 30 22 20 25 18 28 22 19 17 26 18 23 21 30 24 21 21 26 25 27 22 20 21 22 32 17 23 25 21 27 20 19 26 19 18 25 20 23 17 23 21 26 26 22 22 22 23 29 13 17 28 22 22 21 22 25 23 29 17 26 18 23 19 28 20 26 23 31 27 20 17 31 24 24 19 28 24 24 21 29 17 24 22 21 21 27 21 12 17 15 24 24 23 18 17 28 27 30 20 30 19 19 26 20 25 22 21 18 30 25 32 25 27 24 17 20 23 23 24 30 22 27 30 25 23 23 18 32 29 20 19 28 23 20 20 16 26 23 18 21 14 26 25 27 23 27 28 24 23 23 22 30 19 23 26 18 35 27 23 16 26 22 17 22 28 14 20 27 27 15 19 30 21 27 28 18 28 26 26 26 19 31 25 19 18 19 24 24 30 22 32 22 21 13 18 26 27 27 22 27 23 23 26 14 25 21 26 21 14 23 22 24 23 21 26 26 25 24 23 35 24 23 20 24 30 31 26 18 23 28 28 24 20 21 22 22 18 20 29 25 23 20 24 33 24 26 24 17 15 21 28 22 20 19 26 22 20 23 23 27 18 24 23 19 17 19 20 22 24 30 18 21 22 28 25 30 34 22 25 30 23 21 31 26 24 20 25 26 22 25 24 26 21 22 20 21 19 18 24 18 24 24 23 22 31 15 23 21 21 18 30 20 20 17 27 24 20 15 26 17 21 25 28 34 27 24 28 26 21 20 18 30 22 14 16 14 19 24 23 28 20 26 23 17 21 18 19 22 32 24 17 31 23 27 19 26 19 25 20 28 24 21 29 20 16 32 35 33 22 26 24 27 25 23 25 23 24 26 23 25 17 19 29 18 18 17 28 23 20 17 31 21 22 29 28 22 29 16 25 23 30 19 37 23 25 23 17 27 33 25 20 18 29 19 21 21 25 23 26 22 20 27 25 20 17 27 22 26 25 25 8 21 26 28 25 28 23 18 22 23 18 32 24 27 23 19 19 24 22 31 21 25 16 27 22 27 18 22 29 21 22 21 23 21 21 24 31 20 13 34 26 12 21 22 28 24 25 29 18 22 17 20 29 25 23 22 23 31 18 12 25 25 29 25 22 24 17 18 35 27 23 20 26 23 20 22 19 26 21 23 21 22 22 27 28 18 21 22 23 22 19 26 26 23 11 22 27 25 21 22 21 21 30 27 23 15 29 23 25 22 26 25 28 24 22 24 14 27 29 24 21 14 14 22 20 25 23 25 26 20 17 26 28 19 20 27 20 26 25 22 20 19 34 30 26 26 23 21 21 12 20 19 27 17 33 24 20 14 16 21 16 25 19 22 21 24 20 22 20 25 20 19 24 19 21 12 24 23 20 26 27 24 21 17 18 18 20 25 24 26 22 19 16 19 17 20 25 17 23 23 25 21 26 32 20 21 22 23 28 16 16 20 19 21 21 25 18 27 28 16 28 20 25 25 17 26 18 25 22 19 25 29 19 26 27 16 23 14 15 25 22 31 23 25 24 20 25 19 22 23 24 27 24 22 27 27 22 29 21 26 22 28 24 27 26 22 24 15 24 28 28 21 27 25 23 20 27 25 21 34 30 20 18 17 20 23 28 23 39 15 29 20 17 20 28 23 22 16 28 26 21 36 18 27 26 17 27 24 21 19 19 23 17 23 19 26 24 21 30 18 16 24 20 25 22 25 19 20 33 22 20 24 20 25 19 25 15 36 23 24 18 27 27 20 28 24 21 33 29 24 25 25 20 18 32 19 21 14 25 26 15 27 14 21 19 16 24 21 18 25 28 26 24 15 21 22 22 20 20 20 14 26 23 19 24 27 26 23 25 17 28 21 23 21 23 22 27 23 24 19 26 28 18 21 30 24 17 13 15 23 21 21 25 27 22 23 21 15 29 25 18 28 33 32 20 16 27 25 19 28 20 23 21 18 30 27 25 14 18 27 30 22 30 20 26 25 22 32 28 28 18 30 28 21 24 19 18 23 27 20 21 19 29 24 25 30 23 25 29 20 21 30 24 26 24 21 23 24 18 29 20 28 23 21 30 30 23 25 23 17 22 20 26 26 24 24 24 25 24 19 19 23 24 25 34 24 22 25 26 19 28 30 30 28 17 21 27 24 25 17 20 24 25 23 19 25 26 22 16 20 18 21 29 25 27 20 18 26 25 24 18 24 19 24 25 19 21 25 32 22 22 30 17 27 22 27 28 22 28 25 22 20 24 30 19 25 26 25 18 28 30 24 23 29 26 20 16 21 23 19 26 23 18 25 15 17 25 24 16 26 23 27 18 18 28 15 31 25 23 24 29 21 20 25 33 27 26 24 31 26 16 18 22 25 25 22 25 23 26 25 24 18 16 21 28 31 23 25 17 25 24 22 33 22 23 18 33 27 26 15 13 16 23 18 21 25 28 27 21 20 35 12 16 16 25 22 19 21 24 27 24 20 17 27 17 26 22 17 19 27 22 19 16 23 31 19 14 20 20 28 24 23 22 25 30 20 18 20 16 20 20 22 21 28 25 27 21 17 16 25 17 18 13 28 26 22 19 29 25 21 18 22 20 27 22 22 22 22 25 25 29 30 20 15 16 27 26 25 15 30 16 26 23 21 26 22 29 19 22 21 33 21 20 27 22 24 23 24 23 20 20 22 24 22 22 20 29 26 23 21 26 29 28 19 18 18 22 18 25 21 26 18 20 30 25 27 24 17 32 24 17 30 19 23 33 25 18 16 24 24 24 31 18 21 27 24 29 27 20 20 18 21 23 16 24 26 27 18 26 29 19 29 25 23 14 22 16 25 28 24 21 20 23 25 21 17 22 25 17 24 18 29 20 27 20 24 26 22 18 20 21 25 20 21 22 17 24 22 20 21 22 21 22 20 23 25 28 27 26 20 19 30 20 25 23 19 22 19 27 30 27 24 29 31 29 22 25 21 31 18 20 23 23 29 25 22 28 24 27 22 19 27 19 26 26 32 24 28 32 25 23 24 21 10 24 23 29 27 25 26 17 14 14 25 30 19 24 27 22 21 19 26 18 30 31 33 25 29 25 21 18 17 17 20 28 26 25 24 25 24 26 22 21 27 22 22 19 28 13 23 20 27 25 16 15 26 22 21 20 23 23 26 28 20 30 32 26 30 15 27 24 25 17 25 19 19 29 18 27 29 19 14 23 22 15 19 23 18 24 29 23 21 23 19 19 29 17 22 23 22 24 21 22 17 21 27 22 23 24 35 24 21 23 23 24 26 24 27 14 15 23 21 18 22 26 21 22 23 21 22 27 27 29 25 22 21 21 17 23 26 20 19 31 23 30 23 24 25 20 22 29 26 22 18 21 19 18 20 37 24 19 26 19 26 27 33 24 29 21 19 27 26 19 30 24 20 25 27 15 19 18 22 19 22 17 24 21 15 20 23 22 24 25 17 27 20 29 26 22 25 21 20 21 19 15 24 19 25 18 30 23 21 21 28 19 27 14 24 24 25 19 23 25 20 29 23 27 25 16 21 23 30 28 23 21 28 16 20 23 24 25 23 16 29 30 23 31 26 21 23 25 23 25 22 24 25 18 23 17 22 21 24 18 23 25 24 20 23 22 27 25 25 19 25 26 25 20 19 28 25 21 15 24 20 26 20 24 15 26 20 18 22 24 21 23 30 20 25 32 17 31 20 19 23 18 24 27 21 23 28 11 17 26 24 25 23 20 18 24 26 18 24 18 27 30 27 25 23 16 23 20 29 23 26 26 23 17 24 17 29 26 22 24 22 24 23 26 21 22 14 26 29 22 19 27 22 19 25 19 25 26 27 15 24 16 16 27 24 25 21 26 30 21 27 25 14 24 17 34 24 23 22 21 29 17 18 29 29 13 20 31 23 16 19 29 25 25 29 19 31 32 27 25 19 18 19 19 23 28 19 33 25 26 24 21 24 24 19 23 19 25 23 27 23 18 21 18 14 21 21 23 20 21 28 22 23 36 20 26 23 21 19 14 24 22 27 24 19 21 28 14 22 20 20 18 25 23 18 26 25 26 27 28 18 19 14 20 18 27 24 25 32 32 19 22 27 25 27 21 18 28 21 31 27 20 23 32 23 21 24 25 26 22 19 18 25 21 24 24 20 24 21 22 19 22 21 29 24 27 26 27 22 26 24 25 17 30 23 28 20 18 19 24 30 23 28 28 27 20 20 20 24 30 25 22 25 28 23 17 22 26 31 19 23 27 22 25 24 16 18 26 25 18 22 24 23 18 18 31 20 26 22 18 21 26 24 21 16 21 23 15 25 18 28 20 32 20 26 14 22 22 22 15 22 29 20 23 26 23 20 17 28 24 22 15 22 15 23 22 22 26 24 22 21 17 29 26 23 22 22 22 27 19 23 19 25 26 26 25 26 25 16 21 20 21 25 23 22 21 19 18 26 23 25 18 24 28 21 17 24 19 33 22 25 27 20 20 23 19 30 30 24 34 19 31 19 27 21 27 27 21 16 22 24 28 23 34 18 25 23 26 21 24 30 30 28 25 20 20 30 19 22 21 25 27 21 31 24 29 23 23 27 25 19 20 27 16 22 21 24 27 20 24 25 31 25 23 30 21 23 22 21 23 21 16 25 25 27 16 19 28 24 28 23 19 16 24 18 27 21 21 22 25 20 28 27 21 21 26 17 25 27 25 15 24 21 21 26 28 23 27 29 20 27 26 21 26 22 19 18 17 18 19 21 29 25 22 19 20 20 26 29 17 22 21 23 25 19 32 19 23 20 26 33 17 26 20 11 22 28 32 22 22 25 26 28 22 17 14 26 31 25 24 21 18 16 24 16 19 23 18 19 22 26 27 19 30 20 24 15 23 21 26 28 24 20 23 20 22 16 21 21 18 29 28 24 21 26 18 24 25 14 22 27 19 19 22 18 20 16 27 33 17 20 16 22 28 23 22 21 24 24 20 21 17 25 26 17 31 24 19 23 22 24 21 21 22 19 21 27 23 21 23 22 25 26 29 25 24 19 20 16 22 18 29 26 16 26 18 27 25 17 26 16 24 22 26 32 21 22 24 25 26 25 17 29 26 21 22 20 25 23 29 19 30 25 18 20 20 18 23 18 19 16 18 27 23 20 18 24 28 17 32 29 22 24 22 25 29 23 26 28 15 24 25 15 22 30 24 27 14 27 19 28 33 20 20 18 18 33 19 24 24 20 28 25 24 23 26 29 28 20 23 18 27 26 25 19 23 14 26 18 28 24 26 30 25 22 19 26 20 26 21 19 20 18 27 30 21 22 29 20 24 20 28 21 14 29 18 27 19 19 23 28 26 28 29 20 25 22 22 26 23 26 28 20 25 31 25 19 29 23 18 20 15 23 24 16 17 23 20 23 23 23 18 23 15 27 33 24 27 20 33 31 34 24 29 33 19 21 27 24 26 22 27 19 21 15 25 29 23 38 23 30 19 17 26 18 32 23 24 26 29 20 20 21 20 26 23 22 22 22 20 26 22 22 23 27 26 25 16 23 22 22 20 18 34 19 14 31 17 25 25 14 24 36 29 19 21 31 21 21 26 22 27 27 20 22 22 22 25 22 21 29 24 23 26 28 23 22 19 19 23 25 21 21 20 24 22 23 22 21 29 24 24 12 20 19 19 25 26 25 28 23 25 20 22 23 24 22 19 22 23 20 26 22 23 24 24 32 19 26 22 25 18 19 22 22 32 20 19 19 24 20 23 26 26 26 22 24 25 22 18 23 19 24 18 19 20 19 19 20 29 16 27 20 24 22 20 26 18 21 18 22 25 29 24 30 22 27 31 21 19 18 23 20 25 29 19 16 24 20 28 38 24 30 20 22 25 26 25 23 21 18 22 18 27 23 19 19 24 15 18 19 20 18 28 20 25 29 28 17 21 17 26 29 27 28 22 16 30 19 25 26 19 27 24 22 25 22 25 26 28 21 28 28 27 24 24 19 20 21 24 20 20 16 25 26 21 24 17 17 15 22 21 25 22 22 20 27 26 19 24 19 25 23 23 21 31 22 21 21 23 24 26 22 17 24 22 19 21 21 20 19 28 22 29 23 20 25 36 25 17 22 19 22 22 24 25 22 27 17 27 22 27 29 27 30 17 29 20 24 27 29 26 21 26 30 20 23 22 24 22 28 31 19 22 20 24 22 18 28 20 24 30 22 21 23 33 27 21 22 22 16 22 26 34 23 24 20 20 18 21 21 17 25 16 23 28 27 19 25 28 26 25 16 22 24 21 29 21 22 21 24 35 21 24 28 21 19 22 28 15 22 22 28 20 20 20 16 25 18 23 23 23 23 26 23 26 25 20 22 23 31 24 23 23 21 21 25 26 33 27 19 22 21 25 28 19 28 33 20 19 21 15 27 22 26 22 26 21 25 30 25 19 26 21 19 18 17 28 20 18 27 23 21 24 22 26 18 22 19 15 26 26 22 18 23 22 18 25 27 19 29 28 22 19 28 30 22 25 19 24 21 19 22 35 26 26 26 18 19 22 25 22 22 25 18 23 17 18 31 23 16 20 27 22 20 27 28 23 26 13 25 22 23 26 29 21 27 26 28 21 22 27 31 28 20 21 19 24 32 20 32 29 23 26 18 22 19 19 15 22 26 26 18 22 29 31 21 17 17 24 30 23 21 34 26 28 25 20 21 21 27 21 22 19 14 20 22 18 22 26 23 15 17 15 19 19 25 19 34 28 26 19 28 25 21 13 21 22 29 23 19 22 17 29 18 34 18 18 23 24 19 18 22 24 19 24 17 26 21 26 22 22 24 29 25 22 21 32 13 25 20 25 26 27 21 24 26 29 21 19 23 21 30 21 16 23 30 21 28 28 20 21 18 17 26 29 27 28 24 27 36 23 29 20 22 20 22 21 32 18 31 22 19 30 33 22 23 18 28 29 17 24 15 17 21 8 25 23 24 19 28 22 27 23 21 33 26 19 14 19 18 28 19 16 23 20 27 21 24 21 20 30 18 19 16 22 22 27 22 23 26 29 20 22 19 30 21 20 23 32 19 27 25 20 25 23 25 37 22 23 27 20 18 23 20 32 19 20 26 24 21 23 23 23 24 27 13 30 26 20 28 20 23 26 19 21 23 24 22 18 23 22 19 24 31 33 26 16 25 24 32 18 25 32 24 20 26 25 25 13 26 27 24 23 30 25 25 30 22 24 32 18 27 22 20 24 26 27 25 28 23 26 26 16 29 28 27 19 16 20 22 18 26 30 19 22 23 21 25 23 24 28 24 23 18 28 16 30 27 23 28 27 22 28 29 22 26 19 28 16 19 26 16 26 18 28 28 19 21 25 17 20 26 23 22 22 24 23 16 29 25 21 29 32 29 30 22 24 25 25 28 27 19 23 27 23 25 20 20 28 18 17 20 26 27 18 23 25 26 21 29 19 24 19 24 29 28 30 27 27 31 22 20 25 16 22 25 22 25 22 25 25 17 29 26 17 23 23 16 18 23 22 17 28 21 27 19 35 19 24 22 25 25 20 19 25 17 18 20 26 29 23 23 23 19 32 34 18 28 22 16 28 17 20 32 29 27 28 17 24 24 22 21 22 28 20 25 26 24 22 28 21 18 17 22 29 22 29 27 21 29 20 20 21 15 25 22 24 25 23 34 24 21 15 28 22 18 30 26 30 25 20 23 25 22 27 22 19 23 27 26 26 26 31 19 28 23 28 22 22 13 23 21 23 28 26 23 19 20 22 23 21 31 25 15 23 19 25 15 21 23 21 25 19 27 31 27 27 31 24 24 16 27 22 28 22 20 31 24 19 27 17 25 23 20 11 12 22 26 19 31 22 19 26 19 24 21 32 27 27 28 18 26 24 19 26 15 30 31 20 22 21 22 21 23 23 22 26 22 25 16 32 25 28 20 22 29 14 23 24 21 23 21 30 30 25 20 21 23 28 26 25 25 23 25 20 27 21 19 26 21 23 20 14 15 15 26 21 19 23 16 18 19 21 29 20 22 16 20 25 15 22 25 29 25 25 20 26 18 29 17 19 21 20 25 23 26 24 12 16 24 30 17 19 25 29 27 17 25 15 19 23 31 22 24 23 27 23 20 19 20 20 22 24 21 21 20 18 17 23 27 19 19 25 28 24 19 21 27 26 17 18 26 26 31 19 19 23 16 24 26 16 26 26 27 29 30 20 22 24 31 23 23 19 27 21 19 35 26 18 12 22 17 15 16 20 20 22 26 31 27 21 27 32 33 25 21 26 26 22 22 23 23 33 22 26 14 27 18 26 16 19 29 21 27 23 18 14 26 19 16 28 23 21 25 17 15 25 28 27 20 28 30 23 35 30 35 25 21 23 17 26 22 21 30 26 27 16 19 20 25 21 26 20 15 14 19 24 26 20 29 23 26 21 15 23 23 22 26 19 24 24 18 25 18 19 23 27 17 21 21 30 15 13 26 21 25 21 24 23 23 21 26 17 25 15 29 24 24 28 18 24 19 23 20 17 18 30 31 22 16 22 21 21 30 21 26 19 17 24 29 24 20 18 21 21 31 28 23 18 21 15 25 18 23 33 17 27 20 18 19 20 14 25 21 23 20 13 21 22 21 22 20 28 20 22 23 19 23 24 22 16 25 31 29 26 23 22 24 26 15 26 20 26 14 15 21 32 28 23 32 24 32 17 27 28 23 20 25 18 18 21 27 30 21 26 19 20 24 27 25 24 15 25 31 14 19 29 26 26 30 21 28 23 26 27 25 28 16 27 19 23 30 30 26 31 19 30 26 22 20 20 20 31 18 22 26 15 16 27 25 15 26 22 25 25 27 25 23 29 19 22 22 21 25 22 17 19 15 32 28 18 16 28 19 24 24 26 21 24 22 18 25 27 26 21 30 23 19 25 34 27 30 30 20 29 18 29 22 17 28 24 27 29 29 29 20 20 27 27 18 23 16 25 28 28 24 28 27 19 21 34 20 14 17 23 29 26 24 24 27 23 24 20 25 14 28 17 26 21 20 16 28 21 31 29 18 27 27 25 27 27 20 22 26 20 23 20 25 19 26 31 20 22 21 21 35 27 23 17 25 27 24 27 18 20 26 23 25 15 26 27 27 23 23 21 23 22 24 25 21 24 23 25 23 16 25 19 26 22 26 20 21 17 30 23 25 24 31 30 21 21 23 20 14 23 18 21 19 22 31 29 22 19 27 25 20 22 23 23 36 22 19 21 32 21 24 22 27 20 25 24 23 24 26 30 17 22 15 19 23 23 25 23 19 21 18 21 16 20 19 25 30 19 25 21 27 22 16 19 25 29 24 22 28 32 24 19 21 32 32 30 17 26 15 23 21 18 29 25 19 27 25 16 28 16 26 21 27 22 21 26 28 23 29 26 20 28 20 21 18 22 25 19 18 32 23 29 21 25 29 17 24 17 23 20 23 22 22 22 19 21 20 27 22 21 26 19 27 17 29 35 16 19 29 26 27 17 22 22 26 26 19 30 24 19 24 24 18 22 25 25 21 22 26 24 23 28 24 27 18 17 25 25 26 25 21 22 23 29 25 22 23 15 29 19 25 27 17 26 11 24 23 28 20 23 18 21 25 25 17 27 20 28 22 30 25 29 27 19 24 26 25 22 27 23 17 22 22 22 18 22 21 31 20 29 25 23 23 33 23 21 22 21 32 18 18 15 22 20 20 17 27 20 27 25 30 14 21 27 24 20 28 19 16 21 19 28 20 18 26 28 29 27 23 27 24 15 20 26 26 22 27 20 24 29 24 28 27 20 23 27 22 25 33 23 27 17 14 19 19 21 23 25 20 19 24 25 20 24 14 26 20 29 26 18 31 23 12 24 31 22 22 33 22 18 24 25 26 23 22 20 22 26 20 19 12 24 26 25 28 25 28 20 21 25 22 25 28 23 24 31 16 16 20 23 23 26 21 28 22 16 17 25 27 26 23 21 25 24 17 28 23 28 22 22 24 26 19 26 27 21 24 23 22 27 17 26 15 19 20 17 28 26 15 26 19 21 24 22 21 18 22 20 20 23 28 22 22 20 20 24 20 21 17 29 23 23 26 22 23 19 21 22 21 28 21 28 33 22 21 21 21 39 22 21 20 26 28 23 16 30 25 25 14 20 24 26 28 26 22 21 20 25 26 24 24 22 24 26 27 24 20 22 19 17 19 32 25 26 27 25 24 24 19 15 30 22 23 16 24 20 29 21 25 24 31 31 30 24 26 28 32 28 25 19 19 23 22 26 30 21 23 24 19 26 23 24 37 22 22 25 27 24 28 26 29 26 28 23 28 30 23 19 31 23 24 18 29 17 24 19 22 23 19 19 26 20 26 23 29 21 25 18 22 23 18 21 24 25 20 16 18 19 30 28 26 18 24 21 26 31 23 26 21 26 19 23 16 25 24 16 17 27 18 21 22 22 25 25 21 19 28 21 24 21 20 22 24 26 24 18 23 18 18 32 28 24 17 27 19 29 22 22 17 20 28 20 22 26 20 23 26 17 26 29 25 23 25 26 23 23 20 24 29 13 22 10 18 21 22 23 19 26 22 13 27 21 30 27 25 24 24 19 24 34 23 22 25 23 25 14 29 18 29 24 22 20 19 27 23 27 16 24 20 18 22 22 27 19 29 27 22 24 28 24 22 13 21 26 19 26 16 26 22 25 27 25 20 22 32 29 18 25 27 21 24 22 25 23 18 19 26 24 25 18 20 24 26 21 25 23 14 21 17 25 24 23 28 24 26 17 24 27 35 19 22 23 19 23 31 28 26 24 19 18 21 19 23 19 21 21 21 22 24 26 18 17 20 30 22 18 20 22 32 25 23 18 22 24 26 22 33 34 22 25 22 22 29 14 27 27 17 24 24 26 23 25 20 23 21 24 35 19 20 14 22 28 23 25 29 21 27 30 17 20 22 18 28 14 19 18 25 17 27 20 26 23 20 17 26 22 20 19 17 27 25 27 20 24 21 29 21 17 22 26 25 15 19 21 23 26 29 28 30 19 27 19 31 16 31 35 15 28 21 20 23 24 17 21 28 22 24 24 22 21 26 25 27 30 23 26 23 23 17 32 28 23 24 15 15 26 25 18 26 19 23 18 25 28 27 21 20 22 26 24 26 16 21 22 23 22 14 26 30 21 25 24 23 23 25 23 23 31 25 30 30 26 29 24 20 25 15 31 25 20 24 29 23 17 20 22 16 25 20 20 29 26 12 22 23 24 28 24 16 27 25 24 20 27 26 25 22 18 14 28 29 32 18 17 24 21 31 22 17 25 24 20 22 20 16 20 25 28 26 24 14 23 26 20 32 28 30 30 35 28 20 22 15 27 28 23 20 20 22 21 28 26 18 23 20 22 26 29 21 25 24 25 24 27 17 20 23 20 24 17 19 21 21 19 26 21 27 16 20 33 20 24 21 22 18 28 24 25 27 27 23 26 31 21 25 25 13 23 28 17 27 21 23 22 20 25 23 28 27 23 30 22 27 12 29 24 29 20 21 27 18 27 29 22 17 19 30 23 27 18 22 19 22 27 22 13 19 28 23 21 29 22 18 12 20 16 29 16 29 20 27 19 28 24 15 16 32 27 27 32 20 24 30 18 26 20 25 19 21 28 22 30 18 21 16 16 22 20 19 15 24 20 19 24 21 21 29 33 23 23 29 24 21 21 19 17 30 32 22 22 28 20 15 25 19 19 26 18 29 24 25 24 23 26 30 21 14 19 28 15 20 24 27 18 31 38 24 27 18 22 25 17 11 26 14 23 14 30 20 24 30 24 24 29 29 24 32 29 23 20 27 26 29 23 14 28 26 20 25 27 27 12 21 28 20 15 23 18 25 17 24 19 18 25 22 17 17 23 26 22 21 18 23 25 24 23 27 23 26 34 22 24 30 27 17 23 28 32 26 22 20 26 24 22 26 21 21 22 24 20 18 23 21 22 25 27 23 18 25 25 27 18 20 29 23 21 30 23 30 23 17 28 22 19 28 26 26 28 22 18 22 26 22 15 26 22 25 26 25 25 31 17 17 21 22 21 26 25 21 19 24 32 30 13 18 20 25 25 15 22 19 26 25 26 17 25 16 22 30 21 25 28 16 24 25 18 20 22 27 22 21 16 25 24 26 25 21 26 29 26 24 21 20 24 18 21 17 26 20 33 13 23 21 27 24 19 17 21 23 25 27 32 26 28 30 13 30 26 27 27 27 27 29 22 24 23 19 26 20 27 24 27 27 20 27 25 29 31 31 23 24 23 26 26 18 21 22 26 19 17 20 18 23 19 29 32 22 27 29 21 22 15 22 21 23 34 16 27 27 26 19 22 18 27 29 21 27 24 21 24 27 30 20 19 27 29 26 17 16 17 23 24 20 23 23 19 33 21 23 22 18 25 22 27 22 20 19 18 17 21 18 17 22 21 26 17 23 25 17 20 25 22 25 27 16 21 22 24 22 28 20 28 25 25 21 17 24 22 28 19 20 29 36 24 18 28 27 24 17 16 17 25 23 22 18 40 25 26 21 25 21 23 22 19 26 24 31 22 27 28 19 23 27 23 23 20 21 22 19 26 20 28 21 17 19 26 20 21 19 23 22 19 24 28 27 22 18 25 29 22 23 28 22 22 21 19 31 24 23 20 28 22 15 24 16 27 22 32 29 30 24 23 23 25 30 27 20 20 22 29 25 24 28 29 15 22 21 22 23 26 29 22 20 26 25 26 19 26 19 25 26 21 25 19 24 17 17 23 23 25 26 17 27 19 29 23 23 23 21 20 21 21 25 17 20 19 26 14 28 20 18 18 31 17 23 18 36 21 20 22 22 20 24 27 25 29 25 26 20 24 27 21 27 27 24 29 28 24 24 19 24 21 26 20 26 30 22 19 27 13 20 25 27 18 19 26 20 24 31 16 16 17 34 25 27 26 27 22 20 16 21 33 26 25 28 25 23 21 30 21 20 27 23 27 23 17 18 23 16 25 24 22 28 25 28 28 23 23 17 32 17 23 16 25 21 21 36 17 27 24 26 23 28 27 24 13 20 12 28 21 24 31 25 21 28 23 21 25 20 19 15 14 23 21 22 22 24 22 22 25 22 20 11 14 26 12 23 15 13 23 21 25 18 24 19 27 19 15 22 23 31 16 19 23 18 22 33 27 29 22 26 25 34 21 22 17 25 17 24 22 24 21 25 28 26 28 21 21 26 23 19 19 26 19 22 16 23 25 16 25 22 26 32 23 18 30 20 31 21 21 17 16 22 20 23 28 21 30 25 21 26 25 25 24 26 21 24 29 36 23 32 22 26 17 22 16 24 23 22 18 17 25 21 24 27 19 16 27 13 19 20 12 29 24 21 23 25 20 21 9 27 24 18 26 22 18 22 23 22 20 29 20 33 22 17 21 22 21 26 28 19 18 25 19 22 22 21 26 28 22 16 20 16 22 23 23 23 31 29 20 22 28 27 22 27 24 24 26 17 22 16 23 26 24 29 17 18 22 23 17 32 17 23 23 23 26 21 30 19 31 27 25 19 19 26 26 30 26 29 24 25 25 35 25 26 20 25 29 25 34 27 28 18 25 19 28 24 23 23 22 18 26 29 18 25 25 31 20 23 20 22 21 15 16 17 25 23 19 26 19 18 16 25 29 25 21 19 27 33 23 19 28 27 25 26 33 22 24 16 18 19 23 23 23 25 15 16 26 27 19 20 22 19 25 22 21 23 24 20 26 26 19 21 25 23 26 13 24 23 21 24 20 20 22 23 23 27 16 26 26 27 25 24 21 17 18 27 26 25 18 12 21 18 18 21 25 20 20 20 14 20 21 21 25 25 27 17 20 23 24 21 23 20 23 17 27 21 22 28 22 26 22 30 27 22 20 17 29 19 24 22 18 27 24 24 20 19 28 22 26 21 26 31 17 25 25 27 18 24 21 26 29 30 24 27 19 13 24 20 25 29 20 23 23 24 19 23 31 12 22 29 23 22 29 23 22 14 24 20 24 22 20 15 22 22 23 15 25 37 23 26 25 25 10 21 22 26 23 28 24 26 31 14 21 24 22 27 14 22 34 25 25 22 22 20 20 20 34 24 24 21 22 20 21 18 16 23 21 24 23 24 25 18 18 15 24 13 21 20 18 25 24 21 29 22 20 22 30 21 26 20 28 25 30 18 17 19 28 21 21 16 28 32 19 14 23 19 27 22 17 21 22 22 25 18 20 21 25 23 22 22 17 30 27 24 25 26 25 26 20 31 28 26 27 18 15 27 22 20 25 30 23 29 27 23 25 24 26 27 25 25 10 34 24 26 26 29 17 20 24 17 19 24 18 24 24 23 20 22 18 21 28 30 26 25 12 33 19 26 16 21 19 25 22 18 21 25 29 23 24 23 28 28 27 22 23 22 21 27 20 22 20 16 16 27 21 17 24 18 18 23 30 27 19 33 13 21 22 15 29 25 16 27 21 27 22 22 11 13 27 30 11 24 24 27 20 25 19 28 24 26 21 22 27 33 29 23 28 17 16 25 18 22 30 25 26 21 23 16 25 21 25 21 23 20 32 21 23 17 24 27 21 18 24 30 28 22 27 23 21 23 18 20 22 18 27 19 24 15 27 23 18 24 26 21 18 17 18 20 28 17 15 26 26 15 23 19 21 19 17 19 22 20 34 22 22 13 24 21 20 22 21 25 19 20 18 17 26 21 31 24 23 26 19 25 22 22 24 27 23 24 24 18 29 18 29 18 20 30 31 23 27 23 22 23 22 21 20 27 26 20 23 34 18 20 18 23 23 28 24 19 28 25 20 23 18 31 22 21 20 32 19 26 23 23 24 31 25 20 20 30 18 23 25 27 31 16 26 17 27 19 26 24 21 24 24 26 18 19 15 30 25 27 21 28 24 22 27 17 27 24 20 12 32 21 24 21 23 21 26 29 20 27 30 26 29 28 23 30 27 18 32 22 22 18 23 19 25 34 25 15 29 15 21 26 22 25 27 23 24 17 27 19 29 22 20 27 23 27 12 14 19 18 17 18 36 20 26 27 25 17 21 20 25 19 25 27 28 21 19 28 24 21 19 19 25 15 20 26 19 23 25 22 20 18 27 23 20 21 25 21 16 21 23 20 23 22 21 21 21 21 15 21 18 23 23 20 29 36 23 21 25 26 25 25 22 19 14 21 24 26 19 12 26 27 21 17 16 19 31 25 18 24 19 22 21 22 22 24 17 30 22 27 25 24 17 31 25 29 18 21 17 20 26 28 24 23 27 19 30 21 22 20 24 22 37 23 21 30 22 16 30 32 25 19 19 24 14 18 22 20 27 20 22 28 14 19 26 22 27 23 24 20 21 24 17 28 26 26 22 32 26 27 19 20 19 33 28 24 26 24 23 25 15 19 22 25 30 15 16 29 15 26 22 17 26 21 30 19 28 23 25 26 29 26 16 11 27 21 20 20 16 21 24 17 23 22 25 17 26 21 21 25 16 21 20 14 31 26 24 20 31 27 22 17 22 24 30 16 22 31 22 22 28 32 30 23 28 19 17 21 20 18 21 18 27 32 18 29 24 23 22 21 24 19 25 23 28 19 19 22 21 28 14 17 20 28 17 18 25 16 18 16 20 27 18 31 16 27 23 31 23 16 28 19 24 24 21 30 28 29 33 24 19 27 25 27 17 16 30 10 30 20 26 27 21 34 30 31 33 32 22 23 22 26 22 24 25 25 26 22 17 23 28 22 20 20 23 19 23 18 16 14 27 28 27 25 32 26 26 24 19 24 19 25 20 26 24 25 28 18 18 20 15 23 23 20 23 14 19 24 28 18 24 24 25 23 31 23 19 27 21 21 26 26 28 21 24 25 24 21 18 21 27 25 23 16 25 27 23 26 25 22 29 29 21 24 21 27 25 24 22 28 20 26 19 21 21 22 21 21 24 19 18 19 19 18 17 19 27 24 28 25 17 12 27 17 19 19 26 22 26 17 28 20 10 28 21 24 24 18 23 28 28 17 23 29 19 26 28 28 20 23 26 25 24 13 23 22 25 17 18 28 20 11 20 22 23 29 19 23 22 27 21 22 24 20 14 29 18 27 17 23 15 19 23 24 20 32 26 22 19 23 28 22 14 28 30 20 23 22 27 24 19 25 19 28 27 25 30 27 23 17 21 20 23 25 17 18 29 17 25 17 25 29 21 24 31 21 27 32 20 25 15 20 19 27 22 20 23 32 30 16 25 17 16 23 33 22 20 26 23 27 23 23 22 23 21 26 26 29 26 17 20 23 18 23 28 22 21 19 14 30 28 23 30 23 19 21 32 24 24 19 19 23 21 29 25 30 26 30 18 20 20 22 19 30 21 22 20 24 22 28 34 22 21 18 30 21 24 21 28 24 28 25 26 16 21 24 32 27 17 26 24 21 21 19 27 28 25 18 29 20 23 26 22 16 21 18 21 22 25 22 20 25 25 26 20 17 14 21 27 22 19 28 28 30 22 21 16 27 17 33 26 25 21 26 26 25 23 32 22 18 20 16 20 26 23 18 28 24 23 31 23 26 18 18 26 21 26 17 29 25 27 19 20 33 24 14 19 19 25 13 24 22 30 25 22 21 15 31 27 21 19 34 24 20 29 16 23 18 29 20 24 18 21 16 22 24 31 29 26 20 23 26 20 17 18 19 18 18 12 21 25 21 31 17 20 19 32 22 27 24 26 22 22 25 24 24 26 22 24 22 25 21 29 23 24 25 28 18 26 33 18 17 26 19 21 19 13 17 25 20 17 27 21 24 26 26 25 24 28 21 13 17 26 31 22 28 25 22 20 16 29 28 26 25 38</t>
-  </si>
-  <si>
-    <t>JSU(-3.034807869250229, 5.320616679846209, 18.065790542642137, 26.04710168182781)</t>
-  </si>
-  <si>
-    <t>30 40 24 40 29 34 37 26 29 36 37 30 38 39 39 35 47 45 28 35 44 38 34 56 32 37 29 40 33 32 29 39 33 31 31 21 30 26 37 37 32 32 39 32 27 34 29 33 37 29 49 42 36 39 31 26 44 36 42 42 40 36 38 30 32 33 34 37 27 26 32 39 42 29 44 36 41 33 37 33 30 30 49 33 38 32 31 42 53 23 36 35 37 26 21 30 31 40 30 40 26 36 27 41 34 34 34 39 31 16 36 32 31 33 33 36 30 24 29 35 37 31 47 26 26 18 44 40 45 31 50 43 35 27 32 31 30 29 28 25 33 27 30 28 36 37 36 43 42 32 42 31 37 32 25 37 36 33 21 29 46 30 27 21 28 32 32 37 27 32 37 42 42 35 25 32 33 28 35 26 46 41 26 26 27 31 39 36 27 28 35 37 35 33 29 32 46 34 33 34 25 41 41 43 35 26 28 32 33 29 32 31 38 32 38 24 39 34 21 31 43 27 32 34 26 44 26 34 32 31 28 37 27 35 35 30 30 33 37 32 29 39 43 37 38 34 33 30 33 28 36 30 37 33 35 34 26 37 34 35 34 25 51 37 29 30 31 39 39 36 36 33 38 35 39 43 40 45 34 39 32 33 44 32 38 33 32 44 34 27 37 33 34 33 27 32 35 37 32 37 28 29 31 30 36 31 29 36 34 35 40 37 29 36 26 38 51 34 43 34 34 34 33 42 31 25 37 31 44 29 32 38 32 33 29 34 34 43 32 30 34 41 35 29 31 35 42 29 37 28 37 40 25 31 39 31 33 36 32 19 21 39 31 40 29 40 33 36 33 25 45 46 34 38 33 42 32 44 40 33 33 43 42 36 26 33 34 35 33 32 30 23 28 35 32 39 46 36 46 30 34 32 37 40 28 39 37 31 31 44 29 27 42 32 34 33 32 41 38 34 30 31 23 27 33 42 26 35 38 25 42 28 32 31 38 25 34 22 33 30 27 32 39 33 30 27 36 34 37 32 34 42 36 37 32 29 32 25 39 35 30 25 37 27 39 40 40 33 27 37 33 35 34 32 26 34 38 33 31 37 30 25 30 35 32 36 37 31 26 28 30 25 31 34 24 31 40 39 34 35 29 49 41 41 37 32 43 42 24 27 33 37 27 32 43 45 34 28 31 39 37 31 30 38 30 29 48 30 24 36 26 33 29 44 38 30 29 33 33 24 35 30 36 33 37 26 33 37 27 28 38 36 37 46 29 43 22 39 42 34 38 30 31 43 33 33 35 32 35 37 31 30 32 29 39 41 35 34 38 28 33 37 37 41 36 37 30 39 33 35 27 32 47 33 28 29 26 28 27 35 44 30 29 33 37 32 35 32 38 35 31 37 28 28 35 35 40 28 30 37 31 31 36 36 38 30 34 24 30 32 36 41 28 34 29 41 33 30 33 30 38 20 32 35 32 37 32 24 31 27 28 27 29 30 30 37 21 43 33 47 39 32 44 37 35 36 36 40 30 36 40 29 29 34 41 29 31 32 37 37 26 36 33 42 36 36 37 28 36 45 30 36 32 32 27 37 30 31 46 32 37 31 48 35 30 36 31 37 42 29 26 42 31 29 26 38 35 34 32 35 33 25 39 30 24 34 26 32 58 24 32 38 28 44 42 34 36 41 33 33 43 34 24 43 23 31 35 39 28 41 40 25 44 33 33 38 41 31 39 30 37 43 41 40 37 35 28 37 30 32 37 38 34 40 36 35 31 27 26 34 33 32 40 30 36 26 33 29 36 40 34 37 33 34 33 31 34 30 35 32 41 35 24 39 35 35 45 40 28 27 38 26 49 31 30 28 38 36 40 45 38 35 33 36 45 45 31 35 34 29 38 33 32 23 33 44 31 34 29 32 51 34 27 33 36 34 40 29 43 31 41 34 30 40 34 39 35 29 51 33 30 17 24 36 45 39 37 42 35 23 49 39 39 37 35 29 35 37 32 35 33 36 43 36 37 33 50 33 30 34 29 39 44 26 30 27 34 34 35 28 43 37 32 44 31 26 41 35 37 31 31 25 35 36 29 33 37 35 33 29 43 33 37 35 31 34 39 42 46 38 28 35 28 32 31 43 39 38 39 44 42 29 42 34 38 38 33 36 50 30 25 28 27 35 33 42 33 40 32 39 30 28 36 39 38 37 33 39 38 25 38 29 40 41 35 37 29 43 31 47 32 29 37 30 42 19 34 36 38 39 42 38 35 28 26 42 29 36 35 26 27 47 36 31 37 40 33 27 35 36 21 34 34 30 34 40 29 45 28 34 34 37 36 28 31 39 36 43 29 32 35 35 38 26 49 32 34 30 25 35 38 31 31 40 29 35 30 27 34 28 45 28 28 26 29 46 27 27 37 44 39 27 34 29 27 34 39 30 39 33 26 29 31 36 26 33 37 41 39 38 32 31 39 26 36 30 41 39 28 36 24 40 35 24 31 32 33 36 38 24 30 39 41 30 34 28 33 25 35 24 44 36 33 37 35 32 25 42 27 30 32 39 35 32 29 31 36 36 20 28 33 29 30 46 26 33 30 24 39 32 31 36 32 31 44 36 39 31 33 39 41 33 31 38 25 33 36 37 29 38 33 27 40 40 33 30 38 38 44 34 28 39 25 40 33 30 38 32 28 46 25 31 33 40 21 43 43 41 21 40 28 28 37 41 34 39 32 27 40 33 41 39 26 30 24 40 36 39 33 35 33 31 32 33 37 28 46 35 35 36 29 43 30 34 37 33 33 29 44 33 34 29 32 39 33 34 24 36 39 35 34 43 40 42 46 39 32 31 23 31 43 38 32 27 34 34 28 29 21 35 36 42 33 38 37 50 31 29 36 33 26 42 34 30 32 24 39 33 31 33 30 27 31 36 33 28 22 36 24 27 29 22 33 38 36 33 30 32 46 34 48 29 26 28 37 24 34 29 40 37 32 31 30 30 35 24 24 28 33 32 37 32 29 42 22 33 31 41 27 44 33 44 30 37 33 42 40 31 31 34 37 47 25 27 40 30 43 34 34 36 32 37 30 24 22 41 30 34 33 27 37 42 37 38 40 37 36 27 31 33 32 40 36 29 40 26 39 47 31 35 35 30 41 34 40 30 29 22 35 30 50 39 30 32 42 26 33 38 33 22 30 34 32 37 27 34 36 44 39 35 39 29 38 44 27 36 44 43 29 27 38 35 28 32 40 38 29 24 26 33 34 33 35 37 38 38 36 41 32 35 30 31 40 33 28 32 38 36 24 32 35 35 29 23 39 21 34 29 38 30 31 34 32 24 35 31 33 36 30 40 34 37 37 48 40 40 40 42 38 34 33 42 27 26 30 33 27 36 47 45 36 41 33 40 36 36 26 35 33 39 27 34 30 30 38 33 37 37 41 34 30 40 36 33 45 28 30 35 34 48 36 28 37 32 32 35 39 30 39 33 34 33 37 30 35 35 21 41 44 32 31 29 32 34 38 50 31 32 41 36 32 36 26 26 30 48 37 32 40 41 32 28 35 42 29 32 32 36 32 30 27 45 36 38 36 31 35 40 32 35 23 31 21 37 35 32 35 24 35 40 26 36 36 36 39 36 34 36 26 43 38 29 37 33 23 31 38 32 24 37 44 39 31 46 34 37 45 40 35 32 44 34 33 28 33 27 34 39 30 34 28 37 44 37 34 38 26 35 31 31 36 29 36 45 32 41 34 30 31 29 41 27 31 25 34 32 37 42 32 34 42 40 41 45 37 34 46 35 35 35 35 40 42 30 42 28 35 39 34 35 32 29 26 30 33 44 29 37 31 33 38 43 33 21 40 38 22 33 33 36 31 30 43 32 35 32 29 25 23 31 29 27 26 47 24 31 34 48 26 38 35 38 26 37 29 34 39 32 29 33 43 42 36 28 38 27 24 32 35 34 30 31 41 25 36 33 40 24 36 31 37 28 46 25 29 30 28 41 32 31 32 32 37 31 28 23 38 26 40 35 33 28 41 37 43 43 27 35 33 29 30 33 39 33 44 30 30 28 32 32 22 33 32 37 35 24 30 26 45 27 36 22 37 32 40 30 40 27 31 47 24 34 39 32 40 36 24 27 33 28 36 39 42 35 47 49 34 30 37 29 48 30 35 31 33 31 31 45 34 27 26 33 24 42 37 30 28 39 35 31 36 36 36 37 40 35 33 30 30 37 33 31 35 42 26 33 36 32 38 36 37 36 27 31 33 31 29 38 29 50 35 23 33 35 36 29 29 33 33 38 34 37 34 36 37 33 32 44 48 25 29 35 32 31 31 33 30 32 32 37 60 48 40 35 33 31 30 33 31 35 22 25 28 25 46 25 32 34 34 35 34 29 42 24 38 23 32 43 27 37 30 25 34 33 31 33 38 31 48 24 42 35 33 30 42 29 27 39 31 27 38 34 35 40 34 41 29 32 24 33 36 33 34 45 37 37 36 34 36 27 33 36 41 31 28 34 45 36 27 34 53 29 33 42 37 42 30 34 34 34 36 32 38 32 29 38 22 29 33 39 35 35 39 28 39 40 31 36 26 34 35 30 32 33 23 31 39 28 32 33 31 24 38 38 27 33 38 29 39 26 37 34 34 38 34 25 40 27 46 27 30 37 41 36 36 26 43 37 30 29 37 36 32 47 40 39 39 44 33 38 46 38 26 45 47 38 24 28 19 31 28 38 34 31 23 30 32 36 32 34 34 27 30 40 26 38 43 29 35 32 42 41 36 38 35 29 37 29 26 36 33 25 43 37 31 35 35 32 46 43 31 33 31 33 41 18 26 39 42 40 31 40 34 30 24 35 32 31 38 30 39 41 47 31 22 36 33 41 34 27 31 35 41 35 35 30 32 44 28 29 35 34 30 33 28 29 26 24 34 38 33 30 24 40 35 31 23 30 34 32 40 31 39 27 34 36 30 29 35 25 31 25 30 28 39 26 32 27 32 37 29 33 32 29 37 27 36 31 36 39 33 36 29 26 34 27 30 31 28 27 30 38 22 32 39 31 41 38 32 30 35 28 37 33 37 41 35 32 43 38 39 40 32 33 33 34 34 26 30 39 42 40 49 32 33 29 24 35 30 41 40 30 32 43 50 36 34 29 39 17 34 45 32 36 30 45 39 33 32 32 28 29 30 42 38 30 26 37 47 42 27 35 43 28 35 32 32 42 33 46 35 30 44 34 24 32 37 28 32 32 32 33 35 28 29 38 41 27 30 47 30 21 34 37 35 30 22 35 34 33 27 40 30 40 24 39 31 32 34 39 34 26 33 38 40 38 47 34 28 41 29 28 30 33 36 39 25 34 35 31 35 31 35 28 27 36 32 30 40 34 31 24 31 39 29 31 28 27 29 28 43 24 28 35 30 30 30 38 29 29 37 27 22 30 24 33 42 29 35 38 43 19 38 34 29 28 33 30 41 27 25 40 28 45 31 31 30 37 36 28 41 38 24 32 44 37 43 35 35 46 36 30 37 32 24 41 27 33 49 30 39 31 40 41 43 38 43 45 29 25 31 37 39 32 30 44 33 27 36 36 27 29 51 26 39 38 35 36 28 36 40 30 33 42 48 29 37 32 38 31 36 25 41 38 39 36 36 26 40 24 33 34 34 21 30 28 25 29 31 35 33 39 35 39 37 32 30 25 32 25 30 34 38 38 32 30 34 39 26 33 34 37 37 29 31 39 32 41 36 37 48 35 41 29 27 31 42 23 42 32 30 33 32 30 30 41 31 27 36 33 35 41 41 33 43 25 42 37 30 29 45 34 32 45 33 31 47 26 32 34 32 24 37 29 32 32 34 36 33 38 35 39 37 35 33 35 29 40 29 29 36 34 42 30 30 37 32 22 37 36 29 30 29 30 36 39 32 30 30 38 35 25 28 35 35 29 38 37 29 31 42 29 37 24 35 27 37 36 44 39 47 36 35 23 39 33 33 32 40 34 32 34 35 26 31 34 28 31 36 31 25 29 26 36 32 35 29 28 32 39 42 34 37 28 28 36 29 29 31 36 27 47 37 39 35 42 32 28 36 32 29 33 34 31 41 41 39 33 39 23 45 39 36 26 35 35 30 28 26 39 36 38 29 24 37 39 36 37 36 36 31 37 34 37 37 30 35 34 32 43 39 34 29 40 30 34 28 35 27 38 35 40 22 29 41 30 46 43 34 43 34 38 36 33 41 33 44 36 32 32 32 40 31 38 33 30 24 30 32 34 42 37 37 34 34 39 25 33 27 39 26 23 36 32 36 35 31 37 36 31 30 30 51 36 43 28 34 42 48 34 29 37 42 37 32 29 27 32 29 31 28 43 33 33 30 36 48 35 36 35 27 24 37 41 34 29 28 34 31 28 32 39 40 27 36 36 31 29 28 32 34 34 33 35 30 29 41 35 40 46 35 35 45 34 35 40 41 29 31 33 37 30 36 33 38 29 36 29 31 28 28 30 31 43 33 36 29 45 25 28 28 29 35 46 31 32 29 35 34 32 22 38 31 39 42 40 43 37 35 33 37 29 21 24 42 35 25 24 23 29 35 32 41 31 40 32 33 36 27 41 31 45 39 26 45 43 41 38 36 30 39 30 40 33 33 39 30 26 42 48 49 34 39 38 32 38 28 36 38 32 36 42 33 27 27 44 32 34 24 41 34 38 26 45 27 27 46 36 30 43 36 33 30 46 28 44 29 38 29 28 36 40 36 23 29 46 24 36 36 37 34 37 37 35 32 35 24 28 45 37 42 36 31 16 34 39 34 31 38 34 27 30 32 31 39 35 39 31 27 36 31 36 45 29 37 30 38 38 38 33 32 46 35 26 35 35 27 31 40 35 30 25 44 37 21 28 32 33 36 36 40 27 35 34 30 39 35 31 31 32 45 26 22 36 31 39 33 28 38 31 34 42 36 29 31 34 30 24 28 34 36 33 30 28 31 29 42 36 36 34 36 33 34 31 35 39 36 27 26 41 37 36 26 38 33 39 40 31 19 33 31 35 30 39 29 34 37 29 35 22 36 42 33 34 21 27 35 31 42 36 31 34 36 32 38 38 32 36 41 27 37 32 31 29 27 48 38 36 34 35 31 33 19 26 27 37 36 48 32 31 25 32 41 23 40 31 31 26 29 29 31 30 35 27 37 34 27 31 23 36 31 29 33 31 31 36 28 25 26 31 41 33 36 37 29 29 28 26 33 38 33 36 29 38 33 40 38 28 34 28 40 41 26 24 30 25 30 31 35 25 39 40 28 37 33 29 39 28 38 29 40 38 25 32 37 30 40 35 30 30 26 24 36 30 41 35 38 40 31 37 30 36 34 33 38 36 33 40 35 34 42 28 33 28 36 34 31 32 34 39 34 37 40 38 29 38 39 36 35 38 47 29 46 40 34 30 30 35 35 39 34 50 28 43 34 26 36 37 32 35 27 37 36 32 49 26 40 38 23 38 41 30 24 26 40 25 33 28 32 32 29 38 25 25 33 38 31 35 36 34 32 38 33 28 34 32 34 32 33 22 47 31 31 23 33 34 32 44 27 25 39 43 37 36 40 30 25 39 36 31 22 34 39 33 44 24 27 28 26 39 30 31 35 35 32 33 23 35 33 31 22 29 30 23 39 30 31 33 36 36 35 41 30 42 27 36 29 27 34 38 36 38 30 37 40 28 30 41 30 29 25 28 41 35 38 31 42 35 28 37 29 36 33 31 37 40 44 28 26 33 38 27 33 29 30 30 28 52 33 34 28 28 34 41 35 39 30 36 33 33 43 45 36 33 37 36 30 36 33 31 33 42 32 33 30 39 39 33 38 35 38 43 27 32 42 32 39 42 35 32 33 33 53 29 35 36 30 45 47 32 31 32 25 31 24 39 40 36 39 38 34 37 33 31 33 36 37 46 32 31 37 46 33 42 40 40 44 23 28 37 37 36 26 30 35 31 29 28 36 32 36 26 33 30 27 41 34 43 32 30 39 39 35 30 39 28 29 42 31 33 35 53 36 36 38 27 39 34 39 32 36 40 38 27 26 33 47 24 36 32 40 32 33 51 38 38 46 41 29 29 40 31 30 38 30 32 35 18 28 34 32 28 47 35 35 29 28 47 29 41 31 31 35 41 33 24 37 48 47 31 35 40 36 19 28 27 32 33 34 34 33 35 33 34 27 27 32 42 41 42 37 22 38 34 27 45 30 26 26 42 39 35 23 30 23 30 40 31 39 37 36 30 33 44 27 30 27 46 28 27 32 33 40 33 36 27 42 29 37 29 32 31 31 36 27 27 37 46 31 25 33 27 41 39 30 32 37 42 29 28 26 26 29 34 31 28 36 40 37 33 25 33 38 31 33 27 35 38 33 28 45 31 34 29 31 25 42 31 29 36 32 36 30 35 42 28 28 26 37 36 38 26 38 26 37 30 28 46 38 44 30 33 30 45 35 31 41 36 41 40 42 36 28 35 32 32 36 35 37 37 38 35 33 42 42 39 25 36 31 37 26 45 32 37 26 31 44 41 46 39 26 42 32 24 46 28 29 48 31 26 27 36 35 32 43 28 33 39 39 37 38 28 29 27 27 33 28 37 40 44 33 34 39 33 42 41 35 28 32 28 33 36 40 31 35 36 36 28 32 38 32 27 35 33 39 30 36 26 36 34 31 32 26 32 34 25 28 39 28 33 30 30 27 33 32 29 34 30 37 36 36 40 34 29 44 40 39 35 25 33 34 37 39 35 33 45 39 44 38 38 33 45 37 30 38 35 36 39 36 37 30 38 34 29 37 25 42 37 41 37 40 42 34 33 37 31 22 30 33 42 39 34 36 29 28 27 36 40 26 36 40 26 30 27 32 32 39 52 47 34 39 38 30 25 31 26 32 48 37 35 31 39 40 37 31 29 40 30 34 28 33 23 36 32 36 32 25 23 39 28 32 27 31 35 40 36 27 38 38 32 39 26 36 33 35 34 33 34 27 40 24 37 40 36 27 36 34 24 27 32 37 44 44 28 33 36 31 27 43 33 33 29 36 33 34 31 27 29 33 40 36 39 48 37 30 43 39 37 35 30 39 19 35 37 35 30 37 36 30 31 37 30 34 37 40 39 39 32 31 34 27 31 38 33 32 42 38 42 38 29 31 29 28 35 30 36 32 31 31 31 28 54 31 29 40 25 44 36 45 32 40 37 29 42 36 25 42 31 30 40 33 29 29 28 28 27 35 31 35 35 30 29 29 34 34 36 30 35 28 35 38 27 30 36 36 30 25 26 31 36 38 26 40 35 34 33 36 28 37 19 29 34 33 32 35 41 31 39 37 36 32 29 37 32 49 38 35 35 37 30 28 28 29 35 38 26 42 37 34 42 37 28 35 38 34 37 27 36 38 32 31 25 30 36 34 25 40 34 35 32 31 30 43 40 38 27 31 38 30 24 30 41 32 29 25 31 31 40 35 32 22 38 28 31 34 36 30 31 41 31 32 41 32 39 29 25 38 28 34 46 34 33 40 19 29 34 35 33 36 31 32 33 37 28 36 23 41 36 36 34 30 32 31 28 48 33 35 36 36 28 38 27 44 37 26 35 32 28 40 38 32 34 28 37 37 31 29 38 31 33 34 28 39 43 38 26 34 24 26 48 27 30 31 42 50 37 31 35 27 41 25 45 35 37 38 38 36 28 26 37 42 27 29 46 35 28 23 39 41 37 42 28 37 39 38 38 30 34 28 28 36 36 37 46 37 32 42 33 33 37 29 32 32 34 28 39 32 26 30 27 20 29 35 31 34 28 35 31 31 45 32 33 40 33 32 24 31 31 41 30 29 35 41 28 32 32 34 33 37 39 28 36 38 39 39 42 28 32 31 32 34 37 34 48 39 50 28 35 39 34 35 27 23 46 35 46 36 29 37 44 37 31 32 43 35 34 29 31 31 34 37 31 36 35 29 34 24 28 34 38 37 50 42 42 29 40 33 36 27 34 35 49 30 32 25 31 41 35 38 39 32 28 27 31 41 43 42 37 33 44 33 32 34 40 44 32 29 37 28 35 40 29 29 40 34 29 31 33 36 29 29 40 31 38 27 36 35 41 32 29 23 40 37 26 33 30 39 35 44 35 40 24 39 36 28 26 34 43 30 32 37 31 29 35 42 33 35 25 32 25 36 32 38 41 34 33 36 28 31 33 33 27 30 28 37 28 37 24 38 28 45 35 39 31 34 29 30 30 39 33 30 28 25 34 36 29 38 25 29 44 26 30 36 37 48 31 31 43 24 32 36 30 41 34 33 47 35 44 24 34 36 36 44 34 27 27 31 32 31 49 24 34 30 35 33 38 39 47 50 37 37 26 44 34 35 30 41 42 34 50 34 44 38 33 45 42 27 28 38 25 37 37 33 39 29 27 45 40 35 42 42 36 29 32 34 35 28 26 32 36 36 22 33 40 36 39 33 29 28 32 24 42 29 28 34 33 31 48 34 35 31 34 31 34 33 38 24 40 32 33 35 35 35 32 43 29 36 44 38 35 32 32 34 26 29 32 29 44 40 32 30 31 33 31 48 28 34 25 31 36 28 48 26 28 27 34 41 24 42 29 19 33 37 42 34 30 33 38 38 30 29 21 33 44 34 41 36 39 22 44 28 26 26 28 37 34 37 36 31 35 28 41 24 32 30 37 33 34 28 29 27 36 28 29 32 29 37 41 39 34 36 31 36 40 25 30 38 29 36 36 37 28 30 34 40 28 32 31 30 42 39 30 33 40 34 33 27 31 33 41 29 42 31 30 40 29 31 33 28 32 34 36 41 30 33 30 30 36 34 39 38 29 27 27 22 35 31 36 38 24 37 24 49 37 26 37 24 37 34 35 40 33 32 32 33 33 34 27 38 39 36 37 25 41 33 40 33 41 34 30 31 31 33 32 26 31 28 33 44 29 26 28 39 38 28 45 35 37 36 34 29 39 38 39 35 28 42 38 29 29 37 31 32 27 41 27 36 46 28 29 26 30 48 25 33 31 29 36 34 33 32 32 44 37 31 35 30 35 33 34 29 30 22 33 34 44 48 39 43 41 28 34 44 31 35 35 31 26 30 34 38 37 29 49 24 33 33 40 35 21 39 28 37 36 38 26 39 36 43 37 29 37 34 38 32 32 36 38 36 38 42 36 27 40 40 27 27 26 33 32 32 27 38 25 34 36 36 33 32 19 37 46 35 44 34 41 46 47 37 44 51 25 31 41 30 36 34 36 30 30 31 33 40 35 48 37 37 27 26 37 29 44 39 34 43 36 35 29 29 30 31 36 34 33 28 34 39 34 38 37 43 34 34 27 33 32 30 30 28 52 30 18 44 27 38 39 30 30 59 39 31 32 42 34 39 44 31 40 34 28 31 32 36 35 31 27 41 35 37 33 42 32 31 33 27 37 38 30 28 32 36 36 35 27 31 42 29 33 20 34 40 29 32 43 37 37 36 37 34 35 34 32 32 31 37 32 32 38 33 36 40 34 43 25 44 28 35 31 29 29 38 50 29 30 28 37 28 39 36 41 38 35 31 40 35 28 38 24 33 30 26 25 26 30 27 39 25 35 29 34 31 32 43 28 32 28 39 37 44 33 54 30 33 46 35 26 25 32 29 34 50 27 22 37 34 38 45 44 41 27 35 37 42 37 36 33 29 40 29 36 32 34 33 39 29 26 33 28 31 32 26 38 37 41 25 33 31 37 42 31 36 33 27 45 30 34 32 32 46 28 30 40 33 29 35 35 32 35 44 40 34 36 29 35 34 37 32 33 26 38 44 26 35 33 23 20 36 31 44 34 32 32 39 32 31 34 28 36 39 32 32 39 30 41 27 36 44 37 32 26 34 38 23 26 33 27 34 34 30 37 29 30 35 47 42 25 34 34 36 37 30 29 36 33 25 43 36 40 38 36 46 28 47 35 33 46 43 39 32 43 39 29 40 33 32 33 35 43 32 30 33 34 39 30 39 30 42 41 31 32 33 42 41 36 33 36 33 29 33 37 35 34 23 35 29 32 34 36 35 26 35 38 37 31 39 40 44 36 25 36 34 30 40 28 32 32 33 50 34 43 37 32 32 33 43 33 30 36 42 25 27 34 20 33 28 35 34 35 35 40 36 35 33 37 29 31 41 35 30 30 33 31 32 41 46 35 28 29 33 31 38 27 35 47 23 29 29 26 36 41 31 28 42 32 34 40 30 25 39 32 29 33 30 34 30 31 39 36 36 29 41 39 28 33 32 27 37 41 33 28 32 34 30 40 39 30 41 40 28 34 35 38 33 40 26 35 29 28 30 48 39 37 34 28 26 31 37 35 33 33 26 39 30 29 40 35 25 35 35 37 29 43 39 35 36 24 44 32 36 35 38 27 35 39 38 39 30 40 46 36 25 32 28 37 43 33 47 38 31 39 30 34 31 25 21 36 36 32 28 35 38 51 32 23 28 43 38 33 31 47 45 38 44 32 32 27 33 32 37 37 28 35 34 24 39 40 32 27 29 26 31 30 45 33 43 37 33 29 40 33 29 22 36 35 41 30 34 35 22 38 27 44 27 31 29 28 27 28 38 35 37 36 30 39 32 35 33 35 33 43 40 32 31 41 19 42 32 33 40 36 30 31 40 37 25 34 33 29 36 36 24 30 33 26 41 34 34 35 25 30 39 45 35 41 37 42 50 32 36 33 37 29 30 31 48 31 40 36 34 40 41 35 39 29 46 38 33 38 22 30 31 20 31 35 41 36 33 32 34 34 31 44 35 34 24 32 25 42 37 22 38 36 40 28 33 37 23 43 24 25 33 31 26 34 32 31 35 44 28 31 29 42 36 32 32 44 26 38 35 32 32 40 35 51 35 38 38 27 25 29 28 34 28 33 32 36 31 32 27 38 34 38 18 46 39 33 35 32 26 37 25 33 32 34 29 29 39 27 30 30 55 39 37 29 38 36 40 31 36 45 40 28 50 35 35 23 34 34 33 34 44 31 32 44 35 34 49 29 34 35 30 32 39 37 32 33 29 37 34 25 37 39 41 26 25 32 34 28 39 42 30 28 30 33 37 33 39 34 41 28 32 44 33 52 39 30 40 36 33 41 38 31 36 34 42 24 26 33 24 38 33 37 37 33 35 40 31 29 35 37 30 34 32 36 33 37 32 30 39 38 41 40 27 34 37 41 44 39 30 28 35 37 30 29 29 43 27 28 25 37 39 23 33 32 33 26 38 27 40 33 32 46 37 54 34 33 40 33 30 37 24 35 30 34 34 32 37 33 26 38 38 28 32 38 26 34 40 38 34 40 36 32 32 48 25 37 33 31 35 29 32 45 24 25 31 32 40 30 29 31 33 42 42 23 42 33 24 34 27 29 44 38 34 39 29 31 41 40 28 32 36 30 42 32 35 30 37 36 32 25 40 43 31 34 36 31 37 32 33 36 32 37 29 39 44 32 50 37 31 25 42 33 27 42 41 39 33 26 36 34 36 38 36 28 41 34 48 39 34 36 31 40 29 36 35 34 20 36 25 36 41 35 32 30 33 37 29 34 43 37 27 35 28 38 26 33 31 27 40 29 37 48 36 49 47 40 37 22 44 37 39 35 37 39 49 32 38 32 29 33 40 16 32 35 34 29 43 37 28 34 30 30 34 39 37 38 49 27 33 35 31 39 27 38 48 38 34 27 32 29 32 42 36 41 30 33 27 42 37 42 31 32 37 27 34 34 33 31 28 37 40 30 31 30 30 47 36 32 41 40 35 35 42 32 32 33 30 37 28 26 23 25 39 28 23 32 26 32 24 31 43 32 34 28 35 42 28 35 37 37 36 33 32 42 33 44 21 29 35 28 36 40 38 37 26 27 35 44 28 26 39 37 38 28 35 26 29 33 39 28 31 30 34 38 35 35 33 33 39 27 34 32 31 31 25 36 42 25 27 40 39 35 28 31 35 41 30 26 32 40 39 33 31 36 28 34 44 29 35 38 45 34 40 27 35 35 47 29 29 25 37 36 26 50 42 30 23 35 30 21 22 38 31 26 38 43 40 25 38 41 39 32 31 35 38 35 32 44 42 45 34 40 22 36 27 34 27 33 41 28 38 36 28 26 38 30 31 39 36 39 36 25 22 38 38 37 29 41 43 30 49 35 45 36 31 35 29 39 35 29 38 37 39 27 29 39 35 36 29 33 27 21 30 34 38 27 38 31 35 33 25 32 33 30 34 35 39 34 28 37 27 25 37 35 29 35 33 38 27 21 41 36 30 37 32 35 45 30 34 39 37 18 39 39 36 35 29 34 32 31 27 27 28 48 49 37 27 36 34 36 42 31 40 35 27 33 37 43 31 39 30 37 41 40 40 30 44 30 29 33 28 40 25 36 33 32 31 35 24 30 32 36 32 24 25 33 32 33 26 39 29 27 32 24 28 34 38 32 37 43 37 39 31 29 42 34 25 37 29 39 29 28 31 46 35 32 46 31 46 28 40 36 30 33 31 31 38 29 45 42 30 40 24 28 40 36 28 39 21 38 41 31 33 39 43 36 44 35 35 35 33 37 34 38 25 34 31 32 40 43 36 40 33 43 39 27 28 26 34 51 33 29 37 23 28 38 38 28 36 34 34 39 38 35 31 39 30 31 32 28 33 31 26 31 26 42 33 32 27 41 31 41 41 34 32 31 29 32 40 38 36 27 35 29 28 34 44 39 43 46 25 40 29 33 26 34 38 35 38 38 42 37 30 26 38 39 32 30 24 34 43 35 36 35 38 25 35 42 27 26 25 32 40 38 33 36 43 38 30 31 37 19 37 28 34 34 28 29 39 32 46 41 29 40 43 38 43 38 36 32 38 28 40 30 34 33 35 41 32 35 29 32 44 39 35 31 32 37 29 35 28 28 40 38 34 31 43 37 33 28 35 30 34 41 30 34 27 40 37 43 37 29 33 28 35 36 40 31 36 21 43 36 37 29 45 44 32 33 31 29 21 34 25 27 28 31 43 37 31 29 40 32 29 33 35 40 48 33 30 28 45 32 33 33 35 29 34 37 29 33 43 42 30 33 25 30 35 36 33 33 38 24 36 36 24 33 28 45 43 32 41 27 42 29 30 23 39 43 38 29 41 49 35 27 31 49 43 44 28 40 30 33 33 36 40 32 29 30 41 34 40 32 43 32 35 32 40 46 45 30 46 38 26 43 30 29 27 32 42 28 27 41 34 42 33 34 40 33 39 26 38 34 41 34 29 30 39 28 34 41 32 34 40 30 41 26 36 50 32 28 40 43 44 29 34 32 37 39 30 46 34 36 35 46 28 35 39 39 31 40 38 32 29 36 44 39 27 27 34 41 35 39 39 36 29 40 36 34 40 22 37 34 40 32 22 39 19 34 33 43 32 34 34 36 35 34 34 39 35 33 34 37 33 36 40 26 39 38 35 33 50 30 28 28 32 34 27 33 31 40 37 42 38 31 33 46 29 34 30 27 41 31 31 24 35 32 29 33 45 27 36 31 44 28 32 46 37 32 40 33 34 29 26 36 31 26 37 37 37 35 33 34 29 28 25 33 34 34 40 30 30 45 39 42 42 31 29 38 32 34 55 37 38 33 27 31 25 37 36 28 28 31 37 40 31 32 28 47 29 35 35 32 46 38 19 34 47 32 33 40 32 30 30 31 35 35 34 37 28 36 31 29 20 46 42 39 33 39 32 31 28 32 34 33 37 31 39 36 25 30 29 39 36 33 22 37 28 22 26 30 41 34 35 32 31 38 27 41 29 38 35 32 37 39 36 36 34 31 31 32 29 33 29 36 43 31 29 25 33 43 31 35 27 31 32 32 34 29 36 35 38 35 44 34 29 38 30 30 31 27 30 36 38 34 31 30 31 30 35 32 34 35 34 39 45 33 40 32 31 54 28 28 34 39 40 29 24 46 44 31 24 33 29 40 35 38 36 34 28 35 38 35 31 35 34 33 48 29 31 31 33 29 32 41 32 44 37 34 35 30 28 23 45 33 34 28 39 30 37 31 33 33 48 42 48 34 31 36 40 47 40 30 29 35 28 33 45 31 32 36 30 35 41 41 45 35 35 32 35 32 50 35 39 36 38 37 43 39 32 31 38 28 43 21 41 31 31 32 32 31 31 32 40 31 40 32 38 32 37 25 35 37 28 28 33 41 37 25 29 27 44 33 37 27 34 32 41 43 32 32 37 37 26 32 22 37 32 28 23 44 27 31 36 34 28 38 31 31 30 28 34 39 28 32 36 39 38 22 35 33 25 43 39 39 20 40 30 38 35 37 24 31 35 33 35 41 28 40 35 24 31 53 39 33 40 39 38 33 31 38 38 22 26 22 30 35 41 35 29 41 32 26 44 28 48 36 32 40 40 31 36 45 41 33 34 33 36 34 37 26 45 37 30 32 43 34 32 41 31 33 28 31 36 34 37 35 44 36 32 40 41 37 33 22 30 38 34 40 20 37 27 34 40 38 32 33 40 39 30 36 45 34 37 26 39 29 28 33 36 31 39 29 35 34 38 40 41 43 30 39 27 37 34 36 35 39 36 32 38 34 56 29 33 34 29 38 44 38 38 36 26 31 29 36 34 33 31 28 35 39 36 40 30 28 35 42 30 29 33 31 42 31 36 30 34 33 36 34 45 51 35 34 27 30 54 26 40 37 30 35 30 34 37 30 33 28 37 36 45 30 28 28 29 42 34 31 41 31 43 37 24 33 32 29 36 19 29 31 40 35 38 29 37 47 30 27 40 33 29 38 30 45 31 33 29 37 32 42 30 28 35 37 40 28 33 31 36 36 38 34 41 29 35 30 44 29 38 42 26 38 36 25 34 41 26 31 37 30 35 36 34 29 34 31 37 49 38 47 35 34 26 44 40 30 39 22 27 33 36 24 31 32 35 26 33 35 33 36 26 34 37 37 37 23 36 31 30 29 24 34 47 32 43 34 32 31 33 38 33 42 33 40 37 35 35 30 37 33 25 37 34 29 32 39 34 32 33 26 26 42 32 26 35 39 22 35 36 37 42 32 28 39 36 34 33 41 29 36 33 34 24 40 41 47 38 29 31 34 42 36 35 32 33 36 39 33 25 32 32 44 34 29 23 39 36 27 45 40 46 40 49 43 34 33 23 45 44 30 33 25 41 35 44 36 27 32 29 30 31 37 30 30 37 36 34 38 30 24 30 28 33 25 25 32 32 33 36 33 35 27 36 45 32 39 33 33 29 41 35 42 45 35 29 41 46 27 35 43 25 36 36 23 35 31 38 32 33 37 40 42 32 41 39 34 40 19 41 32 37 36 31 34 32 32 38 25 36 30 36 36 42 31 33 34 33 33 29 23 26 49 35 33 41 31 27 24 31 21 40 25 42 36 37 29 33 31 23 26 44 33 48 44 31 34 37 33 42 34 32 28 33 35 32 44 34 29 27 32 33 32 28 29 34 31 28 40 39 29 38 41 33 24 41 40 33 29 29 37 41 46 33 36 36 26 22 38 32 31 37 33 36 34 40 31 38 44 36 36 19 36 41 32 30 41 42 28 43 49 33 37 27 39 31 24 24 34 23 34 25 37 33 30 44 34 38 33 41 35 43 48 34 31 34 37 38 33 22 44 39 25 36 35 45 26 34 33 33 27 32 29 38 25 37 29 30 34 37 30 29 29 46 37 29 27 31 35 32 32 36 31 33 43 30 32 38 32 31 30 51 50 37 32 28 33 38 40 38 35 34 32 36 33 30 38 36 29 35 42 38 32 40 33 38 29 31 36 35 32 46 36 36 31 26 37 32 33 39 42 39 36 33 33 31 34 37 23 34 41 38 42 33 32 42 27 32 29 33 29 37 36 29 36 37 42 43 18 22 28 38 38 25 43 36 36 37 41 28 35 23 38 40 28 42 44 27 29 33 30 38 33 40 36 29 24 39 29 32 39 32 37 42 31 36 30 30 36 30 28 25 31 39 44 24 36 34 44 30 32 28 35 38 32 39 43 31 39 47 24 33 32 40 32 44 37 37 28 32 31 34 34 30 42 34 37 40 35 35 39 38 41 43 36 30 43 31 31 32 28 34 36 30 32 28 26 32 29 49 38 32 38 44 40 34 29 33 32 41 49 28 37 31 41 35 29 32 36 37 27 37 33 31 38 33 41 31 32 35 38 35 27 25 23 36 31 36 42 35 24 38 27 36 35 32 36 35 32 32 38 24 30 27 29 27 24 37 28 47 23 32 33 28 27 36 37 39 38 25 37 29 32 30 38 27 45 35 30 35 34 30 34 36 27 33 44 44 35 23 43 41 38 28 27 23 34 37 40 32 49 31 43 33 36 37 38 33 28 36 37 47 36 41 39 26 36 38 39 34 29 26 30 34 36 29 37 41 28 27 39 31 29 30 30 31 42 31 42 40 35 27 41 44 29 32 44 33 36 28 34 43 37 32 41 42 36 23 34 23 34 32 50 34 45 32 43 36 42 38 37 32 30 35 49 33 34 38 41 28 26 34 36 35 44 32 33 31 37 35 39 32 33 33 39 47 32 36 30 29 28 26 38 40 34 42 27 44 29 44 35 29 35 31 26 27 29 35 24 29 25 46 21 41 33 26 31 48 32 30 32 48 30 28 28 34 34 36 38 34 41 34 38 34 36 43 39 34 38 40 41 42 26 37 36 33 31 39 32 36 41 32 30 36 20 29 31 38 31 30 34 29 36 41 26 21 24 49 40 44 34 39 31 31 27 31 41 44 42 46 33 32 37 48 28 31 37 34 38 33 30 28 30 31 39 41 33 37 37 33 38 33 35 34 43 28 30 28 36 29 29 52 29 42 30 40 40 43 46 28 21 32 25 43 35 33 39 36 29 36 28 29 37 30 30 28 21 36 26 33 34 29 31 32 33 28 33 18 24 38 21 36 29 24 30 36 32 31 34 33 37 28 27 27 34 37 25 33 35 33 35 39 43 36 31 36 37 42 30 29 26 34 24 34 28 37 35 37 35 35 36 27 32 38 31 32 30 40 26 37 33 26 35 27 33 34 31 40 34 29 44 25 40 35 41 26 28 30 31 30 43 26 42 35 30 39 36 36 42 32 34 38 38 45 32 38 26 39 32 32 25 33 30 30 26 32 35 36 32 37 40 38 40 24 28 33 21 39 38 36 39 32 36 37 18 39 35 36 35 34 25 31 32 28 32 41 34 40 30 35 29 33 30 37 42 26 33 50 35 38 35 40 45 34 34 27 41 29 40 32 34 31 45 41 28 32 47 42 33 35 43 33 36 27 35 24 36 40 34 38 29 32 32 38 22 42 31 30 35 33 43 29 36 24 42 40 32 25 28 37 34 45 39 38 32 30 35 42 33 35 27 37 38 34 51 37 46 31 34 33 38 41 35 42 30 27 40 39 33 30 33 40 31 30 38 28 27 23 24 36 32 32 29 33 29 35 25 35 49 36 30 35 38 41 37 28 35 34 32 39 37 33 36 25 28 28 36 30 41 34 25 26 39 41 26 35 40 31 36 34 39 33 33 30 40 35 29 30 45 32 37 17 35 34 35 33 32 36 35 33 35 42 24 36 36 38 39 34 35 33 28 33 36 36 34 20 29 26 28 35 34 30 37 37 25 37 32 31 41 39 40 30 32 36 33 32 38 27 32 25 45 39 30 43 41 38 30 55 43 30 35 29 36 28 41 27 22 34 39 41 28 28 36 35 33 32 40 39 29 39 33 38 29 33 31 37 48 45 36 34 28 18 30 29 40 34 27 32 41 37 28 38 38 23 32 43 31 31 35 32 32 23 36 30 36 35 30 27 35 32 32 29 36 55 38 35 41 39 25 33 30 37 30 41 34 34 45 28 41 37 45 37 22 30 48 38 41 25 35 33 28 33 51 31 35 27 32 32 27 27 27 31 35 36 32 36 35 35 28 23 34 23 38 32 28 40 37 30 36 37 32 30 40 37 34 34 43 35 41 28 33 32 37 36 30 29 41 46 26 25 34 27 33 38 29 28 37 33 33 27 31 26 41 34 28 36 28 40 34 27 34 35 46 38 33 36 41 34 40 30 26 36 31 32 34 40 37 38 41 28 34 38 38 40 37 30 29 43 34 40 39 36 28 30 32 27 29 40 32 33 36 36 34 29 29 32 35 38 42 38 21 44 28 36 24 34 33 36 34 39 37 35 36 34 40 30 39 37 36 32 37 35 33 34 29 33 30 29 23 30 29 24 39 26 38 30 46 40 28 51 20 27 29 25 35 39 32 35 34 40 38 34 19 24 41 38 24 32 32 35 36 37 28 34 39 36 36 31 41 37 45 35 42 32 32 34 32 32 41 39 40 32 38 28 34 36 45 30 31 34 48 34 30 31 36 36 29 35 38 45 35 32 39 28 38 40 31 30 32 28 40 32 38 25 38 29 28 33 38 28 30 28 30 32 37 22 21 32 35 28 33 24 36 35 28 33 32 28 49 34 30 26 37 27 27 34 37 37 30 31 28 32 40 34 37 33 36 40 27 35 29 31 42 41 34 36 33 30 40 25 39 32 32 40 44 33 41 35 37 39 33 36 39 35 39 23 31 48 34 29 25 28 33 36 30 27 40 36 27 34 34 41 26 36 31 35 30 41 30 31 36 38 40 26 34 42 30 34 34 38 53 24 33 25 40 33 33 36 35 34 33 36 30 26 26 39 36 41 36 39 40 36 39 32 31 32 30 25 43 30 35 25 40 41 38 50 35 33 41 36 42 33 34 47 37 38 44 36 32 25 43 27 38 45 35 22 44 27 31 45 45 37 37 31 32 23 39 34 37 33 31 35 33 38 17 30 30 37 28 25 53 27 33 31 49 30 28 30 43 27 35 34 37 31 29 44 33 29 34 34 44 29 26 29 35 36 31 32 36 31 39 31 27 41 34 36 29 30 39 32 32 25 37 31 30 34 26 31 31 39 31 31 40 56 36 31 35 49 35 39 33 25 27 26 35 34 32 23 37 39 34 28 32 29 45 31 29 33 31 30 38 31 31 39 27 48 31 38 35 31 33 45 33 34 27 28 27 31 38 45 32 32 45 24 38 33 32 30 32 32 48 32 34 44 38 22 41 42 33 31 28 40 23 30 30 28 32 29 30 37 22 29 30 34 43 34 37 32 43 35 23 38 38 44 35 45 35 42 38 26 31 44 36 31 38 32 35 40 30 35 32 37 52 27 25 43 24 44 34 27 35 28 42 28 39 36 31 35 55 44 27 20 48 28 30 29 23 32 37 23 32 36 35 24 34 26 30 33 32 30 33 24 46 39 27 36 38 41 30 24 34 38 51 28 32 47 33 35 39 38 42 28 36 27 26 32 32 26 32 25 42 48 30 45 36 32 33 33 37 28 32 41 38 28 29 36 33 48 31 27 38 56 29 29 41 26 26 26 33 38 24 40 30 40 33 48 29 29 41 36 34 40 26 41 43 44 42 37 26 34 39 41 26 25 42 17 39 28 42 39 38 50 43 44 43 37 39 31 35 32 40 43 38 38 35 30 35 33 41 31 36 35 31 31 27 27 25 26 37 44 40 37 39 34 36 35 26 46 30 36 28 41 31 32 34 26 26 34 24 33 37 32 26 24 30 40 38 29 37 36 35 34 48 36 29 42 32 28 35 35 33 31 33 37 31 24 33 31 36 33 33 26 34 38 34 34 31 27 42 42 32 36 32 36 36 35 32 43 22 33 32 28 31 30 32 32 38 36 32 26 28 27 29 27 34 31 44 41 31 23 35 30 32 24 39 37 41 28 37 29 18 37 30 39 42 27 32 37 40 25 38 41 23 36 41 42 29 33 35 34 34 22 36 31 38 31 26 36 28 21 28 36 39 41 34 30 34 38 34 35 33 34 24 36 27 35 33 34 21 33 29 34 26 55 29 35 26 33 37 32 24 45 40 35 30 45 37 32 29 32 24 42 36 38 42 40 34 23 34 30 42 35 21 30 47 30 35 28 37 39 31 31 41 34 37 42 33 31 24 32 33 40 33 28 32 40 40 23 35 31 25 38 44 34 32 38 32 38 33 37 30 27 29 35 34 39 37 36 28 36 27 30 35 29 30 31 25 48 32 33 41 38 27 34 41 32 30 31 26 36 30 37 37 48 36 37 31 34 31 33 25 39 32 31 30 32 37 37 45 39 28 34 44 27 31 34 44 33 44 33 42 27 32 37 45 42 29 34 30 31 26 26 41 39 31 34 39 33 29 36 32 31 36 32 28 33 32 27 32 33 34 37 28 24 24 34 41 31 32 42 30 45 34 27 35 37 32 51 40 31 32 37 35 37 33 49 35 28 36 25 33 32 34 33 41 43 39 42 35 33 22 28 38 33 40 25 41 34 39 30 31 55 39 22 28 31 43 22 31 33 44 34 28 34 36 35 38 26 30 46 40 30 33 28 31 37 41 29 36 26 29 28 42 32 36 42 36 35 30 33 35 28 30 28 29 27 19 30 33 34 45 30 30 22 45 29 40 36 45 32 29 33 30 34 34 40 38 42 34 31 36 33 40 36 38 29 38 49 29 31 35 31 32 28 22 30 32 36 28 37 30 34 31 32 42 34 42 29 23 36 37 44 28 42 39 31 28 27 35 37 32 31 52</t>
-  </si>
-  <si>
-    <t>GAM(139.89500465436294, -319.72833835431516, 3.9190308390964548)</t>
-  </si>
-  <si>
-    <t>205 235 213 256 223 192 246 143 219 218 289 245 246 280 281 232 280 317 171 218 260 248 286 290 300 228 226 265 189 288 249 277 245 216 172 127 230 151 222 278 249 199 298 188 168 294 229 267 244 201 264 261 261 271 221 211 220 205 238 315 359 273 304 184 234 337 231 245 168 174 262 231 228 204 372 315 321 204 240 173 228 159 344 251 297 218 175 292 338 168 225 267 214 117 123 233 240 284 236 277 170 201 190 261 214 228 212 271 241 119 264 260 170 211 147 242 201 176 206 255 239 213 280 172 142 133 307 289 212 211 206 226 213 233 239 240 224 200 147 176 191 210 215 226 260 267 200 326 325 210 281 186 241 194 158 234 226 183 178 228 326 225 156 118 193 191 246 284 178 227 238 257 259 190 166 257 231 174 205 187 223 342 192 178 181 239 260 257 157 182 212 266 155 207 261 215 240 184 181 277 144 261 288 272 246 161 188 176 214 236 159 212 254 198 221 191 225 250 157 242 240 143 199 254 173 274 159 242 244 232 195 246 155 189 282 163 182 234 254 177 248 235 208 269 322 226 230 248 241 195 262 142 311 213 226 221 174 221 247 229 211 119 241 242 209 242 276 290 261 240 285 206 209 182 264 319 157 247 217 280 203 160 338 224 262 268 180 182 297 212 223 233 197 188 180 189 216 238 188 317 175 205 168 251 240 198 208 293 155 234 246 217 177 229 138 238 333 253 274 217 173 211 220 241 187 185 287 183 251 219 254 268 226 232 183 211 251 322 196 244 230 279 338 204 262 282 311 168 250 201 229 270 132 164 201 165 183 202 221 107 154 229 249 277 211 282 207 230 212 214 270 283 225 209 237 289 269 256 258 229 213 320 258 248 156 205 198 238 202 229 164 157 200 223 285 216 294 268 285 194 276 220 250 139 198 223 256 207 201 245 186 153 277 238 220 286 233 306 203 263 197 200 171 220 203 279 183 227 259 196 273 172 171 179 265 168 225 165 251 170 200 220 113 206 208 152 215 268 187 239 264 335 209 289 171 179 270 123 273 259 187 196 263 191 268 275 276 223 183 230 207 304 233 208 191 185 236 212 194 234 230 168 193 210 227 212 192 280 205 212 162 170 208 222 184 206 221 275 202 216 201 300 297 275 181 209 314 253 163 215 171 263 193 233 289 305 266 221 205 290 234 256 247 213 206 154 319 190 200 230 157 230 226 356 288 180 177 208 204 216 188 245 226 211 230 211 217 236 193 250 242 238 243 274 185 281 99 231 258 220 224 228 202 333 228 237 278 234 171 187 173 216 200 214 268 222 161 318 273 211 215 297 234 281 172 321 216 299 243 209 190 227 263 266 217 181 163 164 153 227 338 241 221 231 209 210 262 191 242 306 177 311 207 216 235 218 308 211 240 235 182 195 244 311 199 251 224 209 185 175 210 256 240 280 186 251 240 174 250 261 216 113 158 249 225 255 245 169 196 218 132 259 180 149 188 277 163 217 241 263 294 249 313 273 287 253 241 288 239 272 279 144 224 242 237 190 203 243 229 199 142 182 240 296 222 169 289 181 244 305 275 229 146 218 216 246 228 209 267 221 281 212 321 276 246 236 197 276 281 198 176 285 196 205 185 215 237 206 241 237 187 186 275 185 139 201 230 218 343 211 189 254 158 302 286 214 262 235 185 232 234 245 168 327 114 248 305 259 253 290 277 212 300 288 256 332 231 198 206 198 274 304 239 236 239 298 171 229 163 238 219 291 197 243 262 297 213 206 222 174 222 191 258 244 185 156 271 187 191 309 198 223 196 237 168 215 206 160 208 223 264 227 194 314 276 251 323 273 224 147 250 179 293 208 195 153 282 235 295 281 256 145 223 203 267 287 233 209 193 158 280 246 226 183 187 359 249 215 277 241 330 253 205 201 180 229 247 212 258 197 278 258 185 217 255 253 237 205 311 233 269 113 121 227 248 285 248 206 279 185 278 268 310 300 222 224 286 258 268 227 191 242 253 234 326 275 281 163 249 233 208 250 304 166 218 173 226 291 167 163 319 273 243 352 213 194 257 263 226 215 193 176 280 213 206 229 197 259 209 210 287 196 223 267 202 273 250 252 280 282 153 235 185 185 196 265 215 187 274 287 270 186 279 211 249 262 201 233 303 246 190 165 160 244 235 314 224 319 293 291 231 208 253 238 273 258 263 281 191 186 218 210 215 247 195 188 235 246 180 324 190 194 279 211 295 156 215 241 359 291 221 209 213 204 165 261 202 270 212 166 178 294 252 223 245 317 258 201 224 204 126 179 237 209 243 315 190 275 150 270 219 258 273 236 224 268 256 381 105 204 218 264 344 187 297 256 213 212 132 206 307 216 195 249 177 237 238 173 264 204 279 208 162 174 210 312 177 172 304 253 248 202 209 176 183 194 257 200 283 217 231 251 228 212 210 230 214 335 250 185 203 205 324 150 267 209 266 229 122 199 168 257 216 137 191 236 177 263 206 157 183 287 263 220 229 170 183 171 255 203 223 165 238 240 255 163 179 299 129 223 193 237 242 183 191 166 180 242 202 198 204 208 233 281 164 233 217 231 216 218 187 172 232 167 242 255 213 201 251 204 209 241 188 253 165 196 185 245 147 276 191 180 259 275 257 239 243 287 282 182 174 316 182 281 226 216 222 207 271 224 161 209 241 289 222 280 254 294 164 319 235 187 266 282 212 245 292 170 302 195 270 266 188 219 156 295 223 241 161 178 168 199 196 219 214 218 282 232 180 203 245 315 186 214 246 242 237 180 242 225 298 204 187 267 220 243 176 242 272 211 167 281 205 269 284 236 222 183 146 240 248 281 274 183 242 252 233 211 134 213 204 300 248 210 217 319 153 221 223 156 191 304 225 198 240 208 292 255 190 230 223 222 207 248 260 231 161 226 143 203 194 194 266 214 213 274 189 236 235 232 309 162 177 167 210 163 278 228 310 224 164 220 187 210 227 186 194 187 351 161 289 217 169 244 169 202 206 253 213 277 183 332 198 280 257 290 298 214 241 219 193 287 172 193 276 216 382 294 222 285 244 258 195 137 112 238 216 211 244 195 261 268 248 219 260 299 182 198 194 264 164 180 248 179 275 180 208 272 215 251 228 208 275 234 292 256 177 141 201 195 343 273 219 260 221 236 254 203 173 195 186 163 224 205 208 222 194 263 297 213 282 203 238 264 163 230 263 165 177 146 245 196 159 211 250 168 223 186 175 227 241 226 283 271 286 265 208 267 183 205 187 198 247 220 202 268 319 223 185 202 247 188 207 174 254 193 231 184 275 196 210 176 220 191 187 248 176 277 232 278 237 271 279 307 260 246 237 304 238 239 204 279 146 161 181 249 151 238 309 252 246 225 267 231 252 261 181 232 172 293 190 244 207 198 215 181 199 232 310 249 195 281 233 201 265 201 123 281 199 304 320 167 294 223 220 215 252 168 303 259 209 259 304 239 237 191 169 267 295 192 209 170 196 242 244 289 199 203 252 192 267 223 173 175 213 295 179 222 244 278 183 179 268 337 178 242 179 269 218 263 166 356 253 277 259 262 224 276 247 231 114 168 131 232 214 170 267 215 216 264 187 153 263 242 226 214 179 212 204 253 213 154 209 225 218 195 247 206 155 245 321 258 264 279 187 196 276 172 315 162 297 226 229 216 138 139 185 240 228 269 199 308 269 227 261 229 184 275 195 174 278 126 252 283 193 280 253 182 293 196 283 182 227 162 255 216 315 276 227 247 257 301 284 289 223 238 318 269 265 226 199 312 237 231 224 206 248 216 269 228 200 263 178 206 219 299 173 283 195 269 241 260 211 148 234 233 152 206 259 283 227 224 299 202 210 169 199 188 163 259 216 190 196 271 121 193 222 324 166 217 196 293 152 206 242 226 282 225 186 213 290 261 214 196 204 189 168 253 281 250 244 190 274 157 264 268 241 179 197 187 250 141 249 131 217 210 197 283 267 267 183 251 240 247 251 154 304 210 233 208 260 166 280 297 256 301 261 186 158 212 221 201 217 234 247 200 202 161 241 260 128 225 202 224 184 172 165 175 233 177 257 118 236 263 321 255 336 190 205 207 199 204 278 252 287 288 171 198 216 219 220 290 287 238 360 321 210 202 266 173 238 261 298 208 278 165 219 231 199 201 190 251 159 256 276 202 219 244 260 277 260 273 252 229 284 200 248 228 234 247 216 220 278 250 210 211 248 186 264 256 224 262 155 183 291 219 209 251 203 406 252 132 261 218 229 265 223 277 159 257 196 304 224 221 269 141 175 302 291 175 155 222 246 198 253 184 154 211 226 193 397 333 319 200 247 219 212 190 287 230 136 151 205 176 376 201 236 263 247 240 229 222 274 174 261 204 181 249 199 241 160 130 202 207 242 287 241 282 328 211 238 254 244 209 280 192 169 226 207 211 214 253 190 261 242 204 191 205 219 229 266 247 173 285 264 260 256 269 175 203 216 253 255 158 147 243 300 269 203 274 364 264 242 298 218 301 192 165 285 265 267 290 275 236 139 253 157 145 234 260 241 241 222 192 227 201 231 291 150 202 232 190 232 290 216 253 250 179 231 207 207 224 268 279 164 272 279 189 287 223 228 276 247 293 196 196 268 222 302 184 239 243 271 202 235 127 266 249 186 217 275 228 212 290 272 211 277 323 268 261 268 285 218 304 298 287 190 177 143 215 190 298 227 161 153 178 220 221 210 267 256 177 165 245 200 258 212 207 292 301 275 248 281 286 248 238 250 142 178 285 171 220 288 247 210 246 240 236 241 250 236 266 256 224 344 109 148 211 298 217 244 279 262 197 154 237 241 255 207 191 284 250 370 227 192 304 222 341 287 188 214 227 252 250 226 219 213 274 242 199 255 155 197 249 169 212 222 196 225 248 254 187 111 226 231 233 122 211 217 214 312 186 250 180 209 230 216 203 259 205 216 195 243 247 207 212 223 193 196 244 187 246 195 185 262 184 277 181 293 198 226 215 164 161 226 155 253 211 198 204 219 242 166 206 250 243 308 252 202 181 307 236 291 223 292 266 226 177 218 268 257 250 181 204 204 272 221 188 199 270 275 285 271 265 225 258 164 251 200 315 150 251 227 238 357 202 244 150 304 118 257 269 172 256 171 275 290 223 200 271 228 226 198 236 227 151 192 263 290 273 127 213 284 206 268 204 254 255 267 303 250 190 256 228 107 167 238 211 188 277 293 241 249 219 116 240 322 105 221 333 150 163 252 314 212 262 149 256 236 189 164 277 197 249 147 241 181 188 228 196 241 188 246 197 278 293 341 199 237 241 192 197 166 227 262 215 160 216 277 260 169 280 226 182 184 233 220 245 245 183 183 153 256 269 173 215 238 186 237 240 259 179 197 292 156 238 227 274 196 224 233 184 135 267 140 210 328 116 213 218 258 107 274 271 170 181 243 196 226 162 164 258 219 303 264 189 193 301 288 227 320 262 196 236 284 259 272 269 231 251 230 227 233 230 141 292 224 198 293 210 280 217 238 232 301 263 285 261 233 204 213 262 268 205 202 308 227 214 249 213 214 262 381 175 204 314 264 236 186 271 246 152 212 233 353 223 218 212 271 254 226 208 291 278 258 269 220 185 222 149 292 232 236 194 196 199 184 221 213 231 189 247 212 258 208 207 227 158 212 203 196 185 233 226 230 182 244 227 218 219 249 206 211 186 200 291 218 181 210 264 325 204 277 227 220 179 250 168 229 239 164 251 189 197 221 235 223 211 243 209 225 293 265 188 317 160 217 204 194 210 354 196 237 318 202 218 228 169 326 201 201 197 269 178 209 242 305 275 201 200 275 243 281 226 200 192 220 295 151 213 259 255 260 209 194 233 163 182 242 208 216 161 242 193 250 246 206 222 206 203 309 114 181 297 222 241 200 199 301 229 281 177 236 188 179 222 321 222 269 252 326 245 165 181 309 246 242 198 273 237 257 249 265 165 275 222 223 202 261 195 129 191 137 260 188 254 175 165 265 277 306 182 286 188 184 254 196 273 241 218 171 344 239 322 237 303 220 157 183 222 231 268 257 213 259 314 255 253 200 172 322 279 196 201 251 228 231 163 156 264 221 175 221 121 260 230 271 194 238 324 244 232 269 210 299 204 236 233 179 375 261 253 145 231 208 174 220 279 150 172 271 262 142 194 289 237 304 277 168 264 261 265 296 183 322 231 177 192 197 267 241 278 234 332 175 194 156 164 259 300 314 216 255 223 256 247 157 212 200 262 209 132 205 232 217 255 227 251 261 245 203 263 354 247 220 235 207 301 352 253 228 221 261 261 224 203 230 200 218 184 201 302 247 238 160 247 335 246 299 237 179 135 187 277 247 203 188 268 197 215 220 245 264 204 248 221 194 150 176 221 208 221 263 188 225 236 241 262 288 349 205 242 312 276 180 292 253 217 183 216 240 228 253 237 264 227 231 210 228 161 201 227 174 265 211 239 198 303 158 286 214 210 200 273 173 185 192 279 239 194 137 311 186 236 231 266 338 228 258 292 305 202 226 170 271 212 128 156 143 196 276 286 267 212 302 213 184 203 169 194 234 306 216 191 311 198 272 191 238 178 252 171 272 220 216 279 170 142 333 330 323 226 255 216 282 250 225 248 211 250 243 225 258 138 227 270 179 198 171 280 234 197 187 319 215 225 270 273 216 282 160 242 220 285 176 376 206 283 200 168 257 290 237 204 164 274 174 208 187 248 221 319 223 213 261 232 169 190 260 242 251 218 252 90 231 215 299 231 297 217 196 220 224 171 283 237 294 206 179 229 219 226 291 203 229 152 278 222 269 170 229 264 167 222 192 228 233 208 235 252 196 127 343 260 102 213 206 283 230 232 304 219 180 142 183 284 239 196 229 239 264 181 129 239 231 306 262 253 225 174 169 333 266 237 179 294 256 200 194 181 252 221 241 191 225 203 253 309 208 214 228 278 232 172 239 275 210 114 223 274 250 239 184 228 193 298 265 240 159 277 221 207 254 256 251 271 239 229 250 186 309 272 253 210 121 134 207 179 240 228 241 241 204 145 297 268 263 198 269 193 245 212 222 181 196 330 294 253 259 231 188 206 110 164 179 315 162 280 216 213 142 186 225 171 270 175 193 220 208 166 194 190 228 194 202 215 184 220 114 240 209 209 270 306 257 194 181 175 208 197 265 236 253 205 179 154 172 173 186 287 163 250 225 268 214 254 354 244 203 199 219 254 154 146 167 189 200 220 278 172 308 267 164 273 198 224 243 158 256 169 259 205 186 270 279 204 241 283 158 264 155 168 261 229 292 260 265 227 193 254 201 229 249 233 253 214 223 282 295 234 266 220 252 231 265 220 270 250 193 221 131 308 296 257 186 291 232 225 241 255 241 212 344 284 193 161 162 208 249 241 228 380 147 275 206 190 170 238 209 218 156 264 264 212 399 191 249 256 208 300 240 210 178 190 254 184 219 192 253 247 202 302 167 166 229 203 256 217 268 192 211 335 227 208 248 220 237 210 241 168 310 228 234 157 229 302 210 270 214 191 300 243 255 248 242 177 189 353 208 203 145 244 271 186 248 133 210 193 198 266 232 190 248 277 285 271 157 217 206 215 185 217 201 145 231 240 197 230 296 272 245 268 164 256 223 236 203 193 233 274 244 210 192 255 270 176 186 285 225 141 129 140 211 213 201 231 262 238 259 195 154 297 235 195 252 328 304 182 156 231 278 186 281 197 221 231 183 321 266 261 144 196 279 272 228 292 192 267 249 196 311 264 273 178 284 276 218 284 167 190 254 289 201 187 170 303 223 252 293 213 215 265 216 185 276 240 255 198 211 216 202 190 249 203 258 222 236 312 314 237 273 226 167 211 182 255 244 247 229 246 229 218 192 197 225 212 273 323 245 248 224 253 192 278 320 268 284 166 212 246 198 231 136 217 235 246 249 165 264 211 222 171 167 165 213 236 250 290 213 185 266 211 235 165 230 208 257 256 173 178 226 310 227 197 328 178 305 216 304 288 284 286 248 191 215 238 291 187 254 246 225 202 258 311 222 224 296 274 202 178 228 232 174 256 185 205 265 131 165 282 262 163 244 240 271 191 185 280 154 337 275 217 243 321 210 217 257 339 254 250 223 338 275 181 169 200 240 234 205 241 248 236 217 245 186 164 243 241 290 250 257 157 231 230 235 305 221 177 201 304 283 235 153 125 169 223 189 218 260 284 268 203 253 355 125 142 141 221 192 193 193 261 267 243 200 215 272 181 275 231 171 208 288 228 219 174 213 304 209 114 181 203 252 217 234 205 221 270 230 182 203 166 204 201 223 192 296 258 254 213 164 157 246 163 181 117 271 267 182 182 320 301 221 157 239 199 247 237 216 222 206 261 209 326 334 192 163 186 257 232 246 127 297 147 273 263 236 248 197 265 176 211 221 299 179 188 274 239 244 220 252 255 176 186 220 187 221 263 195 288 297 216 211 270 288 269 172 160 181 236 174 263 195 240 205 195 276 282 277 218 163 326 255 154 277 160 211 334 221 205 176 245 254 264 289 190 189 250 231 297 281 171 224 168 221 216 155 224 274 302 164 251 301 202 300 233 212 145 236 145 234 326 218 257 213 245 262 187 171 238 234 207 210 157 287 213 291 192 249 300 240 187 200 180 245 225 193 204 171 250 221 173 211 212 213 218 206 215 246 312 267 207 202 205 289 173 218 264 182 206 192 279 297 278 245 294 297 282 234 234 265 313 179 244 228 200 320 275 223 281 256 276 227 187 277 184 265 270 338 233 264 325 226 241 252 221 92 203 208 311 268 273 247 155 126 150 271 301 212 192 265 246 198 168 234 166 293 313 329 277 325 257 211 175 158 173 186 291 232 280 226 256 276 217 226 221 297 218 274 169 255 153 209 212 278 286 166 161 256 209 263 180 225 214 259 294 206 292 327 255 310 156 275 244 231 159 224 198 195 323 157 296 260 182 153 232 200 130 174 238 171 244 270 253 185 246 186 180 309 186 258 246 192 227 227 213 148 194 248 235 214 225 297 261 213 218 249 241 261 207 261 148 151 190 232 176 160 238 217 198 226 221 246 275 278 261 268 212 182 240 183 262 239 202 187 310 223 272 263 216 252 229 213 277 254 215 213 190 182 196 223 321 230 211 247 184 270 261 309 226 268 216 191 263 291 174 317 223 216 267 267 148 202 165 209 230 213 151 238 205 142 214 233 204 244 265 145 265 183 286 270 241 252 221 213 204 218 150 256 174 247 177 323 225 202 204 276 159 261 155 260 231 265 169 223 254 180 294 259 267 243 167 218 233 276 300 214 192 272 172 224 253 233 281 256 144 307 294 233 309 274 216 181 225 232 252 220 268 236 234 232 197 211 214 241 168 211 235 239 191 204 233 267 240 233 181 222 262 240 181 168 298 257 197 181 209 220 221 190 217 169 261 188 195 253 257 206 237 315 201 279 289 162 297 214 195 197 160 295 308 216 247 287 134 170 249 222 240 231 193 198 241 236 189 232 220 259 325 259 239 233 145 220 190 257 205 256 252 256 146 234 163 284 306 219 284 229 234 211 254 189 212 136 245 325 211 189 263 234 207 254 177 242 262 239 148 241 156 150 267 249 260 187 241 276 194 252 249 169 201 164 352 219 226 237 176 301 198 169 287 284 171 212 311 211 152 227 294 241 247 275 199 301 324 285 250 212 166 225 198 207 266 227 338 270 245 232 217 242 260 191 228 177 271 207 236 250 177 249 162 164 215 238 241 199 209 272 203 234 361 227 254 249 227 199 143 285 228 273 223 219 174 242 142 221 178 211 206 296 222 196 275 267 232 238 269 178 197 151 188 179 271 227 242 301 281 205 210 274 284 250 201 180 281 235 283 243 215 244 308 232 205 254 241 261 196 176 184 253 209 246 240 219 234 218 237 209 261 230 254 222 253 276 266 243 238 222 289 154 288 248 281 210 165 204 228 320 220 296 298 239 189 202 198 248 325 251 234 230 279 233 154 232 260 335 193 229 250 243 235 254 174 216 270 248 152 241 257 208 156 161 295 173 287 209 165 212 298 242 232 161 212 237 153 251 177 284 199 276 204 293 150 214 213 226 171 207 294 183 269 268 224 183 191 249 219 226 150 217 123 199 227 207 234 256 215 209 156 294 275 242 213 202 244 253 169 244 197 253 290 270 194 265 248 167 207 156 214 244 223 218 200 183 166 257 204 230 162 203 250 266 185 216 178 333 218 271 230 204 163 214 190 274 324 227 373 164 270 224 252 211 252 273 221 164 211 229 272 267 359 184 264 222 259 199 289 263 277 308 247 218 179 300 202 202 209 232 284 226 325 241 306 226 226 245 257 169 182 255 160 203 197 237 258 194 208 301 286 246 210 291 210 206 240 202 228 213 135 258 264 286 168 176 258 240 255 219 175 181 242 160 258 226 206 209 253 222 287 290 220 217 267 174 258 265 250 127 225 182 201 256 279 229 269 289 177 230 231 204 241 226 216 150 170 165 195 220 271 261 213 204 194 207 264 273 183 215 239 202 259 179 292 161 214 231 269 357 179 260 198 108 211 254 316 217 198 218 248 273 178 184 149 227 321 249 254 185 180 160 219 163 219 247 167 159 199 275 263 200 267 206 241 193 210 214 249 276 267 233 223 210 221 141 202 199 176 304 247 210 196 255 154 236 240 130 232 273 183 196 257 177 214 153 243 309 170 189 139 214 299 256 213 207 243 213 222 207 156 246 277 181 331 222 187 224 212 217 190 196 220 174 204 237 193 200 228 194 241 256 295 289 243 174 173 186 203 199 275 237 157 241 165 268 230 200 264 190 242 200 294 348 211 207 247 235 236 226 162 314 274 215 216 221 272 202 289 175 300 253 202 176 217 169 218 184 200 155 150 244 233 184 214 231 288 159 302 294 230 238 237 254 260 222 277 282 150 225 262 163 230 309 208 287 147 293 167 270 367 206 214 169 191 282 185 242 229 171 284 261 234 230 246 279 277 186 216 173 259 260 242 187 195 122 224 193 286 231 266 285 245 212 191 223 192 278 220 205 208 147 243 351 221 251 257 196 247 197 262 207 138 315 177 313 177 190 255 289 239 308 282 189 256 209 243 268 215 283 269 192 251 329 260 208 270 212 207 178 140 248 220 163 162 228 187 218 237 297 170 249 179 284 306 245 291 195 310 292 356 207 300 307 184 200 241 212 266 219 239 183 185 180 220 277 226 344 218 302 187 152 251 195 319 235 233 265 305 191 206 251 212 252 260 263 201 205 205 237 218 232 212 268 250 199 185 238 215 223 216 205 330 157 139 326 176 218 236 127 237 391 258 195 224 308 215 204 238 201 313 235 214 252 221 202 241 246 194 291 244 229 245 281 237 207 216 192 200 220 227 212 175 240 224 254 261 206 269 234 268 142 171 200 193 273 246 231 270 230 244 185 258 252 195 203 218 240 229 209 207 221 222 236 239 325 188 247 221 215 168 223 234 234 302 181 187 185 250 164 192 272 255 261 244 250 244 196 170 206 179 230 195 171 202 201 184 204 259 140 274 224 213 218 226 262 167 183 195 261 266 297 219 284 211 253 276 184 197 171 209 215 274 282 185 153 194 190 260 338 199 286 183 176 239 251 228 202 202 164 218 172 266 250 209 193 203 128 197 215 257 197 289 178 247 303 279 139 230 168 276 264 265 277 221 168 305 159 237 239 176 252 222 220 238 215 250 258 300 176 286 269 261 208 247 203 191 185 288 161 181 144 252 249 208 256 196 177 126 194 212 234 209 219 187 253 262 168 199 167 269 174 238 199 273 219 235 234 235 237 266 211 176 260 183 149 197 199 236 177 306 226 317 218 205 302 303 227 190 195 177 215 187 237 247 251 319 173 273 207 286 295 256 311 155 266 189 288 263 249 265 231 257 306 185 245 207 208 214 268 326 190 208 195 252 230 213 281 215 222 308 199 216 218 326 276 207 238 229 148 261 274 328 218 216 190 181 182 170 265 160 241 173 244 274 252 222 220 302 239 222 148 230 213 166 273 247 181 206 228 350 230 219 296 186 183 206 275 166 208 249 279 191 202 172 140 242 173 202 249 209 243 252 222 239 258 220 222 208 291 225 215 231 198 236 235 255 363 292 186 207 198 247 293 191 286 282 202 189 182 140 258 224 244 212 265 213 247 272 260 175 276 192 217 169 211 280 199 187 266 224 211 216 209 236 203 242 209 147 222 309 260 176 244 272 176 235 242 176 254 297 174 198 286 346 226 213 188 295 206 176 216 356 281 253 234 182 199 260 236 235 217 240 191 238 177 173 304 217 142 186 287 206 178 316 271 211 256 158 260 232 253 270 261 217 256 268 265 223 202 282 271 275 225 188 195 227 294 215 324 309 235 261 146 234 188 155 134 212 235 254 155 243 292 334 215 142 170 257 298 217 200 315 265 269 209 199 216 209 272 223 234 182 141 214 247 149 212 262 255 147 150 137 219 193 223 194 354 274 275 172 263 251 219 133 220 265 275 200 170 212 162 284 191 350 187 169 207 245 178 144 236 229 181 250 156 237 182 231 223 248 247 278 263 230 197 289 115 259 195 253 231 249 216 235 236 265 212 176 202 171 295 203 157 222 257 200 276 284 188 209 196 171 278 317 257 319 238 280 332 262 311 189 192 219 187 196 282 198 303 232 198 270 338 212 225 228 288 274 142 218 198 179 225 92 243 181 259 164 268 219 251 208 214 363 233 214 145 212 190 275 161 150 223 196 250 222 238 190 218 287 231 199 160 217 233 229 195 207 275 256 200 205 192 323 176 240 268 322 178 254 247 226 249 207 271 326 197 206 261 211 198 212 193 271 173 189 268 256 173 218 195 254 273 256 114 286 279 174 317 194 243 272 204 186 219 226 197 175 247 215 187 254 283 311 262 177 277 245 291 182 233 335 215 198 273 274 228 165 243 278 214 228 337 217 252 302 220 236 283 168 321 246 213 246 259 235 244 251 221 240 274 169 271 273 236 170 186 203 201 185 260 270 210 236 228 195 281 226 233 259 258 232 146 259 159 270 285 208 250 263 210 328 276 216 253 188 311 156 214 278 168 210 198 324 247 189 202 272 159 215 244 214 212 228 209 232 157 294 200 236 288 346 272 271 249 253 268 276 252 242 179 194 259 201 233 216 220 290 173 172 197 221 294 181 260 250 251 213 274 184 239 169 239 291 294 324 329 256 299 213 216 260 168 198 259 209 239 202 232 237 194 273 243 180 241 229 161 206 232 223 175 255 226 290 223 328 178 243 209 226 232 226 219 284 130 179 175 264 291 240 215 242 195 351 346 174 279 225 182 254 172 202 299 279 242 287 149 236 237 241 193 203 310 192 248 243 251 213 277 202 179 187 193 265 183 264 266 215 325 211 206 224 142 237 216 224 263 221 349 256 233 143 277 232 180 306 294 293 254 186 231 226 235 276 228 175 234 250 260 233 253 277 189 330 250 264 203 204 131 224 187 239 280 252 258 227 204 198 220 201 307 268 135 233 183 251 145 188 223 193 243 213 317 276 232 254 291 256 247 171 294 247 292 211 214 306 238 234 268 168 224 263 178 98 126 215 252 176 279 216 234 299 188 229 199 321 253 283 272 193 232 246 182 241 190 308 273 204 198 211 217 184 226 299 198 246 201 262 158 306 241 257 162 213 311 169 214 263 190 247 202 301 274 239 197 211 232 285 252 237 234 243 236 189 284 188 210 242 237 230 183 138 142 163 253 195 187 228 177 163 150 209 286 206 216 157 197 257 153 229 249 279 235 218 206 314 223 268 163 180 230 188 262 209 255 247 130 155 223 256 174 212 246 254 266 176 246 136 193 211 305 172 227 225 261 218 174 177 215 201 212 229 189 237 203 171 181 269 237 184 212 232 283 232 191 190 281 262 205 174 244 229 351 209 168 191 166 276 273 157 239 287 255 297 290 213 234 203 265 233 200 195 302 205 209 346 276 166 124 220 164 143 169 150 165 203 309 314 318 206 280 298 319 267 207 264 259 218 201 218 272 347 184 248 158 244 186 269 184 183 278 239 247 228 187 140 256 209 161 289 212 182 240 219 154 267 267 254 201 241 294 214 325 285 324 277 167 263 178 237 217 222 273 297 238 170 176 208 240 221 291 171 156 162 230 264 247 204 265 216 274 194 150 210 212 223 249 206 254 286 206 263 180 189 240 242 175 205 219 273 167 128 250 239 244 194 259 206 209 221 205 178 261 169 306 253 247 256 192 226 174 264 175 174 182 296 303 213 154 217 179 202 296 199 259 189 183 232 286 218 197 165 228 235 275 294 209 184 247 143 272 196 246 343 172 295 206 175 194 191 150 247 236 255 202 135 206 241 195 241 213 284 210 192 233 169 228 240 203 139 245 318 303 275 204 200 218 252 145 269 224 241 149 158 203 332 271 213 316 256 312 160 290 302 272 202 249 192 163 207 248 325 227 247 185 198 256 282 261 245 167 264 275 143 172 299 280 270 329 206 282 226 299 289 268 262 167 242 175 202 264 267 250 306 162 293 275 255 194 198 257 335 173 222 262 163 130 252 226 150 250 264 240 243 284 275 225 276 166 212 223 214 285 195 138 178 157 278 321 183 169 300 190 252 236 246 204 226 196 171 243 220 260 203 310 240 195 270 354 292 323 312 187 295 191 284 205 182 268 218 251 276 297 309 224 196 271 274 178 237 144 263 306 305 228 266 253 201 225 323 176 124 181 207 253 246 249 229 262 267 203 217 241 142 286 183 278 194 246 182 269 191 283 252 179 287 299 228 277 279 193 196 234 203 222 210 258 199 236 325 161 197 220 180 333 208 290 177 260 266 253 245 156 199 273 217 224 164 257 279 271 217 232 218 219 202 243 258 234 232 221 235 218 148 228 180 267 222 256 176 212 133 306 233 246 230 295 314 202 204 254 210 129 207 161 213 196 213 300 308 227 191 264 246 194 201 212 204 371 231 158 223 335 205 252 214 268 184 251 232 218 231 234 296 158 224 153 183 244 283 262 221 225 190 184 192 150 195 177 247 255 187 236 238 282 231 150 226 235 300 233 231 271 304 235 175 191 311 337 295 171 281 164 227 204 162 298 250 189 282 219 145 302 164 230 157 245 206 236 262 270 227 236 255 191 292 204 198 182 207 210 193 194 322 265 282 214 253 298 188 223 153 243 221 212 207 197 243 183 224 203 248 206 204 290 200 273 167 263 353 171 215 284 268 240 147 194 171 260 243 180 291 253 186 231 271 190 232 217 254 221 209 240 249 268 250 268 298 158 170 294 254 246 261 239 244 255 321 247 214 253 202 279 221 248 261 151 283 106 231 268 282 203 219 175 194 243 264 179 283 214 253 215 290 247 348 243 217 268 296 226 206 309 240 155 233 217 225 195 247 192 282 214 243 224 248 206 298 251 222 204 174 311 166 185 190 208 173 167 164 266 195 263 214 273 142 240 241 243 184 246 207 152 188 191 262 213 203 265 292 301 265 250 253 245 134 209 265 279 242 245 217 206 278 237 258 270 177 198 264 213 268 343 237 260 158 106 200 197 220 224 238 207 187 256 228 198 249 158 253 202 304 233 171 281 244 113 265 296 205 222 291 219 177 231 275 288 230 254 224 203 254 196 225 120 258 276 256 286 279 292 190 209 244 223 243 268 226 250 296 163 144 198 224 207 262 234 264 218 146 155 249 229 235 221 174 231 245 188 288 256 267 184 211 230 263 179 241 270 213 243 222 202 322 163 296 138 192 212 171 296 244 149 236 222 182 235 169 221 179 218 175 198 216 263 237 212 173 171 223 214 239 187 261 229 219 278 232 235 193 188 269 200 283 198 276 334 208 235 211 205 343 194 237 194 246 306 226 151 304 226 224 128 183 199 260 267 239 199 207 198 224 274 223 231 209 261 240 276 244 203 230 170 165 169 314 236 248 249 243 247 228 180 159 295 187 257 154 241 233 301 203 293 264 267 266 306 220 247 252 281 310 211 197 195 238 218 248 259 220 197 226 169 255 201 214 353 212 206 278 268 226 234 239 305 252 282 238 249 267 216 200 304 225 201 170 303 170 238 196 206 227 232 166 249 209 239 231 315 209 254 193 193 234 173 203 227 276 182 160 154 189 296 271 254 180 231 221 264 276 215 264 222 262 172 191 140 232 227 201 172 281 158 222 221 198 246 257 188 191 288 261 261 222 214 286 227 261 237 170 234 211 198 308 273 266 159 290 188 292 227 229 182 219 307 194 215 235 193 249 250 153 266 289 241 214 259 276 253 165 171 215 263 123 224 113 189 167 191 247 172 233 256 141 259 190 277 227 239 239 233 180 240 346 235 217 273 208 239 181 276 213 309 247 217 177 189 304 241 238 166 214 197 185 210 214 274 209 299 281 209 247 266 217 211 132 235 282 170 252 172 224 224 218 270 270 184 227 306 292 180 268 283 182 238 212 211 233 189 211 257 250 260 200 231 236 251 236 242 224 144 220 193 263 225 230 278 243 258 153 235 271 313 188 305 205 195 221 260 301 238 231 189 176 227 201 213 219 222 222 209 214 235 285 174 176 219 297 225 162 202 193 344 233 266 193 209 225 273 212 295 269 239 241 229 239 341 139 303 274 166 258 255 228 290 248 199 213 213 192 315 208 211 124 246 279 234 219 307 199 250 269 167 180 224 187 280 113 201 180 252 156 272 189 256 232 216 163 258 214 199 191 195 244 255 311 188 242 205 283 207 193 220 238 245 147 177 227 201 215 278 269 313 181 293 193 256 156 279 364 170 274 219 195 247 256 198 186 270 209 265 233 183 197 258 218 287 279 197 283 217 202 195 278 275 252 245 149 188 265 236 176 243 212 216 172 231 255 293 219 205 223 284 210 231 177 213 191 229 177 148 286 270 202 286 222 206 219 257 224 246 304 220 294 299 251 300 242 197 229 154 323 236 221 238 284 235 171 191 227 166 238 195 213 290 255 122 221 214 244 268 252 172 255 222 206 191 247 256 237 202 177 134 261 271 350 180 166 281 219 309 229 164 220 231 198 207 202 128 193 247 302 236 247 127 212 272 206 307 299 314 310 355 248 210 198 158 229 275 229 192 219 195 191 274 264 187 217 246 213 243 287 199 274 257 231 236 259 165 211 240 196 250 151 210 207 209 184 220 207 287 151 213 297 242 240 221 226 173 299 253 254 299 258 241 277 295 202 262 273 139 282 303 173 233 215 235 240 172 223 221 260 271 236 302 226 269 111 267 273 278 212 204 271 159 255 319 200 175 188 308 200 261 172 222 165 219 271 213 135 173 319 220 251 311 249 159 121 185 154 256 166 272 191 308 193 278 259 137 154 292 266 278 312 186 240 287 196 241 195 228 194 214 276 206 289 166 187 163 158 203 205 194 158 266 202 200 274 217 226 269 298 258 196 276 251 237 201 189 187 288 311 254 204 265 182 156 234 172 200 213 206 277 223 249 221 254 282 323 195 159 185 287 162 185 236 274 178 334 336 234 307 197 249 240 186 111 250 114 240 130 270 185 226 264 242 234 275 291 248 322 298 213 195 269 241 289 250 128 274 223 203 231 294 263 128 199 278 192 122 251 197 225 201 187 195 186 257 235 169 159 243 209 188 231 175 189 228 223 266 227 262 248 352 194 228 270 266 179 241 295 312 245 220 228 243 242 203 282 234 212 205 242 212 180 251 224 223 235 286 201 192 229 257 280 183 174 271 225 218 318 250 284 228 169 263 213 176 287 253 211 270 205 186 212 266 230 128 213 208 240 253 246 244 321 169 182 234 213 191 260 245 195 208 218 321 278 93 186 187 272 253 162 210 236 270 195 270 166 217 150 228 272 171 234 305 158 225 266 160 224 218 283 187 188 167 235 226 288 255 186 206 283 280 238 213 188 244 193 218 170 239 219 278 132 254 199 263 254 211 155 205 232 226 251 331 249 249 271 133 315 290 272 291 272 274 312 244 220 230 177 249 173 290 273 277 235 190 286 262 262 276 311 230 278 199 250 228 186 203 182 235 188 173 206 180 239 188 331 302 208 264 298 203 210 163 215 217 241 331 161 265 241 254 167 242 197 253 313 220 261 245 209 230 231 315 209 225 303 319 233 181 163 176 238 248 202 221 232 176 308 209 272 202 151 267 267 279 237 228 216 194 156 205 159 203 199 204 281 175 242 255 152 213 244 271 231 280 155 198 209 250 200 280 191 276 263 279 211 153 227 205 299 194 201 304 350 210 187 265 244 258 175 161 143 253 234 198 169 398 287 268 221 252 221 204 217 182 264 256 293 239 255 271 205 246 294 214 214 181 192 229 166 205 193 269 210 161 214 299 205 205 188 224 194 185 253 277 259 206 184 238 296 216 246 274 234 231 199 189 366 276 250 184 285 213 144 259 160 284 217 287 236 298 258 191 231 261 309 285 180 185 231 281 208 266 294 295 134 224 236 211 275 279 293 214 181 265 229 259 184 301 184 278 245 2</t>
-  </si>
-  <si>
-    <t>MIE(0.4627320246588903, 1.9906444108885428, -1.6269560905852173e-31, 2.4700377896904246)</t>
-  </si>
-  <si>
-    <t>1 2 1 2 4 1 2 1 0 1 4 2 1 0 2 1 1 1 1 1 0 0 3 2 1 1 1 1 0 0 2 1 2 1 0 1 1 0 0 2 2 0 1 0 1 0 2 4 1 0 1 1 2 3 2 1 0 2 1 2 3 2 4 2 0 2 1 1 1 1 1 1 2 0 1 3 1 0 0 0 1 0 1 1 1 1 1 2 0 1 0 2 0 1 0 1 1 0 2 2 1 0 2 3 0 1 1 1 2 0 0 0 1 1 0 2 0 1 1 0 1 1 3 1 1 1 1 3 1 1 1 0 1 1 0 0 2 1 1 2 0 2 2 1 2 1 2 2 1 2 3 0 2 1 0 1 2 2 0 1 1 1 2 1 0 1 2 2 1 2 0 1 1 1 0 1 2 0 0 1 0 1 0 1 0 1 1 1 0 0 1 2 0 2 2 1 0 1 2 1 0 1 2 1 0 1 2 1 0 1 2 0 0 0 2 0 0 1 0 1 0 1 0 2 0 1 1 1 0 2 0 1 0 0 0 1 1 1 2 0 1 1 1 3 1 1 0 1 1 1 1 0 4 2 1 0 0 0 1 0 0 1 2 0 2 2 1 2 2 2 2 0 1 0 2 2 1 1 2 1 1 0 2 2 2 0 2 0 1 2 1 0 1 1 2 0 2 1 0 1 0 2 0 1 1 2 0 1 1 1 1 1 1 1 0 1 1 2 1 0 1 2 1 1 1 1 1 1 1 0 1 1 1 1 1 1 2 1 2 2 3 3 2 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 1 1 0 0 2 1 2 0 3 1 1 1 0 0 2 3 2 1 1 2 0 1 1 2 0 0 0 0 0 1 1 1 1 0 0 1 1 2 1 1 1 2 2 1 0 0 0 3 1 1 1 0 1 1 0 0 1 0 3 1 1 0 0 1 0 2 2 1 1 2 1 3 1 1 0 1 1 2 0 0 2 2 2 1 1 1 1 3 3 0 0 1 2 1 1 1 2 2 0 2 2 1 0 2 1 2 2 1 1 2 0 1 1 0 1 2 0 1 2 1 0 1 1 0 1 1 2 1 2 1 2 1 1 2 1 1 3 0 1 1 0 0 3 1 3 1 2 2 1 0 1 1 2 1 1 0 2 2 2 1 2 1 1 1 2 2 0 1 2 0 2 0 2 2 1 1 1 2 0 2 0 1 1 2 3 1 2 0 0 2 2 1 1 1 0 1 1 0 1 1 1 1 2 1 2 1 1 3 1 1 1 1 1 2 0 3 0 0 1 3 1 2 2 0 0 0 2 0 1 2 1 0 2 1 2 2 0 1 0 1 0 1 2 0 0 1 1 1 2 1 3 0 2 1 1 1 1 2 0 3 2 0 0 1 0 0 1 2 2 1 1 1 1 3 1 0 1 2 0 1 2 1 0 0 0 2 2 2 0 2 1 0 1 1 0 0 2 0 1 1 2 1 1 1 1 2 1 2 3 1 3 0 0 2 0 1 0 1 2 1 1 1 0 1 2 0 1 0 1 2 2 1 0 1 2 1 2 2 0 2 1 2 1 0 0 1 0 1 2 2 1 1 1 0 2 1 1 0 1 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 2 1 1 1 0 1 0 1 2 2 1 2 3 0 2 1 0 2 1 1 0 1 1 1 2 1 1 1 0 1 1 2 0 0 1 1 0 3 2 1 3 1 1 1 3 0 1 0 2 1 0 1 1 1 0 2 0 1 1 1 0 0 1 1 2 1 1 1 0 1 1 1 3 2 0 0 2 2 1 2 1 2 1 1 0 2 1 0 0 1 1 1 0 1 1 2 2 2 0 1 0 3 3 1 1 0 0 1 0 0 1 1 0 0 1 0 2 1 1 1 1 1 2 2 1 0 1 1 0 1 2 2 0 1 1 2 2 1 4 1 1 0 4 1 2 0 2 1 0 2 1 3 3 0 2 1 1 1 1 1 1 2 1 2 1 0 1 2 1 2 1 1 2 2 3 2 1 0 3 1 1 2 1 3 0 2 2 2 1 2 0 2 0 0 1 1 1 1 2 1 1 1 2 1 2 3 0 0 1 1 1 1 0 1 1 1 0 1 0 2 3 0 1 2 4 1 1 3 1 0 2 3 2 1 1 2 2 2 3 1 1 1 1 1 1 1 1 1 1 1 2 1 1 0 1 2 0 1 0 1 0 0 1 1 1 1 0 2 0 3 0 2 1 2 2 1 2 1 1 1 1 1 1 0 1 2 2 0 1 1 0 3 1 2 0 1 0 1 1 0 1 1 0 3 0 0 2 2 1 0 1 2 1 1 2 1 0 0 1 2 1 1 2 0 0 1 1 2 1 1 2 0 1 1 2 1 1 2 0 1 0 0 0 2 0 0 3 1 3 2 3 1 2 0 0 1 1 2 1 2 0 1 1 2 0 1 0 1 1 0 2 1 2 0 0 2 1 0 1 0 0 1 1 2 0 0 1 2 2 1 2 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 1 1 1 1 1 1 1 0 0 0 3 0 1 1 0 1 1 0 1 1 0 0 2 2 1 0 2 0 0 1 1 0 0 0 1 2 2 0 1 2 0 0 0 0 0 0 3 0 2 1 3 1 2 0 1 2 2 1 0 1 1 0 2 0 3 2 1 0 1 1 0 1 2 1 2 1 1 1 0 1 2 2 2 0 0 1 0 1 2 2 2 2 2 1 0 1 2 1 1 0 0 1 2 0 1 2 0 1 0 1 0 2 1 4 3 1 1 1 0 1 3 0 0 1 2 1 1 1 2 2 4 1 2 4 1 1 0 2 2 0 0 0 1 1 0 2 1 2 1 0 2 2 0 1 0 0 1 1 2 1 1 1 0 0 1 1 2 2 0 0 1 1 2 2 0 1 1 2 0 2 1 1 1 0 1 0 2 0 0 0 1 0 2 2 1 2 0 1 1 1 1 0 1 1 0 4 2 0 2 1 1 0 1 1 0 0 2 2 0 1 0 1 1 1 0 1 1 3 0 0 0 1 2 1 2 0 0 2 2 3 1 2 2 1 2 0 1 1 1 1 2 0 1 2 0 1 2 0 3 0 0 1 1 0 2 2 0 3 1 1 1 0 1 1 2 0 0 1 0 1 0 0 0 0 0 1 2 0 3 2 2 0 1 2 0 1 0 0 0 0 0 0 2 1 0 0 2 1 1 2 1 2 0 2 2 1 1 0 3 1 0 1 2 1 1 1 2 2 3 0 3 2 2 2 1 1 1 1 2 0 1 0 0 1 1 1 1 1 1 2 1 1 2 1 0 0 0 2 2 1 1 1 1 1 1 1 1 2 1 1 2 1 2 1 2 0 1 1 0 2 0 3 1 1 2 3 0 2 1 0 2 3 0 3 1 1 2 0 1 2 2 1 2 1 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 2 2 2 2 0 1 0 1 2 2 2 1 0 0 1 1 2 1 0 2 2 3 1 1 0 2 1 1 1 0 3 1 0 2 0 0 1 1 2 2 0 2 0 0 1 0 0 1 2 2 1 2 1 1 1 0 3 1 3 2 1 2 0 1 2 1 0 2 1 2 1 1 1 1 2 0 0 1 1 0 1 1 0 2 1 2 1 1 1 0 1 2 3 1 0 0 0 2 0 2 1 1 1 1 3 1 3 1 1 0 1 2 0 1 1 1 2 1 1 0 2 1 0 1 0 0 1 2 1 2 1 1 1 1 0 2 1 1 2 1 2 0 1 1 3 1 1 0 2 1 2 1 1 2 1 2 1 2 0 0 0 0 2 1 1 2 3 0 1 1 0 2 0 0 1 2 2 0 3 1 1 1 2 3 1 0 1 1 1 1 1 0 0 0 2 2 1 4 1 0 0 1 1 3 1 1 2 0 1 1 2 2 0 1 2 0 1 0 2 1 1 2 1 1 0 1 1 2 1 2 2 0 1 0 0 1 1 1 1 1 1 2 1 2 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 2 2 1 2 1 0 0 3 0 1 2 1 2 0 1 2 2 0 2 2 3 1 2 1 3 2 2 1 2 1 2 0 0 2 1 2 2 2 2 1 1 1 1 2 1 1 0 0 2 0 2 0 0 2 1 3 0 1 3 1 0 3 1 1 1 1 1 0 2 0 1 2 1 1 1 1 1 2 0 2 0 2 0 1 1 0 2 0 1 1 4 1 0 0 1 0 2 2 1 0 1 1 2 2 2 1 2 1 2 0 1 2 1 1 2 0 2 1 1 0 1 0 0 0 1 2 1 1 1 1 2 2 2 3 2 0 0 2 0 0 1 0 2 0 0 1 1 2 0 0 2 0 1 3 2 2 2 1 1 2 1 3 1 1 1 2 0 2 1 2 2 1 2 1 1 2 0 2 0 2 1 3 0 0 0 0 0 1 2 0 2 1 0 0 1 2 2 1 2 1 1 1 0 2 0 1 1 0 0 0 0 1 1 1 3 2 0 1 2 1 1 1 2 2 1 3 0 1 2 1 0 2 2 3 0 2 1 1 2 2 0 0 2 2 1 2 1 1 1 1 1 0 3 2 3 2 0 0 2 1 2 1 0 2 1 1 1 0 0 0 0 1 1 1 3 1 0 1 2 0 0 2 2 1 0 1 1 0 1 0 1 2 3 1 0 1 1 2 2 1 1 1 1 0 1 1 0 1 0 1 2 2 1 0 1 2 2 1 1 0 0 1 1 1 3 1 4 1 0 1 2 1 1 3 0 2 0 1 0 0 0 1 1 2 2 2 1 1 1 1 1 0 1 2 2 0 3 2 0 1 0 0 1 1 1 1 1 2 1 1 1 2 0 0 0 0 1 1 1 1 2 1 2 1 1 0 2 2 1 1 1 0 0 1 0 1 0 1 2 0 0 0 1 1 0 1 1 0 1 2 1 4 2 3 3 0 0 0 1 1 2 0 1 0 1 0 1 2 0 1 1 0 2 1 1 1 2 0 2 0 0 1 1 3 1 0 2 2 1 2 1 1 1 2 0 2 0 1 3 1 2 0 1 2 1 1 0 1 0 1 0 1 2 1 0 3 1 2 3 1 2 2 0 0 1 1 1 1 3 2 2 1 1 0 1 1 1 2 1 2 0 2 3 2 1 0 1 2 1 1 2 0 1 1 0 1 0 3 1 2 1 0 1 2 3 2 1 1 0 1 1 1 0 1 1 0 0 4 0 1 3 0 1 0 1 3 1 1 0 0 0 2 1 1 2 1 3 2 0 1 0 2 3 0 1 1 2 1 1 0 2 1 2 0 0 2 0 1 0 0 0 1 3 0 0 1 0 1 1 0 0 1 1 3 2 0 2 3 0 4 3 2 0 2 1 2 3 2 3 1 1 1 1 2 2 2 0 1 1 1 1 0 0 1 1 1 2 1 1 2 2 1 2 2 1 0 1 2 0 0 1 4 2 1 1 3 2 1 1 1 1 3 0 3 2 0 1 1 3 0 0 2 3 1 1 1 1 0 1 0 1 0 2 0 0 0 2 0 3 3 1 0 2 0 0 3 1 1 2 1 0 0 1 4 0 1 2 1 2 2 1 0 1 0 2 1 0 1 1 1 1 0 2 0 1 1 0 1 1 1 0 2 1 1 2 1 1 1 1 1 1 1 1 2 1 1 0 1 1 2 1 0 1 0 1 1 1 1 1 1 2 2 1 1 1 1 1 1 0 0 1 2 0 1 0 0 1 0 1 2 0 1 2 0 1 1 2 1 1 1 0 1 1 2 2 1 2 2 1 1 0 2 3 1 1 0 0 3 0 1 2 1 2 1 3 3 1 0 2 2 2 1 0 2 1 1 1 2 0 2 0 2 1 1 1 0 1 1 2 0 1 1 1 3 1 1 1 3 1 0 0 1 1 0 3 1 1 1 0 2 1 1 2 1 0 0 2 1 1 1 1 2 1 1 1 1 0 1 0 2 2 0 1 3 1 2 0 1 1 0 1 1 0 1 3 0 1 0 4 0 1 1 1 2 1 1 3 0 2 0 1 0 0 1 0 0 4 0 1 1 2 1 2 1 1 1 0 1 3 2 2 2 0 1 2 1 0 0 2 1 2 1 2 1 0 0 1 2 2 0 1 2 1 0 0 0 1 1 0 1 0 1 1 3 1 2 2 2 3 2 3 3 0 1 0 0 1 2 2 1 1 2 2 1 1 3 0 0 0 1 2 1 1 0 0 2 1 1 0 1 1 0 1 1 2 0 2 1 0 1 0 1 1 1 3 1 2 0 0 1 1 2 1 2 1 1 1 1 1 0 0 1 1 0 3 2 3 1 3 1 0 2 1 1 1 1 0 0 4 0 2 0 1 0 1 0 1 0 1 0 1 0 2 1 1 0 1 1 0 0 2 0 0 1 2 4 2 2 2 1 2 1 1 2 1 1 1 0 1 0 1 0 1 1 1 0 1 1 0 1 3 0 1 2 0 1 1 1 0 1 1 2 0 0 2 2 0 2 4 0 0 1 2 2 2 2 0 2 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 2 1 2 1 0 0 1 0 1 1 1 2 1 1 0 0 3 1 2 2 2 1 1 0 0 1 0 0 1 0 1 2 2 1 2 1 0 1 0 0 1 2 1 1 2 1 0 2 1 1 1 1 0 1 0 3 2 1 1 2 2 3 1 0 1 1 1 1 1 1 4 2 0 0 1 1 0 2 1 0 1 0 1 1 2 2 2 1 0 4 1 0 1 1 2 1 1 0 1 0 1 2 0 2 1 0 2 3 1 0 1 1 1 2 1 1 1 1 1 0 1 0 1 0 1 1 0 1 1 0 1 0 1 3 2 1 0 1 0 1 2 1 3 0 2 2 1 1 2 2 2 1 2 1 0 4 1 1 1 2 1 2 2 0 1 2 1 0 0 1 2 1 1 2 0 2 1 2 0 1 2 1 2 0 0 1 2 2 2 1 1 0 3 2 2 0 1 0 0 2 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 2 2 2 0 2 2 0 0 1 0 1 1 1 2 0 1 2 2 0 1 1 0 3 1 1 1 0 0 1 2 1 1 1 2 1 1 0 1 2 1 1 3 0 1 0 3 3 1 2 1 1 0 1 1 2 1 2 4 1 1 2 0 2 0 1 0 1 0 1 0 1 0 0 2 2 1 0 0 2 0 2 2 2 0 3 1 3 2 0 2 0 1 0 0 1 2 2 1 1 0 1 1 2 1 1 1 2 1 1 0 0 3 1 1 1 2 0 2 2 1 0 2 3 1 3 0 1 1 1 2 2 2 0 2 0 0 2 0 1 1 1 2 1 1 2 0 1 0 1 1 0 5 1 1 1 2 3 2 0 0 2 1 1 1 1 2 1 2 0 0 1 2 3 1 1 0 1 2 1 1 1 1 0 0 1 0 1 0 1 1 0 2 4 1 0 1 1 1 0 1 0 0 1 0 0 1 0 0 3 1 2 0 1 1 1 1 1 1 2 1 2 1 2 2 0 2 2 0 0 0 1 0 0 1 1 1 1 1 1 0 0 2 1 1 1 2 2 1 1 2 1 1 2 0 0 1 2 1 2 1 0 1 2 0 0 2 2 1 2 1 2 1 2 1 1 2 0 0 0 0 1 1 0 1 1 2 1 3 2 0 0 1 1 0 2 1 1 1 0 1 2 1 1 1 2 1 1 0 1 1 1 0 1 1 2 0 1 1 0 1 1 2 1 1 0 1 1 2 2 2 1 2 0 3 1 1 0 0 0 2 0 1 0 0 1 2 3 2 1 0 0 1 1 1 1 2 1 0 1 0 1 1 0 0 2 0 1 1 2 1 2 2 2 2 1 2 3 1 1 2 2 1 0 1 3 2 1 2 1 1 0 0 3 2 1 1 1 1 2 0 0 1 2 0 0 0 3 2 0 1 2 0 0 1 1 0 1 1 0 2 1 1 2 0 4 2 1 2 1 1 1 3 1 2 1 0 1 3 0 2 1 2 1 2 0 0 1 1 3 2 0 0 1 1 1 2 0 1 1 1 1 1 0 0 1 3 0 1 3 2 1 1 1 2 0 0 2 1 0 1 0 0 2 0 2 0 1 1 0 0 2 0 2 0 1 1 1 1 0 0 2 1 1 1 0 1 1 2 1 2 1 0 2 0 1 3 2 1 0 1 1 1 3 0 0 0 1 1 0 0 2 2 1 0 1 2 0 0 2 4 1 0 1 4 1 1 0 0 2 0 1 1 1 0 0 0 1 0 0 3 0 0 1 1 1 1 2 1 1 3 2 1 2 1 2 3 1 0 1 1 1 2 2 0 0 1 2 0 1 0 1 1 0 1 0 0 1 2 2 0 1 1 1 1 0 2 1 0 1 2 1 1 0 0 1 1 2 1 0 2 1 0 1 0 1 0 0 0 1 2 1 1 2 0 1 2 2 0 1 0 1 3 0 1 1 1 0 2 1 2 2 0 0 0 1 0 0 1 1 3 2 0 1 0 1 1 1 1 1 1 0 0 1 1 0 0 1 1 2 1 2 1 0 2 2 1 1 2 2 0 1 3 3 2 0 1 2 2 0 2 1 2 1 1 0 1 1 1 1 2 1 1 0 1 0 1 1 3 1 0 2 1 2 2 2 1 0 2 2 3 1 4 2 0 0 0 1 1 2 1 1 1 2 0 2 1 3 1 1 1 0 3 1 0 1 2 2 1 2 1 2 0 1 2 3 0 2 1 1 1 2 1 1 1 0 1 1 0 0 0 0 1 2 1 1 3 2 1 3 1 2 1 2 2 2 0 2 1 1 2 2 1 3 1 0 2 1 0 1 0 0 0 1 2 0 2 1 1 1 1 1 1 0 1 2 0 1 1 0 0 0 2 2 1 0 0 2 2 2 1 3 0 1 1 0 0 2 1 2 0 1 2 1 1 1 1 1 0 1 1 0 0 3 0 1 2 1 1 0 2 1 0 0 3 2 1 1 2 1 0 2 2 0 0 1 2 2 2 1 2 2 0 1 1 1 1 1 0 1 1 0 1 0 0 1 1 1 0 2 0 0 0 1 1 1 2 2 2 1 0 1 1 2 2 0 0 1 2 3 1 1 1 2 1 1 2 2 3 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 0 2 0 0 1 0 1 0 0 0 2 2 3 1 2 1 1 0 2 1 3 2 0 1 0 1 0 1 1 0 1 2 2 1 1 0 1 1 1 1 2 2 4 0 1 0 1 0 2 1 1 1 1 1 1 1 1 0 1 1 1 2 2 1 1 1 0 1 1 1 1 1 3 2 0 4 1 0 2 1 0 2 2 1 2 2 0 2 3 2 3 1 3 2 1 3 2 1 1 1 2 0 2 1 2 1 1 1 1 1 2 2 1 1 0 0 1 2 2 0 2 1 1 1 1 1 1 1 2 1 0 1 1 1 2 0 1 0 1 2 2 2 2 1 2 1 1 1 1 2 1 0 0 2 1 1 2 2 1 2 2 1 3 2 1 1 2 2 2 1 0 3 0 1 3 0 0 2 0 0 0 1 0 1 0 0 0 2 2 0 3 0 1 1 1 1 3 1 0 2 0 1 1 1 3 1 0 1 0 1 2 2 0 2 1 0 1 0 2 1 0 2 0 1 1 2 2 1 2 1 3 0 1 1 1 1 1 1 3 0 0 2 0 2 0 1 1 1 1 0 0 1 2 1 3 2 0 3 1 1 1 0 3 2 2 0 1 1 2 0 0 2 2 1 2 1 2 2 1 2 1 1 1 0 2 2 0 0 1 1 0 0 1 4 2 1 2 2 2 1 1 1 2 3 0 0 0 0 0 1 2 0 1 0 1 1 0 1 1 3 2 0 0 3 3 1 0 2 0 0 1 1 2 1 0 1 2 0 1 2 2 0 0 0 0 1 0 2 1 0 1 1 1 2 2 1 1 0 1 1 0 0 1 0 0 2 2 2 1 1 2 3 2 1 1 1 1 0 2 2 2 0 1 1 1 1 2 1 1 0 1 0 2 1 1 1 2 2 2 0 2 1 2 3 0 1 0 1 3 1 1 1 1 0 0 2 2 0 2 1 2 2 2 0 1 1 1 1 0 1 1 1 0 0 2 1 2 2 1 1 0 1 2 0 0 0 1 1 1 1 2 1 2 1 0 1 0 1 1 1 1 0 1 1 0 2 2 0 2 0 1 2 1 0 0 3 1 1 0 2 1 1 2 2 1 1 2 0 1 1 0 1 2 1 1 1 1 3 1 2 1 1 0 0 1 0 1 0 1 0 2 1 1 1 2 0 0 2 0 0 0 1 1 1 1 0 1 1 1 0 0 0 2 0 0 0 2 1 0 3 1 1 1 0 1 1 1 2 2 4 0 2 2 1 0 0 1 2 2 1 2 1 1 1 1 3 1 0 2 1 0 0 0 0 1 1 0 0 2 1 2 1 2 1 0 0 1 1 2 1 3 1 1 0 1 2 1 0 1 2 0 2 3 1 2 1 1 0 1 2 1 1 0 0 2 0 2 3 0 0 0 0 0 1 1 1 2 2 1 0 0 2 3 0 1 3 0 0 2 0 1 0 1 1 0 1 1 1 2 1 1 1 1 1 1 0 1 1 1 1 1 1 0 2 0 1 1 0 2 0 2 2 2 0 0 2 0 2 2 0 2 0 2 1 1 1 0 0 0 0 0 2 1 0 0 0 1 1 2 2 1 1 1 2 1 1 1 1 4 2 1 3 3 1 1 2 1 2 1 1 0 0 1 4 1 3 0 1 1 0 2 2 1 0 1 1 1 1 2 2 2 1 0 0 1 1 3 2 1 0 1 0 4 4 1 1 2 0 1 2 0 1 3 1 0 2 1 1 0 1 0 1 1 2 1 2 2 2 2 0 0 2 0 4 1 0 0 0 0 0 2 1 1 1 0 0 2 2 0 2 2 0 0 1 0 0 1 1 2 0 2 1 0 1 0 1 0 1 2 1 0 0 1 3 1 2 0 1 2 1 3 2 3 1 1 0 2 2 3 1 2 1 2 1 2 2 0 2 1 1 1 1 1 1 2 1 2 0 3 0 1 1 0 1 0 2 0 0 0 1 0 1 1 1 2 1 0 1 0 0 0 0 3 0 0 0 1 2 2 1 2 2 3 0 2 1 2 1 2 0 1 4 2 0 1 0 2 1 1 1 1 1 2 3 0 1 2 0 1 0 2 0 1 1 0 1 1 1 0 2 2 0 0 1 2 1 2 2 2 0 2 1 0 3 2 1 1 1 1 0 2 1 1 2 2 3 0 1 0 1 0 1 0 0 2 2 0 1 2 3 0 1 1 1 0 1 1 1 0 1 2 0 1 0 2 2 1 0 1 0 1 2 2 1 1 1 0 1 2 1 0 2 2 0 1 2 0 1 0 0 2 1 1 2 0 0 2 0 0 3 0 1 0 3 2 1 0 1 1 1 0 0 1 1 1 0 3 1 1 1 2 0 1 1 2 0 1 0 0 0 0 2 1 2 0 0 0 1 1 2 1 1 1 1 0 1 2 3 2 1 4 3 0 2 2 2 0 2 1 1 0 1 1 2 1 3 0 1 2 1 1 2 2 2 0 1 1 0 0 1 0 0 1 1 2 1 1 2 0 0 2 1 0 2 0 1 1 1 1 1 3 0 2 3 0 2 1 1 1 1 1 1 1 0 1 1 2 0 1 2 1 4 2 1 0 0 1 0 1 2 0 2 1 1 1 2 2 2 0 1 0 1 0 0 2 0 0 1 1 1 1 2 1 1 1 2 2 1 0 2 2 1 1 1 1 2 1 1 1 2 1 2 1 2 2 1 1 1 4 0 1 0 1 2 1 2 0 2 1 1 1 1 0 2 1 0 1 1 0 1 1 1 0 1 1 0 2 1 2 1 0 0 2 3 0 1 1 1 0 3 3 0 0 1 1 1 0 1 2 0 1 1 0 4 0 4 1 2 0 1 1 2 1 3 0 1 0 2 0 2 1 1 0 1 1 2 1 1 0 1 0 1 3 0 0 2 1 0 0 3 2 2 2 2 1 1 1 1 1 2 1 1 1 2 2 2 1 1 1 1 2 1 3 2 2 2 1 1 1 0 1 1 1 0 0 2 1 3 0 1 0 1 1 2 1 1 2 3 0 2 0 1 1 2 1 1 0 1 1 0 0 1 1 1 1 1 1 1 0 2 3 2 0 1 1 1 1 0 1 1 1 1 1 2 1 1 1 1 1 2 2 0 1 0 1 1 1 1 0 1 1 1 0 1 1 3 2 1 1 3 1 1 0 1 0 0 1 1 1 2 2 1 4 1 0 0 2 2 1 0 1 0 0 1 0 1 0 2 1 1 1 1 2 0 0 0 1 1 2 1 0 1 0 2 0 1 2 1 0 0 3 2 2 1 3 1 1 2 1 1 2 3 1 0 1 2 0 2 1 2 1 1 0 0 1 1 2 1 1 2 0 0 1 1 1 0 3 2 1 1 0 2 2 2 1 2 0 2 1 0 1 0 0 1 0 1 2 1 1 3 1 1 0 1 1 0 0 0 1 2 0 1 0 0 1 2 1 0 1 1 3 0 0 1 1 0 2 1 1 0 1 1 1 2 3 0 2 3 3 1 0 0 1 1 0 1 2 2 1 0 1 1 0 1 2 1 0 5 0 1 1 3 0 2 0 0 1 2 1 1 1 1 2 2 2 2 1 1 0 0 2 1 0 1 1 1 1 2 3 2 0 1 0 1 1 0 2 2 0 1 1 2 1 2 1 3 0 1 1 1 0 2 1 1 1 3 1 1 2 2 1 1 3 1 2 2 2 0 2 0 0 1 1 2 0 2 1 1 0 1 2 0 0 1 0 2 1 1 1 0 1 2 1 3 1 1 1 2 0 1 1 0 2 1 1 2 1 0 1 1 0 1 0 0 0 1 1 1 1 1 0 1 2 0 1 1 0 2 0 2 1 0 2 1 2 1 0 0 0 1 0 0 1 2 1 1 1 2 2 3 1 0 0 3 1 1 0 1 1 1 0 1 2 0 0 3 1 1 1 1 2 0 1 1 1 0 1 0 0 1 1 0 0 1 2 1 4 0 4 2 1 3 1 1 2 1 0 1 2 1 1 2 1 0 0 2 1 1 1 0 3 0 1 3 4 3 2 0 1 2 0 2 0 3 2 2 1 1 0 2 2 0 1 0 0 0 1 1 1 2 1 0 2 0 0 1 0 1 1 1 2 2 0 1 2 0 1 1 3 3 1 1 2 0 1 0 1 0 1 0 2 2 2 1 3 1 2 3 0 0 0 2 1 2 2 0 2 2 1 1 2 1 0 0 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 1 1 2 1 1 1 1 1 0 0 1 1 1 2 1 2 1 0 1 2 3 1 1 1 1 5 1 1 1 1 1 0 1 1 1 2 2 2 1 0 2 2 2 1 2 0 0 1 1 2 0 1 3 0 3 1 0 0 1 0 2 0 2 1 1 1 0 2 1 1 1 1 0 2 2 2 1 1 1 3 0 4 0 0 0 1 1 2 0 1 0 1 0 1 1 2 3 0 1 0 1 0 0 2 2 2 1 1 1 0 2 0 1 2 2 0 1 0 2 1 1 1 0 1 0 3 2 1 3 0 0 0 1 1 0 1 3 1 1 1 0 1 0 2 2 2 1 1 0 2 1 1 1 0 2 2 1 2 1 2 2 0 1 0 1 1 2 1 2 1 1 1 2 2 1 1 0 1 1 0 2 0 0 0 1 0 0 0 0 3 1 1 1 2 0 0 3 1 2 2 1 3 1 1 0 0 3 2 2 1 2 0 3 0 0 2 0 4 0 0 1 1 1 0 1 0 3 1 0 1 1 2 2 1 1 1 0 3 2 5 1 2 0 1 0 1 0 2 1 0 0 2 1 3 0 4 1 1 1 0 1 2 1 4 1 0 0 0 0 0 0 2 1 0 1 1 0 0 1 1 4 0 1 1 1 0 0 3 1 0 1 1 1 0 2 0 0 0 0 0 2 1 3 0 1 1 0 1 1 1 1 2 1 0 1 1 0 1 1 1 0 0 1 2 0 0 2 1 0 2 2 1 0 2 0 3 1 2 3 1 1 1 2 1 1 1 1 1 2 1 1 1 1 1 0 2 2 1 2 1 0 2 0 1 0 1 2 0 1 2 3 2 2 1 1 2 1 0 1 1 4 1 1 1 1 2 1 2 3 2 1 1 0 0 1 0 2 2 2 1 0 1 0 2 0 1 2 2 0 1 2 2 1 2 1 2 1 0 2 1 3 0 2 0 2 0 3 2 2 1 0 2 1 1 1 0 0 0 1 0 1 0 1 2 0 0 0 0 0 2 2 0 0 0 2 0 1 0 2 1 1 0 1 2 1 0 3 2 1 1 1 1 3 1 0 2 2 1 0 1 1 0 1 2 3 1 1 2 2 0 3 0 0 2 1 1 2 2 2 1 2 3 0 0 1 1 1 3 2 2 4 2 2 2 2 1 1 1 0 1 1 2 0 0 1 2 0 2 2 2 1 1 0 2 1 2 1 1 1 1 1 0 2 0 1 1 1 2 0 0 0 1 2 1 2 1 0 1 1 2 0 3 2 2 1 0 0 1 0 0 0 0 0 1 1 3 0 1 0 3 1 1 1 2 2 2 0 1 0 1 1 1 1 2 2 1 2 1 0 2 1 0 2 1 1 0 1 1 1 0 0 0 1 3 2 0 1 0 2 1 1 1 1 2 0 0 1 1 1 1 2 0 0 2 2 2 0 1 2 0 1 0 0 2 3 1 1 0 2 0 1 0 1 1 0 1 0 3 0 3 0 0 1 2 1 1 1 1 2 1 2 1 3 2 0 1 1 0 1 2 0 0 1 1 0 2 0 1 0 1 1 3 1 1 1 2 2 2 1 0 2 1 2 1 1 1 0 0 1 2 1 0 2 2 2 2 1 1 1 1 1 2 1 1 2 0 1 1 2 2 0 1 1 4 3 0 2 1 0 0 0 0 2 2 2 1 1 1 0 2 1 1 0 1 1 0 1 2 1 1 1 2 3 1 1 2 2 0 1 0 1 1 1 0 1 0 0 1 2 2 2 1 1 1 1 0 3 2 1 0 3 1 4 0 1 0 2 1 2 2 1 2 0 0 2 1 1 1 1 0 2 1 1 1 2 0 1 2 2 1 2 1 1 1 0 1 0 2 1 0 1 1 1 0 3 1 0 2 3 0 0 0 3 2 1 1 2 1 1 1 2 0 3 3 2 2 3 2 2 1 0 0 2 2 1 2 1 2 2 2 1 2 0 2 2 1 0 1 1 0 1 0 0 1 2 2 2 0 0 0 1 2 1 0 2 0 2 0 1 1 0 2 1 2 0 0 1 3 0 1 1 1 0 2 0 1 1 0 0 0 2 1 1 2 2 3 0 1 2 2 3 3 3 1 1 0 1 1 0 1 1 0 1 3 1 0 1 0 3 0 1 2 2 1 1 1 1 2 2 1 1 1 0 2 2 0 1 1 2 2 1 0 0 0 2 1 1 0 2 1 1 2 1 1 1 0 0 0 2 2 0 0 1 1 2 0 0 2 1 0 2 2 0 1 2 0 2 0 2 1 1 2 1 1 3 1 1 2 1 2 1 2 1 0 1 0 2 1 2 0 0 1 2 2 0 1 1 2 2 0 0 0 2 1 2 0 1 0 1 1 1 0 1 2 1 1 2 1 0 0 1 1 2 1 1 2 0 2 1 1 2 1 2 3 3 1 1 2 0 0 0 1 2 0 0 1 0 0 0 1 1 1 1 0 3 0 1 2 1 2 1 1 1 1 2 1 1 1 1 0 2 2 0 1 0 2 1 0 0 1 1 1 2 2 3 2 2 1 0 0 1 1 0 1 1 0 1 1 2 1 2 3 0 2 0 2 0 0 3 0 2 1 2 3 1 1 2 0 1 0 0 2 1 2 0 2 1 0 0 0 2 0 2 2 1 3 1 1 1 2 2 0 1 1 3 2 0 1 1 2 0 1 2 1 1 0 0 0 2 0 3 2 2 1 2 0 1 2 0 0 0 0 1 0 0 0 0 1 1 2 1 2 2 0 0 0 1 1 1 0 2 2 0 1 0 5 3 2 1 2 1 1 1 1 0 1 1 2 1 1 0 1 1 2 3 0 1 2 0 1 1 0 1 0 1 0 1 2 2 0 0 0 0 2 0 0 4 1 1 0 2 2 0 0 0 2 2 1 1 3 2 0 0 2 0 0 0 1 2 2 2 0 2 1 0 2 2 3 2 0 2 1 1 2 0 3 1 1 2 2 0 0 1 0 0 1 0 0 1 0 2 1 0 0 1 1 2 2 1 1 0 0 1 1 1 1 2 3 1 1 2 1 0 2 3 0 0 2 2 1 1 1 1 0 2 1 1 0 1 1 2 1 2 2 0 2 1 2 2 0 0 0 1 1 0 1 1 2 0 2 0 0 1 2 1 1 0 1 1 3 1 1 0 1 1 0 0 2 1 1 0 0 1 3 3 3 1 2 2 1 1 1 0 2 3 0 2 1 1 1 1 1 1 1 2 1 0 0 1 1 2 1 2 0 1 1 0 1 2 1 1 1 1 0 0 1 2 1 0 0 1 1 1 1 3 1 0 1 0 2 0 0 0 1 0 0 3 1 1 0 0 1 3 1 3 1 1 2 3 2 1 2 2 1 3 0 3 1 0 0 2 1 1 2 1 0 2 0 1 3 1 1 1 2 1 1 1 1 1 1 1 2 2 1 2 0 1 0 1 2 2 0 1 1 2 1 1 0 1 1 1 0 0 1 1 1 0 2 2 0 1 2 1 2 3 2 1 2 1 0 1 1 1 2 1 1 0 1 1 0 2 1 1 0 1 2 3 1 1 2 0 0 1 0 1 1 1 3 1 2 0 1 1 3 0 2 0 1 2 2 1 1 2 0 1 1 0 1 2 0 0 2 1 2 1 1 1 2 1 2 1 1 3 2 3 0 1 2 1 2 1 1 0 0 2 0 3 0 1 0 3 2 1 1 2 3 1 2 1 4 2 1 0 2 2 2 1 1 1 0 2 1 0 1 0 3 0 2 0 1 0 1 2 0 0 1 1 0 1 1 2 0 1 1 3 1 0 0 2 0 2 0 0 1 0 0 2 0 0 4 1 0 1 1 1 2 4 1 2 3 2 0 1 1 0 3 4 1 1 1 2 1 0 0 3 1 0 1 1 3 1 0 1 4 1 1 0 0 0 2 2 2 0 3 2 1 1 0 1 2 1 0 2 0 2 2 2 0 1 1 1 2 3 4 0 3 1 0 2 2 0 2 1 1 0 1 0 1 2 1 1 0 0 0 1 1 1 2 1 3 0 0 2 0 1 1 0 0 1 3 1 1 2 0 1 0 0 1 1 0 1 0 1 1 0 0 2 1 0 1 2 0 1 1 1 0 1 0 0 0 1 2 1 1 0 1 0 0 1 2 0 0 3 1 0 1 0 1 2 1 2 1 0 1 1 1 1 1 0 2 1 0 2 1 1 2 1 1 2 0 1 3 1 1 0 1 1 0 0 1 2 3 2 0 3 0 2 1 1 0 1 1 1 1 1 0 0 4 0 2 1 1 2 0 2 0 1 1 1 1 0 2 2 3 1 0 1 0 1 2 0 1 0 1 0 0 1 1 3 0 0 2 0 2 1 0 0 0 1 1 3 1 1 2 0 0 0 2 2 2 0 3 2 1 2 0 1 1 3 1 4 3 1 0 1 2 1 1 1 2 1 0 2 1 1 0 1 2 0 2 2 0 0 1 4 0 2 1 2 0 0 3 1 0 3 1 2 1 0 0 2 1 1 2 1 2 2 0 1 2 2 1 0 3 1 2 2 0 1 0 1 1 1 0 2 2 0 0 0 1 0 1 2 2 0 2 0 1 2 0 1 1 0 1 2 3 1 1 1 2 2 0 2 0 0 1 0 1 3 1 2 0 3 0 1 2 1 1 1 0 4 3 1 1 3 1 1 1 0 0 1 1 0 0 2 1 2 0 2 1 0 1 2 2 0 1 0 0 1 1 2 1 1 0 2 1 2 0 0 1 3 2 1 3 1 1 1 2 1 1 0 2 0 1 3 3 0 0 1 1 1 0 2 0 0 2 1 0 1 1 2 1 1 0 1 1 0 0 1 2 0 0 1 2 1 1 1 0 1 3 1 2 2 0 0 1 2 2 1 2 2 0 2 0 0 1 3 1 1 1 1 2 0 2 1 0 2 1 2 1 1 2 1 3 2 1 1 1 2 1 2 2 3 1 2 1 2 1 0 2 0 1 1 1 0 2 2 1 4 0 0 1 1 1 3 0 1 1 0 1 2 1 1 0 1 1 1 1 1 2 0 1 2 1 1 1 0 2 3 3 0 2 0 1 1 1 2 2 1 0 0 2 3 1 1 0 1 2 0 1 1 0 0 2 1 1 0 1 0 1 0 3 1 1 1 2 1 0 2 0 1 2 0 1 3 1 1 2 0 0 2 1 0 1 1 1 0 0 0 0 1 2 1 2 0 3 0 4 0 0 3 0 0 1 1 0 1 0 0 1 0 1 0 1 3 4 1 0 2 3 1 1 1 1 0 2 0 0 1 1 2 1 0 0 2 1 1 0 2 2 0 2 1 1 0 1 2 2 1 0 0 1 1 1 1 1 1 0 2 1 2 2 0 3 1 1 2 1 2 0 0 0 2 0 0 3 1 0 1 2 2 1 2 0 1 2 4 1 1 0 2 1 0 1 1 2 1 1 2 1 1 1 2 2 0 1 2 3 1 2 2 0 0 1 1 1 2 1 0 1 1 0 2 1 0 0 2 1 1 0 0 2 0 2 0 1 0 1 1 0 2 1 0 0 1 0 2 0 1 3 1 2 1 0 3 2 2 0 0 2 0 0 0 0 2 0 2 0 0 0 1 0 1 2 1 2 1 2 0 1 0 1 2 2 0 2 0 2 0 2 1 1 0 2 2 1 1 1 1 2 1 2 2 1 1 1 2 1 2 1 2 1 1 1 0 1 1 2 2 2 1 3 2 2 0 2 1 0 2 1 1 1 0 1 2 1 0 0 1 1 0 2 0 1 1 3 0 3 0 0 1 1 1 0 1 1 0 2 0 2 1 3 0 0 1 1 1 2 0 0 3 4 1 1 4 4 2 1 1 2 1 1 2 2 1 1 1 1 0 1 1 1 1 0 0 0 2 0 0 0 1 3 1 0 1 0 1 0 0 2 1 1 1 0 0 2 1 0 2 1 1 0 1 1 2 2 2 1 0 0 0 3 1 1 2 0 0 0 0 0 0 1 1 0 2 0 2 2 1 0 1 2 0 1 1 0 2 0 0 1 0 1 0 3 1 1 2 2 1 3 0 2 0 2 0 1 3 1 0 1 1 1 0 2 2 2 2 1 0 1 2 1 1 2 2 1 2 0 0 2 2 1 1 0 2 1 3 0 1 2 1 1 1 2 2 0 2 1 2 0 0 0 0 1 1 1 1 2 2 1 1 3 0 1 2 1 2 2 0 1 1 0 0 1 0 2 1 1 2 1 1 2 1 0 1 0 1 3 2 0 1 1 1 1 0 1 0 1 1 1 2 1 0 1 2 0 0 1 1 1 1 1 2 1 1 0 1 1 2 1 1 0 1 1 0 0 0 0 0 1 2 2 2 0 2 1 2 0 2 2 0 2 2 0 0 3 0 0 1 0 2 1 3 2 2 1 2 1 0 0 1 1 1 2 1 1 1 0 2 1 0 1 0 4 1 0 1 0 1 2 0 1 1 1 1 3 0 0 3 1 1 1 0 1 1 0 0 1 0 1 2 3 1 2 1 1 1 3 0 2 2 1 1 0 1 0 2 1 1 1 0 2 3 2 1 1 0 3 0 1 1 0 1 2 1 1 2 0 1 1 0 3 1 2 0 0 0 1 2 1 1 0 2 1 2 2 0 0 1 1 1 1 3 0 1 1 1 1 1 3 1 0 0 3 1 1 2 0 0 2 0 1 0 0 1 2 0 0 1 0 0 0 2 0 3 1 1 0 2 1 1 0 0 3 2 1 1 0 0 0 1 0 2 1 1 1 0 0 1 2 0 1 1 1 1 2 1 1 2 0 0 0 2 1 1 1 1 2 0 1 1 1 2 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 2 1 1 1 0 0 0 0 1 1 0 0 2 0 0 1 2 0 1 2 1 0 1 0 2 0 2 0 0 4 3 1 2 1 1 1 1 1 1 2 3 1 1 1 0 1 0 1 2 0 0 2 1 0 1 2 0 1 1 0 0 2 1 1 2 1 1 1 2 1 1 1 3 1 0 0 2 0 0 1 0 3 1 2 1 1 2 2 2 0 3 1 2 0 2 2 0 0 2 0 1 3 2 2 2 1 1 2 0 2 2 1 0 2 1 1 1 2 1 2 1 2 1 2 1 1 0 1 3 1 2 0 2 0 1 0 1 0 1 1 0 0 0 1 1 1 1 2 2 1 0 0 1 1 2 0 1 2 2 1 1 1 2 2 1 1 2 0 1 3 0 1 3 1 1 0 2 1 1 1 1 1 1 1 1 1 2 2 1 1 2 1 1 0 2 1 2 1 2 2 1 0 2 0 0 2 1 0 0 1 0 2 1 0 1 3 0 0 1 2 2 1 1 1 1 1 0 2 2 3 0 1 1 1 1 3 0 2 0 3 2 2 0 1 2 1 2 2 1 2 2 0 1 0 2 0 1 1 1 1 1 0 2 2 1 0 1 1 0 1 1 1 2 1 1 1 0 1 2 0 1 2 2 0 0 1 1 2 2 1 1 2 1 1 0 2 1 0 2 0 1 0 0 2 1 0 1 0 3 2 1 1 0 0 1 2 3 1 3 1 2 1 2 1 2 2 0 1 2 1 0 0 0 0 1 1 2 1 1 2 1 1 1 1 1 3 0 0 3 3 2 2 2 1 0 0 2 1 2 0 1 1 2 1 1 3 1 3 4 1 1 1 1 0 1 1 1 1 0 2 0 2 0 1 2 0 2 3 0 0 2 1 1 2 1 2 0 1 2 1 0 1 0 2 0 1 0 4 0 1 0 3 2 1 1 0 1 1 1 2 1 1 0 1 2 1 2 3 2 1 0 0 1 1 2 0 0 2 3 0 2 2 1 3 0 3 1 1 2 1 1 0 0 1 1 1 0 1 1 0 0 1 1 0 1 1 0 0 2 1 0 1 2 1 1 1 1 1 2 1 1 0 1 0 1 1 1 0 1 0 2 1 0 1 0 0 2 2 0 1 2 1 1 3 1 1 2 1 0 1 1 1 1 2 1 3 3 1 2 2 0 1 2 1 0 1 1 0 0 1 3 2 2 0 0 2 0 1 0 1 1 2 2 0 0 1 2 2 1 0 2 2 1 2 0 0 1 1 1 1 0 0 0 2 1 0 0 1 1 2 0 0 2 1 3 0 1 2 1 1 2 0 3 1 1 1 0 0 0 1 2 0 1 1 0 1 1 0 0 2 0 1 0 1 2 1 1 1 0 0 0 2 2 2 0 1 2 1 0 1 1 1 0 2 1 0 0 3 1 0 1 0 2 1 1 1 1 1 2 0 2 0 1 1 0 0 1 3 2 0 1 1 2 2 1 1 1 1 1 1 1 3 0 1 1 1 1 2 1 1 2 2 1 0 1 1 0 0 2 1 0 0 1 1 3 2 2 0 2 3 1 1 1 0 1 0 2 1 1 3 0 0 0 1 2 2 3 1 1 2 1 1 1 1 1 1 1 1 1 2 1 0 1 1 1 2 1 0 0 0 1 1 1 1 3 1 1 0 2 2 1 0 2 3 0 1 0 1 1 1 1 1 0 3 1 0 0 0 1 2 1 1 1 2 2 0 0 0 2 2 1 0 1 1 0 2 1 1 1 0 0 1 0 0 0 2 2 1 1 1 1 2 0 1 2 2 1 0 2 1 2 2 1 0 0 0 3 1 2 1 0 1 0 2 2 1 2 2 1 3 1 1 1 1 0 2 2 0 0 1 1 0 0 0 0 0 0 2 0 2 1 2 1 0 0 2 0 1 0 1 2 1 0 1 0 0 0 0 1 0 2 1 1 0 1 2 2 0 1 2 0 1 0 1 2 1 4 2 0 2 2 2 1 0 0 2 2 1 2 1 1 1 2 1 5 0 4 0 1 1 1 2 1 2 0 0 2 1 2 2 1 1 3 2 0 1 1 1 1 2 1 3 0 0 0 0 2 2 1 2 1 3 1 3 3 2 4 3 2</t>
-  </si>
-  <si>
-    <t>GAM(0.4932670453450114, -1.4557990413416928e-28, 0.50966250110131)</t>
-  </si>
-  <si>
-    <t>0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 1 0 1 0 0 0 0 0 0 2 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 2 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 2 0 0 2 0 0 1 0 3 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 1 0 1 1 0 1 0 1 0 1 0 0 3 1 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 2 1 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 1 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 3 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 3 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 3 2 3 0 1 0 1 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 2 0 0 0 1 1 0 0 1 1 1 0 3 0 0 1 1 2 0 2 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 2 1 0 0 1 0 0 1 0 1 0 0 3 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 1 1 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 2 0 0 0 2 1 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 0 2 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 3 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 3 0 1 1 0 0 1 1 0 0 0 1 0 0 0 0 2 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 3 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 2 0 3 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 0 2 0 1 1 1 1 0 2 2 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 2 0 2 0 1 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 3 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 1 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 3 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0 2 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 1 0 0 2 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 2 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 2 0 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 1 0 0 1 1 0 0 1 2 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 3 0 0 0 0 1 1 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 3 0 0 0 0 2 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 3 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 2 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 2 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 0 1 1 0 1 0 1 2 0 1 2 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 3 0 0 0 1 0 1 0 1 1 0 0 1 1 1 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 4 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 1 1 0 0 2 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 2 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 1 0 1 0 2 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 2 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 2 1 0 1 0 0 2 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 1 0 1 0 2 1 1 0 0 0 0 3 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 2 1 2 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 2 0 1 1 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 2 1 0 1 0 0 0 0 2 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 2 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 2 0 0 1 1 2 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 1 2 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 3 0 0 0 0 2 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 1 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 1 1 0 0 2 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 2 1 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 1 1 0 2 1 0 1 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 2 2 0 1 0 1 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 1 1 0 0 0 0 1 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 3 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 1 1 2 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 2 0 0 0 1 0 2 0 0 0 0 0 1 1 0 2 1 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 2 0 2 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 2 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 0 2 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 1 0 1 0 2 0 1 1 0 1 2 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 3 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 4 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 2 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 0 1 1 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 1 0 0 1 0 0 1 0 2 2 1 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 2 0 0 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 2 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 3 2 0 0 1 1 0 1 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 1 0 1 2 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 2 1 2 0 1 0 1 0 0 1 0 0 0 1 0 2 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 0 2 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 2 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 2 0 0 2 0 0 2 0 2 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 3 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 2 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 1 0 0 0 3 0 2 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 0 3 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 3 0 0 0 0 0 0 1 0 0 0 1 1 0 2 1 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 2 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 1 0 0 1 2 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 1 0 1 2 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 1 0 0 1 0 0 1 3 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2 1 0 1 2 1 0 0 0 0 0 3 1 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 2 1 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 0 1 3 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 4 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0</t>
-  </si>
-  <si>
-    <t>JSB(1.7867363719236673, 2.878588310627529, -72.1601626241634, 510.305046610111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117 107 71 196 135 66 131 77 131 143 118 54 106 64 108 135 95 155 122 74 67 109 85 34 131 57 66 89 16 115 171 130 77 53 73 160 130 117 109 76 39 110 55 112 144 129 99 176 80 43 78 95 180 168 128 95 36 89 81 72 123 119 130 74 92 114 142 91 120 105 71 112 76 137 128 158 91 84 101 151 114 119 125 129 81 49 48 109 82 74 113 174 104 189 116 112 150 43 86 136 105 87 155 99 48 100 87 140 159 113 69 91 134 144 32 92 78 138 106 70 97 68 135 93 67 100 23 136 79 106 26 73 59 89 110 103 117 105 72 198 41 84 126 131 90 105 157 102 109 87 103 78 58 120 81 45 80 66 135 135 105 102 186 87 144 99 75 137 83 79 105 29 138 53 110 99 99 134 28 88 130 107 89 154 116 110 134 191 90 78 155 200 116 127 137 101 29 88 179 207 119 133 86 134 115 131 96 65 93 148 62 116 28 149 73 129 134 97 133 174 126 175 82 75 60 83 134 117 79 44 54 16 99 90 38 42 173 103 80 156 178 87 59 36 91 46 105 151 135 92 109 124 158 103 64 21 197 79 110 78 128 149 56 128 149 82 131 102 112 185 97 114 45 35 102 37 100 49 115 84 57 113 140 90 137 126 107 79 92 82 188 157 83 149 205 117 122 102 87 151 166 85 59 126 57 102 94 61 77 156 128 154 103 74 114 131 52 109 102 84 93 162 71 26 86 164 73 69 25 64 147 130 120 138 140 51 167 80 83 148 95 172 174 113 162 58 84 134 50 165 137 72 43 72 125 79 89 103 120 127 114 103 87 74 60 115 197 81 125 235 69 30 108 87 182 77 149 98 37 91 145 56 129 140 86 138 131 96 95 81 50 129 138 79 130 128 62 151 169 132 113 121 58 68 145 121 47 66 61 78 132 112 57 180 106 142 104 118 114 200 44 95 153 94 123 164 96 78 116 112 80 112 25 123 278 122 128 125 211 123 125 87 43 143 133 52 110 85 74 91 75 59 123 92 92 107 112 147 116 64 130 194 199 99 151 126 63 97 120 143 111 105 57 90 169 75 56 64 105 117 99 96 133 101 114 107 94 128 45 127 117 119 119 117 123 178 64 145 101 120 158 66 88 121 114 53 71 110 143 157 63 172 132 110 101 90 106 135 81 57 138 87 83 71 107 64 119 111 98 147 144 92 100 161 154 166 130 86 102 111 63 140 29 74 70 135 128 119 119 173 71 91 140 58 105 54 148 41 91 122 118 76 180 86 138 57 83 144 23 18 123 83 140 109 111 152 85 115 139 123 86 72 110 41 111 136 67 50 66 92 100 108 77 87 138 206 166 51 11 78 66 62 142 100 130 176 108 147 46 160 50 99 141 97 71 127 127 145 96 101 69 50 60 77 71 103 82 91 101 146 155 41 75 133 160 108 148 87 80 187 71 199 101 147 117 126 110 166 45 146 106 58 81 95 104 106 147 172 186 87 102 41 63 157 127 137 78 109 151 87 83 125 137 54 57 157 148 188 135 138 120 106 165 101 133 60 102 106 75 86 192 68 148 114 165 185 139 152 93 88 155 58 35 95 81 22 70 132 47 160 148 50 70 155 92 64 164 107 152 95 26 96 128 121 180 130 92 133 96 152 134 118 53 93 125 95 152 38 185 97 77 126 111 66 133 146 158 14 81 27 87 141 87 69 116 86 81 50 143 89 172 41 94 138 116 109 141 137 106 102 68 149 122 64 92 28 162 71 149 44 120 80 48 159 123 62 95 112 55 51 105 89 87 81 96 109 81 128 82 126 53 66 112 78 152 66 148 138 116 91 31 117 122 74 119 182 143 130 86 88 66 18 117 74 92 135 122 99 108 94 81 101 69 139 80 61 94 107 214 140 59 89 103 131 65 116 79 139 64 140 53 95 81 117 88 125 49 113 98 121 171 66 131 181 125 113 57 68 58 128 25 108 178 176 74 166 136 162 96 119 155 116 103 100 115 66 83 104 123 90 108 61 74 125 92 121 75 80 149 115 79 67 122 91 96 131 74 153 91 107 82 203 118 115 183 98 128 177 130 102 29 83 50 107 93 114 51 85 88 63 127 88 107 86 200 27 40 97 157 148 34 109 79 65 122 124 149 48 62 202 131 122 99 106 117 120 98 85 111 123 161 122 112 95 93 89 87 179 74 131 110 63 89 76 79 78 120 165 116 83 53 139 95 58 110 122 119 64 142 203 149 99 63 133 113 169 67 125 128 122 108 95 88 127 117 133 100 111 128 110 156 154 124 117 163 107 108 95 163 86 140 86 107 90 111 99 118 190 79 164 104 8 117 112 21 102 127 99 117 131 87 62 93 126 101 111 110 98 171 76 104 61 154 54 69 188 139 155 196 124 76 106 18 75 127 56 64 89 127 161 152 136 138 108 129 120 80 104 136 144 116 185 141 160 72 83 110 4 112 126 120 105 134 144 134 99 31 79 84 116 87 84 176 139 31 102 88 93 64 119 43 68 141 119 92 31 86 75 125 77 132 169 119 100 150 89 35 116 144 116 84 142 141 113 152 83 29 149 107 146 147 202 108 130 84 128 144 206 91 50 41 152 135 76 177 94 143 108 78 133 141 74 125 97 169 234 84 120 56 102 61 131 117 112 61 117 70 86 122 10 131 138 153 169 97 32 143 71 152 112 69 167 126 53 127 70 130 116 90 102 123 57 142 46 68 100 111 87 118 107 172 134 137 62 149 152 100 139 179 106 85 48 146 142 85 156 123 76 50 113 43 135 97 120 113 118 161 103 78 83 52 80 64 145 41 165 108 77 87 87 53 125 149 138 163 115 96 131 75 112 105 112 77 117 109 48 101 78 148 102 132 148 158 172 106 114 126 105 143 167 129 85 123 113 163 156 154 42 85 85 69 126 109 164 124 115 96 48 75 130 53 151 90 123 49 145 170 143 166 72 84 126 124 113 121 159 98 143 145 85 65 84 109 97 132 77 164 68 123 62 47 87 168 115 117 89 109 138 100 144 98 88 149 225 109 137 134 149 38 118 52 148 83 208 43 77 142 144 123 52 98 104 83 58 22 83 72 111 153 144 102 38 95 159 149 78 145 65 146 101 131 123 84 151 125 101 162 153 218 207 142 112 94 136 77 116 65 120 142 142 120 131 187 70 78 130 124 59 130 108 154 99 93 66 39 160 68 48 90 124 135 95 40 117 77 130 242 137 50 116 85 70 54 111 62 75 164 61 121 130 105 152 103 74 130 118 61 127 124 134 83 118 150 123 45 124 204 201 113 189 122 33 100 106 124 148 64 147 108 88 78 193 126 63 40 131 70 98 46 152 55 120 87 82 180 116 109 57 7 67 104 37 79 85 48 73 49 126 59 24 149 105 172 78 83 24 147 70 190 75 57 103 83 72 52 136 22 139 48 179 50 89 131 113 94 105 93 119 113 115 101 95 76 128 154 77 66 72 39 94 160 97 117 53 108 61 164 102 66 123 94 133 187 168 65 94 36 70 34 82 161 90 83 113 130 137 103 153 87 94 181 72 204 52 90 73 9 83 94 84 52 113 190 110 116 76 83 163 127 100 147 95 97 127 76 30 68 70 137 72 126 126 60 109 163 49 112 140 160 81 117 131 88 128 83 95 140 127 114 76 154 134 84 94 61 150 99 79 120 84 133 41 132 69 80 205 69 152 33 120 78 72 49 93 76 106 120 151 200 60 83 172 110 137 70 125 91 87 92 136 63 67 46 19 79 89 127 154 128 59 99 145 58 136 32 88 153 92 101 46 116 83 92 119 77 83 178 122 92 150 109 78 131 109 108 37 129 98 41 135 138 182 90 115 134 107 154 114 63 114 158 138 92 66 115 158 95 50 114 89 54 88 60 125 131 148 114 123 134 164 32 116 114 188 59 93 115 127 118 101 136 159 71 119 126 111 69 103 101 200 76 124 69 89 51 83 171 97 127 146 79 74 40 86 146 226 146 125 84 173 98 42 52 69 78 136 90 78 114 158 64 78 38 80 59 93 109 113 138 109 127 93 98 100 73 105 87 142 84 88 90 211 128 110 51 126 108 171 93 46 78 66 33 55 131 131 126 198 146 140 73 58 47 39 120 47 112 82 113 107 76 100 90 86 99 93 101 80 120 148 143 196 54 67 101 56 125 67 54 85 115 117 75 110 48 73 127 143 149 105 78 111 106 92 97 111 146 107 117 144 79 148 121 98 94 101 173 111 84 71 65 89 130 85 92 132 115 162 123 54 92 98 111 98 152 102 94 62 102 163 142 168 74 60 134 163 26 144 68 67 109 74 119 111 75 103 91 110 140 90 122 128 69 128 94 116 49 136 96 182 103 156 78 157 29 109 40 49 67 73 80 84 128 138 100 167 118 166 46 123 56 71 124 163 82 178 128 66 95 173 162 133 83 138 94 52 116 166 120 93 109 67 127 58 116 68 114 109 131 146 96 117 204 112 118 95 76 54 160 134 29 139 109 108 72 153 165 157 53 80 110 106 152 122 31 69 151 109 91 147 85 80 136 118 43 44 119 116 144 92 65 84 129 120 107 46 183 89 75 83 96 183 92 98 67 160 82 98 125 159 83 84 142 75 154 130 129 123 76 118 65 175 44 185 146 129 56 113 78 90 151 94 82 95 121 66 120 60 116 113 133 168 102 40 71 98 109 38 94 88 119 89 116 61 167 62 139 132 71 76 173 67 105 95 84 136 112 154 118 92 85 37 136 45 134 87 89 134 154 131 83 128 119 162 101 74 184 142 77 45 94 116 103 167 121 105 152 52 66 55 106 66 85 103 72 119 92 124 74 104 126 74 113 107 118 132 106 126 150 146 111 93 73 162 173 129 167 88 94 92 110 75 152 131 246 165 111 119 32 70 168 137 110 93 77 143 103 144 43 101 145 72 128 133 76 82 79 160 158 146 132 140 56 143 117 139 99 101 79 131 61 109 47 129 95 64 108 109 144 121 69 149 106 93 90 97 70 148 83 198 135 164 188 149 130 55 97 129 118 153 97 166 193 155 107 115 113 118 54 102 115 83 95 132 64 138 16 167 123 126 61 65 10 82 86 114 128 86 108 156 73 106 91 101 134 110 101 105 96 150 127 74 139 100 116 53 73 117 99 130 94 135 117 61 122 98 77 127 52 136 59 50 200 89 124 73 158 51 143 74 95 144 80 152 217 72 143 118 93 73 74 112 195 92 162 112 96 74 205 76 173 97 76 96 147 142 61 85 119 166 80 103 74 92 125 65 176 138 139 111 123 108 93 90 141 175 81 79 177 71 120 98 201 77 130 56 98 86 113 86 153 145 37 58 155 109 144 100 122 152 89 170 134 50 122 60 105 106 149 91 127 126 40 115 120 91 69 104 129 100 125 171 149 164 217 44 119 159 145 48 96 100 82 172 71 198 137 83 38 120 24 106 81 167 129 92 234 125 140 48 71 119 169 167 149 107 80 133 99 42 59 169 144 103 93 57 114 70 73 88 85 85 126 168 205 107 77 76 133 140 125 80 38 126 138 88 124 65 107 144 150 82 72 139 102 80 116 137 200 160 36 94 115 34 136 91 127 130 138 100 76 105 126 132 108 129 96 109 103 160 101 111 127 113 196 81 166 84 153 180 114 64 107 109 50 172 157 146 60 143 178 72 81 122 122 61 161 102 88 120 200 151 75 174 160 102 79 54 77 118 69 80 140 74 94 78 52 145 121 82 169 100 156 91 182 96 128 119 78 156 80 54 92 83 101 123 95 66 53 137 36 35 111 71 81 114 64 148 167 75 33 170 186 136 38 145 99 139 116 67 120 54 66 118 110 54 110 147 128 102 123 141 109 85 76 82 136 114 132 128 159 87 49 60 150 163 114 83 119 79 106 80 85 128 125 94 135 102 132 205 73 147 137 212 116 161 120 90 99 92 30 202 154 175 138 74 105 133 51 75 141 122 80 86 114 51 68 100 128 101 115 78 117 85 200 137 117 157 104 78 116 73 166 162 123 42 100 110 130 98 123 20 45 101 105 48 138 151 42 98 119 108 178 151 82 135 29 129 62 188 108 64 114 134 111 116 171 141 111 107 122 19 119 71 101 111 146 83 65 92 116 42 136 138 116 116 56 171 124 197 149 132 116 39 110 66 105 178 105 114 139 108 102 99 98 138 44 45 104 104 85 119 186 90 63 137 71 85 98 158 193 24 168 88 94 74 104 123 91 146 61 66 153 94 167 127 137 130 97 51 64 176 154 99 201 113 64 128 107 141 100 67 133 137 106 99 73 133 66 129 125 139 88 62 126 153 207 94 139 119 257 67 111 62 125 116 104 115 146 44 187 115 82 117 81 122 70 106 94 138 150 128 147 162 52 162 73 193 112 158 125 119 135 52 133 144 232 111 56 86 45 140 104 64 83 133 48 133 97 129 121 106 96 37 61 60 116 113 83 110 118 102 23 56 117 112 105 88 77 95 130 104 129 185 160 95 91 118 135 105 174 90 135 30 46 81 130 144 119 105 44 143 147 51 116 93 79 164 162 132 129 134 88 126 136 157 38 126 97 71 101 128 88 83 63 84 151 59 91 103 72 119 48 124 140 156 48 102 153 75 80 127 144 16 151 93 160 154 110 65 105 90 200 78 125 150 74 94 97 61 125 131 130 57 100 114 58 77 163 130 50 92 80 100 147 149 138 111 110 136 143 162 88 86 109 56 84 91 87 57 50 160 202 106 107 67 156 95 128 86 105 80 113 97 54 110 142 108 88 74 139 72 103 111 49 48 157 80 123 91 168 110 173 63 70 210 152 84 66 133 167 33 102 182 95 254 102 96 87 151 76 47 157 194 65 79 113 149 80 149 147 167 109 77 98 84 128 120 148 115 143 196 95 108 132 127 121 103 129 101 130 53 168 128 115 105 126 102 67 117 54 125 178 124 110 85 140 78 82 89 138 85 110 74 58 69 100 74 142 139 103 119 102 88 107 76 82 156 99 129 179 48 120 15 166 71 146 104 90 174 136 82 102 27 121 68 75 127 70 104 158 94 31 62 87 56 87 97 61 88 163 144 136 100 81 46 93 66 140 88 189 27 95 112 165 132 46 70 83 107 99 86 27 196 107 114 84 71 152 133 154 192 158 134 69 107 92 50 84 137 163 151 198 100 159 100 88 165 85 121 45 173 104 224 126 68 69 115 58 114 133 106 87 118 156 88 119 100 145 176 144 71 89 200 77 117 115 163 106 149 72 161 87 136 27 165 116 100 125 80 170 107 127 127 70 76 88 114 117 58 104 114 99 88 65 97 72 59 115 104 102 47 57 165 175 82 133 54 135 97 58 184 128 91 85 73 140 156 135 45 28 96 164 99 125 132 73 91 69 112 61 73 62 112 76 95 103 125 63 155 114 29 85 74 157 187 121 94 131 39 84 117 182 96 110 135 138 91 65 150 79 175 146 169 109 104 111 58 176 70 146 174 147 111 87 58 99 86 124 83 71 138 93 81 96 133 86 89 57 150 165 91 119 111 90 148 102 44 136 135 88 109 71 119 70 92 112 191 184 116 210 164 87 110 205 102 114 122 149 128 170 179 200 117 120 81 170 152 58 132 127 164 78 156 183 106 96 93 57 117 126 144 115 90 205 54 85 143 111 115 121 122 120 183 65 150 128 70 99 123 73 209 136 48 31 133 56 92 160 102 107 48 125 149 51 113 76 118 102 143 92 144 82 105 114 87 88 60 117 74 81 132 72 60 204 189 94 144 168 75 99 66 90 129 153 86 133 114 134 60 164 33 93 103 109 92 111 84 85 196 108 113 139 76 99 115 74 68 74 125 201 112 68 84 115 60 82 50 59 91 86 130 84 105 166 149 83 85 81 76 70 123 185 100 102 51 105 58 151 129 23 27 105 86 131 40 96 122 67 166 98 199 178 72 147 119 165 119 99 187 64 35 197 118 90 157 134 43 79 53 128 47 71 130 24 133 77 27 132 80 132 149 129 83 84 149 136 33 130 112 135 60 99 89 99 145 74 110 106 139 128 64 101 91 54 74 65 104 164 93 88 154 70 96 99 118 155 169 45 180 87 133 100 66 98 126 84 35 110 88 112 85 135 170 147 146 138 63 145 141 141 127 154 113 114 105 72 152 106 50 62 114 127 81 95 231 154 153 211 131 85 110 99 42 103 49 68 125 174 115 116 130 71 49 154 90 53 126 107 119 114 130 113 78 98 113 86 103 144 218 50 70 152 76 118 144 65 82 86 177 98 81 158 50 98 145 81 96 181 109 119 76 111 118 127 165 95 146 75 91 137 96 196 68 176 164 97 186 61 154 160 136 86 87 69 67 116 116 92 96 50 119 123 105 83 66 120 149 101 131 115 97 140 110 59 146 135 68 126 113 77 112 96 132 110 127 163 20 50 144 98 96 97 55 82 99 119 79 116 120 105 97 197 82 109 146 151 38 61 26 61 11 132 73 58 63 62 37 114 54 123 32 136 68 147 131 53 78 137 39 133 51 102 180 19 193 152 53 94 92 138 45 114 98 97 81 102 65 136 120 116 171 112 134 130 74 101 74 127 89 210 131 117 118 88 188 132 96 76 103 126 80 91 92 101 59 47 103 110 119 106 115 99 84 85 176 86 130 44 102 117 136 128 79 55 125 168 186 154 97 105 188 167 67 195 114 204 85 86 100 112 131 121 140 65 173 100 91 100 108 166 94 194 121 143 33 86 103 48 110 88 31 168 58 179 84 51 61 93 35 157 74 60 74 70 74 99 133 38 73 133 99 142 131 60 110 80 115 176 123 177 109 87 185 84 84 96 97 127 82 164 141 58 190 122 89 119 62 56 148 113 89 76 87 203 137 81 111 60 142 137 53 98 160 89 89 133 122 23 101 140 60 165 96 125 115 140 174 80 127 115 139 136 146 86 111 86 41 102 128 84 146 147 126 172 64 140 100 166 87 117 117 137 124 47 42 114 170 150 99 80 42 91 99 124 113 99 102 155 37 140 112 68 177 117 125 116 114 108 23 81 102 76 48 90 131 87 72 112 109 121 187 88 67 130 108 59 154 168 99 93 149 84 77 74 113 136 96 277 106 150 120 154 111 129 53 141 84 94 136 188 119 152 153 109 64 69 144 71 56 118 13 141 162 78 106 76 146 39 132 121 126 76 202 194 127 33 122 61 141 149 86 166 137 95 104 130 30 163 61 128 104 126 149 123 117 136 91 142 96 42 69 102 102 187 77 123 145 96 115 104 131 91 126 128 129 48 139 91 114 104 109 134 118 93 82 55 74 86 107 118 160 44 34 69 120 115 110 107 84 151 114 119 66 53 86 81 162 106 133 68 135 109 125 100 97 111 148 139 71 152 178 101 139 70 109 63 81 133 49 137 30 47 147 113 143 93 45 163 199 59 35 86 175 162 135 133 107 31 55 191 42 158 80 108 149 112 113 99 125 114 125 175 118 164 116 110 66 129 72 176 98 122 162 133 121 107 79 84 187 44 115 169 40 110 101 120 178 128 162 135 92 82 158 64 134 104 133 94 146 57 243 68 92 168 88 96 129 111 97 76 110 62 139 105 124 152 204 112 85 89 90 72 55 81 163 47 131 166 98 99 102 72 111 39 60 136 98 95 135 200 94 148 96 112 48 137 250 85 142 51 22 81 76 127 65 217 103 47 126 147 124 166 102 76 52 134 85 134 118 82 46 97 106 89 78 118 124 73 30 101 74 93 118 92 124 123 94 187 84 79 92 67 189 108 135 64 154 115 88 123 136 62 41 149 90 88 122 79 122 64 163 94 100 141 100 113 102 58 61 59 101 137 53 49 69 91 165 64 119 118 73 173 159 156 81 86 65 118 137 90 152 116 122 47 96 128 106 153 69 138 199 113 67 207 90 167 125 161 122 140 136 148 42 133 88 129 189 74 83 60 70 41 58 148 93 159 85 76 114 123 70 90 71 152 94 128 119 134 61 86 87 168 81 137 42 103 72 123 155 125 86 62 46 79 128 86 173 100 104 77 159 121 78 60 133 133 85 72 82 209 83 114 140 114 71 107 29 117 139 122 50 132 162 126 144 91 101 76 79 87 93 64 206 105 126 117 63 148 170 105 120 157 80 115 132 146 125 173 91 108 115 127 126 122 83 40 79 77 90 98 90 117 97 98 127 141 199 118 115 32 123 60 110 150 124 156 92 81 88 118 192 106 67 171 213 76 173 164 127 90 101 77 168 116 62 130 91 67 65 51 87 81 119 127 126 84 40 155 139 98 63 58 80 101 90 70 105 99 114 164 98 172 70 105 125 98 42 90 139 59 175 75 138 31 89 91 125 157 110 100 103 88 90 89 38 105 75 51 97 87 44 110 82 78 133 86 136 102 86 91 88 169 100 69 118 90 119 138 69 15 143 167 80 145 140 158 70 157 116 131 96 86 138 144 159 112 56 134 63 91 113 108 94 67 123 106 85 195 70 102 116 151 183 100 145 38 60 61 99 59 101 98 121 122 113 130 72 16 91 131 130 91 99 39 118 105 76 81 114 95 27 95 120 81 92 133 85 79 110 107 89 98 26 151 85 110 141 117 64 71 146 85 74 148 72 97 151 160 35 131 121 79 100 98 194 96 113 136 121 127 130 129 92 68 113 150 105 124 100 95 60 151 141 116 105 48 96 127 140 163 171 153 72 49 73 101 99 82 99 85 102 57 151 125 174 72 66 120 33 79 56 111 122 129 34 108 129 43 192 106 188 156 69 83 112 111 109 142 72 174 108 121 103 78 128 79 68 160 90 118 79 141 122 130 98 140 76 18 112 131 127 37 201 126 104 101 40 113 100 141 72 52 157 203 159 100 115 116 79 63 96 124 125 100 120 55 124 164 138 153 77 152 161 173 165 114 114 74 96 159 142 147 112 150 162 63 106 82 120 95 60 101 51 137 107 32 144 142 126 116 142 92 65 90 146 98 36 94 117 152 102 76 141 102 118 181 140 79 107 103 73 105 71 125 129 99 134 114 106 145 224 63 166 81 69 107 80 122 147 161 76 87 57 173 172 129 149 84 93 58 104 150 56 116 126 104 42 109 87 124 101 122 101 60 70 106 201 62 86 168 118 86 143 120 120 90 52 29 102 112 122 110 81 47 109 148 108 161 73 268 116 80 116 45 92 129 77 104 240 114 83 69 138 82 105 71 116 60 180 53 149 154 123 126 99 103 56 103 118 139 102 100 129 38 53 77 117 137 68 88 119 75 82 119 116 101 76 92 126 181 100 89 94 82 52 95 118 85 37 166 160 109 121 118 85 91 130 116 112 167 196 84 123 118 119 62 136 81 98 178 126 51 161 48 128 152 102 134 143 107 121 66 64 87 129 83 92 72 109 116 160 127 118 145 132 48 149 104 110 111 77 178 161 162 199 137 83 153 94 73 147 77 161 95 154 97 129 124 78 202 155 145 158 58 120 127 64 139 93 69 164 79 95 66 116 79 97 113 121 42 69 57 97 96 142 197 29 87 128 65 79 114 65 107 107 76 107 111 144 107 86 94 108 116 42 160 145 116 172 131 114 101 145 93 85 121 66 54 145 19 97 102 60 111 106 134 115 145 64 40 114 77 140 70 40 96 25 74 103 117 129 44 105 76 146 102 127 116 87 161 60 129 87 177 121 132 60 99 184 162 28 105 187 71 56 54 145 120 118 96 92 125 143 62 167 136 103 72 213 114 58 123 104 171 97 162 183 118 118 134 98 72 80 63 103 81 119 53 126 53 118 96 118 214 164 62 137 74 51 100 63 82 151 153 198 95 102 71 67 141 160 95 143 218 83 111 75 59 109 77 88 170 132 57 138 70 158 106 129 96 95 123 51 110 90 127 67 101 143 63 118 111 81 75 135 123 30 183 19 75 147 41 53 135 110 66 145 109 52 69 85 130 146 46 108 99 48 76 119 97 155 76 29 104 121 61 84 62 85 84 76 100 105 95 80 82 104 77 127 112 101 106 242 96 44 133 46 103 112 103 135 59 126 144 213 55 117 162 62 131 130 61 126 198 72 57 33 103 84 169 175 66 168 44 109 193 118 58 107 156 77 80 149 57 97 111 69 96 92 128 79 162 68 154 89 157 181 131 153 103 69 134 92 82 114 82 112 128 104 133 108 140 38 184 144 139 92 149 131 152 128 162 58 107 98 106 69 62 68 139 150 94 113 133 79 100 109 100 158 74 59 109 137 174 100 106 75 133 91 127 46 70 175 98 85 42 220 124 90 151 174 85 65 163 103 140 76 193 67 152 76 61 47 196 75 93 77 61 149 91 119 118 37 179 87 149 72 100 142 149 140 102 144 165 119 79 108 86 131 159 114 105 83 88 58 55 120 25 69 129 180 184 114 113 124 88 140 82 112 51 108 86 98 132 86 131 172 173 111 50 107 76 49 94 127 193 146 146 51 58 155 174 66 175 83 92 164 126 83 150 97 79 143 105 46 233 84 153 116 87 123 125 131 138 118 131 110 70 168 62 145 87 120 120 106 87 88 58 130 87 74 84 109 103 163 96 153 128 119 73 65 66 63 64 102 118 112 113 108 48 141 146 56 99 106 74 129 93 120 79 95 193 185 201 78 150 99 118 143 93 128 197 155 116 185 120 76 130 133 39 111 88 108 90 98 78 87 69 46 188 97 105 139 62 112 142 140 69 109 118 145 123 137 109 136 97 79 141 104 179 73 142 140 128 89 133 63 87 67 126 83 78 113 137 84 170 61 134 121 100 99 64 144 56 36 141 61 143 69 126 138 163 155 70 112 88 155 140 48 55 116 126 147 96 159 92 135 104 82 128 82 115 75 114 123 101 105 100 47 92 133 165 111 183 137 104 99 174 98 63 76 188 110 72 47 115 85 189 95 181 125 127 125 74 81 99 81 128 150 125 93 123 183 113 102 204 41 109 98 110 67 82 63 111 115 124 111 81 58 93 128 101 48 126 73 18 104 81 84 144 150 71 115 111 99 120 109 81 139 109 69 105 140 193 50 129 185 21 137 144 96 132 110 97 119 128 151 56 84 154 66 78 55 92 193 100 109 131 76 136 104 114 21 108 168 215 63 121 108 86 73 78 61 152 43 140 110 112 89 90 100 81 96 90 113 188 74 129 41 123 86 125 54 78 48 96 141 55 145 162 62 142 133 117 88 143 112 124 85 55 111 150 87 134 129 194 119 59 62 141 107 95 49 124 105 106 140 169 150 176 176 131 121 117 71 96 108 94 120 139 166 193 42 128 79 73 102 115 141 47 78 125 162 118 121 93 125 121 125 194 89 25 136 115 44 72 167 82 89 108 107 70 57 90 101 115 107 100 115 100 126 126 70 85 175 117 136 75 88 95 107 65 46 147 96 114 45 82 126 80 96 85 114 131 54 90 117 70 35 48 102 85 25 68 89 117 109 152 123 140 91 186 55 54 124 111 170 176 79 118 34 111 108 60 80 36 103 149 81 183 56 104 95 111 50 93 61 134 39 143 140 136 192 121 95 155 45 71 161 130 111 130 31 158 93 67 108 67 138 170 49 154 78 63 157 51 216 144 156 95 83 57 104 53 150 95 167 156 105 115 175 66 159 160 164 106 101 149 57 60 148 68 115 206 105 77 159 83 103 126 56 44 171 37 43 106 172 115 121 127 36 70 149 94 124 103 39 94 121 101 141 100 90 137 110 132 194 152 59 102 89 150 108 144 31 89 83 62 114 87 160 97 91 89 113 90 115 184 103 125 169 148 77 125 51 123 93 97 85 75 113 81 169 68 50 120 139 115 93 160 143 143 103 81 113 177 187 178 134 74 64 87 104 81 68 34 129 81 140 44 128 151 150 91 69 200 118 149 110 179 199 126 25 63 46 184 105 145 142 167 137 90 122 136 89 114 171 144 102 101 167 128 125 115 126 113 131 174 131 83 74 55 59 53 129 121 145 89 112 120 96 108 147 144 80 106 158 149 107 116 74 156 70 130 153 105 149 60 140 68 56 140 92 110 93 125 153 95 99 53 41 168 152 76 108 168 40 155 70 73 99 60 107 125 55 125 100 129 150 131 16 119 139 76 117 79 109 62 173 77 134 89 88 130 106 142 79 67 96 64 66 177 71 146 59 126 93 98 159 122 94 91 123 59 130 115 200 134 113 148 109 96 114 115 220 146 95 83 119 139 160 156 91 72 70 83 120 107 112 100 234 83 103 34 113 149 91 41 121 86 116 127 69 99 96 91 127 107 63 34 105 53 60 134 106 112 152 100 31 86 111 79 71 112 113 71 94 89 129 107 108 93 102 84 114 50 121 118 188 112 72 193 126 54 148 101 80 167 99 119 117 101 117 134 162 64 124 75 102 138 129 70 111 73 81 80 47 182 96 169 151 144 104 144 89 92 112 97 37 131 170 61 126 127 102 159 48 91 90 102 127 124 163 76 75 32 153 50 197 133 42 100 143 122 190 26 144 92 97 153 125 184 101 77 84 144 104 99 139 170 60 66 43 96 119 72 91 139 107 142 108 155 130 127 111 184 116 95 105 127 128 140 117 62 97 135 149 79 73 109 149 52 133 119 84 150 162 69 167 102 194 134 53 74 109 126 159 107 146 104 75 112 133 145 24 68 83 84 63 162 68 82 47 119 91 175 128 30 48 100 98 111 164 48 47 73 154 82 86 161 135 151 113 53 60 81 54 114 113 89 174 81 104 128 144 77 103 114 142 115 110 185 211 88 64 120 102 66 141 95 10 112 48 39 110 32 52 155 118 81 125 135 76 95 182 109 117 89 180 70 77 124 87 88 48 138 38 85 188 145 129 61 92 95 85 101 69 177 79 153 105 54 76 149 62 150 184 189 127 137 115 75 194 144 150 57 97 138 112 178 86 112 79 171 196 133 124 182 90 95 154 97 38 132 123 42 105 162 87 107 159 72 58 71 154 79 98 99 185 137 114 73 112 111 135 56 126 43 148 120 77 133 171 64 95 57 129 158 117 132 157 102 102 113 134 75 143 195 134 119 108 104 136 136 101 122 93 145 59 102 189 125 58 171 77 88 74 29 99 115 120 119 133 44 86 132 161 89 127 111 47 129 106 111 61 91 113 148 124 86 163 179 33 126 131 129 92 101 38 131 65 71 118 99 198 68 74 68 99 83 65 73 124 131 143 186 151 141 66 158 139 179 126 107 118 126 141 139 104 164 109 79 46 109 98 134 126 125 81 180 113 110 112 110 123 137 38 71 165 79 97 66 72 104 62 68 112 131 89 116 99 134 52 123 88 72 28 145 70 129 152 69 96 91 103 116 84 136 45 89 137 87 122 145 168 149 45 100 98 127 81 110 114 164 46 81 101 99 200 119 145 130 163 154 140 160 119 69 88 139 115 147 61 73 110 100 147 55 96 113 151 155 104 79 180 106 106 109 92 112 91 51 80 55 71 101 124 66 105 80 84 168 154 75 100 106 146 111 134 80 93 82 15 182 182 83 39 62 91 87 132 142 54 135 141 156 130 95 57 82 137 156 65 116 147 68 90 32 99 199 112 90 143 124 65 139 175 125 145 43 89 80 101 77 125 62 155 110 138 93 72 86 57 85 130 110 125 53 91 76 110 64 110 117 70 189 72 173 118 173 41 140 173 102 98 89 44 94 49 161 118 82 105 144 83 151 72 136 80 118 125 110 110 102 154 88 107 96 54 172 76 114 151 151 110 138 102 180 56 94 115 126 132 175 125 147 114 150 130 139 193 119 134 101 116 159 126 109 143 40 158 64 109 45 144 147 164 79 47 78 146 90 75 84 116 100 55 137 48 55 82 68 177 126 68 130 171 138 135 136 151 72 120 84 86 131 130 129 120 97 167 128 169 100 147 119 195 108 63 169 140 191 77 50 76 136 38 22 142 162 126 80 105 77 133 136 31 165 84 129 110 115 133 73 145 44 52 94 182 33 86 69 55 135 80 131 53 125 127 97 84 115 142 125 102 125 51 147 28 123 153 19 86 85 69 71 138 76 97 71 184 68 90 78 95 86 71 166 157 107 90 84 92 105 145 102 124 127 111 97 79 37 80 74 87 57 102 110 99 146 103 45 100 72 87 131 130 112 55 174 125 100 165 68 128 93 245 99 102 87 114 94 121 110 102 136 173 84 178 47 83 72 84 156 114 131 136 85 33 96 128 147 219 41 107 132 227 145 103 72 94 81 51 99 109 78 136 97 135 59 135 93 66 106 207 109 126 128 100 115 31 66 122 158 46 145 109 67 145 114 107 147 119 95 28 119 17 99 135 124 11 100 172 64 60 45 126 108 65 89 88 215 116 92 116 68 134 41 126 105 120 124 114 158 87 158 109 79 125 79 65 60 119 163 73 93 169 201 143 25 91 104 72 130 158 48 63 70 115 174 126 42 91 56 68 142 100 96 117 99 114 143 76 98 134 143 121 145 95 163 180 38 111 77 154 84 91 123 177 30 107 105 121 115 66 110 115 82 151 98 99 133 90 54 70 129 113 101 50 148 49 40 95 79 172 59 197 90 161 88 99 124 132 114 118 53 49 113 104 103 101 118 59 54 66 124 199 84 66 136 74 107 103 64 122 109 48 41 161 123 80 144 123 82 119 178 159 48 36 115 49 143 128 21 74 160 91 104 70 105 161 60 70 80 123 149 116 73 128 86 119 113 133 132 87 140 78 136 174 107 76 110 66 95 83 110 76 130 93 114 128 138 46 68 144 207 128 137 20 66 52 157 170 113 29 144 53 166 131 100 115 82 84 57 41 130 127 86 126 94 154 77 140 81 107 162 95 94 104 111 121 65 48 70 118 63 122 71 91 128 169 158 92 81 121 108 162 98 61 125 134 86 118 99 53 87 71 153 114 194 82 69 87 129 77 144 209 112 41 95 47 134 189 108 174 71 141 87 122 79 113 153 79 121 125 125 113 151 70 165 51 65 112 157 139 113 132 85 135 112 89 84 32 150 39 109 143 47 131 110 90 43 79 125 84 160 60 115 77 92 123 39 100 123 157 136 63 186 111 180 85 79 96 66 99 47 117 167 98 127 140 49 97 72 131 153 77 177 76 157 111 84 116 109 99 94 68 67 171 87 162 140 104 100 108 27 91 127 165 123 97 115 121 152 134 84 91 98 139 92 115 105 90 108 47 97 158 67 77 104 92 158 147 112 142 160 132 72 186 64 130 150 77 124 100 97 111 93 88 147 100 149 37 100 99 122 93 92 51 77 74 123 32 111 73 149 146 88 94 115 139 16 104 142 163 100 88 129 114 139 100 77 88 134 131 101 145 127 141 81 52 187 198 117 171 193 122 148 39 55 105 44 133 127 155 132 119 117 97 129 103 147 66 129 74 106 141 124 92 117 55 76 132 102 97 85 129 178 61 58 135 77 86 195 62 117 46 82 114 118 128 192 122 94 176 107 129 117 156 61 178 157 197 91 150 130 104 75 73 108 80 154 158 153 50 52 197 76 98 139 144 143 117 87 61 110 129 208 46 72 64 171 110 78 74 61 31 148 95 124 90 160 150 146 177 77 70 208 109 134 93 42 90 107 131 131 115 126 68 128 184 109 111 101 137 138 52 121 125 50 202 102 93 106 103 156 132 97 153 55 88 81 25 98 132 132 153 130 135 79 40 207 98 67 84 78 137 193 112 65 127 112 64 95 103 137 108 53 54 90 129 121 153 82 89 62 152 62 156 132 59 180 94 91 123 177 97 144 177 91 61 96 66 148 139 95 115 130 106 59 197 101 130 101 95 79 88 38 136 131 177 62 135 148 81 91 166 104 141 106 73 88 61 134 210 151 147 91 97 85 132 43 143 116 173 108 136 112 82 40 80 90 121 147 151 111 104 61 107 183 187 123 114 70 73 138 210 44 131 148 126 166 97 69 168 106 45 123 115 86 133 111 172 57 127 173 88 89 103 157 45 164 69 58 113 93 101 112 101 85 109 157 90 149 124 67 69 102 162 162 108 86 163 55 144 113 53 69 110 83 126 86 168 200 95 104 185 168 96 83 18 101 180 173 92 126 166 142 84 98 109 145 138 148 138 121 125 111 146 52 68 120 90 108 129 20 61 59 158 99 115 80 137 111 118 199 131 153 113 58 116 152 150 131 99 104 101 126 154 118 143 128 121 43 110 126 84 104 94 225 68 102 126 81 182 198 131 60 58 173 131 141 69 175 204 164 144 116 158 116 94 74 70 130 99 81 80 103 54 92 151 119 80 107 140 52 73 124 99 111 158 64 152 134 50 164 228 52 122 87 119 111 92 162 23 51 18 86 86 136 96 142 37 95 81 138 37 85 170 158 40 132 110 75 41 71 125 133 136 91 88 121 120 83 93 119 106 103 169 108 90 91 19 84 111 69 140 176 95 88 181 26 120 158 133 95 75 55 97 215 151 125 112 141 108 154 166 102 97 137 136 126 82 86 67 154 95 145 48 52 49 91 63 100 113 88 134 84 104 175 82 156 94 117 209 111 55 108 55 165 96 52 74 96 128 126 165 92 116 67 81 82 127 55 176 115 223 102 134 166 137 87 119 112 250 93 78 45 198 65 98 111 132 63 83 85 64 38 89 36 188 141 55 102 108 84 103 74 164 207 126 138 59 120 93 59 38 79 138 150 135 107 120 68 138 94 23 114 72 85 187 160 176 84 109 150 135 180 80 75 136 104 80 38 194 161 95 103 126 138 21 174 108 89 76 33 118 44 132 53 126 131 90 147 143 109 70 135 164 75 164 95 156 96 28 163 139 145 132 131 95 68 106 82 69 80 75 45 167 80 114 84 78 106 41 103 141 95 139 72 67 120 80 138 81 178 128 88 110 69 184 167 126 63 154 154 155 146 106 68 89 146 73 58 125 113 102 164 78 96 138 89 139 123 117 76 132 181 146 166 163 119 136 137 120 136 198 214 95 151 75 70 136 60 82 147 243 105 114 70 102 107 100 134 63 133 110 121 118 118 161 139 173 56 134 83 36 164 88 85 102 84 127 98 133 108 91 270 85 113 73 158 127 104 101 107 186 97 65 180 62 84 51 150 212 156 136 49 108 98 123 149 83 89 36 152 169 163 101 126 106 142 159 45 179 69 98 47 137 86 105 97 53 79 120 76 104 121 102 74 193 39 163 42 158 99 77 90 105 170 99 92 113 113 169 5 160 138 115 153 70 134 51 49 62 94 96 55 82 79 112 121 165 113 63 144 113 141 33 147 93 163 71 70 158 180 86 154 90 98 113 150 116 81 144 88 102 135 87 96 115 75 165 168 99 123 122 63 48 100 118 91 111 99 179 76 188 71 72 86 121 132 130 86 154 112 95 113 117 97 213 129 42 136 149 210 140 45 134 86 175 185 86 211 74 61 174 142 102 152 105 57 76 158 116 69 136 128 145 184 111 128 136 169 63 113 98 148 144 153 50 70 126 106 88 79 115 173 84 91 59 189 103 149 111 76 122 105 113 96 95 114 131 192 131 114 82 107 82 114 65 155 90 133 170 114 96 138 112 129 102 105 85 164 138 99 47 62 41 100 126 76 175 147 110 129 187 122 51 153 241 148 55 208 164 120 110 166 44 34 116 45 97 91 81 62 128 117 123 143 84 117 71 126 106 125 108 37 95 81 146 148 125 54 112 89 79 45 149 101 105 175 84 134 70 88 111 94 115 161 129 54 109 110 101 119 103 100 136 129 58 54 148 93 173 114 118 88 122 102 123 94 129 149 79 88 67 81 94 134 87 84 108 116 120 80 86 152 73 93 95 63 106 158 50 80 172 105 123 70 145 130 159 145 71 155 145 95 111 179 95 134 64 157 52 71 40 103 79 143 66 79 79 180 116 100 130 69 22 104 112 162 97 112 139 170 97 115 99 187 67 76 151 84 92 151 133 173 97 125 99 50 78 145 187 54 106 96 55 64 151 112 97 95 80 160 142 74 122 141 113 163 79 85 79 80 66 73 96 62 172 139 104 108 56 130 108 124 51 154 96 50 129 103 85 181 91 34 69 121 136 128 58 87 71 165 110 83 110 82 97 117 122 113 166 169 74 88 108 92 74 128 125 81 106 65 133 188 197 108 138 194 198 75 119 114 165 141 65 152 47 92 122 133 89 159 96 76 117 110 131 105 87 77 65 79 66 95 111 47 107 97 83 140 141 136 99 120 133 81 132 69 84 63 75 88 60 63 96 157 190 194 66 106 118 14 90 197 112 172 90 87 117 99 139 94 156 221 58 135 48 63 103 196 119 151 66 163 156 123 76 137 76 95 95 96 114 131 158 107 120 96 56 105 159 87 126 88 106 142 92 85 36 107 128 163 69 87 112 81 123 64 75 82 139 121 133 69 105 162 98 40 196 143 159 190 75 110 130 91 104 81 52 105 105 86 129 128 91 145 122 128 101 159 120 127 116 209 43 172 136 76 109 69 34 33 142 55 80 132 118 111 31 145 113 136 128 98 107 88 148 43 96 75 106 144 99 124 139 104 64 87 98 93 109 109 88 72 168 77 46 114 108 159 172 22 188 98 64 170 142 141 93 146 107 122 114 204 81 84 163 135 106 78 103 62 50 45 199 112 117 95 91 121 117 126 156 96 98 97 95 66 164 134 79 89 69 65 145 64 88 99 154 81 81 75 120 55 88 183 104 52 132 91 50 104 52 108 101 58 120 140 128 94 50 161 49 92 91 28 65 35 121 119 175 117 147 63 117 67 224 107 </t>
-  </si>
-  <si>
-    <t>GAM(0.39754093803654567, -8.559260523135917e-30, 0.5822883660876037)</t>
-  </si>
-  <si>
-    <t>2 0 1 1 0 0 0 1 1 1 0 1 0 2 0 0 0 2 0 1 0 2 0 0 2 0 0 0 0 3 0 1 0 1 0 2 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 0 3 0 0 0 0 0 0 0 2 0 0 1 0 2 1 1 0 1 0 1 0 0 3 2 0 0 2 1 1 2 1 1 1 1 0 2 1 0 1 1 2 1 1 1 1 0 0 1 0 0 1 0 0 1 0 2 0 0 0 2 2 1 0 0 1 2 1 2 1 0 0 1 1 0 0 0 0 0 0 0 1 1 2 1 0 0 0 2 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 2 1 0 1 0 1 0 0 1 0 0 2 0 1 0 2 1 1 2 0 0 0 2 1 2 3 1 1 2 0 0 1 1 0 0 3 0 0 1 0 2 1 0 0 2 2 1 0 0 1 1 0 1 1 0 1 3 1 3 1 2 0 0 0 1 1 0 1 1 2 0 0 1 2 1 1 0 2 1 0 1 3 0 0 0 1 0 2 2 2 1 2 1 2 0 1 0 1 1 1 0 1 0 0 1 0 0 0 0 1 1 2 2 0 0 0 0 1 0 0 1 0 0 0 0 0 3 0 0 0 0 1 2 0 1 2 0 0 1 1 2 1 0 0 0 1 1 2 1 0 0 1 0 2 1 1 0 0 1 0 0 0 2 0 0 0 1 0 1 0 1 2 2 1 1 0 0 1 1 0 2 0 1 0 1 2 1 0 0 1 2 1 1 0 0 0 0 0 1 2 0 1 0 3 0 2 1 2 0 1 2 1 0 1 0 0 0 1 0 0 1 1 0 0 1 1 2 0 1 0 1 0 0 1 0 3 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 2 1 0 1 1 2 1 0 1 2 1 1 1 2 0 0 1 0 1 1 0 0 0 0 5 1 1 0 2 1 1 0 0 0 1 0 0 1 0 1 1 1 2 2 0 0 1 2 1 0 1 2 0 0 1 0 1 1 0 2 1 0 2 0 0 0 0 0 1 3 1 1 1 1 1 0 0 1 0 0 1 1 0 2 0 1 0 0 1 1 1 0 2 1 0 0 0 0 2 1 1 2 0 1 1 1 2 2 0 1 0 0 1 1 0 1 0 0 1 1 1 1 2 1 2 0 0 1 0 1 0 1 0 0 0 1 2 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 3 1 0 1 0 0 1 0 0 2 0 1 0 2 0 2 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 4 1 0 0 1 0 0 2 1 1 1 2 0 0 0 0 0 1 2 1 0 1 1 0 0 0 1 0 2 0 1 0 1 2 1 2 0 0 2 2 1 1 1 1 1 0 2 1 4 1 1 0 2 0 2 1 1 1 0 1 0 2 2 3 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 2 2 0 0 0 1 0 0 1 1 0 0 2 3 0 0 1 2 1 0 3 0 1 1 1 1 2 0 0 0 0 0 0 1 0 1 0 0 0 1 0 2 1 0 1 1 0 3 1 1 2 0 2 1 0 1 0 0 1 2 0 0 2 0 0 0 0 2 2 1 0 0 0 2 1 0 2 1 0 0 1 0 1 2 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 2 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 1 2 0 0 0 1 0 1 2 1 3 1 1 2 1 0 0 1 1 0 0 0 1 0 0 0 1 0 2 0 0 2 2 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 1 1 1 2 0 0 1 1 0 0 0 1 1 0 0 0 1 2 2 0 1 1 0 1 0 0 1 0 0 1 1 3 1 4 2 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 3 0 2 2 0 1 0 1 0 0 0 0 1 2 2 0 1 1 0 0 1 1 0 2 0 0 0 1 1 0 1 0 0 0 1 3 0 0 2 1 0 1 0 0 4 0 2 0 2 3 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 3 0 0 0 1 1 1 2 2 2 1 2 2 0 0 0 0 0 2 1 1 0 1 1 0 0 0 0 0 1 0 1 0 2 0 1 1 0 0 1 1 1 0 0 2 0 1 1 0 0 2 0 1 1 0 2 0 0 2 0 1 0 0 1 0 1 2 1 0 1 0 0 1 1 0 2 0 0 1 0 3 3 1 1 1 0 0 0 0 0 0 0 1 1 1 1 1 2 0 1 1 3 0 0 1 1 0 1 1 1 0 1 1 1 0 0 1 0 1 0 0 1 2 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 1 1 0 1 3 1 0 2 4 0 2 1 1 1 1 0 2 0 0 0 1 1 0 2 2 0 0 0 0 0 1 0 2 2 0 2 0 0 3 1 3 3 1 1 0 1 0 0 0 0 1 1 0 0 2 0 0 1 0 4 1 0 1 0 2 0 0 0 1 1 2 0 0 0 0 0 2 1 1 0 0 2 0 1 1 0 0 1 2 0 2 1 1 0 0 1 2 0 0 1 0 2 0 0 0 0 2 1 0 2 0 1 1 2 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 1 1 1 2 0 2 1 1 0 1 2 2 1 0 0 1 0 1 1 2 0 1 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 2 0 1 1 3 1 1 3 0 0 0 1 0 3 0 2 0 3 0 0 1 2 1 1 1 1 0 1 1 0 0 1 2 1 0 0 2 0 1 0 0 1 1 0 1 2 0 2 0 1 3 0 0 0 2 0 1 0 3 0 0 0 0 0 0 2 0 1 0 0 2 1 1 1 0 1 2 3 3 2 0 2 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 2 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 4 0 0 1 1 0 1 2 1 1 2 0 1 0 0 2 1 0 1 3 1 0 2 1 0 0 0 1 0 1 2 2 1 0 1 0 1 0 0 4 0 1 1 0 1 1 1 0 0 2 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 1 1 1 0 0 1 1 1 2 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 3 1 0 2 1 2 0 0 1 0 2 0 0 1 1 1 0 1 1 0 1 1 0 0 0 1 0 2 1 0 0 1 1 1 1 0 0 0 1 1 2 0 1 0 0 1 3 1 2 0 0 1 1 0 0 1 2 0 0 0 0 1 0 2 0 1 0 0 1 2 0 0 0 0 2 1 0 0 1 0 0 0 0 0 1 2 1 1 1 1 0 0 1 2 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 2 1 0 0 1 0 1 3 0 1 0 1 0 0 1 0 0 1 2 0 4 1 0 2 1 0 0 1 1 0 2 1 0 0 0 0 0 1 0 1 1 0 1 2 0 1 0 2 2 0 0 0 0 1 1 0 0 1 0 2 0 3 0 0 0 1 0 0 1 1 0 2 1 2 0 1 1 1 0 1 0 2 0 0 0 0 0 0 0 1 1 0 0 2 0 1 1 2 2 0 1 2 0 1 2 1 1 0 0 1 0 1 1 1 0 0 0 1 0 2 0 2 0 1 0 0 1 1 1 1 1 1 1 1 0 1 3 1 1 1 0 2 0 0 0 0 1 1 0 0 0 3 0 1 0 0 0 1 0 1 2 0 0 0 0 1 0 1 0 1 0 1 1 1 1 2 1 0 2 1 0 0 0 1 0 1 1 2 0 2 1 1 2 0 0 0 2 0 1 2 0 1 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 1 0 0 1 1 1 1 2 1 1 1 0 1 0 0 1 0 1 0 2 1 1 1 1 1 3 0 0 0 2 1 1 2 0 0 1 0 1 0 2 0 0 3 1 2 1 1 0 1 0 0 1 0 0 2 0 0 0 2 1 1 0 1 1 0 1 1 0 1 3 0 2 0 0 0 0 1 0 0 0 1 1 2 2 0 3 0 2 1 0 0 0 0 1 2 0 0 2 1 0 0 0 2 1 1 1 1 2 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 3 3 0 1 1 1 0 2 0 2 1 1 0 2 0 1 0 1 1 0 2 1 0 0 0 0 1 0 0 2 0 0 1 0 2 3 1 1 0 1 1 2 0 1 1 1 0 2 0 0 2 1 0 1 2 0 0 1 1 0 0 1 0 2 0 2 0 1 0 1 0 0 1 1 1 0 1 0 0 1 1 2 1 3 1 0 1 1 0 0 0 0 1 2 0 0 1 0 3 1 1 0 1 2 1 1 0 0 0 0 1 1 0 0 0 0 1 2 0 0 1 1 0 1 1 0 1 1 3 0 0 0 1 2 0 3 1 0 0 0 1 1 0 0 1 1 1 0 0 1 0 1 2 0 3 1 2 1 0 0 1 3 0 0 0 2 0 2 0 1 2 2 1 0 1 0 0 0 0 0 0 0 2 1 1 1 0 2 0 0 0 0 4 1 2 1 0 0 0 2 2 2 2 2 0 2 0 3 2 1 0 2 0 1 1 0 1 0 1 0 0 0 1 0 2 2 1 1 1 1 1 2 3 1 2 0 1 1 2 0 1 2 2 2 0 1 1 0 1 2 0 1 0 1 0 0 1 1 0 0 0 2 0 1 0 1 0 1 1 0 2 1 0 1 1 0 0 0 1 0 1 1 1 1 0 2 2 2 0 1 0 1 2 2 1 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 1 1 2 1 1 2 1 1 2 1 2 0 1 1 1 0 0 0 1 0 2 0 0 1 1 3 1 3 0 0 1 0 0 0 1 0 1 1 1 1 1 0 0 0 2 1 2 1 0 0 1 1 1 1 1 1 1 0 1 1 0 2 1 0 1 1 1 0 1 0 1 1 1 1 1 0 0 0 1 0 3 0 1 2 0 0 1 0 0 0 2 2 2 1 0 2 1 0 0 1 1 0 0 1 1 0 1 3 0 0 0 0 0 3 0 2 0 0 3 2 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 1 0 1 0 1 0 1 1 0 2 1 2 1 1 0 2 2 0 0 0 1 1 0 0 1 0 1 2 2 0 2 0 1 0 2 2 3 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 2 1 0 1 2 2 2 1 0 1 1 3 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 1 0 0 0 2 0 0 0 0 1 1 2 2 1 1 0 0 1 1 1 1 0 1 0 0 2 0 2 0 1 0 1 1 0 3 1 1 0 0 0 0 0 1 1 0 1 0 1 1 0 2 1 2 1 0 0 3 0 0 2 2 0 1 1 1 3 0 1 4 0 1 1 0 1 2 2 0 1 0 1 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 4 0 0 3 2 0 1 0 1 1 0 0 2 1 2 1 1 3 1 0 1 1 0 0 0 1 0 1 0 2 0 2 1 1 1 0 2 0 2 0 0 1 2 1 1 1 0 1 1 1 1 0 1 0 0 2 0 1 1 0 0 1 0 2 0 0 1 0 2 0 2 0 0 3 3 0 1 1 1 0 0 1 0 1 1 0 0 3 1 1 2 3 0 1 1 0 2 0 1 1 5 3 3 0 1 1 0 1 1 1 0 2 0 1 0 1 2 1 0 2 0 1 0 2 0 0 1 0 1 0 1 1 0 1 2 0 2 0 1 1 2 1 0 2 0 1 1 0 1 1 0 0 1 0 0 2 0 0 0 1 0 1 0 1 1 0 1 0 1 0 2 1 2 0 0 0 1 0 1 3 1 2 0 1 0 1 1 0 1 2 1 1 1 2 1 1 0 0 0 1 1 2 0 1 0 0 0 0 0 3 1 0 2 1 0 1 1 0 1 1 0 1 3 1 2 1 2 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 0 0 1 1 1 0 0 1 0 3 0 1 0 1 0 1 1 1 1 3 0 2 0 0 0 2 0 0 2 0 1 1 0 1 1 0 1 2 1 2 1 1 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 2 2 1 0 1 1 1 1 0 0 0 3 0 0 1 1 0 0 0 1 0 3 2 1 0 0 0 1 0 2 0 1 1 0 0 2 2 1 1 2 1 1 2 1 0 0 0 2 1 0 0 0 0 0 0 0 2 0 1 3 1 3 0 1 0 0 0 0 0 0 0 1 0 2 1 1 0 1 2 0 1 0 0 1 0 2 2 0 0 0 0 0 2 1 0 1 0 1 1 0 4 0 2 1 0 3 1 0 0 2 2 1 1 2 3 0 0 0 1 1 0 0 0 3 1 1 0 0 1 2 0 1 3 1 2 0 0 0 0 2 1 1 1 2 1 0 1 0 1 2 0 0 0 1 2 0 1 0 2 0 1 0 2 1 0 0 2 1 0 0 0 1 0 0 0 2 1 4 0 2 0 2 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 2 0 1 1 0 2 0 0 1 1 0 0 3 0 2 1 1 0 0 0 1 2 1 0 1 1 0 1 0 2 0 2 1 0 1 1 1 1 1 2 0 1 0 0 0 0 0 0 1 0 3 0 0 0 1 0 1 3 1 1 1 1 0 0 1 3 0 1 0 1 0 0 3 3 1 1 1 1 1 0 0 0 1 0 0 0 0 0 0 3 0 1 0 1 1 1 1 0 2 0 0 1 1 0 0 0 0 3 0 1 1 0 0 0 0 1 1 0 3 2 0 0 1 1 2 3 0 2 1 2 0 1 0 2 0 0 0 1 1 2 1 0 0 1 1 0 0 1 1 1 0 1 0 0 1 2 1 1 0 0 1 1 0 0 0 0 0 1 1 1 0 1 1 0 1 2 0 0 1 1 0 2 0 0 1 1 0 2 2 0 1 1 0 1 2 0 0 0 1 2 1 1 0 0 0 2 1 1 2 0 1 1 0 0 2 2 0 0 0 0 0 1 1 1 2 1 2 0 1 0 1 2 0 1 2 0 3 1 1 1 1 0 2 0 1 1 2 2 1 2 1 2 0 1 0 1 0 1 0 0 1 0 0 2 1 1 0 0 0 0 1 0 0 1 1 0 0 1 2 0 0 1 0 1 3 1 0 2 0 1 1 2 0 0 1 2 0 1 1 1 2 1 0 1 1 1 0 1 1 1 2 3 0 2 2 2 0 1 0 1 2 0 1 1 1 0 1 0 0 0 0 1 1 0 1 2 0 0 1 1 0 1 1 0 1 0 1 0 0 0 2 0 1 0 0 1 1 1 0 0 1 2 1 1 0 1 1 2 1 1 2 0 1 0 2 1 0 0 0 1 2 0 0 1 1 1 1 3 2 2 1 1 0 0 1 1 0 0 1 1 1 0 1 0 1 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 2 0 1 2 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 1 2 2 1 2 0 0 0 2 0 3 1 1 1 1 1 2 0 0 1 0 1 2 0 3 0 0 1 0 0 2 1 0 0 1 0 2 1 0 0 0 0 0 1 0 2 1 0 1 1 0 2 1 1 0 0 0 1 1 1 1 3 1 0 0 1 0 1 1 1 0 1 1 1 3 0 0 1 0 1 1 0 2 0 1 0 2 1 0 2 3 0 0 2 0 1 1 0 1 2 1 1 1 1 0 3 0 0 1 0 0 2 1 2 1 0 0 1 1 1 2 2 0 0 1 1 0 2 0 1 0 0 1 1 0 0 0 1 2 1 0 1 2 0 0 1 1 0 0 0 2 0 0 1 0 1 3 1 0 0 0 0 1 1 0 1 0 1 1 1 0 1 0 2 1 0 0 1 0 0 1 0 0 3 0 1 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 1 1 2 3 0 1 1 0 0 1 2 1 1 2 0 0 1 0 0 2 0 2 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 1 1 2 1 2 1 0 0 0 2 2 1 0 1 2 2 2 0 0 2 1 0 1 1 2 0 1 1 0 1 1 1 1 3 1 2 1 1 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 2 0 0 1 1 0 1 0 0 1 1 0 2 0 0 1 2 0 0 2 0 1 0 1 0 1 0 1 2 1 2 0 1 1 1 0 0 1 1 0 1 1 0 2 0 0 0 0 1 2 4 0 1 0 0 1 0 1 0 1 2 0 1 0 0 0 0 1 0 0 1 0 1 1 2 1 1 3 1 3 2 1 0 0 0 1 0 0 0 2 0 1 1 0 1 0 1 0 2 0 1 3 0 0 1 0 1 1 0 2 0 0 0 0 1 2 0 0 2 0 2 0 0 0 1 1 1 0 3 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 1 1 1 3 0 0 2 0 1 0 0 0 2 1 1 2 2 2 2 1 1 1 0 1 0 0 0 1 1 1 0 0 1 0 2 0 1 0 0 3 0 0 0 0 3 1 0 3 1 2 1 0 0 0 1 0 2 0 2 2 0 0 1 1 2 0 1 0 1 1 1 1 0 1 0 0 1 0 1 1 0 0 1 0 1 1 0 2 0 1 1 0 0 3 2 2 1 0 0 0 3 2 1 0 1 2 2 2 1 0 0 0 1 1 0 1 0 0 0 0 0 1 1 1 2 0 2 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 1 1 2 0 0 1 0 1 2 1 1 1 1 1 1 2 0 0 0 1 2 1 1 0 0 1 0 0 0 1 0 1 1 1 0 2 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 1 0 1 1 0 2 1 1 1 0 1 0 0 2 2 0 0 0 0 0 1 2 1 2 2 1 0 0 1 0 0 0 0 0 1 1 0 2 0 0 1 0 0 1 1 0 0 1 0 2 0 1 1 2 2 0 1 1 0 0 0 0 1 1 1 0 0 2 1 2 0 1 0 2 0 1 1 0 0 0 1 0 1 1 1 0 0 1 2 0 2 0 0 2 1 2 0 0 0 0 0 1 4 0 2 0 0 2 0 0 1 1 0 1 0 0 2 0 0 1 0 2 0 0 0 0 1 0 2 2 0 0 0 0 0 1 1 0 0 1 1 3 0 2 1 1 2 0 2 2 1 0 0 1 0 1 0 3 0 1 1 0 1 1 1 3 0 1 1 0 0 1 0 2 3 0 0 0 0 0 0 1 0 1 2 0 2 1 0 0 1 3 1 0 1 1 1 0 0 2 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 3 1 0 0 1 2 1 0 1 3 1 0 0 0 1 0 1 1 1 0 2 1 0 0 1 0 2 1 1 2 1 1 2 0 2 1 2 1 1 0 1 1 2 3 1 0 2 1 1 0 2 1 0 0 0 2 2 0 0 2 0 0 1 1 1 0 0 2 1 0 0 2 2 1 1 0 1 3 1 0 1 2 1 1 1 0 1 1 0 2 0 0 0 0 0 0 0 1 1 1 1 2 0 0 2 1 0 0 0 1 1 0 0 1 2 1 3 2 3 0 0 0 1 0 0 0 0 1 1 1 0 1 1 0 1 0 1 2 1 1 0 0 0 1 0 0 0 1 1 0 0 1 1 1 1 0 2 0 0 0 0 1 1 0 2 0 1 2 1 0 0 0 0 1 1 1 1 0 1 2 1 1 0 0 1 0 1 2 1 0 2 1 2 0 2 0 1 0 0 2 1 1 1 0 0 1 1 2 0 1 1 1 2 3 0 1 2 1 1 1 0 0 0 0 1 1 1 1 1 0 1 2 1 1 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 2 1 0 1 2 0 1 2 2 0 0 2 1 1 1 1 1 1 2 1 0 0 2 0 1 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 2 2 2 0 0 2 0 0 0 0 1 1 0 1 1 1 1 1 3 0 0 0 0 1 0 1 1 1 1 1 1 0 0 1 0 2 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 3 1 0 3 2 0 3 0 1 0 1 1 2 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 0 2 1 4 3 2 0 2 0 1 0 0 2 1 0 0 2 0 0 1 0 1 0 3 0 0 0 0 3 0 0 0 2 1 0 3 1 0 0 1 0 2 2 1 0 0 0 2 1 1 2 0 0 3 0 1 1 1 0 1 1 0 2 1 0 1 3 2 1 2 0 0 0 2 0 0 0 1 1 0 0 0 0 0 2 0 0 2 1 1 0 2 1 0 0 1 2 1 0 0 0 1 2 2 1 0 0 1 1 0 2 0 2 1 0 1 0 0 1 0 2 1 0 1 0 2 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 1 1 1 0 0 1 1 1 0 0 1 1 1 2 1 1 1 0 1 3 1 1 0 1 0 0 2 1 0 1 2 1 1 1 2 1 2 1 1 3 1 2 0 1 2 0 1 0 0 3 1 1 1 1 0 2 1 0 2 1 1 0 0 0 1 1 1 0 1 0 4 0 0 2 1 0 1 1 0 1 1 0 2 1 3 0 0 2 0 0 1 2 3 0 1 3 0 0 0 0 0 0 1 1 2 1 0 1 1 0 1 0 0 0 2 0 0 2 3 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 3 1 1 1 1 0 3 0 2 1 0 1 1 1 0 0 2 0 1 1 0 1 0 0 1 0 0 3 2 1 2 1 0 1 1 0 1 0 2 0 2 1 0 0 0 0 0 1 1 0 2 0 1 0 1 0 1 1 1 0 1 3 0 1 2 1 0 0 0 1 0 1 1 1 2 2 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 1 0 0 1 1 0 3 0 1 0 0 3 0 0 1 0 0 0 0 1 1 0 1 1 0 0 2 0 1 0 0 0 0 0 0 1 1 1 0 1 2 1 2 0 0 1 2 0 1 2 0 0 0 1 0 0 0 1 1 1 0 0 3 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 1 2 0 0 0 2 0 0 0 0 2 1 0 1 1 3 0 1 1 0 1 0 0 0 0 1 0 1 0 1 3 1 0 0 2 0 0 0 1 3 1 0 0 0 0 0 1 1 1 2 0 1 2 1 1 1 1 0 0 1 1 0 3 1 1 0 0 1 0 0 2 0 0 1 1 1 1 0 2 1 0 2 2 0 0 1 0 1 0 0 1 3 1 0 1 1 1 0 1 0 0 1 0 0 2 1 0 1 0 0 1 2 2 2 2 0 0 0 0 0 3 1 0 1 0 1 1 0 0 2 0 0 0 3 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 0 3 0 1 0 0 2 2 0 0 0 1 1 1 1 2 0 0 0 1 2 0 2 0 2 0 2 3 1 1 1 1 0 0 2 0 0 2 1 1 1 1 0 0 1 1 2 0 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 2 0 1 1 0 1 1 0 1 1 2 2 2 0 1 1 0 0 0 0 0 0 3 0 0 2 1 1 4 1 1 0 1 0 0 1 1 1 1 0 1 0 1 4 1 1 0 0 0 2 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 0 2 0 0 0 1 1 0 0 3 1 0 2 0 1 0 2 1 1 2 1 2 0 0 1 2 0 1 1 0 1 0 0 1 1 0 1 1 0 0 0 1 1 1 0 0 2 0 0 1 0 2 0 0 2 1 1 0 2 1 1 0 1 0 0 1 1 1 0 2 1 1 1 0 0 2 1 0 0 2 0 0 1 0 3 0 1 1 4 0 0 0 0 0 2 0 0 1 0 1 0 2 0 2 1 1 1 1 1 0 0 0 2 0 0 1 1 2 1 0 0 1 2 1 0 0 0 1 2 1 0 0 2 0 2 1 1 0 1 1 0 0 1 1 1 2 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 1 0 3 0 2 0 2 0 0 0 0 0 1 1 1 1 4 0 0 3 1 0 0 0 0 0 0 0 0 2 0 0 2 1 0 2 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 1 2 0 1 0 1 0 0 1 1 2 1 2 1 0 1 0 0 2 0 0 1 2 2 0 0 1 0 0 2 0 1 3 0 1 0 2 1 0 0 0 1 1 1 2 0 0 2 0 1 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 1 2 0 2 1 2 1 1 0 2 2 1 1 0 0 0 0 1 1 2 2 2 0 2 0 0 1 0 2 1 1 0 1 3 0 1 1 0 1 1 0 0 1 1 1 2 2 1 1 1 1 0 0 0 1 1 0 1 1 0 0 0 0 0 1 0 3 0 1 0 0 0 0 3 2 2 0 0 1 0 0 0 1 2 0 2 1 1 0 0 0 0 0 0 1 3 0 1 1 1 0 1 1 0 1 1 2 2 1 1 1 1 2 0 2 1 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 1 2 0 1 0 0 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 0 0 1 1 3 1 3 0 1 0 2 1 1 0 1 2 1 0 2 0 1 3 2 1 0 1 1 0 1 0 0 3 1 0 1 0 1 2 0 0 2 0 0 1 3 0 0 1 0 0 1 0 0 0 1 2 1 0 1 0 1 2 1 1 0 0 2 1 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 1 1 2 1 0 1 0 0 1 1 1 1 0 1 0 2 0 1 1 1 0 0 2 1 1 1 0 1 1 2 1 1 0 0 2 1 0 0 0 0 2 2 1 1 1 1 1 0 3 1 2 0 3 1 1 0 0 0 2 1 2 0 2 1 1 0 1 1 0 1 0 0 3 2 2 0 1 2 1 0 0 0 1 0 0 0 0 3 1 1 1 0 0 1 1 1 1 0 0 2 1 2 2 0 2 0 1 3 1 0 0 1 1 1 0 1 1 1 0 2 0 0 1 0 1 1 0 1 1 0 3 0 0 0 0 1 2 0 1 0 2 0 0 0 1 0 0 0 1 3 0 0 0 1 1 1 0 2 2 0 0 2 0 0 0 1 1 0 1 1 0 2 0 2 0 1 0 0 1 5 1 1 1 2 1 1 1 1 0 0 0 0 1 1 3 0 1 1 1 1 2 1 2 2 1 0 0 1 0 1 0 1 1 0 3 0 0 1 1 1 1 0 1 1 1 0 1 0 0 2 1 1 0 0 0 0 0 1 0 2 1 1 1 1 1 1 1 0 1 2 2 0 1 0 0 1 0 1 0 1 1 0 1 0 2 0 2 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 2 0 1 1 0 1 0 0 3 0 1 1 0 1 0 0 2 1 1 0 0 2 0 1 2 0 0 2 0 1 1 0 1 1 2 3 0 0 0 0 0 2 2 0 0 2 2 3 2 1 0 1 0 0 1 2 1 0 0 0 1 0 1 0 0 0 2 1 3 0 0 0 0 1 0 1 1 1 1 0 1 3 0 0 0 1 0 1 0 2 2 1 1 0 1 1 1 1 2 0 2 0 0 1 0 1 1 0 2 1 0 0 1 1 1 0 2 1 0 0 1 2 4 2 0 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 1 2 0 1 2 1 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 1 1 1 2 0 1 0 1 1 0 2 1 0 2 1 1 1 2 0 0 1 0 2 0 1 1 1 0 0 0 1 0 2 0 0 1 0 2 1 1 0 0 1 1 2 1 0 0 2 5 1 1 0 1 0 2 1 1 1 0 0 0 1 0 1 3 0 2 0 2 0 1 2 2 0 0 0 2 0 2 0 1 1 1 1 0 0 1 0 0 0 1 2 1 2 1 0 1 2 1 0 1 1 2 0 0 1 0 1 0 1 0 2 0 0 2 0 0 1 1 1 0 0 0 1 2 0 2 0 2 1 1 2 1 1 0 0 0 1 0 0 1 1 3 1 1 0 0 1 2 0 2 0 0 3 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 1 2 3 0 1 1 1 0 0 0 0 3 2 0 0 0 1 0 0 1 0 2 0 2 1 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 2 0 0 0 0 1 0 1 2 0 0 0 0 0 1 1 1 0 1 0 0 2 0 2 2 3 2 0 0 0 0 0 0 0 0 0 0 1 2 2 1 1 0 0 1 1 2 2 1 0 2 0 1 2 0 1 0 1 0 1 1 2 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 2 0 1 1 0 1 0 0 0 1 0 0 0 1 0 2 1 4 0 0 0 0 0 0 1 1 0 2 0 2 1 1 0 0 1 3 1 3 1 1 0 0 1 1 1 0 1 0 0 1 2 1 1 0 0 0 0 0 1 0 1 0 0 2 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 1 1 1 0 1 3 1 1 1 0 2 1 1 2 0 0 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 1 0 2 2 2 2 1 1 2 0 1 0 0 0 1 0 0 1 2 1 1 1 2 1 0 2 1 1 1 1 0 2 0 2 0 2 3 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 1 2 0 0 2 3 1 0 0 0 1 1 1 1 1 0 0 1 1 1 1 0 1 1 1 0 0 0 2 0 0 0 1 3 0 0 0 0 0 1 2 2 0 0 0 1 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 2 0 1 0 2 0 1 0 1 1 1 1 1 0 2 0 2 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 2 1 0 2 0 0 2 3 0 0 3 1 0 1 2 1 0 1 0 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 1 0 1 0 1 1 0 0 1 1 0 2 2 0 2 1 2 0 2 0 0 1 0 1 1 1 1 1 0 1 0 0 1 0 1 2 0 1 0 0 0 1 0 0 1 1 2 0 2 3 0 1 3 1 0 0 0 1 0 0 0 1 1 2 0 0 0 1 1 4 2 0 0 1 1 3 3 3 0 1 0 0 0 0 0 1 0 1 0 2 0 1 0 0 2 1 0 0 0 0 1 0 0 2 2 0 0 1 1 2 0 0 1 0 1 0 0 0 1 0 0 0 2 2 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 2 1 1 0 0 2 1 1 0 2 1 0 0 1 1 0 1 2 1 1 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 2 0 0 0 1 1 0 0 3 0 1 1 0 1 0 0 1 0 0 1 1 0 2 3 0 0 3 1 1 1 0 1 2 0 0 2 2 2 2 2 1 1 1 1 0 0 0 0 2 1 0 0 2 1 0 0 0 1 1 1 0 2 1 0 0 1 0 2 1 0 3 0 1 0 1 1 0 0 2 0 2 0 1 0 1 0 1 1 1 1 0 1 1 1 1 0 0 0 1 3 1 0 1 0 1 1 0 1 1 0 2 0 0 0 1 1 0 1 0 1 1 1 1 3 1 0 0 1 0 1 1 0 1 1 1 0 1 1 2 1 0 1 0 2 0 0 0 1 0 1 3 1 1 2 1 0 1 2 0 1 1 0 1 0 1 1 1 0 1 2 1 2 0 2 1 0 1 1 1 1 1 0 3 0 1 0 2 0 2 0 1 0 0 0 2 1 1 1 3 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0 1 2 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 3 1 0 2 0 2 0 1 1 0 0 0 0 0 1 2 3 1 0 1 0 0 0 0 2 1 1 0 0 1 1 2 1 0 1 1 2 1 3 3 0 0 0 0 0 0 1 0 3 2 0 1 2 0 1 0 1 1 1 0 1 1 1 1 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 1 2 1 1 1 2 0 2 0 0 0 3 1 1 0 0 0 0 0 0 1 2 3 2 0 0 0 0 0 1 2 1 2 1 2 1 1 0 1 1 1 0 1 2 0 1 1 1 1 0 1 1 1 1 0 3 1 0 0 1 0 0 1 2 0 1 0 1 0 0 0 0 2 0 2 0 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 2 0 0 1 1 1 0 0 1 1 2 2 1 1 1 0 1 1 0 1 0 0 2 0 1 0 0 0 1 0 1 1 1 1 1 0 1 1 1 1 2 0 2 0 0 0 1 1 0 0 1 0 0 0 1 0 1 3 2 1 2 0 1 0 0 0 1 1 2 0 3 1 1 1 1 1 3 1 1 0 1 0 3 1 2 0 0 0 1 0 1 2 0 3 1 0 2 2 2 1 2 1 0 1 1 1 0 0 2 1 1 1 0 2 1 2 0 0 1 0 1 0 2 0 1 1 0 1 1 0 1 1 0 3 0 0 3 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 2 0 1 1 0 0 0 3 0 1 2 1 0 1 0 0 1 0 0 1 0 1 2 0 1 0 2 1 3 1 1 1 0 0 1 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 4 1 0 1 1 0 1 2 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 1 1 0 4 0 1 3 2 1 0 0 1 1 0 2 0 0 0 1 1 2 1 1 1 2 2 0 2 0 1 1 0 0 0 1 0 1 1 2 1 1 1 1 0 1 2 0 1 1 3 0 1 1 1 3 1 2 0 0 0 2 2 0 0 2 1 0 1 1 2 1 0 1 1 0 0 0 2 2 1 1 0 0 2 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 1 0 2 0 0 0 1 0 0 0 1 1 0 3 1 0 0 1 2 0 1 1 2 1 1 1 0 0 0 1 0 0 0 2 0 0 0 0 1 1 1 0 0 0 2 2 0 0 3 0 2 0 1 0 3 1 2 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 2 1 0 0 2 1 0 1 1 3 0 0 2 3 0 0 0 0 1 0 0 0 1 1 2 1 0 0 0 0 0 0 1 1 3 1 0 1 0 0 0 1 1 2 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 2 0 0 0 0 1 1 1 1 2 2 0 2 0 0 1 0 2 2 0 0 2 0 0 1 0 1 1 0 0 1 2 0 1 1 1 1 0 1 1 3 1 0 2 0 0 1 0 1 0 1 2 0 1 0 0 1 1 1 1 1 2 0 0 1 0 0 1 1 1 1 1 0 0 2 0 0 1 0 4 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 2 0 0 0 1 2 2 3 2 1 0 2 2 0 1 0 1 1 1 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 1 0 2 1 1 1 0 2 1 3 1 1 1 1 2 2 0 3 0 1 1 0 1 2 1 1 1 2 2 0 0 1 1 0 2 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 1 2 1 1 2 2 0 0 0 1 1 1 0 0 1 1 0 2 0 1 0 2 0 2 1 2 1 3 3 1 0 0 0 1 1 3 1 0 1 0 3 0 1 0 0 0 1 0 0 0 1 1 1 0 2 1 1 0 1 0 0 0 2 1 0 0 0 3 0 1 1 2 2 0 0 1 0 2 2 0 0 0 0 1 0 0 1 3 1 1 0 0 1 0 0 2 1 2 1 2 1 1 1 2 2 1 2 0 1 0 0 0 2 0 0 0 1 0 1 2 0 2 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 2 1 3 1 0 1 0 0 1 2 1 1 0 1 3 2 2 0 1 2 1 2 0 1 1 1 1 1 1 2 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 1 0 2 1 0 2 1 1 2 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 2 1 3 0 1 1 2 2 0 2 2 1 0 1 0 0 0 0 0 0 1 0 0 1 2 2 0 2 1 0 0 2 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 2 2 2 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 1 1 1 2 0 1 1 0 2 0 0 1 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 1 1 0 1 0 2 0 0 2 1 2 1 0 3 1 3 0 0 0 1 1 1 2 1 0 0 1 2 0 0 0 0 2 0 0 1 1 1 1 0 0 0 0 1 1 3 0 0 0 2 0 0 1 0 0 1 0 3 2 0 2 1 2 1 0 2 0 0 2 0 1 0 1 1 1 2 1 0 0 1 1 0 1 1 0 0 3 1 1 1 1 1 2 1 4 2 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 1 4 2 0 1 1 1 3 0 0 0 1 1 2 0 0 1 1 1 0 1 2 1 2 1 2 3 0 0 0 0 0 1 1 0 1 2 1 2 1 1 0 0 1 2 0 0 1 1 2 1 0 1 1 1 0 0 0 1 0 0 0 2 0 0 2 0 0 0 1 1 0 2 2 2 1 2 0 2 0 1 0 2 0 0 0 1 0 0 0 2 2 1 1 1 1 0 0 1 4 1 2 0 1 0 1 2 0 1 2 0 1 0 0 0 2 1 2 0 1 2 1 0 1 1 1 1 1 1 3 3 1 0 1 1 0 1 1 1 0 2 1 1 0 1 1 1 2 1 0 0 0 1 1 0 1 3 0 3 0 1 2 1 0 2 1 1 2 0 1 3 0 0 1 0 1 0 0 0 0 1 0 1 2 0 2 1 0 1 0 0 1 1 0 1 1 0 0 1 0 1 1 1 2 0 2 2 2 0 0 1 1 1 0 0 0 1 3 2 1 0 0 1 2 0 1 1 0 1 0 1 1 0 0 1 0 1 0 1 1 0 0 0 2 0 2 0 1 0 0 1 0 0 2 1 1 1 0 0 0 2 0 2 3 1 2 0 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 3 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 3 1 0 1 0 0 0 1 2 1 2 0 1 1 0 0 0 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 2 1 0 2 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 2 0 0 0 2 0 0 0 0 0 0 1 0 3 2 0 0 2 0 3 0 0 0 2 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 3 1 0 0 2 0 1 0 1 0 0 0 1 1 2 1 1 0 3 2 0 1 0 1 0 0 0 0 1 1 1 1 1 2 1 1 0 1 0 0 0 1 0 0 1 0 2 1 0 0 0 0 2 0 0 2 2 1 0 1 0 0 1 0 1 1 0 0 1 1 1 1 1 0 1 0 2 1 0 1 0 1 1 0 0 0 0 0 1 1 2 1 2 0 0 1 0 2 2 0 0 0 0 1 1 0 1 1 2 0 1 0 1 2 0 0 0 0 0 1 1 1 1 1 2 0 2 0 1 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 2 0 0 0 2 1 0 2 1 1 1 0 0 3 1 1 2 0 0 0 1 0 0 0 2 0 0 0 1 2 0 1 1 0 1 0 0 0 2 0 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 2 2 0 2 0 1 0 2 1 0 4 0 0 0 0 1 1 2 2 0 0 0 0 1 1 1 1 1 0 1 0 0 0 1 2 0 2 0 0 1 1 2 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 1 2 0 0 0 0 2 0 2 0 0 2 0 1 1 0 0 3 1 0 1 1 1 0 2 0 0 3 1 2 3 1 1 1 1 1 1 0 1 2 1 0 2 0 0 1 1 0 1 1 0 0 1 3 1 2 3 2 0 0 1 1 0 0 0 0 0 0 2 0 2 1 0 1 1 2 0 1 2 2 1 1 1 0 1 0 0 0 0 0 1 0 3 1 1 0 1 1 1 0 0 0 1 1 0 0 1 1 3 1 2 1 1 1 1 0 0 0 0 1 0 1 3 1 0 3 2 0 2 2 1 0 2 3 0 0 0 2 0 0 0 1 2 1 1 1 1 1 0 1 1 0 0 2 1 0 0 1 0 1 3 0 1 1 1 0 0 0 1 0 0 0 2 2 0 0 1 0 2 3 0 0 0 1 2 0 0 1 0 4 2 0 0 1 1 2 0 3 2 0 1 1 0 0 1 0 3 1 1 1 0 1 1 2 2 0 1 2 0 0 0 1 0 1 1 1 0 1 0 3 0 0 1 0 0 1 0 2 2 1 1 1 2 1 0 1 2 1 2 1 1 1 1 0 0 1 0 0 1 2 0 1 1 1 0 1 1 0 2 2 0 0 1 1 2 2 4 0 0 1 1 1 1 1 1 2 0 0 0 1 1 2 2 1 0 1 0 2 0 0 1 0 1 2 0 0 0 0 2 0 0 1 0 0 0 0 2 0 2 0 0 3 0 1 1 0 2 0 0 0 2 1 1 0 1 1 1 1 0 1 1 1 2 0 1 0 1 1 0 1 0 0 2 2 1 1 1 2 0 0 1 0 0 1 2 0 1 3 3 0 0 1 1 1 2 0 1 0 3 2 0 1 1 1 0 0 0 0 0 0 1 1 0 2 0 1 0 1 1 1 1 1 0 0 0 2 0 0 3 1 0 1 0 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 1 0 2 1 0 2 0 2 2 2 2 0 0 1 4 0 0 2 0 2 0 1 0 1 0 0 1 1 1 1</t>
+    <t>JSB(2.0236896069701067, 3.0959757635902845, -18.613229795223795, 102.45013924492775)</t>
+  </si>
+  <si>
+    <t>13 31 19 10 15 3 23 20 20 13 14 14 20 6 10 17 13 10 14 10 27 20 26 10 7 29 23 22 16 21 13 6 8 19 13 10 26 14 17 15 16 12 20 37 14 21 14 27 6 20 27 13 20 24 13 17 18 28 15 24 9 19 9 3 13 28 38 6 13 19 9 28 10 10 14 17 0 0 17 22 10 20 3 31 21 23 27 21 30 9 38 3 9 6 10 17 3 20 7 23 10 17 23 16 17 13 6 26 27 24 6 6 19 3 21 23 21 14 14 26 13 11 28 24 33 10 10 13 13 28 12 25 16 14 34 12 7 20 16 31 15 10 28 12 13 23 20 10 19 17 16 6 17 19 30 3 15 20 14 17 14 23 20 13 20 21 12 9 13 0 14 21 20 20 28 6 20 6 11 9 45 27 20 10 16 19 7 22 17 20 20 14 20 16 20 19 16 18 13 5 17 16 17 25 13 0 23 10 20 34 20 13 23 16 6 13 7 19 23 7 22 12 9 16 14 17 13 17 22 24 34 13 16 19 10 26 22 3 23 10 28 10 23 31 9 7 20 3 10 27 13 14 14 17 9 18 20 17 20 36 20 7 17 38 13 17 9 17 19 14 10 20 27 27 23 12 16 22 12 24 13 17 16 9 17 14 3 9 14 10 20 13 21 24 16 12 24 30 40 14 6 24 20 27 16 31 17 6 22 30 20 27 10 21 21 21 34 29 10 17 27 23 10 14 7 30 20 14 20 8 15 20 21 19 6 23 23 13 26 21 10 20 27 20 16 17 16 20 9 13 17 20 29 20 20 30 10 20 14 20 14 6 26 6 21 15 20 15 17 20 17 12 13 25 23 20 17 21 26 20 7 20 13 18 38 23 24 6 10 10 14 27 27 13 14 22 17 13 23 14 30 17 7 20 16 3 13 22 17 24 14 15 42 23 19 37 17 20 21 14 20 15 17 9 13 27 17 19 12 6 28 26 13 10 22 6 35 11 13 3 3 9 16 13 35 13 31 13 10 23 13 30 22 35 30 17 34 27 18 9 21 38 17 22 24 31 27 13 10 16 10 3 16 3 27 10 20 24 22 14 10 16 16 23 24 15 16 18 3 13 9 24 6 10 19 30 17 31 26 20 15 7 31 17 16 17 13 14 9 3 21 24 23 20 3 3 14 9 10 25 23 10 17 26 25 24 20 10 15 27 23 36 27 20 16 19 10 13 19 16 19 24 13 6 3 20 25 16 3 19 21 17 26 14 24 20 9 15 25 17 10 23 20 14 17 21 0 20 13 21 13 10 0 31 3 19 14 21 21 17 22 29 16 13 3 9 27 6 27 28 20 13 17 27 7 10 17 6 13 6 7 19 14 8 17 8 24 17 9 15 17 20 21 10 13 22 15 19 10 19 10 8 21 13 6 26 21 20 23 16 16 14 14 42 15 23 20 16 10 6 14 24 25 27 28 17 20 27 10 31 13 24 14 3 28 10 9 10 20 13 17 20 12 9 17 9 22 13 0 6 9 16 3 13 10 3 14 20 14 16 7 16 20 26 8 13 13 27 17 14 3 17 30 13 20 8 19 12 27 3 24 14 10 14 13 12 10 16 11 10 13 17 20 17 22 10 9 20 14 12 16 12 12 17 36 9 9 10 16 20 16 24 21 6 14 17 15 20 6 3 38 6 13 16 6 17 6 8 13 10 10 6 20 23 34 17 20 23 24 20 13 21 17 16 6 20 6 20 3 10 14 16 0 10 16 10 23 16 7 10 20 17 20 24 14 3 16 21 24 24 3 10 7 16 13 22 19 27 28 29 7 24 23 30 7 10 13 0 23 17 15 17 16 24 13 17 20 12 10 24 14 13 13 22 24 20 20 3 24 9 39 18 17 13 17 17 17 26 20 25 6 20 13 14 6 14 17 13 13 13 10 23 17 6 20 3 17 18 12 7 10 7 10 27 25 38 24 33 16 27 22 17 34 20 13 10 20 10 21 20 22 19 17 19 24 7 20 17 7 19 34 23 6 19 24 7 12 16 6 22 14 20 17 17 10 23 13 20 13 21 21 16 10 13 10 41 20 3 13 17 0 31 21 17 26 8 20 13 24 14 28 14 14 14 13 3 26 7 13 20 13 29 9 6 23 6 12 17 13 17 28 0 20 10 20 35 9 21 24 14 16 26 9 13 26 20 24 15 24 19 20 6 10 21 17 10 16 10 20 20 9 13 9 15 17 17 9 17 5 13 14 19 20 13 10 14 23 28 24 28 16 9 13 16 10 17 9 13 14 23 13 20 20 13 24 25 30 8 14 3 6 26 13 24 13 14 14 7 27 21 27 13 9 14 24 51 24 26 27 10 31 20 18 20 15 27 17 7 14 17 14 14 16 16 12 38 24 36 24 27 10 23 16 16 24 6 17 14 7 24 17 10 27 14 14 16 17 9 31 17 20 23 30 7 24 24 14 23 10 27 23 21 24 15 27 13 10 31 22 13 17 21 34 10 14 6 25 28 14 10 24 7 14 24 26 14 13 24 24 24 16 22 22 31 9 17 13 12 29 10 13 6 13 8 6 13 13 13 16 17 20 14 13 23 28 24 13 24 5 13 21 19 13 9 20 10 10 17 23 17 20 15 21 13 31 0 16 27 20 10 10 20 13 12 31 24 10 17 13 20 13 16 31 10 12 19 30 7 12 24 20 3 14 13 24 10 15 19 22 27 11 15 10 30 13 7 14 23 3 24 24 27 9 23 21 19 18 26 14 3 13 19 22 20 7 13 20 26 28 22 8 6 17 17 22 31 14 13 10 17 15 16 21 21 17 20 12 24 17 31 6 20 30 35 13 23 14 31 13 17 3 3 23 13 20 10 10 25 14 7 24 17 6 15 14 31 14 12 19 7 19 30 10 13 20 16 12 17 14 28 9 7 11 20 14 19 24 0 28 22 25 15 6 24 15 14 20 20 16 7 22 15 24 10 16 14 17 11 3 9 6 14 19 9 23 7 14 20 16 7 7 20 21 12 6 37 13 7 6 23 14 8 18 27 12 13 44 9 30 17 9 18 16 21 21 20 17 12 14 17 15 17 24 27 16 30 0 24 25 17 23 20 23 28 22 16 31 31 17 12 7 22 17 17 13 31 24 16 21 26 27 7 16 20 17 6 10 17 10 28 7 20 19 23 10 8 10 13 14 3 24 22 5 29 12 13 14 21 16 13 17 31 23 21 0 13 21 21 16 3 24 7 10 20 14 16 17 23 15 25 28 6 23 17 14 20 18 20 23 17 24 26 14 17 28 21 20 22 15 12 23 31 18 20 7 16 10 22 12 28 9 20 26 27 31 18 17 17 15 27 18 6 24 20 17 7 6 15 20 23 11 17 20 8 7 14 17 14 10 16 37 26 21 27 20 20 15 3 20 23 3 22 19 37 17 8 17 21 19 24 7 11 11 9 3 20 10 20 16 20 6 8 17 11 20 17 24 24 20 26 23 21 23 6 12 24 21 6 13 14 9 10 17 21 24 20 27 21 16 27 24 24 21 6 33 16 12 6 17 12 22 7 20 21 21 20 16 13 10 14 33 24 24 20 17 13 12 17 30 24 13 15 16 5 21 13 18 10 23 10 7 20 6 9 31 19 25 9 10 20 9 33 10 21 14 14 21 24 25 23 20 13 15 7 22 14 20 16 6 27 10 28 16 17 30 10 16 20 30 27 14 20 9 17 16 27 16 16 27 7 20 13 10 17 10 27 10 19 10 10 27 23 12 13 6 17 14 3 20 7 10 13 9 16 34 24 31 21 16 9 17 20 14 20 16 27 16 16 9 12 27 16 27 13 27 20 14 13 9 10 6 24 20 25 16 12 9 20 17 3 20 17 20 16 20 41 22 27 30 20 17 14 21 7 10 20 17 17 18 23 17 27 7 13 27 3 35 13 7 27 13 14 19 26 30 18 13 10 23 12 15 24 19 20 16 15 31 17 15 10 20 14 10 27 28 24 26 16 16 19 9 10 15 19 24 22 6 27 17 20 10 13 28 27 26 17 7 33 17 15 20 10 13 17 17 16 7 27 21 9 13 0 6 13 9 13 22 15 17 16 24 7 24 15 16 21 30 27 6 17 9 15 19 19 17 17 17 6 13 27 7 13 19 18 6 33 10 23 7 12 26 13 20 35 17 6 31 24 27 20 13 27 21 23 18 14 14 13 23 13 21 17 6 13 17 22 15 17 15 21 17 20 18 31 16 13 19 19 38 28 31 12 21 7 21 14 3 0 10 0 15 3 20 23 16 16 13 10 13 33 8 10 27 31 16 9 17 16 16 7 10 7 16 17 13 9 14 17 10 0 7 12 20 10 13 23 7 13 17 17 20 23 26 13 6 10 16 12 6 10 28 30 13 24 13 22 23 20 19 20 17 7 14 19 13 21 20 16 22 23 31 29 17 20 10 14 12 14 24 14 10 27 15 19 12 20 9 19 17 25 6 19 13 28 6 20 20 26 12 10 27 13 28 34 23 6 20 14 12 9 16 27 10 16 14 7 12 14 33 14 20 10 17 24 24 12 27 20 17 19 17 18 17 27 22 18 7 14 21 21 26 12 20 23 28 6 27 17 16 20 14 16 17 18 6 16 9 26 23 12 7 22 18 16 14 14 10 17 24 21 10 12 23 7 24 21 16 25 14 17 6 29 20 28 10 9 13 11 10 8 28 10 18 10 9 24 30 7 7 14 12 28 9 17 10 14 9 21 23 7 6 9 20 6 3 19 20 6 19 20 16 9 27 27 14 30 23 20 17 23 3 12 6 20 13 14 9 28 13 20 9 24 3 14 20 16 13 19 17 30 26 16 12 33 18 20 10 21 10 0 21 13 30 14 20 14 6 10 10 12 20 18 14 13 15 23 13 13 24 20 6 20 24 20 7 14 12 13 20 21 26 12 27 26 14 7 10 17 17 17 16 14 5 16 3 24 27 14 10 21 9 6 20 10 23 13 17 9 12 16 9 3 23 13 19 20 17 6 13 25 14 30 7 3 14 9 20 23 12 13 13 13 31 23 23 12 21 26 20 14 13 21 23 18 23 0 10 21 14 17 24 9 13 6 17 27 17 19 21 21 14 3 20 20 17 10 23 27 3 17 6 20 9 10 16 13 13 9 12 27 17 6 20 13 14 6 23 16 20 7 17 3 10 7 17 0 16 13 30 18 17 10 14 24 6 13 16 17 17 11 17 22 20 24 10 17 7 10 15 23 21 17 28 13 6 23 16 14 19 17 27 10 31 23 13 6 12 0 34 20 9 14 28 33 16 28 10 10 27 13 9 6 10 14 13 6 36 7 10 6 14 23 29 13 7 10 13 25 10 27 19 7 13 13 10 13 14 26 10 21 19 10 19 17 14 20 13 14 21 10 21 13 3 29 21 28 0 17 9 17 21 17 7 19 12 14 14 13 15 24 25 13 20 18 23 16 17 19 3 12 17 19 27 11 3 9 22 16 43 16 10 17 16 23 29 2 13 10 28 35 30 17 21 3 20 29 13 10 15 6 38 18 20 16 30 17 20 7 9 23 6 21 19 12 14 17 21 10 23 17 24 24 21 27 20 3 13 24 16 8 17 30 19 23 13 14 13 21 16 35 15 27 6 15 24 3 9 16 20 10 10 10 3 24 10 13 6 24 10 12 31 6 20 7 14 24 20 23 7 24 7 27 10 16 26 20 28 16 13 26 9 6 6 8 13 18 24 13 10 13 12 12 13 7 20 26 21 7 24 13 16 15 16 14 10 28 13 12 13 29 24 16 3 14 24 13 24 16 20 22 15 23 24 14 17 20 6 20 17 17 6 24 13 7 19 26 13 12 9 20 12 35 27 23 24 16 9 10 21 6 27 20 20 30 15 6 3 17 20 31 14 20 10 17 21 20 23 29 24 3 17 36 9 20 24 12 14 24 24 10 17 17 10 0 13 10 27 9 9 17 7 13 7 26 21 10 14 20 21 21 12 10 27 3 13 17 27 20 14 20 17 10 17 18 17 24 17 17 22 14 9 8 16 17 10 9 25 31 10 10 26 17 18 16 27 10 14 28 20 27 13 14 13 23 29 3 21 3 22 15 20 22 10 6 13 17 20 14 9 26 18 17 6 39 18 13 26 13 9 24 20 20 18 20 14 7 6 19 14 17 22 17 28 3 22 10 13 13 19 17 10 6 17 0 13 24 17 14 8 13 24 24 13 26 7 37 21 7 24 25 20 34 23 10 14 29 12 12 17 9 17 16 17 7 3 23 20 20 17 17 23 26 17 13 11 14 24 19 13 16 17 23 31 17 6 42 6 16 30 23 0 16 27 26 16 7 15 14 13 11 13 16 16 16 10 31 19 16 6 17 16 27 21 12 31 21 19 16 9 6 16 40 21 31 13 16 13 21 24 20 17 13 3 16 7 21 14 19 13 16 16 17 18 25 24 31 3 27 17 24 10 10 10 21 30 23 27 11 16 23 7 20 13 7 23 15 6 24 13 16 14 17 14 14 13 27 15 7 17 30 20 14 19 16 23 10 24 24 22 17 1 10 20 20 27 7 17 23 13 12 17 28 24 17 28 16 16 10 24 29 20 17 13 31 15 16 20 12 10 3 20 22 14 13 10 14 20 24 20 16 6 17 3 12 19 6 31 16 17 10 22 3 23 7 25 10 9 24 18 9 14 30 14 23 12 17 24 15 16 25 25 9 10 7 16 13 16 17 19 17 24 13 0 24 13 30 24 10 20 18 30 23 13 23 19 16 3 22 30 33 17 30 0 11 17 10 18 17 19 17 14 10 24 18 22 14 17 10 20 16 21 20 21 13 22 21 30 29 16 17 21 21 28 20 24 24 16 27 13 14 10 24 9 17 15 23 14 16 3 23 17 10 20 13 13 21 17 20 9 27 21 24 18 20 20 20 16 16 7 7 13 15 10 21 3 10 20 13 16 40 16 17 17 9 13 16 7 27 20 17 16 9 20 29 24 10 27 24 24 25 28 24 26 17 21 10 3 14 14 9 10 7 22 16 25 15 15 10 17 10 10 10 21 34 18 10 20 9 17 9 10 19 20 30 9 18 11 15 20 20 16 15 12 27 3 27 7 20 9 15 10 14 17 13 17 21 7 21 21 13 17 14 10 0 7 12 17 17 10 20 28 17 0 6 13 26 24 3 9 26 17 7 20 10 18 20 20 17 4 27 23 21 7 16 7 14 14 21 7 7 21 6 16 20 17 6 6 16 6 19 29 19 20 20 33 17 15 16 14 17 16 16 30 17 27 16 7 16 13 16 6 10 6 14 20 25 20 20 6 17 7 10 21 13 26 13 27 10 7 17 10 21 13 28 13 19 16 15 28 35 9 14 13 16 14 26 24 20 22 31 13 17 10 16 20 12 22 24 13 10 19 16 16 13 27 28 6 23 10 15 6 10 8 27 23 15 0 30 15 10 21 14 17 3 22 26 17 27 26 13 22 21 21 14 20 19 17 6 27 13 23 13 10 22 31 19 8 20 20 16 14 21 24 28 19 22 9 24 17 14 17 17 13 30 7 19 3 10 3 7 24 17 6 17 10 9 21 20 17 12 24 17 6 34 21 9 26 23 10 24 21 22 10 17 21 17 21 17 27 17 20 7 3 16 10 14 9 33 24 14 13 8 19 17 17 15 27 16 15 6 19 10 25 9 9 24 14 21 30 9 0 17 9 15 13 14 17 23 17 7 9 16 13 15 16 19 17 17 15 13 13 23 14 6 21 27 17 19 14 17 13 20 23 23 13 25 14 6 23 26 10 16 8 18 24 28 7 15 9 20 14 16 3 3 10 3 17 17 14 27 11 10 19 24 24 23 28 14 16 24 5 18 10 14 16 20 20 22 24 12 27 20 3 17 23 19 15 24 18 16 13 24 17 12 9 10 14 26 3 26 24 24 22 33 16 6 14 14 14 21 16 17 17 17 20 27 16 14 21 13 10 24 13 26 6 13 24 10 13 16 26 9 6 33 13 31 38 7 17 12 3 17 21 7 13 14 18 34 30 10 31 10 15 19 13 13 20 10 17 17 25 24 17 31 28 14 24 16 17 13 20 6 19 17 12 23 10 14 7 10 16 20 10 17 20 10 16 17 21 16 10 23 20 14 23 13 17 9 13 13 9 6 17 23 24 16 3 14 21 13 3 17 10 20 19 14 20 16 24 13 17 17 21 24 14 20 7 10 27 23 20 27 20 15 13 16 13 20 31 23 10 20 16 12 17 14 10 20 16 13 18 23 20 27 11 23 11 3 27 16 3 24 26 3 20 13 19 3 13 26 23 13 21 14 19 16 9 17 27 13 7 17 28 21 20 17 22 8 26 15 17 14 21 17 20 15 12 17 27 10 14 7 12 19 13 20 16 17 14 7 10 20 3 19 3 9 29 20 6 21 21 21 7 14 24 24 24 13 17 13 15 15 18 23 23 20 3 13 14 26 21 22 14 24 17 21 13 16 13 38 24 14 19 10 24 23 9 13 10 17 28 19 34 18 24 31 21 38 6 17 23 20 9 21 14 36 17 3 20 34 28 21 6 7 27 16 19 17 17 3 16 14 20 31 24 27 13 10 16 16 17 23 20 7 14 14 16 7 21 17 30 17 10 30 10 13 10 7 13 13 16 7 17 17 16 16 13 12 14 7 10 24 24 24 10 13 21 31 19 21 13 13 13 12 28 23 15 17 17 16 24 16 14 10 20 14 3 34 21 9 15 23 19 14 17 10 10 0 13 9 10 13 7 20 12 12 13 33 26 28 26 17 13 9 30 6 14 24 23 10 17 12 19 19 23 17 27 23 23 13 23 24 15 15 15 17 20 21 7 22 19 9 27 7 13 24 20 19 23 13 21 20 7 13 33 13 20 21 7 15 10 13 19 7 11 22 15 10 7 17 24 21 16 17 18 22 20 13 24 7 14 22 30 9 11 10 14 17 16 6 31 13 10 0 14 20 9 38 13 10 24 33 19 7 13 13 29 17 18 13 10 13 21 13 22 28 16 13 9 14 14 20 19 23 31 13 20 17 31 7 27 15 20 27 34 28 17 21 9 13 24 13 16 17 8 13 19 24 10 12 17 17 7 12 10 12 0 23 20 9 9 34 17 24 7 6 16 24 31 10 12 10 7 14 28 24 14 10 3 14 26 17 20 24 17 10 16 31 10 13 14 6 30 16 17 14 3 23 23 14 14 7 3 10 17 20 36 17 23 20 13 13 21 10 28 17 7 20 14 23 16 6 24 16 37 27 10 3 13 28 20 21 20 7 13 14 14 3 19 21 20 17 31 9 20 12 17 21 13 12 21 19 20 28 23 9 7 19 20 16 7 13 3 7 23 13 20 23 24 10 24 17 9 23 10 19 14 7 20 14 20 20 30 20 17 0 17 14 34 20 14 10 7 7 27 23 30 13 22 21 14 10 17 23 7 22 16 16 26 6 13 9 14 14 14 16 23 8 17 16 10 13 13 27 12 21 20 9 17 23 27 17 3 35 9 13 6 17 6 3 24 34 9 26 12 17 17 16 13 17 13 20 30 14 28 20 20 20 14 9 28 10 10 3 37 20 6 10 26 20 6 9 23 14 10 6 10 24 13 20 21 10 14 21 27 10 17 15 20 3 20 20 27 16 7 13 0 16 24 26 24 27 17 31 9 21 17 25 31 24 26 23 29 19 14 11 23 31 12 13 14 16 10 10 13 20 13 25 20 14 6 36 30 9 14 20 17 14 13 12 24 20 21 21 8 16 13 25 35 10 31 24 27 10 17 10 23 20 10 15 31 16 20 10 21 19 13 22 13 20 6 14 0 0 17 7 22 14 19 17 14 13 12 12 13 13 31 10 15 27 7 31 24 23 26 20 30 17 13 9 20 16 18 21 7 29 34 18 28 14 13 20 19 8 23 10 6 23 18 17 10 20 3 10 16 20 21 0 27 10 10 20 8 30 7 13 17 6 24 23 10 10 20 17 23 14 17 15 10 9 23 13 6 20 31 13 16 13 28 24 15 23 31 3 26 3 9 20 20 17 12 29 24 23 15 23 22 20 3 21 3 27 7 6 20 10 24 24 3 24 6 20 27 13 11 24 29 16 21 15 31 10 30 9 20 10 6 25 7 26 24 14 13 31 33 6 13 17 6 6 38 7 15 24 13 19 20 17 16 29 27 23 13 14 24 22 23 20 34 13 17 23 10 7 19 16 18 21 11 17 6 19 3 13 14 19 16 17 18 17 7 16 29 14 14 20 10 20 10 13 17 21 18 17 10 10 23 27 13 19 20 23 9 9 14 27 16 14 24 3 24 13 24 14 21 31 22 19 17 20 17 17 20 13 14 10 14 3 21 19 25 15 6 9 17 20 27 19 15 20 17 16 11 6 14 9 20 7 13 16 20 17 13 17 16 17 10 24 17 15 28 16 33 17 27 24 17 27 24 22 31 33 24 13 27 10 3 14 3 16 20 14 20 15 14 13 9 6 21 16 20 13 13 13 21 13 27 20 11 34 14 20 9 3 16 0 13 26 13 16 21 17 10 13 29 36 22 15 17 9 17 3 11 20 24 13 9 21 37 23 24 24 30 17 17 16 16 9 13 9 12 7 3 10 16 3 13 24 3 16 10 28 9 9 20 35 13 24 0 17 8 19 41 17 17 14 14 13 13 17 22 13 23 10 12 17 27 17 17 24 16 9 3 25 14 20 7 20 21 26 27 16 17 24 17 30 13 17 7 0 7 12 22 17 24 16 13 32 21 20 19 14 24 34 29 13 17 16 28 9 27 9 27 14 32 9 13 12 35 16 17 10 13 12 3 27 17 22 0 19 24 13 24 24 13 11 2 6 21 19 8 21 13 16 33 19 16 21 10 23 20 24 23 0 13 23 27 21 22 17 21 6 9 13 21 12 11 17 21 13 22 17 17 24 16 7 19 24 7 10 19 17 7 23 17 6 7 10 10 25 20 18 3 10 31 14 0 18 10 3 21 22 24 24 15 13 9 27 0 19 17 15 26 6 9 18 10 10 17 16 21 14 14 24 13 7 34 10 13 3 21 13 24 10 12 16 10 10 12 13 9 24 6 23 14 17 6 14 30 16 9 16 20 24 17 6 10 21 27 17 10 14 6 28 23 20 7 17 8 24 14 30 14 10 34 20 17 26 14 21 19 20 14 14 14 17 7 10 21 9 20 32 13 29 20 18 21 30 17 16 21 17 14 14 27 16 12 20 10 21 17 17 3 10 27 31 21 13 23 6 16 14 16 10 13 25 20 8 28 21 40 3 10 30 20 13 14 17 13 23 20 21 6 6 14 3 14 7 8 24 13 14 23 20 11 19 13 12 7 16 15 10 17 10 10 12 13 14 10 7 45 12 14 23 20 17 12 21 20 3 41 20 18 14 23 13 37 20 31 9 11 21 0 14 17 6 38 26 24 17 7 16 17 18 16 8 17 13 20 20 14 23 12 13 27 18 12 7 24 20 17 24 0 21 10 20 28 23 20 18 13 27 21 16 7 15 10 6 20 17 12 23 7 13 19 24 27 17 14 3 21 21 20 34 12 10 18 14 12 14 20 19 11 13 34 6 17 33 12 16 17 14 20 19 18 11 19 13 24 9 6 7 10 16 24 14 10 14 15 16 24 14 20 10 13 13 10 15 13 21 20 27 16 20 13 18 22 9 17 9 17 27 17 10 9 14 17 20 14 20 15 18 3 26 0 17 23 14 13 14 17 22 6 14 5 10 21 13 24 17 26 20 20 13 7 22 6 7 15 19 9 17 17 23 20 13 23 10 16 23 16 19 20 33 13 13 28 13 19 13 17 30 28 19 20 21 13 6 24 7 21 9 6 19 17 7 7 14 18 6 24 20 7 28 10 13 3 19 16 24 20 10 17 17 13 23 9 18 10 7 14 24 10 17 27 21 21 17 3 33 13 6 6 17 20 20 17 13 12 21 13 27 0 14 10 14 34 17 23 20 20 13 13 23 7 10 10 9 13 6 20 21 3 7 31 17 14 24 16 13 30 16 10 9 27 10 20 24 21 20 26 10 35 18 12 14 44 17 23 13 26 16 13 27 13 24 16 24 21 17 15 15 31 16 10 10 23 9 12 31 16 8 12 23 16 23 13 15 20 14 9 6 3 17 31 16 14 31 13 10 7 17 26 17 11 13 16 10 7 17 14 13 10 12 7 10 3 10 17 13 19 30 28 20 10 19 12 20 20 19 20 16 28 17 14 18 17 10 24 19 20 33 16 13 16 20 17 24 14 26 16 9 11 6 15 13 12 25 10 16 24 10 19 15 10 17 6 29 17 17 9 7 21 10 20 6 7 13 17 16 13 24 15 13 10 10 22 12 24 25 3 16 14 23 24 13 9 22 19 6 23 24 13 16 16 17 24 24 3 10 24 19 11 19 23 6 17 11 13 13 19 16 21 19 10 17 3 27 19 10 21 30 12 13 31 17 38 14 17 13 23 13 23 27 13 20 15 31 11 23 34 21 23 31 17 23 34 38 24 3 12 17 20 21 27 19 30 22 20 27 6 3 17 16 21 16 10 22 20 18 13 19 12 16 13 5 23 18 20 3 13 16 10 28 20 21 7 17 13 7 16 6 28 16 17 15 10 28 24 31 24 6 7 23 14 28 29 24 19 21 14 13 26 12 14 11 9 13 14 14 7 24 16 12 12 25 20 19 3 23 9 11 14 10 11 22 23 10 9 12 27 25 13 10 17 0 26 22 14 20 10 13 19 15 3 27 16 22 27 26 14 16 14 24 20 16 6 24 21 21 12 37 14 29 30 23 14 31 23 19 13 3 9 13 28 16 21 34 20 10 16 21 10 23 15 0 20 16 28 7 6 9 3 13 31 31 27 29 23 27 28 17 9 16 20 11 10 22 13 17 23 14 26 10 27 0 14 14 24 10 12 14 10 7 12 13 23 17 20 14 12 14 9 14 37 24 13 12 16 14 24 23 20 20 17 33 0 3 17 12 24 10 3 20 13 17 20 27 10 17 19 22 20 24 10 24 27 16 10 10 32 12 14 0 17 19 8 27 6 7 21 20 24 13 21 23 30 10 12 10 19 12 16 16 23 24 17 7 12 16 24 23 20 6 20 13 20 26 15 17 23 16 17 13 31 14 18 20 16 14 7 7 10 3 11 12 18 23 6 18 17 19 14 27 17 20 7 30 16 20 12 10 13 14 8 28 10 13 14 20 15 21 27 14 31 13 24 12 10 6 12 24 24 16 17 27 25 6 13 28 20 10 3 7 6 20 9 20 17 7 7 22 14 14 23 33 17 16 13 18 3 35 23 7 17 6 7 21 16 14 14 15 20 26 37 13 9 19 9 20 12 27 13 17 19 10 6 10 15 24 14 41 37 17 23 20 13 24 13 20 13 10 6 28 16 9 10 16 20 36 10 23 17 20 10 16 20 14 3 17 27 14 9 10 21 24 22 21 14 17 20 21 10 14 10 13 16 10 13 26 28 17 24 9 10 22 27 19 27 3 22 34 17 25 20 11 17 44 23 10 17 13 17 22 14 23 16 16 17 15 20 26 7 18 3 13 29 16 13 27 17 24 13 21 17 17 14 20 17 17 20 22 10 20 17 23 17 20 16 22 20 17 21 19 14 23 15 21 0 0 10 26 16 16 7 20 13 27 17 13 21 14 10 23 23 21 20 24 37 13 0 23 0 33 12 26 10 10 13 8 16 20 10 12 12 24 24 20 23 10 24 17 17 10 23 6 26 13 20 26 16 13 23 10 27 27 22 10 34 6 29 7 10 26 10 27 16 11 23 21 7 15 20 9 28 13 15 13 3 3 15 18 3 17 16 34 11 16 20 20 6 13 20 15 24 31 27 17 12 33 29 13 13 22 19 17 17 19 24 6 21 20 19 0 6 31 22 26 7 20 27 13 7 20 10 11 10 12 26 10 6 6 23 29 14 17 10 17 10 30 3 15 21 9 23 18 13 10 20 20 20 23 10 23 6 10 19 13 13 14 38 17 25 23 31 9 14 24 17 24 17 17 0 14 12 21 16 6 10 26 12 11 15 17 31 6 7 6 17 17 14 21 21 8 24 10 16 19 26 15 33 16 20 21 22 23 16 10 9 34 16 13 14 13 11 10 27 22 17 14 10 17 9 17 21 20 18 6 23 18 31 17 12 13 14 20 13 18 9 19 16 13 21 7 27 6 21 21 18 20 7 31 23 15 12 20 31 13 20 7 23 9 14 3 13 21 11 22 23 23 20 17 23 13 33 13 10 20 19 19 12 12 17 13 27 6 10 14 21 16 23 20 3 17 34 6 12 27 20 17 14 18 24 35 16 12 24 13 13 14 18 27 21 24 16 14 15 16 18 16 12 15 11 20 24 31 12 10 22 21 0 30 19 24 17 13 19 20 19 24 9 17 16 24 6 23 10 21 13 23 0 13 10 21 13 24 20 3 24 16 13 17 18 17 31 27 10 13 29 7 38 20 21 25 17 10 9 14 19 14 20 14 14 0 14 16 10 13 6 17 27 17 17 14 33 29 13 6 27 23 17 16 6 28 30 3 0 27 16 23 16 14 20 10 10 7 16 17 24 30 20 19 20 20 16 24 34 13 10 29 23 15 15 24 24 16 23 20 13 10 6 20 19 13 23 13 14 6 23 12 9 8 19 17 16 17 13 15 24 9 23 23 18 15 17 17 10 3 9 3 23 17 3 14 6 20 20 20 7 12 26 6 20 18 9 9 10 19 6 18 11 21 10 7 24 13 9 24 23 20 31 15 20 17 15 7 16 10 23 16 10 10 20 13 14 29 23 17 21 20 24 14 26 14 23 28 10 19 22 28 10 20 13 17 17 16 30 10 14 23 6 26 19 16 17 27 20 20 26 9 16 17 16 30 24 21 10 16 13 13 34 10 20 3 6 20 20 7 17 13 17 26 20 36 9 10 17 17 19 20 19 20 17 19 17 9 14 9 17 16 13 23 24 10 17 21 23 18 28 16 23 14 17 16 23 20 12 30 17 13 23 27 6 17 23 26 17 13 10 13 24 7 14 14 16 23 27 6 9 18 9 24 28 13 21 20 13 21 24 10 22 20 12 24 3 20 10 10 27 17 25 19 17 19 10 27 13 14 17 17 20 6 24 6 20 27 18 14 19 7 23 20 21 17 17 14 17 20 0 0 20 20 14 24 21 10 17 6 20 21 10 10 14 24 24 16 13 10 10 22 29 16 19 28 20 14 26 7 30 24 16 24 23 21 30 31 19 30 9 7 20 34 16 14 3 31 26 25 9 27 10 13 9 37 10 6 16 21 23 16 24 20 13 20 13 27 8 3 3 17 13 24 28 14 17 13 10 17 23 27 14 25 14 3 14 24 13 17 21 13 28 11 10 15 14 9 22 10 34 6 17 19 20 24 24 25 19 21 23 17 6 18 14 14 6 11 19 11 24 23 30 17 17 13 23 29 20 10 21 13 10 17 27 17 20 12 27 13 26 24 30 17 17 7 26 21 24 13 22 19 21 17 14 21 13 3 10 15 17 19 13 20 10 10 16 27 15 20 17 20 19 21 20 3 3 7 14 3 3 23 24 33 10 30 16 17 14 7 8 17 20 17 22 16 3 7 20 10 12 33 15 13 3 14 10 16 17 18 21 6 3 16 13 17 20 24 6 18 20 17 21 34 10 25 30 19 16 14 12 6 19 26 37 27 23 9 16 17 6 3 27 13 26 6 23 11 27 10 9 26 20 22 17 23 17 22 10 13 12 15 10 21 13 3 20 23 7 20 10 17 12 19 14 16 16 17 12 20 12 37 17 26 19 29 31 13 34 13 27 27 17 16 14 18 10 14 20 24 21 7 10 16 9 14 13 20 27 16 37 26 6 28 17 13 9 19 16 12 17 0 17 21 35 22 8 16 34 17 10 17 2 14 0 17 10 17 18 19 17 20 7 19 14 13 24 25 18 17 16 7 20 13 12 20 36 20 10 16 19 10 23 14 17 11 16 24 17 3 24 20 17 16 24 17 21 17 6 28 15 23 12 34 24 16 23 17 13 10 3 27 14 12 10 13 26 17 26 23 20 13 13 13 13 10 27 24 19 33 23 3 22 13 12 18 16 8 9 16 13 29 7 7 10 11 3 13 13 20 6 17 22 13 16 20 9 16 23 17 14 20 3 12 24 10 14 26 13 27 12 16 26 20 30 17 28 17 0 24 23 9 3 16 16 20 22 16 19 10 10 25 27 13 34 17 14 28 21 19 16 14 9 10 14 10 16 20 18 7 24 9 22 7 20 26 23 12 20 21 22 13 6 11 26 14 21 10 22 7 27 17 10 19 24 17 13 17 16 7 17 23 14 23 16 14 13 21 13 33 9 20 20 10 6 10 18 16 14 17 18 13 31 15 9 21 20 20 16 9 23 27 11 3 14 17 23 10 19 13 3 19 20 13 20 20 10 10 21 13 17 12 6 24 14 15 15 3 17 13 7 31 21 20 10 21 16 23 20 19 19 0 17 13 13 24 17 20 24 21 24 26 24 27 23 20 20 10 20 11 29 17 0 24 26 13 14 20 22 24 21 20 17 13 23 23 24 21 20 10 19 23 14 24 7 10 20 27 17 12 7 20 17 16 31 3 17 14 20 17 21 15 19 10 12 13 20 16 12 13 37 16 30 17 24 13 6 14 28 16 13 13 17 17 18 13 25 9 17 13 17 17 10 8 8 26 21 11 13 9 7 16 7 16 6 12 20 17 10 24 18 3 31 31 17 17 30 6 20 21 6 13 19 21 14 17 20 13 0 11 29 14 7 16 26 23 25 10 10 24 23 7 38 30 20 24 30 16 16 9 23 21 23 30 18 19 9 17 14 16 16 16 27 17 26 3 14 28 25 24 37 12 12 0 17 20 16 21 25 16 27 17 17 24 16 28 13 17 15 24 31 16 25 28 23 7 15 9 27 12 17 16 6 21 25 14 20 7 17 13 16 6 26 11 7 12 20 27 13 9 15 19 14 12 13 16 19 6 16 19 20 18 17 16 17 20 10 30 21 17 31 19 10 14 8 17 23 16 15 17 10 14 16 20 14 15 13 31 12 23 3 16 28 6 31 24 24 16 21 0 22 10 10 3 24 23 17 17 14 9 23 0 33 14 7 13 16 17 22 19 7 16 23 11 20 23 17 20 24 0 21 27 3 16 17 16 24 14 21 20 27 7 23 20 20 24 19 24 20 14 12 3 23 13 17 18 19 28 10 20 14 16 20 9 29 14 3 17 17 20 9 13 29 20 19 3 19 11 16 6 20 17 9 6 10 17 17 10 27 27 20 13 24 10 20 22 25 3 3 17 13 7 22 14 17 27 13 13 0 20 38 10 11 16 13 24 20 20 9 13 13 5 9 24 24 17 14 6 17 25 9 22 7 19 20 7 13 16 27 3 7 25 31 16 14 27 26 17 27 19 16 16 28 13 31 9 3 30 6 13 23 27 3 27 0 10 12 14 7 9 13 24 17 13 10 14 21 13 14 30 18 14 24 6 15 10 16 14 16 23 16 27 16 27 13 14 20 7 24 24 16 25 17 27 17 13 19 22 14 26 13 17 18 24 28 10 13 6 25 18 24 21 21 6 27 6 10 15 21 33 10 14 7 17 13 22 26 17 23 10 14 23 17 16 16 23 6 17 10 8 19 6 23 17 10 14 17 17 20 7 20 14 14 19 10 10 17 16 27 10 17 31 16 17 15 9 14 31 0 3 20 25 27 22 19 23 14 27 13 31 13 19 13 17 16 17 29 19 14 15 21 30 0 13 6 14 12 21 17 3 13 20 19 16 14 14 24 23 28 27 6 23 13 23 10 31 20 14 13 3 19 20 16 17 20 23 10 17 20 12 12 29 21 27 17 17 40 10 16 10 20 14 16 13 17 0 13 10 24 20 10 12 21 17 10 18 7 7 10 24 14 9 7 20 37 27 3 26 10 12 18 11 14 24 13 24 31 20 6 18 16 3 14 13 20 6 17 13 24 15 7 15 15 30 6 24 20 22 10 17 28 16 27 10 6 10 13 30 21 24 16 21 23 17 25 31 14 13 20 19 26 34 23 15 10 14 10 19 20 16 9 16 14 13 3 3 10 20 10 15 14 6 16 23 17 19 21 21 23 0 19 22 7 16 3 22 21 21 22 10 17 13 12 24 3 22 19 15 26 23 17 6 12 14 14 12 0 12 22 10 0 13 24 34 7 22 24 17 13 16 20 19 20 17 26 17 9 13 21 15 14 15 6 16 30 26 13 13 10 6 14 26 9 16 13 16 33 5 26 7 16 13 23 23 19 23 19 16 19 27 15 14 16 24 6 20 17 24 9 12 20 17 17 28 30 5 10 17 23 19 23 30 9 26 21 31 13 20 21 32 10 14 16 14 17 19 9 20 21 14 3 17 17 17 27 7 10 14 6 9 3 16 9 20 25 10 14 20 31 9 23 17 13 14 14 27 17 13 15 11 8 15 12 16 27 10 17 24 7 15 19 17 13 25 15 23 24 13 26 17 29 23 20 19 23 12 23 34 13 10 14 24 17 17 0 6 16 31 20 35 10 19 24 23 17 16 23 3 7 3 9 14 17 34 30 10 9 22 20 16 6 23 24 10 16 13 15 12 8 12 17 16 21 6 17 13 17 24 6 14 16 28 26 31 12 9 21 24 20 27 16 13 12 7 10 17 14 31 7 23 17 29 15 8 12 9 10 19 21 20 9 14 16 18 13 23 16 14 14 13 14 3 17 6 23 19 9 10 28 26 14 24 13 16 10 3 27 23 10 10 3 19 23 27 27 18 19 24 26 9 13 35 12 31 17 16 17 15 23 27 17 16 17 16 30 14 17 12 13 9 9 13 7 19 17 0 26 3 17 10 20 20 37 22 14 16 3 12 22 17 19 17 17 28 30 7 13 9 13 16 9 23 17 31 27 21 6 16 17 17 17 31 13 7 17 34 19 17 17 6 34 9 10 13 17 23 13 6 18 7 17 16 14 16 13 14 27 23 20 13 26 10 16 14 16 6 20 3 10 13 7 27 10 13 24 15 30 10 20 18 17 14 16 21 16 8 10 10 10 7 10 17 0 30 19 19 13 10 9 17 17 34 13 22 20 13 17 17 17 28 17 17 21 17 10 24 23 17 28 14 14 13 13 19 27 6 15 0 7 27 13 13 20 23 10 17 12 19 7 19 20 22 23 7 9 18 7 7 17 3 17 14 12 13 14 21 16 24 6 23 10 6 25 14 17 20 19 6 16 8 21 14 12 17 14 17 24 30 17 19 7 18 14 3 23 16 10 28 17 10 19 15 30 10 10 23 17 19 14 12 17 22 25 31 21 17 16 10 17 27 11 7 14 10 9 7 13 16 6 22 20 29 21 23 19 13 17 32 26 21 20 7 14 20 17 23 10 21 20 20 14 10 10 26 30 10 30 30 14 16 19 16 17 6 17 6 27 14 30 17 21 20 22 8 9 23 28 17 10 18 24 14 17 26 20 20 16 16 16 16 14 23 3 6 18 3 15 6 17 16 24 10 14 13 32 19 10 10 28 20 25 12 30 22 19 21 13 27 13 22 13 16 19 17 12 17 22 6 6 17 12 28 0 10 12 13 16 6 23 10 14 6 13 25 27 17 19 14 28 14 16 32 31 13 15 17 10 13 24 21 15 19 10 7 7 36 20 10 34 7 7 19 14 13 20 24 12 22 18 3 30 13 17 14 17 24 3 3 24 30 21 13 17 13 32 11 19 14 16 21 23 24 23 19 27 17 20 21 17 20 13 7 17 14 9 21 9 10 11 24 21 14 7 28 32 6 24 13 17 26 30 0 12 3 10 30 23 17 17 27 14 20 21 15 20 17 17 7 10 7 13 21 18 20 12 14 13 6 30 17 19 6 10 30 19 24 21 18 16 17 16 20 12 6 29 9 13 17 3 21 13 13 23 14 16 35 17 13 27 17 15 16 18 35 20 20 30 21 14 20 16 14 17 14 20 24 13 21 14 16 14 23 17 14 21 3 20 8 8 10 10 24 17 17 31 20 13 10 29 15 20 14 6 17 19 13 9 6 17 14 21 17 17 13 19 13 13 10 12 17 13 7 20 20 13 13 27 13 3 17 13 14 24 20 14 17 20 27 9 13 15 23 17 6 28 10 28 15 21 16 20 27 26 9 16 13 13 27 16 27 17 10 10 17 17 13 14 9 14 19 31 20 19 10 10 13 40 20 17 13 14 10 30 14 20 15 22 10 7 14 33 19 15 9 23 31 3 20 6 17 14 20 20 10 27 13 17 13 6 3 17 11 7 28 13 30 20 16 3 17 10 20 23 28 17 19 14 13 22 14 31 6 3 30 17 18 23 10 17 9 11 34 15 13 9 10 9 14 15 7 23 12 22 23 16 20 38 17 6 23 11 16 19 24 11 19 3 24 24 14 3 20 17 13 24 27 13 20 24 16 0 13 13 26 16 6 14 13 3 29 6 22 7 20 17 10 20 11 10 10 28 20 13 11 22 23 13 26 12 26 6 20 27 6 12 23 6 16 30 10 13 13 23 3 26 17 29 15 27 31 13 13 13 3 10 28 12 16 10 17 27 18 14 27 8 7 17 12 20 19 6 20 13 38 16 31 3 24 17 13 20 18 3 15 3 13 3 6 23 9 22 10 10 19 23 15 11 16 24 24 13 10 26 21 31 13 17 6 10 13 13 24 6 17 17 27 10 34 28 10 20 16 10 27 10 9 11 18 20 17 20 0 24 24 10 14 9 0 7 7 14 24 10 34 13 10 18 10 20 19 9 3 33 16 12 23 34 17 17 13 13 7 12 20 13 17 11 27 33 27 24 9 20 13 16 27 8 14 22 21 12 27 10 22 24 12 27 17 13 10 9 13 28 6 17 23 16 20 31 18 31 3 21 17 31 16 13 42 12 13 21 19 19 23 7 13 28 6 30 19 17 21 15 16 35 15 17 21 16 23 24 12 23 9 20 16 13 17 6 19 17 23 14 21 17 14 7 20 13 17 26 24 17 10 3 17 20 26 7 13 23 17 23 21 22 21 24 7 16 25 17 19 3 22 17 8 24 8 17 7 6 20 24 24 27 13 29 14 9 3 27 15 23 26 17 24 17 21 10 16 33 20 23 32 10 13 9 31 13 13 5 13 17 7 13 17 13 13 7 10 12 3 20 9 20 14 12 10 20 15 10 23 21 21 20 16 27 21 9 28 0 10 31 16 10 7 34 20 16 17 13 3 7 24 14 21 18 17 6 38 24 30 14 23 20 16 27 24 17 10 20 22 21 20 16 13 20 10 7 10 10 23 13 31 10 6 37 27 10 30 17 17 27 30 21 9 10 19 27 10 18 16 17 23 19 20 17 14 15 20 13 13 7 3 6 17 23 19 9 3 22 20 21 10 6 16 10 16 12 20 17 14 17 17 16 10 3 14 3 27 13 13 16 24 18 14 15 21 20 31 10 16 9 7 13 23 22 7 16 24 17 3 21 10 14 10 24 8 9 10 28 14 9 31 9 13 26 13 8 14 29 7 16 17 7 24 23 13 24 24 20 31 26 24 3 16 20 9 13 10 9 9 24 10 27 6 23 14 17 28 24 21 10 30 16 6 8 29 20 17 10 14 21 9 26 13 16 12 17 3 17 20 13 17 20 16 7 17 18 15 17 14 13 29 13 34 29 21 24 7 19 16 20 27 12 13 20 27 17 20 3 21 10 3 22 20 15 12 13 17 18 13 27 14 14 15 13 23 24 17 18 23 12 14 16 9 16 6 20 20 23 14 9 16 17 29 31 20 22 10 3 7 13 22 30 24 3 13 7 6 20 10 13 12 19 10 21 21 9 14 3 23 20 14 23 20 24 10 13 23 12 21 17 35 24 13 6 10 30 0 6 10 16 17 26 27 16 15 21 24 20 3 16 24 14 17 17 20 20 24 26 13 16 7 14 30 13 0 14 13 23 24 28 17 14 17 17 24 14 20 16 10 20 15 10 16 13 9 19 20 10 17 20 39 13 21 8 9 10 16 35 12 19 9 20 20 6 14 24 20 10 14 24 11 27 12 16 23 6 6 20 0 13 19 38 20 18 10 17 10 14 19 16 28 7 20 14 23 14 13 17 28 14 20 13 16 7 20 7 20 10 13 16 30 17 27 36 9 23 6 10 38 11 17 19 0 16 20 16 10 15 17 29 12 3 7 27 24 7 7 16 21 27 21 12 9 22 27 3 9 27 25 24 15 17 10 14 12 13 15 23 10 19 27 23 17 16 20 33 31 3 30 13 30 17 16 14 10 24 9 18 20 7 3 26 27 17 16 27 31 20 11 9 17 13 13 23 26 12 14 17 3 17 16 14 16 20 3 24 27 27 20 13 17 6 10 21 23 17 16 14 20 14 20 8 9 14 20 27 24 12 6 10 17 16 14 10 10 13 10 17 11 19 19 21 7 15 16 24 7 17 6 18 7 16 17 16 16 16 27 17 17 22 10 23 9 21 10 15 20 20 31 16 13 9 20 27 27 24 13 28 23</t>
+  </si>
+  <si>
+    <t>N(23.1048, 4.439754155355902)</t>
+  </si>
+  <si>
+    <t>23 26 24 22 24 14 20 29 22 15 28 25 19 22 20 27 18 18 26 23 30 31 23 22 14 26 32 24 25 22 26 23 24 26 29 19 30 23 18 21 27 22 17 28 22 27 18 25 28 22 25 28 24 29 22 27 18 17 24 32 27 30 24 23 26 28 31 19 25 17 27 22 20 26 26 21 18 25 16 24 19 17 22 24 25 20 27 32 20 21 25 20 23 28 15 24 20 35 24 19 22 24 27 20 23 21 21 25 29 27 20 20 26 31 19 20 23 21 17 21 25 21 27 26 27 24 21 25 20 26 22 27 22 20 20 20 20 19 19 25 21 26 21 26 24 24 17 27 29 24 15 21 23 22 25 20 20 18 23 27 28 25 19 20 28 21 16 26 14 21 20 26 26 27 31 16 24 21 29 26 28 27 27 25 30 26 28 21 22 23 26 18 29 23 15 27 18 21 22 13 24 21 24 31 19 25 23 30 23 30 20 18 26 31 21 28 24 28 24 24 21 23 26 23 20 24 18 27 18 22 35 27 25 18 19 25 30 19 29 26 25 22 20 27 23 14 20 32 18 27 28 25 13 19 23 22 29 22 29 28 29 18 25 31 22 29 16 20 22 23 19 27 31 27 23 20 17 30 22 21 19 17 20 27 26 24 29 16 21 19 21 23 22 18 25 16 24 28 23 17 26 26 19 29 28 34 20 26 25 31 22 21 27 22 22 27 26 29 25 24 25 23 17 20 19 30 22 23 25 24 27 29 30 25 19 23 22 31 24 21 18 21 30 24 27 24 17 33 26 18 17 27 30 19 27 23 28 28 15 28 26 18 25 21 20 27 20 27 21 23 24 18 19 33 18 25 27 23 25 31 20 23 26 29 25 33 18 24 18 25 25 25 19 16 25 16 22 25 21 19 30 23 23 44 27 21 22 25 16 27 26 23 22 25 21 24 20 22 21 20 21 18 23 22 28 27 17 29 34 21 26 23 12 23 29 30 25 22 18 20 18 18 24 29 24 28 23 25 20 23 26 22 25 27 20 20 27 22 30 28 24 26 26 27 17 24 24 25 22 24 16 21 22 17 26 30 26 23 20 24 21 24 21 25 24 27 16 26 20 27 18 26 22 21 24 26 25 31 23 24 30 27 30 27 25 31 21 27 32 15 29 29 23 28 13 23 19 15 24 18 26 16 28 27 22 27 27 17 22 24 30 28 29 27 19 19 16 21 23 21 27 27 26 23 22 25 25 17 23 21 33 17 25 18 25 24 22 21 30 16 22 23 28 20 27 25 25 21 23 26 30 21 16 24 25 27 25 16 27 19 26 32 23 19 24 19 24 25 28 31 22 25 23 24 17 18 24 16 18 17 12 17 24 16 30 22 26 31 24 16 18 16 22 25 18 24 27 24 25 20 10 20 29 27 22 24 21 30 17 27 25 24 18 26 27 18 16 23 23 19 20 24 29 27 19 22 28 26 24 25 18 25 28 23 21 27 22 20 27 21 22 29 25 19 15 25 15 21 18 23 21 22 26 17 20 14 19 25 21 22 16 21 17 21 26 29 22 23 34 22 20 27 21 23 19 25 22 21 21 18 23 21 23 24 14 21 22 24 26 18 39 26 23 28 29 19 26 28 20 18 30 22 23 20 30 20 20 22 24 27 18 23 16 25 31 22 21 21 21 18 25 26 34 21 18 21 18 22 18 16 22 24 25 23 26 27 22 16 22 15 22 23 26 27 16 20 25 28 16 25 18 14 25 26 29 17 19 21 19 19 32 28 24 24 19 22 21 21 20 32 15 32 25 21 29 26 23 26 22 32 10 30 26 26 12 16 20 22 20 23 24 24 20 23 25 26 36 17 25 23 25 22 25 27 20 29 21 23 23 19 28 24 26 25 24 19 20 19 25 22 17 21 25 26 22 22 29 31 23 13 23 18 23 20 27 17 25 36 27 18 21 24 19 23 24 29 23 33 24 27 22 17 25 31 25 22 26 26 25 16 21 26 22 24 25 19 33 19 14 25 24 19 16 23 31 19 27 25 32 22 16 19 24 19 23 42 22 27 23 19 23 23 22 20 23 33 20 19 18 22 26 21 19 19 22 18 21 28 26 25 24 21 19 26 16 19 23 20 22 18 19 18 24 27 31 27 23 29 20 14 26 15 20 19 34 31 18 23 21 20 20 32 20 20 24 24 19 28 27 17 26 21 20 20 24 23 20 20 22 18 20 19 27 25 20 25 26 24 21 17 29 23 19 22 23 28 23 27 23 22 24 23 19 34 21 18 21 16 20 27 27 20 31 29 26 23 26 26 29 16 17 27 22 25 24 18 23 27 19 20 22 26 18 35 19 31 21 20 30 22 26 21 14 25 21 25 22 19 21 22 17 25 26 18 25 26 27 25 20 31 18 22 32 29 17 27 22 21 15 23 25 18 25 20 18 22 18 25 29 23 29 26 28 32 26 15 23 20 25 25 27 19 26 25 18 23 23 32 22 23 19 25 26 18 22 28 29 26 23 21 17 17 23 37 31 21 22 33 22 24 27 23 19 25 19 22 26 31 24 20 25 20 23 23 18 27 23 20 16 21 30 20 29 31 29 19 24 20 24 27 21 20 24 22 25 19 21 26 26 24 26 18 26 34 25 14 27 26 27 21 27 26 20 19 27 25 22 28 25 25 23 29 23 24 20 21 31 23 22 19 32 16 26 17 21 28 27 31 23 30 20 27 24 23 19 24 21 22 17 29 15 18 16 18 22 29 24 33 21 26 17 33 20 25 29 20 17 21 29 23 25 29 22 28 27 27 25 22 18 24 33 24 25 24 26 21 26 16 31 26 20 23 21 22 25 24 23 32 25 30 20 19 27 23 29 19 15 23 19 17 24 21 17 27 23 20 26 25 23 17 19 29 22 22 23 22 26 27 32 24 22 18 35 26 32 26 21 21 27 22 25 22 25 24 23 25 18 21 19 23 27 33 26 22 24 22 29 30 20 20 27 18 28 22 20 13 18 19 21 26 23 23 24 24 17 28 15 20 16 32 16 25 27 24 23 23 28 24 32 19 28 20 29 22 24 24 29 16 16 23 24 26 27 18 24 28 21 19 28 23 26 25 23 24 23 22 28 30 18 17 27 25 25 20 18 24 23 26 25 20 31 22 19 21 19 22 28 20 22 30 17 31 26 23 19 20 19 15 27 14 20 24 24 22 25 17 19 27 28 23 20 28 27 20 17 24 31 20 17 15 27 21 26 21 20 27 21 14 23 21 21 27 23 18 24 30 24 27 28 19 33 24 24 28 24 26 23 22 30 20 26 26 16 26 18 23 25 20 26 32 12 23 24 25 23 26 27 30 19 31 28 16 23 25 25 19 26 31 25 27 24 21 23 23 23 20 25 24 22 23 30 27 20 30 29 24 27 21 19 22 19 21 28 26 27 26 18 24 22 25 22 21 23 21 20 25 17 27 26 23 22 20 21 23 27 27 27 20 18 22 25 23 18 27 22 20 22 14 32 22 26 23 23 22 24 23 22 27 25 16 27 19 18 25 24 24 26 15 19 20 27 17 25 21 27 29 17 21 16 29 23 20 21 27 22 19 25 23 18 22 22 25 21 21 25 24 20 25 28 25 25 28 25 19 28 23 30 19 17 23 22 29 18 25 26 25 24 25 19 25 31 20 23 22 26 19 18 19 27 29 22 24 23 26 22 22 25 22 24 26 25 22 29 16 21 26 20 26 30 14 24 20 21 24 17 21 17 21 29 19 26 24 17 15 13 20 25 20 17 27 19 24 22 25 24 25 22 22 26 26 15 26 25 24 22 21 20 23 18 26 24 24 19 20 26 18 27 21 23 37 26 20 31 31 22 19 18 18 22 29 25 24 22 31 23 26 19 21 28 20 23 23 23 18 25 24 21 26 26 22 19 21 16 25 25 15 27 27 21 25 25 23 20 25 27 24 16 18 21 29 17 25 24 17 20 24 31 18 21 17 18 15 19 20 24 27 27 22 23 26 24 24 25 25 32 17 16 26 25 18 14 24 24 23 21 21 25 27 30 23 22 21 28 24 29 26 14 28 21 13 21 15 20 24 28 27 36 26 22 26 29 16 24 34 26 30 28 23 32 28 19 19 18 25 23 25 23 21 26 19 17 25 27 27 14 32 20 24 15 26 25 21 26 33 26 16 24 23 19 16 18 27 31 26 24 18 25 24 21 24 22 19 22 25 27 24 16 23 21 27 23 28 32 14 20 15 20 18 24 30 23 25 23 14 24 29 20 19 30 24 21 15 17 29 22 28 18 23 23 28 25 30 23 27 18 22 26 35 22 25 24 18 24 17 24 21 24 22 17 17 19 24 23 19 12 25 22 20 27 25 25 26 30 21 22 21 19 25 23 22 32 34 22 22 22 21 28 24 16 22 29 16 27 18 15 22 14 24 21 19 20 26 19 25 26 17 24 28 25 15 27 29 17 26 23 23 19 16 17 25 6 18 21 24 22 23 23 27 14 21 16 16 26 23 21 22 26 24 23 21 19 23 19 29 20 23 21 17 28 23 23 23 24 32 17 20 25 22 36 22 20 23 33 24 19 23 17 28 28 23 15 25 26 22 25 24 27 20 25 18 22 24 22 21 22 22 21 20 25 29 18 30 29 21 21 23 20 36 21 22 23 33 30 12 23 23 17 28 30 24 26 27 22 27 28 24 25 27 28 24 24 22 19 20 22 24 27 23 26 26 26 28 21 24 26 27 29 25 20 24 17 19 24 31 23 22 18 17 21 31 17 27 20 29 31 24 18 26 26 31 18 15 19 22 25 26 21 25 24 23 20 24 25 27 24 24 21 21 29 24 23 19 25 28 28 23 29 17 25 14 23 23 24 24 21 30 13 26 25 17 21 24 25 21 12 24 26 27 25 29 26 26 16 17 23 27 17 23 22 33 26 26 31 19 25 24 18 21 17 19 21 16 21 24 25 20 27 20 17 21 17 23 23 19 24 15 23 23 18 25 17 25 18 23 22 19 16 27 17 27 21 28 31 15 34 23 29 22 23 17 16 23 30 26 21 20 21 24 22 19 20 22 28 28 24 20 23 24 25 23 24 18 17 27 25 21 16 21 21 26 18 25 21 27 25 18 25 24 20 22 27 22 14 20 25 27 20 26 23 31 18 24 22 23 22 26 33 25 21 23 19 17 17 13 22 24 21 22 29 36 29 21 16 25 17 24 23 22 19 21 23 22 26 24 20 22 19 24 16 29 22 18 25 25 24 30 17 16 30 20 22 24 28 22 13 17 20 20 31 25 28 19 27 28 22 25 24 21 35 24 14 29 26 20 24 15 24 14 18 24 28 20 26 31 12 23 22 30 16 23 22 15 20 23 27 22 24 23 15 22 17 26 23 27 17 24 18 22 25 19 29 24 18 28 24 24 26 22 20 27 35 24 19 28 32 19 23 19 19 22 29 31 21 23 20 22 25 24 26 18 24 25 26 24 21 16 18 26 27 19 30 26 18 21 24 15 26 22 15 29 27 24 25 20 17 26 18 21 22 17 33 23 27 21 23 23 21 25 24 29 18 16 26 21 33 26 19 18 31 18 23 34 23 27 26 17 30 24 22 21 21 24 21 23 23 15 28 31 21 23 24 26 24 26 32 17 22 26 18 26 21 19 25 21 23 23 22 28 25 24 23 20 26 19 21 27 28 22 19 29 21 27 29 20 21 33 28 21 24 25 15 23 19 23 31 24 35 20 20 23 18 19 26 21 29 27 24 18 26 22 23 23 32 19 23 26 16 24 22 22 22 22 16 22 22 20 22 18 21 21 26 20 25 26 29 30 34 19 22 21 27 17 19 24 25 20 23 15 19 23 25 31 18 25 24 20 20 24 17 17 29 16 22 20 26 20 18 29 20 16 25 21 17 21 20 27 21 27 25 26 32 30 23 20 21 19 24 24 22 23 19 24 27 22 24 22 28 19 29 22 19 24 18 23 29 18 21 16 34 24 24 21 21 22 20 19 23 26 23 22 19 30 23 19 39 30 25 34 22 24 23 24 23 18 17 24 23 25 30 19 22 18 22 19 25 25 28 26 22 25 31 21 17 28 26 15 25 29 33 21 32 21 28 20 27 25 27 23 27 19 22 20 23 27 25 26 33 26 21 28 31 21 34 26 28 22 26 17 29 20 27 28 33 20 29 16 21 17 27 21 19 20 28 15 14 28 25 28 24 17 22 27 20 26 26 23 14 15 28 28 27 27 19 24 24 29 26 22 27 24 26 31 17 18 19 29 22 18 29 24 22 26 19 23 25 21 26 28 16 23 34 18 31 21 19 28 18 16 31 21 15 20 28 20 19 15 24 24 22 19 26 24 25 27 23 30 23 25 18 20 23 20 26 22 31 40 18 21 22 22 23 27 24 27 20 19 14 21 22 24 21 23 23 23 19 21 22 23 25 21 22 17 26 32 19 22 17 17 21 23 23 23 14 20 29 26 27 20 23 20 26 31 24 17 25 22 20 25 35 20 32 23 25 21 25 28 16 22 22 30 27 16 32 27 22 27 25 21 25 24 12 24 31 23 24 17 22 24 29 18 34 22 28 22 17 20 22 22 23 22 25 31 27 21 20 26 23 30 27 15 29 28 21 28 30 26 24 25 23 33 24 19 19 24 27 24 32 24 24 21 21 31 22 20 25 16 29 25 31 22 20 25 22 17 19 27 18 32 19 22 28 21 25 25 27 17 25 27 17 22 23 16 14 27 14 21 29 26 22 23 24 24 21 20 23 19 22 23 29 27 23 19 13 24 25 23 30 20 29 18 15 22 21 21 21 18 30 20 22 23 25 27 28 30 22 18 26 27 29 22 26 23 20 23 28 25 25 30 17 20 14 25 16 23 19 24 22 23 17 24 27 20 25 22 23 19 21 21 18 31 28 32 32 29 18 36 23 25 21 23 21 23 21 18 22 30 13 24 24 30 30 20 18 19 22 25 25 22 22 25 24 21 23 21 26 25 23 31 26 24 24 21 22 21 22 25 23 17 26 21 19 22 25 18 28 19 19 22 27 29 26 23 20 25 27 26 20 19 22 18 21 21 24 22 25 25 29 34 25 25 19 19 20 18 21 35 18 26 30 28 23 29 17 22 14 29 19 29 26 21 31 25 25 15 15 30 19 26 25 17 30 27 18 23 28 22 21 26 18 18 25 21 21 21 17 25 24 26 31 25 21 24 19 29 20 18 20 18 16 23 28 21 21 23 39 23 29 28 26 25 28 21 24 23 24 27 25 17 22 23 20 15 28 18 19 19 20 22 15 19 23 21 18 19 19 30 27 25 23 23 26 18 30 27 25 23 26 23 23 17 28 25 20 18 13 24 23 20 19 24 21 20 25 23 22 21 24 21 23 20 35 22 28 19 24 13 24 20 22 18 20 22 22 20 19 23 27 24 22 23 26 26 22 21 23 23 11 25 26 31 29 21 25 19 16 25 27 30 24 12 21 22 29 28 22 25 23 17 27 21 20 20 24 27 24 25 22 24 25 19 19 28 21 28 27 22 19 20 25 16 28 24 24 30 18 24 22 20 21 20 19 22 19 27 24 27 23 25 21 25 27 27 25 29 21 22 25 24 20 23 19 25 23 18 25 23 26 24 28 23 21 26 29 22 17 19 13 22 25 24 21 23 22 28 19 27 29 29 20 27 25 24 28 25 19 32 18 20 22 24 11 20 26 15 32 17 26 28 22 23 29 19 23 23 33 23 18 31 24 21 21 20 26 21 27 23 21 25 17 19 18 22 30 20 29 22 25 17 22 17 22 23 31 20 18 29 20 21 32 20 25 25 19 28 19 18 24 23 27 21 17 14 22 23 15 25 27 17 21 23 16 27 33 23 26 22 28 26 23 16 26 20 21 24 25 30 27 29 28 30 24 26 14 24 23 22 27 31 18 27 25 23 27 24 21 27 21 21 20 23 19 27 23 18 18 32 21 24 23 24 16 18 23 28 21 28 19 22 22 27 30 25 29 29 20 28 37 28 20 25 20 20 28 22 25 19 21 21 25 29 24 20 25 30 23 24 26 18 19 23 29 28 27 18 21 24 15 20 25 25 23 12 25 19 26 26 21 23 24 25 28 27 22 17 23 15 19 23 24 32 16 21 24 28 33 30 20 22 19 28 26 24 18 17 27 30 17 24 28 25 14 14 27 23 23 21 15 20 25 22 26 18 14 24 21 27 25 24 28 21 18 29 24 26 22 22 24 26 23 29 22 28 16 21 22 12 18 19 26 23 24 36 20 26 20 28 19 20 24 23 17 26 29 20 30 23 27 19 23 24 23 20 22 19 25 29 24 21 30 25 26 25 24 27 20 26 21 22 24 31 26 19 23 24 21 27 28 20 27 19 30 18 21 20 23 26 21 24 26 29 16 26 21 24 26 21 27 24 25 18 23 20 25 18 20 21 22 14 19 33 29 26 24 22 27 15 29 25 30 29 22 13 24 27 21 27 14 27 23 27 24 25 26 23 25 19 18 22 27 21 16 16 27 15 23 20 32 31 21 20 16 17 20 22 21 32 22 23 16 28 26 22 21 26 26 25 22 24 28 24 27 25 31 27 22 27 23 17 18 29 24 32 28 15 23 18 22 20 21 24 23 22 23 34 23 23 20 29 22 19 29 20 19 17 21 23 22 23 29 22 25 20 30 21 21 29 27 34 10 24 20 22 16 23 26 26 23 24 24 19 28 25 19 22 20 23 13 25 20 25 29 27 23 24 27 19 15 15 28 24 24 21 21 29 24 24 22 32 22 27 19 26 19 20 26 22 27 23 17 26 22 25 24 23 25 18 20 23 22 18 18 22 26 26 32 16 21 25 14 27 29 33 30 25 15 29 20 27 26 19 26 26 19 25 22 27 22 20 28 27 24 22 27 15 22 23 28 29 21 28 24 31 21 23 25 23 26 19 23 14 22 20 27 28 22 21 26 26 15 22 21 27 27 24 32 21 20 24 22 15 17 27 21 22 21 34 24 24 30 20 18 26 24 20 23 25 23 30 23 17 16 27 23 31 33 24 17 22 22 20 28 19 29 32 19 27 22 26 25 21 31 14 21 18 22 21 21 20 25 28 21 23 29 31 17 24 16 22 31 27 25 24 24 31 21 23 17 20 25 20 22 29 15 25 25 26 26 25 16 21 21 20 21 20 20 20 21 29 21 27 18 31 25 33 19 27 27 22 28 21 24 24 25 20 27 20 26 38 19 21 22 18 27 24 15 22 22 23 20 22 27 16 27 24 27 29 29 13 18 31 21 29 30 22 20 29 24 24 12 23 26 26 31 21 19 27 21 25 15 17 23 27 19 26 33 23 19 22 25 21 19 13 26 18 27 26 30 20 22 20 22 13 27 26 21 23 19 27 25 18 19 28 26 30 15 30 31 28 23 15 23 20 17 25 28 28 31 26 25 19 21 21 31 29 20 22 20 27 26 19 21 16 20 19 25 20 24 27 24 21 17 16 32 19 21 18 17 22 39 19 24 18 22 18 24 21 18 19 21 22 24 26 25 32 23 26 16 19 27 26 37 25 18 19 25 26 25 24 16 18 18 25 20 16 31 24 23 20 24 28 25 17 24 29 29 19 21 20 27 21 15 17 23 29 24 29 30 27 21 21 22 27 23 25 21 21 25 25 21 26 22 34 26 30 14 18 21 26 20 24 26 24 25 21 16 17 30 31 25 23 18 23 20 26 25 33 26 19 20 30 16 30 22 19 21 25 19 24 20 27 26 29 29 20 18 28 34 23 25 16 28 18 19 13 22 22 23 22 26 14 16 25 27 26 23 28 20 17 22 27 19 31 21 25 29 26 25 23 26 32 32 21 18 12 22 21 21 17 19 24 30 26 23 11 24 25 19 24 19 29 20 30 30 27 22 20 26 35 21 22 20 27 32 15 17 23 24 31 31 24 27 22 21 26 21 20 23 18 19 21 18 23 20 23 23 16 21 24 19 19 31 20 26 17 25 24 21 26 20 22 26 14 17 23 22 22 24 14 27 23 22 25 31 22 31 19 21 29 29 20 30 25 20 23 18 27 28 17 17 19 18 19 19 22 25 24 25 24 16 27 25 23 27 19 28 22 28 28 20 17 34 17 25 26 31 24 27 20 26 26 26 17 24 28 21 15 21 19 18 17 32 15 18 25 19 22 33 19 22 27 23 24 25 22 27 25 23 29 26 24 24 23 23 19 27 24 30 26 20 20 21 21 22 25 21 23 27 23 25 28 22 20 28 29 28 28 17 27 23 20 16 21 30 21 27 17 20 23 18 21 23 23 25 15 19 26 27 23 22 25 27 27 22 18 17 30 24 23 26 24 22 16 28 28 17 23 16 18 20 25 15 27 22 17 27 22 26 29 27 25 21 28 27 27 22 24 18 26 24 23 20 22 30 25 28 22 25 22 24 23 28 28 22 24 26 19 27 24 16 23 30 20 22 19 28 21 24 16 14 23 25 19 20 26 19 23 25 23 17 15 21 22 24 21 21 25 26 27 27 26 31 18 24 24 17 17 16 29 18 26 27 21 22 19 21 25 21 21 22 23 29 24 22 23 24 20 15 25 20 26 25 30 22 22 22 26 28 27 22 22 23 27 22 12 29 18 18 23 16 22 24 28 21 22 19 27 17 18 22 23 18 24 29 20 23 23 23 17 17 20 17 22 29 18 25 21 27 15 22 26 24 20 29 23 21 21 18 16 18 26 30 28 23 25 25 29 22 13 14 22 19 20 25 25 19 24 19 30 25 19 19 20 32 24 30 19 27 22 28 17 24 28 23 26 28 23 25 21 24 28 30 32 20 25 25 20 25 30 14 27 30 21 26 30 19 21 24 18 25 25 21 28 24 25 28 24 17 25 23 20 25 29 28 24 19 22 21 31 19 19 30 23 19 27 23 24 21 22 21 18 29 16 16 30 23 19 25 26 26 19 28 22 25 18 22 23 28 22 23 37 25 27 29 20 28 20 24 19 17 19 19 25 22 26 25 17 18 19 14 26 26 25 31 24 20 17 19 29 28 21 22 15 22 29 23 19 30 28 23 21 24 22 23 22 18 23 24 21 26 22 28 23 29 26 23 26 27 27 26 14 18 17 25 21 23 20 26 24 24 28 18 20 15 26 20 28 24 17 19 26 23 31 29 14 24 22 23 20 24 30 26 19 9 18 17 22 16 20 19 19 23 23 21 23 22 18 24 24 19 25 17 19 21 18 27 17 23 26 27 19 30 24 28 26 18 21 23 19 22 20 18 22 15 21 23 29 20 23 30 21 34 21 15 22 24 29 29 26 22 31 16 24 20 25 22 24 18 17 30 26 25 21 26 22 22 29 18 23 25 25 20 19 27 24 18 20 27 28 19 20 28 25 14 23 20 24 20 29 20 24 31 32 29 22 25 19 21 20 28 21 28 19 16 28 25 34 28 26 29 15 19 20 24 21 20 23 22 32 25 25 22 20 20 24 26 25 26 24 20 19 30 31 15 21 22 20 22 22 25 30 25 23 25 30 24 25 22 18 24 20 23 20 16 24 16 22 25 21 20 21 20 19 22 34 26 22 25 18 21 25 19 21 20 20 28 14 22 25 27 26 17 19 26 19 22 17 23 23 20 20 12 15 19 18 24 25 25 24 29 24 25 23 15 19 28 25 23 20 18 18 21 25 24 22 27 20 26 14 29 24 20 28 32 18 20 24 30 24 14 29 17 26 17 24 21 23 31 24 24 19 20 29 21 17 15 26 24 24 25 23 28 24 11 24 17 25 26 25 23 28 25 27 25 19 20 20 21 25 15 17 25 26 23 27 18 15 26 22 28 25 21 27 20 28 34 25 13 25 25 24 22 30 24 23 21 18 30 23 17 21 19 24 28 26 22 25 25 24 22 23 15 19 33 16 24 24 20 24 15 19 21 23 25 18 23 28 18 24 17 29 26 26 30 19 24 29 25 25 26 31 28 28 11 18 28 23 21 18 21 21 23 26 19 26 24 18 25 22 26 26 25 23 14 26 25 28 27 27 26 19 33 25 13 31 26 22 30 19 25 11 25 16 27 24 22 19 27 22 16 22 24 16 16 21 22 24 27 34 20 20 21 27 23 24 24 19 26 19 20 21 25 25 25 23 25 30 24 21 31 31 29 20 20 19 26 19 21 26 11 24 13 20 25 22 18 18 29 15 13 19 18 28 26 27 20 30 21 18 27 17 17 25 31 23 16 21 28 19 30 21 17 24 27 23 28 20 15 25 23 17 27 27 25 30 33 24 23 24 25 26 22 22 32 28 21 21 29 26 19 24 21 23 20 22 16 16 24 22 17 23 17 20 24 16 24 26 22 26 28 27 18 21 15 17 20 14 30 21 27 29 19 28 22 21 26 25 17 26 23 33 29 24 11 29 25 19 22 22 14 26 25 28 22 27 22 28 28 12 25 33 24 20 30 21 22 29 21 29 31 20 24 21 31 24 24 17 25 20 21 24 22 26 26 26 15 26 26 23 24 21 30 21 25 24 19 16 22 30 19 18 37 20 35 20 28 21 24 26 28 28 16 24 25 24 29 17 22 18 21 30 18 26 21 21 22 19 32 23 26 31 24 27 17 23 25 31 24 27 20 23 25 19 27 25 27 16 23 22 22 29 25 22 22 23 21 25 25 32 27 28 21 17 25 17 24 22 21 21 26 24 16 31 24 24 26 30 27 16 18 26 27 21 26 26 29 30 18 17 16 18 23 21 16 17 23 14 24 21 21 28 20 21 21 21 21 29 15 32 29 26 31 21 27 21 23 15 25 17 20 17 25 22 21 31 27 17 23 30 18 25 24 15 27 17 29 23 21 23 18 25 25 26 20 14 19 26 22 19 17 18 28 25 21 28 37 24 25 18 24 30 26 29 26 25 23 21 18 24 26 27 23 27 28 28 24 16 21 20 23 20 24 24 19 15 26 18 22 24 21 18 23 25 20 19 23 20 19 23 19 19 28 28 23 23 27 28 20 21 19 23 29 21 14 20 17 22 21 24 23 23 29 22 31 28 16 29 25 24 16 20 28 27 22 16 19 29 23 19 17 13 20 19 15 20 20 30 21 20 22 22 31 27 22 23 25 22 17 35 15 21 19 24 20 22 24 26 24 22 17 18 24 22 18 26 20 28 22 23 24 25 18 16 17 19 30 17 23 18 26 19 23 24 23 24 26 14 17 24 15 27 17 26 13 26 33 26 15 27 17 29 19 22 20 22 28 22 18 30 15 24 19 25 20 33 21 33 25 18 29 25 17 23 15 20 27 24 22 18 26 29 16 24 24 18 24 29 22 24 18 20 18 25 22 25 24 23 29 20 16 20 21 21 24 29 33 20 17 29 28 23 18 24 25 20 24 23 14 24 27 20 17 39 27 20 26 24 25 24 18 34 17 22 15 28 25 29 28 17 27 28 21 28 15 26 18 26 20 21 30 20 31 16 23 20 21 19 20 22 18 18 20 21 19 21 23 21 24 19 27 22 16 21 20 22 20 27 25 14 25 16 28 35 24 22 21 23 18 36 26 21 27 26 22 26 20 24 25 25 21 24 36 31 23 17 27 28 28 22 31 29 29 30 27 25 22 17 28 14 24 23 20 22 26 18 28 24 28 21 26 31 23 22 22 22 22 28 26 27 15 19 20 21 35 30 22 21 23 28 19 20 20 25 18 20 21 20 24 24 27 25 23 25 19 24 26 24 25 22 17 18 12 19 18 29 19 21 23 29 23 27 16 24 15 27 19 23 27 23 20 22 19 31 29 18 26 19 29 14 25 32 26 15 20 22 21 18 22 26 22 31 28 31 20 27 23 21 22 20 26 15 14 26 23 20 27 29 19 31 29 22 21 22 27 29 22 28 26 16 26 30 29 20 19 28 23 22 19 22 23 23 21 23 23 20 22 28 27 17 20 21 21 21 23 22 20 19 14 24 31 16 25 24 24 26 15 21 20 27 24 23 25 22 24 22 21 21 24 24 29 20 18 28 20 26 22 19 24 21 23 28 26 24 21 25 15 18 23 31 20 32 20 20 19 20 22 19 16 20 21 23 25 15 31 26 33 21 17 21 22 23 25 30 26 17 32 15 31 24 30 21 20 26 26 25 30 20 26 23 19 21 18 25 23 21 23 26 18 22 26 21 23 23 23 29 32 21 27 17 28 18 22 24 16 25 21 20 13 26 25 30 18 28 24 18 28 14 23 25 26 29 24 32 25 17 27 21 33 20 22 26 22 20 25 25 18 24 22 18 29 26 25 25 25 24 24 18 23 23 25 20 23 23 24 19 26 17 24 18 33 32 14 31 15 27 28 18 28 29 20 31 18 35 28 23 22 21 20 22 22 19 30 34 24 23 27 22 26 28 23 15 26 16 20 24 28 27 21 26 14 23 24 26 28 21 23 30 29 16 18 28 26 16 28 23 25 22 23 31 23 24 23 20 24 28 28 23 20 19 29 25 23 18 20 24 23 27 19 31 20 21 25 26 26 23 23 20 17 17 26 16 30 22 27 21 19 23 16 20 18 21 27 19 18 21 25 28 19 23 23 22 19 15 15 19 24 20 17 29 23 21 26 26 25 19 17 22 24 18 27 24 24 23 22 19 25 22 22 24 21 20 22 26 24 23 22 27 22 23 19 19 17 24 19 13 27 24 28 21 24 22 27 28 18 23 22 23 22 17 25 21 26 31 28 24 27 25 19 18 25 22 28 21 18 21 24 25 21 23 28 24 29 34 23 26 23 19 18 23 18 20 24 31 16 15 20 27 23 24 30 24 26 23 32 28 18 20 31 24 20 20 15 22 22 40 27 22 18 28 28 23 25 20 22 16 28 27 18 28 31 20 19 29 21 19 23 20 21 22 17 30 18 23 29 35 25 19 24 32 18 19 23 26 28 22 21 19 17 26 25 18 25 20 16 19 26 22 13 17 22 23 24 31 22 18 29 24 25 27 26 16 24 26 22 21 19 20 24 24 26 24 20 25 21 25 29 22 26 20 31 17 23 23 21 22 24 24 29 22 27 16 23 21 25 20 26 18 13 24 22 19 18 15 28 15 25 19 20 30 28 22 25 19 28 23 25 24 18 27 32 25 24 21 18 26 26 28 23 19 15 19 25 24 24 21 24 22 22 23 23 19 20 28 27 22 23 24 29 17 28 17 25 25 24 26 28 32 20 21 20 22 18 18 22 26 17 26 29 18 19 23 22 14 25 25 20 26 25 27 21 27 20 29 29 18 18 25 21 21 28 28 25 21 29 26 20 29 16 20 28 21 24 25 23 24 27 27 27 16 26 24 28 23 13 30 21 23 29 20 23 24 23 20 16 21 18 19 29 22 15 22 27 20 31 21 28 24 17 17 27 21 29 24 17 22 26 20 23 15 35 32 33 24 29 23 25 14 27 21 26 24 22 23 32 27 31 21 26 20 28 20 20 21 16 26 22 18 21 25 18 20 21 27 23 22 20 24 17 26 25 19 23 27 19 15 26 21 18 18 27 30 26 25 26 21 31 24 16 23 33 25 26 20 14 15 13 20 26 16 28 22 23 24 20 26 21 29 18 22 27 28 29 24 30 25 24 25 17 22 26 23 28 31 19 20 26 22 24 14 21 14 30 19 29 21 15 17 30 17 27 20 29 23 16 23 20 24 20 25 17 22 28 20 26 19 22 17 21 34 23 22 28 23 17 24 31 26 25 30 24 18 28 27 31 27 22 25 22 27 21 16 28 28 23 20 28 25 22 24 26 21 24 23 20 21 33 27 22 12 24 24 27 25 28 15 32 24 16 27 15 23 19 23 19 22 23 30 18 22 21 27 20 19 22 31 21 18 30 29 25 21 22 34 16 22 21 30 22 24 21 20 31 19 22 21 22 24 20 18 30 25 25 29 26 22 15 25 22 20 22 25 28 18 25 22 24 23 23 19 23 18 21 18 22 26 12 22 23 21 21 13 25 21 25 22 28 22 33 20 21 21 25 24 19 19 22 23 19 21 22 19 16 25 20 18 25 30 24 14 20 27 23 16 28 23 25 19 20 25 25 24 20 25 29 25 26 21 22 21 29 29 28 17 22 23 23 23 26 22 24 23 24 20 24 14 27 24 32 31 20 19 22 19 18 23 18 21 20 18 19 30 16 21 21 18 12 21 22 24 10 15 22 32 25 18 27 26 28 16 19 25 24 28 37 22 18 26 20 23 22 36 21 23 19 27 21 17 14 23 24 20 23 29 30 27 29 33 23 23 28 24 22 16 30 26 19 31 28 16 18 31 18 16 18 18 32 26 24 23 24 25 30 15 28 31 17 18 20 19 18 21 19 24 34 20 16 22 21 24 27 25 16 19 28 27 26 26 23 15 25 24 32 27 19 23 23 25 22 26 14 25 19 27 24 15 30 27 20 24 24 25 28 20 21 25 22 19 18 16 19 26 23 16 24 15 33 18 29 20 18 22 23 27 25 26 23 29 24 19 18 28 20 29 21 24 19 31 22 24 17 25 20 24 28 22 24 25 28 30 28 19 23 20 29 27 23 23 22 22 24 26 29 23 26 25 19 18 23 19 29 22 18 29 20 15 19 29 29 17 20 20 25 19 25 25 13 25 23 26 25 26 23 19 15 20 29 28 23 15 22 15 26 22 29 26 23 25 30 16 23 33 25 16 20 20 24 29 20 24 26 20 28 17 24 25 19 18 21 27 22 24 14 21 34 24 23 16 25 13 25 25 20 20 17 26 20 29 19 22 23 23 19 29 25 25 23 25 28 29 28 18 17 26 23 26 24 16 30 29 20 18 27 26 26 25 22 20 28 24 22 20 22 20 23 22 28 20 29 21 36 22 25 21 20 26 27 27 30 22 27 22 22 26 18 20 24 24 21 23 26 17 27 22 31 24 26 19 20 26 32 18 20 19 26 19 26 28 22 18 24 20 26 22 23 21 29 23 15 22 29 24 29 34 23 25 14 20 22 27 17 26 17 24 28 23 32 16 20 15 24 21 19 17 16 21 28 24 19 24 25 19 19 18 19 18 23 21 24 29 21 20 21 22 28 22 19 29 18 22 29 30 20 22 32 26 25 19 28 21 18 18 20 20 21 16 27 27 25 21 24 25 26 21 30 30 29 26 23 15 27 27 16 22 28 28 19 17 25 18 27 29 35 19 32 21 22 29 33 23 21 20 26 24 11 20 23 21 27 21 26 23 21 22 28 22 18 28 17 22 26 31 22 25 19 20 24 26 18 23 21 26 23 28 22 24 22 27 17 26 15 19 23 17 30 23 24 22 24 26 25 16 27 24 25 17 23 23 21 19 24 20 23 15 17 22 27 24 19 25 19 26 25 20 28 18 24 14 18 23 22 15 25 22 25 23 19 28 12 18 30 16 22 21 19 31 24 26 20 24 25 16 23 23 24 23 27 18 22 26 22 27 19 24 21 26 24 22 25 23 24 26 22 18 23 27 27 20 31 18 31 19 23 30 21 24 18 35 23 24 26 21 24 20 20 19 26 20 20 28 17 21 28 28 22 25 22 16 22 25 22 23 21 23 25 21 21 22 18 20 26 20 21 25 25 29 21 22 22 21 31 23 22 21 19 22 29 28 22 29 24 17 26 21 31 17 22 22 21 24 23 20 32 16 24 28 15 24 26 26 24 23 25 26 27 27 29 19 21 19 23 28 33 21 28 17 20 21 29 19 27 22 25 33 15 23 15 23 19 18 29 22 27 22 24 20 20 22 27 20 24 29 19 25 26 25 26 29 17 18 17 24 22 25 24 26 23 17 20 24 23 32 22 25 15 35 33 31 32 18 22 29 14 21 26 24 16 26 30 14 25 19 31 27 24 17 30 23 27 20 23 27 29 32 18 26 27 24 24 18 25 17 28 22 23 27 24 26 23 18 18 24 16 29 19 22 28 29 20 23 38 22 23 22 26 19 16 28 21 28 26 21 25 20 17 24 23 21 20 27 25 23 28 27 23 23 16 24 18 28 19 20 16 23 26 26 24 18 18 31 21 15 20 28 24 15 23 19 33 23 25 21 22 22 25 26 18 36 19 24 31 20 22 24 19 14 30 36 26 20 19 24 26 27 21 23 19 23 22 26 26 32 33 23 25 20 23 27 22 20 23 20 26 23 17 14 22 23 19 23 22 25 16 24 29 21 22 30 22 21 28 23 22 25 26 18 18 28 24 31 23 16 24 27 25 29 21 21 20 27 14 22 24 17 19 22 19 23 22 23 17 25 29 23 28 21 34 13 19 23 26 23 16 17 23 15 26 23 23 18 22 25 26 22 24 26 25 17 17 19 22 25 23 26 23 20 21 14 25 22 24 19 17 21 30 27 21 25 21 26 30 26 26 25 21 21 18 23 18 19 32 27 19 25 18 20 21 25 26 27 29 21 23 29 25 33 18 23 19 29 23 26 24 23 26 21 18 20 24 22 23 28 25 20 26 18 25 25 25 19 22 18 21 20 27 14 28 24 25 24 26 25 21 25 23 26 13 23 18 17 17 29 21 22 21 25 28 31 12 27 18 22 27 20 22 20 27 23 26 26 23 30 28 25 27 33 25 29 21 26 25 28 25 21 20 23 25 21 23 24 25 25 31 21 22 21 32 20 25 24 19 20 27 30 25 23 24 28 27 20 23 18 26 27 20 28 19 24 23 14 20 21 30 17 23 21 20 25 15 20 28 25 27 23 23 24 16 24 24 29 21 29 25 11 28 25 22 30 16 23 29 29 23 24 30 21 23 22 32 20 21 23 25 24 20 21 24 25 25 20 28 28 25 23 25 18 22 29 22 25 14 27 21 23 25 19 26 21 33 23 12 17 28 28 22 23 23 23 24 27 27 30 23 30 17 16 22 20 30 23 30 24 22 21 23 29 30 26 20 26 21 25 26 30 30 17 23 18 23 24 27 18 24 23 26 18 15 20 21 16 29 24 17 28 30 28 23 37 29 16 25 26 25 35 29 25 19 23 22 19 20 20 16 16 28 26 20 25 29 18 19 26 19 18 29 23 23 23 21 19 25 16 25 25 25 30 22 25 21 19 23 25 34 20 18 14 22 26 20 25 21 32 21 20 22 26 26 18 25 24 19 18 18 23 16 22 25 21 17 29 25 21 16 25 26 21 25 23 22 19 19 25 22 22 19 17 15 24 24 16 25 21 22 16 17 19 29 22 33 20 18 19 23 21 30 17 23 18 19 23 24 20 23 25 26 20 22 21 26 24 20 21 22 17 24 29 29 19 26 24 32 20 27 27 20 28 24 25 18 23 21 14 28 21 27 34 22 25 15 21 22 24 28 16 31 20 33 27 26 17 25 31 19 18 30 24 16 22 20 26 29 20 23 20 18 35 18 22 29 26 21 29 30 29 23 25 25 21 24 27 27 31 23 32 18 25 22 21 23 21 20 33 24 29 22 16 18 24 29 29 24 17 22 20 20 15 16 21 21 24 25 24 18 37 29 28 26 20 24 26 21 22 25 27 22 21 24 21 26 19 30 30 20 25 23 21 20 29 24 21 19 21 29 29 34 24 22 20 31 25 22 23 20 24 21 17 30 22 24 22 21 17 20 23 24 22 17 23 21 18 24 17 27 23 29 28 33 31 20 32 23 26 23 23 26 28 14 23 16 17 23 23 24 28 18 19 31 14 26 19 26 20 20 24 31 24 24 24 18 15 16 24 29 20 26 20 16 26 30 17 33 25 15 20 22 20 23 27 33 16 20 26 25 28 20 26 22 33 29 14 28 22 24 18 30 19 15 17 18 28 32 26 23 20 28 26 21 26 23 42 29 25 21 28 29 22 29 31 18 17 21 23 15 14 15 21 27 23 21 22 27 21 22 31 22 22 24 20 26 21 25 18 21 18 21 20 30 24 14 24 16 31 19 23 23 23 24 13 24 20 23 26 24 30 17 27 23 25 22 26 20 24 16 26 17 20 21 22 20 25 23 18 19 22 26 20 26 25 25 29 21 23 21 27 23 22 20 24 27 23 28 22 18 25 30 14 26 26 17 26 23 23 24 24 19 29 19 15 21 18 21 20 21 29 21 25 25 20 24 23 25 18 27 25 24 35 24 15 17 25 22 22 25 29 27 21 21 23 20 32 22 25 22 21 28 24 22 25 21 24 20 19 20 22 17 21 32 26 23 20 17 22 19 20 19 20 23 27 25 31 23 32 21 28 34 21 29 18 20 17 21 21 22 19 19 17 24 22 19 30 30 22 17 16 32 22 29 20 31 22 26 19 27 22 20 26 24 30 15 18 23 17 31 26 20 21 18 20 17 34 21 24 28 26 23 22 19 24 12 26 28 24 16 24 22 18 24 19 21 19 26 29 25 22 27 36 24 24 13 23 26 23 25 27 21 30 22 21 20 14 28 16 24 30 25 23 25 15 23 18 35 27 20 23 28 15 19 17 24 20 20 26 19 29 20 20 32 19 21 24 22 22 25 22 15 22 15 24 18 16 23 20 18 18 19 31 28 18 25 24 29 26 23 24 22 23 17 25 24 28 20 26 20 22 20 28 18 26 21 23 24 25 25 28 29 33 16 29 33 31 25 24 25 26 21 13 16 18 30 20 19 19 35 15 23 29 25 19 15 29 27 22 23 28 26 29 19 26 26 17 24 14 22 34 26 18 26 19 16 26 20 25 23 27 22 31 21 30 24 28 22 26 15 19 20 28 24 28 21 21 17 16 19 22 29 24 35 24 24 18 19 23 27 22 24 21 27 30 22 26 26 27 25 26 32 27 21 23 32 22 23 24 26 24 23 28 24 25 22 22 27 25 23 20 22 20 28 18 22 25 17 31 20 28 16 29 24 23 17 29 17 29 18 18 26 26 27 23 29 25 23 23 21 21 16 26 30 34 35 21 22 27 24 23 20 19 25 20 27 24 17 20 21 25 18 28 26 19 21 22 19 25 21 16 22 24 20 21 27 13 29 25 18 13 36 31 24 27 23 27 27 22 26 24 20 21 25 20 20 27 26 22 27 17 29 23 21 30 29 31 20 33 26 17 22 24 22 25 22 23 22 24 18 23 21 11 18 17 23 19 25 34 29 22 16 19 30 25 27 31 23 28 23 18 19 20 27 17 19 27 23 22 16 22 29 29 25 19 29 24 28 30 21 19 29 21 30 22 19 20 27 16 14 20 22 25 19 25 20 29 28 20 24 22 23 27 23 26 24 21 20 18 26 27 25 19 21 20 26 21 24 20 17 31 19 16 20 16 25 22 14 25 25 23 23 24 21 20 18 31 18 19 26 23 18 27 36 25 25 28 22 15 19 21 24 22 24 21 22 30 24 23 16 19 22 22 29 23 24 19 20 24 26 21 25 25 19 21 19 20 23 23 18 29 21 25 32 28 19 29 21 31 19 27 22 24 32 21 27 25 25 23 26 23 25 20 24 24 18 24 20 20 30 22 19 20 19 23 27 22 21 24 22 21 19 23 18 20 28 31 23 21 15 20 14 16 25 21 22 38 24 26 27 27 26 17 31 30 18 24 34 24 24 22 14 24 26 17 17 22 28 15 25 29 26 17 20 21 19 16 31 16 18 23 16 30 27 19 23 23 35 23 22 27 23 18 26 29 21 23 22 30 26 28 11 20 27 27 24 24 24 20 27 20 22 26 24 21 17 30 18 25 20 24 21 22 16 28 26 21 26 22 29 22 21 24 21 29 30 25 27 23 24 26 16 19 19 26 26 23 27 19 34 20 29 14 24 14 28 17 27 16 18 28 21 21 22 20 17 24 25 26 19 14 17 24 25 36 28 23 20 25 29 23 31 27 19 29 25 30 21 28 27 31 24 32 24 15 21 32 24 22 25 25 17 21 30 18 23 17 28 22 24 23 26 23 20 25 27 20 26 14 18 21 22 16 22 21 27 18 20 16 19 25 21 21 23 20 26 23 26 30 20 21 27 19 24 14 26 13 17 28 23 21 26 25 24 25 28 18 22 14 21 26 15 27 23 22 26 22 23 26 23 12 15 26 23 21 24 21 29 19 25 27 25 22 24 29 29 23 23 21 20 18 21 21 17 14 21 23 25 21 24 30 18 29 26 20 33 29 28 20 19 20 29 20 17 30 30 25 18 31 28 21 20 27 18 25 18 35 27 20 21 23 29 20 22 23 25 22 21 26 21 27 15 31 22 27 27 28 23 35 22 20 20 27 21 16 14 17 19 19 20 31 20 32 27 19 26 11 27 26 24 25 24 21 26 23 11 17 22 18 25 24 23 16 30 12 23 19 21 30 27 16 24 20 26 27 21 15 26 27 24 29 22 17 24 21 19 23 27 23 26 26 28 19 25 25 28 33 19 26 23 22 22 23 22 24 21 25 25 24 20 23 24 25 25 25 19 17 28 20 21 25 20 25 32 31 26 20 17 24 25 33 24 22 24 12 23 22 22 24 26 24 19 20 19 33 22 21 26 24 25 22 24 23 19 27 28 25 26 14 25 21 23 22 17 19 12 17 21 17 27 24 23 23 26 21 30 23 30 26 22 19 20 26 29 28 19 18 19 24 21 28 23 22 28 18 23 22 24 28 20 16 21 24 19 23 26 25 22 25</t>
+  </si>
+  <si>
+    <t>EXN(0.614834750316992, 31.035710328947815, 4.978168152238471)</t>
+  </si>
+  <si>
+    <t>43 37 39 33 33 23 28 40 24 24 41 40 30 35 36 34 28 35 40 39 37 48 32 36 27 33 43 35 44 29 38 30 42 38 37 31 41 44 25 34 48 35 24 36 37 40 27 40 46 35 35 40 34 38 36 36 32 23 41 43 39 44 35 34 37 39 39 31 35 27 42 31 34 39 42 29 32 40 31 39 35 29 42 32 30 37 36 45 29 31 36 43 36 41 26 37 37 49 40 30 30 32 39 28 41 32 36 38 39 37 28 34 36 49 26 25 30 33 28 27 42 38 34 35 38 38 33 33 31 40 35 37 36 22 30 34 38 31 36 40 31 35 30 49 32 35 25 39 42 32 24 36 35 37 29 35 29 23 35 41 35 39 26 26 32 32 29 35 26 36 29 31 39 41 50 32 33 34 41 47 41 39 41 41 40 41 41 30 32 35 36 25 36 36 21 42 33 32 36 20 29 33 30 40 29 38 32 47 31 37 28 27 38 42 28 43 34 40 34 36 32 32 51 38 33 34 32 40 29 32 39 41 36 31 30 37 37 32 40 39 30 32 27 36 34 23 30 47 29 33 43 36 19 26 33 29 41 32 38 38 32 33 35 37 34 40 27 28 28 32 37 38 38 40 32 30 28 42 34 32 28 22 33 38 38 29 46 25 39 29 27 32 27 29 37 27 33 38 31 29 38 34 30 36 38 42 39 40 37 44 32 30 36 32 34 34 35 39 38 40 37 35 27 32 28 41 38 35 33 42 40 42 38 32 31 41 29 47 37 31 28 28 42 36 39 31 24 47 42 29 26 37 42 23 34 33 38 43 24 39 39 32 35 35 34 42 26 35 35 42 34 34 25 40 32 31 39 30 34 44 29 33 42 43 33 45 26 44 30 36 32 31 28 29 34 27 32 40 25 24 41 34 43 61 37 30 34 35 24 37 38 31 30 35 32 33 29 36 29 28 31 31 36 35 39 33 23 37 57 35 34 33 21 37 38 51 33 37 28 35 27 30 33 45 33 39 28 33 30 28 42 30 34 36 27 30 38 32 41 40 30 34 36 35 20 33 33 37 39 34 23 32 41 27 34 41 34 33 29 39 27 46 29 36 34 38 24 40 36 41 30 38 38 29 37 34 35 37 38 34 47 39 42 41 36 41 30 32 46 28 35 39 31 37 27 31 33 24 33 31 39 30 38 39 32 34 33 24 34 33 43 43 36 32 29 22 28 33 38 37 37 35 38 38 36 39 34 35 44 32 41 25 33 31 42 32 39 29 38 29 36 32 39 33 36 35 35 36 34 36 43 34 32 31 36 37 35 22 29 33 40 40 39 31 40 39 37 45 40 35 29 39 30 34 38 29 31 26 35 29 24 26 38 25 40 36 31 39 35 26 27 28 31 30 29 30 38 30 39 35 21 35 38 39 40 31 26 40 31 39 36 33 35 35 39 26 26 39 31 37 31 31 36 38 29 29 41 36 34 29 34 39 42 39 29 44 30 32 37 26 30 42 40 33 29 36 22 39 37 37 36 31 41 28 27 31 29 34 37 38 26 36 25 34 53 49 32 30 50 31 31 43 27 38 23 32 34 33 31 29 31 39 34 32 24 30 34 33 37 24 56 36 33 36 36 31 35 41 33 32 37 35 35 37 38 34 26 38 38 40 32 31 28 41 48 36 37 29 35 35 35 37 53 33 37 34 23 31 30 43 26 36 37 30 36 36 32 29 29 26 33 37 34 48 27 30 46 46 26 42 32 26 44 39 39 31 28 32 25 30 39 37 29 30 27 35 34 31 30 40 26 45 37 32 41 40 40 34 32 40 21 43 38 35 21 29 26 37 29 32 41 36 35 34 45 32 46 26 37 29 30 33 40 39 26 36 40 36 32 29 33 33 34 35 42 24 35 33 42 31 28 29 33 41 33 31 38 43 38 25 34 28 35 31 39 33 37 43 38 32 33 36 31 31 34 36 32 45 33 35 33 30 31 40 38 32 34 33 34 27 29 37 39 41 30 32 43 25 19 33 28 29 24 34 44 32 39 35 53 26 21 33 37 29 28 60 29 36 32 29 29 35 36 34 39 39 32 31 32 38 41 29 28 30 31 27 31 39 41 42 36 35 32 39 33 31 29 28 34 28 32 32 42 40 45 34 37 41 33 24 34 30 26 28 45 43 27 30 28 36 36 39 33 33 30 33 27 37 35 25 37 34 36 26 31 31 29 28 27 27 23 26 45 39 28 36 40 33 40 26 40 35 33 40 32 42 32 34 35 33 33 33 27 49 33 29 40 25 32 36 44 33 47 39 39 36 36 34 38 28 35 37 32 36 33 28 33 51 27 25 31 39 30 50 36 40 34 30 34 33 32 29 25 36 31 46 37 30 32 34 26 36 38 28 42 32 40 29 34 36 25 29 47 40 25 48 28 36 28 33 37 31 34 31 27 36 31 37 41 38 35 36 37 49 33 23 32 31 38 30 36 31 38 35 25 32 38 41 37 33 31 32 32 30 28 42 42 34 36 34 31 31 31 44 39 32 35 47 29 32 36 42 28 35 32 31 44 40 40 28 43 37 35 38 39 36 31 34 23 30 36 32 41 45 34 32 33 29 42 40 27 35 37 33 34 29 36 37 34 35 36 28 38 47 35 27 43 35 39 34 38 45 26 29 33 32 35 33 36 37 34 34 31 40 34 33 41 38 36 27 42 22 40 31 32 39 44 38 33 37 35 37 37 33 33 33 29 35 29 40 23 26 28 24 35 40 35 42 28 40 23 42 26 37 45 30 23 35 42 32 42 47 33 36 43 31 32 36 28 36 49 42 40 29 36 27 41 25 41 42 39 41 25 27 39 35 30 41 40 44 30 30 37 32 40 42 31 30 25 27 30 34 32 39 33 27 39 40 33 27 33 41 38 33 31 28 34 38 50 33 35 33 48 33 42 34 33 31 39 42 35 33 35 33 38 36 22 32 27 36 38 51 35 36 35 36 39 40 26 36 34 28 39 36 27 22 29 23 31 38 36 38 35 37 27 35 26 24 26 44 28 42 38 33 30 35 36 41 34 33 43 31 45 26 36 37 40 30 27 34 33 42 34 23 33 41 34 26 38 34 35 33 34 29 36 32 38 47 32 33 35 33 33 29 27 36 27 37 35 28 37 38 23 27 31 38 46 36 37 40 27 40 33 33 32 32 29 24 40 22 32 31 40 37 34 26 34 32 36 33 29 37 34 28 31 38 47 25 37 29 37 35 40 30 30 43 27 18 33 32 28 48 33 28 34 39 30 40 37 27 41 29 34 40 29 36 33 29 42 31 39 35 24 40 34 32 35 24 38 39 24 31 34 29 35 33 36 41 31 44 37 28 29 35 34 33 33 42 32 33 38 28 28 34 29 28 36 39 30 36 41 38 30 36 45 37 40 38 27 35 30 36 38 37 40 42 31 34 28 35 36 32 40 34 35 34 25 43 38 32 40 34 27 40 35 36 37 28 29 31 33 30 28 39 33 31 29 31 48 33 34 31 38 32 29 44 31 39 33 31 32 26 31 43 31 32 39 28 25 27 34 26 32 33 30 46 30 27 26 35 35 32 28 35 32 25 41 32 26 35 34 32 28 40 35 35 31 36 31 36 34 39 33 30 35 30 37 29 36 37 37 37 26 37 39 36 33 31 31 33 40 31 39 33 41 30 28 32 34 37 41 28 34 39 33 30 36 29 35 36 38 35 39 25 32 32 34 36 41 26 33 29 35 35 22 26 24 28 35 32 32 39 40 27 26 32 41 28 28 45 36 33 35 37 34 36 28 29 38 44 23 37 36 30 35 28 38 40 28 44 33 37 23 28 31 30 33 35 30 52 36 32 38 46 33 33 31 25 34 52 35 35 30 46 30 34 25 28 39 26 38 31 28 25 37 34 31 38 35 37 33 30 33 34 37 28 33 33 37 33 32 48 31 37 36 39 26 25 34 39 22 35 36 26 34 38 46 24 30 29 27 25 35 30 35 38 42 30 35 42 41 39 40 35 38 26 30 32 38 25 24 38 28 30 30 32 47 38 45 31 27 33 35 29 39 35 27 39 27 23 33 25 34 37 45 44 59 35 33 40 39 24 33 44 35 42 35 40 44 38 29 31 29 38 30 35 28 38 35 29 29 36 48 41 29 38 36 38 29 33 36 33 33 42 40 29 29 32 23 25 30 34 43 37 38 26 35 38 31 40 36 35 39 35 39 30 29 32 32 38 41 38 47 27 39 25 33 28 28 43 32 32 41 26 35 41 34 27 44 38 30 28 24 37 36 39 30 34 32 34 45 49 32 39 39 35 37 51 38 40 38 31 32 23 39 32 35 34 31 24 29 33 37 25 25 32 36 32 40 36 35 38 41 32 36 38 24 38 42 29 39 44 34 28 31 33 41 34 25 34 41 33 36 27 26 30 32 34 26 33 26 33 25 35 37 24 36 45 39 25 34 43 30 32 37 30 30 31 28 34 16 34 35 33 32 32 32 37 27 35 24 23 37 32 36 29 35 36 39 37 30 31 28 34 32 34 34 23 37 32 33 39 35 44 33 27 34 31 53 39 29 33 44 37 32 33 29 35 38 32 25 36 33 34 31 32 37 26 39 26 37 38 35 27 37 33 33 31 32 39 27 44 45 31 28 35 27 48 27 30 33 49 38 19 30 34 33 33 47 42 35 35 31 33 39 40 43 43 34 34 36 32 34 32 35 28 35 29 43 37 41 36 33 32 36 37 40 31 31 39 31 32 37 48 36 34 33 30 29 43 24 47 29 41 39 33 27 36 32 44 29 34 34 30 37 36 31 36 35 34 33 32 39 39 34 32 34 24 40 31 34 29 39 39 40 33 40 25 40 28 33 36 35 32 30 36 24 37 34 26 35 32 38 36 19 35 38 41 35 36 48 36 26 28 35 37 27 27 33 37 33 33 39 29 41 34 31 33 32 26 33 23 34 36 38 25 39 30 29 29 31 39 29 35 37 28 36 37 31 36 29 46 32 35 37 28 24 49 28 41 32 32 49 24 41 40 37 30 34 29 32 43 36 37 31 24 25 34 32 33 30 30 37 37 34 34 36 34 39 31 37 27 31 38 39 33 29 27 28 34 22 35 36 38 35 33 32 34 34 35 38 27 31 32 33 40 37 38 37 42 24 40 29 35 27 39 43 31 28 36 30 41 25 26 31 34 37 38 41 52 37 29 22 35 31 42 30 33 31 31 33 33 33 33 27 32 29 36 29 36 28 26 29 41 39 38 29 34 44 26 35 37 34 33 26 25 32 37 41 36 39 23 36 37 32 28 33 33 53 37 21 40 37 29 38 29 30 24 29 43 38 31 34 49 28 32 34 42 24 31 33 30 28 31 46 34 35 27 26 30 32 40 35 38 27 36 28 29 37 31 42 37 29 33 33 33 43 32 32 33 49 35 41 38 48 31 37 34 25 32 45 43 32 33 30 31 31 35 37 30 33 34 37 35 32 36 36 37 36 31 36 36 32 26 30 28 43 37 21 32 31 37 35 31 23 36 27 37 31 25 45 35 43 31 24 36 33 36 37 42 24 23 36 36 48 37 30 25 39 28 30 43 33 36 37 30 42 31 40 37 30 34 34 32 37 27 35 45 33 31 33 37 36 33 49 39 32 39 26 44 28 26 42 31 39 34 36 39 36 39 35 37 38 33 26 34 39 34 28 38 29 33 37 36 28 42 32 34 37 34 28 36 33 36 37 33 42 30 32 36 32 31 37 31 38 34 29 27 37 30 39 35 45 31 30 33 22 44 32 29 32 35 29 35 31 32 29 30 32 29 36 25 34 43 37 43 44 33 32 26 33 28 27 36 40 26 37 24 28 31 43 37 25 32 32 33 34 36 22 31 35 28 33 33 45 29 28 41 30 23 45 30 28 30 28 40 30 38 32 42 44 43 36 32 33 33 39 37 33 31 29 34 38 38 36 30 42 28 42 33 29 37 24 35 38 34 36 26 52 37 33 32 29 35 28 28 33 36 38 29 30 46 29 25 46 39 34 59 34 36 36 35 40 28 34 38 30 30 51 31 42 28 42 32 34 42 42 35 36 37 37 33 22 36 38 29 37 48 45 28 48 31 39 36 42 36 36 35 37 36 31 26 33 42 35 47 49 37 30 40 40 27 52 35 37 28 40 34 38 36 35 37 43 29 34 25 30 25 36 36 31 30 47 26 21 35 40 38 37 26 34 37 33 35 38 33 28 19 36 37 42 37 28 32 31 40 31 31 38 37 34 41 24 30 35 40 42 29 41 32 35 38 26 33 35 27 39 43 26 36 49 26 39 30 36 32 27 24 44 26 28 34 37 27 36 22 38 38 36 39 46 37 37 38 34 43 32 34 31 31 40 28 43 34 39 53 33 35 30 36 32 32 35 34 31 26 23 33 33 37 33 34 43 33 31 31 35 32 42 31 35 29 39 34 28 33 30 30 34 34 32 36 27 27 39 41 37 39 29 30 38 46 42 31 37 39 33 29 47 27 49 38 37 37 38 36 22 35 30 44 37 29 40 39 32 35 32 32 38 35 22 45 41 29 32 25 30 31 49 33 44 32 33 31 25 30 30 39 30 33 41 43 33 29 28 39 34 42 37 33 38 42 33 43 40 34 28 29 34 44 36 29 39 39 35 35 39 38 30 40 28 40 39 32 33 26 43 34 44 32 30 33 32 28 30 36 24 43 31 32 41 39 36 40 43 23 33 39 28 31 31 28 23 34 23 29 38 42 34 34 32 32 26 34 33 27 35 38 39 37 33 28 26 34 38 31 43 32 39 27 26 36 30 28 33 21 40 30 30 33 38 41 38 38 29 29 41 42 41 37 37 30 38 33 32 35 37 44 28 30 21 33 25 31 32 39 30 46 28 37 36 36 34 44 33 27 31 25 25 40 35 34 49 41 28 44 36 42 31 29 34 30 33 28 31 44 23 35 38 39 43 24 27 28 32 32 32 35 26 35 36 32 30 35 33 35 32 39 34 32 26 29 35 32 28 38 32 28 33 29 30 31 36 30 36 33 30 35 42 37 39 32 30 37 40 39 30 34 31 42 30 38 31 32 37 31 40 54 39 40 31 29 31 28 33 44 38 37 58 37 37 45 25 30 23 40 28 36 39 32 46 39 36 24 20 49 28 35 35 32 34 43 36 39 41 27 32 40 29 27 32 38 34 31 26 33 28 43 51 43 35 34 28 41 37 33 37 28 25 31 37 31 28 30 50 30 40 40 40 35 40 30 33 40 32 40 37 25 34 29 39 21 41 26 25 33 29 27 23 29 43 33 32 24 31 44 44 32 45 34 40 29 38 35 44 26 33 33 36 23 47 32 27 26 23 35 32 28 29 38 29 28 39 38 27 35 38 29 32 29 54 32 40 29 39 25 33 29 35 32 29 38 30 34 31 27 43 34 39 39 44 41 38 37 33 41 23 42 39 42 37 32 39 36 23 36 37 34 30 22 31 30 41 36 30 38 36 27 35 36 29 31 40 34 28 36 33 34 38 32 26 45 28 37 38 34 27 25 36 26 36 28 35 42 33 35 39 29 30 36 32 37 32 34 40 35 41 35 32 36 34 33 40 39 29 34 33 28 31 34 24 39 39 24 29 36 32 36 43 34 37 40 42 32 32 32 26 29 32 40 32 38 36 33 33 38 37 40 29 38 32 35 37 39 37 49 32 27 32 32 29 25 43 25 50 28 37 37 35 34 42 32 39 36 51 41 28 39 30 34 35 29 35 33 32 29 33 38 27 30 30 27 39 29 42 27 38 30 30 27 37 32 45 34 27 40 38 33 46 32 37 38 31 44 33 31 32 31 35 30 32 22 28 31 20 35 43 23 28 34 26 35 51 33 43 25 35 36 27 25 41 35 32 31 34 45 39 32 40 47 40 30 24 34 38 36 34 45 26 39 33 30 38 35 38 40 38 35 34 39 28 35 30 25 31 44 34 41 29 36 26 28 38 41 39 51 27 29 31 36 41 40 51 41 27 44 43 38 27 43 30 30 34 32 34 21 38 29 36 42 32 28 46 39 35 43 39 33 25 34 40 43 38 26 34 33 24 25 40 36 32 20 35 29 36 36 34 42 28 39 49 44 34 30 30 25 26 37 31 47 28 35 42 44 44 36 33 31 31 38 41 34 22 22 30 45 30 35 33 37 29 21 37 29 36 32 29 40 34 36 35 32 22 32 32 40 37 43 36 26 24 40 31 37 28 43 37 37 28 40 33 40 30 31 34 21 21 32 32 32 37 45 29 36 36 29 25 31 29 35 29 35 35 33 40 31 42 33 30 35 35 38 31 34 31 43 34 33 36 37 37 38 31 38 28 35 32 38 30 41 37 31 36 31 33 39 45 30 36 32 45 27 42 34 35 40 33 31 34 41 29 32 38 40 40 32 37 32 36 23 32 22 32 26 33 31 31 31 28 41 34 33 33 32 40 26 47 35 40 40 33 27 37 39 35 38 24 37 41 39 35 36 37 35 34 26 29 31 39 33 22 29 35 27 28 27 45 44 34 31 28 26 34 24 32 47 33 39 24 38 36 31 29 38 46 32 30 37 37 33 38 38 43 33 31 35 34 27 37 39 33 41 43 28 35 26 31 35 29 38 29 31 43 47 28 33 31 47 27 33 35 28 28 26 30 38 36 32 49 37 44 28 45 31 36 36 40 46 20 33 26 27 25 35 37 36 31 31 32 32 35 33 30 33 26 28 26 33 25 38 42 46 33 37 38 38 20 28 38 34 40 26 30 41 35 37 31 43 34 34 22 39 32 24 35 30 39 30 29 38 34 37 35 37 39 26 32 31 31 31 23 31 41 36 49 22 33 36 24 35 43 46 44 38 21 36 35 37 32 29 31 33 27 40 32 39 29 29 53 43 47 29 34 30 40 32 38 40 30 36 32 37 34 29 42 34 41 32 28 23 37 33 36 45 35 37 31 42 22 29 29 37 41 33 47 28 28 31 39 25 23 36 35 29 34 47 39 33 47 28 25 34 34 31 36 36 32 43 31 26 26 36 34 44 44 37 28 31 31 32 31 28 47 41 29 37 31 30 38 33 42 25 30 32 32 28 26 25 36 38 37 36 39 60 31 39 32 34 41 40 38 35 31 38 32 36 25 25 36 31 27 39 25 31 32 37 40 34 31 30 27 30 34 29 33 27 31 38 32 38 28 46 39 53 25 43 33 30 35 28 36 36 42 27 41 31 32 50 22 27 34 29 45 34 25 28 36 33 31 33 37 20 32 36 36 35 41 24 30 34 30 42 43 34 29 39 34 30 16 33 37 39 36 33 29 48 27 32 22 27 33 44 25 37 45 34 30 37 36 29 32 20 35 31 43 44 46 33 32 27 34 21 36 37 32 30 37 44 39 26 32 40 33 41 19 34 45 42 31 21 29 34 33 39 40 34 38 45 32 26 36 40 41 37 27 35 32 36 39 39 31 30 34 28 33 30 34 39 33 32 32 29 41 28 35 26 22 33 50 30 35 27 38 27 39 33 34 34 37 38 29 32 42 44 34 32 29 27 37 37 51 36 35 25 32 41 35 31 28 32 27 42 35 30 39 35 38 34 32 41 42 28 32 41 39 34 29 31 38 30 23 24 36 44 34 40 38 38 33 40 34 35 30 32 33 29 37 40 28 37 32 39 36 42 27 26 30 39 27 30 35 29 37 33 28 32 34 42 37 46 31 34 34 42 37 41 35 31 26 40 28 39 32 31 34 32 27 48 31 36 36 40 37 28 27 34 46 33 32 26 32 25 28 17 27 28 31 36 44 25 23 36 34 37 38 36 35 23 33 39 35 41 38 40 44 42 44 38 39 44 44 32 29 27 31 33 25 36 32 37 43 33 31 26 39 37 25 37 36 39 31 38 39 43 40 31 34 48 26 25 30 35 45 28 23 30 40 37 40 30 41 38 33 38 29 35 34 41 27 32 32 37 35 29 34 30 35 41 30 36 41 28 35 30 36 34 26 40 32 36 39 19 25 29 32 26 30 22 30 33 31 36 36 33 42 30 29 38 43 31 43 34 25 30 35 42 43 29 31 26 33 30 38 38 43 38 38 36 27 38 40 36 37 28 47 33 38 39 29 31 42 23 34 34 42 36 35 30 38 39 32 32 33 34 28 29 35 29 32 35 36 25 33 32 32 32 48 29 29 40 29 35 35 32 31 30 33 39 34 35 35 31 37 30 41 42 36 39 27 29 34 31 30 34 32 36 45 36 36 52 32 37 34 41 33 39 31 37 34 30 26 30 49 33 40 31 31 33 25 28 36 35 37 26 32 40 42 32 33 38 39 36 27 27 26 39 35 32 31 37 31 27 41 42 25 32 25 28 36 38 23 38 46 25 43 32 42 39 39 36 33 45 42 38 37 38 24 40 37 34 33 33 48 41 41 29 38 34 36 41 37 43 30 36 35 31 42 35 26 34 39 32 34 31 39 33 35 27 25 42 36 28 32 37 27 36 39 32 29 28 34 33 35 31 26 37 41 31 35 39 43 28 43 36 31 25 21 32 25 36 33 33 36 28 30 35 37 41 32 36 33 37 34 35 38 25 26 33 24 34 44 39 37 30 32 39 42 38 33 39 33 40 38 18 43 42 32 36 25 34 44 41 33 33 28 34 33 27 33 35 28 32 43 30 35 30 36 29 31 23 29 33 40 32 41 30 42 18 34 40 41 26 38 30 27 24 25 25 25 31 40 37 37 35 34 37 32 20 18 38 29 29 40 42 28 36 30 41 39 28 34 33 35 35 37 34 43 36 34 32 37 52 35 29 36 40 33 29 30 36 41 45 28 37 39 29 37 43 29 30 39 34 40 39 30 33 38 30 30 37 36 43 34 39 36 33 24 34 33 32 32 41 35 40 31 32 37 50 27 32 41 43 29 39 35 37 38 27 33 32 43 24 22 40 35 28 38 35 35 27 41 37 40 29 32 32 31 29 35 45 37 33 43 32 38 30 35 33 25 35 24 37 31 31 39 28 27 32 27 41 34 37 44 32 36 27 37 40 45 36 32 22 36 38 42 25 32 38 39 31 31 35 36 34 26 35 39 35 40 36 39 35 44 40 32 33 41 34 33 21 35 22 36 31 34 33 34 35 41 40 24 34 30 28 36 37 42 25 32 34 34 37 43 27 32 35 32 31 32 38 34 32 16 34 31 34 29 29 24 32 34 31 32 33 35 30 35 29 25 38 28 26 35 28 40 27 27 33 40 27 41 34 46 37 28 33 31 32 38 31 31 33 24 31 30 40 29 39 43 32 49 35 29 29 33 36 42 35 32 38 22 34 36 39 26 34 28 32 47 36 44 32 34 26 32 41 27 36 34 36 27 36 38 36 25 26 36 40 35 31 34 38 23 31 35 29 35 36 30 35 40 37 41 29 37 28 25 33 31 38 42 30 33 38 41 50 40 36 39 23 30 29 41 32 33 39 33 48 38 36 40 33 30 41 37 38 33 34 28 31 40 38 22 28 37 30 29 34 38 41 38 35 32 47 48 33 34 29 34 30 36 30 29 42 28 32 40 42 27 31 29 28 34 39 34 32 35 26 35 33 23 30 34 37 37 26 31 34 42 36 25 34 37 35 34 29 32 37 28 35 25 22 27 29 33 28 36 36 47 35 32 42 22 26 40 33 34 32 31 25 26 33 36 30 50 28 35 30 40 41 26 35 45 32 34 36 41 32 26 43 25 43 31 30 33 31 42 37 39 29 30 40 33 22 28 36 31 37 35 34 40 38 19 43 31 31 43 39 33 40 42 41 31 25 30 31 27 48 29 26 42 35 30 42 33 23 30 29 36 37 29 32 25 51 42 31 25 36 35 38 34 49 40 34 36 28 48 40 28 37 31 33 41 35 40 36 38 34 36 37 31 29 42 31 33 35 25 32 29 27 35 33 38 26 33 40 30 37 27 34 44 50 39 30 32 35 32 34 43 40 44 43 19 25 42 33 29 25 26 35 29 41 27 42 38 29 37 38 35 39 37 33 25 38 34 41 36 37 39 29 45 38 29 45 39 42 46 27 31 20 35 32 32 30 30 30 40 34 24 33 31 24 23 30 31 36 36 41 31 30 32 47 28 40 29 32 40 29 27 29 38 34 45 29 36 37 36 29 44 47 48 36 34 28 35 28 32 38 22 39 18 33 35 36 33 28 42 26 23 30 35 40 35 34 35 41 30 27 46 27 26 34 38 35 26 30 34 28 44 33 26 33 37 32 40 31 25 38 33 30 37 34 39 46 44 36 34 34 34 36 29 33 47 44 31 35 47 35 31 42 30 32 33 36 26 24 42 29 31 37 25 26 31 26 34 40 38 37 43 37 31 28 29 32 34 23 36 29 35 43 31 41 34 30 30 40 24 38 34 45 40 31 24 39 30 27 31 30 23 44 35 38 40 38 33 45 37 20 38 53 32 33 42 35 36 43 34 36 49 36 36 30 42 33 33 33 29 33 37 37 33 34 39 40 26 39 39 34 34 28 39 28 39 35 28 28 31 33 26 29 52 36 45 25 39 35 39 40 38 38 30 40 36 35 40 31 34 29 30 38 32 38 30 37 33 35 46 36 43 42 32 39 23 39 33 40 35 37 41 35 40 24 43 43 37 20 42 29 27 34 28 34 32 30 34 33 31 44 31 41 37 25 37 29 36 36 29 31 32 37 31 36 38 38 34 38 44 34 28 40 41 30 36 35 49 39 27 33 27 31 29 37 25 28 33 36 30 37 31 33 29 31 38 31 33 35 29 44 40 38 38 32 34 32 31 28 42 30 27 32 48 29 29 36 39 25 39 35 24 40 37 24 43 21 36 33 31 28 24 39 37 36 29 27 34 40 31 29 22 25 38 41 32 42 50 36 40 27 35 43 38 44 38 36 32 34 28 32 39 39 30 36 40 41 35 31 36 31 33 34 36 30 28 27 43 30 32 37 30 28 33 45 30 29 34 28 32 38 26 34 34 38 31 32 34 37 32 36 34 35 38 34 25 26 27 31 31 39 35 32 41 35 42 41 27 35 36 32 30 30 33 38 33 25 31 45 33 32 28 24 31 30 19 30 32 45 28 33 35 36 45 44 29 30 34 38 33 51 28 32 30 32 34 30 35 37 31 33 30 31 35 32 33 38 27 38 31 31 36 41 29 31 29 35 50 24 34 28 37 28 30 30 37 33 31 23 34 33 23 36 28 36 21 34 53 32 28 40 32 34 31 32 30 29 31 29 26 38 29 38 36 30 28 45 36 42 34 35 44 28 24 37 25 29 44 37 35 21 38 39 29 40 39 36 34 43 30 33 32 32 34 31 34 32 33 33 42 34 25 30 30 32 31 40 39 25 24 40 41 32 34 35 42 30 36 35 24 35 37 28 29 45 38 29 37 30 40 31 37 46 30 33 31 34 40 39 38 29 43 38 36 38 25 36 26 38 33 36 43 34 40 29 44 26 28 26 35 36 28 25 26 29 37 28 35 27 33 32 38 38 22 33 24 42 41 39 32 21 35 31 41 42 39 31 30 38 30 44 31 28 36 34 32 40 37 31 31 39 31 42 53 42 41 30 37 37 40 31 48 37 36 38 42 37 30 27 36 19 30 31 35 39 37 27 38 37 39 31 37 43 33 35 34 32 32 41 33 44 31 32 31 30 39 41 42 34 42 36 29 37 28 39 28 30 33 31 32 36 36 34 37 34 29 33 36 32 35 31 29 31 20 30 33 38 30 29 31 40 40 37 20 33 24 38 30 39 33 36 29 35 31 50 40 30 36 29 44 24 40 49 34 27 37 27 34 23 29 38 27 43 42 50 28 37 27 31 32 31 40 25 26 39 31 31 37 37 32 45 38 30 31 32 36 39 26 36 40 27 33 42 37 30 31 39 32 34 25 30 29 30 29 32 31 31 35 34 38 27 30 30 31 32 38 36 33 33 22 42 40 30 37 36 41 34 28 26 37 36 37 33 46 30 32 32 38 36 36 32 47 30 22 35 30 38 42 30 31 30 37 37 30 29 29 32 28 25 36 42 31 46 28 23 43 34 46 36 24 35 41 36 38 28 55 40 40 36 30 40 35 35 32 36 37 27 41 29 48 34 40 25 29 34 38 36 41 27 46 37 31 33 30 45 37 37 41 42 26 33 37 32 38 32 30 37 42 30 30 25 41 24 30 34 25 38 30 29 28 42 45 46 32 32 33 26 39 22 32 40 39 39 36 43 36 25 39 31 44 32 28 35 31 34 38 33 32 32 32 28 38 32 39 34 34 40 29 31 33 34 36 37 37 37 32 25 35 26 42 36 41 44 24 42 25 39 38 26 38 39 30 47 28 59 40 27 33 30 28 30 37 34 43 46 33 28 38 28 37 45 37 23 38 24 34 31 41 33 32 38 21 36 36 37 42 31 33 38 44 21 32 37 40 26 40 34 36 36 37 46 38 32 36 33 35 38 47 34 30 36 38 35 33 30 26 30 31 39 34 39 29 31 35 37 42 31 31 29 29 23 41 23 42 34 40 31 30 30 27 28 30 35 35 25 32 30 33 37 35 38 32 34 24 23 23 29 32 24 35 41 33 35 41 36 33 32 26 33 37 26 41 38 33 34 31 30 34 28 29 40 37 32 35 35 33 32 31 37 29 30 32 26 28 32 36 28 36 35 41 30 36 31 35 41 33 32 32 30 34 32 39 33 33 38 35 36 34 33 27 35 41 43 38 36 28 38 41 37 31 35 39 30 37 47 40 34 31 30 34 35 36 32 33 38 26 31 31 39 40 32 40 34 33 37 53 40 28 32 40 32 26 31 27 31 32 53 38 27 37 36 40 33 29 37 30 28 37 39 28 34 45 30 37 37 27 23 28 35 31 34 26 43 25 30 41 48 40 27 37 41 27 26 28 36 40 36 29 28 33 35 42 27 33 32 27 24 42 33 25 34 29 43 38 39 33 25 37 37 32 37 37 22 36 40 29 28 30 34 31 33 38 42 30 29 28 38 42 33 35 27 36 30 30 38 33 34 32 32 43 29 33 30 32 29 38 32 34 31 23 34 32 26 25 28 42 23 35 30 33 39 40 30 43 28 40 31 34 36 28 34 45 31 32 30 25 44 37 37 35 29 24 31 30 29 36 35 37 28 38 32 37 27 26 39 38 39 34 36 36 26 41 30 35 34 34 34 43 51 28 30 28 41 27 25 39 38 33 45 38 31 23 29 31 25 41 35 38 36 34 38 30 41 30 41 43 25 27 31 27 29 42 36 44 27 37 34 27 36 31 31 32 35 33 37 38 37 41 37 34 21 37 35 39 32 24 40 37 35 38 26 36 32 30 28 25 29 31 25 44 40 30 29 41 31 47 32 40 42 27 29 35 33 41 40 30 40 41 24 33 28 46 45 44 33 36 35 39 26 39 26 33 37 32 34 40 33 40 32 33 36 39 33 31 34 23 38 37 32 31 31 28 25 36 36 32 29 25 32 28 44 28 28 35 40 23 28 33 34 26 26 40 40 39 36 36 34 47 29 25 30 47 32 50 36 25 21 22 32 35 26 38 34 34 38 28 39 30 35 31 37 35 33 44 36 46 36 41 38 24 37 41 31 35 43 29 24 42 32 32 31 30 23 38 26 43 28 26 29 45 35 38 26 36 31 31 37 30 36 27 37 26 34 39 33 40 25 27 25 31 44 36 37 40 27 30 34 39 38 36 40 36 33 45 32 34 36 33 40 38 42 36 28 38 43 31 29 36 43 36 41 42 31 35 29 30 34 45 35 43 19 31 35 39 35 39 30 35 36 30 34 28 32 33 38 25 31 35 42 30 33 29 37 34 27 29 44 27 30 42 39 35 26 33 49 24 31 30 33 33 38 25 30 49 31 41 32 31 34 27 39 35 36 36 39 33 30 26 31 36 31 30 40 42 30 36 31 37 36 33 33 39 25 40 26 35 42 22 32 30 27 40 21 42 27 34 35 41 29 48 27 34 29 38 39 39 25 32 33 30 30 32 31 24 32 26 31 34 35 31 28 28 37 30 24 39 38 29 30 32 34 34 33 41 33 40 33 34 28 31 35 38 40 42 28 37 32 28 37 36 33 39 36 32 35 36 24 39 36 41 36 29 30 34 24 30 34 31 32 39 30 30 38 34 28 35 29 32 27 44 36 23 26 33 45 31 24 39 40 38 26 36 36 30 39 50 27 26 33 36 38 28 50 35 36 27 39 31 25 27 30 33 38 32 37 40 36 41 46 32 33 34 36 27 25 39 38 28 39 34 26 23 44 30 27 27 25 53 34 31 36 37 40 43 28 34 35 26 31 33 31 34 40 24 35 45 32 23 28 24 37 31 34 22 31 40 39 40 33 33 27 38 37 46 41 34 33 33 29 30 42 21 33 28 43 44 27 37 41 29 37 35 34 35 33 38 31 37 30 30 27 29 38 39 30 40 24 47 30 37 28 32 35 37 39 36 34 32 43 32 28 26 38 35 41 33 31 30 41 29 34 26 37 31 35 38 33 33 31 36 38 40 35 35 28 35 42 34 33 31 30 34 34 38 31 34 34 32 32 32 29 35 31 26 41 27 24 24 44 39 27 32 30 29 35 35 33 19 30 39 38 34 34 32 33 23 27 36 34 35 26 31 29 34 34 38 44 33 31 43 26 34 45 34 26 28 36 36 41 30 36 33 38 40 28 32 34 30 29 27 39 34 39 22 30 48 41 37 31 39 20 35 38 38 36 30 37 25 48 38 26 34 38 26 43 38 31 37 35 43 41 41 29 26 30 36 40 29 29 36 40 30 32 42 35 35 44 31 32 41 43 33 31 30 35 36 32 34 26 38 31 49 35 32 25 32 43 35 32 42 37 38 30 34 37 30 31 34 40 25 37 32 24 37 42 42 35 42 24 34 35 42 32 31 32 36 27 33 36 33 27 33 27 44 30 37 30 37 33 23 32 39 30 40 44 33 48 24 29 33 42 25 35 33 37 34 30 40 24 31 31 40 32 34 26 30 35 36 31 31 37 36 24 35 38 33 24 32 29 38 36 31 32 32 31 41 33 36 36 28 31 37 35 30 32 53 37 35 32 42 39 24 28 28 24 30 24 41 32 36 26 37 38 30 31 41 42 41 40 36 27 39 37 28 31 34 43 27 30 31 26 38 44 43 25 45 35 36 42 44 36 29 30 38 40 20 27 38 36 31 41 35 33 37 38 41 31 29 37 25 32 37 38 34 37 34 31 31 35 31 33 28 43 34 44 34 32 29 35 30 33 23 22 30 29 38 32 38 34 31 34 37 26 35 36 45 27 38 44 33 29 34 33 37 28 30 37 35 34 28 32 26 40 32 27 41 34 37 28 33 30 29 32 34 31 36 34 33 47 31 28 35 31 31 31 31 40 31 37 26 33 32 29 35 29 35 32 38 29 33 41 27 39 31 30 35 39 33 32 32 31 35 34 31 30 33 35 33 36 41 29 47 32 31 37 27 45 37 44 35 36 33 27 35 29 36 27 42 32 44 38 28 33 36 42 35 33 37 21 36 32 33 38 32 34 39 35 31 33 25 27 39 29 30 36 38 40 32 34 30 30 45 32 30 25 33 33 44 32 33 38 36 22 34 31 37 33 27 33 31 36 30 32 51 25 35 40 31 31 35 35 40 33 37 38 42 40 36 26 29 29 33 40 46 34 44 29 33 33 45 30 37 43 34 46 23 33 29 30 33 35 35 27 34 36 31 29 33 31 35 31 33 37 24 33 48 36 38 44 29 28 31 37 34 36 37 41 34 24 38 33 33 46 34 32 25 42 52 38 53 32 36 36 22 32 40 42 30 34 41 29 39 32 41 37 31 27 36 32 31 31 37 37 40 51 26 31 37 30 35 31 31 27 42 31 33 39 36 44 33 27 38 34 27 40 28 30 38 42 36 31 48 31 34 29 36 34 28 39 25 36 32 35 35 33 31 38 34 41 29 36 37 31 41 37 29 34 26 32 22 35 34 30 28 34 40 40 34 26 34 47 28 30 31 34 32 32 36 27 42 31 41 28 33 36 35 34 26 46 31 33 48 33 32 35 30 25 46 44 38 30 29 30 34 34 34 29 27 37 33 41 33 39 41 35 39 35 26 43 32 27 37 33 38 33 29 30 36 35 23 32 29 36 24 32 44 32 31 40 25 29 38 28 34 34 44 28 27 32 32 47 36 33 33 41 44 39 32 34 29 44 25 37 34 33 28 37 31 35 28 33 30 38 35 30 41 28 44 26 31 35 43 35 24 24 34 22 40 38 32 25 25 41 39 30 36 36 38 26 24 29 39 39 33 37 39 31 31 33 30 35 37 33 29 28 47 41 33 35 35 35 41 39 42 36 36 33 31 38 29 29 39 41 31 32 25 37 29 38 40 37 46 39 31 40 37 37 27 29 30 44 30 35 34 31 34 27 30 27 30 34 31 36 37 32 37 26 43 34 36 31 36 30 34 27 34 27 44 32 30 38 35 31 31 41 32 33 22 33 28 24 32 41 35 34 35 36 38 42 21 43 25 34 38 29 38 32 37 34 35 36 32 46 37 38 37 42 31 33 32 38 39 37 36 34 32 38 40 30 37 26 42 36 36 29 28 32 43 29 39 38 29 29 41 44 32 33 46 39 40 28 41 32 36 44 29 39 31 34 39 29 36 38 43 29 31 33 27 31 27 29 33 34 39 35 37 39 26 33 35 37 31 42 41 21 46 32 33 35 23 35 34 37 34 38 48 26 35 28 43 28 30 32 38 31 37 30 31 40 39 33 46 47 41 29 31 33 34 35 34 37 27 32 30 35 46 33 36 30 44 33 32 26 33 38 31 32 34 32 31 40 34 36 33 45 29 28 36 31 40 29 44 31 32 26 28 36 45 44 32 41 29 41 33 45 34 25 36 28 33 34 35 28 33 35 38 26 28 29 32 27 40 41 25 32 37 37 36 51 36 24 37 33 35 44 36 33 29 34 30 28 33 35 28 29 40 32 37 35 39 35 28 39 32 26 39 42 33 34 30 36 32 24 38 40 38 44 34 38 25 35 27 33 49 31 31 25 33 40 32 34 43 39 28 42 37 42 33 24 32 33 28 27 27 37 30 39 36 32 28 40 41 38 25 32 40 34 38 32 33 29 30 33 32 37 27 30 22 38 30 22 32 31 29 22 32 25 39 30 37 28 31 28 34 30 39 29 33 32 33 35 35 27 30 35 43 37 30 30 33 34 29 38 32 23 37 36 42 35 37 35 51 29 42 38 24 33 33 30 42 39 32 29 36 34 42 41 38 33 29 30 29 40 42 25 43 33 47 38 35 29 34 50 26 33 45 40 24 28 24 37 42 30 34 27 29 46 29 29 41 40 33 36 40 32 34 34 37 33 33 43 35 44 34 45 29 43 37 31 34 36 31 48 27 38 27 27 28 34 39 39 32 29 33 27 24 27 23 28 36 37 33 33 24 45 36 44 37 26 35 39 27 32 35 37 30 30 33 36 32 29 41 40 28 37 34 30 22 42 40 36 28 29 42 41 46 33 39 33 45 33 37 33 36 33 31 26 43 40 37 33 31 23 32 39 30 37 29 32 27 27 39 28 39 35 41 39 47 45 34 40 31 30 27 30 37 38 31 37 26 28 38 29 36 40 29 29 39 26 35 29 41 38 29 33 48 28 33 34 24 22 28 40 39 42 39 28 33 36 42 27 45 34 25 35 36 27 37 39 42 29 30 41 37 39 27 32 32 48 38 19 36 33 34 29 41 31 25 35 23 36 43 41 40 33 34 37 30 31 30 53 41 36 34 41 46 31 38 49 30 23 30 33 30 29 26 35 41 41 40 26 39 29 39 46 33 36 36 39 36 29 32 32 35 31 29 29 39 33 26 35 26 39 29 35 37 33 41 34 42 26 38 39 39 39 28 37 34 39 35 42 32 31 27 40 25 31 34 28 37 41 31 25 33 37 38 27 33 37 41 40 37 36 32 36 34 36 29 35 38 31 41 27 28 30 41 21 32 39 28 32 33 28 35 36 32 43 29 31 29 33 29 27 38 40 30 41 33 31 36 35 41 28 41 38 30 48 36 24 26 37 26 38 39 47 37 29 32 39 31 43 31 39 37 32 40 37 32 35 31 32 26 29 29 31 25 28 46 43 36 30 22 30 35 29 26 29 37 40 38 40 37 39 30 49 47 33 41 36 25 24 26 33 31 33 30 24 33 31 33 37 37 38 27 24 37 33 42 38 48 35 40 32 41 40 35 42 28 45 25 28 32 31 39 31 26 29 26 36 33 48 29 39 43 39 36 28 34 37 25 43 42 37 25 38 33 34 37 27 37 30 37 37 39 29 41 46 31 37 27 33 37 29 38 39 29 42 33 37 26 27 37 29 37 45 33 36 39 20 33 28 51 34 27 37 42 36 33 27 34 30 30 37 31 41 33 34 42 32 35 39 33 28 34 35 24 33 30 29 24 22 48 30 30 29 24 39 35 30 32 37 50 44 34 42 35 38 26 36 46 35 26 35 27 30 26 39 29 38 33 34 27 31 35 44 38 42 25 39 50 38 41 33 31 38 31 22 26 33 38 28 33 27 45 21 33 43 34 31 21 40 30 36 33 43 32 37 34 31 38 26 30 23 32 41 38 27 38 33 19 33 29 33 32 35 38 38 30 33 35 40 36 35 26 33 31 43 34 43 28 34 27 32 29 37 37 37 52 29 31 39 30 25 37 34 34 29 34 46 32 35 33 35 39 34 41 36 32 35 40 30 37 35 33 34 29 53 39 46 30 31 40 40 33 26 36 30 44 35 39 41 24 40 34 37 28 42 36 35 28 37 23 37 27 36 43 36 39 34 37 33 36 41 38 32 29 34 37 43 46 30 38 42 33 36 26 26 36 36 41 36 26 31 30 41 22 44 38 25 36 33 34 42 27 32 28 32 31 23 34 23 40 43 30 19 49 37 32 38 39 44 30 34 40 35 35 42 43 39 26 41 35 33 39 32 37 35 25 45 37 42 27 44 30 25 34 32 29 33 35 29 31 38 32 35 35 22 27 33 35 26 31 44 42 35 28 22 44 35 41 43 32 39 34 26 33 30 39 31 25 36 40 33 26 36 38 46 30 33 43 37 46 38 28 26 40 31 40 30 33 33 42 33 22 33 36 38 28 36 31 40 39 29 32 32 32 38 31 38 38 34 34 35 38 41 40 37 33 29 42 31 34 27 31 50 35 27 37 25 35 30 21 37 40 37 31 35 33 33 32 36 32 28 39 29 26 36 44 32 35 41 34 27 24 28 35 31 35 29 43 39 33 27 25 31 32 40 40 28 31 33 32 30 38 29 36 43 27 33 36 32 34 35 28 38 29 37 45 36 30 41 35 43 32 39 29 35 42 34 32 33 43 35 36 32 38 28 35 34 24 33 28 27 45 32 31 33 25 31 35 35 31 31 27 31 28 33 29 33 38 41 36 31 28 33 25 33 37 28 40 51 36 38 33 38 33 22 50 39 33 30 49 41 35 34 24 35 31 30 27 32 37 27 35 44 46 28 30 29 26 24 44 31 31 37 25 44 37 23 38 33 42 37 35 37 31 26 31 41 37 28 31 37 32 40 23 38 34 38 38 33 41 32 37 27 31 46 35 29 32 43 29 39 26 36 30 27 28 38 33 28 35 32 40 37 30 35 40 45 44 48 38 31 34 38 30 25 29 35 38 30 37 23 46 35 47 24 31 20 40 29 34 30 25 42 30 27 31 37 26 38 42 37 30 28 31 35 40 52 37 30 35 37 45 30 40 33 31 37 36 41 30 33 45 40 26 55 30 24 30 45 31 29 35 36 26 34 37 33 32 29 49 36 38 36 37 28 25 36 37 30 36 21 27 30 32 27 32 22 41 35 32 23 26 31 33 34 32 36 32 33 39 40 29 27 40 31 41 32 32 23 28 46 29 33 33 33 37 35 43 28 31 26 31 40 25 33 37 33 36 27 32 40 33 20 25 34 31 37 37 29 42 26 37 35 45 33 29 39 36 40 40 31 27 29 36 28 27 26 34 30 40 32 36 43 32 34 47 36 47 38 39 27 31 37 42 28 31 40 37 39 30 42 36 29 30 46 37 32 32 48 34 36 27 38 44 26 39 34 34 31 29 38 30 38 25 39 30 36 41 36 34 45 33 30 30 42 37 20 24 28 32 32 31 41 29 39 40 32 35 24 37 34 42 34 34 38 40 34 16 35 28 30 33 30 41 21 37 19 33 30 31 39 33 24 33 35 32 42 36 25 35 36 31 47 30 26 34 32 36 30 37 34 38 34 33 26 46 32 40 44 37 39 34 35 37 39 35 37 30 35 36 32 27 35 33 31 31 42 35 27 34 29 49 43 33 39 44 40 37 32 28 33 39 56 35 32 32 19 36 28 31 33 40 35 34 38 27 43 37 33 36 35 37 28 36 31 27 38 37 33 40 26 35 32 36 36 32 29 23 26 27 30 39 29 35 38 39 31 45 37 41 36 33 30 33 36 37 35 28 31 30 35 27 38 31 33 42 24 32 34 32 41 31 34 33 36 29 40 36 43 31 34</t>
+  </si>
+  <si>
+    <t>JSB(10.960789930243482, 9.777493027223393, -374.7977226122159, 2453.723931240209)</t>
+  </si>
+  <si>
+    <t>213 267 230 261 201 132 222 270 218 146 261 198 189 209 232 268 187 149 265 232 311 332 219 233 129 235 314 223 242 199 246 265 231 271 258 189 291 216 189 236 311 185 219 302 198 285 195 244 231 212 261 250 242 320 213 281 151 159 232 375 288 311 222 237 249 287 312 202 231 173 248 227 201 269 245 188 168 233 175 194 185 148 218 215 252 194 251 327 212 255 242 194 237 240 133 245 169 395 248 200 213 233 298 197 202 196 195 300 302 320 190 208 253 296 212 206 253 237 156 220 251 217 273 266 297 239 233 235 211 184 204 293 204 223 212 189 201 271 198 238 198 262 219 248 223 205 181 255 303 205 159 198 245 202 268 199 193 186 243 238 252 231 192 203 259 213 192 237 142 168 208 259 272 273 331 165 239 199 285 290 284 251 297 243 315 231 291 199 217 237 276 182 274 205 165 270 166 173 209 118 247 181 249 295 180 243 262 317 251 349 242 199 281 291 194 248 267 263 245 228 240 216 247 252 196 256 177 318 172 249 332 285 239 187 165 234 310 192 313 212 230 232 195 307 212 160 214 332 175 233 284 253 152 170 233 243 301 202 280 316 288 165 245 297 199 286 163 217 248 219 191 269 309 285 227 180 156 262 212 187 229 173 195 252 271 223 304 173 207 199 197 257 202 208 298 153 271 262 247 187 263 279 186 273 300 343 176 279 261 317 200 213 266 223 220 229 275 316 238 215 261 262 157 214 186 317 225 178 261 236 284 300 292 256 208 209 243 267 283 200 231 189 271 222 238 227 189 301 267 160 164 298 276 194 270 251 275 276 160 312 252 170 265 215 218 286 217 212 212 197 227 138 200 329 182 246 272 235 239 303 173 241 276 302 253 321 160 247 165 233 267 237 187 145 224 184 255 230 209 178 291 209 232 410 246 188 215 230 155 252 239 259 230 280 182 252 213 229 210 207 210 169 238 241 264 277 181 303 337 203 289 222 95 220 281 273 243 244 186 198 154 145 274 274 239 286 191 231 190 208 277 210 246 259 206 194 288 238 322 253 226 305 244 264 169 269 238 255 203 237 152 207 231 164 321 292 240 219 201 237 213 246 223 238 221 281 117 271 187 246 202 300 193 205 251 253 245 335 261 209 278 245 290 277 281 290 225 251 306 164 274 265 274 266 147 192 205 138 258 209 258 185 280 286 224 285 257 164 202 284 288 264 310 252 218 181 167 213 228 203 275 287 271 216 217 226 213 190 214 225 301 176 247 187 307 251 216 206 287 141 196 231 303 199 286 236 234 216 226 255 272 214 155 235 249 264 236 170 279 171 309 321 229 195 203 206 232 225 288 319 243 262 233 262 174 193 222 190 168 205 118 165 241 163 302 195 224 319 216 169 158 159 261 250 183 206 254 243 266 246 112 197 306 273 239 257 247 305 186 273 229 281 171 280 268 220 161 216 239 180 224 269 274 261 206 222 314 260 243 272 186 267 292 247 209 278 245 192 291 206 207 265 220 207 151 237 148 206 181 226 209 239 293 168 207 164 191 264 230 209 190 224 174 218 265 320 244 218 318 206 201 257 218 197 171 230 205 202 214 164 227 234 244 263 165 229 214 233 234 183 364 271 200 268 277 201 249 269 200 194 294 229 256 215 317 209 177 224 233 263 186 202 163 243 287 246 230 201 223 168 257 225 321 233 157 199 166 202 180 146 233 236 249 254 292 286 217 152 195 160 198 229 246 238 164 215 249 297 177 279 175 156 251 234 307 161 205 191 201 163 312 268 226 245 196 245 171 221 191 283 137 323 225 218 282 237 228 242 227 323 93 307 265 244 130 183 198 219 199 232 231 226 224 224 210 289 361 182 230 225 250 236 247 277 204 285 207 259 227 192 296 209 243 240 226 207 185 209 218 208 177 237 230 263 190 231 262 272 194 128 247 184 247 196 252 159 240 327 255 149 183 242 194 222 263 333 225 348 237 244 182 166 268 292 210 209 238 250 261 184 216 241 213 259 256 198 320 197 136 248 243 140 154 244 313 199 299 257 288 210 138 202 254 160 221 443 195 222 215 182 220 196 230 190 242 381 187 206 176 247 256 234 175 186 212 162 244 263 264 255 231 208 190 249 142 192 189 182 225 175 186 196 231 266 282 262 237 284 200 159 242 147 195 191 335 304 196 246 229 218 214 285 220 207 239 257 195 266 252 134 289 213 196 199 218 219 192 180 252 166 209 204 256 266 182 254 246 216 181 168 263 247 184 212 227 251 236 282 236 243 262 238 176 330 197 187 196 178 180 285 279 219 255 286 289 231 283 224 251 167 146 303 210 232 243 183 233 267 208 197 213 265 204 332 165 319 198 210 295 215 217 222 176 243 213 245 251 199 216 214 177 272 255 213 203 254 277 250 220 294 206 225 272 283 164 276 241 196 115 210 252 191 247 175 163 215 195 280 287 221 274 255 302 315 228 171 215 222 232 218 297 221 252 214 192 221 236 304 245 242 221 276 279 190 228 262 300 315 239 237 165 185 204 410 304 222 222 351 220 224 285 238 199 271 202 244 256 306 230 197 269 150 243 213 154 285 254 192 151 226 270 218 276 296 257 191 225 184 232 272 183 188 200 209 253 214 204 295 248 197 247 196 246 268 248 129 243 262 272 215 261 242 239 192 258 215 220 265 250 293 235 258 224 223 230 226 299 242 203 193 296 147 223 177 221 249 253 323 222 339 207 276 218 249 232 255 211 232 139 307 165 188 162 168 239 311 242 315 224 241 163 334 211 257 292 228 172 251 288 233 249 282 228 265 278 244 270 212 200 252 310 210 290 208 278 209 224 147 297 267 174 216 217 246 268 235 220 318 238 295 214 188 270 197 272 182 149 217 185 150 248 235 158 273 203 209 266 266 234 172 191 294 202 185 226 216 274 286 336 260 205 166 328 248 315 228 232 209 285 217 265 225 276 214 272 244 192 195 189 219 277 333 277 211 221 220 282 286 195 175 264 138 293 231 210 110 185 188 234 277 218 240 222 230 183 275 167 217 182 335 161 264 278 240 236 237 322 212 302 175 263 176 282 191 237 266 278 151 170 238 242 287 244 207 246 278 221 169 266 204 261 242 236 234 228 208 275 284 183 157 238 242 238 202 191 217 230 285 234 203 287 245 197 194 175 184 262 219 216 275 161 304 241 242 185 228 183 132 249 144 206 230 288 237 231 177 186 265 254 231 192 271 265 261 158 210 329 228 175 168 283 209 259 221 191 279 208 129 282 202 200 250 201 208 249 275 235 286 255 196 372 237 257 266 227 245 250 226 265 181 272 275 161 243 183 250 239 203 239 290 134 210 257 244 253 283 253 277 171 276 275 148 212 264 234 181 264 272 219 259 201 195 216 211 247 206 235 201 238 257 279 243 201 290 265 238 286 202 200 233 173 211 247 284 276 272 208 226 195 262 225 207 266 205 176 258 165 262 249 233 220 208 193 226 251 268 219 227 226 200 236 197 169 256 169 202 214 158 296 230 256 242 268 192 270 208 231 292 259 144 287 196 192 253 222 234 256 154 185 173 283 171 238 181 304 288 190 179 148 249 277 198 227 281 256 165 261 220 191 253 205 271 215 246 267 268 205 259 295 251 255 274 253 201 300 244 239 198 177 212 209 299 174 268 253 244 240 263 211 248 265 191 212 233 276 188 195 208 259 301 246 261 227 251 245 214 252 238 246 254 240 220 304 161 189 252 180 268 258 143 233 204 192 274 175 226 146 254 275 216 246 251 175 140 120 169 257 211 131 253 201 256 236 268 271 239 219 195 263 261 162 244 249 214 228 253 208 215 171 266 269 199 195 206 248 167 241 190 236 362 221 166 273 336 188 163 178 211 204 302 258 225 212 297 216 238 186 231 256 202 246 207 221 197 256 224 195 238 268 215 200 239 163 250 229 118 287 299 213 245 235 232 230 261 305 272 155 191 245 305 175 226 241 203 196 215 331 169 231 158 171 138 184 173 265 256 273 181 253 271 233 215 231 260 311 205 151 241 235 172 159 282 233 240 226 220 257 279 312 242 187 196 271 257 275 228 136 271 208 135 194 138 195 245 289 218 334 285 203 273 311 148 261 311 239 288 309 208 305 253 183 196 179 258 221 250 222 192 276 264 182 240 246 267 121 341 213 257 145 270 213 209 243 327 262 135 232 236 217 171 185 284 335 272 269 165 239 246 205 263 201 186 197 236 245 227 169 236 242 285 246 313 324 135 206 147 179 164 257 311 213 267 213 114 235 281 224 199 265 246 198 128 185 269 189 258 177 222 232 308 234 292 271 255 195 211 265 351 211 255 242 173 254 160 249 220 219 223 162 170 185 233 240 179 112 279 205 153 250 270 241 266 291 201 220 233 224 255 226 217 293 352 241 214 224 191 257 246 168 225 299 138 242 157 146 250 183 214 152 216 226 233 176 242 231 187 249 268 251 118 250 294 174 273 242 248 165 161 178 249 55 178 220 226 199 228 234 275 124 208 147 163 251 248 211 211 257 254 239 211 178 286 188 288 204 205 207 188 279 236 255 217 209 288 203 184 225 228 377 222 187 255 322 284 207 234 183 254 283 227 159 213 280 211 237 210 273 212 279 178 188 266 230 216 216 262 192 201 254 267 179 295 273 238 172 204 192 350 256 266 201 305 319 112 214 247 163 287 270 243 219 260 215 249 248 230 219 275 275 212 268 225 224 221 240 246 264 236 255 265 234 303 203 266 248 267 283 272 185 246 171 187 217 289 237 222 176 172 221 333 192 324 207 284 304 269 191 245 244 284 173 143 201 224 252 245 216 214 232 225 209 266 255 268 225 218 194 220 337 260 216 186 236 294 259 218 290 158 237 145 226 245 243 234 230 295 119 243 271 185 222 231 221 199 111 226 269 288 255 297 313 276 147 182 217 266 163 240 228 296 292 279 329 219 255 261 154 206 178 164 167 150 181 229 253 195 282 215 152 216 185 244 208 233 254 155 239 225 206 239 157 281 184 193 244 194 191 253 168 262 186 269 293 152 348 232 316 250 245 144 172 226 348 251 221 194 188 265 209 206 192 230 285 271 244 196 225 273 262 219 252 159 153 273 244 213 166 220 210 266 168 255 237 282 241 181 256 263 212 273 249 225 141 191 246 266 196 251 226 289 166 236 190 216 207 299 302 249 212 222 186 162 172 93 208 217 237 218 287 344 283 247 192 252 155 243 239 207 171 206 203 221 250 217 186 178 165 196 163 301 220 201 247 243 231 305 164 161 303 189 287 226 255 209 142 176 212 211 323 236 300 197 249 283 190 270 287 243 339 214 170 261 227 236 246 129 242 133 197 227 295 216 247 306 93 220 180 288 171 222 215 151 200 219 291 233 229 224 140 239 150 228 220 277 149 251 197 205 238 198 283 254 162 284 257 206 233 198 196 277 346 228 183 258 280 176 224 178 205 218 310 294 218 244 181 209 199 226 252 193 214 265 238 247 189 170 183 250 249 186 247 265 177 204 250 158 256 223 161 291 277 224 240 193 188 284 165 217 219 168 327 238 250 217 235 204 201 247 254 261 193 177 265 200 322 250 176 194 292 163 208 328 241 264 249 165 303 260 258 212 205 234 200 218 230 146 277 298 215 238 234 284 205 225 312 197 227 300 161 249 212 210 246 220 264 226 202 282 269 212 216 194 264 152 213 267 271 218 189 289 211 274 233 211 199 323 268 204 260 233 156 218 180 218 320 255 360 189 203 236 203 182 264 191 276 325 256 181 264 219 258 207 314 196 247 284 154 251 201 238 187 201 144 211 230 201 243 172 190 205 241 231 248 257 284 311 323 212 206 225 234 155 175 198 273 201 239 134 192 239 243 291 173 258 233 233 215 220 166 184 281 146 245 227 214 217 173 284 166 153 223 225 144 179 190 300 207 270 233 261 309 268 242 230 214 201 206 292 226 219 192 252 280 222 235 213 306 199 295 202 185 219 184 222 265 171 194 164 326 251 241 225 220 226 236 183 214 276 239 185 218 324 255 196 341 289 275 336 201 254 235 214 199 197 156 225 230 253 246 167 227 176 242 214 275 277 278 281 214 229 265 199 172 252 225 135 275 272 331 212 270 197 267 179 226 235 282 236 241 226 247 229 248 311 235 269 330 237 203 281 292 215 341 268 274 198 254 172 282 192 273 284 323 205 277 143 174 174 259 225 199 175 328 136 154 309 261 236 227 161 197 292 213 284 259 242 115 146 278 304 285 302 182 218 243 326 244 205 275 250 280 315 167 210 184 304 238 189 236 263 214 268 198 234 275 236 255 313 159 215 339 185 344 199 181 304 183 159 300 226 147 185 270 199 234 142 245 226 221 189 229 241 230 257 190 250 258 223 207 178 221 183 257 203 347 395 158 228 241 193 231 279 234 223 186 192 132 220 203 239 223 241 243 232 191 183 200 275 260 225 218 186 261 273 181 222 173 191 238 219 226 224 124 218 307 248 298 188 221 227 229 293 240 175 249 200 204 265 296 183 304 259 263 206 259 273 142 207 221 289 283 171 303 244 212 263 254 209 244 220 112 224 325 224 264 135 227 244 288 173 304 227 256 225 196 204 247 225 238 256 270 293 262 187 189 277 250 278 239 146 322 283 209 237 273 246 227 239 208 340 236 200 181 216 272 225 335 244 225 208 196 292 193 184 256 161 280 263 285 236 186 212 189 168 207 266 165 296 195 231 283 209 251 267 269 169 250 301 182 238 279 149 135 269 162 224 275 245 224 243 248 232 208 196 203 165 212 207 258 273 207 219 127 241 248 207 301 189 289 148 183 190 227 200 244 156 307 200 241 231 277 248 295 285 239 184 265 249 286 224 259 241 202 242 270 241 234 276 163 196 172 252 185 232 195 230 229 244 174 246 255 228 246 218 219 205 244 223 170 337 288 310 270 282 206 323 238 248 231 201 168 221 189 202 207 296 135 236 272 294 287 228 174 180 195 261 257 235 224 264 254 178 267 217 276 256 212 319 244 256 297 197 220 228 207 255 242 163 242 175 195 220 259 184 269 184 191 227 257 288 279 227 233 261 262 271 219 178 198 165 197 184 221 213 238 256 279 325 261 261 214 208 216 171 209 331 172 261 252 304 230 303 187 227 135 316 173 298 256 216 311 249 245 155 126 300 182 256 269 165 305 241 199 217 268 226 213 254 156 191 222 224 208 181 188 256 231 244 364 242 197 193 171 296 202 162 220 192 156 219 278 194 219 234 407 227 260 273 240 244 283 197 262 232 218 263 228 179 207 195 193 142 272 170 178 192 222 209 169 183 257 216 160 200 211 295 276 231 227 223 231 201 292 279 263 211 265 214 224 163 292 249 192 198 124 235 225 184 158 225 217 195 234 222 198 225 257 217 237 194 346 261 270 193 247 142 245 221 249 174 157 237 222 172 210 204 273 216 237 234 252 266 211 217 246 225 102 225 250 268 249 270 226 186 163 253 262 294 261 133 167 214 294 268 204 256 249 186 274 222 214 186 224 245 265 281 206 225 253 172 214 298 225 278 248 198 188 195 255 165 257 238 232 318 164 225 201 155 228 176 205 211 161 225 215 261 230 240 223 230 236 247 224 321 203 206 232 247 182 231 233 280 235 192 245 238 233 239 276 215 201 271 274 225 169 201 153 222 262 243 212 262 218 271 209 286 297 300 206 284 257 193 287 265 203 289 218 210 211 247 113 204 281 156 321 160 259 293 230 215 250 175 192 259 302 223 156 302 219 223 221 224 212 212 258 238 210 237 157 200 184 206 320 212 327 224 246 164 192 187 205 207 258 178 172 303 203 199 313 208 216 279 190 270 201 163 235 226 294 197 153 152 219 258 168 332 256 159 209 222 147 249 309 225 235 209 271 272 214 175 257 208 201 220 234 269 291 307 242 319 220 238 156 265 228 183 257 296 207 272 233 239 283 259 187 233 214 173 175 245 200 296 238 174 171 326 256 220 211 275 187 189 222 312 218 276 181 198 234 228 250 253 311 292 197 307 359 245 186 222 217 217 265 196 232 180 198 205 234 264 226 202 229 296 234 235 246 165 179 228 309 267 310 169 182 223 153 222 227 262 241 120 258 165 269 305 195 204 207 246 275 296 217 164 238 124 196 228 227 352 170 214 249 261 278 287 225 229 233 276 224 215 173 152 241 290 169 244 232 238 137 121 305 234 244 220 172 195 270 234 296 150 128 268 206 295 233 235 256 214 181 307 224 279 222 214 202 244 218 320 215 275 170 231 199 122 173 164 274 213 234 375 208 262 194 273 172 213 235 202 156 238 297 181 295 212 260 198 229 286 198 209 218 204 242 286 214 221 294 270 257 242 216 294 239 256 155 253 216 301 201 169 209 219 216 244 272 190 264 185 343 163 240 193 214 263 180 228 259 268 151 245 219 231 233 211 304 249 237 210 243 162 232 189 197 200 224 149 192 302 281 249 224 210 265 144 300 241 282 287 236 144 248 241 223 239 147 264 217 262 268 217 260 235 250 200 171 204 267 192 153 150 298 155 277 211 302 302 186 203 162 177 196 212 209 333 246 222 168 279 278 221 182 237 242 216 204 222 324 238 277 303 276 298 201 305 247 181 162 298 224 294 282 157 236 178 220 188 220 265 223 203 230 357 224 216 186 257 204 189 237 211 225 156 219 208 197 185 278 213 260 188 312 207 227 312 265 343 98 210 205 215 162 212 270 257 202 240 204 162 287 252 176 211 209 251 128 256 179 263 275 255 217 228 260 181 147 119 237 235 252 209 215 274 217 224 250 329 264 257 166 272 163 238 289 218 287 213 185 236 218 253 287 259 209 160 217 251 211 182 190 224 245 237 314 166 180 249 142 275 289 313 272 220 172 308 190 291 245 239 224 238 172 238 250 260 208 213 243 235 249 198 285 139 252 249 283 264 211 283 247 323 207 190 236 233 268 209 233 128 204 231 290 283 226 192 247 262 164 189 224 289 272 233 359 199 192 255 243 138 155 304 214 207 210 331 264 232 296 204 167 321 263 204 220 258 233 266 232 160 154 235 234 306 347 256 173 237 191 207 248 191 265 319 203 281 234 269 243 211 270 118 210 190 206 213 232 199 288 253 219 229 291 329 171 220 149 236 289 274 225 258 252 292 212 224 171 183 269 216 229 292 160 215 260 261 230 250 162 170 231 177 204 189 215 175 227 267 191 267 176 315 241 351 196 270 276 216 275 214 236 215 256 215 291 153 248 344 201 221 216 173 273 229 160 226 239 213 217 209 281 147 248 252 269 281 274 111 159 331 230 269 290 195 190 314 239 228 127 246 262 273 292 218 158 274 204 254 151 184 222 301 183 280 338 269 180 243 244 207 210 135 252 198 292 258 285 230 212 191 237 153 261 257 195 263 198 273 225 203 189 291 239 247 141 280 301 269 228 155 218 203 169 272 339 275 326 254 232 183 205 206 338 305 210 221 185 267 274 181 189 138 201 205 228 204 237 250 236 209 166 150 319 168 231 204 172 226 346 171 234 209 222 177 252 183 162 200 188 228 217 268 251 292 229 284 180 199 282 225 357 227 193 184 267 229 258 214 168 163 169 236 209 176 276 231 220 194 236 332 211 156 234 293 288 191 212 197 246 200 180 130 230 282 256 284 295 271 214 212 200 257 216 226 213 214 233 275 221 239 248 358 253 251 143 187 186 286 207 242 297 238 243 207 147 165 271 301 254 219 166 208 201 280 221 287 257 196 179 293 180 305 230 181 210 250 183 231 212 252 241 278 324 197 177 276 309 208 262 139 282 182 202 135 215 212 254 260 254 114 185 227 264 229 235 280 174 167 229 246 189 293 194 268 290 255 222 255 262 309 345 234 159 129 205 201 217 181 180 240 296 265 228 136 256 235 203 247 160 296 188 319 332 251 214 214 261 323 193 205 163 277 315 157 192 242 244 359 300 230 281 195 201 261 238 185 226 187 190 195 160 232 189 242 254 202 188 214 179 197 307 202 247 180 221 221 226 246 176 237 222 137 157 195 213 212 244 137 264 228 196 240 326 223 294 188 204 275 284 171 273 244 205 242 172 233 305 148 182 204 197 216 194 208 252 236 259 230 148 301 254 237 281 198 244 234 289 264 168 185 355 145 244 231 316 255 267 221 242 307 245 197 252 270 243 160 209 195 160 174 311 144 217 251 192 204 323 190 231 308 216 258 274 241 254 286 213 300 288 218 237 233 239 159 258 218 311 230 198 189 178 210 192 253 213 195 289 233 270 283 235 215 258 311 300 293 150 268 201 206 145 205 303 195 245 166 182 257 168 194 250 236 263 128 177 309 271 206 243 245 250 306 204 169 159 278 251 228 285 244 207 167 245 273 164 198 123 192 188 251 157 256 212 160 272 190 305 284 293 265 227 260 249 273 246 227 178 227 235 239 216 207 298 271 311 214 281 221 272 231 294 293 193 224 229 187 244 237 172 247 279 199 251 157 288 207 262 152 121 221 235 184 222 239 172 253 241 244 171 127 228 204 200 211 211 270 242 260 261 261 301 184 220 230 210 164 173 315 196 240 249 222 205 207 190 266 203 216 211 238 285 252 228 246 243 204 134 246 202 255 259 266 239 228 196 271 283 277 217 251 233 223 208 115 269 167 176 216 146 188 226 278 196 217 178 263 180 194 197 254 184 236 276 205 212 194 191 152 181 210 156 206 294 170 218 179 267 142 216 337 245 210 292 221 195 193 178 135 177 241 273 259 214 253 250 267 214 117 144 209 185 192 236 263 188 224 188 286 214 167 188 187 313 206 309 212 272 255 305 165 252 287 261 271 273 219 234 187 215 279 279 330 205 266 232 231 248 289 136 265 290 196 241 280 177 203 261 180 261 249 206 297 230 273 295 232 175 263 260 209 242 287 248 261 198 239 188 348 192 185 289 208 182 201 271 238 204 219 243 186 326 163 164 296 215 168 231 273 258 173 232 247 251 211 220 212 273 185 223 365 225 250 266 180 292 181 226 210 167 197 211 271 205 256 228 175 171 199 132 236 254 255 345 223 199 163 180 286 274 213 225 162 211 300 242 199 306 288 219 214 256 216 247 238 203 248 208 190 252 223 285 222 269 257 219 264 270 267 274 145 202 174 262 198 212 229 264 244 258 298 175 192 146 246 197 243 234 186 195 244 202 309 266 131 228 224 209 206 205 248 284 188 77 183 148 228 157 178 189 190 222 244 206 234 228 155 209 266 181 280 172 175 185 180 237 171 265 304 299 202 330 218 299 280 204 248 201 166 220 199 182 210 137 205 242 321 217 241 302 207 342 190 151 248 182 285 274 261 214 298 173 241 200 279 222 242 170 166 283 269 248 215 259 235 220 276 184 234 222 239 182 155 257 223 171 203 238 234 191 211 254 239 140 283 182 220 204 303 203 213 343 308 269 203 255 195 186 209 263 223 274 200 134 287 286 312 305 266 255 170 174 197 261 180 189 236 225 313 230 262 229 215 197 228 258 254 229 211 187 182 294 286 147 189 233 209 205 220 250 289 222 214 249 323 251 229 182 157 232 194 240 194 155 241 148 236 254 178 208 207 204 215 216 319 243 226 244 153 234 238 192 216 203 169 296 122 231 252 249 260 169 195 271 155 210 176 236 222 211 187 97 144 185 152 249 266 239 248 289 213 220 236 160 178 272 254 219 190 221 176 199 254 233 232 266 226 269 157 253 262 219 247 283 197 200 257 287 253 118 324 159 258 180 260 177 202 290 236 252 183 213 268 294 200 188 251 243 251 245 245 294 232 94 282 170 290 240 249 242 321 242 261 255 187 226 184 221 236 142 168 267 237 245 281 181 132 270 190 287 245 186 242 213 254 330 228 129 219 253 255 210 290 208 211 233 183 314 216 166 198 206 259 241 281 220 234 234 261 282 250 153 181 339 177 223 223 174 244 153 157 221 205 255 187 226 285 203 257 155 291 246 241 265 200 236 295 241 252 273 325 265 257 107 193 252 201 249 167 218 213 228 234 211 275 243 185 251 227 236 239 224 251 163 252 261 300 260 276 254 174 330 266 162 282 267 214 369 177 311 94 228 157 280 232 218 204 258 232 144 196 214 133 162 203 248 225 272 347 189 206 181 273 244 263 248 180 236 198 204 235 232 200 234 227 263 272 206 220 309 298 271 247 198 185 238 189 205 263 111 216 139 207 257 245 153 162 311 120 122 195 184 262 243 260 207 309 195 163 255 167 179 232 315 200 131 194 319 181 293 214 146 268 307 248 263 181 175 226 230 173 256 275 271 304 355 209 219 239 230 258 217 197 292 250 188 213 267 285 187 223 228 225 244 238 152 136 271 255 174 203 158 186 235 192 223 263 233 253 267 272 191 206 161 181 225 134 281 192 254 309 167 288 199 241 259 252 150 234 228 304 283 227 118 278 226 197 245 200 136 238 263 282 213 267 194 281 244 111 236 360 217 210 305 205 229 324 201 263 311 203 224 237 346 250 252 140 301 218 180 216 211 264 263 249 146 250 259 223 237 223 302 199 303 254 162 156 229 313 201 152 326 209 334 179 277 242 237 261 275 251 182 251 249 231 283 163 202 201 218 301 194 230 196 219 227 187 332 207 276 305 239 300 162 222 232 318 207 266 190 219 276 210 294 240 262 145 240 210 193 304 270 235 225 244 228 316 246 333 285 246 180 166 251 160 227 240 205 205 238 239 163 292 255 235 261 339 259 153 173 289 290 212 265 259 300 302 173 161 147 184 211 209 134 159 240 108 240 222 179 277 192 214 228 210 214 316 161 303 314 270 283 222 275 232 220 155 258 208 182 139 231 254 204 307 314 201 221 322 186 248 210 135 233 162 325 252 193 223 202 238 252 228 165 167 218 276 219 197 156 171 275 213 225 294 369 268 269 187 254 286 261 321 251 280 244 193 186 259 287 251 194 233 315 257 244 173 229 229 228 182 230 240 183 144 270 184 201 224 220 170 249 242 185 192 256 188 176 239 181 186 299 274 231 236 272 322 192 202 175 188 296 213 142 200 142 219 192 216 219 233 275 203 310 297 190 258 253 237 184 192 272 260 234 141 182 296 240 201 181 101 233 228 152 191 201 335 242 272 212 237 285 264 238 239 220 219 165 287 125 240 199 198 237 228 231 245 233 217 153 159 243 217 186 267 211 264 209 238 255 235 181 159 149 181 300 177 255 171 230 208 223 217 226 214 252 130 175 229 138 242 169 240 117 291 275 264 161 270 183 255 174 219 187 225 266 208 154 297 147 193 179 266 181 298 197 311 243 172 285 263 157 248 146 227 281 234 200 191 248 282 173 258 223 167 215 309 215 233 174 208 184 211 226 223 244 199 259 251 150 183 188 230 206 279 344 217 166 289 286 224 214 241 233 182 221 252 139 246 266 233 180 381 275 191 290 226 235 253 166 331 171 187 153 279 282 271 218 170 277 316 211 274 123 237 157 236 224 202 300 211 324 165 200 168 199 195 176 209 173 185 190 179 191 230 219 190 247 187 282 267 185 233 226 208 195 244 246 160 257 128 265 368 242 221 204 244 150 339 261 202 265 261 255 256 191 241 227 253 234 260 347 312 190 177 273 308 296 247 301 326 275 285 269 235 228 174 267 166 222 229 226 191 247 160 289 239 268 247 262 276 227 215 211 210 255 290 218 283 143 156 190 208 356 319 174 229 235 257 181 192 188 270 184 206 212 220 233 241 259 247 216 269 183 281 250 266 251 214 170 174 111 185 176 264 177 198 216 261 226 268 163 256 155 253 194 248 267 214 207 231 180 306 281 170 257 201 259 133 267 284 277 125 211 239 214 170 221 251 191 325 317 350 173 227 225 170 232 190 247 139 144 258 212 196 252 330 177 315 306 198 180 214 232 282 259 286 255 144 270 325 295 211 188 269 216 200 165 213 223 210 211 225 234 185 190 266 292 183 208 193 228 205 201 234 187 214 114 236 291 157 262 245 249 258 142 202 183 277 225 270 231 242 214 249 190 218 255 243 326 202 181 243 172 277 226 208 262 210 235 270 260 244 192 242 148 172 221 296 200 308 212 187 199 184 226 191 167 186 201 209 247 158 320 254 329 181 162 221 212 231 259 309 246 179 347 114 294 246 300 196 199 258 243 245 291 184 250 241 252 218 207 286 231 192 196 283 176 217 245 233 238 224 225 262 297 205 218 173 325 183 258 220 168 249 243 220 129 224 263 297 178 292 260 175 310 146 210 256 248 297 248 322 225 171 252 210 305 201 210 250 279 202 268 249 201 226 207 171 280 258 233 197 227 216 227 176 260 243 249 206 242 230 235 160 242 203 289 182 293 316 139 293 135 245 299 155 317 275 226 279 173 358 269 256 176 207 223 209 191 202 305 310 229 209 277 232 252 252 240 160 241 194 207 252 299 235 226 239 132 246 205 259 251 226 245 305 251 158 169 272 216 149 268 217 219 235 245 311 250 249 218 191 226 295 267 240 199 191 251 252 219 209 167 229 236 274 204 293 186 177 280 254 294 240 245 217 157 180 260 173 339 202 250 207 191 232 153 171 187 187 276 189 172 201 260 265 195 216 261 222 221 156 136 166 250 180 144 320 268 196 307 245 250 164 171 213 263 183 275 267 237 251 210 204 262 235 233 235 207 204 237 268 270 206 240 243 218 231 211 180 147 263 185 123 281 262 264 209 228 202 258 219 183 236 237 241 220 188 286 194 262 298 247 204 258 245 163 200 236 195 265 176 199 212 229 260 205 251 259 255 279 358 225 232 241 189 175 210 191 201 211 278 147 155 220 246 275 217 290 230 295 227 303 256 166 206 291 219 185 151 151 183 206 374 250 219 206 297 292 223 233 186 226 186 272 292 191 258 309 206 181 304 190 194 198 215 201 214 161 288 181 210 345 349 274 193 243 270 188 227 240 260 245 214 207 205 164 292 233 193 237 204 169 220 272 208 144 148 237 240 245 307 247 187 266 203 228 266 265 151 279 296 210 241 234 181 271 245 259 247 204 242 212 250 298 199 275 181 324 183 260 227 239 227 300 223 241 256 267 138 256 191 261 199 267 207 130 238 227 193 155 184 232 116 244 176 192 260 262 240 266 158 260 241 234 220 198 267 295 255 213 261 169 272 227 255 222 179 151 180 262 218 257 207 231 202 195 222 223 201 215 283 272 231 242 277 290 166 271 150 228 268 256 256 261 303 199 196 202 190 206 190 250 265 177 248 289 180 164 272 214 151 243 252 186 258 239 264 196 253 192 270 259 172 187 264 244 206 288 281 240 229 269 248 228 278 187 201 275 180 223 262 255 257 283 293 281 177 257 269 289 233 158 310 231 230 251 187 231 227 239 182 148 200 178 198 298 216 153 209 271 211 307 193 282 219 156 167 270 215 284 256 178 233 276 181 217 151 312 302 296 278 270 242 243 151 285 196 284 249 216 199 311 271 298 238 248 228 311 217 210 210 146 236 203 214 203 251 193 221 191 269 256 211 204 225 185 230 235 191 217 263 197 134 223 180 180 168 250 273 260 246 258 235 294 261 171 225 308 259 229 224 143 146 162 172 264 165 311 214 232 237 205 250 228 317 179 230 270 282 288 232 306 244 223 235 166 183 235 265 288 308 221 221 223 207 239 143 199 146 267 174 306 179 154 167 292 157 245 256 283 214 152 225 188 204 182 270 146 204 270 208 275 176 217 177 186 301 221 230 282 248 168 256 326 216 230 301 233 170 283 289 296 279 206 240 215 279 192 162 296 272 214 187 295 249 220 246 269 235 265 224 212 190 306 243 229 107 249 231 291 248 267 164 284 263 162 272 160 262 214 233 205 232 241 331 167 210 204 276 212 220 220 346 214 178 305 289 225 212 209 337 176 218 193 338 221 235 205 181 293 181 207 197 255 253 192 169 312 231 253 294 256 235 176 190 194 247 206 240 275 188 237 203 231 223 229 177 217 160 198 152 226 269 116 250 244 243 208 131 232 192 250 222 277 223 366 199 220 210 241 239 172 191 241 212 159 204 244 195 130 209 201 173 254 261 241 120 211 260 214 157 281 248 264 199 217 275 258 251 202 280 274 241 241 211 230 206 315 293 325 172 203 225 230 242 343 209 243 217 227 190 248 142 252 236 293 317 229 174 218 176 196 218 217 195 195 166 189 272 190 215 202 161 100 197 212 228 106 173 207 323 212 187 239 275 222 144 187 217 225 258 348 199 184 233 230 250 195 347 211 232 206 292 194 174 120 263 231 200 249 246 292 264 331 307 251 229 274 230 269 176 302 263 179 304 272 166 150 316 203 166 172 206 291 289 256 240 260 255 328 129 291 289 189 194 211 199 168 216 192 223 327 212 161 218 197 239 268 252 187 193 277 264 259 250 254 160 242 217 303 269 211 214 212 248 195 255 159 263 213 255 248 155 258 290 190 219 209 254 273 186 195 247 216 193 167 142 182 250 217 150 222 156 380 198 304 173 179 229 224 266 281 247 248 277 224 189 180 250 238 272 211 256 192 291 257 231 156 221 215 235 238 180 239 212 293 312 282 188 210 226 281 259 240 235 208 219 230 246 297 223 222 240 205 196 240 174 272 195 179 279 191 152 214 343 310 175 194 189 233 205 250 247 157 229 233 238 268 250 270 203 161 201 311 247 229 164 227 161 319 216 271 234 211 268 315 159 258 340 256 146 229 218 224 289 212 238 237 192 272 187 234 233 178 193 198 252 205 244 122 182 314 238 255 148 279 121 231 207 205 188 178 274 182 270 174 212 197 219 168 256 258 243 229 244 242 262 279 200 184 282 237 254 287 148 315 275 226 194 295 274 271 238 207 166 239 244 211 207 214 228 229 242 296 180 268 233 325 214 279 185 200 246 293 269 273 241 245 221 213 291 174 185 220 248 217 226 231 174 248 220 285 225 255 190 199 259 299 202 215 160 282 202 293 287 243 156 220 229 236 195 246 211 280 214 118 258 281 234 270 381 268 254 126 168 198 276 188 248 201 197 266 207 335 152 195 155 219 222 231 178 148 166 261 257 170 222 276 192 211 177 173 219 200 197 252 302 221 221 187 254 273 221 174 281 169 250 291 282 207 214 302 276 262 172 287 208 178 210 183 271 204 178 307 293 263 234 218 244 275 200 340 296 299 268 214 139 275 274 165 245 276 259 205 178 244 175 243 300 375 193 333 190 215 309 317 243 179 164 276 249 107 211 230 218 274 191 253 213 199 208 258 226 214 287 204 254 255 291 220 242 189 202 245 224 204 226 176 253 260 257 238 242 206 217 177 285 159 171 228 142 266 231 258 251 239 256 286 181 250 234 242 159 191 259 197 198 219 198 232 135 151 249 224 229 187 220 186 260 269 232 267 189 219 111 146 192 242 146 241 201 221 223 167 282 108 174 285 159 219 202 195 274 245 276 181 243 254 157 209 201 224 196 260 178 217 257 205 270 184 274 203 278 252 226 231 223 245 246 234 161 201 268 241 216 302 161 317 192 264 334 197 257 180 370 206 244 250 229 215 216 176 170 273 194 200 264 205 216 272 289 237 252 215 150 204 238 232 256 198 188 231 201 197 206 190 223 261 201 209 277 298 298 202 204 192 224 326 221 212 213 194 222 307 299 219 281 207 159 272 212 301 159 219 209 190 211 233 204 309 172 282 279 161 261 250 260 261 245 293 238 262 258 290 201 240 184 240 271 331 193 290 170 195 198 278 188 271 188 262 381 144 224 178 222 216 177 310 216 274 212 201 232 199 210 281 210 246 244 181 254 231 233 257 283 152 188 182 285 238 229 239 258 246 170 257 223 208 311 232 258 142 337 341 300 292 192 199 264 142 173 252 242 148 259 303 138 264 204 302 263 243 207 296 240 252 214 205 288 294 339 181 232 254 231 217 182 231 176 288 214 236 294 257 238 212 169 193 238 177 269 193 207 265 290 206 234 328 210 247 234 253 155 160 282 209 263 254 251 224 227 164 246 225 213 179 256 248 223 268 280 249 226 180 247 198 277 190 199 151 192 244 309 246 177 175 297 213 146 209 274 257 151 199 182 324 225 240 220 215 175 261 281 195 345 186 265 273 193 257 212 199 132 287 354 262 202 216 244 243 280 219 219 199 225 228 244 280 315 356 243 257 181 202 270 228 194 242 183 238 240 202 142 192 208 182 210 170 256 141 236 264 171 227 287 192 174 269 227 210 219 233 200 165 265 256 354 236 165 244 274 266 260 231 223 214 253 145 254 246 169 232 219 176 254 227 209 142 219 263 218 298 213 341 114 168 268 250 253 150 176 244 182 265 243 237 198 237 267 265 225 261 298 232 148 163 172 224 282 229 287 225 184 229 132 237 216 249 181 187 215 272 291 180 237 207 258 286 244 257 302 188 212 177 282 178 197 302 270 202 286 211 196 213 248 234 273 306 251 205 296 279 371 201 245 190 272 249 207 218 210 254 218 200 189 208 210 201 259 241 205 289 163 255 275 226 185 218 200 193 188 266 147 301 250 245 225 254 260 175 261 249 258 1</t>
+  </si>
+  <si>
+    <t>GAM(0.5333760061958946, -2.4172516359619035e-23, 0.7875267833139936)</t>
+  </si>
+  <si>
+    <t>1 2 0 0 2 0 1 2 3 1 1 1 1 0 1 1 1 1 1 1 1 2 1 1 1 2 2 0 2 2 0 0 1 0 1 0 1 2 0 1 2 0 2 2 2 2 1 2 0 0 1 1 2 2 0 0 1 1 0 2 0 1 0 0 0 1 3 0 1 1 1 1 0 1 1 1 0 0 0 3 0 2 0 0 1 1 2 3 2 0 1 0 0 0 1 2 0 0 0 2 0 1 2 2 1 1 0 1 2 2 0 0 1 0 2 0 2 1 1 1 1 1 3 3 1 0 1 0 1 4 1 3 1 0 2 1 1 0 1 2 1 1 3 1 0 1 1 1 0 0 0 0 1 0 3 0 1 1 2 2 1 2 0 1 0 3 0 1 0 0 2 2 1 2 4 0 0 0 1 0 3 2 3 0 2 2 0 0 1 1 2 0 2 1 2 1 1 2 1 0 0 1 1 3 1 0 1 1 1 4 2 1 0 1 0 1 0 1 0 1 0 1 0 1 0 2 0 1 0 2 3 1 0 1 1 3 2 0 2 1 2 1 1 1 0 1 2 0 1 1 1 2 0 1 1 1 2 1 0 1 1 1 2 2 1 0 0 1 0 2 0 1 3 2 3 0 0 1 0 1 1 0 1 0 0 1 0 1 2 1 1 1 2 2 1 0 2 3 4 1 0 2 2 1 2 2 2 0 2 2 1 0 1 1 2 2 2 3 0 1 2 0 0 2 1 2 2 1 2 1 0 1 3 2 0 0 1 1 3 2 0 1 2 0 1 1 2 2 0 1 1 1 2 0 1 3 1 2 1 2 0 1 2 0 1 0 1 1 2 2 1 1 0 3 1 1 1 2 3 1 0 1 0 0 1 3 2 0 1 1 2 1 1 0 1 2 2 0 0 1 2 2 1 3 1 0 1 1 0 3 2 1 4 1 0 2 0 1 1 1 1 1 2 0 1 2 0 2 0 0 2 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 4 0 0 3 0 1 1 3 2 1 3 0 1 1 1 1 2 0 2 2 3 1 1 0 1 0 0 0 2 1 0 3 2 2 0 2 1 2 2 2 0 1 0 2 0 1 0 1 0 2 2 3 1 1 2 0 2 1 1 1 0 2 0 0 1 2 1 2 0 0 1 0 1 0 2 1 2 1 1 3 2 1 1 1 1 4 3 1 0 1 1 0 1 2 2 3 1 1 0 3 0 0 0 1 3 2 2 0 2 2 0 0 3 0 1 3 1 0 1 3 0 1 1 2 2 1 0 2 0 2 1 1 1 1 1 1 0 1 0 0 2 0 1 4 2 1 1 1 0 1 1 0 0 0 0 1 2 1 1 1 2 0 1 0 0 1 2 0 1 3 2 1 1 1 1 0 1 0 0 2 1 2 1 1 1 2 1 2 0 2 1 1 0 0 1 2 2 1 3 2 2 2 1 3 1 1 1 0 3 0 1 1 2 0 1 2 1 1 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 1 1 1 0 3 1 1 2 1 2 1 0 1 3 2 1 1 2 1 1 0 2 1 1 2 0 0 1 2 0 0 1 2 2 0 2 1 1 3 1 1 0 1 1 2 3 0 0 0 0 2 1 2 1 0 2 1 1 2 0 0 2 0 1 0 1 2 0 0 0 1 1 0 2 2 0 2 1 2 1 1 1 1 1 1 0 2 0 2 0 0 1 0 0 1 1 1 1 1 0 1 1 1 1 3 1 0 1 1 2 3 0 1 1 1 1 3 1 1 1 2 1 2 1 1 0 0 2 0 1 1 2 2 0 3 1 1 2 1 1 2 1 0 1 1 1 2 1 0 1 1 1 2 1 1 0 1 0 0 2 2 0 1 1 2 0 1 0 0 0 1 1 2 2 1 1 0 1 1 1 1 0 1 1 3 1 2 2 3 1 0 1 1 1 1 2 1 0 1 0 2 2 1 0 0 0 1 2 1 0 0 1 2 0 0 3 0 0 1 1 2 1 2 2 1 1 1 0 1 1 3 2 1 0 2 1 3 3 0 1 1 0 2 2 2 1 1 1 1 1 2 2 2 0 1 1 0 3 1 2 0 1 0 0 0 3 0 0 1 1 1 3 0 2 0 2 3 0 1 1 1 2 2 0 1 1 2 1 0 2 1 2 0 1 1 2 1 0 1 2 1 1 2 0 0 0 0 1 2 0 1 2 2 3 1 1 2 1 4 2 1 1 0 0 1 1 1 1 0 2 2 1 1 2 0 0 2 2 1 2 0 0 2 0 1 2 1 0 1 1 0 1 1 1 1 3 2 2 2 3 1 1 0 1 2 1 2 1 0 1 1 1 1 1 0 0 1 3 3 3 2 1 1 1 2 1 0 0 1 0 2 1 1 2 1 2 1 0 0 3 2 2 3 2 1 1 2 0 1 0 1 1 1 2 1 2 0 1 2 0 1 1 0 3 1 1 0 1 4 2 0 1 0 1 2 2 1 0 3 1 2 1 1 1 2 0 0 1 1 2 1 1 0 0 0 0 1 0 1 2 1 2 1 1 1 2 2 0 1 0 1 1 1 0 1 1 0 0 0 1 1 1 1 0 2 3 0 1 2 2 1 1 2 1 1 2 3 1 1 1 2 2 1 3 0 0 0 4 0 0 2 1 0 2 0 2 1 1 0 1 1 1 1 0 3 1 1 2 2 0 2 3 1 0 0 1 2 2 2 1 0 0 2 1 2 1 1 0 1 4 2 0 0 1 1 1 3 2 0 0 1 2 2 0 3 2 0 1 2 1 1 0 1 3 2 1 1 1 2 0 2 0 0 1 1 2 0 1 3 0 0 1 2 0 2 1 4 1 1 1 1 1 3 1 1 1 0 1 1 1 4 1 1 1 2 1 2 2 0 3 2 2 1 0 2 2 2 2 3 1 1 2 2 2 1 0 2 1 1 0 0 0 1 1 1 0 0 2 1 0 0 1 3 3 0 0 2 1 0 0 3 1 1 0 2 2 0 4 1 3 0 0 2 2 2 0 2 2 1 1 1 0 1 1 1 0 1 0 1 2 2 2 2 2 1 2 1 4 3 1 1 1 1 2 1 1 2 2 1 1 2 1 1 1 1 1 0 0 2 1 2 1 3 1 0 1 1 0 0 1 0 1 2 0 0 0 1 1 2 1 1 0 2 0 1 0 0 2 2 2 0 1 0 1 1 1 1 1 2 1 1 2 1 2 1 1 1 1 2 0 1 3 3 1 1 1 2 2 0 1 1 1 1 1 1 0 1 0 0 0 3 0 2 2 2 2 0 0 1 2 3 1 0 3 0 2 1 0 0 2 2 0 2 2 0 1 2 2 1 0 1 3 2 2 2 2 3 1 0 1 1 0 1 0 3 2 1 1 1 1 2 1 1 1 0 0 2 1 2 1 1 0 1 1 0 1 2 1 2 0 3 2 2 2 1 0 1 3 0 1 1 1 1 2 3 1 0 1 1 1 1 2 1 2 0 1 1 0 1 1 0 2 1 1 3 3 1 0 0 0 2 2 2 2 0 0 1 0 2 0 1 0 0 1 0 1 1 1 0 3 0 1 2 0 1 0 1 3 0 1 1 0 1 0 0 1 0 0 2 0 1 1 0 1 1 1 1 1 1 0 2 1 2 1 0 1 0 0 3 2 2 1 1 1 1 0 2 1 1 3 0 1 0 1 1 0 2 1 0 0 0 1 1 1 0 1 1 2 0 1 1 0 0 0 1 3 3 1 2 2 0 1 1 2 1 1 1 1 2 1 0 1 1 2 2 3 2 2 1 1 0 0 3 2 2 1 0 1 0 1 0 0 2 2 1 2 4 0 1 3 1 2 1 3 1 0 1 1 1 2 2 2 1 0 2 1 0 2 1 1 2 1 0 2 1 3 1 0 1 2 1 1 2 1 2 2 1 2 1 1 1 2 1 1 3 2 1 1 0 1 0 1 0 1 0 1 2 0 2 1 2 0 1 2 1 1 2 1 2 2 1 2 1 1 0 1 1 0 1 1 0 1 0 0 1 1 2 2 1 1 0 2 1 3 0 1 3 1 3 1 2 0 1 1 1 0 2 1 0 1 1 1 1 2 1 0 4 0 3 1 1 3 1 1 3 2 0 3 2 0 0 1 2 3 0 2 2 2 2 2 2 3 1 1 2 0 2 0 2 0 2 1 2 2 0 0 0 2 1 3 0 2 0 1 1 1 2 0 0 1 0 1 0 1 2 1 2 0 1 1 2 1 1 2 2 0 0 1 2 1 1 0 0 2 2 1 1 2 0 0 0 1 2 1 1 0 2 0 2 1 1 0 2 3 0 0 0 1 1 0 0 3 2 2 2 1 1 1 1 0 1 2 0 2 1 0 1 1 1 2 2 2 4 0 1 0 1 1 1 2 1 1 1 0 2 0 1 0 1 1 2 0 0 1 2 0 1 1 2 1 0 0 1 3 4 1 0 0 1 1 0 1 1 1 1 1 0 0 1 2 2 2 1 1 1 2 0 3 2 2 1 2 0 2 1 1 1 0 2 2 3 2 1 3 3 2 0 1 2 1 1 0 1 2 2 0 0 0 2 2 1 1 2 2 0 2 2 1 2 1 1 1 1 2 0 3 3 1 1 2 1 1 2 1 2 0 1 1 1 1 1 3 1 1 0 0 2 1 0 1 0 0 2 0 0 1 2 1 2 3 0 0 1 2 0 0 0 2 0 0 2 0 1 4 1 1 1 1 1 1 2 0 0 0 1 2 1 0 1 0 1 0 1 0 1 2 2 1 2 2 2 0 0 0 1 1 2 0 2 0 0 2 1 3 2 1 2 0 1 1 0 1 0 0 0 1 1 1 0 0 2 0 2 0 1 0 0 1 1 1 3 3 0 3 0 2 1 1 1 2 1 2 0 0 0 0 3 1 0 0 1 1 0 0 1 1 0 1 0 1 1 1 0 1 1 1 1 0 0 0 1 1 4 1 0 0 0 0 1 0 1 1 0 2 1 2 1 1 2 2 1 1 1 1 2 2 0 0 2 1 1 0 0 1 0 0 1 0 1 0 2 2 0 2 1 1 0 2 2 0 2 0 0 1 0 2 2 1 1 0 3 0 0 1 1 1 1 1 1 0 1 1 0 0 0 1 0 2 0 0 2 0 1 1 1 0 2 2 2 1 1 1 1 1 1 0 1 1 1 1 1 2 1 2 0 0 1 0 1 2 2 2 1 2 2 0 0 1 0 3 2 1 1 2 1 1 2 1 0 2 1 0 0 0 1 0 0 3 1 0 0 2 1 1 1 0 0 0 2 0 2 1 1 0 0 1 0 1 2 1 2 0 1 0 0 1 0 1 2 1 0 1 0 0 2 1 4 0 1 0 2 2 2 1 1 1 2 2 1 1 2 1 0 1 2 1 2 2 0 0 0 2 1 1 1 0 1 1 2 2 0 1 1 0 2 1 0 1 0 3 3 3 1 2 0 0 1 1 1 0 0 2 1 2 1 2 2 0 1 1 2 0 2 1 1 2 2 0 0 2 2 2 2 3 3 2 0 1 2 0 1 1 2 1 1 1 1 1 3 1 1 1 3 0 1 2 0 1 0 1 1 1 1 0 1 1 0 1 3 1 0 2 0 1 0 0 3 1 0 0 2 1 3 1 0 2 3 4 1 0 1 0 0 0 0 1 1 3 1 1 0 1 1 0 0 2 2 1 1 1 1 1 0 1 1 0 3 2 1 0 2 2 1 0 1 2 1 1 1 1 0 1 1 1 2 1 2 0 0 2 1 1 3 0 0 0 2 1 0 0 1 1 4 2 1 2 1 0 1 2 0 1 1 2 2 1 0 0 2 1 0 1 2 0 2 3 2 1 2 2 0 2 1 1 2 0 1 0 2 1 1 0 2 1 0 1 1 1 0 0 2 1 1 1 1 2 0 1 1 2 2 0 0 2 0 1 1 0 2 1 2 0 1 1 1 1 3 0 1 2 1 1 1 1 0 0 1 1 2 0 0 1 1 1 0 2 1 2 3 2 2 0 1 1 0 2 0 1 0 3 2 2 1 1 0 1 2 1 2 0 1 1 2 0 5 1 1 2 0 1 2 2 0 2 0 2 0 0 1 2 2 3 2 3 0 2 0 1 2 1 0 1 0 1 0 0 2 1 2 1 0 1 2 1 3 1 2 1 0 2 2 2 2 1 1 1 3 1 1 1 1 2 1 2 1 0 2 1 1 2 1 1 1 0 1 0 1 2 2 0 2 2 2 2 1 0 5 0 0 3 1 0 1 0 0 2 0 1 2 0 1 2 0 1 0 1 3 0 2 0 1 2 2 2 1 3 2 1 1 0 1 1 4 2 3 0 0 1 0 2 1 0 0 0 1 1 1 1 0 0 0 2 2 1 3 2 4 0 1 1 1 0 0 1 2 2 1 1 1 0 1 1 1 1 0 2 2 0 0 2 2 2 1 2 2 1 1 1 1 1 2 2 1 2 0 2 1 3 2 1 1 0 1 0 0 0 0 0 1 1 0 1 1 2 2 1 1 0 1 2 2 2 1 1 3 0 2 0 0 1 0 1 3 2 1 1 2 1 3 2 1 1 1 0 0 0 0 4 1 0 1 2 0 2 0 3 1 1 3 2 1 1 1 1 1 1 0 2 2 0 2 1 0 1 1 1 0 1 1 1 2 2 0 0 1 1 2 1 1 1 2 1 1 1 1 2 1 0 1 3 1 2 2 0 1 2 1 2 1 1 2 2 0 0 0 1 1 0 1 0 0 2 2 3 2 1 0 1 3 2 1 1 1 2 1 3 3 0 2 1 1 0 2 0 1 0 1 1 0 0 1 1 1 1 1 1 0 1 2 1 1 2 1 2 2 2 3 0 0 0 1 1 1 1 1 0 1 2 1 1 3 1 1 0 0 1 1 0 3 1 1 2 0 1 1 2 1 1 3 3 2 2 1 1 2 1 0 0 1 1 1 0 1 1 1 2 1 0 1 2 1 1 1 3 1 2 1 1 0 2 0 0 1 2 1 1 2 1 2 1 1 1 1 2 3 0 2 1 0 0 1 1 2 2 0 0 1 1 2 3 1 1 1 1 0 1 1 2 2 0 1 2 0 0 0 0 2 2 0 0 1 2 1 1 1 1 0 2 1 0 2 1 3 1 1 1 2 2 2 0 1 2 0 2 0 1 0 1 2 0 1 1 1 1 0 2 0 1 1 1 1 0 1 2 2 1 0 1 1 1 1 1 1 0 0 1 3 2 1 0 1 0 1 1 1 2 1 1 1 1 0 1 3 1 1 0 1 1 1 2 4 1 0 1 0 1 2 2 2 1 2 1 1 0 1 0 0 2 1 1 0 1 2 1 0 1 2 0 2 1 1 0 1 0 2 1 0 0 1 1 1 2 1 0 0 0 0 1 4 1 0 2 1 3 2 2 1 2 0 2 2 1 1 1 1 2 2 1 3 3 0 1 2 2 3 1 1 0 2 2 1 0 1 1 1 1 1 0 0 0 1 2 1 0 2 0 1 2 1 2 0 2 2 0 3 1 1 1 2 1 1 2 1 0 1 0 1 2 2 1 1 0 0 0 1 1 1 0 0 1 1 1 1 2 2 1 1 2 1 1 1 0 1 3 1 1 2 2 2 2 0 0 0 0 2 2 1 0 2 2 0 0 1 1 1 2 2 1 1 2 0 1 0 1 0 2 0 0 0 2 1 0 3 1 0 1 2 2 0 2 1 0 1 1 1 1 3 0 1 0 1 0 2 0 0 1 0 0 1 2 2 1 1 0 0 0 2 0 1 1 1 0 2 1 1 2 0 2 3 2 0 3 0 0 2 2 2 1 2 2 1 1 1 0 1 0 1 2 2 0 3 0 2 2 1 1 1 0 0 2 2 1 1 1 1 1 3 1 2 2 1 1 1 0 3 0 1 2 1 0 1 3 0 0 2 2 0 5 1 1 1 0 0 3 1 0 2 0 1 1 1 2 1 0 0 1 0 2 0 1 2 2 1 1 3 2 2 1 0 1 0 0 0 2 1 1 3 1 2 1 1 1 2 1 0 1 1 1 1 2 2 1 2 0 2 2 1 1 1 1 0 1 0 1 0 1 0 0 2 2 1 0 0 1 1 1 0 1 0 3 1 1 2 2 1 2 0 1 1 2 3 3 3 1 0 1 1 1 2 1 2 1 2 1 0 2 0 1 1 1 1 0 1 2 3 0 2 1 0 1 2 0 2 2 0 1 1 1 0 0 1 1 1 2 0 1 0 1 1 2 1 1 1 3 1 0 2 3 0 2 1 1 1 2 0 3 1 1 1 1 1 1 1 1 2 2 2 1 1 1 1 1 2 0 1 0 1 2 2 1 2 2 2 1 2 1 2 2 0 2 2 1 1 1 1 1 1 0 0 2 1 2 1 0 3 0 1 1 0 0 1 2 2 1 0 2 3 1 1 1 1 3 1 3 0 1 1 2 2 0 1 2 2 1 0 2 2 1 0 1 1 1 1 1 0 3 1 1 2 2 0 2 2 2 0 3 2 2 0 0 2 1 1 0 0 2 0 1 0 1 0 1 2 0 2 1 0 1 1 0 0 1 0 1 2 0 2 0 1 1 1 1 2 2 1 0 0 3 2 0 1 1 0 1 1 4 3 2 1 0 0 1 0 1 1 1 0 0 0 1 0 1 2 2 1 0 1 1 0 2 1 1 1 1 1 0 0 1 2 2 3 1 2 1 0 2 0 2 2 2 1 0 0 1 1 2 1 0 0 2 0 2 1 1 1 1 1 1 1 0 3 1 0 4 1 0 2 1 1 3 1 2 2 1 1 3 0 0 2 1 2 0 1 0 1 1 1 1 0 0 1 2 2 0 1 2 2 1 1 1 1 1 1 2 0 1 1 1 1 0 0 2 0 1 0 2 2 0 2 1 1 2 3 1 1 1 2 2 1 2 0 0 1 1 1 2 1 1 1 1 1 1 2 1 3 4 1 1 2 2 0 3 1 0 2 2 1 0 2 1 0 2 0 1 0 1 0 0 1 1 1 1 1 0 2 0 1 0 1 1 0 0 2 1 3 1 0 0 2 2 0 0 0 1 2 2 3 0 1 0 0 1 2 1 2 2 1 0 4 1 1 1 0 1 0 1 1 0 1 2 2 1 1 0 1 2 1 2 2 2 0 2 2 1 1 0 0 1 1 0 2 0 1 2 2 3 3 1 0 0 1 1 2 3 1 0 2 1 0 2 1 2 2 3 1 1 0 2 3 1 0 1 0 0 3 2 1 1 1 0 0 0 0 0 0 2 1 2 0 1 1 0 1 1 1 0 0 1 1 2 1 0 2 2 1 1 0 2 0 1 0 0 0 0 0 2 0 1 1 2 2 1 0 2 2 1 0 0 0 2 1 1 1 2 1 1 0 2 1 1 1 1 1 1 2 0 2 2 0 2 2 2 1 0 2 1 1 1 0 0 0 2 2 1 1 1 2 1 1 1 1 1 1 2 2 2 2 1 1 0 0 1 0 0 0 5 2 1 1 1 1 0 1 3 1 1 0 1 1 0 3 1 0 2 2 2 1 2 1 1 0 3 1 1 2 0 0 0 2 2 2 3 0 1 2 0 3 0 1 2 1 2 1 2 1 1 1 2 4 0 1 2 0 1 1 1 1 1 0 1 2 0 3 2 0 1 0 2 1 0 0 3 2 2 0 1 1 1 0 2 1 3 1 1 1 2 0 1 1 0 1 1 2 2 1 2 1 0 2 2 2 0 2 0 0 0 1 1 2 1 1 1 0 1 1 1 1 3 1 1 2 1 0 0 0 2 1 0 1 1 1 3 2 0 1 0 1 2 2 2 2 0 3 1 0 0 1 0 1 0 1 1 1 0 1 0 2 3 0 1 1 0 1 1 2 0 1 1 0 2 1 0 0 1 2 2 2 2 1 0 0 2 1 0 1 2 0 0 1 2 1 1 2 3 0 1 0 0 2 2 0 1 1 2 2 1 1 2 0 0 3 0 0 1 1 2 1 3 3 0 3 0 2 3 0 1 1 3 0 2 1 2 1 1 1 2 0 0 3 0 2 2 1 0 1 1 0 1 2 0 0 4 1 0 2 0 1 2 2 1 0 2 1 1 0 1 0 2 2 2 1 1 1 1 0 1 1 0 2 1 1 0 0 0 1 1 1 1 0 1 2 0 0 2 1 1 0 0 1 1 0 2 3 2 1 1 0 2 2 1 1 1 1 1 0 0 0 0 1 2 0 0 1 3 2 2 4 2 2 2 1 1 0 3 1 2 1 1 0 1 2 1 0 0 1 2 2 3 2 0 2 1 1 1 0 2 1 1 0 1 0 1 1 1 1 1 2 0 2 2 1 3 1 1 2 1 1 1 1 0 3 2 1 2 1 2 1 0 1 0 1 1 2 1 1 1 0 0 1 3 0 1 1 0 1 0 1 2 0 0 3 1 1 1 0 2 0 0 1 2 1 1 1 0 1 4 3 3 2 1 1 1 0 1 1 1 1 1 1 3 2 2 2 4 2 2 1 2 0 1 0 0 1 0 0 1 0 1 2 0 2 1 3 0 0 2 2 0 3 0 2 1 1 4 1 0 2 1 2 1 1 1 1 1 0 1 1 1 1 1 2 1 0 0 1 1 1 1 0 0 1 3 1 2 3 1 2 1 1 1 0 1 0 0 2 1 2 2 3 3 1 2 2 3 1 4 1 0 2 1 0 1 0 2 1 1 0 1 1 3 1 2 1 0 0 0 2 2 3 0 1 3 0 2 3 1 1 0 0 3 1 1 3 0 1 2 2 0 0 1 1 1 1 1 0 0 0 4 3 1 2 3 0 0 0 2 1 1 1 2 0 2 1 1 2 1 1 2 3 1 0 2 1 1 1 2 0 1 0 1 1 2 2 0 0 3 1 0 1 0 0 1 2 2 1 1 0 0 2 0 2 1 2 2 0 0 1 1 0 2 2 1 2 0 2 1 1 4 1 0 0 3 1 1 1 1 1 1 1 1 1 0 1 1 2 1 1 0 1 2 0 1 1 0 0 1 0 1 2 2 2 1 0 1 2 1 1 1 0 0 2 1 3 0 0 3 1 1 2 1 1 1 1 0 0 2 2 1 0 1 0 3 1 0 3 0 1 1 3 2 1 1 1 0 0 2 0 0 2 1 2 2 1 0 0 2 2 3 2 1 1 2 2 1 1 0 0 1 1 4 2 3 0 0 3 1 1 1 1 1 3 1 1 0 0 2 0 1 0 1 1 2 1 1 1 1 0 1 0 1 1 0 0 1 1 0 2 0 1 1 1 5 0 2 1 0 1 1 2 3 0 4 1 2 1 2 1 3 0 3 0 1 1 0 1 2 0 4 0 2 1 0 1 1 2 1 0 2 2 2 1 1 1 1 1 3 1 0 1 1 0 0 3 0 1 1 1 4 1 2 1 1 2 2 2 1 2 1 0 1 2 1 2 1 0 1 1 2 1 2 0 1 2 2 4 0 1 1 0 1 2 2 1 0 0 4 0 2 3 1 1 2 1 1 1 2 0 1 1 0 0 0 0 1 0 1 1 1 2 1 1 2 2 1 1 0 2 1 0 1 2 1 0 0 2 1 0 2 0 1 0 1 3 2 0 0 2 2 1 1 2 1 2 0 2 0 2 2 1 0 1 2 2 0 1 0 1 2 1 3 2 1 2 0 0 0 1 0 1 2 1 0 2 1 2 2 1 2 1 1 2 1 1 1 1 1 1 2 1 1 1 1 3 2 2 3 1 1 0 2 1 2 0 0 0 0 0 1 2 1 0 3 2 1 2 1 1 0 1 0 2 2 0 1 0 1 1 1 2 0 1 1 2 1 0 2 2 2 1 0 4 1 1 0 0 1 2 2 2 1 2 1 1 0 1 1 1 2 2 3 1 1 1 0 3 1 0 1 0 0 0 1 1 0 1 4 0 2 0 0 0 2 1 1 1 1 1 0 2 1 1 1 1 2 2 1 1 3 0 2 1 1 2 0 2 0 2 2 3 1 2 1 0 2 0 0 0 2 0 0 1 1 1 1 1 1 3 1 0 3 1 0 0 0 2 2 1 2 1 1 1 0 1 0 2 1 1 2 0 0 1 0 1 1 1 1 1 0 1 2 2 1 3 1 2 1 0 1 0 1 1 2 0 3 1 1 2 1 1 1 0 1 3 0 1 2 3 1 0 2 1 1 0 1 0 0 0 0 3 1 0 1 1 2 0 0 1 0 1 2 0 0 0 1 0 2 0 1 1 1 1 0 2 0 1 1 1 2 1 1 3 0 2 1 2 1 1 1 2 2 0 3 0 1 0 0 1 0 2 0 1 1 2 1 2 2 1 1 1 1 0 1 0 2 1 1 1 0 2 1 1 1 2 0 0 3 2 1 1 2 0 1 1 1 2 1 0 1 1 0 0 1 1 2 1 1 0 2 5 2 0 1 0 2 1 0 1 1 2 0 0 0 0 2 1 1 2 1 0 2 2 1 0 0 1 0 0 1 1 0 0 0 0 0 2 1 2 1 2 0 1 2 1 3 2 1 2 1 2 3 2 3 0 0 1 2 2 3 1 1 1 1 0 1 0 1 0 0 2 1 1 1 1 1 0 1 2 1 1 0 3 0 1 1 1 1 1 1 1 1 0 3 3 1 1 1 0 0 1 1 0 1 2 0 0 0 2 1 0 1 1 1 1 1 2 1 0 1 1 1 1 1 1 2 1 2 0 1 2 1 2 2 0 0 1 2 2 1 1 0 1 1 2 1 2 1 0 0 0 2 1 0 0 0 1 3 0 1 0 2 3 0 1 1 0 0 0 1 1 0 1 1 2 2 1 1 0 2 1 2 1 0 1 0 0 0 1 1 2 1 2 0 2 0 0 3 1 1 0 1 2 2 0 1 2 1 0 0 0 2 0 1 1 0 2 1 1 1 3 0 2 1 2 1 1 1 2 3 0 1 1 2 1 1 0 1 1 1 1 0 1 2 0 0 0 1 2 3 1 0 0 2 2 1 1 2 1 1 1 1 0 1 1 0 0 3 1 2 1 0 1 2 1 0 2 3 2 2 1 0 2 1 1 1 0 1 0 1 2 0 0 2 1 0 3 1 0 1 2 0 3 0 1 0 1 1 4 0 1 2 3 0 1 3 2 2 0 0 0 0 0 1 3 2 2 0 1 0 0 0 1 1 0 0 1 0 2 1 0 1 1 1 1 1 1 2 1 2 1 0 2 0 0 1 0 0 0 1 1 0 0 2 1 2 3 5 1 1 1 1 2 0 2 2 1 2 0 0 1 2 2 1 4 3 1 1 2 2 2 1 2 1 0 0 4 1 1 1 0 2 2 1 1 2 1 0 1 1 1 0 2 3 0 1 1 1 0 1 3 0 1 0 1 1 1 0 0 0 0 0 2 1 2 2 1 1 1 2 0 4 0 2 2 1 3 1 1 0 3 0 1 2 1 1 1 2 1 0 1 1 0 2 0 0 2 0 1 1 1 1 1 1 1 1 1 0 1 0 0 2 2 1 1 1 2 2 2 1 1 2 2 1 1 2 0 1 0 1 2 0 0 0 0 0 1 1 2 1 2 2 1 2 1 0 0 0 3 1 3 1 1 0 2 0 1 0 2 1 0 1 0 0 2 0 0 0 1 2 2 2 1 0 1 1 1 0 0 2 0 1 1 2 1 2 0 1 0 2 1 2 1 1 1 0 1 1 0 1 1 2 1 0 1 2 0 1 2 2 0 0 0 0 2 0 0 1 2 0 2 2 2 0 1 1 1 1 4 3 2 1 3 3 1 0 1 1 1 2 1 3 0 1 2 0 0 0 2 2 1 1 2 2 1 1 1 0 0 0 1 2 1 0 0 1 0 0 1 1 2 1 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 2 2 3 1 2 1 0 2 2 2 2 2 0 2 1 2 2 0 1 4 0 1 2 1 4 1 1 0 1 1 0 3 1 0 3 0 2 1 1 0 1 2 2 1 0 2 1 1 0 3 2 1 1 1 1 1 1 1 1 2 1 2 1 2 2 0 2 0 2 1 0 2 0 1 0 1 1 1 0 1 0 1 0 1 1 0 3 2 2 2 1 3 1 1 1 2 2 1 1 0 2 0 1 0 0 2 0 1 2 1 2 1 2 1 3 0 0 0 2 1 1 1 0 0 2 0 1 1 3 2 0 2 0 2 3 0 1 1 0 0 0 2 3 4 0 0 1 1 1 1 2 1 3 3 1 0 0 1 0 1 1 0 1 2 2 3 0 1 1 1 0 2 2 1 0 1 1 0 2 2 0 1 1 1 0 1 1 1 2 1 0 1 0 2 1 1 1 0 3 1 1 2 1 2 0 2 0 1 3 1 3 2 3 1 0 1 0 2 1 2 1 0 2 0 1 1 0 1 0 1 3 1 1 2 1 2 1 0 2 2 1 0 0 0 1 0 0 2 1 1 1 2 0 1 1 1 0 1 1 1 2 2 1 2 2 2 3 2 1 1 3 2 2 0 1 0 3 1 0 1 1 2 2 0 1 1 2 0 1 1 0 1 1 2 0 2 0 1 1 0 2 2 2 2 0 2 1 0 0 0 1 2 0 1 0 2 2 1 1 0 3 0 0 2 1 1 0 0 0 1 1 1 0 1 2 1 0 2 1 2 2 1 2 2 1 1 2 1 2 1 0 0 2 1 2 2 2 1 1 1 2 1 3 1 1 0 0 1 3 2 1 2 1 1 1 2 3 1 2 0 0 1 1 2 1 0 1 2 3 1 1 0 1 2 3 2 1 2 1 0 4 0 1 0 1 1 0 1 1 1 2 2 1 2 1 1 1 1 1 1 1 2 2 1 1 0 0 0 1 2 0 1 2 1 2 2 2 1 2 1 1 1 0 1 3 1 0 2 1 0 0 3 0 1 2 2 0 1 0 0 2 1 2 1 2 1 2 0 1 1 0 2 1 1 1 1 1 1 1 0 2 1 0 3 0 2 1 0 2 1 2 2 1 0 1 1 1 1 1 2 1 0 3 0 1 2 2 1 0 0 0 1 2 1 1 1 1 2 0 0 1 2 1 2 2 1 2 0 2 1 1 0 2 1 3 1 0 1 1 2 0 2 1 1 0 1 1 0 3 1 1 1 1 2 2 4 1 2 0 0 2 2 1 2 0 2 3 1 1 2 1 1 0 3 1 0 1 0 2 1 3 2 1 1 2 1 1 0 0 1 1 1 3 2 1 1 0 0 1 2 2 3 1 0 1 2 1 1 2 2 2 1 1 2 2 0 3 1 2 0 1 2 0 0 2 1 2 1 1 2 0 0 1 2 1 1 2 0 1 1 3 2 2 1 0 2 0 1 2 1 0 2 0 1 0 0 1 0 2 2 2 2 2 0 2 3 2 1 3 1 2 1 1 0 1 0 1 1 1 1 1 2 1 1 1 1 1 1 0 1 0 3 2 0 0 0 1 0 0 2 1 2 1 2 0 2 1 0 1 1 2 2 3 1 0 1 1 1 1 3 1 1 0 2 0 1 2 2 2 0 0 1 0 1 2 2 0 1 0 2 2 1 1 3 1 2 2 1 1 1 3 1 2 2 2 0 2 0 0 0 2 1 2 0 2 1 3 1 1 1 2 2 2 2 0 2 0 0 0 1 1 2 0 0 1 2 0 1 0 0 1 2 1 0 2 2 0 2 0 3 1 2 0 3 0 0 2 1 2 2 1 2 0 0 1 1 1 1 1 1 0 0 1 1 1 1 3 1 3 1 0 3 2 0 0 2 1 1 2 0 1 1 3 3 1 1 1 2 1 1 0 1 0 1 0 0 1 1 1 1 1 0 1 1 1 2 1 1 1 1 3 1 1 2 3 0 0 2 0 1 1 2 2 1 0 2 1 0 2 1 2 0 3 0 2 1 0 4 1 2 1 3 3 1 2 1 0 0 0 4 1 1 1 1 2 1 1 2 0 0 0 1 1 1 2 2 0 1 2 0 1 1 0 2 2 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 1 0 2 1 0 1 3 2 2 2 0 1 3 0 2 2 1 2 0 1 0 2 2 1 2 1 0 0 2 0 0 0 0 0 0 1 1 0 1 2 2 0 4 1 1 4 2 1 1 0 1 1 2 1 1 2 1 1 3 1 0 0 1 1 0 1 1 0 2 0 0 1 3 1 1 1 3 1 2 1 1 1 3 1 1 2 2 1 2 1 2 2 1 0 1 1 2 1 0 2 0 1 0 1 2 1 1 2 2 0 4 2 0 1 1 0 2 0 2 1 1 0 1 1 1 0 1 1 0 2 1 0 0 1 1 0 1 1 1 0 0 1 0 2 0 0 1 2 1 2 1 0 0 1 0 1 1 1 1 0 0 2 1 1 1 2 0 1 1 3 1 1 2 1 1 1 1 1 3 2 0 2 2 0 1 1 2 0 1 1 2 0 3 1 0 2 1 0 1 1 1 3 0 1 1 3 2 0 1 2 1 1 3 0 0 1 1 1 2 1 1 1 1 0 2 1 1 2 4 1 2 1 2 1 0 2 1 2 1 1 0 1 2 1 1 0 2 0 2 0 0 1 0 1 3 1 1 0 1 0 1 2 0 1 1 1 1 1 2 0 1 3 2 1 0 0 2 2 0 1 0 3 0 1 1 1 0 1 1 1 0 1 1 1 2 1 1 2 3 1 4 1 2 0 1 1 2 1 3 2 2 3 1 1 1 1 1 1 1 1 1 2 0 0 1 2 1 2 3 1 1 0 1 1 1 3 1 1 1 0 2 3 1 0 1 2 1 1 4 1 2 2 2 1 0 0 4 1 1 2 0 2 2 1 2 1 0 1 1 1 1 1 0 1 2 3 1 1 1 1 1 0 1 0 2 0 1 2 2 1 0 0 0 1 0 3 3 2 3 2 0 1 1 2 2 1 2 1 0 0 1 2 1 1 1 3 1 2 0 1 2 0 3 2 2 0 2 0 2 1 1 0 1 0 0 1 2 0 2 0 3 1 1 1 0 1 3 1 1 1 0 1 1 0 1 2 1 0 3 1 0 1 2 0 0 2 0 1 2 1 2 1 1 2 1 1 1 2 0 0 1 0 2 2 1 3 1 2 0 1 1 0 1 1 0 2 2 2 0 1 3 1 1 0 1 0 1 0 2 1 1 0 1 1 2 0 0 2 0 2 2 1 2 1 3 0 0 1 1 1 2 1 2 2 1 1 0 1 4 0 1 2 0 3 0 2 1 1 1 0 1 3 3 2 2 0 1 0 0 1 1 1 0 1 1 1 2 0 1 1 2 1 2 1 2 0 3 2 0 1 2 1 1 0 0 2 0 0 1 1 0 2 0 1 1 1 0 1 1 3 1 1 0 1 0 0 0 0 1 2 2 0 0 1 1 1 2 1 0 3 2 3 1 0 2 1 0 2 2 0 2 0 2 1 0 1 2 2 0 2 2 2 2 1 1 0 2 1 1 2 2 0 2 1 0 1 1 3 1 2 0 1 2 1 1 0 0 1 1 2 1 2 0 1 0 1 1 0 2 0 2 2 0 2 0 1 1 0 1 2 0 1 1 0 1 1 4 0 1 3 1 1 0 0 2 3 0 0 0 1 0 3 0 2 1 2 1 3 0 1 1 1 1 1 2 1 2 1 0 3 0 0 0 1 0 1 0 0 1 1 1 0 0 1 2 1 3 1 1 3 1 2 1 3 1 1 1 0 1 0 2 1 2 1 1 2 1 0 0 2 1 2 1 2 2 0 2 1 2 1 1 1 2 0 0 1 3 2 0 1 2 2 1 0 0 0 1 1 2 1 1 2 1 2 0 0 1 1 1 1 1 1 1 1 1 0 0 2 1 0 2 0 2 0 1 0 2 1 1 0 1 3 0 2 0 2 1 1 2 1 2 0 1 1 2 3 1 0 0 3 1 2 3 2 0 1 2 2 2 3 2 2 0 1 1 1 0 1 0 0 1 0 0 0 1 2 0 0 1 0 2 2 2 2 1 2 3 0 1 1 1 1 0 1 1 1 2 1 2 0 1 1 0 2 1 1 1 2 1 0 0 0 1 1 0 1 2 0 0 1 3 2 1 0 2 1 1 0 2 1 0 2 2 0 1 1 2 0 0 1 1 0 1 1 1 1 0 0 1 1 1 2 1 1 1 0 1 1 1 1 1 0 2 0 1 0 0 1 2 1 1 2 1 1 1 3 1 0 1 0 0 1 0 0 0 1 2 1 1 2 1 2 1 1 1 2 2 1 1 2 2 2 2 2 1 1 2 1 0 2 1 1 2 0 0 2 0 0 0 1 0 1 2 1 2 1 1 1 3 2 1 1 1 3 1 1 1 0 1 2 0 1 2 0 1 3 0 1 1 2 1 2 1 1 2 2 2 1 1 2 1 1 1 0 0 3 1 1 2 1 0 1 0 1 1 3 0 3 0 2 2 1 2 2 2 0 1 0 0 1 0 3 2 1 1 2 2 1 0 1 1 1 0 1 0 1 1 0 1 1 2 0 2 0 0 1 0 2 1 1 2 2 0 0 2 2 1 0 1 1 1 0 0 1 2 4 0 2 1 3 1 1 1 0 1 0 3 2 1 2 0 0 1 1 1 1 2 1 1 0 1 0 1 1 0 1 2 1 1 2 1 0 0 0 3 3 0 1 0 2 2 2 1 2 1 3 3 0 1 4 0 3 2 1 1 1 0 3 2 0 1 0 2 2 1 1 1 0 0 1 1 1 0 0 1 0 1 1 0 2 3 1 0 0 0 0 1 1 2 2 0 3 2 0 1 1 1 2 1 2 2 4 2 2 0 1 0 1 0 3 1 0 0 2 0 2 2 0 3 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 2 0 1 0 2 1 1 2 1 0 2 0 1 0 1 2 1 0 1 0 3 0 2 2 1 1 1 2 1 1 1 1 0 1 1 0 0 3 1 2 1 1 0 1 0 1 1 3 0 1 2 0 1 3 1 1 3 1 0 2 2 2 2 2 2 1 1 1 2 0 0 0 1 0 2 1 1 1 0 2 0 1 1 1 2 2 1 1 1 2 1 1 2 0 1 1 1 0 1 2 2 3 0 1 0 0 2 1 2 0 1 0 0 0 3 2 0 1 1 0 2 4 0 1 1 1 1 0 3 2 0 2 1 1 2 2 2 0 1 1 1 1 0 1 1 0 1 3 2 2 1 0 1 1 1 0 2 1 0 0 1 0 0 2 2 3 2 0 1 1 1 2 2 2 1 0 1 1 2 1 0 1 1 1 2 1 0 2 3 1 1 1 1 1 0 0 1 0 2 1 1 2 0 2 2 1 1 1 0 2 2 1 1 1 1 1 2 2 2 1 2 0 2 1 1 1 0 0 1 0 2 1 1 1 2 1 1 0 2 1 1 1 3 0 3 0 3 0 2 3 1 2 1 1 1 1 1 2 0 2 1 0 0 1 1 3 0 1 0 1 2 0 3 1 2 1 1 1 0 1 1 2 2 1 1 2 3 0 0 2 1 1 3 1 2 0 1 1 1 0 1 0 3 1 1 1 1 1 3 2 0 2 0 0 2 1 0 1 1 1 0 0 2 3 3 1 1 0 0 1 3 2 0 2 1 2 2 2 2 2 2 1 1 2 1 0 1 1 0 3 1 0 0 2 3 1 1 1 1 0 2 0 0 2 2 0 1 0 0 1 1 1 0 3 2 3 2 1 1 2 1 0 1 1 1 2 0 3 1 1 1 0 1 1 2 0 0 2 1 2 3 1 1 1 1 1 0 0 1 1 0 0 0 1 0 2 1 1 1 3 1 1 1 2 1 2 1 1 0 0 1 2 2 3 0 1 2 2 2 2 1 2 0 1 0 0 1 2 1 0 1 1 0 1 0 0 1 1 1 1 1 1 1 1 2 2 0 2 2 1 1 0 2 1 2 0 1 0 1 1 2 0 1 2 2 1 0 1 1 0 1 1 0 2 1 0 2 3 1 1 2 2 0 1 1 2 1 0 3 1 2 0 1 1 1 2 3 1 2 0 1 1 0 3 2 1 1 1 1 1 2 1 2 0 2 2 1 1 1 1 2 1 1 0 1 1 3 2 0 1 2 0 1 2 2 1 2 0 2 2 0 1 1 1 2 1 0 1 2 1 2 0 0 0 1 0 1 2 0 3 1 2 0 1 0 1 0 0 1 1 2 0 0 1 2 0 0 2 2 1 3 1 2 0 1 3 2 0 1 1 0 1 2 0 1 1 3 3 2 1 5 2 0 0 1 1 1 3 1 1 0 2 1 1 0 1 0 1 2 1 2 0 2 2 0 1 0 1 0 0 0 0 0 2 1 2 0 2 0 1 1 1 1 1 4 1 1 1 1 3 1 1 1 2 0 1 1 0 1 0 0 2 3 1 1 0 2 0 1 0 1 1 2 3 0 2 1 0 1 1 0 0 1 1 1 1 2 1 1 1 1 0 2 0 0 1 1 1 1 3 0 3 1 1 0 2 0 1 0 2 0 1 0 1 1 1 1 0 2 2 1 1 1 1 0 1 2 1 3 1 2 0 0 1 0 1 0 1 0 3 1 1 2 1 1 0 1 2 0 1 1 2 1 2 1 0 2 2 1 1 1 0 0 0 1 2 1 5 1 1 2 1 1 2 0 0 2 0 0 3 3 2 0 2 1 1 1 1 1 2 1 3 1 1 2 1 2 1 1 3 1 1 1 2 1 2 1 1 2 1 2 1 1 1 0 1 2 0 2 1 0 2 2 0 2 0 1 0 4 1 0 2 0 0 0 1 1 0 0 0 3 0 2 2 1 2 1 0 1 0 1 3 2 1 1 1 2 1 1 2 0 1 0 1 0 1 1 1 1 0 1 2 1 2 3 3 1 1 0 1 1 1 1 0 1 2 2 0 0 1 3 0 1 2 1 2 0 1 2 1 1 1 2 1 0 2 0 2 1 0 2 2 0 0 1 1 2 1 1 2 2 3 0 1 3 1 1 2 0 0 1 2 1 0 0 1 2 0 1 1 1 0 1 0 0 0 1 1 0 0 0 1 1 2 1 0 0 1 3 2 1 1 1 3 0 0 1 0 0 0 2 1 1 2 2 0 1 0 1 2 2 0 0 3 2 3 0 2 0 1 3 3 2 0 2 0 3 1 2 2 1 1 0 1 0 1 1 1 1 0 3 3 1 3 2 2 2 1 0 0 1 0 2 1 2 0 0 0 1 2 1 1 1 2 1 2 1 0 0 1 3 1 0 0 1 2 2 1 0 1 0 2 1 1 1 0 2 1 1 1 0 2 0 3 1 1 0 1 2 2 1 3 2 2 1 1 0 0 0 1 2 0 0 2 1 0 2 1 2 1 1 1 1 1 1 0 0 3 0 1 1 0 1 2 1 1 1 1 1 2 0 0 1 3 1 2 1 2 0 1 2 1 1 1 1 0 3 1 1 0 2 1 1 2 1 3 0 3 1 0 1 2 1 1 0 2 2 0 2 2 1 1 2 0 2 0 0 0 0 1 1 1 0 2 2 0 0 2 1 2 4 1 3 0 1 0 1 2 1 1 1 1 2 1 0 2 1 0 0 1 2 1 1 1 2 0 2 2 1 0 1 1 2 1 1 2 0 2 2 1 1 0 1 2 1 2 1 2 1 0 3 2 3 0 0 0 1 1 1 2 0 1 1 0 1 1 1 0 1 1 2 2 0 1 0 1 0 1 1 2 0 1 1 2 0 1 1 4 1 1 0 1 2 0 0 0 0 2 3 2 0 0 3 1 2 0 1 3 0 2 1 1 0 2 2 1 1 1 2 2 1 0 0 1 1 1 2 1 2 0 0 3 1 1 1 1 2 0 1 1 1 0 0 0 1 1 2 1 1 1 1 0 1 1 3 1 2 0 2 2 0 1 3 3 1 2 2 1 0 0 1 0 0 1 2 0 1 2 1 1 2 1 1 0 1 0 1 2 0 2 0 2 1 1 0 3 1 1 0 1 0 1 1 1 0 1 1 4 0 1 0 0 1 0 0 1 1 1 1 0 0 1 1 0 1 0 3 1 0 0 3 1 0 1 0 1 1 3 1 1 3 2 0 0 2 2 2 1 0 1 1 0 0 0 3 1 1 0 2 1 2 1 2 3 0 2 0 2 1 0 2 0 1 1 1 3 1 0 1 2 1 1 0 1 1 1 1 1 1 1 3 0 0 2 1 0 2 2 1 0 0 0 3 1 2 2 0 2 0 0 2 2 1 0 0 2 1 2 0 0 1 0 3 1 0 0 1 2 0 2 0 0 1 1 2 1 1 0 3 1 2 0 2 0 1 0 1 1 0 2 0 2 2 0 1 1 1 0 2 0 3 1 0 0 2 2 1 1 0 1 1 4 2 2 2 3</t>
+  </si>
+  <si>
+    <t>GAM(0.2697716294117978, -6.550445738341097e-29, 0.7513252544408375)</t>
+  </si>
+  <si>
+    <t>0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 3 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 2 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 2 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 1 1 0 2 0 2 2 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 2 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 3 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 3 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 1 0 0 3 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 2 1 0 0 1 1 0 1 0 0 0 2 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 3 1 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 2 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 2 0 2 0 0 0 1 2 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 2 2 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 3 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 1 0 0 0 0 0 1 0 0 3 1 0 0 1 0 0 0 2 1 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 1 0 1 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 3 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 2 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 1 2 0 0 1 1 0 2 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 3 0 0 1 2 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 2 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 2 2 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 1 2 1 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 1 1 0 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 0 2 1 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 1 0 1 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 3 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 2 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 2 0 0 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 1 1 0 1 2 2 0 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 2 1 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 4 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 2 0 1 0 0 1 0 0 0 0 0 1 2 1 0 1 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 2 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 2 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 2 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 2 1 0 0 1 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 2 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 2 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 3 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 2 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 3 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 1 1 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 2 1 0 1 0 2 0 1 1 0 1 1 0 0 0 0 0 3 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 3 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 3 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 3 0 1 2 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 2 1 2 0 0 1 1 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 2 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 3 2 1 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 2 2 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 2 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 2 1 0 0 2 0 1 1 1 0 0 1 0 0 1 0 0 1 0 0 3 0 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 2 1 0 1 1 0 0 1 1 0 0 0 3 2 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 1 1 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 2 0 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 3 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 3 0 0 0 0 2 0 1 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 1 0 2 3 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 0 0 0 1 0 0 2 0 0 2 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 3 0 0 0 0 1 1 1 0 0 1 0 0 1 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 2 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 2 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 2 0 0 0 0 1 0 0 0 0 0 3 1 0 0 1 1 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 1 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 2 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>F(5061.711746789083, 352.40526127835113, -388.2942555080755, 493.9296121896066)</t>
+  </si>
+  <si>
+    <t>93 138 149 67 123 121 168 98 99 132 120 71 113 30 106 91 161 28 95 86 78 75 108 57 55 187 90 118 162 137 79 169 67 98 111 83 160 124 100 120 30 101 188 120 118 55 86 50 58 140 145 90 94 85 108 102 149 196 126 174 92 92 136 46 103 140 143 60 94 172 62 169 31 92 110 117 69 37 110 100 90 154 136 162 103 173 149 27 204 143 197 54 122 120 97 54 15 83 75 125 121 163 114 99 186 125 94 98 155 92 80 101 112 34 110 152 99 90 116 162 34 97 206 114 197 130 133 103 109 140 132 58 78 129 181 145 69 104 118 192 109 79 173 41 135 132 167 71 134 134 160 97 107 116 160 48 119 226 50 127 103 103 148 94 98 85 127 74 111 88 152 57 83 103 62 40 58 87 44 63 151 160 86 65 45 57 168 183 178 123 125 133 96 110 178 91 147 77 54 84 144 112 135 99 106 41 115 59 117 76 135 109 138 81 70 124 92 161 140 50 103 37 81 72 108 110 109 58 180 137 133 97 88 109 76 135 186 80 102 47 218 73 159 130 127 83 103 55 83 214 67 137 103 169 67 57 76 89 62 191 147 144 116 144 40 136 97 92 101 89 112 126 127 158 112 137 110 187 77 144 54 189 115 93 74 78 96 78 109 106 133 123 175 101 135 94 90 122 221 147 57 116 147 144 43 114 149 66 107 160 82 130 65 170 155 92 153 68 52 89 99 147 102 141 88 94 105 182 143 60 95 65 87 108 85 117 151 57 124 95 137 132 95 187 150 70 118 23 25 64 98 85 150 171 111 126 49 131 79 111 80 53 172 114 168 97 170 112 97 133 74 140 105 123 175 150 142 135 138 93 61 182 47 98 165 73 152 48 86 107 86 116 168 151 137 82 105 121 198 110 110 103 39 57 64 69 69 185 154 119 65 59 232 129 132 151 125 112 142 101 93 76 107 95 125 132 194 76 37 63 155 177 105 136 149 85 246 27 99 101 128 150 109 129 220 80 74 91 94 133 93 190 139 124 177 106 132 178 65 80 105 136 38 119 141 113 110 91 118 115 65 93 140 76 88 117 156 120 132 45 56 107 111 171 88 142 87 78 101 58 124 112 85 46 202 95 153 174 128 146 68 73 173 56 75 94 120 82 62 64 117 82 147 119 65 67 138 80 76 135 127 161 67 120 111 105 129 62 69 90 42 160 152 241 122 128 37 106 101 84 71 83 76 13 102 75 173 114 38 100 93 97 168 161 51 117 38 67 123 110 72 128 63 104 80 111 79 150 42 124 100 136 73 142 54 72 67 137 111 92 89 137 111 148 49 65 92 63 141 130 116 31 113 123 103 28 92 73 107 118 101 78 110 21 132 57 93 98 40 112 100 160 148 113 76 119 50 133 87 86 83 50 111 73 87 148 171 88 200 77 126 72 154 191 113 123 150 74 99 129 121 112 167 112 137 106 75 89 91 97 89 112 81 69 131 76 49 59 107 117 99 80 104 56 111 129 153 31 42 109 145 129 19 96 67 76 64 114 153 84 79 97 100 144 16 47 111 180 120 166 74 133 175 57 124 105 158 105 134 63 72 113 88 83 94 33 106 153 69 102 50 88 231 81 99 76 58 65 106 177 116 37 116 64 158 32 133 109 143 126 153 91 200 123 38 94 94 96 87 123 181 94 51 175 38 140 104 65 145 75 56 109 89 203 140 83 132 144 157 181 102 133 113 52 129 117 24 70 92 62 110 122 25 64 146 97 139 155 164 60 62 87 103 96 121 133 138 120 121 159 118 95 54 96 93 76 106 126 158 128 114 140 152 175 59 87 75 58 161 115 123 127 131 118 135 132 128 101 92 119 123 129 105 83 115 101 130 57 129 122 150 90 158 127 125 130 144 128 111 94 109 126 108 70 93 155 148 84 186 177 73 169 107 122 142 110 85 97 85 63 70 72 86 212 133 152 107 132 105 126 139 100 111 154 89 137 143 116 99 122 125 85 120 110 106 129 92 121 55 81 144 200 144 135 105 66 92 82 40 101 118 120 118 100 65 52 94 92 86 101 142 78 95 58 34 95 97 96 93 79 54 179 151 131 190 53 98 115 84 102 103 71 98 60 65 121 133 94 90 104 114 126 145 69 61 133 116 118 81 95 106 25 159 103 91 124 94 105 159 78 119 123 84 92 125 86 135 138 210 191 76 54 78 100 74 101 122 140 100 150 76 106 113 86 108 126 96 134 61 87 67 124 124 72 45 67 111 170 135 171 176 165 84 109 95 130 32 110 31 137 83 108 110 110 132 197 54 43 56 100 103 121 121 122 67 89 94 71 191 164 146 77 106 110 148 218 87 149 63 92 149 174 119 132 83 107 85 41 98 209 70 84 102 127 133 150 81 159 90 91 57 168 110 61 170 37 111 63 97 98 60 111 175 94 77 62 137 115 103 68 156 95 97 34 146 202 134 100 44 155 122 81 54 116 167 138 70 172 134 78 90 66 135 68 119 66 128 76 102 93 140 63 65 69 112 137 93 57 114 249 105 108 119 107 99 161 58 78 161 91 106 90 115 98 57 143 107 108 134 123 105 25 117 163 139 81 119 112 45 63 113 150 103 91 103 114 90 97 121 105 138 70 89 88 127 40 53 123 135 132 72 139 157 100 161 89 109 119 107 111 41 136 121 102 69 172 91 68 97 145 67 98 132 145 206 162 90 198 152 164 36 97 76 176 133 106 76 64 76 73 161 160 51 182 123 122 76 122 90 89 136 44 99 111 24 66 152 121 71 103 91 140 74 120 133 125 76 142 92 69 44 55 133 107 122 165 81 85 75 166 81 95 174 241 105 93 121 119 91 94 51 56 142 72 77 129 107 119 108 121 121 73 81 44 100 189 155 94 73 124 131 51 73 65 91 95 68 91 87 125 37 49 49 100 61 110 143 54 116 178 154 74 130 153 128 82 164 85 102 77 172 84 127 50 107 126 61 118 51 81 52 98 82 113 180 114 104 113 141 106 92 104 99 97 74 127 96 90 120 91 184 52 160 119 85 125 153 28 119 120 165 146 75 106 104 94 68 151 173 76 120 39 122 163 112 96 57 143 116 157 99 137 174 203 74 82 132 110 119 92 62 66 112 108 118 168 138 97 94 141 126 90 141 155 142 68 82 82 110 105 91 76 151 160 112 108 61 132 84 109 125 105 38 125 136 107 89 132 82 37 168 203 128 126 74 69 46 64 71 62 67 120 80 117 162 101 78 70 123 96 235 47 131 96 94 142 151 110 92 127 104 130 80 115 147 101 99 172 98 158 78 100 71 132 94 63 105 115 130 130 82 182 113 121 143 111 89 98 60 130 105 83 127 125 121 112 147 22 173 161 85 157 112 97 88 76 76 155 65 91 139 143 143 154 110 101 46 73 120 183 78 110 114 217 36 48 84 113 127 157 70 72 24 98 66 90 125 65 82 217 66 42 100 41 115 83 200 155 96 113 141 177 139 38 88 145 63 93 79 102 75 110 64 99 94 128 125 75 89 205 115 182 141 75 137 71 128 93 135 59 72 159 72 147 97 134 98 111 155 95 173 131 124 158 119 76 86 86 146 132 174 91 79 67 174 87 146 100 132 139 18 75 83 70 145 126 144 95 59 157 95 76 98 114 51 110 77 124 175 129 120 153 122 32 145 128 131 112 85 122 80 124 176 120 113 128 161 108 204 112 78 110 75 95 102 153 51 135 173 54 158 141 143 112 104 139 116 87 31 110 145 142 125 145 69 159 115 142 147 38 116 84 56 76 191 147 141 97 126 86 147 124 72 142 132 200 82 37 58 88 127 137 158 106 148 116 54 60 78 94 94 223 65 140 91 157 26 90 143 39 89 163 112 79 143 182 176 154 108 105 89 32 64 91 108 103 126 163 80 155 112 155 86 113 134 102 136 75 91 105 70 104 100 109 81 119 113 100 66 70 171 102 84 121 77 93 139 144 155 55 64 84 104 144 176 96 130 192 95 201 102 59 74 140 96 161 91 91 86 99 69 115 151 114 169 95 12 179 57 113 128 107 126 75 110 125 154 133 184 97 126 85 147 149 88 97 75 92 96 86 103 44 66 145 154 50 151 137 82 119 76 131 141 99 128 129 112 31 68 142 98 167 36 81 114 141 92 103 78 50 90 93 117 77 160 41 153 147 199 149 115 116 76 161 42 76 44 121 184 85 134 114 36 87 58 129 104 139 95 69 75 64 79 194 153 112 113 91 145 100 160 107 135 179 115 55 39 90 69 45 133 59 140 185 78 138 125 72 141 159 38 74 118 130 130 123 100 54 142 86 113 68 74 170 75 79 153 72 101 36 111 33 104 145 128 53 128 98 103 90 116 114 56 95 79 37 157 144 47 70 141 172 72 75 94 117 95 164 93 81 95 152 89 146 109 81 68 132 105 125 178 133 82 88 63 94 115 68 113 77 73 153 101 140 133 170 63 100 107 94 121 176 99 176 71 157 125 119 127 59 204 113 155 145 149 97 60 123 65 116 112 153 125 97 141 67 100 82 167 64 121 94 137 120 101 87 112 105 62 109 97 132 80 144 173 134 72 126 75 106 151 92 103 146 134 96 137 89 60 131 112 100 43 133 65 50 95 125 118 156 119 135 33 59 97 102 40 69 111 132 73 87 116 53 123 78 156 117 26 116 58 210 107 148 100 60 57 44 71 45 99 94 118 93 129 127 173 144 75 76 128 108 107 83 82 24 111 100 163 116 101 77 154 64 43 154 92 99 156 116 107 13 137 145 103 115 147 145 68 122 50 71 59 193 107 113 64 148 58 170 62 134 105 123 76 76 63 82 24 177 174 91 42 146 73 140 134 141 124 24 107 106 178 96 154 73 102 69 51 106 147 133 67 132 113 107 81 142 126 129 50 98 148 156 85 88 117 40 140 63 142 176 201 164 32 67 115 139 79 150 69 127 31 43 68 143 99 77 121 173 69 100 182 171 124 141 54 55 124 87 99 76 143 152 121 161 182 25 115 106 84 106 70 56 146 137 136 156 90 115 151 118 80 139 127 68 115 151 147 38 104 159 75 67 116 46 54 84 120 106 120 70 126 57 118 155 142 94 111 95 146 174 80 127 149 120 93 112 81 38 63 132 27 66 47 129 110 69 116 121 121 129 158 129 158 79 140 68 146 101 81 74 78 127 144 65 99 77 113 22 104 73 87 107 52 75 110 100 84 69 103 104 157 111 152 109 50 134 119 176 134 94 216 71 115 161 148 86 72 78 102 140 156 154 116 36 79 58 113 118 41 99 177 88 146 137 56 86 138 68 83 38 97 104 99 104 203 116 103 65 141 119 107 143 132 170 77 132 146 148 97 44 84 96 50 109 79 176 100 209 168 43 120 110 82 71 82 73 109 69 101 81 72 132 129 132 37 110 125 92 82 121 83 114 30 103 88 86 97 96 52 94 113 60 150 80 84 120 64 152 140 128 147 90 106 43 133 184 195 119 116 98 112 201 136 48 112 107 144 138 150 165 90 77 129 118 117 50 100 122 115 144 65 136 174 60 150 54 29 76 125 127 80 72 50 108 172 99 119 115 112 93 152 144 132 77 59 137 117 55 164 159 84 121 80 107 103 69 118 212 89 215 90 77 109 84 74 126 136 91 63 92 7 133 68 131 86 92 52 86 123 79 103 106 59 109 92 165 99 77 112 116 53 132 113 103 142 168 85 194 105 50 88 97 112 46 92 125 66 99 101 50 67 67 102 94 154 74 146 110 98 170 61 28 87 136 140 102 103 115 123 95 119 127 89 124 101 151 139 175 159 135 130 41 129 121 34 181 83 117 108 130 169 127 122 157 56 117 90 180 130 141 137 142 100 159 88 78 110 71 120 107 128 173 57 139 63 105 165 191 72 96 95 130 122 96 121 216 78 43 75 160 80 116 119 100 110 187 172 164 90 137 50 71 76 87 117 134 76 140 59 49 77 134 119 61 74 151 63 58 106 128 253 73 108 128 102 180 94 189 163 57 133 191 40 90 86 32 124 121 108 112 126 101 148 154 110 116 69 130 107 95 171 112 87 71 45 89 143 116 65 168 88 129 128 87 143 39 126 103 96 127 90 60 120 119 88 141 140 134 80 119 81 107 90 33 145 102 36 122 127 140 64 137 94 100 105 179 73 149 112 101 160 107 95 192 67 118 137 86 87 135 115 90 149 100 79 106 84 145 154 93 128 103 47 176 152 107 147 113 68 152 137 77 84 108 117 152 148 69 63 93 110 115 45 121 60 142 72 102 152 130 124 138 46 108 135 91 88 115 114 206 101 172 59 166 140 210 112 141 87 76 165 141 47 98 129 67 117 80 61 127 97 59 59 148 110 92 99 123 53 224 120 20 116 98 164 87 58 96 44 137 67 136 151 184 113 91 142 130 115 196 72 89 85 149 81 81 100 129 139 150 81 107 103 218 42 239 103 130 116 103 112 139 120 118 89 91 81 91 64 76 99 130 111 38 112 174 67 95 36 123 130 129 80 179 149 94 74 102 175 95 113 65 105 43 106 142 137 167 18 95 87 152 144 62 149 103 67 128 58 137 210 77 154 103 123 110 119 181 100 85 87 170 114 43 97 88 128 37 115 69 123 88 101 75 130 161 137 87 80 133 50 120 117 97 128 107 121 65 137 29 192 154 87 75 176 119 77 145 137 165 104 206 112 103 103 94 169 140 133 115 89 42 149 135 111 88 124 86 119 119 53 124 93 129 83 48 166 62 203 114 90 117 120 119 68 77 144 144 107 89 67 77 94 39 73 125 116 139 143 92 148 108 90 139 64 117 102 170 108 117 85 79 132 150 136 80 69 91 152 166 140 71 92 202 89 136 178 96 61 183 138 114 130 91 154 105 107 87 42 78 100 97 74 191 117 114 78 206 106 108 71 124 128 81 137 60 74 172 70 78 106 112 65 35 142 86 55 137 111 118 137 77 114 128 82 101 151 99 122 151 97 147 134 76 125 108 146 143 149 142 104 80 101 55 56 126 119 83 108 127 94 159 114 123 101 102 106 100 80 61 138 187 46 205 114 96 67 66 110 140 92 148 99 97 77 46 159 117 100 123 139 211 23 147 61 133 34 52 33 42 76 99 129 99 57 213 87 56 69 91 91 56 85 48 59 163 75 148 112 127 17 78 101 196 156 100 141 126 73 50 100 177 117 121 89 122 31 98 165 182 117 94 48 75 64 125 100 89 46 34 143 142 24 72 67 151 73 126 150 150 87 115 121 154 118 130 176 93 118 157 138 146 207 148 115 72 111 152 89 128 56 142 165 95 88 115 125 165 121 93 96 115 182 113 155 99 24 139 47 137 114 119 116 185 186 139 164 161 87 155 120 115 133 97 92 110 135 133 61 130 78 108 143 131 147 86 96 94 110 77 146 100 140 149 104 140 114 88 34 85 78 142 156 183 41 177 127 55 63 41 150 52 158 168 142 89 115 120 121 184 60 107 119 110 103 68 122 56 86 113 103 147 156 63 76 118 149 193 108 77 155 102 147 123 86 109 117 129 165 116 72 152 89 105 101 124 74 62 126 121 121 163 99 93 126 175 95 148 99 61 60 110 129 111 120 123 124 105 132 164 71 159 109 150 68 130 148 107 114 66 57 95 116 124 87 182 117 47 107 51 156 120 136 116 128 98 111 21 121 40 106 61 89 37 129 87 124 101 67 169 80 111 45 123 71 138 89 88 92 165 105 102 66 127 135 139 65 171 112 171 103 131 74 120 131 179 158 107 163 140 122 170 100 82 90 82 157 147 85 83 52 142 120 136 86 110 57 211 109 78 73 94 44 18 120 144 109 181 106 101 140 122 198 104 119 113 115 167 118 65 61 172 52 112 119 108 104 162 126 105 39 125 123 82 97 106 129 56 100 181 122 75 127 134 76 82 84 107 120 99 78 98 82 53 131 123 85 233 68 105 116 115 155 105 89 98 113 84 139 142 125 115 70 38 181 71 98 145 108 54 22 131 87 140 111 101 131 52 37 110 165 105 104 76 151 225 187 52 136 89 65 120 90 148 117 47 123 81 85 115 76 199 124 52 192 136 99 108 126 171 83 153 57 35 64 132 33 79 95 135 25 109 134 119 89 146 158 73 163 152 127 50 136 85 157 128 74 159 65 105 164 269 115 109 100 100 132 73 38 145 103 117 104 124 153 132 84 58 109 153 157 81 118 132 46 85 112 91 134 161 132 61 115 71 71 185 157 64 56 61 123 91 72 105 115 180 127 66 63 94 171 118 89 150 119 61 120 81 103 209 157 80 118 105 102 34 120 111 149 85 118 103 89 82 66 69 148 111 44 121 118 58 103 135 105 89 195 93 65 122 115 96 116 138 65 80 209 78 102 84 76 108 62 140 124 104 71 26 124 95 117 124 51 146 72 101 124 102 140 173 78 86 124 151 112 161 99 54 144 91 139 157 104 112 66 120 60 135 150 167 98 91 129 143 119 72 120 142 90 80 133 50 104 114 55 146 84 106 182 123 204 99 79 147 81 125 106 131 192 103 80 114 70 151 121 86 157 93 130 141 109 47 74 118 127 87 52 49 149 114 125 114 94 123 55 102 149 96 175 92 154 163 85 156 44 122 173 109 195 91 154 84 86 78 121 8 76 52 124 61 74 94 114 64 146 87 38 62 71 87 86 166 51 67 83 160 119 68 162 92 88 49 72 78 129 106 150 88 96 148 87 104 89 87 25 183 145 57 97 113 100 100 159 70 99 51 77 43 49 52 104 120 94 79 89 149 94 156 187 77 119 80 175 102 45 114 153 42 84 47 72 80 144 145 206 91 114 73 153 116 71 120 100 138 143 94 78 110 150 75 135 65 45 110 136 119 102 95 153 76 76 104 169 107 120 100 43 59 129 85 129 63 102 120 47 100 81 84 169 70 72 179 126 94 88 61 125 139 69 151 122 76 25 64 76 109 128 100 124 102 68 86 54 129 111 190 68 107 141 128 82 83 76 53 135 107 53 100 73 32 100 122 111 112 154 116 113 208 175 135 92 72 131 99 143 77 106 37 129 145 175 150 126 163 73 129 63 69 252 76 69 124 61 100 123 188 55 60 126 124 93 28 70 50 43 117 96 23 105 165 151 136 94 89 112 142 172 94 89 154 29 70 134 97 113 44 84 138 170 99 165 171 117 79 146 142 135 70 97 9 187 52 143 142 101 119 119 105 104 43 63 100 110 141 233 53 125 143 42 69 109 136 108 103 99 136 102 100 84 62 117 69 120 72 41 123 83 105 131 96 117 78 91 76 107 27 158 96 133 82 57 99 80 78 79 56 68 173 123 121 116 109 64 70 87 85 142 121 87 140 66 66 162 126 88 149 147 56 154 100 78 120 121 92 74 85 114 125 175 87 138 120 59 52 38 105 140 158 133 124 92 59 102 62 77 105 97 109 91 94 119 78 92 152 125 145 83 37 93 45 83 95 95 103 177 59 105 134 90 125 136 130 118 96 126 78 89 161 144 86 57 217 68 132 30 111 80 48 102 191 43 129 58 106 122 101 64 128 158 113 175 117 127 139 63 74 204 81 110 85 63 70 136 117 51 50 143 65 125 115 104 82 65 94 64 168 149 174 140 124 59 114 173 86 18 102 78 62 107 104 120 140 117 171 82 53 191 154 140 138 122 222 110 143 163 75 176 106 76 131 184 142 146 144 137 126 58 99 118 160 79 52 92 108 103 194 130 109 71 149 124 91 81 180 106 75 88 103 84 132 128 205 65 107 78 114 118 61 139 137 115 100 90 79 153 121 91 97 127 81 158 106 136 79 104 129 79 88 89 109 25 53 126 34 127 110 157 56 79 88 84 130 123 110 153 78 123 129 95 158 127 154 173 67 205 107 134 110 118 76 109 62 82 117 167 42 138 122 72 136 91 91 147 116 66 73 131 45 27 114 139 62 46 60 151 52 200 82 105 116 80 115 99 115 153 121 95 123 41 111 104 101 126 152 112 123 127 92 112 170 106 127 157 129 203 142 102 145 120 86 138 110 100 99 144 109 129 168 125 135 99 113 77 153 49 125 52 113 33 131 84 58 105 70 126 159 106 63 96 117 131 106 96 122 134 77 132 57 80 127 183 137 76 120 84 124 54 98 83 127 151 136 138 119 188 69 133 103 160 110 86 121 91 144 76 101 87 177 153 158 118 129 167 109 165 116 141 129 70 152 96 65 183 77 81 109 73 101 103 177 50 146 130 85 104 164 101 50 50 97 113 77 118 137 84 131 78 117 140 111 63 72 79 79 120 183 159 140 101 140 79 126 132 128 54 121 101 122 202 90 124 111 154 134 139 93 106 140 100 151 162 75 41 122 172 40 176 60 155 119 75 103 43 206 140 69 111 133 109 102 70 79 32 92 131 50 70 134 145 141 106 82 100 107 98 125 103 90 159 85 200 77 137 82 128 145 100 77 152 203 71 105 91 58 105 133 59 166 129 126 157 96 96 82 101 133 124 113 156 156 114 160 163 65 92 165 114 137 153 160 38 64 124 42 157 172 104 131 115 95 92 76 179 102 75 24 86 12 182 120 96 103 116 91 97 87 243 102 131 112 103 84 133 108 49 135 197 62 85 25 67 133 95 88 129 203 95 171 45 107 142 115 76 173 112 127 14 127 103 52 135 209 86 162 87 108 93 178 111 121 149 145 88 114 139 129 81 159 98 125 82 134 145 102 106 177 198 92 135 86 87 109 90 139 66 188 58 94 94 146 152 111 158 154 115 143 118 159 176 95 76 208 147 53 72 120 171 94 79 98 118 101 140 46 180 106 199 118 161 68 109 92 81 147 97 111 66 99 84 86 122 98 110 43 78 127 158 164 72 53 69 154 158 114 82 94 110 115 123 73 98 49 122 63 148 66 138 147 144 123 122 72 59 111 52 128 67 155 142 106 136 127 77 132 91 80 85 61 69 75 76 107 102 71 95 87 148 98 118 70 41 117 91 191 114 150 134 53 133 147 114 133 114 121 119 204 96 151 69 108 139 87 140 202 116 81 159 87 172 50 111 122 65 112 110 74 85 80 60 128 112 46 66 149 89 88 78 106 80 157 33 148 75 112 54 80 77 157 81 117 125 107 69 48 56 128 112 173 149 102 89 147 164 105 112 102 169 103 126 155 27 112 145 87 90 99 53 73 84 125 137 119 86 86 61 122 180 140 100 134 131 138 111 144 100 98 117 73 195 87 66 142 170 119 105 100 64 143 103 115 38 102 73 114 127 159 109 95 158 91 126 56 98 111 100 45 68 116 160 45 128 106 121 56 56 104 137 127 104 95 36 111 128 24 140 128 53 124 97 98 168 134 124 92 82 58 55 80 113 93 78 56 92 160 117 97 81 54 200 103 154 116 110 45 65 75 157 144 166 138 83 60 193 114 214 77 119 127 82 70 88 111 80 97 170 164 74 136 66 91 56 85 73 106 93 35 135 115 53 99 148 36 109 75 92 59 132 162 138 123 74 114 100 141 111 174 84 108 226 137 156 21 21 49 144 88 118 130 126 166 76 129 184 167 76 129 170 28 140 105 160 104 79 74 133 92 62 54 112 129 100 150 104 63 145 112 69 92 122 102 137 138 117 213 144 90 103 149 127 71 81 113 135 215 92 52 60 110 157 49 95 102 109 24 78 104 93 140 138 158 97 118 78 92 62 113 107 74 103 100 78 104 137 65 91 147 166 102 114 114 74 182 66 131 54 73 99 194 128 130 136 69 82 112 106 29 153 43 149 48 178 163 77 91 61 116 120 132 103 105 114 178 116 101 121 54 92 158 98 82 154 141 133 150 135 104 159 80 88 122 176 61 59 168 159 76 152 110 165 34 68 111 62 93 42 147 88 134 125 113 47 142 41 141 15 106 90 85 141 71 48 124 156 118 58 125 84 94 92 157 69 128 111 67 160 36 56 143 125 40 122 141 115 84 134 60 114 71 56 202 51 72 63 94 197 146 113 103 122 56 113 60 94 99 113 137 124 82 164 166 78 65 166 93 112 71 91 75 104 110 59 54 142 84 63 156 71 120 159 78 179 118 121 83 147 110 172 84 155 116 130 111 78 141 54 91 123 133 90 84 182 76 84 137 125 103 147 126 117 22 53 140 89 134 116 172 37 86 115 56 21 95 200 133 58 159 151 55 84 136 145 88 42 46 36 114 145 152 82 37 62 125 110 56 111 81 56 131 115 87 86 106 68 118 43 177 179 166 115 119 65 117 38 101 103 111 174 219 92 168 108 68 114 136 112 141 83 127 130 106 29 47 100 111 78 57 164 117 142 124 99 114 124 127 62 186 68 109 80 95 165 96 150 57 40 65 113 106 107 183 119 129 74 89 142 122 143 107 73 80 92 88 151 45 82 85 73 80 91 89 137 115 172 81 163 91 84 100 161 146 100 106 137 70 68 76 119 56 171 135 151 188 97 42 73 160 74 48 112 164 71 124 116 111 150 127 141 177 104 105 85 118 203 118 41 149 87 111 163 131 164 92 97 206 175 140 122 72 116 130 141 130 134 105 190 63 111 168 81 116 108 145 137 98 45 161 137 54 106 161 106 143 161 60 88 92 102 53 94 108 72 108 85 115 83 78 113 120 125 118 117 44 85 115 75 186 142 140 94 109 99 93 92 57 179 162 100 96 102 121 168 69 86 102 127 105 126 65 73 186 79 65 133 66 162 131 61 121 76 87 84 75 27 109 190 112 139 81 162 98 89 158 55 104 196 58 160 133 115 67 158 143 68 79 132 117 115 155 90 108 80 175 118 125 55 134 145 202 121 240 104 188 157 102 98 100 137 132 113 91 76 91 128 120 156 273 175 133 180 101 99 113 99 73 128 130 180 96 85 65 24 130 167 153 73 183 139 97 132 62 37 85 128 116 100 79 117 183 101 36 153 69 153 37 118 156 166 164 68 113 110 123 110 107 113 138 78 94 107 31 84 143 115 142 92 51 109 57 101 207 183 88 94 101 88 60 130 108 160 60 73 132 107 79 129 138 169 156 104 110 83 105 129 69 78 138 31 113 113 74 57 38 100 92 81 135 102 82 92 119 197 127 162 99 141 77 105 85 128 98 72 83 104 106 198 23 119 151 106 155 134 91 62 67 92 216 145 136 91 135 158 101 97 109 121 105 118 74 73 77 96 81 53 112 90 144 51 195 67 146 137 71 144 120 85 134 109 222 96 116 141 73 7 132 95 103 144 96 94 122 151 95 178 71 194 79 84 55 68 116 124 72 158 184 120 134 49 130 225 85 69 96 53 127 37 120 123 72 76 164 80 103 97 139 126 126 100 113 69 208 104 71 98 52 118 108 98 97 160 136 88 167 127 91 46 58 90 131 161 143 111 116 56 62 81 81 47 144 114 187 149 103 107 78 106 98 75 63 68 81 84 154 121 95 53 154 121 96 65 101 74 197 154 95 147 68 51 87 117 123 82 145 185 113 170 168 97 164 175 134 55 68 132 201 73 33 30 109 153 119 104 113 49 108 130 121 80 60 83 99 93 129 154 107 153 160 127 167 131 57 79 96 44 149 94 142 160 117 100 122 64 112 85 63 102 77 50 114 126 142 101 112 97 163 157 164 103 61 213 115 112 138 52 160 84 102 38 139 144 52 162 103 102 89 101 109 33 85 67 131 116 157 21 91 106 132 133 88 86 130 114 133 133 98 128 113 146 140 82 123 62 130 53 106 90 55 127 110 158 146 91 82 127 194 182 65 122 96 197 85 118 48 161 55 169 120 134 127 80 52 152 117 218 165 135 85 188 84 163 108 122 210 55 151 107 62 146 95 46 52 129 83 126 92 110 92 44 94 167 47 75 140 125 180 99 56 71 94 129 88 121 69 124 104 113 137 93 155 152 134 105 96 182 82 99 106 99 92 124 81 137 30 76 105 88 191 32 162 187 179 138 127 132 66 104 116 102 86 120 85 72 67 213 153 26 50 115 138 58 151 97 79 101 144 83 59 68 146 121 174 149 109 73 57 123 108 111 80 132 84 133 116 142 96 131 95 105 101 108 151 31 137 65 107 140 71 77 226 131 33 53 40 121 49 150 52 227 107 61 76 85 130 104 151 66 106 124 127 182 75 149 99 150 145 67 142 102 143 109 96 116 80 34 85 182 147 111 19 67 171 49 104 110 105 90 128 23 109 146 103 73 72 110 157 130 50 103 75 102 146 97 37 81 93 127 135 104 60 53 160 119 139 89 195 137 153 77 96 84 89 79 98 124 87 115 150 124 115 91 141 114 98 155 123 127 180 88 91 50 94 136 97 131 76 81 106 79 34 193 122 95 119 151 88 62 153 122 60 102 26 69 207 104 93 165 111 122 124 67 95 87 175 111 158 103 69 85 59 30 117 18 111 111 157 162 63 175 121 106 116 148 95 131 99 112 134 148 126 123 112 106 151 114 139 71 40 109 179 96 90 63 174 58 148 143 51 175 131 104 111 153 105 129 165 91 98 171 83 107 71 109 115 64 65 135 73 142 141 128 126 58 57 83 62 146 90 83 127 79 132 92 68 178 85 102 68 120 121 150 169 86 180 195 75 41 133 125 194 68 62 135 177 103 53 99 155 135 173 104 119 178 98 125 176 208 14 119 110 142 44 57 138 138 97 111 118 142 135 87 104 110 152 145 77 88 81 95 125 110 74 89 35 156 97 121 106 114 78 173 167 19 144 94 120 109 80 127 79 131 88 28 53 40 83 151 99 60 110 88 53 113 78 58 66 112 104 94 109 39 69 95 98 76 121 95 130 205 94 138 109 76 81 129 50 114 92 143 112 85 64 104 95 97 184 144 99 123 184 146 111 211 104 98 151 60 66 43 157 106 77 114 107 160 99 149 76 95 123 56 132 150 42 79 138 137 150 167 114 143 70 83 242 116 130 97 115 75 128 148 63 146 108 39 106 130 78 96 51 113 146 167 193 58 68 132 79 125 154 170 66 108 91 139 96 129 118 94 64 122 109 90 36 60 131 87 88 98 80 148 108 186 88 148 108 154 134 95 121 127 178 97 106 179 147 137 86 133 105 106 89 49 104 64 131 114 41 17 112 106 148 91 111 140 127 146 148 135 189 86 137 121 119 48 82 99 87 183 189 79 98 104 134 68 129 122 104 93 82 177 36 77 72 159 132 108 88 123 86 112 83 122 90 139 43 138 128 44 83 135 135 111 115 169 58 124 72 161 84 89 131 78 202 77 108 100 68 119 76 186 96 152 212 155 81 165 108 93 165 112 154 127 105 122 176 77 129 50 137 79 159 87 54 48 136 88 134 33 54 76 92 110 178 74 77 144 131 95 146 109 144 116 81 94 137 48 61 60 164 115 137 112 92 98 134 50 141 97 119 62 52 191 74 121 173 110 118 169 55 140 86 60 98 71 79 131 110 128 97 153 121 89 79 128 117 89 144 102 89 44 146 87 95 82 106 97 129 113 181 152 114 53 97 176 170 213 62 77 120 77 83 128 175 110 136 112 183 135 81 199 131 43 51 129 72 149 129 12 88 63 62 121 207 42 66 68 128 62 165 114 117 89 122 106 150 101 118 194 83 98 64 93 85 101 100 94 82 138 134 79 127 91 168 154 83 58 133 11 123 110 79 100 125 52 54 125 86 53 144 80 104 53 100 73 112 162 61 117 105 52 142 123 164 95 121 70 87 154 88 75 140 113 91 123 106 129 44 142 43 97 86 168 195 197 121 62 140 29 85 115 55 126 96 56 52 117 117 54 159 70 170 83 138 82 60 105 154 93 141 61 120 103 116 107 127 110 80 86 133 88 88 95 101 138 81 97 130 117 136 89 219 106 85 149 100 134 91 137 116 74 13 137 85 122 40 65 157 157 52 50 166 53 60 79 74 176 128 107 138 74 90 137 107 107 117 130 70 65 77 72 127 131 149 49 114 211 67 106 81 47 101 95 88 122 149 193 77 145 219 110 137 63 121 170 152 59 134 91 78 108 147 64 165 214 140 81 47 139 98 151 62 122 92 131 152 108 86 144 165 84 124 151 68 125 86 97 80 174 156 163 161 102 86 111 120 68 67 52 82 112 160 61 114 254 106 91 137 119 89 131 83 78 118 105 125 135 134 129 41 143 95 152 57 75 103 160 140 93 164 80 81 89 36 80 97 84 155 111 116 123 67 111 152 60 46 58 143 98 112 119 67 130 112 103 107 125 179 58 94 196 141 235 72 121 114 84 106 146 154 58 95 129 106 87 62 116 69 71 175 90 112 106 82 146 98 129 152 130 113 96 158 69 138 47 125 141 0 76 34 67 69 123 160 128 92 135 70 134 56 98 71 110 90 150 45 155 29 161 144 74 167 97 87 49 49 142 74 82 120 127 121 143 87 132 170 130 85 112 112 110 87 39 80 90 133 113 87 124 120 124 122 57 190 169 159 104 114 146 180 115 97 103 98 80 81 58 104 97 109 101 72 113 180 62 64 122 106 146 78 67 158 126 115 79 105 103 93 100 157 126 108 78 173 110 174 89 142 151 80 96 118 55 62 117 155 144 182 214 109 110 101 112 83 147 104 76 80 148 120 46 114 179 68 87 46 87 93 156 85 120 100 142 77 81 170 97 141 128 191 61 40 111 87 85 82 62 151 75 99 55 82 171 51 178 120 133 143 68 48 127 120 87 129 137 98 76 88 205 136 146 84 194 93 59 22 218 83 141 27 154 116 121 87 109 127 61 79 95 78 72 55 79 130 100 119 67 51 83 98 64 78 93 65 144 138 119 72 78 57 191 92 73 121 121 96 75 92 103 115 109 187 126 164 117 117 86 53 163 135 161 142 199 84 111 65 70 147 84 106 118 179 145 219 130 103 93 73 86 96 157 107 162 131 71 112 84 132 85 145 82 71 111 97 133 176 190 101 146 114 85 50 78 133 115 116 66 112 136 143 76 80 122 155 105 121 70 106 148 110 109 162 170 40 141 93 140 79 87 117 63 138 155 128 114 121 108 77 109 82 144 77 74 96 71 135 126 43 106 101 155 116 103 160 194 106 104 92 113 129 102 103 87 103 155 105 81 82 196 102 102 28 35 91 81 131 70 86 122 50 146 98 140 96 59 127 37 138 18 87 142 70 136 66 128 75 110 31 85 46 35 54 103 96 125 162 110 50 140 51 128 66 49 78 183 47 66 107 62 135 136 38 207 130 89 108 178 86 142 108 113 150 110 33 206 101 149 93 108 87 143 101 160 154 111 134 83 90 116 35 122 62 135 49 109 221 72 109 76 127 82 97 143 122 60 120 100 131 64 84 137 144 111 99 70 79 93 79 150 130 76 85 108 128 142 149 222 169 122 48 120 76 112 160 110 57 88 107 58 78 125 205 110 170 98 68 128 111 179 103 88 164 140 109 79 73 110 111 53 104 88 129 139 93 128 39 90 102 121 113 80 71 150 45 129 125 113 109 79 131 109 126 115 92 149 73 121 138 118 126 82 90 180 95 31 65 88 111 146 134 70 130 88 157 124 50 76 41 85 81 83 138 95 72 104 99 125 92 127 82 109 95 136 138 64 66 119 159 126 156 87 130 118 86 116 75 283 108 51 153 95 226 178 82 64 131 102 100 73 100 126 180 127 106 54 57 175 83 116 131 54 77 158 116 135 100 160 223 109 49 85 103 130 102 148 134 127 68 163 128 52 110 100 148 46 88 66 165 62 126 109 81 118 57 111 105 84 102 102 75 66 118 121 137 135 125 116 84 69 133 98 87 91 104 101 110 61 48 141 145 196 114 131 99 110 147 97 181 102 77 80 106 136 123 85 151 41 100 101 124 73 132 90 123 129 118 113 131 118 94 108 108 136 153 141 136 135 54 63 56 98 156 84 97 115 78 48 63 134 153 24 87 149 135 59 119 173 134 60 109 135 96 124 137 184 130 102 126 52 74 109 67 93 57 108 55 73 143 121 139 49 105 109 125 157 68 125 172 67 88 72 103 138 159 64 109 106 68 81 129 126 141 67 191 151 168 95 58 135 23 120 86 149 78 159 139 93 90 75 137 105 248 97 90 187 83 88 84 173 129 135 107 89 106 69 80 108 126 158 102 118 128 159 134 156 34 97 181 137 92 126 43 54 62 168 143 136 118 98 177 73 74 40 73 44 109 100 114 170 98 214 197 46 97 177 68 115 126 131 103 50 118 50 162 145 86 90 57 76 67 99 155 98 92 159 54 147 77 186 135 122 108 99 89 61 55 157 68 71 142 92 178 59 215 68 120 104 110 63 70 130 137 116 139 36 97 75 100 166 147 63 87 132 60 100 77 89 133 81 110 37 41 66 206 170 142 126 85 86 76 139 88 59 146 103 129 156 189 35 79 63 94 49 104 75 84 91 108 128 103 95 71 212 21 127 145 157 150 129 131 112 116 95 125 92 147 168 159 62 99 133 85 60 149 83 77 108 111 59 109 161 105 128 48 87 148 90 106 103 177 107 103 151 72 89 115 123 78 98 103 50 52 110 125 184 99 157 170 58 5 92 139 117 104 136 98 105 68 113 87 112 139 112 129 109 122 96 102 182 93 92 147 149 72 100 108 112 57 46 127 185 171 57 44 67 173 73 187 96 114 164 82 101 114 102 104 128 58 68 116 105 141 97 97 99 94 112 98 41 180 141 33 125 20 101 92 29 138 129 95 84 119 141 115 110 165 77 92 104 139 148 195 120 129 96 44 145 130 130 55 90 59 113 106 136 150 113 105 69 87 107 64 41 63 71 139 129 135 127 99 142 122 147 118 90 80 82 96 85 30 157 84 153 166 81 148 159 174 155 160 80 110 89 28 107 148 53 82 92 130 77 149 172 112 102 155 132 135 87 120 116 95 140 185 122 96 114 115 67 135 105 105 135 105 73 100 133 110 65 77 32 116 156 65 135 84 190 89 148 164 189 134 112 112 113 139 181 93 115 46 108 115 84 86 62 63 85 107 70 130 119 95 71 140 75 77 77 154 106 136 101 99 101 204 157 82 122 94 125 78 44 111 109 150 72 119 112 60 129 155 104 113 91 49 112 125 174 139 134 64 98 46 133 72 126 42 97 109 52 118 86 136 147 204 179 87 110 144 144 90 157 92 163 89 120 117 74 102 48 181 110 150 70 99 157 72 91 103 66 151 92 101 135 81 137 61 66 171 154 108 95 126 74 133 111 94 86 169 66 104 130 132 124 61 121 102 114 160 73 109 72 95 110 92 101 142 141 91 119 182 169 141 141 28 112 22 113 19 110 107 74 69 220 100 137 135 80 212 142 164 134 110 45 146 142 72 177 115 136 69 89 174 138 116 131 91 116 139 126 57 86 101 56 69 160 146 98 64 89 88 132 84 40 64 89 144 44 92 63 70 100 135 104 65 127 77 78 116 12 73 151 74 122 48 77 102 91 143 97 163 160 178 102 186 111 207 90 99 97 150 99 149 173 121 140 81 172 83 42 112 138 119 173 69 87 162 97 80 176 119 129 83 142 82 167 70 198 129 134 136 188 38 73 138 82 114 77 114 101 92 38 94 96 106 133 174 69 112 48 174 72 71 122 27 128 62 107 57 147 84 96 112 128 103 85 89 168 103 112 162 153 137 76 98 64 146 114 112 85 80 77 145 70 121 187 151 91 50 42 80 82 100 91 150 80 69 150 93 163 84 77 127 106 81 64 127 159 127 107 157 157 67 89 50 52 117 144 113 28 166 117 144 81 205 165 122 120 127 71 86 40 141 79 150 65 87 105 107 134 100 93 103 101 171 119 36 112 147 138 107 126 95 198 16 98 95 83 27 142 116 102 52 65 128 84 75 60 116 84 72 143 103 154 116 83 172 100 132 72 76 83 95 195 92 160 118 101 91 109 92 103 53 170 173 82 154 152 80 145 85 188 72 114 97 178 84 56 108 93 62 124 32 87 101 117 74 119 108 122 60 113 105 116 125 135 126 34 128 91 163 143 28 182 109 95 141 83 42 104 93 107 59 71 190 70 92 126 98 74 84 110 172 87 110 146 106 111 135 134 113 132 87 93 99 127 159 133 143 77 112 96 46 117 46 155 1 113 85 112 138 117 107 101 97 148 118 219 124 116 42 100 40 114 102 143 50 67 91 96 129 62 76 70 57 63 44 89 217 74 42 129 109 139 116 100 119 88 79 69 97 123 138 133 77 79 116 123 85 84 68 66 27 94 116 106 134 129 117 126 107 159 84 56 81 62 116 115 116 147 115 50 132 123 91 147 82 56 79 111 139 121 54 56 76 185 147 151 82 109 70 125 101 102 149 126 95 102 31 163 115 68 34 78 192 90 63 10 74 118 122 210 101 153 105 120 120 99 97 49 84 94 100 116 123 119 61 96 107 74 138 142 110 119 109 82 119 100 114 130 50 59 126 105 79 85 62 148 56 12 154 64 170 53 99 92 135 69 75 93 54 186 79 150 87 77 53 120 156 81 105 72 147 143 145 70 138 167 111 89 176 146 156 114 152 82 120 130 108 39 145 184 87 98 85 84 55 52 90 82 115 37 64 145 83 122 61 122 108 177 88 57 35 146 112 85 129 67 124 124 104 77 73 102 107 94 64 155 109 139 126 93 106 130 124 128 67 148 119 116 102 64 67 106 110 127 132 101 108 120 149 86 128 72 69 84 106 136 165 99 117 87 211 175 123 120 117</t>
+  </si>
+  <si>
+    <t>GAM(0.5884141735071917, -9.911530361321368e-29, 0.5909226331987503)</t>
+  </si>
+  <si>
+    <t>0 2 2 1 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 2 1 2 0 0 2 0 1 0 1 1 0 0 1 0 1 2 0 2 1 0 0 0 3 0 1 1 1 0 2 3 0 0 1 1 2 0 3 0 1 1 1 0 0 1 3 2 0 0 1 0 3 1 0 1 1 0 0 2 0 1 0 0 4 2 1 2 0 1 0 4 0 0 0 0 0 0 2 1 0 1 1 0 0 1 1 0 2 1 1 0 0 1 0 1 2 1 1 1 2 0 0 1 0 4 1 0 2 1 0 0 0 0 2 2 0 0 2 1 2 0 0 1 0 1 1 1 0 1 2 1 0 1 2 1 0 0 2 0 0 1 1 2 1 3 0 0 0 1 0 0 1 1 1 0 0 2 0 0 0 3 1 0 1 0 0 1 2 1 1 0 2 1 1 1 1 0 0 0 0 2 1 1 0 0 0 2 0 1 0 0 1 2 0 0 0 1 1 2 0 2 0 0 1 2 0 1 1 3 1 1 0 1 1 0 0 1 0 1 0 2 0 2 3 0 0 1 0 0 2 0 0 2 1 0 1 1 1 2 3 1 0 0 3 0 2 0 1 2 0 1 1 1 1 0 1 1 2 0 2 0 2 0 1 2 1 0 0 0 0 1 1 1 1 0 1 1 1 2 1 0 1 1 3 0 2 0 0 1 2 1 3 0 1 0 1 2 1 1 1 1 2 1 0 0 2 0 1 1 0 2 1 0 0 0 3 2 0 1 1 1 1 2 2 1 1 0 0 1 1 1 1 1 2 1 1 0 0 1 1 2 0 1 0 2 0 1 1 0 0 1 0 1 0 2 1 1 1 0 1 1 1 1 1 4 0 1 0 0 0 0 2 2 1 1 1 0 1 3 1 1 0 0 0 0 0 1 1 2 0 0 0 2 2 1 3 2 1 2 1 1 0 0 0 0 1 1 0 0 0 2 2 0 1 2 0 5 0 1 0 0 0 2 0 3 1 0 1 1 0 1 3 1 2 2 1 1 4 1 0 2 4 0 2 1 2 1 0 0 1 0 0 1 0 1 0 2 0 1 0 1 0 1 0 1 0 1 1 0 0 0 2 1 0 2 1 0 1 1 2 0 1 2 1 1 1 2 0 1 0 2 0 1 0 0 0 1 1 0 2 1 0 0 1 1 0 1 0 1 2 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 2 1 0 0 1 0 2 0 0 1 1 1 0 0 1 0 1 0 0 0 2 0 0 1 2 2 1 1 1 1 0 0 0 1 0 2 0 0 1 1 2 1 0 1 0 1 0 1 1 0 0 1 0 1 2 0 2 2 2 1 1 0 0 0 2 0 1 0 1 2 1 0 1 2 1 1 1 0 0 1 4 0 1 2 1 1 0 1 1 0 2 1 0 0 1 0 1 0 2 1 0 1 1 0 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 2 0 0 0 0 3 0 1 0 1 1 0 1 0 0 0 3 0 1 0 0 0 1 1 0 0 1 1 1 0 1 2 0 0 0 0 1 0 1 0 0 0 2 1 0 1 1 0 0 1 2 0 0 1 1 1 0 0 3 0 0 1 0 0 0 0 1 0 0 0 1 1 4 0 1 1 2 2 0 2 1 1 0 0 1 0 0 1 0 1 0 0 0 0 1 1 1 0 2 1 1 0 1 0 0 2 1 0 0 0 0 0 0 0 1 2 3 2 0 1 1 3 1 1 0 0 2 1 0 0 2 0 0 1 0 0 0 1 1 1 0 2 2 0 0 0 2 0 3 0 1 0 2 1 2 3 0 1 0 1 0 0 0 1 2 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 2 3 1 1 0 3 1 1 4 1 0 0 2 0 2 0 0 0 2 2 3 0 0 1 1 2 3 0 0 1 0 1 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 1 0 0 2 0 0 1 1 0 2 1 0 2 0 1 0 2 0 2 0 1 1 0 0 0 0 0 2 0 3 0 1 0 0 0 1 0 1 0 0 1 1 0 2 0 1 2 1 0 1 1 0 2 0 2 0 1 1 0 0 0 2 0 0 2 0 0 1 0 0 0 0 2 2 0 0 0 1 0 1 0 0 0 0 1 0 1 2 1 1 1 0 0 1 0 1 0 1 0 2 0 1 3 1 2 0 0 0 0 1 2 2 0 1 2 0 2 3 2 0 0 0 0 5 1 1 0 0 3 2 1 0 0 1 1 1 0 1 1 1 0 1 0 3 0 1 0 1 0 2 0 0 2 0 2 1 1 1 1 0 2 1 0 0 2 1 1 0 1 0 1 0 2 1 2 1 1 2 1 2 1 0 1 1 0 2 2 0 1 3 1 0 1 1 2 0 0 1 2 1 1 1 1 1 1 0 2 1 0 1 1 2 1 2 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 2 2 1 1 2 0 1 2 0 1 0 1 1 1 2 1 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 1 1 0 0 1 1 0 1 0 1 1 1 2 0 0 1 1 0 0 2 2 2 0 0 1 0 0 0 0 0 0 1 0 2 1 3 1 0 0 1 1 0 1 0 1 1 0 0 2 2 0 1 0 0 1 1 1 1 0 1 1 1 0 0 1 0 0 2 0 1 1 3 0 1 1 3 0 1 1 2 1 0 0 0 1 1 0 1 0 0 2 1 2 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 0 0 0 1 1 0 3 1 0 1 1 1 0 0 0 1 0 3 0 1 0 0 1 0 2 1 0 1 2 0 0 2 0 0 0 0 3 0 0 0 1 1 1 1 2 2 1 2 0 2 0 0 1 0 1 3 1 0 0 1 1 0 0 1 0 1 0 2 1 0 2 0 2 0 1 1 1 0 1 0 0 2 0 0 0 3 0 0 1 1 1 0 2 1 0 2 0 1 1 1 1 0 2 2 3 2 0 1 0 1 0 0 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1 2 0 1 3 1 0 0 1 1 3 1 1 2 0 1 2 3 1 1 1 0 1 3 1 1 0 0 0 1 2 1 2 1 0 0 0 0 0 3 0 0 0 2 0 1 1 0 1 0 0 0 0 1 1 1 1 1 1 1 1 0 0 0 1 2 0 2 2 2 0 0 1 2 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 2 1 2 0 1 1 0 0 1 2 0 0 0 1 0 0 0 0 2 2 2 2 0 2 1 2 1 0 3 1 1 0 1 1 0 0 1 0 0 1 1 2 1 0 2 1 1 2 2 0 0 0 3 2 2 2 1 0 2 0 0 1 0 1 0 1 0 0 4 1 0 0 0 1 1 3 1 1 0 1 2 1 3 1 1 1 0 0 1 1 2 0 0 1 0 2 0 2 3 1 2 0 2 1 0 1 0 1 1 1 1 0 0 1 1 2 0 1 1 1 0 2 1 1 2 1 0 1 0 1 0 0 1 0 1 1 0 0 2 0 3 1 0 1 1 1 0 1 0 2 0 0 0 1 2 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 2 0 0 0 1 2 3 3 1 2 0 1 0 0 1 2 1 1 0 0 0 2 1 0 2 0 3 0 0 1 0 2 0 1 0 1 1 0 0 0 0 1 1 1 0 1 2 1 1 0 0 1 0 1 1 2 1 1 0 1 0 1 0 2 2 1 0 1 1 0 1 0 1 2 2 0 0 3 0 1 0 0 0 2 1 0 1 2 2 0 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 0 2 1 0 0 0 1 1 1 2 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 0 1 1 4 2 0 1 0 3 0 0 0 0 0 0 0 1 0 0 2 1 2 0 1 1 1 0 0 3 1 1 0 1 2 2 2 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 2 0 0 1 2 1 1 1 0 1 0 1 1 0 0 1 0 0 2 1 0 0 0 1 0 1 1 1 0 1 1 3 1 0 1 0 1 1 0 0 1 1 2 0 1 0 1 1 1 2 1 0 1 0 1 1 2 1 0 0 0 2 0 2 1 1 1 0 0 0 1 0 2 0 0 0 1 0 0 0 1 1 2 0 2 0 2 1 1 0 1 3 0 1 1 2 0 2 1 0 0 1 2 0 1 1 1 1 1 2 0 1 0 1 2 1 0 0 0 0 0 0 2 0 2 1 0 1 0 0 0 0 0 0 0 2 0 2 0 0 1 2 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 2 2 0 0 0 1 0 0 1 2 0 1 0 1 2 2 1 0 0 0 0 0 1 0 0 1 0 1 2 1 0 2 0 2 1 2 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 2 0 3 1 1 1 1 0 0 0 1 0 1 0 3 1 1 0 2 0 1 0 0 0 0 0 1 3 1 1 2 1 0 1 1 1 0 1 0 1 0 1 0 0 0 0 1 1 2 2 1 0 2 0 1 3 1 0 0 3 1 1 2 0 0 1 0 1 0 0 2 0 0 0 1 0 1 0 2 0 1 0 0 2 1 1 2 0 0 2 0 2 1 1 0 0 1 0 0 2 0 1 1 2 0 1 1 1 0 0 0 1 0 2 2 0 0 0 1 2 1 1 0 2 1 0 0 0 2 2 0 1 0 1 1 1 1 3 0 0 0 2 2 2 0 3 1 0 0 1 0 1 1 1 1 0 0 0 2 0 1 0 0 0 0 0 0 2 0 1 0 1 0 1 0 2 0 1 0 1 1 1 0 0 1 4 0 2 0 1 2 1 0 0 0 1 0 1 2 2 2 1 1 0 0 0 2 1 1 2 1 0 1 1 1 0 0 1 0 2 0 1 0 0 0 1 1 0 1 2 3 0 2 0 1 0 0 1 0 1 1 1 1 2 0 1 0 0 2 2 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 2 2 1 2 0 0 1 1 1 1 0 2 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 2 1 1 0 2 0 0 2 0 0 0 1 2 0 0 0 1 0 3 1 0 1 1 1 3 0 1 1 1 2 1 1 1 0 2 2 1 0 1 0 3 0 1 0 1 0 2 0 0 0 0 1 1 0 0 0 3 1 0 0 1 1 0 0 0 0 0 1 1 0 1 2 1 1 0 1 0 0 1 4 0 0 0 0 1 0 0 1 1 0 0 0 0 2 0 1 0 0 0 0 2 0 1 1 2 0 1 2 1 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 1 2 0 2 0 0 2 1 1 1 1 0 0 1 0 1 0 0 1 1 0 2 0 1 2 1 2 2 0 1 0 0 1 0 1 0 0 1 1 2 1 0 1 0 1 0 1 2 1 1 0 0 0 0 0 2 1 0 1 0 0 0 0 1 4 1 1 1 0 0 0 1 1 1 0 0 3 0 0 3 0 1 0 2 0 2 0 0 0 0 0 2 1 0 0 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 3 0 1 1 2 0 1 1 1 0 2 0 1 0 0 0 0 2 1 0 1 2 1 1 1 1 1 1 1 0 0 1 0 2 1 1 0 3 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 1 0 1 0 2 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 1 1 0 0 1 2 1 0 0 0 3 2 1 1 1 0 2 2 0 1 1 1 0 1 0 0 0 0 0 0 1 1 1 0 1 2 1 2 0 1 1 1 0 2 0 0 1 2 1 0 1 0 1 1 2 0 1 3 2 0 1 0 0 1 0 0 1 1 1 0 1 2 0 0 1 0 2 0 0 1 0 0 1 1 0 0 1 1 1 1 1 0 2 1 1 2 2 0 0 0 2 1 1 1 2 0 0 0 0 1 0 0 2 1 2 1 1 0 1 2 1 2 0 1 2 0 2 0 1 1 0 0 3 0 0 0 1 0 0 0 3 0 0 1 1 0 0 1 1 1 0 0 1 1 1 0 0 2 2 3 1 2 2 0 1 1 3 1 0 3 1 1 0 1 1 1 1 0 1 1 0 2 1 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 1 2 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 1 3 1 2 0 2 0 0 1 1 2 1 0 0 0 1 0 1 1 0 1 1 0 2 0 2 2 0 1 0 3 1 1 2 0 0 0 2 1 2 0 1 0 0 0 0 0 1 1 0 0 1 3 2 1 1 2 0 3 1 1 0 0 0 1 3 2 0 0 1 2 1 2 2 0 0 1 1 0 0 1 1 0 1 1 1 1 1 0 1 1 0 1 0 0 3 0 0 0 2 1 2 0 0 0 0 2 1 1 0 1 0 0 2 0 0 1 0 0 2 0 1 2 0 0 0 1 0 1 1 0 0 2 2 1 0 2 0 0 1 2 2 1 0 2 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 3 0 0 2 0 0 1 1 0 0 2 0 0 0 0 1 1 0 0 0 1 0 1 0 2 0 1 0 0 0 1 2 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 2 0 0 1 1 1 0 1 2 0 0 1 0 1 3 1 1 0 1 1 0 0 1 0 0 0 1 1 0 1 0 0 2 1 0 0 0 1 1 2 1 1 3 2 2 0 1 1 1 1 0 1 0 2 1 0 0 1 1 0 0 0 2 1 0 0 1 0 1 1 0 1 0 1 1 2 0 0 2 0 0 0 3 1 1 0 1 2 1 0 2 0 1 1 1 1 0 1 2 0 1 1 0 2 0 1 2 0 1 0 0 1 1 1 2 0 0 0 1 0 0 0 1 1 1 0 2 1 0 1 1 2 0 2 2 1 0 2 2 1 2 0 0 0 1 0 0 1 0 1 0 0 1 2 0 0 0 0 1 1 1 1 1 1 1 0 1 0 0 2 1 0 3 0 1 0 1 0 0 1 1 0 0 1 0 1 1 0 0 1 0 0 2 2 0 2 1 0 1 1 1 1 1 3 1 1 0 2 1 2 1 0 0 0 1 0 3 2 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 1 1 0 2 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 3 1 0 1 3 2 1 0 1 1 0 1 2 1 1 0 0 1 2 1 0 0 0 2 1 1 1 0 1 2 0 0 0 0 0 2 1 0 1 0 0 2 2 3 0 4 1 0 2 0 0 0 1 0 2 0 0 1 1 0 2 0 0 0 0 1 1 0 1 0 2 2 0 0 0 0 1 0 0 3 1 1 2 0 0 2 2 0 1 1 1 1 1 1 0 1 0 1 0 0 2 1 0 0 1 1 0 1 0 0 0 0 2 0 4 0 0 1 0 0 2 0 0 1 0 2 3 2 0 2 0 2 1 1 1 0 1 1 0 1 2 1 1 1 0 2 2 1 1 2 0 0 1 0 0 0 0 0 0 1 0 0 2 1 0 1 1 1 0 0 0 2 0 1 0 1 0 1 1 0 0 1 2 2 1 0 0 1 1 0 2 0 2 0 2 1 1 0 0 1 0 1 2 0 2 0 0 1 0 0 1 1 2 0 1 1 1 3 1 0 1 1 1 0 1 0 1 0 0 2 1 0 0 0 1 0 0 2 0 0 1 2 0 1 0 1 0 1 2 1 0 1 2 1 1 0 1 1 0 0 1 1 2 2 0 0 0 1 1 1 1 1 2 0 1 0 1 2 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 2 1 1 1 0 0 0 0 1 1 1 1 0 1 0 2 1 1 2 0 1 2 0 1 1 4 1 0 0 1 1 0 0 0 0 1 1 0 1 1 2 3 1 3 0 0 0 0 0 3 0 2 1 0 2 4 3 2 0 1 1 0 1 0 0 0 0 0 0 4 0 1 0 1 1 0 1 1 2 1 0 2 0 1 2 2 3 0 1 1 0 1 0 0 1 1 1 1 1 0 2 0 1 0 0 0 0 1 1 2 1 1 0 1 2 2 1 1 1 0 0 0 0 1 2 1 2 2 0 0 1 2 0 4 2 0 0 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 1 2 0 0 1 0 0 2 1 1 0 0 1 3 2 1 1 1 2 1 1 0 1 2 2 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 2 1 0 0 1 0 2 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 2 0 1 1 1 0 0 0 1 1 1 0 2 1 0 0 0 0 0 3 0 0 1 1 1 0 1 0 0 1 0 1 1 0 1 1 0 2 0 0 0 1 1 0 1 0 0 0 1 0 2 1 0 0 2 2 2 3 2 1 0 2 1 1 0 2 0 1 1 2 0 0 1 1 1 0 1 0 0 1 1 0 0 3 1 0 0 0 1 1 2 1 1 1 0 0 2 0 2 0 0 0 2 0 1 1 0 0 1 0 0 0 1 0 3 1 1 1 0 1 1 0 1 0 0 0 0 1 3 0 0 3 0 0 2 0 4 2 0 1 1 0 1 0 1 0 2 0 0 0 1 3 1 1 0 0 1 0 1 0 1 2 0 0 1 0 1 0 0 0 1 1 1 2 2 1 1 0 0 1 2 1 1 1 0 1 0 0 0 2 2 0 3 1 0 1 1 2 0 0 0 1 2 0 2 1 1 0 0 2 3 2 2 1 1 1 1 3 2 0 1 1 1 1 0 0 0 2 1 1 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 2 1 0 3 0 0 0 2 0 0 1 3 0 1 0 0 1 1 0 1 0 2 1 0 2 0 1 1 2 1 3 1 1 0 0 1 0 0 2 1 0 0 0 1 0 0 0 2 1 0 2 1 0 0 1 0 0 1 1 0 0 1 2 0 1 1 0 0 1 2 0 3 1 2 0 0 2 2 2 1 1 1 2 1 1 0 1 0 0 0 0 0 0 0 0 1 0 2 2 0 0 1 1 0 1 2 0 1 1 1 0 0 0 3 0 1 0 3 3 0 1 2 3 0 0 1 1 1 1 0 3 0 0 0 1 1 1 1 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 1 0 1 2 0 4 3 2 1 1 4 1 0 0 0 0 2 2 1 2 3 0 2 0 1 0 1 1 2 0 0 2 1 1 0 1 0 0 1 0 0 0 2 0 1 1 0 2 1 0 1 0 1 2 1 1 1 0 1 0 0 0 1 0 1 0 0 1 2 1 1 0 2 2 1 0 1 0 1 0 1 0 0 2 0 3 1 1 0 1 1 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 1 0 2 0 3 0 0 1 1 0 1 1 1 1 1 3 3 0 0 0 0 0 1 0 0 1 1 1 0 0 1 2 1 1 0 1 2 3 1 1 2 1 1 1 0 1 1 0 2 1 0 1 0 1 0 0 0 1 1 2 0 0 1 1 2 1 1 2 1 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 2 2 1 1 1 0 3 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 1 0 1 0 3 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 1 1 1 0 1 0 0 1 1 0 0 1 0 3 0 3 2 1 2 3 0 2 2 1 0 2 0 0 1 0 0 1 0 1 1 1 1 0 0 0 2 1 0 1 0 2 0 1 2 1 1 1 1 0 0 0 0 2 2 0 0 2 1 1 1 0 1 0 0 1 0 1 0 0 1 2 0 0 2 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 1 1 3 2 0 0 0 0 0 1 1 2 0 1 0 0 1 1 0 2 1 0 1 2 1 1 1 0 0 0 2 1 2 0 2 3 2 1 0 0 0 1 1 0 1 0 0 0 0 1 0 2 0 0 1 0 1 0 0 0 3 0 0 2 0 3 1 2 0 0 1 3 0 0 0 2 1 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 3 0 1 1 2 1 0 1 2 0 0 2 0 0 1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 2 0 0 0 1 1 1 0 1 1 0 2 0 1 2 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 2 0 2 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 2 0 1 1 1 0 1 1 2 0 0 3 3 1 0 0 0 1 0 0 1 0 2 2 1 0 2 0 1 1 1 2 1 2 1 1 1 1 2 0 1 2 2 0 0 0 1 2 0 0 3 1 1 2 1 2 0 0 0 1 1 2 2 1 2 1 1 0 1 0 1 0 1 1 2 0 0 1 0 0 0 0 0 1 1 2 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 2 0 1 2 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 0 0 1 0 0 2 2 1 0 1 0 0 1 2 0 1 0 0 2 2 0 0 0 2 0 1 0 0 1 3 1 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 2 2 2 0 0 2 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 2 1 1 0 0 2 1 0 1 0 0 1 2 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 1 1 0 1 2 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 3 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 1 1 1 0 1 0 1 0 0 1 0 0 0 1 0 2 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 0 1 2 0 1 2 0 0 0 1 1 2 0 0 1 0 0 1 0 1 1 0 1 2 1 0 0 1 0 0 1 0 2 0 0 0 1 1 1 0 1 1 2 0 1 0 0 1 0 1 1 0 2 1 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 2 0 1 0 1 2 0 0 1 1 0 1 0 0 1 0 0 1 0 1 2 0 0 0 2 0 3 1 1 1 0 0 0 2 0 2 1 2 1 2 0 3 0 0 1 2 2 0 0 3 0 1 1 1 1 0 0 2 0 1 1 2 1 1 1 1 0 0 3 0 0 0 2 0 0 0 1 0 1 0 1 0 0 2 1 0 3 0 0 1 1 3 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 2 1 0 0 1 1 1 1 0 1 0 2 1 1 2 2 0 0 0 0 3 0 1 1 0 0 0 0 1 0 0 0 1 2 0 0 1 1 1 0 3 0 2 1 1 2 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 2 0 0 0 1 1 2 0 0 0 0 0 0 3 1 1 1 1 3 1 0 0 2 0 0 0 1 0 1 0 0 1 1 1 1 1 0 1 0 1 1 0 2 1 2 1 1 0 4 1 0 1 2 0 2 1 0 2 1 3 0 3 3 2 1 3 1 2 2 0 1 0 0 2 0 2 3 1 3 1 2 3 0 0 0 0 2 0 0 3 0 0 0 2 1 0 1 0 1 1 2 0 1 1 1 2 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 2 0 0 1 1 0 2 1 2 1 2 1 2 1 1 1 1 1 0 1 1 0 2 0 1 1 1 1 1 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 1 0 2 0 1 2 0 0 1 1 0 2 1 3 2 2 1 0 1 1 1 2 0 1 2 2 0 4 0 3 1 2 0 2 1 0 0 0 1 0 1 0 1 4 2 0 0 1 0 1 0 0 3 2 2 0 0 0 0 0 1 4 2 3 1 0 2 1 0 1 2 0 0 2 1 1 1 0 1 0 2 0 0 1 1 0 1 1 1 1 0 1 2 0 1 0 1 0 0 2 2 2 0 0 0 0 1 3 1 1 1 4 0 0 0 0 2 0 0 1 0 1 1 0 1 0 1 1 1 2 0 1 1 1 0 0 1 0 1 0 0 0 0 2 0 0 1 2 3 1 1 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 2 2 2 0 0 0 0 2 1 1 0 0 2 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 2 0 1 2 0 1 2 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 2 1 0 2 1 3 1 1 0 0 0 1 0 2 2 2 0 1 3 1 1 0 0 0 0 0 2 1 0 0 0 0 1 0 4 0 1 1 0 0 5 1 1 2 0 0 1 2 2 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 1 1 1 0 1 0 0 1 1 0 0 0 0 0 1 1 3 0 1 0 1 1 0 1 1 0 0 0 2 0 0 2 3 1 0 2 1 3 1 0 1 1 1 1 1 1 1 2 0 1 0 0 2 1 2 0 0 0 2 0 0 1 0 2 3 3 0 0 1 1 1 0 1 1 0 1 0 0 2 1 0 0 1 2 0 0 2 1 2 0 2 2 1 2 2 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 2 0 2 1 1 0 0 1 4 2 0 0 0 0 1 0 0 1 1 1 2 2 0 2 0 3 0 0 1 0 3 0 0 0 1 0 0 1 0 1 1 1 2 1 0 0 0 3 1 1 0 3 0 2 1 1 2 0 0 1 1 2 3 0 0 2 0 2 0 1 2 0 3 0 0 0 2 1 1 1 0 2 0 0 1 0 0 1 0 0 2 1 2 1 0 1 0 0 0 1 0 2 0 0 0 0 2 0 0 1 1 0 1 0 1 0 0 0 1 2 0 0 2 0 2 0 0 1 0 0 1 1 1 1 0 1 0 0 0 2 3 1 1 0 0 0 3 0 1 2 0 1 0 0 0 1 2 1 2 0 2 0 0 2 1 1 1 3 0 1 1 2 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 2 0 1 0 0 1 0 0 2 1 3 0 0 1 2 1 0 0 0 1 0 0 1 0 0 0 2 1 1 0 0 0 0 0 1 2 0 0 1 1 4 0 0 0 2 2 0 1 0 0 2 1 2 0 3 0 0 1 0 0 0 1 1 0 0 0 2 0 2 1 1 0 1 0 1 1 1 1 0 1 0 1 1 0 1 1 1 2 0 0 0 0 2 2 1 0 0 1 0 0 3 1 0 0 2 0 0 2 2 1 2 0 0 1 1 2 2 1 0 1 0 2 0 0 0 2 1 0 0 0 0 0 0 0 1 1 1 0 1 2 0 2 1 2 2 0 0 2 0 1 0 1 0 2 0 1 0 1 0 1 0 0 1 1 0 2 1 0 0 0 0 0 1 0 4 1 1 1 1 0 2 0 0 2 2 0 1 0 1 0 1 2 0 0 1 0 1 0 0 1 0 1 1 0 3 1 0 0 1 1 1 2 0 4 3 0 0 1 1 1 0 0 2 0 0 0 1 1 2 2 0 0 1 0 0 1 1 0 0 1 0 0 0 2 2 2 0 1 1 0 0 1 0 1 2 0 0 0 2 0 0 0 1 0 1 0 1 0 2 0 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 1 1 1 0 1 0 0 2 0 0 0 1 1 0 0 0 2 1 0 1 1 0 1 2 0 2 1 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 1 2 2 1 0 0 1 1 3 1 1 0 2 0 0 1 1 1 0 1 0 0 2 0 2 0 0 1 3 1 0 0 0 1 2 0 1 0 1 0 0 0 1 1 1 1 0 0 1 2 0 1 1 0 1 1 3 0 0 1 1 1 1 2 1 0 1 1 0 2 1 1 0 1 2 1 0 0 1 0 1 2 1 2 0 2 0 0 1 1 1 1 1 3 0 0 1 1 1 2 0 1 1 1 0 0 1 0 1 1 0 0 1 0 1 1 0 2 1 0 1 2 1 0 1 1 0 0 0 0 1 1 1 1 0 1 2 0 2 0 1 0 0 2 0 0 0 1 1 0 1 1 1 2 2 1 1 1 0 1 0 0 0 1 0 1 1 1 0 0 0 1 2 0 1 0 2 0 1 1 0 0 1 3 0 1 3 2 1 2 1 1 2 0 2 1 1 1 0 0 2 0 1 0 2 0 0 0 2 0 2 0 1 0 0 1 1 0 0 0 3 1 0 0 0 0 1 0 3 0 0 0 1 0 2 1 0 1 0 1 2 2 1 0 0 1 0 1 1 0 1 1 0 2 0 0 0 0 0 0 0 2 0 1 0 3 3 1 2 0 2 1 0 0 2 1 0 0 0 0 0 2 2 1 0 0 0 3 2 2 0 1 0 1 0 3 1 2 0 2 1 1 0 1 0 0 1 1 0 1 0 0 1 0 1 1 3 0 0 0 0 1 1 0 0 0 0 1 3 0 0 2 1 2 0 0 0 0 1 1 0 0 1 2 2 0 2 1 0 1 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 1 1 1 0 1 2 0 1 4 0 0 3 0 0 0 0 0 0 2 2 1 1 1 0 2 0 0 1 1 1 0 1 0 0 0 0 2 0 1 0 1 2 1 1 2 0 1 0 1 1 0 1 1 1 1 1 2 0 0 1 1 0 0 1 0 0 2 1 0 2 0 4 1 2 0 1 2 1 0 2 2 0 1 1 2 2 0 1 1 0 1 1 1 1 0 2 2 0 1 0 1 0 0 1 0 0 0 1 2 2 0 0 0 3 0 0 1 0 1 0 1 1 2 1 1 1 1 0 2 0 0 2 1 1 1 1 0 0 0 0 1 1 2 1 0 1 0 1 0 0 0 2 1 1 0 1 1 0 2 0 2 1 1 0 0 0 1 0 2 0 1 0 1 1 1 0 0 1 0 0 0 2 1 2 0 2 1 1 0 0 0 1 1 1 3 1 0 1 1 0 0 0 1 0 1 0 3 0 0 1 1 0 1 1 1 0 1 2 1 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 1 1 2 0 2 1 2 1 0 3 1 0 0 1 1 2 3 1 0 1 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 2 2 0 1 3 0 1 0 0 0 1 2 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 0 2 0 1 0 3 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 2 1 2 0 0 0 2 0 0 1 1 2 1 1 0 0 0 2 1 2 1 0 1 2 0 0 0 0 2 2 0 2 0 1 0 0 2 1 2 1 2 1 1 1 0 1 0 2 0 0 2 1 0 2 2 2 1 2 2 1 1 1 0 1 0 1 0 0 1 1 1 1 1 1 2 2 1 0 1 0 1 3 1 1 1 2 2 1 0 1 0 1 0 0 1 0 0 1 1 1 0 2 1 1 1 1 0 1 0 0 1 0 0 0 0 1 0 2 1 1 0 0 0 3 0 0 0 2 1 0 0 1 1 0 1 0 2 1 0 0 2 0 0 0 1 0 1 0 0 0 0 1 1 0 2 0 0 3 1 0 1 3 0 0 1 0 1 1 0 2 1 1 0 0 0 3 1 1 0 2 1 1 0 0 1 0 0 1 2 0 3 2 0 0 0 0 1 0 1 0 1 0 1 1 0 1 1 2 0 3 0 1 2 1 1 2 0 0 0 1 1 1 0 2 1 2 2 0 0 1 4 0 0 0 2 0 1 1 2 0 0 1 0 0 0 1 0 0 1 1 1 0 0 2 0 0 0 3 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 2 1 2 1 1 1 0 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 2 0 1 1 0 1 1 0 1 0 0 0 2 2 2 1 0 0 1 0 1 1 0 1 1 1 0 1 0 1 2 0 2 2 1 1 2 0 0 2 0 0 0 2 2 0 3 1 1 0 0 0 1 1 1 2 1 0 1 0 2 1 0 0 1 1 0 0 2 1 2 0 3 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 1 0 0 0 1 0 1 3 1 2 0 1 0 0 2 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 0 2 0 0 2 0 0 0 2 0 0 2 1 1 0 2 1 2 1 0 2 0 2 0 3 0 0 2 0 1 1 2 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 1 2 3 1 0 1 0 2 0 0 0 0 1 1 0 0 0 0 2 0 0 3 1 0 2 0 3 0 0 1 1 0 2 1 0 0 1 1 0 0 0 1 1 2 1 0 1 1 0 1 1 2 1 0 0 1 1 0 0 2 2 3 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 0 1 1 1 1 1 0 2 0 0 1 1 1 0 1 1 1 1 1 1 1 0 0 0 0 2 1 3 0 2 1 1 1 0 1 1 0 1 1 0 1 0 1 0 1 2 1 0 2 0 1 1 1 2 0 1 1 1 1 2 1 1 2 1 2 0 0 0 1 0 1 0 1 0 0 1 2 0 1 0 2 0 0 1 1 0 2 2 1 1 0 3 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 0 2 0 0 0 0 3 1 0 4 0 0 1 0 1 1 0 2 3 2 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 3 1 0 1 2 0 1 1 0 0 0 0 2 3 1 0 1 0 0 2 2 1 1 0 1 1 0 0 1 0 0 0 2 0 0 1 1 1 0 0 0 0 1 1 1 1 0 1 0 0 2 1 0 0 1 1 0 1 0 2 2 2 1 0 0 1 0 2 0 0 0 0 1 1 1 0 0 2 1 0 0 0 1 1 0 0 0 2 0 2 1 1 0 1 0 0 2 0 1 2 0 0 1 1 2 1 0 2 3 2 0 0 1 0 0 2 0 0 0 1 3 0 2 0 0 1 1 2 1 2 1 1 1 2 0 0 0 1 0 1 0 0 0 0 1 2 2 2 3 0 1 1 0 0 2 1 0 1 0 2 0 0 1 2 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 0 0 1 3 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 2 1 1 0 1 1 1 0 0 1 0 1 1 0 0 1 2 1 1 0 1 1 2 1 0 0 0 2 2 1 0 0 0 1 2 2 1 0 1 1 0 0 1 0 0 0 0 1 2 1 2 0 0 1 0 0 0 1 2 0 1 0 2 0 0 1 1 0 0 0 0 2 2 2 0 0 0 3 2 2 1 0 1 1 0 2 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 2 0 1 0 0 1 1 0 2 1 1 0 1 1 0 1 0 2 1 0 0 2 2 1 1 0 1 1 0 0 0 1 0 0 0 0 2 2 0 0 0 0 0 0 1 0 1 0 0 1 0 3 0 0 1 1 1 1 0 1 0 0 0 1 1 0 1 2 0 1 0 1 0 2 0 1 1 2 2 0 0 0 1 0 0 2 1 2 1 0 0 0 0 0 1 0 0 1 1 0 1 2 1 2 1 0 1 1 2 1 0 0 0 2 1 0 1 1 1 0 0 1 0 1 1 0 0 0 1 2 2 2 1 2 0 0 0 1 0 0 0 0 1 0 1 0 1 2 0 1 1 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 1 2 3 0 0 2 0 0 2 1 1 1 1 0 1 1 1 1 0 2 0 0 0 0 0 1 0 1 0 0 3 0 0 1 1 1 0 1 1 0 1 1 0 2 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 1 1 0 2 0 0 1 0 0 0 1 1 1 2 1 0 2 2 0 1 1 0 0 0 1 2 1 0 0 0 1 1 0 2 1 1 2 0 1 2 2 1 1 0 0 1 1 3 0 1 0 0 1 1 0 1 0 0 1 0 1 2 1 0 1 2 1 1 2 1 0 1 0 1 1 2 1 1 0 0 1 1 1 0 3 3 1 1 2 1 1 0 0 0 3 0 4 0 1 2 2 0 0 0 2 1 0 0 1 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 2 1 0 0 1 2 0 0 1 2 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 1 3 1 1 0 2 1 0 1 1 1 0 0 0 0 0 2 0 2 0 0 0 5 1 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 2 1 1 2 0 0 1 1 0 0 1 1 3 0 0 0 1 1 1 1 1 0 1 0 0 1 1 1 0 1 1 1 0 0 0 1 1 1 0 1 0 1 3 0 1 1 2 0 2 0 0 0 1 2 2 1 2 0 0 0 0 1 1 0 1 1 0 0 0 1 2 0 0 0 1 0 2 1 0 0 1 1 1 1 0 1 0 1 1 1 1 0 2 0 1 2 0 2 2 0 1 1 0 2 1 0 3 0 0 0 1 4 3 2 3 1 0 0 1 1 0 0 0 1 0 1 2 1 2 2 0 0 2 0 1 0 0 0 1 3 1 1 3 1 0 0 2 0 1 0 0 0 1 0 0 1 0 1 1 2 1 1 1 0 0 1 0 0 0 0 2 1 1 1 2 1 0 0 0 2 1 0 1 1 0 2 0 0 0 1 1 0 1 0 2 0 2 1 1 1 0 0 0 1 0 3 2 1 0 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 4 1 1 1 1 0 1 0 2 1 1 1 0 0 1 1 0 1 1 2 0 1 0 1 0 1 3 0 1 0 0 1 0 0 1 1 0 2 1 0 1 0 0 1 1 1 3 3 1 0 0 1 3 1 2 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 2 1 0 1 0 1 1 1 0 2 1 0 0 1 1 2 1 0 2 1 0 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 2 0 0 2 0 1 0 1 3 0 0 2 0 0 0 0 0 2 1 0 1 1 3 1 2 1 1 0 0 0 0 3 1 1 0 1 2 1 0 2 0 0 0 1 0 2 0 1 1 4 0 1 0 0 1 0 2 0 0 0 0 0 0 0 2 0 1 0 0 2 0 0 0 0 1 2 1 0 0 1 1 0 0 0 1 0 1 2 1 1 2 0 0 3 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 2 2 0 0 2 0 2 0 0 0 0 1 1 0 0 0 3 3 1 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 0 0 2 0 0 1 2 0 2 2 2 0 1 2 0 1 1 4 0 2 2 1 1 2 1 1 0 1 1 0 1 1 0 1 4 1 1 0 0 1 2 0 1 0 1 0 2 1 0 1 2 1 1 2 1 2 0 0 0 0 0 0 1 0 0 1 1 2 0 1 1 0 0 3 2 2 0 1 1 1 1 0 0 1 0 0 2 0 0 0 0 1 3 1 2 1 2 0 0 0 3 1 1 2 1 1 0 0 1 0 1 2 1 2 1 1 0 2 1 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 2 2 1 0 1 0 0 2 1 2 0 0 2 2 0 1 0 1 3 1 1 1 2 2 0 0 0 0 0 3 1 1 0 2 0 2 1 0 2 1 2 0 1 0 0 1 0 3 0 2 0 0 1 0 1 0 1 2 0 3 0 0 2 0 0 0 0 0 2 2 3 0 0 2 2 0 0 1 2 2 1 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 2 0 1 0 0 0 1 0 0 2 1 2 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 1 1 1 1 2 1 1 0 1 0 0 0 2 0 0 0 2 2 1 1 1 0 2 1 0 0 1 0 1 1 0 1 3 1 2 0 1 2 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 1 2 2 0 1 1 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 2 1 1 2 0 0 1 1 0 0 2 1 1 1 2 0 2 0 1 1 1 1 1 1 0 1 2 0 1 0 0 0 0 2 1 0 0 1 1 0 1 1 0 0 2 0 2 1 1 1 0 0 0 0 0 0 0 1 1 2 0 0 0 1 3 1 0 0 1 0 1 0 1 3 1 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 2 2 1 1 0 3 0 0 1 1 1 1 1 2 0 0 0 2 0 0 1 1 0 0 1 1 2 0 2 0 0 0 0 2 0 0 1 3 1 1 0 0 0 0 2 0 0 2 0 2 2 2 1 0 2 2 0 1 2 0 0 0 0 0 0 0 0 1 2 0 1 0 3 0 2 0 0 0 1 2 0 0 0 1 0 0 1 0 0 0 0 1 0 3 1 1 3 0 0 0 0 0 1 4 1 0 0 1 1 0 2 1 1 1 1 2 0 1 0 2 1 1 1 1 0 1 1 0 1 1 1 0 0 2 3 4 0 1 0 1 4 0 1 1 0 2 1 1 1 0 1 0 0 0 1 0 2 1 0 1 1 2 0 0 0 0 1 0 1 2 1 1 1 2 0 0 0 1 1 0 0 0 3 1 1 0 1 1 1 0 1 1 1 1 1 0 1 2 0 0 0 0 0 1 1 1 1 3 3 1 0 0 0 0 0 0 3 1 0 1 0 0 0 1 1 2 0 0 2 2 1 1 0 0 1 1 1 1 1 2 1 1 1 0 0 1 2 0 2 1 0 0 0 1 0 1 1 0 0 0 0 0 2 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 4 1 1 2 1 0 0 0 0 1 2 1 2 1 0 0 1 2 0 1 0 2 0</t>
   </si>
   <si>
     <t>Name</t>
@@ -216,15 +216,15 @@
     <t>D.Ogunbowale</t>
   </si>
   <si>
+    <t>J.Hollister</t>
+  </si>
+  <si>
+    <t>C.Manhertz</t>
+  </si>
+  <si>
     <t>L.Farrell</t>
   </si>
   <si>
-    <t>J.Hollister</t>
-  </si>
-  <si>
-    <t>C.Manhertz</t>
-  </si>
-  <si>
     <t>T.Johnson</t>
   </si>
   <si>
@@ -261,52 +261,52 @@
     <t>M.Wright</t>
   </si>
   <si>
-    <t>GAM(34.5257955556116, -26.321467407545903, 1.3239888036046001)</t>
-  </si>
-  <si>
-    <t>7 24 18 28 23 15 0 26 3 10 30 17 10 24 21 10 21 14 24 17 13 17 18 29 11 17 24 17 26 17 17 26 13 39 23 17 30 16 23 17 20 21 14 14 9 26 10 10 19 25 23 20 13 20 22 20 30 20 12 31 21 22 30 19 26 13 20 15 37 17 24 33 20 15 27 3 21 17 25 21 20 11 16 20 17 24 26 7 30 13 14 14 23 23 10 27 21 30 20 29 27 10 16 29 20 13 29 20 6 15 17 16 17 20 45 24 20 23 15 17 7 30 23 13 28 9 38 21 24 16 33 17 23 10 17 36 20 9 17 13 28 35 3 20 19 20 21 41 19 17 36 27 34 27 16 13 22 40 13 20 23 34 10 12 13 17 10 24 23 20 15 23 27 22 13 19 23 21 23 14 30 21 12 16 19 18 24 21 13 22 6 13 21 16 28 9 27 21 24 10 13 10 23 28 31 10 31 15 17 17 12 16 30 24 30 20 22 24 7 27 20 18 6 25 16 21 19 12 7 19 17 24 36 14 10 30 17 16 21 19 15 29 29 26 24 7 9 10 17 16 17 13 18 20 20 26 19 19 11 26 22 27 39 17 18 14 19 20 30 27 23 17 32 24 7 27 23 37 23 13 27 28 23 15 19 31 20 32 23 26 23 3 15 12 21 12 12 25 12 3 17 22 18 19 12 25 22 25 17 13 14 17 15 23 12 13 33 22 20 17 23 20 21 37 9 0 26 19 44 14 33 27 15 19 3 40 23 19 19 14 10 23 0 10 12 11 35 10 21 28 28 22 31 29 27 24 26 14 10 21 24 20 6 15 26 14 22 25 30 33 28 30 17 26 24 28 19 11 24 20 16 19 38 16 19 13 17 15 19 27 33 20 9 20 16 26 29 21 14 9 23 21 23 29 13 16 20 19 17 30 20 13 35 10 23 19 17 19 18 20 13 16 14 23 12 21 20 27 14 13 23 3 23 14 15 15 12 16 12 19 13 20 35 15 15 20 20 24 32 13 7 29 24 19 10 9 0 13 27 3 10 6 6 13 27 17 24 24 20 19 17 21 16 17 23 17 20 34 13 24 13 26 25 19 23 3 22 10 20 17 24 12 20 21 13 17 33 23 27 15 20 33 20 13 14 21 10 12 21 17 31 17 13 23 30 24 24 22 13 27 19 23 10 22 9 16 13 10 9 30 17 23 31 20 23 5 17 16 27 14 30 18 36 16 24 23 9 10 17 9 23 29 21 29 7 20 10 23 16 28 12 13 13 17 20 3 23 22 30 33 13 26 3 19 31 13 21 17 14 20 33 30 17 9 12 16 23 31 20 19 16 26 25 20 3 12 11 19 36 24 23 16 24 24 23 6 22 31 36 3 29 20 26 10 35 10 18 17 20 10 28 34 16 21 20 23 24 23 14 13 10 30 16 15 7 26 21 23 36 11 20 12 20 0 30 21 15 6 15 16 17 16 20 24 16 14 13 20 3 31 20 20 30 18 28 23 24 6 24 16 10 19 7 7 20 12 16 14 19 20 13 13 19 17 9 31 10 0 14 28 22 23 17 27 27 27 25 27 23 26 7 23 23 17 10 33 16 20 30 16 13 17 26 16 16 18 7 13 20 12 35 15 27 19 27 24 27 13 23 16 27 16 30 13 29 26 22 41 10 26 23 20 25 43 16 17 21 26 24 20 26 13 19 23 21 14 20 24 13 26 20 28 31 23 16 27 10 9 16 9 14 23 30 23 19 29 25 14 35 25 23 16 17 10 22 24 10 17 20 27 16 30 17 16 34 20 16 23 16 18 30 20 7 23 14 25 29 20 10 16 44 13 21 26 17 7 21 13 31 41 23 35 20 16 10 10 7 21 13 16 7 21 20 13 12 31 26 30 13 6 24 13 33 13 36 6 20 19 37 13 17 7 15 16 33 14 29 40 19 9 17 11 19 17 27 34 20 30 31 19 30 21 6 24 26 14 13 3 24 23 17 16 13 21 22 24 24 15 24 26 19 21 24 16 3 20 23 31 16 22 7 23 22 28 17 6 27 20 28 19 18 13 30 13 13 13 7 16 14 12 38 31 16 27 23 28 27 21 20 39 22 15 13 22 31 35 35 16 7 26 23 16 20 15 16 13 18 10 32 23 16 24 15 14 13 17 27 10 30 17 14 20 14 24 23 24 27 3 26 23 16 20 26 27 26 10 20 34 22 31 30 16 10 29 13 27 22 26 17 31 13 13 24 6 3 26 24 12 22 19 16 23 6 19 20 10 22 17 20 19 25 3 3 19 12 17 13 24 16 19 14 33 27 20 13 18 22 7 18 20 16 25 20 10 37 16 27 17 13 15 13 26 17 10 19 23 28 16 21 9 27 20 24 22 14 23 10 24 23 20 31 14 34 18 16 24 38 23 24 17 25 20 6 16 24 22 16 24 16 31 25 23 6 7 27 10 3 29 12 17 10 6 13 19 14 19 41 20 16 20 20 19 28 7 16 20 26 16 20 19 35 24 16 17 26 24 13 17 11 14 7 7 21 17 15 24 27 17 31 10 7 21 19 23 16 20 26 19 24 13 14 24 20 13 26 13 12 10 27 29 33 15 16 26 10 21 22 21 9 17 19 9 14 7 9 20 10 26 23 17 34 13 19 17 16 16 20 20 13 45 20 16 13 11 22 34 16 19 17 19 27 24 22 35 6 10 10 14 37 23 26 19 13 17 30 12 24 21 24 16 16 22 10 34 10 27 27 23 10 27 27 34 14 3 10 6 12 17 34 23 30 27 19 16 20 24 16 16 30 33 23 24 15 30 24 18 14 13 21 7 12 20 9 18 24 10 17 19 31 10 36 27 23 33 24 30 16 23 21 26 27 20 7 9 9 25 24 16 14 15 19 17 15 23 17 14 13 27 20 22 24 23 16 20 17 13 12 23 27 13 27 17 19 16 17 17 6 16 3 3 23 29 12 9 23 13 13 12 9 17 24 26 12 6 17 17 17 30 21 19 27 31 18 14 23 20 37 6 15 13 9 23 25 17 21 13 13 20 12 6 26 19 21 15 30 25 23 23 17 12 6 21 18 33 23 31 21 14 13 24 20 26 15 26 0 6 33 29 23 20 16 18 17 6 10 14 20 20 37 5 14 20 31 14 18 12 6 10 19 21 23 18 17 16 19 22 30 23 23 26 3 16 27 31 25 16 10 22 23 10 27 31 9 9 19 19 19 19 26 22 18 24 22 17 34 19 7 17 16 16 19 6 30 30 22 13 17 13 17 24 27 24 10 15 29 17 6 17 17 16 20 26 28 26 22 22 24 11 20 30 13 20 29 26 26 17 16 27 27 28 21 20 22 6 24 20 16 19 34 23 28 30 10 23 19 27 14 24 19 24 6 12 10 12 32 28 12 20 17 16 16 14 9 27 35 13 27 6 19 30 33 8 19 24 10 19 23 24 20 35 15 22 21 12 16 28 9 32 26 20 16 26 12 17 20 24 22 13 20 20 6 10 13 15 24 28 20 16 9 24 3 9 26 13 22 31 23 21 16 20 23 31 16 31 25 23 29 33 32 13 19 6 19 24 14 19 27 16 27 42 15 30 19 6 37 22 19 28 9 38 7 13 16 17 20 22 27 23 20 23 10 23 23 17 19 41 18 34 7 24 17 10 27 20 19 20 23 27 22 9 15 23 6 27 9 10 25 17 29 23 24 19 20 30 30 10 17 34 15 16 24 15 23 16 14 14 13 19 31 12 16 27 20 35 37 32 16 12 17 9 7 26 26 9 34 14 7 19 10 37 23 10 16 12 24 28 12 20 10 11 17 28 10 16 17 23 21 17 31 20 23 21 26 14 31 14 7 17 13 14 31 16 27 30 13 24 3 40 19 21 29 27 22 16 16 13 7 22 26 14 26 17 20 30 26 15 19 23 26 9 24 23 26 22 27 25 14 19 22 17 24 30 30 16 23 33 22 20 6 17 19 16 31 22 6 17 21 19 10 27 15 24 33 22 23 16 29 13 17 21 19 12 24 34 26 24 18 17 14 24 14 24 22 33 36 16 31 3 27 16 20 13 12 6 20 20 34 16 17 30 15 33 31 20 16 13 16 14 6 14 22 37 41 15 33 20 26 23 37 16 30 23 9 10 27 13 20 22 24 17 16 13 20 37 22 23 19 20 24 7 23 16 3 15 24 20 21 18 17 16 20 16 34 27 30 12 7 12 16 19 20 16 12 23 7 20 23 9 20 31 23 16 20 29 13 7 19 10 23 20 17 13 21 20 23 26 31 27 28 13 23 20 13 14 6 17 31 10 23 20 40 16 10 16 6 18 12 23 21 12 27 20 27 26 34 17 26 6 20 17 13 14 30 12 22 10 28 26 13 27 18 23 26 6 21 0 28 16 34 7 19 23 20 30 9 20 16 33 23 12 16 16 20 10 24 20 20 6 28 28 26 27 31 19 21 14 20 21 22 24 20 19 9 10 13 26 40 34 28 9 32 19 26 17 26 8 13 21 23 14 13 9 31 22 36 20 16 19 20 27 16 24 23 13 36 20 10 16 17 36 22 34 17 17 19 21 19 9 20 29 19 17 34 26 16 21 35 15 18 27 14 27 26 30 14 15 10 17 28 12 23 17 30 26 17 13 28 27 22 16 29 23 26 17 7 23 21 37 23 6 21 26 22 26 30 13 13 24 17 15 17 10 7 34 15 14 21 21 10 16 9 14 20 24 5 10 23 20 20 26 20 16 22 20 17 11 23 13 6 23 27 20 21 24 0 20 10 14 40 24 12 16 21 16 7 30 24 23 30 6 13 20 33 24 16 10 23 11 12 18 20 20 14 6 17 22 9 10 17 12 17 23 20 7 24 22 22 25 3 16 21 20 13 13 12 23 13 19 27 23 25 16 22 27 23 7 20 31 34 24 16 34 23 14 13 30 31 24 7 20 27 12 36 10 17 15 19 9 19 23 16 37 10 17 9 30 13 16 16 21 30 14 20 22 22 13 20 17 14 35 26 6 18 22 13 10 15 37 21 13 23 13 13 26 32 25 26 24 24 20 12 13 16 8 28 14 43 16 20 24 20 23 30 3 20 9 13 20 24 6 22 13 16 27 26 16 10 23 19 17 18 19 16 13 32 31 14 20 7 13 21 19 24 20 3 23 19 16 20 20 41 30 20 10 27 38 15 23 14 12 16 23 33 3 10 28 14 9 25 16 22 21 14 20 13 20 24 34 14 23 22 19 16 18 24 17 13 26 26 23 24 24 24 27 14 20 16 3 18 19 24 28 10 33 10 24 21 9 17 26 13 14 10 17 17 24 20 17 30 17 10 16 34 21 16 24 13 17 16 21 16 13 20 24 17 30 9 12 13 16 30 20 23 16 6 5 23 14 13 17 23 30 13 15 3 30 13 16 13 26 14 13 7 17 24 16 10 29 38 10 33 17 29 13 21 9 9 7 21 27 27 22 23 17 19 13 26 16 19 34 11 17 23 21 29 23 6 13 23 9 17 6 13 18 14 32 34 17 20 18 20 12 34 21 10 16 13 15 26 15 14 13 6 12 16 23 22 17 13 10 40 14 16 16 14 15 24 13 24 23 16 12 34 20 20 27 23 26 20 16 21 22 13 11 10 20 10 23 6 19 19 19 24 16 21 10 17 24 16 13 14 15 37 16 23 20 20 19 10 24 20 7 20 28 15 29 24 28 17 27 27 23 25 20 3 24 22 7 23 15 6 29 20 22 27 20 13 21 13 23 23 18 21 18 15 20 20 39 23 22 28 16 16 20 28 3 30 18 15 26 34 19 6 24 23 16 10 13 20 24 14 35 23 23 7 33 19 22 24 15 24 21 16 22 19 23 17 16 16 16 16 18 37 27 23 16 27 19 23 17 7 30 20 18 9 10 13 10 16 6 16 26 20 24 12 31 24 43 20 32 45 13 28 16 0 23 17 20 26 17 17 20 24 35 17 35 34 16 18 13 16 30 21 27 21 14 22 23 28 22 16 26 14 7 19 30 19 13 17 22 23 34 15 20 13 13 7 17 35 17 27 22 12 10 17 18 19 17 34 23 17 27 21 16 20 21 10 13 20 20 10 33 19 23 13 24 24 29 6 12 13 26 10 19 7 24 36 24 13 10 13 21 32 14 17 22 22 20 9 20 13 28 20 12 21 28 39 23 24 21 20 25 22 20 17 20 26 34 13 17 10 30 20 9 16 17 10 24 27 19 7 24 23 13 9 17 16 12 16 7 21 19 10 17 10 14 25 23 26 14 18 17 24 15 22 10 23 21 30 10 10 10 23 19 9 19 13 20 10 19 15 30 17 33 10 28 31 27 19 16 12 30 34 15 10 19 18 21 13 7 6 15 27 20 17 34 17 23 13 6 38 22 17 30 13 24 16 24 23 19 9 26 21 23 25 9 37 23 27 10 19 21 23 42 31 29 7 16 17 19 9 38 48 41 27 14 14 20 17 22 6 23 23 7 7 15 35 18 10 13 16 23 16 21 22 20 15 20 18 10 42 7 17 33 30 6 6 20 23 12 13 23 15 12 25 12 26 17 19 44 16 13 27 22 33 19 10 36 13 16 22 17 27 13 29 15 23 23 24 12 24 13 21 30 15 20 18 7 7 13 13 20 14 19 18 3 19 13 13 23 16 10 16 23 27 14 29 24 23 17 27 25 17 9 13 7 17 13 16 16 17 19 7 13 13 24 9 17 17 3 35 10 21 10 6 20 16 10 3 30 27 17 24 16 16 22 14 17 23 23 10 18 3 23 20 29 17 16 25 27 26 12 16 17 39 25 12 24 13 23 27 23 37 20 23 18 23 13 31 20 13 19 9 15 30 16 13 27 19 23 3 26 18 23 25 24 20 17 10 14 33 20 13 20 9 24 26 10 24 10 16 29 7 10 3 9 14 12 5 24 17 15 16 9 18 23 16 16 19 22 19 22 14 33 20 16 16 20 28 6 22 24 7 12 23 16 14 28 13 10 13 26 16 33 30 20 20 6 19 9 7 22 37 31 21 19 16 15 23 22 13 20 24 16 19 24 34 29 41 12 23 17 26 16 10 31 16 23 18 22 19 33 20 23 13 20 33 36 16 28 12 24 20 16 23 17 27 10 17 9 16 10 33 24 26 23 17 26 16 13 23 9 14 13 21 25 23 16 22 10 31 21 33 20 27 19 10 16 26 24 9 17 16 28 10 31 13 21 20 14 24 3 16 13 17 11 6 25 12 13 35 12 19 13 40 8 27 23 24 41 13 12 31 19 31 10 22 15 14 10 16 13 11 22 30 24 10 23 13 14 19 24 21 16 22 37 23 13 28 23 33 16 26 23 27 20 17 13 20 35 26 20 14 29 18 24 27 20 30 6 30 23 31 21 17 37 27 16 14 29 10 33 11 16 6 9 17 24 24 27 0 31 6 19 26 24 12 17 16 23 18 12 13 14 17 10 31 33 14 10 12 6 20 23 33 17 21 26 13 36 18 22 16 14 20 19 37 20 23 6 21 24 26 17 6 20 20 37 7 6 24 27 27 14 38 19 23 7 18 24 16 12 37 10 27 3 17 10 26 14 18 19 20 23 10 26 16 25 25 30 23 21 26 23 13 20 10 13 28 24 10 13 18 10 18 26 20 16 30 14 19 16 13 15 21 15 19 20 17 9 9 16 10 26 31 7 34 28 17 24 13 30 20 24 34 9 23 12 6 18 19 20 18 24 13 6 25 35 17 13 36 19 24 20 6 13 15 10 22 16 16 13 10 13 7 37 10 10 20 17 19 28 9 16 17 20 23 23 16 26 23 16 30 14 6 24 19 26 17 20 12 16 27 20 19 26 9 23 17 23 16 3 19 15 18 17 17 20 7 21 26 13 22 22 13 23 0 28 21 10 27 37 16 17 13 20 20 14 17 17 17 11 15 23 19 19 13 20 27 23 29 31 10 30 24 15 23 27 22 13 17 29 15 7 30 17 16 34 10 6 0 17 12 24 24 10 21 29 7 13 12 34 19 37 31 23 26 16 15 13 27 18 31 28 24 13 39 23 17 30 37 20 21 17 13 20 13 17 29 14 13 17 17 8 21 17 23 31 9 17 27 19 13 21 7 23 20 28 22 16 19 21 13 19 30 18 19 10 20 13 21 27 13 17 13 14 13 15 6 17 16 24 7 38 10 33 16 16 17 18 17 9 29 19 13 16 22 21 27 25 16 21 10 3 18 16 6 27 20 20 16 23 13 19 7 10 28 9 29 22 23 29 20 30 23 20 33 34 26 16 30 23 12 20 22 16 13 33 13 24 14 29 24 29 3 17 23 7 12 32 25 23 31 12 16 30 13 13 21 16 27 24 28 13 17 14 17 28 13 15 19 20 19 13 23 23 12 10 13 11 16 12 14 16 16 26 13 30 26 31 16 10 22 26 14 14 16 27 23 21 16 18 3 16 22 26 10 15 24 38 24 34 29 24 16 26 12 23 26 24 10 34 24 9 9 10 26 6 20 26 24 7 19 20 27 17 14 38 20 33 16 20 31 7 17 17 16 24 12 25 34 17 20 23 12 27 12 23 14 38 24 7 3 29 16 20 28 22 21 19 2 22 17 17 10 21 15 19 23 20 24 15 16 28 21 6 23 22 30 16 18 13 16 25 28 16 27 12 16 15 10 17 16 23 25 20 17 16 13 25 22 7 16 17 21 24 20 3 20 22 10 31 24 20 16 20 30 20 23 24 17 37 9 26 10 12 11 27 16 26 26 20 14 26 20 23 0 13 27 24 24 14 17 6 23 14 29 16 10 10 20 26 17 17 20 10 33 17 10 25 8 16 16 14 24 22 23 24 24 19 21 24 26 10 10 13 17 24 16 10 10 18 19 21 15 19 13 15 32 10 17 23 14 21 20 24 20 16 23 24 22 23 16 19 26 22 21 33 19 17 20 20 14 27 14 23 21 17 10 9 6 17 20 13 16 36 20 9 19 24 20 31 18 12 19 12 20 15 0 19 20 22 13 19 19 3 44 13 13 30 27 23 37 45 15 13 21 19 6 10 13 7 16 24 32 17 27 7 13 15 13 13 23 13 20 23 3 28 26 23 17 26 24 9 32 35 10 12 17 16 10 6 3 14 21 38 17 9 20 20 15 41 21 15 16 20 31 16 38 13 34 23 14 19 17 12 30 13 17 23 6 17 13 7 16 30 13 30 0 22 13 16 22 34 3 17 38 12 14 29 42 23 23 24 15 16 7 16 31 35 20 26 26 9 10 17 35 19 27 33 10 21 24 13 21 48 19 22 34 10 17 9 12 13 39 12 26 17 24 15 14 17 12 34 27 16 6 20 18 10 35 6 10 19 16 15 9 19 27 24 17 16 16 7 22 13 21 3 31 30 6 22 20 10 15 19 20 27 6 25 17 33 15 3 10 21 21 30 43 34 15 19 16 26 8 20 17 17 19 21 7 26 20 14 14 27 19 27 20 27 20 26 38 13 17 29 13 24 30 19 30 19 31 26 20 31 21 3 21 24 18 29 20 14 36 9 24 9 16 13 41 14 30 27 16 27 20 23 19 17 37 7 33 20 26 25 31 0 10 12 28 13 20 29 20 24 39 12 6 16 31 7 6 12 24 30 13 15 19 16 9 17 9 10 10 35 27 20 9 3 37 31 24 34 17 19 20 18 24 16 14 13 27 30 13 33 27 31 19 24 9 17 29 13 24 12 13 21 20 30 20 27 15 22 17 22 19 23 7 13 23 10 29 20 24 19 20 20 14 16 16 20 23 20 14 20 14 25 26 16 10 20 10 27 3 10 16 8 27 20 17 9 16 23 19 27 26 16 38 24 10 20 17 27 16 34 21 18 20 10 6 16 16 17 19 16 12 9 24 33 6 27 17 18 26 26 16 19 22 13 17 10 16 20 22 19 11 22 19 34 12 31 30 30 19 19 9 7 23 6 22 23 24 16 13 13 14 6 26 24 24 13 6 27 23 30 36 14 6 28 22 10 20 19 14 9 14 16 13 17 13 10 12 9 13 10 16 24 31 15 10 3 24 26 12 34 26 23 16 20 20 30 12 19 24 14 19 16 30 29 20 26 31 30 17 17 24 18 14 7 6 24 23 20 17 20 24 17 6 29 6 14 17 26 20 14 33 21 23 28 13 21 16 10 14 12 25 16 13 3 30 15 40 17 23 12 13 11 15 13 20 13 16 16 3 24 6 16 16 25 20 24 16 16 17 27 10 20 27 17 13 13 40 12 21 9 34 24 27 13 17 27 10 33 17 32 12 14 26 19 19 10 17 17 18 23 31 34 13 23 26 7 21 17 20 24 31 24 16 33 26 10 10 20 19 40 13 21 27 30 26 27 10 13 23 12 23 17 29 28 19 9 13 17 23 7 27 13 24 20 37 10 13 44 19 24 17 22 13 19 16 29 20 17 31 10 30 27 14 30 27 23 13 13 12 17 20 16 24 10 30 47 15 17 17 12 36 33 40 17 28 16 6 18 21 20 13 26 16 16 21 31 26 3 26 17 17 13 19 32 14 34 22 19 30 29 10 13 26 26 16 16 28 24 31 0 20 22 10 10 10 16 16 13 9 23 16 16 14 24 17 19 22 17 26 28 5 13 24 17 13 19 19 14 24 13 21 22 17 23 13 17 15 17 12 22 21 29 10 27 24 24 22 20 25 27 24 26 24 10 28 14 29 20 16 20 30 16 7 20 23 29 20 20 17 23 17 22 25 17 13 10 20 18 21 19 17 16 6 23 29 17 20 10 28 27 17 3 14 22 21 16 17 17 13 25 16 35 33 13 13 10 24 19 20 10 13 26 9 17 26 10 18 28 17 14 24 13 25 24 37 21 31 16 19 17 29 15 15 30 10 31 19 12 12 28 18 23 30 20 10 31 6 10 17 13 31 27 22 21 17 24 30 20 15 16 20 16 6 20 20 31 28 26 23 15 10 30 9 23 17 17 16 19 16 24 26 23 20 6 10 23 13 13 20 33 19 17 20 20 21 31 22 10 23 20 27 24 24 27 23 20 21 24 12 3 24 15 16 16 0 23 24 28 12 13 14 23 19 12 15 13 20 10 26 12 21 26 20 23 17 9 17 13 14 10 12 30 23 24 9 16 12 17 27 24 7 31 20 26 7 10 16 17 27 29 24 18 31 7 13 21 23 19 14 30 24 35 35 10 30 9 20 28 20 12 26 20 21 6 13 14 21 9 37 38 14 13 23 16 27 23 16 13 14 23 25 24 17 21 21 13 20 20 20 22 20 10 25 30 24 10 29 7 13 23 17 22 10 31 21 9 35 12 27 24 12 17 33 17 13 27 23 23 27 26 7 6 17 17 3 17 26 20 24 15 17 12 24 13 7 19 22 18 14 21 15 17 9 32 22 24 16 17 17 17 10 16 17 14 25 16 29 10 13 13 13 19 35 23 3 17 16 13 9 23 23 17 6 17 24 10 20 9 14 24 13 26 24 22 23 41 26 17 15 22 13 38 14 20 20 23 26 21 13 9 24 7 24 15 13 17 20 16 14 24 17 7 14 22 20 16 26 20 26 19 13 30 30 24 51 14 30 20 13 30 12 27 26 28 30 16 16 3 25 27 0 31 23 13 26 16 22 33 16 17 14 19 18 18 16 32 19 19 13 10 13 15 16 22 10 34 9 19 22 29 20 7 16 12 23 20 9 3 20 20 17 19 21 14 21 20 17 14 3 31 6 16 6 16 14 26 23 26 21 20 6 14 35 21 31 16 15 40 20 27 23 13 26 21 12 37 12 24 15 23 19 22 30 11 17 11 19 20 9 14 13 20 34 16 21 24 14 30 19 20 16 13 22 30 18 16 19 24 6 34 12 16 20 14 14 13 23 26 19 17 28 23 14 24 23 16 32 27 23 16 27 16 24 41 43 13 17 7 26 22 29 33 6 21 16 27 20 45 16 19 29 17 16 24 17 27 27 22 9 16 45 3 9 3 21 35 21 16 22 37 13 30 19 21 10 27 35 27 27 16 28 19 9 15 13 6 30 6 10 22 16 23 24 16 0 14 9 14 27 23 20 16 16 17 14 19 10 11 27 17 23 26 23 7 15 30 26 23 24 17 11 21 16 10 13 16 24 27 27 3 33 20 13 10 15 15 20 26 17 9 24 20 21 16 16 14 17 32 20 30 20 20 14 22 16 17 24 14 17 23 7 19 24 16 16 16 29 0 12 19 28 20 20 27 15 30 16 17 24 14 35 3 23 30 23 7 19 30 19 41 17 24 6 33 13 10 16 23 10 16 17 18 27 20 23 10 23 37 10 10 23 17 21 13 26 29 21 7 17 9 16 3 19 15 9 10 10 16 19 43 23 24 28 19 3 16 7 16 10 24 19 6 17 21 16 14 19 3 17 20 14 27 18 20 9 10 27 27 19 19 6 6 16 30 24 20 9 23 17 10 24 15 35 35 21 13 37 20 19 34 17 20 23 28 21 23 24 14 9 24 9 24 17 7 16 20 32 31 27 17 23 21 22 6 13 26 6 3 13 23 25 6 23 27 13 13 22 14 38 35 28 9 12 24 34 14 16 28 12 24 13 12 27 16 28 20 13 9 17 23 11 36 23 14 15 0 14 20 23 19 7 27 27 20 30 6 20 17 22 16 27 23 17 19 20 29 23 20 20 17 26 19 31 20 16 9 16 6 33 12 17 24 17 6 17 34 20 26 22 13 16 22 27 29 22 26 16 27 20 23 9 27 10 3 10 24 36 20 20 30 20 25 22 18 12 21 10 6 22 14 16 0 13 23 21 22 22 10 27 0 21 12 14 20 10 30 19 20 10 26 14 19 6 22 31 17 17 19 22 13 17 3 9 15 24 17 13 18 17 39 27 23 23 22 13 16 7 30 32 23 21 26 17 12 16 14 16 13 32 10 10 28 23 17 13 16 23 34 23 20 21 25 20 17 21 25 12 34 19 21 27 26 27 29 20 16 36 19 17 9 9 35 28 25 12 23 29 26 10 27 12 26 12 17 19 29 16 28 6 19 20 16 21 17 20 28 23 29 16 14 22 23 7 19 6 7 20 36 25 20 24 9 12 13 26 35 28 28 19 31 12 17 6 28 21 13 13 9 21 17 13 18 20 33 25 12 10 20 31 26 31 7 25 17 13 30 17 8 16 3 21 13 14 20 27 16 26 16 13 20 23 7 19 16 27 14 13 20 10 16 28 10 23 24 15 20 23 22 6 23 13 16 16 17 10 13 16 37 13 22 23 17 20 20 27 26 17 31 17 13 13 20 19 16 7 32 24 24 10 19 26 17 16 19 13 17 31 18 22 26 13 19 13 10 12 20 23 23 22 12 20 20 23 39 17 20 31 18 17 27 30 34 23 12 9 10 19 16 13 19 30 16 30 26 24 26 6 30 26 21 31 23 28 20 19 20 14 29 10 22 20 13 3 26 14 31 33 13 45 20 43 19 19 17 13 16 13 22 16 31 16 19 24 34 14 10 18 7 26 26 10 16 16 10 13 10 20 24 16 26 23 17 20 16 17 31 11 26 20 22 28 17 23 22 16 17 18 15 20 23 17 16 10 12 29 9 34 23 6 17 26 40 30 16 36 20 34 9 12 23 20 20 9 23 21 26 31 14 30 30 10 17 10 9 12 31 25 10 32 27 16 34 17 23 20 20 20 33 17 3 13 21 17 20 17 16 10 28 17 40 22 12 19 16 26 16 23 20 22 13 9 6 10 13 10 19 24 21 13 24 20 24 18 7 31 35 19 20 20 20 26 20 23 16 12 20 23 20 14 16 16 17 18 28 19 28 16 20 5 16 27 28 17 23 34 24 16 24 28 16 14 13 13 17 18 10 20 40 18 20 29 19 10 27 9 20 25 17 12 17 17 0 27 35 6 23 16 16 14 3 16 20 9 13 10 37 40 22 36 19 17 20 17 10 20 13 17 14 21 14 27 20 28 20 17 22 20 27 24 27 16 29 23 19 6 16 24 7 14 13 20 21 13 20 40 23 29 27 41 21 22 26 17 38 16 31 33 20 12 17 27 10 23 12 23 23 17 6 31 23 14 6 9 32 10 10 23 30 6 13 25 23 33 16 33 30 8 24 26 17 23 27 17 14 22 12 16 17 16 13 7 14 12 13 9 13 16 13 9 6 20 23 14 13 19 3 13 10 15 13 30 23 27 10 28 16 10 10 47 17 10 20 24 15 30 17 14 19 24 12 19 24 11 16 26 17 16 27 10 14 16 23 23 28 17 15 13 26 13 17 16 29 3 24 27 29 13 13 27 19 13 11 12 3 13 23 26 17 21 15 10 23 16 26 23 34 13 19 24 17 16 18 14 37 23 29 13 17 30 10 22 19 20 17 14 6 20 16 10 19 16 20 14 25 14 13 36 28 17 10 30 32 20 22 13 13 16 14 17 9 24 13 28 23 26 30 24 27 24 17 25 20 12 21 19 16 24 10 7 23 16 14 13 29 21 29 22 27 6 13 37 26 12 16 10 24 17 19 3 24 17 17 27 30 17 23 27 20 29 14 22 25 23 24 17 21 23 20 20 6 17 6 13 20 24 16 32 23 12 17 10 20 12 13 7 31 22 27 3 32 16 16 24 21 17 33 34 20 20 31 10 20 29 30 30 12 26 17 25 19 26 28 17 33 16 31 10 10 11 23 20 27 17 9 26 14 26 23 16 10 7 17 13 17 33 14 24 13 16 27 20 16 17 13 19 23 7 26 27 10 26 24 9 31 17 17 9 16 13 0 31 27 27 6 13 27 22 30 19 26 16 17 17 13 3 20 13 13 24 26 33 27 26 27 7 19 21 27 9 27 20 14 21 13 13 17 24 24 16 15 27 24 13 11 24 20 15 20 23 20 19 27 20 27 19 9 10 27 6 17 28 16 22 15 13 13 27 16 17 20 17 24 17 13 16 16 30 21 22 19 13 38 12 13 16 24 14 21 16 6 31 30 22 21 31 10 26 6 9 23 26 18 14 39 6 14 26 16 18 17 26 20 5 35 24 24 10 40 7 29 9 13 27 26 24 23 39 17 10 28 25 20 14 12 18 31 13 26 17 30 20 19 17 33 13 20 16 36 6 16 20 10 24 20 10 37 27 21 21 17 27 20 26 17 31 27 30 6 13 14 16 20 19 27 10 13 16 15 17 17 21 10 7 10 15 28 24 28 13 19 9 13 26 24 26 26 21 16 30 11 17 35 34 20 17 19 19 22 16 20 27 13 23 20 17 23 17 13 13 15 21 34 12 23 19 16 21 16 28 26 23 19 7 37 20 29 10 23 10 3 9 24 23 12 12 8 17 23 17 27 35 17 21 13 24 23 10 18 23 17 16 12 24 22 27 9 21 26 30 6 6 3 31 16 24 15 31 27 30 14 7 22 21 19 24 20 20 18 24 24 9 20 26 23 20 33 12 13 16 23 22 34 28 13 14 13 30 26 9 38 17 20 27 33 17 9 20 36 20 13 12 7 9 34 19 14 16 19 6 21 19 12 24 18 13 17 27 26 13 16 28 15 12 14 37 27 34 23 22 7 29 24 17 9 16 17 28 19 20 16 19 26 27 22 23 13 25 23 24 20 20 10 19 22 13 23 15 17 24 15 27 26 24 7 19 17 16 26 16 34 7 12 9 13 20 13 10 10 13 14 14 13 34 30 14 17 19 16 17 17 13 12 16 31 20 9 24 21 18 14 16 13 13 9 11 19 10 14 26 23 27 16 13 10 14 14 17 9 37 22 41 9 31 34 16 17 19 20 16 13 9 7 14 23 25 23 34 14 17 33 16 10 13 17 20 16 20 17 10 17 10 34 12 13 7 26 16 3 23 18 25 17 22 28 10 12 3 26 37 26 16 21 27 13 14 33 15 17 25 12 25 26 7 26 22 10 17 16 23 14 24 29 16 17 30 28 16 33 13 35 20 41 19 6 13 17 27 16 17 16 23 16 20 27 17 20 35 34 26 9 19 27 20 25 23 13 21 12 13 10 24 13 23 20 23 25 16 23 6 21 15 13 12 21 27 14 6 20 23 23 10 14 14 13 16 19 21 9 26 23 20 25 7 12 19 20 6 20 36 24 17 16 11 21 13 19 27 10 29 24 16 23 13 17 31 13 12 13 21 13 6 23 27 23 13 19 24 13 21 24 26 9 20 23 24 32 16 31 10 19 24 23 18 13 20 25 23 17 10 7 27 13 13 31 30 19 33 7 20 27 14 19 27 19 19 14 9 20 26 37 23 38 3 20 19 38 24 16 17 6 29 10 16 16 29 9 15 19 32 13 17 26 22 10 18 26 19 18 26 13 17 30 22 20 10 17 31 29 19 20 18 18 19 19 33 22 27 20 33 13 33 20 16 18 18 10 23 13 27 22 20 37 14 25 20 15 13 15 10 17 13 24 31 24 16 16 31 19 19 7 26 0 16 20 34 20 16 10 13 23 23 21 26 6 9 10 26 23 17 27 10 7 13 22 20 44 26 30 20 21 33 13 34 21 27 13 14 13 19 22 27 18 26 24 23 23 24 30 33 24 9 13 29 17 14 24 19 16 26 20 13 19 26 23 10 17 14 20 19 13 20 23 27 37 23 37 23 17 23 27 16 16 13 17 17 14 31 24 10 25 16 24 30 36 10 7 20 20 13 31 3 15 3 23 24 26 3 22 9 27 12 44 21 16 6 9 22 32 10 10 21 20 14 31 20 27 13 17 26 30 20 29 13 10 18 16 12 33 17 20 16 0 33 16 24 16 20 9 26 13 6 17 20 31 13 10 13 33 26 9 29 17 20 3 20 6 34 22 10 28 17 27 13 16 14 16 17 27 21 21 19 31 13 17 16 10 20 23 12 12 17 20 20 32 20 17 10 17 6 6 16 17 16 10 30 19 13 21 16 19 16 12 13 25 7 17 3 35 17 24 14 17 3 21 17 20 10 30 15 23 16 22 38 13 3 23 16 20 24 17 20 40 14 16 19 26 31 13 24 7 20 27 10 22 13 13 26 29 22 17 22 13 22 10 25 16 16 24 12 14 6 19 13 20 17 8 15 27 24 17 20 34 34 23 9 9 10 9 19 20 37 20 6 15 24 12 14 17 19 10 24 23 9 24 16 10 19 12 20 26 20 12 23 19 28 22 10 7 6 16 31 17 26 13 20 18 10 41 18 6 24 3 22 6 20 22 17 35 25 26 31 27 6 19 32 16 19 23 29 27 24 19 26 21 13 20 24 30 16 16 20 20 10 7 10 26 16 16 24 19 6 17 13 18 27 22 33 20 7 33 25 9 16 31 28 24 23 13 31 21 20 21 13 12 24 33 16 10 3 20 20 6 14 32 13 30 9 16 6 23 20 13 15 33 31 9 20 27 17 19 14 23 26 24 16 13 25 23 17 6 27 29 14 16 24 26 8 10 16 20 22 3 23 27 17 12 24 10 24 26 16 13 31 23 13 14 27 10 16 26 3 23 18 33 13 16 13 26 20 16 33 23 6 28 15 20 27 21 17 26 16 26 19 12 13 7 23 31 6 3 27 24 12 24 10 21 10 16 14 26 23 16 28 20 32 14 23 38 34 21 16 18 16 16 30 16 17 24 32 14 13 30 15 23 20 16 17 17 26 7 24 19 10 13 23 7 12 19 35 14 13 3 37 28 10 17 16 10 24 13 35 33 10 26 17 34 7 13 30 18 22 16 13 24 15 27 8 13 14 14 13 16 15 24 17 9 15 13 23 16 9 34 30 7 16 13 17 19 10 33 16 21 25 16 27 15 20 20 10 6 33 17 16 7 30 22 20 18 30 16 9 12 14 38 42 13 24 16 24 3 7 20 9 21 31 23 23 22 27 20 17 10 30 20 20 20 15 16 20 17 20 24 23 20 35 16 19 20 30 23 28 24 24 27 30 35 13 30 20 17 12 6 9 20 24 10 7 30 20 32 26 20 12 10 23 17 24 24 25 20 10 28 21 16 14 28 21 16 14 15 13 18 30 16 21 20 21 13 7 10 16 15 7 10 13 19 17 24 16 13 19 21 17 12 21 21 12 27 24 7 23 41 19 27 14 29 20 23 9 28 13 6 17 12 7 37 23 20 9 20 27 14 21 16 13 9 23 27 12 31 13 9 27 23 6 20 13 14 16 9 21 20 27 22 16 16 9 23 10 17 17 26 14 20 15 19 36 24 17 12 20 29 18 24 22 20 16 34 27 36 13 26 27 26 22 22 20 8 18 41 9 10 21 7 23 12 30 16 25 32 28 34 29 29 10 33 20 14 15 20 9 27 27 31 0 12 10 15 9 26 42 20 22 10 22 13 20 12 17 7 14 14 9 17 19 12 20 31 16 22 14 27 12 30 24 12 37 19 16 18 29 20 26 29 23 20 9 20 27 19 16 13 17 19 6 23 13 20 24 17 10 12 26 11 37 27 18 21 16 17 35 9 20 19 20 9 16 30 19 13 13 30 6 27 19 32 35 37 20 3 31 15 30 9 12 16 24 16 27 13 18 13 30 20 17 20 16 24 23 31 34 28 25 19 23 27 26 20 31 6 9 9 24 20 13 10 12 25 20 21 24 28 20 12 13 19 20 27 10 30 12 33 23 3 9 23 23 14 26 23 27 33 16 22 10 25 13 27 13 19 17 28 10 16 19 24 6 20 26 6 16 10 25 26 27 34 20 28 23 22 26 17 6 19 33 14 13 17 9 23 10 30 20 16 24 34 32 6 10 29 6 7 13 13 17 10 16 24 19 22 22 20 35 17 9 3 3 6 27 33 16 15 20 13 13 16 7 13 17 15 17 17 24 16 18 28 20 6 19 6 14 16 17 23 27 23 21 28 19 12 24 13 6 13 16 13 15 16 15 10 28 33 9 21 21 13 3 15 27 23 27 10 27 20 15 13 14 13 24 14 10 23 20 20 16 9 31 22 20 12 28 6 16 9 16 19 0 17 25 13 20 34 15 27 23 9 19 16 37 27 20 16 6 36 20 27 21 23 14 19 20 10 10 49 9 17 26 41 14 13 16 23 19 25 16 23 27 27 14 17 12 13 16 16 20 20 17 17 19 17 30 24 10 22 31 9 20 16 31 34 17 27 7 16 16 17 3 24 33 16 20 9 27 16 14 17 24 29 10 10 33 27 9 23 11 28 9 34 30 16 17 31 20 45 20 7 26 24 15 22 19 19 27 25 16 26 9 31 14 14 16 3 16 16 9 17 10 20 20 28 30 29 20 20 19 10 17 17 34 13 15 20 37 23 20 28 14 24 23 17 14 16 24 22 24 12 13 0 36 20 20 16 20 20 13 30 9 26 27 15 19 13 27 16 37 10 19 26 28 24 34 20 25 13 17 24 13 9 13 15 30 22 13 23 13 12 17 9 21 25 15 20 14 29 27 34 19 24 27 18 23 23 24 19 17 29 6 12 3 27 14 16 16 21 16 21 10 17 19 19 19 22 3 20 21 22 27 16 20 38 17 16 16 17 24 24 25 13 13 27 20 27 33 29 28 20 20 14 13 34 20 6 25 12 9 10 16 7 33 20 17 23 15 19 21 13 26 27 16 10 15 18 17 13 24 24 15 16 17 13 10 21 27 9 6 20 10 12 27 21 10 23 19 16 19 27 19 20 14 18 30 35 23 14 20 6 23 29 29 19 25 6 20 23 15 17 20 20 17 17 23 3 19 10 20 27 17 15 17 19 30 17 12 20 24 15 27 13 20 26 20 21 27 25 17 24 13 16 21 26 32 16 44 18 25 26 17 14 10 29 10 13 10 19 6 13 20 21 16 22 13 9 9 16 13 35 25 17 19 23 20 27 20 47 20 17 21 13 6 16 34 20 10 9 29 34 17 27 6 30 16 9 10 3 26 12 29 22 10 3 19 22 28 19 29 3 30 30 29 13 27 20 13 24 13 7 16 17 21 26 17 16 10 17 27 26 12 30 17 13 13 15 16 16 17 19 12 15 6 23 13 21 31 22 15 13 20 26 13 23 13 14 15 26 23 35 6 16 31 20 15 18 20 13 22 27 36 29 9 13 34 13 7 27 15 8 19 10 20 24 17 14 15 16 15 24 12 18 33 19 19 20 25 14 26 9 35 22 16 41 20 23 17 22 16 24 16 20 20 9 26 24 17 17 16 9 17 16 25 22 13 22 17 14 17 17 19 39 3 22 30 19 11 21 23 22 20 10 17 20 20 20 13 12 22 27 24 17 13 20 21 17 14 23 13 44 30 24 18 13 18 17 11 22 17 12 21 25 20 19 27 29 16 20 23 20 23 36 20 14 20 15 17 19 24 13 27 9 24 21 22 15 36 14 13 20 22 12 14 22 20 14 9 14 20 6 13 23 16 9 16 16 23 21 24 9 17 6 13 17 17 17 7 23 23 22 13 9 16 31 27 10 19 26 24 16 19 26 10 17 15 12 19 13 30 18 27 23 20 9 14 17 20 22 19 23 7 26 31 16 23 27 26 14 21 21 13 22 13 16 38 22 10 14 9 28 10 30 24 20 17 16 20 17 26 13 14 27 20 3 33 34 33 21 17 21 3 19 20 19 21 9 9 19 16 9 20 10 17 6 7 27 17 20 19 20 13 10 13 24 27 25 28 16 27 9 34 12 20 30 29 19 14 27 26 16 21 33 16 10 16 10 12 37 33 31 27 13 13 9 20 14 35 22 20 17 27 13 16 26 15 33 20 19 30 17 16 37 38 26 29 23 13 23 13 16 31 12 27 21 0 20 19 23 12 16 17 6 37 29 7 30 13 10 7 26 12 12 23 13 13 23 23 17 27 24 20 20 19 24 13 38 21 12 20 16 31 14 24 9 27 26 24 17 38 6 13 26 21 26 20 6 16 23 10 10 27 25 17 27 27 18 15 20 29 27 13 21 30 9 41 16 20 20 18 24 13 19 24 9 14 13 20 20 9 23 16 20 24 14 13 22 6 20 34 15 27 22 22 19 25 44 22 31 24 24 17 14 13 15 30 30 18 25 24 14 20 28 23 33 23 26 3 17 24 33 28 27 10 9 12 21 31 14 27 19 13 20 13 12 27 15 29 14 14 21 17 12 29 46 30 10 34 23 23 10 40 22 31 26 19 14 31 7 14 14 20 23 19 17 16 7 10 48 18 25 23 27 13 22 16 23 18 12 13 27 3 3 22 31 38 13 7 24 6 23 19 16 28 27 28 14 19 16 20 15 20 14 22 17 21 37 13 7 13 14 34 23 42 3 7 20 15 40 28 3 41 17 17 10 26 29 21 11 16 22 23 16 16 12 13 34 27 10 27 23 17 19 21 24 10 37 28 3 6 22 7 26 23 23 16 20 28 28 29 20 18 10 24 19 6 19 6 13 22 24 33 9 10 12 23 17 13 20 21 17 34 20 30 9 9 10 31 22 16 22 24 13 24 31 20 34 38 17 20 31 13 24 9 23 20 27 28 31 24 15 29 38 14 23 20 24 22 26 29 13 21 16 30 16 27 10 21 17 17 9 13 11 23 17 31 10 12 20 20 0 16 20 9 20 16 23 17 22 14 19 13 29 16 27 37 22 13 23 31 16 35 10 23 15 26 20 8 27 42 6 22 19 17 13 20 22 20 19 17 19 25 24 9 27 6 27 13 16 6 20 17 12 21 13 16 27 20 6 19 16 19 31 6 14 30 19 31 20 16 17 30 34 24 12 26 10 28 19 6 19 0 26 17 16 10 14 37 12 24 37 19 16 23 31 13 31 36 7 17 23 20 13 14 9 13 21 13 10 23 11 24 22 23 17 16 16 10 13 36 22 30 34 21 18 20 27 27 18 6 14 22 37 10 6 9 7 29 17 34 19 27 7 22 30 34 16 28 20 13 17 34 33 29 16 27 20 27 17 25 27 17 20 17 24 15 50 24 9 16 29 18 16 52 23 9 7 22 17 13 18 27 24 19 15 34 27 27 20 20 10 25 20 25 17 27 13 10 13 14 34 30 17 30 22 10 15 6 20 12 7 21 16 41 22 17 19 20 22 26 16 19 15 29 9 6 20 16 19 21 6 19 16 19 23 19 14 23 13 20 30 16 28 21 17 19 13 19 13 9 27 20 26 10 10 19 12 19 32 20 7 26 7 17 17 16 28 31 23 13 24 6 20 5 10 20 10 23 27 20 20 27 24 10 18 6 23 35 24 27 13 10 20 21 20 21 7 13 10 15 26 7 39 16 20 19 10 29 29 26 16 23 12 27 31 16 16 12 19 13 31 48 10 15 6 14 14 17 20 33 20 34 20 19 23 10 22 24 24 33 38 24 0 24 13 16 23 34 16 22 27 24 40 22 12 28 24 16 13 16 12 6 23 3 23 12 31 15 15 20 13 23 9 12 13 10 12 9 33 17 31 16 19 22 20 22 30 19 20 13 13 13 12 9 37 34 6 14 16 23 20 20 3 15 24 7 20 7 22 23 13 27 22 24 20 9 7 23 22 20 34 9 10 19 28 27 3 20 15 20 13 16 31 23 16 26 10 7 16 23 26 18 23 10 16 33 9 31 17 33 23 10 23 14 16 27 31 15 42</t>
-  </si>
-  <si>
-    <t>NIG(19707.567809020722, 19701.599893986953, -73.14767924896626, 2.353343532243179)</t>
-  </si>
-  <si>
-    <t>23 20 29 19 25 21 14 25 21 24 26 21 15 22 24 14 18 16 31 22 20 25 33 26 20 28 27 23 24 26 22 26 20 26 22 27 17 22 21 16 25 27 22 18 25 19 19 13 28 25 19 14 23 21 27 23 29 21 15 25 21 29 21 25 19 21 21 25 26 24 22 29 22 15 25 15 17 17 24 21 21 21 21 17 24 24 31 19 17 25 21 18 20 30 25 23 19 18 21 28 29 15 19 23 19 18 24 24 13 27 14 31 21 20 32 23 27 20 20 21 23 28 27 21 26 15 26 17 29 21 24 24 18 23 21 26 22 21 25 27 30 34 29 21 26 17 23 19 14 20 27 28 22 20 22 25 22 30 19 23 19 28 20 24 21 25 19 32 20 23 23 28 24 27 28 23 28 19 23 19 23 27 19 21 28 17 29 17 18 24 21 15 26 21 26 17 29 25 24 16 27 24 27 24 29 20 23 25 22 18 17 23 21 26 24 23 18 23 25 26 12 24 17 26 20 18 23 21 22 28 25 26 31 22 20 27 19 24 16 20 16 31 22 26 19 29 29 14 16 23 23 23 22 19 18 32 39 26 25 26 18 25 24 20 20 30 17 17 18 24 20 20 29 34 24 25 31 24 23 22 23 23 23 22 20 30 17 29 21 34 29 18 25 21 24 21 25 23 17 14 21 26 22 21 22 26 21 25 26 13 22 24 28 22 16 30 21 27 25 20 21 26 28 28 23 17 20 24 28 22 23 18 25 24 18 32 20 16 27 18 27 23 22 22 18 14 28 21 28 18 27 25 21 26 23 17 28 17 26 22 28 19 18 24 34 18 23 26 23 25 23 21 21 23 22 20 20 21 25 18 20 16 28 23 21 20 17 23 24 22 25 19 15 21 28 20 27 24 22 17 19 24 21 28 18 18 20 25 22 21 28 22 29 23 25 21 15 19 17 23 20 20 21 29 24 27 25 28 23 21 18 23 32 26 21 23 19 23 12 20 24 19 28 15 20 26 27 25 27 21 18 22 16 13 22 25 22 23 25 23 25 13 18 20 24 29 27 24 25 24 22 22 18 20 23 16 25 26 23 29 19 26 23 20 24 17 23 29 25 20 29 21 19 21 19 22 24 19 29 20 26 25 22 28 20 23 16 24 18 17 27 21 17 23 13 19 28 24 16 29 27 16 24 24 16 23 24 21 25 26 22 17 26 17 14 13 24 26 17 23 24 21 27 20 23 19 16 23 21 22 26 22 19 28 21 20 28 20 13 18 14 23 15 22 20 24 19 17 24 29 28 27 21 25 26 22 30 16 25 21 28 25 20 28 21 25 21 18 22 15 19 30 24 19 26 16 26 22 38 24 12 27 18 26 23 19 27 24 29 14 22 16 26 29 29 15 20 23 20 14 23 33 23 25 25 20 18 32 24 21 22 24 28 21 21 24 22 29 26 18 22 27 24 28 32 24 19 23 23 23 22 30 21 22 18 24 19 22 22 22 14 22 24 16 22 22 24 17 18 25 22 23 15 20 20 16 25 21 33 22 19 18 24 20 26 24 11 21 19 20 25 21 20 22 34 25 27 18 17 20 20 20 17 16 17 28 28 22 34 20 20 20 32 21 29 21 12 20 21 21 30 20 28 24 33 23 29 18 21 21 22 23 24 24 25 24 26 28 19 23 23 18 25 26 29 26 22 27 23 25 26 21 30 16 28 21 22 25 29 27 25 20 26 21 18 20 20 19 19 20 19 15 21 24 24 31 29 22 31 23 22 25 17 14 23 29 17 29 24 22 24 23 21 21 26 23 27 28 26 28 29 27 17 20 20 29 25 21 22 15 33 23 16 26 20 19 16 19 22 18 20 28 25 19 20 18 22 18 20 20 18 24 22 21 25 22 25 21 22 21 18 15 24 15 27 23 19 20 28 15 18 19 24 21 21 18 26 29 19 21 20 23 24 19 17 23 23 25 22 24 35 30 15 22 23 20 30 19 20 26 20 16 25 18 19 23 28 21 22 24 26 22 23 22 17 25 25 23 23 25 17 23 17 21 21 15 25 21 30 25 23 19 18 25 19 12 19 16 21 24 26 23 20 28 19 22 25 20 21 29 21 16 27 16 33 28 26 22 18 18 27 20 16 22 22 13 19 19 26 24 15 23 19 25 28 22 23 22 30 20 27 27 19 12 18 22 17 16 24 21 26 20 19 24 26 25 17 23 24 23 29 32 19 28 24 24 25 20 11 26 17 23 29 18 21 21 20 22 18 20 20 31 21 22 16 16 38 31 24 27 22 14 13 22 19 16 26 28 19 24 17 25 18 24 21 17 23 13 21 24 23 27 25 11 28 19 23 21 19 16 23 31 18 20 27 24 18 18 19 28 20 19 23 25 21 23 16 30 23 13 25 25 31 26 22 25 28 23 21 21 23 32 19 25 26 24 26 24 21 24 26 25 23 15 26 27 18 19 21 17 21 10 27 27 22 23 30 21 23 21 23 23 19 19 25 26 22 25 23 26 26 22 18 17 27 27 20 20 15 28 17 15 21 20 26 29 27 19 29 26 21 24 23 20 19 19 28 24 16 11 24 23 22 22 21 17 16 19 27 24 23 21 15 23 15 15 19 20 21 19 23 23 17 28 16 22 19 21 24 20 29 25 21 14 26 22 30 28 28 35 15 18 15 14 25 27 14 28 23 20 24 22 23 29 16 13 27 25 22 25 26 26 16 28 29 23 27 21 22 26 21 21 29 27 20 23 19 20 16 22 20 28 14 20 21 15 14 22 30 22 30 20 25 24 22 26 25 21 29 28 22 27 16 24 28 22 25 21 22 22 21 23 18 24 23 21 22 20 25 15 26 21 22 21 14 19 29 22 21 19 26 30 15 19 12 21 19 22 25 22 18 20 25 19 24 23 24 23 28 23 28 27 29 14 19 22 23 24 30 23 26 21 32 28 19 18 12 22 12 21 30 37 22 20 26 19 30 20 19 23 30 30 21 16 19 22 19 21 18 16 22 28 27 24 21 21 27 19 19 20 19 23 21 22 19 20 20 21 27 20 26 20 21 23 36 22 16 23 24 24 16 25 22 23 30 31 24 19 19 23 29 24 16 34 12 21 26 19 24 24 19 25 26 21 11 33 25 30 28 20 19 20 26 13 22 25 17 17 28 25 20 20 26 22 18 21 26 21 19 22 12 21 27 26 29 20 17 27 24 23 21 30 15 19 24 19 24 25 22 17 22 21 23 28 24 20 17 22 21 21 17 19 29 25 23 19 20 22 24 28 28 22 16 25 21 26 22 25 16 20 17 29 21 27 21 31 27 16 29 19 24 14 25 22 27 17 19 18 20 25 29 15 30 23 26 16 27 21 28 30 24 27 20 22 27 30 32 24 22 24 20 20 19 25 20 27 19 23 20 26 24 19 22 28 27 20 28 20 25 30 26 16 18 23 22 20 23 22 25 23 16 28 29 19 21 28 22 22 26 23 27 21 19 21 23 17 21 24 21 16 24 18 18 22 24 24 21 21 26 25 14 24 20 23 28 35 25 24 15 20 23 18 21 23 27 18 24 24 30 17 26 19 26 21 20 25 24 23 23 20 19 23 25 18 29 25 23 25 22 25 22 24 15 22 18 27 23 21 24 23 16 19 24 18 25 29 17 24 19 25 20 20 22 27 26 30 21 27 23 17 17 25 15 23 15 23 29 24 26 24 24 27 18 19 30 21 22 30 18 24 25 25 23 18 20 22 17 23 20 17 17 24 24 30 23 23 15 18 19 21 22 23 19 21 27 23 24 26 18 23 20 19 26 20 22 25 24 20 17 31 25 21 12 25 21 26 22 25 28 17 23 22 25 20 20 24 23 26 24 19 22 24 27 22 14 17 24 25 23 15 23 21 28 12 25 23 25 22 29 21 23 19 22 28 22 27 26 19 18 14 27 26 22 21 16 27 16 25 18 14 22 22 12 23 23 24 23 22 22 22 24 23 31 20 27 27 24 22 27 27 19 30 26 15 18 26 23 15 22 24 17 21 21 25 23 23 19 24 17 23 25 27 24 27 35 22 27 26 17 30 25 22 17 15 23 19 31 25 21 23 27 25 25 21 21 24 22 20 12 19 19 30 36 17 27 22 20 25 30 26 26 26 21 26 29 33 24 18 21 19 20 25 24 20 22 23 17 22 28 18 18 26 20 14 23 26 19 23 19 18 20 21 22 22 30 21 18 19 26 23 16 28 22 26 18 16 23 18 24 26 22 28 20 23 25 19 19 22 20 26 22 27 27 26 22 26 33 21 26 16 23 19 24 20 21 23 28 21 24 22 14 20 11 24 14 25 17 22 17 19 28 24 20 21 20 22 28 16 27 24 21 23 21 20 24 21 31 26 25 25 27 27 26 15 21 17 25 24 23 18 23 23 22 28 22 23 24 25 23 20 31 17 19 13 25 19 17 16 24 22 23 22 25 18 26 21 18 30 21 23 22 17 18 20 23 23 25 21 23 19 23 21 27 24 28 28 18 20 29 22 17 24 30 26 31 19 27 25 23 27 25 26 25 10 29 26 19 25 28 32 21 26 24 20 29 22 20 19 26 29 23 16 20 19 28 24 25 28 21 17 16 28 22 21 20 26 17 20 18 22 26 13 26 17 23 19 27 24 21 25 24 21 34 26 23 21 21 25 29 20 21 28 26 23 30 23 22 27 23 19 27 19 15 30 16 30 23 24 19 19 10 22 25 26 21 25 25 19 19 25 22 22 22 24 26 25 22 23 21 20 24 24 22 21 18 19 18 16 24 27 23 19 19 17 14 25 27 25 24 17 21 19 30 27 23 17 23 25 20 27 26 21 20 21 25 34 24 21 26 29 18 27 22 18 25 27 15 21 21 24 18 25 16 21 18 20 22 20 20 22 18 18 22 27 30 16 22 25 34 15 27 36 23 27 21 26 26 22 26 24 26 25 34 16 19 20 15 20 27 27 28 22 25 20 22 31 26 20 17 22 25 21 18 25 30 24 24 20 18 26 27 17 26 16 17 27 19 25 19 22 21 31 12 21 27 22 25 22 29 21 20 23 25 19 25 21 29 19 28 16 19 25 25 30 19 23 23 20 26 18 23 17 22 25 27 25 20 17 20 21 22 20 23 19 27 19 14 22 18 25 26 24 23 25 23 30 31 26 22 23 25 23 22 29 22 24 25 21 24 24 23 23 26 21 11 25 19 21 25 20 24 19 14 27 22 26 23 30 16 24 20 32 21 23 26 19 25 25 21 28 25 20 29 22 20 17 20 19 25 18 26 29 18 28 16 23 19 14 16 27 21 28 20 22 24 23 24 30 29 22 19 26 31 21 17 25 22 28 19 22 26 23 22 26 22 25 23 24 24 15 23 24 23 22 14 17 26 13 25 24 25 21 25 27 15 28 19 19 23 28 19 24 18 18 31 19 15 28 30 21 25 17 31 22 21 16 19 18 18 22 29 20 25 19 19 26 20 20 21 27 23 21 26 23 30 19 22 22 16 22 19 32 20 19 18 28 25 26 23 26 17 19 24 26 29 19 22 26 25 25 21 19 18 26 24 20 22 22 21 27 27 23 17 20 15 17 23 23 15 21 21 13 23 23 26 27 17 23 23 24 21 26 22 28 21 23 23 16 14 26 25 21 25 22 27 19 21 24 17 21 18 23 31 19 23 18 26 20 18 24 17 16 20 24 23 23 20 28 17 17 23 19 26 25 13 24 24 19 21 26 27 23 20 25 19 30 19 23 19 20 19 21 15 21 30 26 21 27 31 23 25 17 17 14 22 22 28 29 21 21 32 24 18 21 26 23 18 15 24 17 18 23 29 15 23 34 22 18 29 23 24 19 16 28 26 16 19 28 16 21 19 24 26 37 23 12 32 20 29 18 23 26 29 28 24 17 26 21 31 15 21 26 21 28 22 23 23 29 24 25 29 23 21 15 18 20 24 20 23 21 25 19 23 33 24 34 28 15 22 24 35 28 19 23 24 24 19 20 27 23 23 18 18 20 22 27 26 14 20 20 24 21 21 21 18 25 13 22 29 22 22 19 17 13 20 20 25 18 23 27 23 21 28 24 24 19 20 20 21 24 16 29 25 23 16 24 30 29 19 30 23 20 15 21 14 27 33 16 27 13 26 19 28 26 21 22 17 20 24 26 19 17 23 21 18 22 26 22 30 25 21 18 24 27 15 19 25 25 18 24 13 22 19 20 16 28 21 24 29 27 19 24 20 18 20 14 15 17 24 19 26 20 21 22 24 18 26 25 23 20 15 21 24 23 21 21 25 19 26 22 29 23 23 22 21 25 21 20 20 24 21 29 17 21 21 24 26 27 22 23 22 23 22 20 25 19 26 27 24 14 26 18 26 26 19 25 21 35 27 15 20 24 13 29 24 26 22 25 25 21 21 21 23 28 22 21 29 26 23 21 27 19 25 27 22 26 17 23 20 18 25 23 36 26 17 17 19 26 24 19 22 26 18 15 15 29 30 17 19 20 22 21 17 23 22 22 22 13 15 22 31 17 34 28 30 23 25 27 21 21 22 19 16 25 24 17 26 22 23 26 20 20 18 22 25 19 24 32 19 22 22 28 26 14 24 21 30 25 25 22 21 22 17 29 22 22 26 14 12 18 18 27 26 22 24 18 23 21 28 24 21 23 25 23 28 26 29 21 20 24 26 25 18 17 23 10 23 19 16 21 27 13 16 25 21 22 26 21 30 17 25 21 25 24 28 26 23 31 13 26 23 22 21 25 19 16 27 17 20 26 23 26 28 28 23 25 29 19 29 24 12 19 18 23 28 28 19 21 24 23 26 25 25 24 27 34 24 15 26 16 22 29 21 12 30 21 18 22 27 29 19 29 27 19 19 18 23 16 17 22 17 20 26 18 17 21 19 20 25 16 23 27 12 17 20 19 26 14 28 21 21 15 23 22 19 23 16 28 21 22 20 27 17 26 19 24 24 24 21 22 22 23 24 14 22 16 22 26 24 28 23 30 23 26 26 24 25 27 20 16 28 28 29 31 26 26 25 25 32 23 21 19 24 22 18 25 26 29 28 25 23 28 26 23 27 31 27 26 19 29 21 30 22 19 21 23 23 30 21 22 22 25 26 26 22 23 20 22 20 26 20 20 20 26 27 17 24 29 24 17 19 17 17 18 28 25 29 21 24 24 34 30 27 19 23 28 24 19 24 24 17 18 25 19 14 25 24 28 16 19 24 14 23 20 28 22 19 24 22 22 27 15 20 21 36 18 21 24 18 34 17 21 21 25 28 27 27 17 20 24 19 22 25 26 21 30 23 25 20 28 21 20 27 27 21 24 17 26 25 25 26 28 26 19 23 27 22 18 21 23 29 31 17 20 20 21 21 22 27 14 22 21 22 19 15 25 25 24 15 23 18 18 23 18 26 21 24 24 18 24 25 19 18 22 18 26 18 23 24 21 22 22 16 23 14 26 24 31 16 19 18 19 24 33 28 19 20 22 21 20 22 27 22 22 21 21 25 18 22 21 28 24 26 25 21 13 26 28 25 24 25 22 22 24 23 18 27 19 22 25 24 13 21 15 27 27 18 23 28 20 20 24 28 17 23 30 25 16 30 26 20 20 28 32 16 29 25 22 30 30 21 15 24 10 16 26 26 16 23 18 23 16 20 22 20 21 23 20 23 23 29 20 13 27 27 16 26 25 16 21 21 26 19 25 24 22 18 19 24 25 15 26 26 25 20 23 23 28 23 17 23 26 21 19 18 18 23 20 21 20 18 22 20 21 13 19 17 17 22 27 22 28 19 22 20 16 23 25 21 21 27 10 23 19 19 18 20 25 25 21 24 21 26 24 25 26 22 22 17 24 20 17 24 17 31 21 18 20 17 25 24 25 18 22 17 26 20 19 26 19 27 33 14 20 12 22 20 24 25 18 24 20 18 21 20 18 18 24 22 22 27 38 24 27 27 21 27 18 28 23 16 29 20 16 27 22 17 29 18 19 9 23 20 19 21 20 14 25 23 24 18 21 23 37 23 21 23 24 18 23 15 22 25 19 18 17 24 26 24 27 23 21 20 21 22 28 17 24 26 17 24 19 12 21 20 18 24 21 19 18 25 23 18 22 21 26 18 18 16 22 17 17 19 23 22 25 19 22 16 26 26 17 18 25 25 26 16 15 18 22 23 23 23 32 19 22 25 25 24 18 24 21 21 23 21 18 25 20 20 26 19 19 22 19 21 27 21 21 15 19 23 19 16 19 18 22 24 29 20 23 28 25 30 25 26 20 28 24 26 23 22 17 16 26 26 25 19 23 19 28 22 22 22 28 20 22 27 15 19 24 23 27 24 25 17 24 20 14 22 24 26 29 19 16 21 26 20 18 22 23 22 22 18 29 24 28 19 25 21 22 22 24 20 25 21 20 16 25 24 18 28 21 24 17 22 23 26 18 19 16 23 19 26 21 27 21 18 19 23 28 23 34 32 20 25 20 21 27 24 29 23 33 27 15 17 25 23 24 20 34 27 16 25 27 23 17 23 24 23 29 23 27 22 26 22 22 18 20 20 22 24 24 19 20 16 22 20 13 20 21 19 17 14 23 23 24 19 25 29 22 16 23 22 25 19 23 19 22 23 23 25 25 20 21 17 22 21 21 25 21 26 26 16 26 26 24 20 12 24 21 25 20 24 30 23 22 18 20 26 21 21 18 18 23 14 22 20 22 26 24 21 27 19 19 22 28 24 18 28 26 27 32 16 26 24 19 27 20 22 33 21 19 18 29 20 23 20 23 29 23 13 17 26 22 25 24 29 27 19 24 17 25 21 15 23 21 25 16 26 29 21 20 20 24 25 27 18 22 25 19 23 29 23 26 25 25 28 21 22 19 20 20 26 19 25 25 21 25 34 25 21 33 21 24 24 23 27 23 20 19 29 20 16 18 19 20 27 23 17 22 23 19 16 26 18 25 23 17 17 17 17 22 24 17 21 27 19 24 20 24 31 24 20 19 24 30 25 22 18 23 22 24 19 21 15 20 30 25 27 23 28 21 22 29 20 17 25 32 20 21 17 16 17 23 25 20 29 25 23 23 19 30 22 20 18 25 19 26 26 23 17 29 25 19 28 23 18 26 21 29 19 17 20 17 18 28 25 20 24 26 25 26 20 18 20 23 22 18 26 19 28 16 21 19 18 15 29 20 23 16 13 16 32 20 22 29 25 32 17 25 17 19 24 29 20 22 25 18 23 21 32 25 28 17 20 21 15 17 25 27 28 24 18 15 19 22 29 18 27 22 20 18 24 21 21 31 24 20 32 25 17 25 24 25 32 19 27 22 18 23 22 21 24 33 31 22 23 18 17 19 32 27 13 18 24 22 31 24 14 31 17 22 25 16 24 19 15 18 33 28 21 29 22 17 19 24 20 29 19 27 29 29 19 23 24 28 20 29 27 30 22 23 16 32 19 17 19 28 20 21 14 18 21 22 22 24 14 24 19 22 18 23 26 25 22 24 18 18 26 27 26 20 18 31 19 30 19 15 21 26 21 25 23 19 26 21 19 19 20 26 25 16 22 20 31 22 29 22 20 25 33 23 26 20 21 19 26 15 22 26 23 24 17 21 17 24 30 17 19 16 26 20 21 20 22 20 23 22 19 29 20 12 23 17 17 29 28 29 22 18 25 31 27 21 17 29 18 24 21 23 25 25 22 21 23 24 21 27 26 28 21 24 26 28 20 13 15 24 25 32 21 26 23 22 25 17 26 25 19 22 24 18 26 29 22 23 25 22 20 20 24 24 25 22 21 31 16 25 23 22 27 24 17 24 19 23 20 17 26 22 22 23 24 25 27 25 22 15 40 27 26 23 21 31 19 28 20 23 19 17 19 20 22 23 24 24 18 19 25 25 25 21 19 17 25 21 19 18 17 26 35 20 15 23 19 26 28 15 24 28 17 19 28 25 22 15 20 16 25 19 22 20 28 23 23 19 17 14 26 20 29 30 15 26 20 26 24 22 19 28 22 24 21 25 18 16 22 15 22 20 12 19 21 18 19 22 16 26 33 27 24 18 27 23 20 26 22 22 23 22 24 25 19 25 26 20 16 21 22 22 23 20 34 25 26 28 25 23 22 15 23 25 21 26 16 28 24 24 15 23 22 20 28 22 21 16 30 26 21 27 23 26 15 28 23 27 20 22 21 25 23 25 29 19 24 25 15 23 16 19 21 18 21 28 15 15 19 23 19 21 24 23 23 17 15 28 13 21 21 23 24 24 26 16 21 20 27 20 30 26 19 26 15 28 18 24 22 27 17 26 25 22 26 17 19 17 28 31 30 27 30 17 16 21 32 22 27 23 22 16 23 24 24 24 32 31 12 34 27 26 31 23 14 20 20 15 21 17 17 31 26 17 26 14 27 17 24 27 22 18 27 22 23 25 18 24 18 23 32 28 18 24 26 16 21 10 27 20 18 23 22 20 24 27 14 21 23 15 27 20 20 24 21 18 22 22 29 36 28 21 28 23 18 20 19 27 20 18 19 22 17 26 25 22 20 18 26 26 22 24 22 20 25 24 24 23 24 23 24 22 26 18 25 28 21 21 18 27 18 23 20 18 19 27 23 27 18 12 27 27 18 32 22 22 15 21 27 19 27 20 25 18 22 21 27 21 19 29 21 22 22 22 21 22 19 22 21 23 18 19 14 30 16 26 30 26 21 28 27 14 24 23 28 33 16 24 24 20 15 22 26 26 21 19 19 30 21 25 24 21 22 15 15 28 22 17 23 20 20 25 18 24 16 18 27 20 17 20 17 17 26 26 26 17 27 28 22 27 24 27 23 22 20 15 28 15 24 35 24 26 27 23 25 24 14 18 25 22 24 22 33 22 26 19 25 17 28 17 27 25 18 24 24 15 21 19 19 18 24 21 23 28 26 16 21 19 24 30 27 22 21 23 20 22 26 22 24 27 13 22 24 25 23 29 24 28 20 31 17 22 25 25 20 26 20 17 35 25 25 22 16 21 19 18 23 26 22 19 24 26 21 28 28 17 27 29 27 29 15 19 22 22 19 28 15 21 27 23 17 20 16 27 22 21 22 23 20 18 21 24 29 25 23 22 28 27 20 21 24 17 17 12 22 18 21 17 26 27 25 22 22 17 24 27 26 27 16 20 22 24 21 13 23 17 21 24 23 24 22 17 27 16 22 18 19 21 18 23 29 18 20 21 18 22 22 14 27 23 23 21 26 21 22 19 19 30 21 22 24 21 22 27 18 22 23 24 24 27 22 23 18 23 19 26 25 26 16 20 22 33 14 23 20 16 27 23 17 23 22 25 25 19 19 17 23 23 22 20 20 27 18 30 23 25 26 23 22 13 20 19 15 21 24 17 24 21 24 21 21 27 18 21 22 21 13 23 22 26 22 25 20 24 21 20 14 18 11 18 20 15 23 20 28 21 29 25 21 26 19 24 20 18 16 15 18 23 20 19 22 25 22 19 25 23 20 21 21 24 23 22 19 25 27 23 27 22 19 30 23 29 19 24 23 25 16 27 22 18 27 25 15 27 28 21 26 23 27 13 23 26 23 14 24 28 30 20 15 18 25 21 30 23 23 25 17 32 22 27 20 32 24 26 24 16 25 23 15 25 20 22 27 20 24 26 28 20 24 21 16 21 17 23 28 26 24 20 20 25 29 27 20 28 21 25 25 29 23 23 23 23 22 20 25 17 29 28 20 28 24 21 18 25 20 24 17 19 17 25 18 17 22 27 26 30 23 23 16 23 33 25 30 21 25 28 20 24 26 22 25 29 16 30 21 23 23 20 25 21 25 26 19 17 25 20 29 24 20 15 32 18 28 18 23 25 19 23 22 18 25 22 22 25 25 22 21 30 24 24 18 18 22 18 19 21 17 15 25 24 30 33 23 23 21 27 22 18 19 23 18 24 25 23 22 21 27 19 24 19 18 20 24 21 17 26 17 22 21 23 17 23 20 26 22 23 20 26 30 26 17 18 22 18 22 19 24 27 17 29 16 27 21 28 26 25 18 20 27 22 20 18 17 18 25 17 13 30 19 22 25 15 17 13 20 18 33 21 20 21 27 21 18 26 16 22 22 23 21 27 19 19 13 23 25 26 24 20 23 27 19 20 20 20 21 21 24 23 31 20 19 23 29 20 25 26 21 25 20 23 19 25 21 17 23 23 26 23 21 25 32 25 25 24 25 19 19 23 15 25 39 30 22 17 27 21 20 21 20 17 20 21 21 25 21 23 19 22 28 17 20 26 24 21 30 24 26 20 16 30 17 29 12 22 28 32 30 21 20 22 19 18 26 16 23 25 18 21 20 23 25 15 17 21 22 20 16 25 21 23 21 19 20 21 17 18 22 32 20 19 25 23 20 18 21 20 17 19 17 25 21 24 19 18 19 18 28 28 26 24 24 23 19 16 23 26 23 26 11 17 21 21 27 29 13 25 22 22 23 28 25 31 24 19 24 28 21 24 23 27 27 27 20 25 27 19 23 22 22 32 23 15 21 26 25 27 17 18 23 24 29 19 24 25 24 19 22 27 30 20 25 22 25 23 19 15 29 25 25 17 16 21 26 16 24 20 30 21 25 27 23 28 26 22 25 20 22 24 19 28 15 15 27 16 15 18 26 14 21 20 22 18 27 16 21 18 20 22 22 29 24 30 23 22 19 20 17 20 15 18 24 34 22 16 23 23 24 15 20 22 28 22 15 40 22 26 15 21 27 26 23 24 19 24 18 29 16 26 18 27 19 24 21 23 24 25 21 28 21 19 17 31 17 29 24 19 29 20 14 12 21 28 19 23 22 17 29 15 24 16 20 22 24 26 19 17 22 21 16 28 20 21 27 22 17 19 30 22 19 18 21 22 27 25 24 16 17 32 29 27 22 29 15 29 16 17 25 25 26 25 13 18 28 16 20 19 25 29 18 18 23 19 22 17 22 30 22 29 20 21 21 28 30 30 28 31 28 28 34 27 25 30 24 20 24 16 23 16 17 28 21 22 17 27 22 25 19 28 21 23 24 13 25 25 18 24 21 17 27 18 29 24 25 24 21 23 18 17 18 30 14 18 20 23 21 38 23 24 30 25 26 23 22 24 22 21 20 24 18 22 19 18 17 15 18 17 25 19 18 24 20 25 21 21 21 26 27 30 26 17 25 18 22 27 24 20 22 19 24 24 24 21 27 21 28 23 16 20 26 18 22 24 19 20 25 20 22 19 16 16 22 19 17 22 31 24 18 21 17 22 20 18 17 30 20 29 24 17 25 21 22 19 23 25 19 23 23 20 24 22 21 20 23 27 35 21 18 27 23 14 23 21 23 15 25 30 19 21 27 17 25 22 16 18 16 27 20 17 31 29 23 31 26 36 31 22 21 21 24 23 31 21 17 16 28 16 24 25 25 20 24 24 31 23 26 29 25 26 27 20 25 26 14 20 23 31 18 29 19 27 21 28 23 33 26 19 26 23 24 19 21 20 13 22 18 23 22 29 30 21 21 30 20 20 19 20 14 28 16 23 16 15 22 17 23 25 18 24 28 24 19 25 27 28 15 24 17 22 30 25 25 25 20 23 21 21 26 28 16 21 15 18 19 24 30 26 21 32 14 29 25 23 24 27 30 22 25 23 18 22 24 20 24 21 29 26 27 30 23 24 20 26 22 26 20 18 29 24 25 28 22 20 23 23 25 25 19 20 21 19 19 20 18 25 12 23 21 23 19 19 21 17 30 19 23 16 26 16 22 17 16 26 29 30 21 22 30 21 28 24 23 29 21 29 27 19 21 18 19 20 25 26 19 27 24 19 23 23 19 32 21 20 18 24 21 22 20 25 25 21 22 25 33 25 19 28 26 28 22 16 25 28 19 19 22 29 20 28 21 26 16 27 19 23 19 20 19 20 19 14 30 34 27 17 20 12 21 22 22 22 19 16 19 29 33 27 30 25 15 25 22 14 24 19 16 23 19 24 24 17 17 24 20 25 21 19 22 30 27 24 27 20 24 25 26 24 20 24 20 19 17 21 25 26 25 26 28 23 17 25 23 25 25 23 33 18 22 21 23 21 25 19 27 29 23 18 23 23 24 21 22 28 24 20 25 26 14 20 24 21 23 20 23 20 20 21 25 21 24 18 18 19 20 21 17 23 22 20 19 18 27 22 26 31 20 22 18 9 24 22 20 15 19 19 10 21 29 25 30 20 27 14 24 25 19 20 35 29 18 22 29 29 27 22 24 18 19 28 20 24 20 24 25 26 22 18 17 23 19 25 30 28 17 18 23 23 17 18 23 26 23 22 21 26 22 19 23 19 28 29 23 19 23 27 19 23 22 18 21 26 19 23 23 27 24 20 22 16 27 22 31 31 25 20 13 27 23 22 23 19 25 24 24 21 22 23 20 18 25 23 22 31 16 17 28 28 19 20 29 30 22 18 22 22 25 23 25 15 25 17 19 26 24 24 26 27 19 26 27 12 15 26 21 19 21 14 20 21 21 19 27 17 19 27 26 26 14 17 26 23 25 24 18 28 22 23 23 13 19 26 20 26 21 20 25 16 22 21 24 26 22 22 21 22 20 28 19 22 28 23 19 32 23 20 25 27 14 15 15 23 17 23 19 30 23 25 17 22 26 24 22 32 25 25 23 21 21 24 26 21 26 25 20 17 36 18 27 22 23 21 24 19 21 17 23 20 27 25 20 22 20 23 23 19 25 22 25 16 21 22 16 24 30 22 24 25 26 29 25 20 21 24 23 28 11 23 27 14 22 21 21 23 21 27 17 26 29 10 27 25 20 19 21 20 18 30 13 28 17 24 25 26 22 19 17 26 26 23 19 25 22 25 17 25 24 23 19 32 23 15 23 22 23 19 25 20 22 20 25 17 24 11 29 19 17 21 22 20 26 29 27 20 18 25 20 26 18 20 22 21 14 21 19 15 23 23 13 25 25 26 25 16 22 12 29 23 17 26 25 23 21 20 25 24 15 20 19 17 22 25 23 28 19 24 28 19 17 18 27 25 22 25 15 19 24 17 21 26 22 26 21 29 22 26 16 38 24 26 26 11 21 25 27 29 22 18 18 27 27 25 24 17 21 19 21 24 19 27 25 23 22 23 24 21 19 27 16 25 22 16 17 27 21 30 23 22 22 20 25 19 23 24 29 25 27 19 17 26 24 25 24 22 16 17 21 15 25 24 18 21 15 23 23 29 25 26 17 21 19 20 23 20 26 26 24 21 24 27 19 24 28 24 14 25 23 22 21 21 26 18 21 20 20 20 26 21 22 20 18 22 22 24 19 16 26 18 24 16 27 26 17 28 14 22 19 20 18 22 18 28 20 20 21 21 17 24 23 22 33 24 25 25 25 19 18 29 24 22 25 23 20 21 28 20 18 24 23 23 17 16 14 21 16 25 25 20 25 11 20 24 16 15 23 22 23 27 31 22 20 25 23 26 23 21 23 27 24 19 22 29 22 21 21 25 23 33 25 22 24 29 25 23 20 18 26 26 20 22 28 22 16 27 18 16 17 27 17 18 17 29 23 23 26 26 23 21 27 23 26 27 19 14 19 22 22 28 27 20 20 24 16 18 23 23 25 21 18 18 27 19 22 20 22 28 24 16 32 23 9 22 21 17 28 30 22 13 12 19 19 31 25 25 21 27 21 23 15 27 19 19 17 25 19 15 20 17 23 22 21 14 26 29 23 14 18 18 31 24 27 26 20 26 21 19 29 26 17 20 26 13 18 23 30 18 18 19 18 17 18 23 21 14 17 25 25 17 30 26 30 22 17 31 23 15 30 25 24 20 20 21 26 33 23 27 29 17 21 25 29 15 19 21 17 19 22 20 25 19 21 29 25 19 17 16 19 12 22 22 17 26 19 18 22 19 25 25 31 27 23 24 31 14 27 25 29 21 24 12 21 26 12 27 24 26 21 24 19 18 23 32 22 24 28 29 20 26 20 24 28 30 22 24 19 16 18 19 20 31 19 27 22 33 26 29 32 22 18 25 16 19 19 17 22 17 22 13 19 24 24 24 22 22 24 20 19 24 20 23 20 19 16 20 22 15 23 26 17 25 19 17 15 22 19 15 20 24 24 25 22 19 18 24 26 21 23 21 22 22 18 15 24 25 23 26 24 19 28 26 23 24 17 20 26 21 14 27 24 23 14 15 32 19 29 16 22 21 34 23 24 19 32 26 23 29 18 31 17 19 27 22 21 21 19 14 23 20 19 21 21 18 17 29 28 22 30 27 24 25 26 19 29 21 28 23 19 17 29 29 20 29 25 22 16 21 18 30 28 16 23 22 22 22 23 21 16 29 31 19 24 26 25 13 26 26 22 23 22 16 19 28 18 29 28 18 18 24 15 22 19 25 21 26 23 20 22 25 25 24 36 20 19 30 15 16 33 22 27 23 12 30 17 27 31 19 13 25 18 28 13 22 26 19 20 21 17 21 20 18 26 23 19 19 33 25 18 12 24 26 29 16 25 16 19 23 25 26 19 30 20 16 23 26 34 28 26 26 18 25 26 13 32 17 16 30 19 21 25 19 21 22 22 21 25 24 22 28 31 25 25 20 26 23 26 27 27 29 23 15 24 25 26 28 16 23 23 26 22 25 16 22 22 23 20 26 27 16 24 28 21 20 20 24 25 19 25 29 17 26 17 23 27 21 20 26 23 18 20 27 14 21 19 23 29 22 18 27 17 26 21 37 23 23 13 17 23 28 13 24 26 23 21 30 19 28 30 26 33 25 21 27 27 29 21 17 22 29 23 22 23 17 25 18 23 22 20 23 20 28 18 21 24 23 27 20 26 25 24 18 20 22 24 21 21 18 23 25 16 30 17 21 17 21 23 17 15 20 28 31 27 22 20 21 14 31 25 29 23 22 18 26 23 31 18 26 23 20 22 14 25 24 29 13 20 27 23 21 19 21 28 28 20 24 20 25 16 28 21 22 15 22 26 23 21 24 22 34 17 30 21 24 33 15 22 24 19 16 26 20 23 30 17 25 21 21 26 20 30 12 15 31 20 26 19 19 25 23 21 20 25 20 28 21 22 15 20 24 21 18 16 26 17 14 23 24 21 24 21 18 16 26 21 21 19 16 20 21 22 18 26 31 20 20 24 21 17 20 20 23 27 25 20 27 22 24 26 21 18 20 24 22 27 25 22 26 21 19 25 24 32 25 21 19 23 20 30 28 22 18 32 19 20 19 18 28 24 20 16 27 24 26 13 24 28 23 18 24 25 25 26 13 27 18 22 21 25 24 24 24 21 25 17 23 19 22 23 21 24 17 16 24 21 23 21 22 25 23 23 29 30 17 23 30 31 15 21 19 26 22 20 27 18 21 25 29 22 22 15 24 24 18 13 27 20 24 24 27 15 30 20 23 18 22 21 14 18 21 22 26 22 29 26 28 19 26 23 27 27 18 17 20 14 26 32 22 26 15 28 20 23 20 26 26 22 22 16 22 29 17 26 17 23 28 19 14 21 20 17 20 21 22 26 27 23 25 16 22 25 19 19 21 21 21 20 24 24 25 22 22 27 20 29 21 16 26 28 23 21 12 21 19 19 19 15 24 19 14 18 22 25 26 22 23 26 16 19 30 24 16 18 17 25 17 28 25 17 30 24 21 24 26 14 22 24 23 20 17 30 13 25 26 18 22 30 11 22 23 23 22 19 21 25 20 19 23 19 25 21 26 27 24 26 28 18 24 29 18 27 17 24 24 25 27 13 23 27 29 25 26 21 18 20 23 22 20 21 16 23 22 24 20 28 14 28 15 26 20 17 28 23 22 28 16 21 19 19 26 15 17 20 23 20 16 24 23 22 24 19 20 22 23 15 30 29 21 22 22 31 16 23 21 30 20 28 20 21 19 26 23 20 22 28 24 20 19 19 25 26 22 25 22 18 21 24 22 26 19 25 22 23 27 24 26 22 21 24 33 21 17 21 20 21 21 21 19 11 23 22 31 23 25 24 22 21 22 19 22 29 19 17 26 27 19 18 24 17 24 18 20 27 17 23 17 21 26 29 24 8 19 22 22 16 22 17 25 24 22 23 17 25 24 21 13 20 26 25 31 20 19 25 23 22 21 20 18 24 23 23 22 18 20 19 20 25 25 19 24 21 21 27 23 17 28 13 17 17 22 15 27 14 23 22 20 15 21 29 19 19 24 18 28 23 26 21 24 15 28 18 31 25 23 17 21 24 24 24 22 16 22 24 26 24 29 21 22 19 29 28 23 24 25 24 20 28 20 23 19 26 27 22 21 23 21 20 16 27 17 24 24 23 25 22 31 13 28 27 17 28 26 22 24 23 23 15 20 20 23 24 34 29 28 26 20 23 24 25 26 26 24 21 23 19 23 26 20 23 27 28 20 22 27 24 28 22 24 27 20 17 22 24 24 28 25 25 24 21 25 26 18 18 19 21 16 18 17 16 17 20 15 11 18 23 26 24 20 20 24 14 24 21 17 28 27 20 24 17 25 23 25 26 27 25 22 19 27 28 17 16 21 20 19 25 25 14 25 17 22 26 29 30 24 27 17 17 23 20 24 21 35 30 32 24 27 25 24 23 22 24 19 24 25 25 22 19 20 18 30 22 25 28 24 23 20 14 21 18 27 21 21 19 28 26 25 21 22 16 24 25 20 22 26 31 27 18 29 26 18 24 19 18 26 20 20 23 20 24 29 20 22 22 19 21 25 25 36 21 21 19 20 29 19 21 26 24 26 19 26 16 21 19 31 22 18 23 21 20 21 19 29 24 21 18 18 20 19 29 28 26 17 20 28 24 15 14 16 16 20 25 25 21 27 25 26 31 23 17 27 22 24 25 24 16 14 25 22 23 16 21 19 24 27 26 29 26 22 25 25 29 26 20 21 25 28 22 23 18 20 21 15 29 23 18 23 20 14 15 24 31 19 27 18 27 22 22 24 22 21 23 19 20 29 21 23 22 33 20 19 23 13 24 21 21 16 11 19 17 24 26 24 16 29 20 25 26 26 21 24 20 21 22 21 17 26 17 23 21 31 24 24 24 13 23 29 11 28 20 25 24 18 29 19 26 25 24 26 26 27 24 22 21 19 20 21 21 23 25 23 27 22 25 21 25 26 27 20 19 27 24 22 23 22 21 22 29 25 21 27 25 21 19 22 24 21 19 25 22 20 16 22 37 23 13 22 17 23 19 26 21 26 18 33 23 26 23 28 23 18 15 26 19 23 23 29 20 23 24 26 28 24 28 23 19 23 27 22 17 22 24 23 25 24 31 25 18 20 23 20 26 22 23 20 30 24 23 14 17 23 21 23 19 17 16 26 21 21 18 22 20 22 30 25 19 21 16 23 20 21 22 18 20 22 32 16 23 18 21 15 21 26 29 25 21 19 28 23 20 19 19 22 26 14 22 19 15 18 25 19 22 26 23 20 18 23 22 26 30 20 27 26 24 22 27 20 36 32 28 21 21 25 23 20 18 24 31 21 21 15 14 21 24 20 17 20 26 17 26 23 24 21 21 24 25 20 24 28 19 19 21 21 22 20 21 22 27 18 18 14 20 28 25 20 23 22 19 16 23 24 30 23 20 20 16 21 27 20 26 25 28 18 24 21 25 24 27 29 24 17 20 22 23 18 26 23 20 26 18 21 18 20 24 23 28 21 13 21 22 23 19 21 27 26 26 28 22 14 27 24 26 23 32 23 21 18 22 26 28 21 21 26 25 16 25 26 30 21 18 29 23 21 28 23 17 23 28 20 19 20 21 26 21 25 32 24 21 22 18 22 22 27 28 23 26 20 18 21 22 20 17 24 22 19 14 21 14 26 18 16 22 24 19 21 24 26 24 20 20 21 20 28 20 26 22 30 22 16 18 26 18 25 23 32 23 22 24 31 17 25 22 28 23 15 17 17 32 24 25 26 17 10 20 29 21 21 27 27 22 23 27 17 23 29 24 19 16 23 23 17 16 25 23 28 34 24 26 29 21 28 18 25 21 17 23 24 25 31 27 33 13 31 20 21 19 19 29 19 23 20 19 26 25 25 19 17 30 25 12 15 18 24 27 17 25 22 20 18 26 24 22 21 26 21 18 23 17 22 22 16 12 23 22 19 23 23 22 26 24 10 27 17 20 24 25 26 22 27 32 21 22 32 28 27 19 24 26 20 23 25 22 12 21 24 22 22 23 17 22 19 27 25 23 29 22 31 32 17 15 22 16 20 29 25 27 27 24 14 21 22 23 31 19 20 26 28 27 17 24 31 17 19 22 17 15 22 23 31 23 23 20 23 26 18 24 17 22 27 23 24 19 21 23 26 22 20 27 23 26 25 21 23 26 22 20 21 24 16 28 28 24 27 18 27 27 21 18 22 28 22 20 24 21 16 24 23 24 16 25 24 19 25 21 19 23 28 20 24 21 19 22 26 23 22 16 27 22 32 21 25 25 27 24 20 27 24 30 21 24 23 19 18 25 22 26 17 25 20 23 20 22 17 22 20 20 18 20 31 17 24 22 16 23 27 28 18 21 26 22 20 23 12 32 18 22 21 21 22 22 21 20 11 24 16 20 24 23 20 23 25 19 23 30 30 28 18 18 24 27 24 20 24 25 13 13 21 23 21 17 16 21 25 21 24 19 19 27 26 25 28 24 28 25 29 25 25 31 25 25 15 22 23 21 22 21 21 26 20 23 31 28 21 16 20 22 28 22 23 23 20 18 21 23 19 25 26 27 26 19 19 25 18 26 29 19 21 25 21 26 32 29 28 22 25 19 22 22 17 22 20 28 23 18 21 16 24 21 28 22 18 28 27 14 17 24 17 19 34 17 22 19 24 16 27 18 16 32 23 19 23 22 30 20 30 19 23 24 25 31 21 22 23 21 26 22 24 28 19 20 33 25 26 23 16 21 26 22 13 23 25 16 23 22 15 21 21 19 19 25 26 26 20 31 27 28 31 24 20 21 19 24 24 14 25 26 24 20 21 19 23 27 14 19 19 23 14 29 23 23 22 23 23 23 35 22 19 16 28 17 21 25 21 34 27 24 24 23 30 18 24 22 27 24 23 16 25 20 27 23 16 12 14 19 19 26 29 28 26 27 24 17 27 18 28 23 22 23 25 17 27 28 34 19 18 26 21 27 21 30 22 27 31 24 23 26 28 23 17 23 19 16 24 24 18 15 21 29 33 18 27 25 20 20 28 24 23 25 30 21 14 22 22 26 21 28 19 25 23 33 17 23 19 21 19 20 18 21 19 15 20 28 26 20 35 19 16 23 19 24 19 22 17 16 19 23 29 25 21 21 26 24 19 20 25 23 23 28 26 27 23 23 25 20 23 23 24 22 26 22 22 27 27 12 32 28 24 25 23 20 24 21 18 21 28 23 31 23 20 26 19 24 25 18 17 15 25 22 32 24 24 25 20 22 22 21 28 24 17 26 30 32 18 22 24 26 27 26 21 26 29 24 26 23 34 27 28 20 23 22 21 21 17 21 24 30 24 24 16 30 34 21 20 21 20 22 27 26 22 25 25 30 26 28 20 23 13 23 19 20 17 24 20 25 22 20 25 23 17 30 17 27 26 29 18 19 21 27 17 12 23 27 21 20 17 15 25 30 21 25 23 28 23 33 25 15 25 28 21 29 21 19 21 27 19 20 19 24 20 24 24 20 27 16 26 22 16 17 27 23 19 15 20 32 26 20 26 21 21 17 24 22 22 28 21 26 24 21 21 22 24 18 24 29 22 22 27 24 23 16 23 25 13 28 28 27 20 21 23 19 28 24 20 20 29 24 20 26 23 24 31 23 25 24 19 28 19 22 27 25 27 22 21 30 21 15 19 29 33 27 29 18 27 19 23 30 31 15 27 30 35 21 21 22 24 24 19 26 17 22 22 18 32 23 24 22 20 26 23 33 26 19 20 27 19 27 24 23 26 17 13 21 22 24 34 22 21 29 32 24 22 24 26 15 23 27 18 21 24 31 28 19 22 24 26 21 22 26 18 22 19 24 12 28 16 20 20 27 31 22 20 21 25 25 22 25 28 24 21 27 24 32 27 19 24 23 28 25 22 23 26 25 14 22 26 28 22 23 23 29 30 22 27 25 32 19 20 21 22 20 23 17 22 29 18 17 13 17 23 27 33 21 15 27 25 28 26 21 18 23 20 31 20 17 18 22 28 22 27 17 25 25 20 20 21 30 21 24 22 24 23 18 23 20 23 36 23 24 21 23 24 24 24 19 22 14 17 22 30 18 34 30 20 36 17 27 25 25 26 21 23 25 18 22 18 18 20 20 26 29 31 23 21 22 19 25 20 26 20 30 27 18 25 18 27 31 17 24 25 29 11 30 21 27 26 24 22 24 24 32 18 23 22 27 21 23 23 23 27 18 30 12 24 17 24 21 17 27 30 20 15 20 16 18 15 26 25 25 25 23 23 24 26 24 28 23 24 28 22 21 27 24 25 21 15 15 19 30 19 23 20 31 18 16 26 19 22 32 22 21 22 26 26 25 20 29 24 24 25 24 14 22 26 34 15 25 17 24 23 30 28 22 26 22 16 29 20 35 27 27 23 21 29 26 23 24 19 26 25 26 24 26 17 25 19 16 19</t>
-  </si>
-  <si>
-    <t>NIG(127.6159823778879, 83.7876543636682, -2.379684422738956, 41.39488009615982)</t>
-  </si>
-  <si>
-    <t>43 34 40 29 34 29 22 30 38 36 32 32 23 34 32 24 26 27 38 38 28 36 46 41 33 36 34 31 40 39 28 39 28 36 36 38 27 31 30 23 31 38 33 34 40 29 36 21 39 35 26 26 38 32 42 31 36 30 28 36 29 40 40 39 31 34 32 37 34 33 29 37 32 21 41 31 21 28 40 34 37 39 31 26 35 29 42 34 30 38 32 31 29 40 31 32 30 36 30 35 37 29 26 36 28 26 36 37 25 35 21 46 39 24 41 36 37 32 33 25 35 43 43 33 32 29 35 26 37 33 37 36 24 32 33 34 30 32 36 41 41 46 45 31 35 26 36 32 26 36 38 34 29 32 30 37 37 39 28 29 28 37 31 38 37 35 29 38 31 32 29 38 36 41 43 32 41 28 42 30 37 37 32 31 39 23 45 32 32 34 29 29 36 33 40 22 44 33 33 27 42 43 36 27 41 37 36 37 35 29 31 39 32 32 32 30 25 31 35 35 20 36 28 40 28 26 34 38 34 42 34 33 42 32 27 42 31 33 21 33 21 43 32 35 27 36 46 22 28 36 34 34 35 28 28 45 52 39 40 35 30 39 33 29 34 44 25 28 27 37 28 30 34 41 39 33 43 29 32 36 30 34 37 33 30 43 21 38 30 49 41 28 36 26 33 40 39 43 27 25 31 38 36 28 30 34 29 37 41 25 41 35 44 34 37 46 34 35 34 29 32 44 39 42 43 30 28 33 40 36 29 32 35 36 34 43 29 32 36 26 47 41 34 30 25 26 43 35 37 24 50 31 37 40 33 26 38 25 37 35 41 30 34 34 44 32 37 33 32 36 37 29 34 39 34 28 36 41 37 27 30 27 33 33 30 32 31 35 32 29 37 26 33 29 40 27 42 36 37 28 33 33 28 42 28 22 31 33 29 30 41 29 36 36 35 31 26 24 28 35 34 31 30 36 41 44 35 36 34 36 27 43 38 41 36 30 26 33 23 29 43 28 43 28 33 36 44 29 42 30 34 32 23 24 33 38 38 35 39 43 36 24 34 32 35 41 35 34 33 37 34 35 35 29 31 30 36 42 34 46 32 37 40 33 33 35 32 42 36 30 35 30 29 33 28 37 32 30 38 28 34 34 31 44 34 36 24 35 28 29 35 32 31 32 14 33 40 34 25 38 36 30 30 36 29 30 34 30 41 42 30 28 33 32 25 28 37 35 26 32 39 32 38 34 29 31 24 34 28 32 36 35 28 44 40 37 38 35 24 26 23 35 23 35 31 37 28 26 32 41 41 42 36 34 36 34 45 25 40 33 39 32 32 43 33 39 33 25 36 32 28 43 31 29 41 32 38 29 50 31 20 37 31 38 36 35 37 39 38 34 28 27 35 44 41 26 35 30 27 29 34 42 31 36 40 28 25 43 43 31 41 34 40 37 34 32 37 44 35 35 33 38 34 40 44 27 31 35 38 32 35 38 28 24 36 35 33 36 33 33 26 34 29 22 33 33 34 32 25 39 33 34 25 33 27 27 34 38 46 28 30 34 38 32 41 36 17 37 24 23 41 25 37 32 47 36 38 23 30 25 31 30 31 26 29 40 40 34 44 33 26 26 47 34 39 34 26 27 30 34 41 32 40 36 45 28 38 32 36 29 31 36 36 36 39 33 41 35 33 30 36 26 32 35 45 46 34 37 29 31 40 35 45 24 38 29 32 37 44 30 41 32 38 28 31 32 34 35 30 32 27 22 36 32 34 36 36 30 41 33 32 37 25 28 36 41 31 41 33 29 36 31 29 36 37 33 38 44 41 36 40 34 26 35 25 42 37 37 36 27 42 35 26 34 26 32 23 26 30 33 30 41 36 29 34 35 39 36 33 34 36 30 29 30 36 31 40 28 32 33 29 30 34 21 41 43 31 31 40 32 31 31 37 34 24 27 38 39 33 33 31 32 36 33 27 33 31 37 28 38 44 36 33 36 32 37 42 33 34 32 32 25 35 23 30 28 43 31 30 30 35 29 34 29 31 33 41 37 29 34 28 39 25 34 35 24 35 38 42 38 38 34 27 37 34 27 28 25 30 37 36 33 29 40 28 27 36 30 34 39 27 27 37 26 45 35 32 31 31 24 36 32 24 34 34 29 34 29 41 36 26 29 31 41 36 38 33 39 45 29 46 37 25 21 27 27 24 32 37 26 43 32 32 34 29 40 26 29 42 30 41 45 34 42 37 28 36 35 22 37 24 43 40 31 26 31 29 34 26 29 36 41 35 33 22 20 55 43 38 38 29 35 28 33 26 27 34 43 34 39 23 37 29 32 26 28 32 27 39 34 35 38 37 21 38 31 31 39 23 27 35 45 30 32 35 34 20 30 28 39 28 30 38 45 35 32 32 44 33 16 31 40 40 37 30 29 42 33 29 34 32 43 28 36 41 42 42 28 31 35 44 37 32 29 40 38 30 35 32 31 33 22 41 35 31 36 40 26 32 34 32 35 35 36 41 40 35 38 31 38 38 38 34 30 37 36 29 31 26 42 33 23 30 39 39 41 41 23 42 38 33 37 38 30 26 29 37 29 23 24 37 33 33 35 29 33 28 30 29 32 34 35 21 28 26 25 34 28 31 30 35 31 28 43 29 29 34 31 36 31 41 40 31 20 37 28 44 38 44 38 22 25 25 25 34 34 27 38 32 31 38 30 37 42 30 27 39 35 35 35 34 40 27 46 40 38 37 32 29 37 40 32 36 37 33 37 33 31 27 32 28 35 25 33 34 24 22 30 44 38 42 28 38 32 29 38 39 37 39 41 29 35 30 35 41 38 33 34 36 35 32 38 32 34 32 38 32 31 36 28 38 28 30 33 19 25 45 35 29 31 36 40 31 29 31 30 27 34 38 35 31 26 37 24 44 34 43 31 37 36 41 34 43 25 32 31 33 32 40 31 30 34 41 38 40 28 19 33 29 43 41 52 36 32 40 27 42 34 31 30 33 40 28 28 30 34 31 34 30 29 33 37 40 31 27 26 35 23 32 33 32 37 34 31 28 34 29 35 40 37 39 35 29 37 52 30 24 40 34 36 30 35 31 41 42 44 33 35 32 37 38 32 30 45 29 35 36 29 29 37 35 33 44 37 19 43 37 40 50 42 37 27 34 19 29 36 25 35 42 33 27 37 39 33 31 31 36 30 34 35 20 39 37 35 40 29 32 37 34 34 29 39 21 34 39 32 30 29 31 24 32 29 32 36 32 28 34 35 35 33 25 34 41 37 30 31 32 37 31 35 39 26 26 36 27 37 35 37 22 30 28 38 28 36 30 44 42 26 41 30 37 32 36 35 40 28 30 25 28 41 42 26 46 34 31 25 39 33 42 43 30 33 35 32 39 39 45 31 32 31 32 33 33 38 33 42 32 34 35 36 32 27 37 41 34 36 39 34 29 50 39 25 33 29 34 34 32 31 34 31 23 48 45 27 30 43 30 33 34 32 44 30 31 31 30 26 30 41 35 33 41 31 28 36 30 34 31 33 40 36 24 38 27 38 42 46 35 33 30 29 34 26 34 33 39 27 32 31 37 23 33 34 42 26 31 35 32 34 26 33 29 36 33 26 46 38 32 36 36 30 39 31 24 28 27 37 33 29 36 33 25 29 37 27 34 36 28 38 38 31 33 30 30 39 37 37 26 45 32 29 31 33 30 36 34 39 40 37 34 32 37 35 28 28 34 35 33 33 27 35 34 39 28 29 28 31 30 37 27 24 28 35 32 37 33 35 27 27 31 37 38 28 26 37 33 31 37 37 30 30 32 33 33 30 34 41 38 27 27 46 37 29 26 35 30 30 35 40 35 33 31 29 34 30 30 32 32 32 34 29 26 38 41 32 28 26 41 36 28 20 28 27 38 21 36 37 38 30 40 35 38 33 29 38 27 36 36 26 25 30 38 33 34 32 27 37 28 36 28 26 30 32 23 41 36 36 36 31 35 32 38 31 44 24 39 43 38 32 36 43 32 42 29 23 27 38 27 30 36 39 24 35 34 34 30 34 25 30 29 28 31 37 31 36 44 32 29 42 26 37 33 32 28 30 32 28 41 38 31 35 38 34 34 32 31 43 35 33 30 35 35 34 52 27 35 31 33 40 41 32 35 40 38 37 41 46 33 25 28 30 27 39 31 28 35 35 24 30 43 27 28 39 35 24 42 38 26 38 32 25 32 34 34 28 37 39 25 31 40 46 23 41 37 33 29 27 37 33 35 42 34 38 34 36 36 24 28 34 36 38 30 41 38 39 33 36 42 29 33 30 33 30 32 34 31 29 37 46 42 34 21 29 18 31 33 32 33 35 30 23 40 35 30 30 27 29 36 32 38 36 34 35 27 34 33 29 41 38 37 42 39 32 41 26 26 29 34 40 33 31 31 32 33 37 41 38 41 38 40 29 43 27 38 24 29 28 24 31 34 31 29 32 32 32 38 28 26 46 33 34 32 26 29 34 35 33 36 30 36 36 33 29 39 35 35 44 32 27 40 34 26 33 37 42 37 29 39 40 35 36 33 35 34 21 33 38 26 33 40 38 33 41 35 33 39 34 31 36 42 42 32 27 34 30 36 35 31 44 37 28 27 41 33 27 29 39 33 28 29 31 33 26 40 30 32 34 38 34 33 37 36 29 46 38 36 34 31 29 39 37 36 41 36 32 41 34 34 40 33 33 43 35 26 42 26 38 37 29 29 27 16 32 34 41 35 41 33 28 33 35 36 34 37 34 43 35 29 35 30 35 33 34 33 28 36 22 31 22 36 37 37 31 29 28 26 35 38 33 35 30 29 32 38 36 41 22 33 34 30 38 32 29 32 31 39 56 32 33 41 39 32 39 31 28 48 42 26 33 35 29 25 33 28 39 34 29 30 24 32 30 28 29 36 34 42 28 29 36 43 26 40 45 38 32 34 37 30 35 40 37 32 33 43 27 31 32 29 34 37 42 40 29 35 28 31 40 40 31 29 29 42 29 31 37 44 35 32 30 28 34 38 32 36 31 27 35 34 33 30 39 35 51 23 35 39 37 33 31 40 34 29 35 37 36 34 35 37 32 38 27 25 33 33 50 35 31 33 35 31 28 38 28 35 39 35 35 28 30 33 36 29 30 38 39 45 33 25 28 33 40 34 33 29 36 31 41 41 41 32 29 32 31 35 43 32 31 35 32 33 40 30 33 37 37 22 33 30 29 39 35 37 27 20 36 33 39 30 37 22 30 32 44 30 40 37 28 33 39 30 40 41 29 30 34 35 24 36 35 41 27 33 34 32 33 24 38 23 26 25 34 27 42 30 31 40 28 38 41 41 30 39 33 37 30 31 33 37 37 30 31 43 33 29 30 31 36 43 38 35 21 33 34 34 36 25 31 33 27 42 37 32 28 33 37 24 37 33 33 41 44 28 36 28 29 40 36 21 36 42 32 37 25 46 31 30 33 32 34 26 30 42 34 36 31 29 44 29 34 35 33 30 33 35 29 41 30 43 32 30 41 30 49 35 28 28 36 33 36 29 44 31 33 37 33 48 29 32 42 39 40 31 29 30 39 32 28 29 32 32 42 39 34 31 30 34 24 37 40 24 31 31 22 31 30 39 44 26 35 33 39 27 33 34 39 32 36 40 26 23 43 31 34 34 35 36 33 40 31 25 29 24 44 42 27 40 29 34 36 35 40 26 32 25 28 34 29 28 41 22 31 34 28 35 35 29 32 32 35 29 38 44 40 28 38 26 42 28 34 30 29 29 36 28 39 49 36 31 37 43 41 33 24 30 26 33 38 48 44 34 32 43 37 32 24 38 34 32 35 35 28 39 36 44 21 34 44 29 23 42 34 35 29 26 40 36 21 26 40 26 38 33 32 34 45 31 23 41 28 44 35 36 38 38 35 40 30 36 30 46 24 29 38 32 37 35 40 37 42 37 36 39 41 32 26 27 38 36 26 31 27 36 26 31 39 37 46 39 25 36 32 51 47 24 30 31 37 32 31 32 35 35 26 28 36 31 40 35 23 35 28 34 26 30 33 24 33 26 37 44 29 30 26 32 23 28 30 35 20 31 44 35 29 36 36 27 33 41 32 35 35 31 46 35 35 23 33 37 40 33 45 40 32 27 31 20 41 39 27 41 29 37 34 46 38 32 30 24 31 37 39 35 28 36 32 26 32 40 36 38 37 32 29 45 37 34 26 40 36 27 44 23 28 32 35 26 34 34 33 41 38 34 32 28 26 31 23 25 25 36 31 38 29 30 33 33 26 33 33 30 33 29 32 32 38 30 32 39 34 33 34 37 33 39 33 37 34 38 29 34 31 29 39 30 31 34 37 35 35 34 31 28 29 30 29 40 27 33 32 39 31 45 31 32 38 27 31 29 45 40 34 35 34 25 44 32 38 30 32 39 28 26 32 37 39 34 41 40 37 34 34 37 23 32 39 30 41 32 34 31 30 31 29 40 34 22 28 27 36 28 30 36 37 28 29 29 44 40 26 30 26 36 30 30 31 35 32 42 19 29 36 43 32 39 37 41 40 40 40 33 34 34 40 33 43 30 30 37 32 37 36 25 32 24 32 34 34 55 41 28 32 30 47 36 24 38 31 43 33 35 34 29 40 23 36 32 32 33 22 24 28 28 37 42 34 39 31 34 34 41 30 35 33 36 27 38 32 41 27 32 33 38 27 32 35 40 19 30 30 21 30 47 25 28 38 35 29 44 29 43 36 34 30 31 36 37 33 33 46 25 35 34 32 27 33 29 30 45 27 28 33 38 35 42 36 33 38 43 29 39 34 23 33 30 28 36 39 29 29 43 32 40 36 32 33 36 45 37 26 32 28 35 38 37 27 44 37 31 34 42 36 32 42 36 32 34 23 42 25 28 38 27 24 35 30 30 33 24 32 31 26 30 37 26 27 32 27 38 26 36 33 28 26 31 36 32 30 26 40 34 33 29 39 28 33 27 32 39 33 27 41 34 31 41 22 34 32 40 34 32 42 31 51 36 34 36 34 37 51 34 30 49 37 35 39 39 36 36 45 44 35 37 30 30 34 30 31 38 36 41 43 37 37 34 35 39 50 38 40 30 42 32 35 31 27 29 31 35 42 32 32 34 34 41 45 32 34 37 32 32 42 36 34 28 29 39 25 38 42 37 29 24 29 32 29 38 38 37 33 36 35 47 40 35 31 31 41 37 32 36 39 30 26 49 41 25 37 36 39 26 30 35 34 35 27 33 37 28 39 31 35 38 22 36 31 46 26 33 39 31 44 32 33 28 37 40 39 34 25 26 35 26 35 42 32 31 34 39 35 27 38 31 30 41 40 34 38 32 45 32 34 37 41 40 27 31 44 38 28 40 34 43 41 24 25 26 32 32 35 41 21 32 29 30 29 25 38 35 35 20 33 28 25 41 38 42 38 41 38 24 36 41 30 28 32 30 37 32 31 37 30 29 31 24 40 23 44 33 41 30 34 24 32 34 43 35 33 28 32 32 28 35 42 33 34 29 31 41 31 33 31 44 31 38 37 26 27 38 34 37 38 35 30 34 33 35 28 36 29 38 31 32 26 30 29 39 44 25 37 41 32 29 39 43 28 36 42 32 27 40 38 30 29 37 47 24 44 39 37 46 41 37 20 31 23 25 34 37 22 31 28 32 29 33 30 31 32 31 31 32 33 47 34 26 49 40 31 35 38 23 33 26 37 25 34 32 35 32 31 43 37 22 38 37 32 35 42 29 38 33 33 28 35 33 26 35 37 35 34 31 37 27 28 28 30 25 28 23 34 42 37 35 40 34 31 29 30 30 36 35 34 42 20 33 30 33 25 31 37 34 29 42 28 38 34 38 34 36 29 28 34 31 30 38 23 40 29 29 25 26 36 33 43 31 31 31 32 38 28 36 30 35 41 30 41 19 34 31 34 30 28 36 32 29 26 28 26 30 33 30 27 34 43 42 33 40 32 39 29 36 32 24 37 28 25 33 32 26 42 37 30 22 38 29 22 32 31 25 33 36 36 32 34 36 52 32 33 32 31 26 35 34 34 34 30 31 31 40 34 38 39 38 34 28 28 37 41 32 35 34 26 32 31 21 34 29 31 35 33 38 27 32 33 28 28 44 36 30 28 26 32 28 25 35 34 33 40 24 43 26 37 36 25 24 32 35 34 26 23 29 31 34 33 33 39 25 31 32 37 38 27 38 40 28 34 30 33 35 30 30 38 25 35 40 40 28 42 41 33 27 32 31 34 34 30 30 33 38 42 29 37 34 33 41 30 38 34 41 35 34 32 30 25 25 35 41 38 28 32 31 39 34 32 38 38 35 42 40 25 30 34 31 39 36 36 27 31 28 27 34 36 34 43 29 28 28 38 28 26 35 37 33 25 27 45 32 37 27 38 35 30 32 34 28 30 35 30 20 39 31 26 36 31 36 27 34 37 44 23 27 30 41 26 45 29 36 30 34 37 36 35 31 41 44 33 30 32 28 42 35 39 29 37 37 27 35 41 29 45 37 49 35 21 38 43 33 25 37 30 32 38 35 33 31 47 34 31 28 30 31 30 42 32 28 26 35 35 34 28 32 29 30 29 27 34 34 37 28 35 39 28 35 31 35 41 35 38 27 33 28 31 41 43 32 31 30 35 34 29 37 32 38 37 30 38 38 37 26 23 36 31 36 22 31 40 36 24 33 37 37 30 37 30 27 37 22 34 32 39 35 38 36 34 35 31 35 36 32 27 39 32 35 48 33 40 39 35 45 23 37 45 31 29 27 34 36 35 32 32 40 42 20 27 39 32 34 38 42 40 28 36 27 36 29 26 35 29 35 24 44 38 37 27 29 30 30 34 29 29 34 32 29 44 32 35 40 48 43 34 37 25 32 24 39 35 41 34 34 39 52 39 28 42 38 35 33 27 33 27 29 29 45 32 24 31 32 30 33 31 24 31 32 26 27 36 31 36 34 26 24 29 30 35 34 24 29 38 30 34 26 35 39 39 31 29 36 45 42 35 34 38 30 32 32 29 29 35 43 42 42 30 41 23 32 39 32 24 35 43 34 30 32 24 26 37 39 32 45 39 33 31 24 45 36 27 28 34 30 34 38 33 23 42 34 35 37 34 29 42 27 45 31 33 34 30 25 37 35 31 36 31 40 31 32 24 25 34 29 27 34 30 37 22 31 29 32 34 37 26 36 25 27 35 48 33 36 40 41 48 39 37 29 30 37 40 34 30 35 31 37 29 43 34 40 29 37 33 26 32 35 35 46 33 27 35 33 35 38 30 37 31 31 27 33 28 26 40 36 29 43 35 27 41 38 37 45 30 39 28 29 38 36 32 44 36 36 34 38 23 25 30 37 38 20 31 30 34 43 36 33 42 33 31 39 26 35 35 27 31 50 32 38 41 35 27 33 34 31 39 29 42 43 37 29 39 34 39 28 43 39 37 30 34 23 46 23 35 25 40 35 25 27 24 33 28 37 36 25 36 27 34 30 32 33 41 34 35 23 27 38 40 35 32 24 42 27 41 30 29 30 30 28 37 32 31 41 33 28 37 35 35 31 25 29 31 43 30 37 32 34 36 37 32 41 31 25 28 39 26 37 38 35 32 27 28 25 33 36 25 32 26 28 31 38 35 31 34 33 41 25 47 33 21 45 28 29 45 37 48 30 28 35 38 42 33 25 43 28 36 32 35 41 41 35 32 35 40 32 33 46 39 31 31 34 46 31 21 25 36 40 38 28 35 35 31 41 27 37 37 28 32 37 32 36 42 32 39 39 29 28 30 37 34 32 30 34 38 22 32 31 30 45 34 31 30 35 40 29 36 36 31 37 38 51 35 40 32 36 27 50 42 33 31 39 52 28 38 33 33 37 26 33 30 35 37 39 36 31 25 35 31 42 36 26 33 38 30 30 30 31 39 41 35 34 36 29 34 44 20 37 36 25 30 41 44 32 26 28 33 39 39 34 31 38 32 35 23 30 29 32 30 37 42 28 37 28 34 34 34 36 35 29 36 33 45 28 25 29 27 31 31 14 28 31 33 27 34 29 39 42 49 40 36 32 33 35 37 36 36 39 33 35 37 31 33 34 29 27 35 28 33 31 35 47 36 37 38 36 39 36 29 40 33 29 35 25 41 39 35 30 34 35 27 40 30 26 33 41 37 32 35 36 36 19 41 28 38 34 33 31 40 37 43 40 36 31 41 28 38 28 28 32 32 33 47 26 31 39 34 30 28 43 34 33 34 30 41 24 36 28 34 36 37 38 33 26 33 41 29 47 40 34 36 25 41 29 32 27 43 26 43 40 36 39 24 30 30 32 43 45 40 42 28 29 28 46 29 41 32 32 23 28 37 38 34 46 39 22 42 35 36 53 30 31 31 37 22 33 23 26 39 49 34 38 27 37 32 41 37 31 27 39 31 32 30 24 34 28 37 44 42 27 34 35 27 34 17 37 35 26 34 32 30 33 42 28 27 36 28 39 33 28 31 31 27 33 31 38 45 37 28 38 38 32 29 28 37 31 33 34 35 30 31 37 31 31 36 43 43 30 29 25 33 36 34 35 37 40 29 33 30 34 21 32 40 37 35 21 37 29 34 33 26 30 44 37 33 26 20 40 34 33 40 37 27 28 36 34 28 40 25 37 30 34 34 36 33 25 40 42 27 31 40 30 35 32 33 32 32 31 32 23 33 25 38 36 36 30 35 39 28 35 32 39 49 30 37 34 32 24 32 34 35 29 36 31 45 33 36 29 39 28 35 23 36 32 24 26 32 35 31 24 37 33 34 38 29 27 30 26 34 36 36 37 24 38 39 43 34 35 36 36 37 28 33 35 26 38 48 38 40 36 38 37 35 23 30 38 33 31 33 42 29 37 28 38 29 35 26 44 36 31 32 33 24 30 29 24 26 32 32 34 38 39 30 31 31 30 47 43 29 29 31 29 34 42 35 35 42 28 33 35 32 38 41 35 36 35 44 29 32 39 34 33 43 33 29 50 32 36 34 27 28 28 29 30 34 31 30 44 42 30 35 39 29 32 43 34 37 27 34 30 39 26 43 29 39 42 32 27 34 28 38 24 26 34 30 32 31 34 37 45 37 31 28 38 38 24 31 37 26 24 27 34 27 31 32 41 36 41 33 32 32 29 43 37 36 27 33 34 33 38 23 38 26 27 30 36 36 28 29 43 20 34 33 27 30 29 34 36 32 28 38 24 30 29 27 40 34 38 32 42 32 33 31 27 42 29 35 37 34 34 39 29 34 36 41 37 40 35 36 25 39 35 40 36 36 28 32 29 44 25 38 35 26 45 40 28 34 31 30 38 28 22 34 30 32 30 34 32 39 28 39 33 27 38 31 32 30 30 29 28 37 37 26 33 33 33 33 34 43 35 36 31 31 21 31 33 37 30 35 31 32 32 27 25 34 25 26 28 23 32 34 33 44 38 34 35 33 31 30 26 27 30 32 35 31 28 28 36 39 28 30 38 41 31 28 30 34 32 33 28 32 33 30 31 36 33 42 41 43 34 43 42 38 28 35 30 36 36 35 27 38 35 36 39 37 34 28 30 34 33 32 40 43 38 25 33 29 37 29 35 39 32 35 27 48 31 38 32 41 40 47 35 24 34 30 30 36 33 33 38 36 41 41 41 35 33 34 28 35 30 35 49 38 33 30 30 32 46 35 28 38 31 39 34 41 33 42 34 33 26 27 32 26 37 39 33 41 34 27 24 28 32 29 32 28 28 39 28 27 34 40 37 38 31 35 30 31 41 35 44 31 35 47 33 38 31 41 34 37 30 41 31 32 36 26 36 37 35 36 33 28 37 36 42 33 35 23 42 28 40 25 28 38 31 32 32 31 34 33 41 32 42 37 35 38 40 31 30 28 30 37 32 30 25 29 38 35 48 51 34 38 30 37 31 24 24 44 28 34 37 33 37 30 35 28 31 32 28 27 37 28 24 37 27 33 33 36 25 32 34 38 30 35 30 40 34 41 33 27 30 27 31 31 28 40 33 41 25 37 40 37 32 32 26 33 35 33 26 34 34 29 30 30 30 48 31 36 34 33 38 28 28 29 47 34 36 39 39 32 25 34 25 32 30 35 33 35 39 30 32 33 32 39 37 29 35 41 28 32 31 32 31 27 35 40 38 25 33 36 47 26 37 37 27 40 24 32 33 38 33 25 32 31 44 32 35 35 42 41 35 36 35 32 26 36 30 33 53 44 37 28 33 32 37 34 27 34 28 30 31 39 30 31 27 35 38 41 28 39 30 35 46 31 35 31 24 38 26 35 28 36 37 42 39 32 33 30 25 27 38 34 33 32 25 30 29 35 32 22 23 29 29 37 21 39 29 34 30 36 38 35 26 28 29 40 34 23 30 33 30 31 30 32 30 28 24 40 35 33 33 28 30 31 41 36 36 34 32 32 33 29 26 39 36 42 23 31 38 38 39 50 21 39 28 28 32 37 40 41 35 31 32 37 37 38 41 35 43 35 34 44 42 31 30 28 36 44 38 28 35 40 37 41 30 27 33 30 39 30 34 32 36 31 35 38 37 35 30 27 36 37 39 29 38 30 38 33 27 37 33 23 35 35 51 34 31 36 30 42 36 32 39 32 33 33 34 34 27 26 34 38 29 29 39 26 30 31 34 35 35 32 42 27 40 35 32 38 37 43 35 30 28 29 24 33 23 25 40 52 36 24 33 34 29 22 28 34 36 29 20 47 34 35 29 33 37 35 34 32 29 30 26 47 29 34 28 39 39 38 32 33 37 39 28 41 28 30 30 37 28 42 33 38 39 31 23 27 35 39 31 37 35 32 44 30 33 24 31 33 40 38 25 30 34 32 26 39 34 35 37 30 24 29 41 40 33 29 32 38 39 40 31 32 26 42 41 42 33 41 29 40 32 24 31 30 37 35 27 28 43 25 33 33 29 46 33 29 36 28 37 29 35 40 33 40 28 35 28 44 48 39 42 40 39 39 43 43 33 39 38 31 34 26 38 24 25 43 27 29 30 36 32 39 28 36 25 37 37 27 42 33 25 30 30 27 38 30 42 33 39 35 28 31 29 30 36 39 29 25 35 37 32 48 34 34 40 43 39 31 28 32 30 31 26 34 29 32 35 26 26 19 28 29 34 29 28 33 28 31 26 31 34 36 36 44 39 32 37 27 41 35 34 36 35 30 34 34 41 24 34 29 38 29 32 26 40 35 31 36 28 33 40 34 34 31 29 29 33 25 23 42 44 33 28 27 30 31 33 27 31 49 33 40 36 22 36 36 33 33 30 45 26 34 34 36 38 31 28 31 39 35 47 32 27 35 38 23 42 34 36 24 35 40 31 29 38 31 37 35 31 33 30 40 32 27 46 46 34 42 37 50 39 34 35 31 33 32 42 38 28 24 37 31 39 36 37 32 31 36 44 31 41 40 39 37 41 33 30 38 23 26 29 45 30 46 39 43 33 40 38 43 37 29 30 31 44 30 24 28 21 38 27 33 30 38 38 31 29 39 31 36 26 36 25 43 21 33 26 23 36 27 33 38 30 35 36 34 23 36 36 40 25 37 28 28 39 41 34 37 32 36 29 35 40 41 27 33 28 36 30 36 45 38 32 45 29 40 35 33 35 36 42 33 39 32 31 29 36 28 38 28 42 32 42 36 35 31 32 42 36 33 30 30 37 31 41 38 36 29 32 33 36 30 31 30 31 29 34 34 26 30 22 30 25 31 32 30 34 30 36 32 36 25 38 27 37 27 31 47 41 38 26 38 38 32 40 34 28 42 27 36 42 27 27 28 32 38 36 38 27 42 38 29 29 40 26 49 40 31 28 29 29 25 36 35 33 30 36 40 47 36 29 43 37 37 29 28 42 43 31 35 30 37 39 33 35 33 29 35 41 33 31 24 30 33 30 26 38 44 39 27 33 29 39 42 31 39 34 28 34 36 45 40 35 37 25 46 34 29 33 36 28 43 31 34 36 25 30 35 32 32 24 29 33 43 33 29 39 38 40 40 38 38 37 38 39 30 27 29 37 38 33 36 36 33 27 39 37 33 36 33 48 32 32 31 36 27 38 35 37 34 28 28 27 39 34 36 28 43 37 34 41 31 30 33 38 31 31 29 35 32 32 31 38 30 35 29 36 30 36 32 32 35 33 33 29 27 47 36 41 46 34 34 27 24 41 27 30 33 26 33 18 36 41 37 47 28 40 26 29 37 32 39 45 41 31 32 41 40 34 32 36 30 32 43 35 37 28 30 36 37 34 29 31 34 25 42 40 42 29 27 29 35 26 27 37 44 43 29 36 39 29 34 34 30 39 46 33 31 35 41 26 29 37 24 37 40 26 35 31 36 39 33 34 26 40 38 53 38 34 31 19 36 29 35 33 28 33 31 35 41 30 28 29 21 36 36 35 37 29 38 38 40 30 32 43 39 32 30 41 32 36 33 35 27 32 28 31 44 33 35 39 37 30 43 37 25 23 34 30 32 31 25 36 31 29 31 43 27 26 41 36 32 31 29 36 34 42 37 34 37 31 31 37 22 35 36 28 35 32 25 31 22 38 30 37 37 29 35 26 33 25 34 26 35 43 33 24 50 33 27 36 36 23 25 29 28 30 37 33 42 42 34 26 29 43 36 29 41 40 37 31 29 34 32 36 34 39 35 30 29 49 27 32 30 35 27 32 32 34 24 37 30 43 35 26 30 29 34 37 36 34 29 38 32 38 35 28 39 38 36 39 34 35 37 35 32 35 37 31 30 29 34 35 29 35 24 42 38 36 35 31 37 40 24 33 33 30 31 37 25 26 35 29 41 27 34 35 34 35 33 31 44 37 34 36 29 26 37 31 34 31 35 32 39 32 28 38 34 29 27 38 28 28 36 37 23 39 21 48 32 31 30 30 37 41 42 44 28 30 40 34 39 36 34 38 33 21 34 30 26 34 38 22 37 35 31 30 28 33 18 42 36 29 34 36 31 34 31 38 36 28 28 27 30 31 36 33 38 33 33 35 34 32 29 36 38 37 34 35 33 36 30 27 36 36 36 38 36 29 34 30 48 36 35 34 28 33 33 35 39 30 28 32 36 36 32 32 31 37 33 32 38 30 40 33 33 32 32 34 39 29 34 32 33 28 27 24 41 34 40 32 35 30 32 42 28 35 36 40 33 38 32 32 35 37 36 33 29 24 32 32 17 36 34 27 30 26 32 32 39 33 34 27 30 30 33 32 30 30 35 39 32 29 38 33 31 33 34 24 33 32 39 33 26 33 26 29 30 33 36 41 32 30 29 31 37 33 32 26 25 33 26 32 22 35 31 29 44 31 29 32 28 34 37 34 39 30 27 30 38 31 36 29 32 44 32 41 42 32 30 28 44 32 46 41 34 33 30 42 30 35 36 33 33 28 30 26 33 36 38 43 31 35 25 34 33 25 23 43 30 41 39 45 29 32 38 28 35 32 30 34 40 35 29 36 39 27 32 33 34 31 44 35 29 40 41 38 32 26 31 30 31 31 36 44 38 26 38 27 27 31 40 30 26 26 48 33 37 35 35 36 36 42 32 40 43 37 24 25 29 34 46 39 32 29 40 28 28 32 40 34 35 34 24 38 32 32 31 28 38 30 23 40 35 24 31 29 26 41 40 34 24 21 31 30 43 34 37 28 38 33 34 32 32 33 33 31 39 31 22 34 29 37 35 31 26 41 41 31 24 32 25 44 41 43 37 33 38 31 36 41 37 23 32 35 26 27 32 45 33 36 34 27 30 29 28 35 23 28 37 43 29 43 38 39 36 26 43 42 23 38 33 40 30 27 31 40 44 40 32 36 22 28 30 43 25 40 33 29 29 34 30 39 31 31 42 35 36 33 28 29 23 33 35 28 38 26 30 34 34 41 34 47 43 31 37 42 20 37 30 43 30 38 23 36 34 25 39 37 39 28 40 26 33 36 41 36 37 41 40 32 34 28 34 41 38 32 34 29 24 24 33 33 41 32 43 35 43 38 38 45 32 31 42 26 26 30 23 30 30 33 24 34 36 35 32 33 29 34 26 27 34 33 38 32 39 31 30 36 25 39 36 28 34 33 29 22 31 26 25 31 35 34 38 32 36 37 41 37 33 37 38 28 31 29 22 39 35 35 49 33 27 38 39 38 36 30 31 37 31 31 36 39 33 30 24 37 28 39 30 32 29 45 38 33 33 41 52 28 34 31 45 33 30 35 31 30 30 30 30 34 33 33 31 26 31 29 41 38 28 38 43 35 33 41 37 44 31 37 34 32 28 37 44 27 36 38 29 27 32 31 49 47 33 34 35 36 31 32 32 29 44 40 31 35 41 34 22 39 35 34 35 36 30 29 32 34 44 45 36 30 31 24 31 29 35 30 37 33 32 34 33 40 31 47 31 27 39 26 30 41 26 34 33 23 38 29 37 44 29 23 38 36 39 24 33 31 27 31 28 24 29 25 29 35 37 30 34 44 37 35 27 34 36 43 26 33 23 32 35 40 37 23 42 32 28 37 35 42 41 36 31 29 39 31 18 40 30 30 41 31 33 34 30 29 32 24 29 38 29 34 41 45 32 44 32 35 40 35 37 39 42 35 23 35 30 40 39 28 31 46 37 33 34 32 32 30 35 24 37 37 21 36 37 34 29 26 34 40 34 38 39 29 38 23 33 30 34 31 41 31 36 32 38 28 39 31 34 42 41 30 36 34 32 29 45 31 34 26 29 34 38 20 41 36 37 34 42 27 36 46 33 49 35 29 40 39 40 35 34 34 40 36 30 34 37 33 25 34 39 26 40 28 40 37 34 34 33 38 39 37 36 43 29 26 29 31 36 33 31 35 37 29 36 26 35 32 36 34 34 24 28 43 47 36 30 34 36 28 38 35 40 43 34 24 38 33 44 27 34 47 28 39 26 36 35 46 24 26 36 41 29 27 30 35 44 34 37 34 39 31 34 30 34 25 34 42 32 30 35 33 39 28 44 30 33 42 30 40 27 33 24 35 33 39 40 28 39 30 31 41 35 39 27 23 44 28 38 26 29 32 36 32 29 39 28 40 30 38 26 29 31 33 32 29 42 27 25 35 37 34 34 33 29 28 34 31 30 38 34 30 35 35 27 37 44 32 33 34 28 23 31 28 34 38 36 35 35 32 37 33 35 27 28 35 37 36 35 33 38 30 37 45 38 35 37 32 38 33 41 43 41 34 37 39 38 28 35 38 33 34 31 27 37 33 37 28 35 40 35 30 35 35 28 39 25 43 25 40 31 29 39 42 34 35 35 32 38 36 31 36 31 39 28 27 31 33 36 29 34 36 33 40 40 43 31 33 42 39 23 34 31 35 36 32 32 28 37 38 34 36 30 24 41 33 32 28 34 36 38 39 38 25 55 34 36 27 32 27 21 30 31 28 41 31 45 36 37 36 36 32 39 43 40 26 28 21 35 33 36 42 22 43 25 38 36 37 40 31 30 27 34 39 36 41 34 36 40 26 22 31 35 34 32 33 32 40 32 35 42 29 32 39 33 30 28 30 28 30 40 30 33 33 29 38 31 46 34 25 39 39 34 33 21 28 26 35 37 31 40 31 24 25 30 35 35 32 36 37 31 33 40 32 23 31 26 36 28 42 34 24 41 36 33 38 39 28 32 37 38 28 25 40 26 34 39 28 39 41 22 30 33 36 29 35 35 28 32 29 32 36 49 31 38 35 30 40 36 28 33 36 32 38 22 33 36 40 37 27 31 47 39 38 42 36 24 31 32 31 34 34 31 34 29 38 33 41 23 39 26 36 31 27 44 29 33 34 31 32 32 29 40 31 36 28 34 27 30 29 30 30 34 29 32 33 41 23 43 43 40 32 30 42 19 38 29 42 29 38 28 38 31 34 31 27 32 36 38 36 28 32 35 36 31 40 30 30 31 33 37 37 34 31 31 37 31 32 38 38 28 32 44 30 27 29 35 32 30 33 29 18 34 31 48 30 39 29 32 30 33 31 33 36 29 35 34 37 33 36 36 27 41 27 30 38 35 35 30 33 37 41 47 14 34 31 36 26 37 29 38 38 30 34 26 40 37 39 27 30 39 37 38 31 27 34 28 34 32 31 26 35 34 43 32 35 36 32 30 39 36 25 36 32 28 41 32 22 44 20 22 32 31 31 35 27 36 28 26 26 29 42 31 28 42 37 41 36 42 29 38 21 35 29 48 48 28 33 26 36 36 31 32 26 34 34 34 30 37 28 35 33 43 35 28 32 39 36 28 41 30 35 29 42 32 33 37 30 36 32 29 35 27 36 36 37 38 33 48 16 37 39 27 42 35 39 32 36 39 28 32 34 39 46 51 35 38 35 32 36 31 37 40 45 34 35 35 34 30 39 30 39 29 43 25 37 35 40 40 36 34 39 35 28 28 37 34 41 34 34 39 37 33 35 27 26 26 29 25 30 31 22 34 27 28 22 26 31 32 35 35 29 33 25 33 35 29 36 38 29 37 28 34 30 37 37 33 39 33 34 35 41 23 23 34 28 34 38 40 28 33 25 29 35 45 54 51 40 23 32 36 34 41 31 51 37 44 36 34 41 35 32 31 40 34 37 37 31 29 28 35 35 42 32 35 39 38 34 34 24 31 28 35 35 31 27 37 35 35 34 31 31 32 35 30 27 38 37 35 27 37 39 24 36 30 28 37 32 32 40 28 36 44 36 48 38 26 27 37 38 46 31 30 27 30 45 32 32 46 34 30 32 34 36 30 34 44 33 27 31 31 29 32 33 40 34 32 25 29 33 32 40 34 30 29 37 40 35 25 23 21 26 36 36 30 27 40 37 37 50 37 32 35 32 29 42 33 26 26 36 31 42 24 35 26 41 42 40 42 31 32 35 39 39 36 29 37 41 43 32 31 35 32 40 32 45 29 28 34 31 22 27 40 40 33 41 31 38 36 35 34 33 34 33 28 30 39 34 34 33 49 29 32 32 22 30 36 33 31 18 32 29 30 35 38 31 37 29 33 33 35 27 34 29 35 31 35 34 39 28 36 32 39 31 34 33 25 33 35 26 44 30 32 30 28 50 23 38 32 38 44 36 37 35 31 38 30 39 32 29 31 40 35 39 40 35 30 35 44 38 30 25 36 33 35 38 31 38 36 48 38 34 35 38 29 28 37 36 35 26 34 35 28 30 29 52 28 29 37 27 33 26 43 32 36 29 43 38 35 28 44 35 25 23 39 22 30 29 38 29 27 44 32 39 32 38 38 30 31 40 35 25 32 32 33 37 34 40 36 28 34 39 28 34 33 35 27 36 34 37 20 25 35 32 34 35 27 26 36 28 39 26 37 26 33 41 34 24 31 28 37 36 35 31 33 30 40 40 28 33 23 31 24 27 36 43 37 36 34 37 29 26 26 29 35 41 21 29 24 24 33 36 34 34 35 34 30 25 36 30 33 43 34 41 39 34 26 39 37 39 39 51 36 37 32 36 30 29 34 39 30 31 32 28 33 34 30 36 29 42 25 37 36 36 27 30 35 34 27 37 33 26 32 34 33 31 30 31 29 34 25 26 31 27 39 38 50 30 37 27 29 35 43 41 34 31 28 27 35 36 37 34 35 41 30 38 30 32 40 37 35 37 30 28 28 40 29 37 32 41 37 29 35 24 35 39 31 40 40 32 32 30 32 33 35 36 33 32 47 35 20 34 35 36 39 47 37 32 28 35 38 42 32 29 37 34 29 35 36 42 28 24 42 33 33 41 35 37 32 41 32 28 33 30 37 34 34 42 37 37 32 38 30 29 35 39 34 35 28 34 27 37 31 34 40 33 31 22 30 22 36 28 28 30 39 31 31 42 35 38 32 30 28 28 38 25 35 30 38 32 22 25 47 34 35 31 38 45 30 35 44 27 32 35 38 28 28 27 27 45 37 38 32 27 21 29 39 30 29 34 43 34 37 35 28 35 35 28 31 29 34 39 30 32 33 33 46 45 28 34 42 38 43 21 36 30 28 35 36 39 50 43 51 28 46 36 28 30 27 41 25 34 34 30 39 38 35 27 27 45 31 21 33 29 29 42 26 29 43 28 29 36 37 32 36 38 38 24 29 23 31 28 26 26 32 32 28 31 29 29 37 39 20 38 31 33 31 32 44 29 41 40 29 26 42 43 35 26 33 29 34 35 34 33 24 32 38 36 30 42 32 36 29 40 39 34 37 32 45 48 26 29 29 30 31 40 34 42 41 29 23 28 35 31 51 27 34 41 42 43 28 30 48 29 29 30 31 26 34 34 46 33 33 30 37 35 27 40 29 29 35 32 40 25 27 34 40 40 29 34 38 39 38 33 36 43 37 29 31 37 26 35 43 33 37 26 39 37 29 24 33 43 40 30 35 32 23 40 34 38 31 39 28 32 36 34 29 41 37 33 46 35 27 30 48 35 34 28 39 30 46 33 43 43 33 31 33 39 38 36 35 34 44 30 29 40 32 42 31 38 33 34 35 31 30 35 36 28 26 31 41 31 33 33 20 34 35 41 27 35 36 34 29 30 31 37 29 34 28 39 27 34 28 32 17 36 28 34 39 34 33 39 32 26 39 43 42 35 22 25 40 42 33 31 36 38 28 26 33 34 38 26 32 39 41 31 35 24 33 37 36 37 46 36 39 33 43 30 34 43 44 37 25 30 32 26 36 40 28 39 34 41 44 40 39 25 33 30 38 34 31 33 31 25 36 36 30 33 38 34 38 32 26 39 22 39 40 28 26 34 32 36 42 38 38 31 42 27 38 32 26 28 32 40 33 30 34 29 30 36 41 29 32 40 40 22 30 30 25 31 39 32 33 29 46 28 42 28 28 37 33 27 32 30 50 31 37 36 38 32 43 42 29 33 32 28 36 39 37 39 27 34 42 34 33 33 35 34 35 30 28 38 37 29 31 38 20 32 35 27 23 35 34 35 35 43 39 36 42 35 33 29 28 38 33 28 34 34 40 30 31 30 34 36 27 28 28 38 29 37 40 37 31 36 38 33 41 30 25 24 44 31 34 46 29 47 42 36 32 34 46 25 37 31 43 32 33 27 37 30 36 30 24 19 30 37 30 32 35 36 39 41 33 31 37 23 44 35 33 29 38 30 41 46 42 32 24 36 29 37 30 37 30 36 40 31 32 32 41 43 30 34 33 35 34 33 24 35 29 40 43 26 36 43 30 36 42 34 43 39 39 38 25 36 34 38 33 42 32 38 30 41 25 34 30 31 31 29 26 31 30 23 25 39 34 34 43 35 29 36 31 31 27 27 28 32 27 32 42 33 40 35 40 35 37 29 32 36 39 43 36 36 33 39 39 32 30 34 37 34 33 38 33 36 42 20 37 36 39 43 35 29 34 31 33 31 35 30 44 30 32 35 31 32 42 28 23 28 38 34 52 37 35 33 39 31 30 30 40 33 22 33 45 41 37 33 36 37 38 36 29 37 38 36 31 33 47 40 47 30 35 37 33 36 29 35 33 41 38 39 26 38 46 31 31 32 34 32 39 40 33 35 35 40 39 39 31 35 24 32 30 31 24 35 30 29 35 35 41 38 26 43 29 36 36 40 23 33 34 44 33 29 27 38 28 28 24 21 37 46 25 31 38 35 39 41 41 25 36 35 33 42 32 30 32 37 31 28 30 32 31 40 35 39 41 29 39 39 29 26 37 36 31 22 28 49 41 30 36 34 30 29 35 33 31 45 29 34 32 33 32 35 33 24 40 42 39 30 40 36 38 38 33 37 22 43 43 33 34 35 30 27 37 31 29 23 35 27 28 39 34 34 45 34 40 30 30 42 35 33 44 35 38 30 34 40 34 26 30 42 47 30 36 33 44 32 34 41 48 26 38 40 50 38 34 38 43 33 32 41 27 33 34 23 47 36 40 32 30 37 34 43 40 29 37 37 32 38 39 30 36 31 16 31 32 33 43 34 27 42 41 39 27 32 31 30 34 32 28 37 37 50 39 30 37 33 35 31 28 39 35 31 30 41 21 33 27 36 33 41 38 32 31 30 38 39 31 41 44 40 35 35 33 40 37 29 43 32 37 32 35 29 37 30 24 36 49 36 38 33 34 41 41 35 40 41 48 28 35 37 33 30 33 27 28 40 29 28 23 29 33 37 43 29 25 40 43 39 34 32 38 39 36 48 31 32 29 36 45 35 39 30 36 38 36 28 31 49 30 35 29 32 32 38 28 40 35 43 35 32 39 38 33 28 30 26 32 23 29 33 48 29 45 44 36 50 26 36 40 35 40 27 36 40 32 34 32 29 27 26 36 40 49 37 35 29 33 32 31 35 29 41 38 33 35 29 36 43 25 37 35 41 28 38 31 38 37 34 31 37 36 42 25 32 32 31 29 34 38 38 38 29 40 20 35 33 38 35 33 39 49 32 27 34 28 33 29 38 37 36 34 30 28 35 39 36 40 40 42 41 33 29 43 37 37 29 33 25 29 36 26 29 37 42 33 30 41 27 34 51 33 25 32 37 50 37 30 36 35 34 38 37 30 28 30 45 29 35 29 38 33 46 32 32 40 33 31 47 29 48 37 33 36 47 40 37 39 33 34 38 36 43 36 41 30 37 39 28 30</t>
-  </si>
-  <si>
-    <t>JSB(7.922828189726932, 8.921924434072308, -370.2441490465331, 2078.876211069636)</t>
-  </si>
-  <si>
-    <t>259 256 318 192 247 230 151 235 202 265 253 191 153 243 257 129 193 178 321 223 212 235 331 233 212 278 276 231 272 299 236 271 224 251 229 265 190 206 219 152 266 286 235 197 259 204 213 137 258 250 198 171 251 247 267 260 296 236 170 257 242 326 233 278 179 219 195 240 262 265 212 330 236 170 275 190 185 177 237 209 241 187 242 209 245 252 327 181 194 238 209 195 214 332 236 255 189 194 184 293 303 152 189 221 202 180 303 252 128 285 154 346 230 209 335 259 297 228 210 221 237 285 318 240 316 155 244 175 314 220 282 202 169 228 214 270 211 197 247 309 282 369 299 246 260 198 223 239 133 250 245 312 260 188 194 212 213 329 169 203 196 300 214 284 214 257 181 316 226 243 227 287 293 275 312 249 256 183 228 197 259 322 194 240 319 174 338 198 170 277 190 161 312 208 261 168 347 251 261 157 278 241 291 254 262 203 253 279 215 198 227 235 217 289 261 230 209 249 304 262 125 250 194 284 202 207 248 232 229 296 257 289 302 237 236 299 223 227 169 207 151 345 288 279 209 268 269 135 174 264 258 241 225 187 210 349 409 276 258 263 183 277 261 204 204 334 176 164 170 255 209 220 323 367 249 291 328 281 259 242 250 219 290 250 221 326 182 303 229 342 321 198 266 231 258 215 252 244 172 146 243 262 249 206 219 292 233 238 285 128 223 272 302 219 171 323 228 288 277 224 198 272 345 309 252 151 195 251 318 231 259 188 262 276 213 361 245 195 291 187 281 238 212 220 193 156 315 195 306 157 297 211 210 253 248 188 281 212 231 219 317 189 197 238 390 173 253 279 230 287 259 209 208 263 209 239 205 197 309 178 216 154 281 269 245 200 190 277 279 255 272 187 180 255 291 226 295 255 191 188 199 237 213 326 161 193 222 256 249 222 314 241 290 260 259 210 180 217 188 225 229 198 211 314 233 286 218 326 255 199 203 245 309 256 235 258 185 219 129 222 243 213 328 148 229 283 301 247 294 212 214 228 198 149 218 250 220 225 238 242 271 123 194 181 288 335 270 292 271 237 220 241 151 207 225 200 275 293 222 312 155 272 228 206 245 176 246 293 244 224 306 207 185 237 204 273 231 178 279 226 291 302 226 270 242 255 199 245 189 201 278 243 192 216 155 194 325 256 166 312 294 167 245 230 158 215 224 199 278 286 228 210 286 161 145 152 234 275 160 245 258 240 320 215 258 211 169 217 228 265 261 200 216 303 225 245 303 226 134 188 119 226 203 243 191 258 199 182 264 297 289 296 197 256 265 201 329 175 266 232 294 300 179 314 213 245 235 182 237 156 196 306 264 182 270 168 241 249 406 280 128 275 202 277 246 188 284 239 306 165 265 191 275 285 313 186 201 247 219 146 256 363 281 260 261 202 200 337 228 208 182 232 313 183 215 242 256 333 292 165 237 279 254 261 325 247 187 253 253 240 246 312 216 217 170 237 182 234 247 247 178 201 296 176 223 219 234 202 193 289 219 247 152 216 195 159 302 216 333 248 207 195 271 220 283 274 111 225 199 198 244 232 210 255 323 277 310 177 210 230 205 198 191 171 198 304 261 269 377 205 212 195 327 231 325 235 113 203 220 205 310 205 258 248 335 215 288 214 213 201 223 240 234 276 261 281 274 273 196 221 254 201 252 282 315 291 234 306 224 254 295 209 299 155 279 195 241 289 287 300 272 233 283 246 204 206 213 210 197 209 199 202 196 239 245 311 287 228 343 237 264 268 165 170 277 301 200 331 241 231 237 267 215 217 245 226 273 311 272 278 336 297 167 232 209 338 247 225 191 187 327 253 172 236 222 178 162 200 216 211 208 345 283 189 201 192 253 178 205 198 190 229 246 192 245 248 273 205 253 253 188 148 239 205 305 223 199 212 301 126 166 208 231 219 216 167 283 300 248 186 201 233 262 216 178 273 239 278 262 241 341 319 178 253 233 191 311 184 219 258 208 174 233 185 201 268 317 213 238 249 270 243 280 231 188 247 262 263 280 241 193 258 164 236 226 142 256 208 327 296 251 184 216 237 187 111 222 189 242 267 291 201 206 310 201 257 279 183 236 333 233 166 298 154 356 336 264 237 195 216 318 212 157 251 235 151 195 218 297 274 187 245 190 229 316 214 256 254 330 227 278 296 175 163 224 210 188 139 258 209 264 218 208 252 271 267 199 260 226 244 293 350 184 325 255 246 232 230 113 253 166 237 306 181 203 217 205 232 187 214 237 323 249 273 188 193 375 339 253 247 245 148 123 243 187 169 284 283 193 254 205 272 202 283 218 207 268 154 231 249 217 281 286 135 285 178 257 253 196 160 281 351 184 212 235 267 207 189 217 262 176 215 235 278 214 250 152 304 222 174 252 237 336 283 191 262 296 247 233 220 230 339 187 279 258 264 272 264 224 232 310 315 225 151 293 250 176 204 197 191 226 97 284 268 215 229 317 212 287 214 255 242 189 185 272 288 203 239 270 250 266 235 209 194 246 257 194 190 160 262 163 168 220 211 307 253 261 248 291 256 219 248 212 202 223 199 282 281 171 146 250 263 218 226 210 195 176 211 319 235 250 214 163 272 171 178 199 211 238 204 235 254 199 317 154 246 206 238 256 205 325 279 241 143 228 197 314 252 294 363 165 222 154 129 258 305 135 296 236 223 241 221 234 287 150 170 285 270 240 265 302 259 184 256 299 234 249 229 274 279 243 225 291 343 189 261 208 246 157 227 228 296 127 212 228 139 152 244 322 226 275 248 277 269 221 259 246 252 301 297 212 289 187 267 313 272 247 207 244 208 221 233 200 293 247 179 237 189 278 165 263 214 248 215 134 208 315 238 276 205 258 296 156 182 129 258 205 239 250 212 199 186 240 193 275 221 243 230 289 248 311 261 315 150 216 242 250 265 317 242 281 266 344 320 209 180 135 224 116 244 345 373 257 224 246 205 290 204 188 222 325 295 203 178 194 208 199 246 193 157 237 363 312 229 218 259 354 178 187 214 211 239 245 206 217 173 231 201 295 198 272 251 237 305 392 240 159 255 234 257 155 260 250 279 344 306 238 186 189 237 292 248 156 339 151 206 265 194 267 269 215 260 260 190 116 318 263 342 299 214 204 221 291 128 187 275 165 191 303 264 248 224 260 222 179 213 269 238 208 261 148 235 282 249 282 186 174 297 252 219 191 305 141 214 258 203 270 283 216 180 241 209 211 290 215 203 151 222 195 224 182 173 282 274 271 189 208 226 280 290 272 218 164 262 197 273 204 270 172 214 182 317 217 268 232 327 281 172 305 206 240 163 262 239 289 196 203 171 234 284 304 166 284 217 285 204 300 234 306 336 222 272 188 236 268 318 323 268 255 256 214 191 171 287 211 302 189 233 219 291 238 205 232 294 299 253 301 223 215 304 276 174 227 221 277 194 269 233 266 247 168 286 309 194 231 307 223 222 297 243 278 249 207 245 252 194 222 253 227 158 225 186 171 243 257 230 225 201 276 264 146 233 230 220 278 344 274 292 144 184 235 175 211 274 298 225 277 253 344 205 279 185 275 218 181 267 253 219 217 231 203 235 244 170 295 259 238 277 214 279 207 234 190 238 178 273 249 217 255 251 162 204 241 163 278 292 192 236 196 257 203 251 248 314 295 327 204 272 241 177 155 250 158 262 158 234 294 243 290 253 269 273 195 199 311 225 248 309 189 248 290 279 247 184 199 246 203 225 208 208 180 280 285 292 256 251 180 177 193 243 240 231 183 233 265 271 272 244 214 258 260 220 292 202 222 261 225 197 171 310 270 234 120 255 229 271 222 250 297 169 237 193 282 212 207 226 225 243 256 176 216 297 268 247 166 216 214 253 229 163 251 280 283 149 247 228 229 264 314 175 225 201 250 297 253 231 263 199 176 154 273 290 211 243 193 316 162 250 203 146 239 236 122 236 190 226 287 249 225 249 223 247 310 228 259 229 232 229 270 330 184 331 273 190 191 280 242 177 235 278 252 191 207 278 231 228 227 244 196 239 236 245 245 319 354 231 286 237 150 316 261 227 188 162 281 200 335 220 206 256 294 247 282 185 186 238 235 168 119 213 248 330 389 168 297 213 182 227 333 283 299 276 214 283 345 332 255 194 213 195 220 292 241 233 258 249 177 260 341 190 229 252 186 138 259 278 218 205 172 196 240 220 233 259 327 254 178 205 268 246 162 307 243 286 190 168 255 186 237 290 179 291 214 229 279 190 207 213 206 286 192 277 268 266 256 284 362 220 279 150 276 225 267 222 244 230 304 213 265 217 159 228 130 247 129 262 182 235 181 176 334 237 209 231 234 233 320 180 306 241 246 243 220 219 253 207 323 243 272 277 293 338 289 164 200 171 271 252 236 182 247 260 241 272 275 217 261 239 249 201 314 166 191 141 245 204 172 143 236 233 240 251 217 177 308 246 203 316 215 238 227 185 201 226 260 232 268 209 281 205 261 197 297 246 316 286 175 220 308 201 205 266 305 277 360 237 280 262 222 288 252 296 299 111 364 295 232 250 295 309 239 271 267 198 305 228 220 192 239 302 239 179 258 181 262 242 268 299 233 178 180 284 242 232 198 256 176 222 192 237 280 122 290 195 236 211 334 258 247 246 229 224 342 286 241 233 202 248 307 213 222 304 241 260 292 212 253 291 239 229 228 198 138 309 171 294 240 224 182 209 77 211 240 257 215 277 244 177 196 269 224 223 228 241 292 305 232 231 235 240 263 245 206 216 164 195 150 171 241 248 250 236 245 198 162 286 279 258 280 164 231 201 332 280 255 167 258 281 205 256 276 215 227 208 243 307 245 206 230 294 173 277 212 152 256 297 168 212 205 259 190 241 161 209 173 221 257 225 217 240 208 201 217 302 317 174 234 277 354 201 276 369 268 265 207 293 246 227 286 241 324 249 362 163 198 226 177 228 299 306 303 258 253 190 241 324 297 212 194 234 294 216 162 293 327 291 231 207 205 328 296 185 269 153 169 251 198 261 187 216 254 304 125 236 267 235 261 226 282 220 203 218 268 226 247 195 309 168 323 193 257 258 274 331 224 244 213 220 288 179 246 183 242 276 279 254 209 184 198 207 231 198 253 227 303 221 174 239 186 269 267 249 220 269 217 288 356 292 238 226 260 255 242 304 237 277 263 213 250 246 210 206 269 198 121 244 199 221 282 205 232 210 149 253 246 304 274 300 162 243 192 313 224 237 276 195 262 272 193 287 253 188 308 217 221 180 198 195 275 208 261 295 183 283 160 230 195 153 182 312 210 261 210 242 253 240 251 268 317 259 196 284 299 200 195 251 222 298 192 215 291 245 238 276 225 293 233 221 245 137 216 246 238 189 151 187 286 144 280 249 265 249 243 279 145 310 191 199 248 294 192 255 195 154 296 206 160 292 340 206 246 192 329 234 227 170 223 173 197 240 313 236 240 195 197 276 249 197 248 286 244 216 274 227 301 236 218 240 173 224 184 315 225 192 192 313 243 252 238 276 188 211 258 246 309 203 266 263 270 251 226 193 192 267 246 232 240 229 180 256 275 227 180 192 151 188 241 245 175 209 205 153 266 227 278 298 168 263 237 250 197 271 245 275 195 233 218 188 117 243 254 199 263 207 271 200 243 232 198 199 170 221 339 202 222 175 263 202 190 247 178 184 255 235 232 243 225 330 177 191 241 252 298 274 152 264 246 175 220 255 267 270 212 279 224 356 198 244 179 183 185 217 160 239 352 266 207 285 352 272 236 165 147 186 223 235 288 275 216 239 386 261 186 214 279 201 200 157 257 156 162 233 327 168 245 361 205 212 291 232 271 212 171 315 284 181 170 287 161 204 230 229 247 358 265 136 299 196 309 186 222 293 282 266 206 178 263 203 296 182 180 283 225 294 206 232 274 306 261 284 329 264 212 170 184 200 249 161 284 227 286 187 248 341 236 325 311 166 231 242 351 314 198 225 259 270 208 242 298 281 241 194 185 198 213 288 271 176 187 224 243 247 236 228 204 274 115 208 295 216 216 234 179 153 219 195 249 180 242 267 222 244 313 231 296 184 201 218 223 214 141 284 267 243 162 273 300 279 176 322 244 236 159 199 117 319 344 159 292 151 275 187 277 289 233 224 189 209 204 241 183 189 195 216 181 249 283 241 306 269 235 210 264 268 149 186 265 288 166 268 113 239 212 214 185 296 241 254 283 315 204 246 203 151 182 136 160 213 250 208 276 203 224 192 211 194 265 286 265 184 145 222 262 259 250 194 262 184 257 241 283 239 239 287 181 284 219 201 213 265 269 274 198 258 203 308 278 298 192 238 235 231 206 222 258 209 282 275 244 149 300 181 304 273 169 263 246 331 279 158 222 252 157 342 236 292 231 262 253 204 198 237 262 289 229 184 276 266 278 189 278 209 262 253 243 315 191 233 222 195 264 217 391 272 196 168 213 254 287 193 226 277 210 170 140 300 314 170 189 217 220 221 191 227 241 214 237 162 180 201 346 197 335 293 294 261 213 269 223 211 225 274 207 258 281 199 219 223 249 284 196 209 209 200 287 219 233 324 170 232 220 290 272 184 268 231 321 240 262 231 224 235 213 301 220 233 247 143 106 167 202 268 272 233 233 182 271 229 284 282 204 232 266 231 318 261 321 227 200 244 282 264 202 198 240 105 246 206 182 219 320 148 179 228 234 231 269 252 287 181 283 245 250 238 267 234 234 334 130 276 262 221 223 246 194 147 268 187 216 282 250 256 242 277 241 240 320 193 317 266 162 189 179 233 303 269 195 224 258 267 277 277 293 265 294 390 259 164 245 189 222 324 232 149 349 243 201 220 250 284 174 295 273 228 185 201 246 136 177 196 176 223 280 197 181 257 198 172 249 157 255 295 146 183 198 211 250 156 302 232 214 154 207 200 209 247 126 286 234 246 199 285 165 325 209 247 250 269 228 194 229 243 260 156 216 196 249 300 256 302 241 313 266 280 273 221 276 286 217 179 267 262 310 292 249 243 292 272 341 262 254 202 271 239 208 252 290 317 310 231 234 256 264 246 307 327 267 257 232 302 193 318 251 226 224 207 256 337 235 254 233 258 293 286 214 224 216 230 201 287 190 201 197 286 281 195 261 299 283 202 161 164 158 165 273 276 311 199 255 261 354 289 281 203 232 315 244 255 258 239 188 192 289 190 147 245 246 295 173 191 265 172 194 188 289 238 193 278 226 205 276 187 201 227 434 192 231 265 217 346 173 246 207 287 268 264 301 203 217 268 210 215 270 264 240 316 222 270 192 257 248 243 275 275 238 264 160 296 254 277 267 280 265 181 269 261 238 205 206 248 315 290 170 214 208 208 239 249 286 146 246 196 225 215 139 256 278 220 197 213 174 216 231 199 239 219 263 231 197 272 270 233 182 231 183 249 190 246 265 208 251 246 155 250 149 261 242 314 186 207 185 192 260 351 267 198 216 210 243 218 226 301 246 224 226 221 288 202 239 212 246 244 284 279 206 144 265 315 244 243 271 221 215 210 255 198 298 201 231 262 244 134 239 149 314 265 176 255 288 179 221 269 277 216 209 321 243 185 333 266 216 194 272 337 172 314 252 259 320 291 223 150 268 92 161 247 261 147 235 188 236 193 217 215 201 188 239 211 264 214 304 257 143 320 293 161 219 263 140 246 235 298 199 305 217 224 248 191 234 279 164 316 241 254 192 244 252 353 243 197 239 253 237 181 190 164 228 211 207 213 216 241 192 222 110 230 162 189 233 300 239 261 179 208 222 184 218 298 211 193 280 116 238 205 210 201 199 258 264 207 242 215 271 232 242 251 203 249 154 268 197 181 236 187 333 210 188 196 203 275 255 225 189 214 149 248 215 201 270 168 282 325 174 238 134 272 222 260 277 176 270 195 186 215 225 153 215 287 225 234 273 404 270 253 303 201 339 211 305 238 182 317 173 172 312 237 191 337 188 237 107 241 209 192 195 207 174 238 244 227 144 253 281 385 241 228 240 255 205 220 154 250 262 198 229 169 276 287 256 287 260 208 201 234 233 288 181 241 256 179 238 207 134 230 220 164 240 261 196 193 263 270 179 229 253 283 176 193 188 248 173 166 206 221 279 308 203 216 178 287 261 196 231 261 238 240 164 178 177 252 249 269 231 298 226 230 284 260 236 175 220 228 250 244 210 201 324 202 202 260 185 199 228 170 217 279 193 253 153 200 231 218 195 206 184 218 231 301 204 264 297 245 317 277 264 204 281 258 292 241 238 179 184 254 310 262 199 254 226 286 231 243 250 305 224 231 298 168 191 258 257 316 272 252 202 247 239 164 217 259 267 308 189 168 197 270 213 188 226 261 220 230 196 264 248 315 179 270 205 225 203 260 201 266 238 218 160 269 252 208 329 208 270 195 253 227 286 205 199 163 258 199 237 217 289 248 184 201 245 317 283 326 349 231 234 188 238 317 248 326 241 342 322 151 204 239 207 231 249 392 283 159 269 295 257 194 222 279 243 308 237 287 211 267 235 245 179 199 188 203 248 259 186 224 188 221 201 143 163 226 205 173 139 241 267 247 233 274 294 230 188 225 228 248 224 274 210 220 257 209 235 256 205 223 187 213 228 224 257 203 277 272 158 238 287 265 203 144 228 247 259 214 280 316 241 239 181 228 294 226 214 194 167 238 155 226 244 223 271 273 194 315 194 222 261 282 272 221 283 260 273 350 167 270 238 202 257 224 260 353 246 207 173 278 206 266 206 242 305 297 150 160 288 236 254 252 336 275 224 241 163 291 200 153 250 238 286 159 344 287 231 206 209 213 275 266 187 256 264 214 279 317 271 277 291 241 325 241 210 205 229 185 272 190 236 265 208 247 327 254 190 339 233 254 277 208 285 220 200 170 322 192 164 177 193 210 316 227 163 286 234 205 189 286 166 260 246 183 207 167 196 236 276 173 215 272 204 268 198 265 272 257 191 220 268 320 253 236 208 205 242 244 198 229 160 209 339 242 286 234 303 202 212 371 275 162 250 345 206 195 165 159 176 250 282 211 329 245 226 256 176 300 211 201 200 316 224 233 288 280 197 314 269 201 289 302 191 252 203 305 215 180 236 184 212 284 251 222 226 275 243 270 219 196 243 275 229 173 277 191 269 173 223 236 196 160 304 188 263 201 156 163 347 205 235 292 247 321 186 260 189 195 264 327 216 220 296 219 226 247 360 258 257 208 219 247 166 187 259 304 300 230 144 163 187 206 303 169 301 245 189 160 258 214 215 323 246 215 339 221 159 281 241 288 308 195 297 255 149 211 233 222 250 315 367 214 242 185 183 168 326 302 157 190 255 235 296 276 138 330 168 218 255 159 244 173 164 190 362 225 194 283 222 150 182 254 227 292 200 282 262 286 200 217 245 281 236 358 286 304 230 232 155 341 187 165 186 284 204 240 157 221 229 234 223 257 172 241 205 258 216 243 304 275 260 243 195 187 294 309 270 197 174 308 201 307 209 162 229 277 224 263 244 206 309 214 202 199 183 263 257 154 231 198 324 240 270 225 214 256 333 230 288 213 253 192 276 153 226 277 284 253 212 259 190 263 323 177 229 197 274 190 213 212 234 220 242 231 198 321 206 138 229 157 153 345 274 326 236 202 273 298 261 244 163 301 212 255 230 210 244 242 269 200 245 261 221 287 275 274 233 212 258 295 214 119 151 251 277 311 203 248 239 201 251 193 271 261 197 254 240 175 285 317 215 217 251 223 232 205 275 251 269 206 208 285 139 281 241 227 272 229 209 257 193 224 208 149 256 226 235 240 261 282 269 279 236 154 437 282 259 258 272 332 193 316 225 210 239 185 180 209 253 248 235 274 196 190 255 283 265 218 205 183 254 202 238 192 185 245 327 211 175 246 228 253 277 175 222 289 184 215 340 250 218 183 210 180 257 217 209 207 279 217 224 162 162 142 288 203 313 271 150 266 210 287 244 224 175 250 226 203 209 283 160 189 235 159 217 223 152 189 224 195 197 218 166 298 332 279 246 170 281 236 213 262 237 230 235 269 266 282 192 253 268 212 176 250 226 247 259 232 380 268 253 312 259 255 221 148 236 236 245 262 191 278 280 271 137 245 240 232 292 253 231 171 300 241 246 296 233 260 184 275 243 282 193 224 224 238 212 257 294 184 226 278 152 219 172 204 244 200 222 307 156 142 201 251 211 244 241 235 249 185 172 290 149 214 229 266 261 263 271 138 218 214 295 205 323 278 220 287 191 321 182 226 243 249 180 271 250 256 306 172 227 200 287 324 311 307 339 158 177 250 353 221 288 256 255 192 274 277 242 256 321 331 136 376 264 240 310 265 136 215 230 153 260 164 181 306 261 226 280 160 271 164 275 296 240 234 272 246 261 294 218 254 193 272 330 316 204 302 274 171 221 108 270 187 193 229 223 208 250 265 141 204 266 153 297 229 238 232 214 201 221 221 280 367 325 220 286 242 201 211 208 249 226 221 187 202 177 275 231 225 230 168 247 248 232 257 226 197 282 266 256 253 266 234 265 214 273 179 266 278 251 212 195 312 186 216 209 204 197 281 259 267 163 113 293 294 174 310 235 229 181 246 271 196 271 192 284 197 228 211 278 224 195 276 218 212 254 204 210 210 206 267 223 272 189 182 182 306 157 267 306 238 265 293 267 170 252 282 318 304 171 242 249 227 167 250 261 275 233 187 195 293 217 295 265 197 222 195 158 299 245 164 232 209 190 254 179 282 161 218 261 208 187 199 168 176 266 270 259 177 292 282 227 275 262 264 256 216 217 150 310 135 267 355 253 313 304 258 265 286 151 172 247 229 262 251 417 215 321 199 265 201 269 182 271 241 190 251 258 179 213 200 162 197 281 222 261 300 276 168 248 220 266 314 288 264 239 256 233 257 280 263 254 312 131 209 235 255 257 292 243 273 223 314 180 220 251 276 198 252 221 176 342 276 249 222 173 205 220 222 243 295 260 162 224 276 199 297 281 178 260 281 275 280 168 199 249 223 194 293 157 191 269 267 185 220 170 244 241 266 230 241 234 162 196 258 287 240 251 209 320 253 230 259 242 217 177 140 236 205 227 158 287 278 271 249 244 190 257 265 288 257 188 253 224 268 234 123 280 174 231 255 228 238 222 196 302 159 213 201 188 241 225 243 298 193 224 226 216 230 228 135 264 223 241 218 258 212 239 222 238 311 205 216 271 246 214 284 201 243 222 240 261 287 256 259 229 248 195 279 254 284 189 196 246 310 149 244 237 157 297 275 170 272 209 271 248 192 173 202 287 268 232 218 222 265 174 298 246 274 288 229 246 134 225 194 177 217 255 199 267 187 259 231 211 265 208 205 234 226 147 241 200 229 217 269 216 228 266 226 151 207 122 204 223 212 244 243 333 225 339 293 224 252 185 299 212 218 165 178 196 238 209 207 228 262 230 181 279 243 209 242 249 257 234 247 198 320 267 267 258 211 218 300 235 313 202 259 199 271 196 285 261 171 283 259 168 285 286 234 259 188 265 137 220 282 231 143 295 285 356 204 142 179 294 244 308 243 242 282 173 337 232 259 200 314 282 255 277 148 256 253 161 278 213 209 309 212 255 317 273 222 230 209 194 215 177 236 282 267 261 192 207 251 285 286 235 320 210 265 257 301 260 271 242 225 234 192 219 150 309 275 215 291 261 205 221 271 172 229 166 224 170 261 181 177 200 260 224 283 281 253 161 268 360 253 316 241 234 314 245 260 266 242 281 318 172 295 228 249 274 201 283 204 261 271 206 150 263 193 309 280 216 163 297 207 272 231 232 253 161 232 245 220 219 263 227 283 248 229 201 323 240 253 177 169 280 203 191 238 180 139 264 254 337 354 236 236 226 282 237 175 206 209 199 243 268 231 227 224 282 231 305 185 179 201 252 208 174 231 153 269 206 252 158 253 194 259 233 252 222 270 324 292 187 176 250 201 241 178 270 276 183 310 181 272 212 279 339 276 196 197 254 233 190 197 176 183 253 176 168 310 193 264 268 168 183 145 222 179 368 210 204 244 273 204 204 247 151 238 216 246 239 272 236 167 129 266 276 248 260 210 236 300 192 219 218 209 204 228 265 265 321 219 207 246 285 222 248 277 202 245 224 248 194 271 246 186 249 260 273 248 230 228 360 272 247 257 276 208 183 247 177 239 364 307 280 184 285 198 202 232 197 173 226 242 219 288 218 245 177 248 298 155 208 279 261 202 295 288 282 235 169 292 157 300 140 236 301 333 321 214 204 252 218 175 275 172 260 275 187 213 238 250 241 152 191 243 218 211 169 245 189 269 237 182 208 220 186 181 216 356 228 217 279 246 203 203 219 208 195 203 216 254 210 229 219 199 213 169 299 273 255 254 291 252 205 178 273 255 252 269 106 193 218 230 290 317 131 267 240 220 243 249 260 359 264 194 214 266 207 258 236 300 286 266 206 257 282 220 186 249 211 331 229 152 222 262 277 264 181 188 224 242 315 218 200 293 200 171 214 277 322 233 286 256 246 226 197 162 293 226 258 167 199 223 305 183 263 215 298 241 261 279 275 281 275 190 264 192 203 217 205 320 152 140 259 194 162 179 296 151 174 204 250 173 333 169 256 190 195 249 237 292 234 321 238 242 224 226 167 222 153 211 265 385 219 179 230 238 241 189 226 247 295 208 149 424 224 262 161 218 259 257 274 241 202 262 203 307 180 288 187 281 193 241 204 248 246 250 223 302 215 206 163 336 203 327 233 167 314 211 145 112 239 274 172 238 230 203 295 172 278 162 209 238 234 267 187 179 218 193 155 289 206 213 306 222 153 236 285 257 197 157 219 236 310 248 251 157 205 336 292 264 254 286 171 311 173 187 269 272 277 257 137 219 331 207 207 218 292 316 207 189 225 199 220 187 237 305 232 320 186 238 218 308 312 309 301 296 301 261 350 286 306 314 224 224 292 169 237 170 188 302 209 233 155 274 233 254 197 298 230 265 222 143 248 251 204 260 187 184 299 198 292 220 225 234 213 232 157 170 195 280 156 204 206 209 177 388 231 250 340 272 282 222 212 219 249 228 211 305 175 219 174 165 196 167 202 158 245 209 183 250 204 253 229 201 223 250 295 330 277 190 247 188 216 311 245 214 260 185 275 256 215 214 284 188 269 246 155 204 262 201 205 237 182 216 290 211 212 236 204 144 271 194 189 248 307 252 192 227 175 207 204 228 196 273 194 311 313 190 262 206 218 228 213 298 212 237 255 198 292 239 193 220 258 248 335 249 175 238 272 119 262 215 241 191 252 306 186 218 265 187 232 255 164 180 217 252 188 172 339 272 258 294 278 342 315 234 231 228 261 253 337 236 160 176 258 144 281 280 252 236 238 238 324 230 268 366 251 255 319 226 273 292 171 218 249 293 186 290 216 257 227 306 252 343 301 197 301 237 241 239 228 201 162 236 195 236 249 365 399 209 199 298 195 213 192 222 166 297 181 236 122 147 234 188 227 252 204 257 273 266 210 289 298 285 153 237 204 253 310 254 273 232 228 219 211 229 253 310 199 206 157 197 189 248 344 257 206 321 188 339 230 229 233 289 289 233 252 245 217 221 238 189 253 251 320 232 289 324 240 261 213 281 216 270 243 219 278 269 249 322 196 231 213 232 228 264 192 228 205 204 161 255 216 270 104 245 235 267 197 172 197 220 306 225 205 174 287 181 233 195 153 258 266 296 262 209 294 226 301 230 285 306 236 317 279 184 199 195 196 241 255 279 163 289 251 170 241 257 222 335 201 255 190 260 214 247 199 279 251 229 246 267 334 212 206 289 298 300 230 172 274 269 154 218 249 298 230 287 236 253 183 271 197 257 213 202 215 243 182 164 291 335 278 183 204 126 252 239 243 220 215 143 227 294 349 246 326 269 148 259 208 152 268 170 175 262 208 256 223 165 173 261 244 266 246 190 249 319 268 270 265 233 261 252 302 224 197 227 202 221 176 210 294 260 256 261 322 241 182 277 222 296 251 260 363 194 231 197 281 196 253 225 269 306 228 202 249 268 234 221 211 273 257 207 261 271 128 202 239 212 262 188 227 219 213 229 237 237 265 179 191 229 228 216 178 231 203 264 221 185 295 242 239 308 204 245 184 101 251 246 203 163 198 188 104 187 286 232 317 181 289 142 252 272 195 230 335 313 192 218 297 303 307 236 220 196 192 249 194 266 208 227 290 279 243 188 173 233 213 279 322 310 158 196 227 255 225 207 267 295 265 243 236 264 239 193 225 198 269 286 257 180 238 277 233 237 238 187 220 256 169 236 247 273 252 205 211 152 273 230 291 345 296 197 139 297 236 228 280 214 270 264 227 242 240 255 199 191 249 268 215 322 158 201 352 300 217 194 340 327 265 234 229 203 245 235 247 154 241 181 180 238 270 269 268 277 210 282 296 125 171 256 225 191 246 138 220 260 222 194 278 197 204 290 255 277 155 190 323 238 249 235 191 314 269 246 272 152 197 270 253 277 249 190 249 133 230 242 252 302 190 218 238 206 204 263 178 234 296 267 220 335 233 232 249 268 153 161 154 233 154 263 193 302 254 274 169 244 257 250 227 356 255 279 259 232 221 247 250 223 280 278 186 187 341 182 258 241 227 239 241 192 190 150 245 239 265 297 217 213 220 236 282 239 277 231 250 185 196 232 174 254 347 231 253 288 279 282 257 263 229 259 245 281 106 268 297 126 228 216 230 251 200 282 164 248 276 125 271 245 201 175 235 215 212 324 157 310 155 216 288 306 227 217 184 281 286 243 190 265 283 289 184 276 251 254 180 330 254 161 207 230 230 190 272 209 229 194 273 195 256 121 331 199 201 221 256 212 289 311 295 201 189 247 204 306 208 210 236 244 110 243 157 155 247 267 132 288 241 290 260 174 237 135 329 264 185 267 281 245 230 212 289 254 160 202 186 216 249 278 238 277 197 268 282 200 190 197 275 275 240 290 137 200 242 198 228 252 206 264 219 324 250 276 173 418 251 249 275 101 211 274 316 319 241 166 176 294 295 259 248 164 231 204 213 233 171 314 292 254 259 256 235 244 200 286 174 260 236 168 186 285 254 307 245 236 214 217 256 194 227 249 289 258 305 196 197 316 237 294 230 224 189 210 211 151 256 275 196 223 158 262 243 298 281 298 169 233 195 211 252 222 274 292 227 233 234 288 192 257 298 244 114 252 256 248 227 211 301 221 205 227 209 220 313 238 243 202 185 252 217 278 203 178 258 194 271 162 298 231 187 292 166 227 197 237 236 191 180 269 230 223 197 202 216 241 232 246 299 252 261 262 268 187 181 280 242 237 235 262 221 218 322 207 193 270 249 224 168 151 143 252 182 249 246 196 276 109 198 270 150 159 263 217 252 268 320 254 187 278 232 254 226 224 232 306 244 189 252 303 256 246 212 235 227 319 249 229 258 288 288 258 193 184 247 272 198 256 267 203 153 300 197 167 202 297 189 187 182 310 260 263 249 259 225 241 302 261 283 327 199 148 203 211 246 305 289 182 242 292 160 212 285 250 271 207 186 177 285 218 250 219 236 302 280 182 331 237 92 217 236 171 290 309 225 145 130 224 206 346 277 308 230 317 229 219 162 269 228 209 180 273 181 175 209 145 279 240 219 152 282 296 229 151 200 189 338 235 287 246 207 267 231 191 323 295 157 217 280 124 215 233 272 186 199 173 176 188 187 226 205 144 201 286 303 180 311 305 328 240 184 321 268 147 331 265 261 200 212 253 294 339 247 280 312 155 242 283 310 136 212 207 162 191 228 199 256 164 225 258 288 193 179 157 182 97 196 271 180 275 190 188 238 209 218 260 381 309 257 286 312 123 299 264 333 189 254 123 218 266 108 299 272 245 228 268 176 183 245 355 226 250 299 341 189 293 189 264 310 317 207 257 191 169 179 195 183 315 190 303 258 329 288 320 329 295 213 258 185 183 190 150 233 195 228 139 212 247 267 234 250 222 255 238 175 243 209 273 198 215 170 231 227 180 222 275 178 251 180 169 179 236 210 153 198 235 233 262 225 188 213 258 298 232 248 211 247 234 178 146 216 306 224 279 251 170 285 326 205 273 181 221 309 226 129 281 313 216 171 183 350 219 303 191 240 188 350 241 296 222 368 310 251 328 219 348 170 202 265 202 249 196 213 173 232 232 165 215 206 212 156 285 280 207 316 278 293 336 245 188 354 202 294 226 207 182 272 284 230 315 239 228 177 264 184 297 293 135 265 237 223 214 246 195 147 264 302 174 257 282 285 110 247 306 253 279 242 153 198 300 220 299 285 199 212 231 173 241 237 242 243 259 248 210 226 271 262 256 405 234 185 261 143 180 315 215 256 226 129 325 141 303 307 214 159 275 166 307 144 217 258 163 224 189 181 216 188 183 258 258 202 224 364 262 176 117 252 247 301 177 259 172 229 196 282 272 194 274 191 210 259 236 305 342 246 288 200 262 255 136 292 195 148 323 224 211 236 195 241 220 220 234 260 208 229 332 329 300 282 227 299 261 283 288 316 319 265 180 233 275 254 265 191 281 242 236 206 251 158 248 230 233 192 325 338 141 237 270 233 195 221 256 273 214 245 272 164 272 185 246 296 208 231 282 232 191 182 310 174 233 198 240 276 208 185 266 187 263 212 399 231 223 138 162 279 293 122 252 253 271 230 350 197 286 303 288 327 216 250 261 291 303 224 162 236 263 259 257 245 185 286 229 228 251 203 252 221 322 190 227 228 258 277 216 236 308 277 193 242 248 237 244 205 190 252 291 166 348 211 219 175 242 252 181 150 225 311 334 316 233 221 230 153 338 269 328 219 284 211 265 241 300 154 237 274 203 212 142 233 231 319 130 252 269 231 245 195 218 297 284 250 247 188 265 184 301 206 238 158 227 309 256 232 220 196 384 167 328 208 232 387 166 259 261 222 165 265 239 258 348 151 246 249 190 284 207 297 117 140 294 202 263 211 212 290 289 223 253 285 223 277 239 241 138 231 248 219 181 148 267 167 154 231 235 202 252 227 214 187 241 259 223 186 164 184 207 239 182 267 335 197 247 255 223 162 222 218 258 266 290 222 284 212 263 259 204 237 213 261 250 250 273 260 263 205 216 271 239 286 274 249 197 276 252 314 322 249 203 326 186 192 190 199 302 228 213 153 282 238 254 119 250 293 232 204 272 223 267 272 123 287 177 207 212 231 237 287 267 252 265 169 233 200 216 259 194 238 162 156 253 211 259 257 244 272 230 238 302 309 199 226 285 300 143 213 179 289 239 205 266 208 233 273 305 242 213 151 270 218 161 134 251 209 232 228 292 151 327 219 263 167 242 235 152 223 229 231 263 232 300 263 286 162 228 246 270 296 187 175 208 139 287 292 217 246 148 284 224 240 219 295 269 259 228 217 257 296 199 284 176 258 278 194 134 229 238 159 191 224 270 278 292 254 281 181 222 280 207 229 243 184 255 210 270 252 263 263 264 232 224 350 222 166 258 268 228 206 117 245 189 181 205 145 246 184 143 197 200 241 280 249 242 266 178 227 305 237 166 162 216 273 192 293 276 197 300 275 212 262 309 156 220 247 245 223 164 314 133 276 296 196 225 298 148 214 231 258 224 207 216 238 212 197 225 198 281 206 289 308 228 260 298 160 251 311 185 297 199 213 252 276 284 142 255 265 297 270 236 231 173 195 264 215 230 241 158 257 230 251 232 264 136 280 147 271 201 190 340 237 244 289 205 215 173 185 266 150 174 300 250 228 153 250 220 265 252 242 191 229 221 152 310 346 193 258 230 333 170 199 227 308 208 304 200 240 166 287 272 195 228 297 283 216 222 220 262 253 213 262 231 177 235 213 258 246 197 271 259 221 304 278 281 204 227 244 334 185 152 237 194 217 244 224 189 104 230 242 330 256 282 262 218 246 213 196 237 337 211 169 284 279 202 186 288 160 285 195 195 269 192 249 177 236 262 299 236 90 195 206 222 167 206 212 271 240 255 229 189 258 260 263 119 211 266 261 267 215 199 229 249 218 225 197 187 263 210 252 234 176 202 169 221 234 261 197 246 211 226 291 222 182 297 178 167 187 226 161 278 143 220 246 180 137 210 278 202 251 243 162 270 240 212 221 265 160 247 180 319 294 223 170 205 239 270 259 236 179 246 266 268 290 273 219 235 172 301 307 231 274 305 245 209 263 208 263 225 282 301 223 230 255 187 208 186 269 203 258 238 228 251 262 324 142 278 273 167 285 288 244 280 219 243 145 213 216 253 243 367 322 294 268 220 247 234 262 236 240 242 201 249 196 241 291 210 247 250 289 199 248 284 233 252 234 236 273 199 183 254 249 258 313 337 275 259 243 246 297 210 203 202 224 186 202 211 163 153 218 159 129 183 239 264 244 244 199 269 167 264 213 207 285 287 221 257 168 296 209 264 269 276 254 269 239 269 309 2</t>
-  </si>
-  <si>
-    <t>MIE(0.4813821965122949, 1.5923645476907378, -3.9668658052229044e-30, 1.7773907786535195)</t>
-  </si>
-  <si>
-    <t>1 0 1 2 2 1 0 3 0 0 2 1 1 1 3 0 3 2 1 2 1 1 1 2 1 1 0 1 2 1 0 2 0 3 2 0 2 1 3 1 1 2 2 0 1 1 0 1 1 0 1 1 2 2 2 1 1 0 0 3 3 2 2 0 1 1 1 2 2 0 1 2 1 2 4 0 2 1 2 2 1 0 1 1 0 2 1 1 3 1 2 1 1 3 1 2 2 3 1 2 2 1 1 2 1 1 2 2 0 1 1 1 2 1 2 2 1 1 0 2 1 2 1 0 1 0 3 3 2 2 3 2 1 1 2 4 0 0 1 1 3 4 0 1 1 1 1 4 1 2 2 2 1 2 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 2 2 1 2 1 1 1 1 2 2 0 2 1 0 0 1 1 2 0 0 0 0 1 3 0 2 1 0 2 1 1 1 1 1 4 3 1 1 2 1 2 0 1 1 2 2 1 1 2 0 3 0 1 0 1 1 1 2 1 1 1 2 2 1 1 1 2 1 1 2 0 1 2 1 1 3 1 1 0 1 0 1 1 2 2 1 3 1 1 1 3 0 1 2 1 1 1 0 2 1 2 1 2 3 2 0 2 2 3 3 0 1 1 2 2 2 3 0 2 1 4 2 0 0 1 2 0 1 0 0 0 1 1 1 1 1 3 2 2 1 1 2 1 1 1 0 1 3 3 2 1 0 2 3 2 0 0 1 1 4 1 2 2 1 0 0 3 1 0 3 0 1 2 0 0 1 0 3 1 1 0 2 1 4 3 3 0 1 1 1 1 2 2 0 2 3 1 2 1 1 3 3 3 1 0 2 1 1 0 2 0 1 0 3 0 2 1 0 1 2 2 2 1 0 1 1 2 0 2 2 0 0 1 0 2 1 1 1 2 0 2 2 1 2 1 1 1 1 2 1 2 1 1 1 3 2 2 2 3 1 1 2 0 1 2 2 0 2 2 0 0 1 1 1 0 0 2 0 3 4 1 1 3 2 1 1 0 0 0 3 0 0 0 0 0 2 2 3 3 2 1 1 1 1 1 2 1 0 2 1 1 1 1 2 0 1 0 2 1 0 1 2 1 2 1 1 1 2 3 2 1 0 1 2 2 2 1 0 0 2 1 1 1 1 1 1 1 3 2 1 3 1 1 1 3 0 1 1 0 0 1 0 0 1 1 0 0 1 2 1 2 1 1 3 1 2 2 0 1 1 0 2 3 3 3 1 1 0 2 1 4 0 1 0 1 1 0 1 0 2 3 1 1 0 1 4 0 2 0 2 1 2 2 2 0 0 0 1 3 1 1 1 1 2 1 0 0 1 1 2 2 3 1 1 3 2 0 3 3 4 0 1 1 3 1 2 1 2 2 1 0 2 3 2 3 1 3 1 3 0 1 0 2 2 1 1 1 1 0 3 0 2 0 2 0 2 3 0 0 0 1 1 1 0 3 1 2 0 1 0 2 0 1 1 1 2 2 2 0 1 2 0 0 1 1 0 1 1 2 3 1 0 0 0 0 0 1 0 0 2 3 3 0 1 0 4 1 1 1 1 0 0 2 0 2 1 2 0 1 2 1 1 2 1 1 0 0 0 0 1 0 4 0 2 1 2 2 3 0 1 0 1 0 3 2 2 1 1 2 0 2 1 0 2 4 1 2 1 0 3 2 2 1 1 1 3 2 2 1 1 1 1 0 0 2 0 2 0 0 1 0 1 1 1 2 3 3 3 2 3 1 3 1 1 1 1 2 1 1 1 2 1 2 1 2 1 2 1 2 2 2 2 2 1 1 2 3 4 2 1 0 5 1 2 0 1 1 2 0 1 1 0 2 1 0 1 1 1 1 0 2 0 2 0 1 1 2 3 2 0 0 0 1 1 1 0 0 0 1 1 0 2 1 0 0 0 1 1 0 0 0 2 0 1 1 1 2 0 1 1 2 2 1 0 2 2 1 2 0 2 1 2 0 1 1 2 2 2 1 2 2 1 2 2 2 0 3 2 1 1 2 1 2 2 2 0 0 1 2 2 1 1 0 0 1 1 0 1 1 0 0 2 3 1 3 1 3 2 1 1 2 2 1 1 2 2 1 4 1 1 1 1 1 1 0 0 0 2 0 2 1 1 1 1 1 1 2 2 1 3 0 1 1 2 2 2 1 1 0 1 2 2 1 2 0 2 0 1 2 1 2 3 1 1 2 0 2 3 1 1 4 1 1 1 0 0 2 3 0 0 0 1 2 0 1 1 0 1 2 2 1 2 0 0 1 0 2 0 2 1 1 1 2 1 1 1 1 2 1 1 2 1 1 2 1 2 1 1 1 0 2 1 1 0 1 2 3 2 0 3 0 1 0 2 0 1 1 1 1 3 0 2 2 4 0 1 1 2 1 2 2 3 2 0 1 1 1 2 2 1 2 2 1 1 1 2 1 0 3 1 1 0 0 1 2 0 2 3 1 0 0 1 0 4 1 1 0 1 1 1 1 2 1 0 2 3 2 0 1 0 0 1 1 3 2 0 2 1 1 3 1 1 1 1 2 1 2 2 0 0 1 1 1 2 0 2 0 0 1 2 0 1 1 0 2 0 1 1 3 1 2 2 1 1 1 1 0 1 3 1 1 3 0 0 1 2 2 2 0 1 5 1 0 1 1 1 3 0 2 1 1 2 1 1 4 0 1 1 2 3 2 2 1 0 1 3 1 3 1 2 1 0 1 1 1 0 0 2 1 1 1 2 1 2 0 1 1 1 1 3 1 3 1 2 1 1 1 2 1 1 2 1 2 0 4 2 1 2 1 0 0 1 0 0 1 3 1 2 1 1 0 1 1 2 3 1 1 1 2 2 2 3 1 0 1 0 2 1 1 1 2 0 2 1 1 1 2 1 3 2 1 2 2 1 1 1 1 1 0 1 0 3 1 1 1 2 0 0 1 0 0 1 3 0 1 2 1 0 0 0 2 2 2 0 0 2 1 2 1 2 2 1 4 2 1 1 2 2 0 0 1 0 2 1 1 3 0 1 1 0 0 2 1 2 1 1 2 2 2 1 1 1 3 1 3 0 2 3 1 0 2 1 2 0 2 0 0 2 1 1 1 1 2 2 0 1 2 1 2 3 0 1 1 1 2 1 1 0 1 0 1 1 2 1 1 1 0 2 2 1 0 0 1 0 1 1 2 0 2 0 1 0 2 0 0 1 1 2 2 1 1 2 3 3 0 3 1 1 2 2 0 0 0 3 3 3 0 0 1 1 2 1 0 0 0 0 1 0 0 1 2 1 2 2 1 0 3 1 1 1 2 1 0 2 2 3 0 0 2 1 1 2 1 2 1 2 0 0 1 4 2 3 3 1 1 1 3 2 2 2 3 0 1 0 0 1 1 0 2 1 2 0 1 0 1 4 0 4 0 1 2 2 0 2 2 1 0 1 2 1 3 2 2 2 0 0 2 0 1 3 1 2 2 1 2 2 1 0 1 1 1 0 1 1 2 2 3 2 1 1 3 0 0 3 1 1 4 2 3 1 0 2 2 0 1 3 2 2 3 3 0 0 0 2 0 1 1 3 1 0 3 1 1 2 0 2 0 2 0 1 3 1 1 1 0 1 1 2 1 1 3 0 1 2 1 1 4 1 3 1 2 2 1 1 1 1 2 1 2 3 0 0 0 0 2 1 1 1 0 2 2 1 2 2 4 2 1 1 4 1 0 2 1 2 0 2 2 1 2 2 0 0 1 2 4 1 2 0 0 0 1 0 2 1 0 3 1 1 0 1 4 1 1 1 1 1 2 1 1 1 1 2 4 1 1 2 2 2 0 2 0 2 3 2 1 2 2 1 2 1 1 2 0 2 2 0 0 0 4 0 1 2 1 2 0 1 1 1 2 1 2 1 1 2 2 2 1 1 1 1 0 2 2 0 1 1 1 2 2 2 1 2 2 1 1 0 2 1 2 0 1 0 1 3 0 0 2 3 2 1 3 0 1 2 0 1 0 3 0 1 0 1 1 2 0 1 2 0 0 1 2 2 3 1 2 3 2 1 0 2 0 2 2 0 0 2 2 3 1 2 1 0 3 1 1 2 1 1 0 0 0 0 0 4 0 3 0 2 3 1 1 1 1 0 1 2 1 2 2 2 1 1 0 2 2 2 1 1 3 2 1 2 1 0 1 0 1 2 0 1 1 1 0 1 1 2 0 1 0 2 2 0 2 1 1 1 1 1 0 2 2 1 1 1 2 2 0 1 1 2 0 2 1 3 2 2 2 2 2 2 1 1 0 1 2 0 0 3 1 1 1 3 1 0 1 0 0 0 1 2 1 2 0 2 2 1 1 1 0 2 1 0 2 1 1 1 1 1 1 1 2 1 0 2 0 2 0 1 1 1 0 2 2 0 2 0 2 1 3 1 0 1 0 2 1 3 2 0 0 3 1 2 2 2 1 1 1 1 3 1 2 1 2 0 1 0 1 3 3 1 0 0 2 2 1 3 1 0 1 1 2 1 1 3 2 3 2 1 2 2 2 1 1 2 0 5 0 0 0 2 2 1 4 1 1 1 1 1 0 2 1 2 1 2 2 0 1 2 0 2 0 1 2 1 1 2 1 0 1 4 1 1 1 1 1 2 1 2 2 1 1 3 0 3 1 1 0 2 3 2 0 1 3 2 3 3 2 1 3 1 1 1 1 0 1 0 2 1 2 1 1 1 2 1 1 0 1 1 1 0 2 2 1 0 0 1 1 0 0 0 2 2 1 3 0 0 3 1 2 4 3 1 1 2 1 1 1 1 0 2 0 1 3 3 3 1 1 0 1 0 1 3 2 1 0 1 2 1 0 2 1 1 1 1 1 2 1 2 1 0 1 3 2 0 1 0 0 1 1 2 0 2 0 2 3 2 0 2 2 3 0 2 2 2 2 1 2 0 3 0 0 3 1 4 1 1 0 1 0 0 1 1 3 1 1 1 2 0 0 1 3 2 1 3 1 1 0 2 2 1 4 3 0 0 1 0 1 0 2 2 2 1 1 1 2 4 1 2 2 2 1 0 1 1 0 1 2 3 1 1 1 0 3 2 0 1 0 0 1 3 0 0 1 1 2 2 1 0 1 2 2 2 1 0 2 2 1 1 1 1 0 3 2 0 0 0 1 1 1 2 2 2 0 2 0 1 1 2 3 2 1 2 3 1 0 1 1 0 0 1 2 2 2 0 1 1 1 3 4 1 2 2 2 0 1 1 1 1 1 1 2 1 1 2 1 1 2 1 0 1 0 3 2 1 4 0 3 2 0 2 1 1 2 0 1 2 2 0 2 1 0 1 1 2 2 1 2 1 2 0 3 0 1 2 1 2 3 0 1 2 0 1 3 2 0 0 0 1 1 1 2 1 3 0 2 0 4 2 1 1 2 2 0 0 1 2 2 1 2 3 1 1 0 0 1 1 0 1 0 1 1 1 1 2 1 0 0 2 1 2 3 1 0 3 3 3 1 0 1 1 0 1 0 0 1 1 3 3 1 1 1 1 0 2 3 0 2 1 1 2 1 2 1 1 0 1 0 1 0 2 1 3 1 1 1 2 1 1 0 2 2 1 1 1 2 2 3 2 1 1 1 3 2 1 0 1 2 1 0 0 2 0 2 1 1 2 1 0 2 0 0 2 1 2 1 1 1 2 0 0 2 1 1 1 1 1 3 1 3 2 1 2 0 2 1 0 1 2 1 0 1 0 0 0 0 0 2 1 1 1 1 2 1 1 0 2 1 1 2 3 1 2 0 1 3 3 0 2 1 1 1 1 2 1 2 3 1 1 0 2 2 1 3 2 1 0 3 1 1 2 2 1 3 2 0 0 1 2 1 0 1 1 0 3 1 1 0 2 1 0 1 0 2 2 2 1 1 1 1 1 0 1 1 1 2 0 2 1 2 1 2 3 1 3 1 0 0 2 2 1 1 2 1 1 4 2 4 3 0 1 0 0 1 2 2 1 2 1 0 2 1 1 1 1 1 1 1 1 1 2 0 1 1 0 2 0 0 1 2 4 1 2 1 1 1 1 1 2 1 2 3 2 2 3 2 2 0 1 0 2 1 0 2 1 2 1 1 2 2 0 1 1 0 1 1 0 2 2 1 0 0 1 3 2 0 0 1 1 2 1 1 2 4 1 0 0 0 5 2 2 1 1 0 2 1 2 2 2 2 1 2 0 2 1 1 1 1 1 2 3 2 0 0 1 1 0 0 2 0 1 0 2 1 1 1 1 0 2 3 0 2 1 2 2 1 1 0 1 1 3 1 1 1 1 0 1 1 1 1 1 1 1 3 2 1 1 1 2 2 1 1 0 1 4 1 0 0 1 2 1 1 1 2 3 3 1 3 0 2 1 0 4 3 1 2 2 3 0 2 2 1 0 2 1 1 3 1 4 2 2 1 1 1 2 4 1 0 1 1 2 2 0 4 5 3 1 1 2 2 1 1 0 2 0 1 1 1 2 2 1 1 0 1 0 1 1 2 1 1 0 1 5 0 1 3 3 1 0 2 1 1 1 1 0 0 2 0 2 1 1 3 1 0 4 1 3 2 1 3 1 1 1 1 2 0 2 2 0 0 2 0 2 1 1 3 2 1 0 0 1 1 1 2 2 1 2 0 1 0 1 0 1 1 1 1 2 2 1 1 2 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0 1 2 0 2 2 0 2 1 2 1 0 3 1 1 0 2 3 2 2 1 0 1 2 0 2 1 1 1 0 2 2 1 0 1 2 2 1 1 1 0 4 4 1 1 1 1 3 1 3 0 1 1 2 1 3 1 0 1 1 0 2 1 0 2 1 2 0 1 0 1 3 2 0 1 1 1 2 1 0 1 0 2 3 0 2 1 1 3 0 1 0 0 1 1 0 0 2 0 2 0 1 2 1 1 1 1 1 2 1 1 2 2 1 1 1 1 0 3 1 0 0 0 1 4 0 1 0 1 0 2 2 2 0 0 1 0 1 3 4 3 1 1 2 0 1 0 1 2 1 0 0 0 4 1 5 1 2 1 3 1 1 4 2 2 1 1 1 2 1 1 0 2 2 3 0 3 1 2 1 1 2 1 1 1 1 0 0 1 3 2 1 2 1 2 1 1 3 0 2 2 2 3 2 1 0 1 3 2 2 2 3 1 0 2 1 2 0 1 0 2 1 1 2 2 2 1 2 0 1 1 1 0 0 2 1 1 3 0 1 0 3 1 0 2 0 3 1 1 1 0 3 1 2 0 1 0 2 1 1 1 2 3 1 2 1 1 1 2 1 0 1 1 2 1 4 2 0 1 2 2 2 1 1 1 1 1 0 1 1 2 0 2 3 3 4 0 0 2 2 2 2 2 4 0 0 2 1 0 0 0 0 1 2 2 2 1 0 2 1 0 2 3 1 1 1 2 0 1 1 1 1 0 2 3 2 0 0 0 1 1 1 1 1 3 1 1 2 2 1 1 0 2 2 2 1 0 2 3 1 0 0 0 1 2 1 0 1 2 2 2 3 1 1 1 1 2 0 0 5 1 3 0 2 0 2 1 2 2 3 1 1 2 0 1 2 2 0 2 3 2 0 2 1 1 2 2 0 1 0 0 0 2 1 0 0 2 1 0 1 1 1 2 1 3 1 0 0 2 0 1 2 0 4 0 1 1 0 3 2 2 4 0 1 1 0 1 0 1 2 1 1 0 2 4 1 0 1 1 0 1 0 2 1 0 2 1 2 1 0 2 1 2 1 1 1 1 2 2 0 2 2 1 1 2 1 3 2 0 2 1 0 0 1 1 2 0 1 0 2 2 1 0 1 2 1 1 0 0 0 1 0 2 1 1 0 2 1 2 1 2 1 2 0 1 2 0 2 4 0 1 0 2 2 1 2 1 2 1 1 1 2 1 1 2 1 2 2 4 1 2 2 2 1 0 1 0 1 3 1 1 1 1 2 3 1 0 0 1 2 2 2 1 1 2 1 0 1 2 1 5 1 2 1 0 1 0 0 1 2 2 2 0 2 2 2 3 3 2 1 1 1 1 1 0 1 1 2 0 0 0 1 0 1 2 0 1 2 1 1 3 1 1 1 1 0 1 0 2 0 0 3 2 0 1 1 0 2 0 0 1 1 1 1 1 1 0 0 0 1 5 1 2 0 1 1 1 1 1 1 0 1 0 2 0 0 2 2 2 0 0 1 1 0 2 2 1 0 2 0 2 1 1 0 0 2 1 1 2 2 1 1 1 4 2 2 1 2 0 0 1 2 0 1 3 0 0 1 3 2 1 0 1 1 1 1 1 2 1 4 0 0 3 2 0 2 1 2 1 3 0 2 1 1 1 1 1 2 2 1 1 2 2 0 0 0 1 1 1 1 0 0 1 2 3 2 3 2 1 0 2 1 1 2 1 2 0 0 2 0 0 3 1 1 0 2 3 2 3 4 1 1 2 1 0 2 2 0 3 1 1 0 1 1 0 1 2 3 1 1 1 2 1 1 4 1 2 1 2 3 1 0 1 1 0 0 3 4 1 1 2 0 1 1 1 1 3 2 1 0 2 1 2 2 1 0 1 0 2 2 2 0 2 0 1 2 1 2 0 1 2 1 0 0 1 4 1 1 1 1 2 3 1 3 1 1 1 1 0 0 2 2 0 0 1 1 2 1 0 1 2 1 2 1 0 2 1 0 3 2 1 0 2 2 0 1 2 2 3 0 3 0 1 1 1 0 3 1 1 1 2 1 2 0 1 2 3 2 1 2 1 2 1 1 1 0 0 0 2 1 1 1 0 0 0 0 2 1 1 1 2 0 1 2 1 2 1 2 2 2 1 1 0 2 2 1 1 1 1 2 2 2 1 1 1 2 0 1 2 1 1 0 3 2 1 1 2 2 2 0 1 2 3 3 2 1 2 1 2 0 3 1 2 0 0 0 0 0 2 2 0 1 2 2 0 2 2 1 1 2 1 0 1 0 0 0 0 1 1 0 1 0 0 3 0 1 2 3 2 2 3 1 1 1 2 0 0 2 1 0 1 1 1 1 1 1 0 1 1 1 0 1 0 0 4 2 1 0 1 1 1 1 2 1 1 1 1 0 1 0 1 2 3 2 1 0 0 0 3 1 0 2 1 3 2 2 0 3 2 1 1 2 0 2 0 2 2 0 0 1 0 1 2 1 3 0 2 1 1 2 2 0 0 3 0 2 1 4 2 1 2 1 1 1 1 1 4 1 3 1 0 0 2 3 1 1 1 1 2 1 0 2 3 0 1 4 0 2 0 0 1 5 1 3 1 1 0 2 1 1 3 2 2 0 2 1 1 5 0 0 0 1 0 0 2 2 3 1 0 0 0 2 0 1 0 1 3 1 0 2 0 1 1 1 3 0 2 2 2 0 0 1 2 2 1 3 3 2 3 2 2 1 2 1 2 1 3 0 3 0 2 1 3 1 1 1 2 0 1 2 0 0 4 0 2 2 2 2 1 1 1 2 1 2 0 3 2 1 1 1 0 1 1 1 0 1 1 3 2 2 1 1 4 1 2 0 1 3 1 2 0 2 2 2 0 1 1 1 0 1 2 1 1 3 1 0 1 2 0 0 0 3 2 1 0 0 0 1 2 1 1 1 3 3 2 0 0 5 1 3 2 2 1 0 2 1 1 1 1 1 2 1 1 3 1 2 1 1 0 3 0 0 0 1 2 1 2 1 1 0 3 2 1 2 2 0 0 1 1 1 1 3 2 1 1 2 1 0 1 2 0 2 2 1 2 1 1 1 1 0 1 0 1 1 0 1 3 2 0 1 1 1 1 2 1 5 2 1 1 1 3 2 4 0 1 2 1 0 0 1 1 0 1 0 0 2 3 0 2 1 2 2 1 0 1 1 1 2 1 0 1 0 1 1 1 0 4 1 0 1 4 1 0 1 1 1 0 1 2 1 2 0 1 1 0 3 3 2 2 0 0 1 3 2 0 0 3 2 1 1 1 1 0 2 1 0 2 1 1 1 0 1 1 1 1 2 1 0 0 1 3 1 2 2 0 1 1 2 3 0 1 2 2 1 0 1 2 1 2 3 0 1 2 1 0 0 0 0 0 2 1 0 2 2 1 0 2 0 1 1 0 2 0 3 3 0 3 1 2 1 0 1 0 1 1 1 0 1 2 1 1 2 1 0 1 0 1 3 0 2 1 0 2 0 1 2 2 1 0 1 1 1 1 0 1 2 1 1 1 2 0 2 1 2 1 2 2 1 2 1 0 2 0 1 1 1 1 1 0 2 2 1 1 4 3 1 3 2 1 2 1 0 2 0 2 0 3 3 1 1 2 0 3 0 1 2 4 3 1 0 0 1 1 3 0 3 3 1 0 1 2 2 0 3 1 3 1 4 1 0 4 0 2 1 1 2 3 1 3 2 1 2 1 3 2 2 3 1 1 0 2 1 0 1 1 3 1 2 4 2 0 1 0 4 4 4 1 1 2 0 0 3 2 1 2 0 1 1 2 2 0 2 2 2 0 1 3 0 3 1 1 2 2 1 1 1 2 1 1 1 2 0 0 2 2 0 0 1 0 2 0 1 1 0 0 1 2 2 2 1 2 1 2 0 1 3 2 0 1 1 1 1 1 2 2 0 2 1 1 1 2 0 1 0 1 1 2 1 2 1 1 2 3 2 1 2 0 1 1 0 2 1 2 2 0 0 1 2 1 1 1 1 3 0 1 1 1 1 0 0 1 3 2 1 0 0 0 1 0 2 0 4 3 1 0 1 1 1 1 2 2 1 3 2 1 3 0 1 1 2 0 1 1 1 1 0 1 1 1 1 2 0 1 3 1 3 1 1 1 3 1 1 0 2 1 1 2 0 3 0 0 0 0 0 1 3 2 1 4 0 0 0 1 3 3 1 1 1 3 1 1 1 0 1 0 0 3 1 2 2 1 2 1 0 1 0 1 2 2 1 2 2 1 2 2 2 0 0 2 1 0 1 2 0 1 2 2 2 3 2 1 2 1 3 3 2 0 1 2 3 2 0 0 3 2 1 0 0 0 2 2 0 2 1 1 2 0 1 1 1 1 2 1 0 0 2 0 2 0 1 1 1 1 0 3 2 2 1 0 0 1 3 1 0 1 1 1 1 1 1 1 3 3 1 1 3 0 1 2 1 1 1 3 2 4 5 1 1 1 1 2 2 0 3 2 2 0 1 0 2 1 2 2 2 1 1 1 2 0 1 1 2 2 1 3 1 2 2 0 2 1 1 1 1 1 2 3 3 1 1 0 0 2 1 0 1 1 1 1 2 0 4 3 0 0 3 1 1 2 1 1 1 2 1 0 2 1 0 2 1 1 1 1 1 2 3 2 0 1 1 1 1 1 0 1 0 3 1 1 1 1 1 0 0 0 1 1 2 0 2 1 1 1 1 2 3 2 0 2 1 0 0 2 1 2 0 2 2 1 3 0 1 1 0 1 1 1 2 1 2 1 0 2 0 4 1 2 2 1 1 1 0 0 1 0 2 1 0 2 3 2 2 1 1 1 2 2 1 0 2 0 2 1 0 2 1 1 3 0 2 1 2 2 1 2 2 4 1 1 1 0 0 3 0 3 2 0 2 0 2 3 0 1 2 1 1 1 2 2 0 2 1 1 0 1 1 2 0 2 0 1 0 2 1 1 0 1 2 2 1 0 3 2 1 2 3 2 1 2 2 2 0 0 0 2 0 1 1 2 1 3 2 2 0 1 3 2 3 1 1 3 1 3 1 1 1 1 1 2 1 1 0 3 0 2 2 0 2 1 0 2 1 2 0 0 4 1 2 2 2 4 1 2 1 1 3 2 2 1 1 2 0 0 1 1 1 1 1 1 1 3 0 1 3 2 2 3 1 0 2 2 3 1 3 1 1 3 3 2 0 1 1 2 2 3 0 2 1 3 1 3 2 2 2 1 1 1 2 2 2 2 0 1 4 0 0 0 1 3 1 1 1 3 0 2 0 2 0 3 3 2 2 2 4 0 1 0 1 0 3 0 0 1 0 1 2 0 0 1 0 0 0 2 1 1 2 2 2 1 0 1 1 1 2 3 0 0 0 2 3 2 2 0 1 3 1 1 1 0 2 2 2 0 2 1 1 0 1 0 1 2 1 0 1 1 1 0 0 1 1 1 0 2 1 1 0 2 1 2 1 2 2 1 0 1 2 1 1 1 3 0 0 1 2 1 1 1 1 2 0 1 2 1 4 0 1 1 1 0 0 2 1 2 2 3 0 3 0 1 2 1 1 0 1 1 1 2 2 0 1 2 1 0 2 0 2 0 1 3 3 1 0 1 1 0 3 2 1 1 1 0 1 5 0 2 2 1 0 0 1 1 1 1 0 0 1 3 0 1 0 0 2 2 2 3 0 2 0 1 1 3 0 2 0 0 0 1 3 1 0 1 1 1 2 2 2 4 1 1 3 1 1 3 1 2 1 0 0 2 3 1 1 2 0 2 2 1 2 2 3 2 1 2 1 2 1 0 1 2 0 0 0 2 2 0 0 0 0 0 0 0 4 4 2 0 0 3 3 1 0 2 0 1 1 1 2 1 3 1 0 1 1 1 0 3 0 0 1 0 1 1 3 0 1 0 2 1 1 0 0 2 0 2 1 2 2 1 1 0 1 2 0 1 2 0 1 1 2 0 1 0 2 1 1 3 2 0 1 5 2 2 1 0 2 2 1 1 0 2 0 2 1 1 1 2 0 0 1 0 2 1 2 3 1 1 1 0 0 2 1 1 2 1 0 0 2 2 0 3 2 1 2 0 2 1 1 1 0 2 1 1 0 1 0 3 0 2 4 1 1 2 2 1 1 0 0 1 3 2 0 0 0 2 3 2 0 3 0 1 0 1 2 2 2 1 1 0 1 1 1 1 3 1 1 2 2 1 1 1 2 4 1 1 3 1 2 2 0 2 1 2 2 3 2 2 3 2 2 1 2 0 1 1 0 1 3 1 1 2 2 1 0 2 1 0 1 1 1 2 0 3 0 2 2 1 2 2 2 1 0 0 1 1 2 1 0 0 0 1 2 2 2 0 2 0 1 1 0 4 1 2 1 1 0 1 1 3 2 0 1 0 3 1 0 2 2 3 1 2 0 1 3 2 2 1 2 2 0 3 1 0 1 0 2 1 1 2 4 0 1 0 1 1 2 1 1 0 2 1 1 0 1 1 1 0 2 2 2 2 2 0 0 2 0 1 1 1 1 0 1 5 1 1 3 2 2 2 2 2 1 4 1 1 1 3 1 1 1 2 2 3 0 3 1 2 1 1 1 1 2 0 1 0 1 1 1 1 0 1 1 3 1 1 1 1 2 3 1 0 3 0 2 2 1 2 1 0 0 1 0 0 2 0 3 0 0 3 1 1 1 3 2 2 3 2 4 0 0 1 1 1 1 1 1 0 0 3 0 4 1 1 4 2 3 1 1 2 0 2 1 1 1 4 1 1 3 4 1 1 2 1 1 2 1 1 2 0 1 1 2 2 0 1 0 2 1 2 1 2 1 1 0 1 1 1 0 2 1 1 0 0 1 2 0 0 1 0 1 0 3 1 0 1 0 3 4 0 2 2 3 1 1 0 2 2 0 2 2 1 3 2 4 1 1 1 1 0 0 1 0 1 4 1 1 1 2 1 1 1 2 2 1 0 0 2 1 0 2 1 0 2 1 4 2 1 0 2 2 1 1 1 1 1 0 0 1 1 1 2 1 0 2 1 1 0 1 1 1 2 0 0 1 1 2 0 2 1 1 1 3 1 1 0 1 2 2 1 0 0 1 1 0 1 2 3 2 2 3 2 1 3 3 0 1 0 2 2 1 0 0 4 1 2 1 2 1 2 0 0 1 0 0 2 1 0 4 4 0 2 0 0 2 0 1 2 1 2 1 3 2 1 1 3 2 0 1 0 1 1 2 1 3 1 1 2 2 1 1 2 1 2 1 1 1 0 1 0 0 1 0 1 1 2 2 0 1 1 3 2 3 2 2 1 2 2 1 5 1 0 3 2 1 0 0 1 3 0 2 1 1 0 1 1 0 0 1 1 1 1 2 3 0 2 2 1 1 0 3 2 1 3 2 2 2 2 2 1 1 1 1 2 0 0 1 1 1 0 1 1 1 2 1 0 1 2 1 1 0 0 0 0 1 1 2 1 2 0 2 2 0 0 5 1 1 3 1 1 3 1 1 0 2 0 0 2 0 0 2 0 1 0 1 2 1 2 3 1 2 1 0 3 0 1 1 2 0 3 3 2 1 1 2 1 2 1 0 0 1 2 2 2 0 1 1 0 1 2 1 3 1 1 2 2 1 1 0 4 3 4 1 2 3 1 2 0 0 2 1 0 0 2 0 1 1 2 1 0 2 2 2 2 1 1 1 1 1 1 1 1 0 1 2 0 1 0 2 2 2 2 3 4 0 2 1 1 1 2 1 1 3 0 1 2 2 0 1 2 1 2 1 3 0 2 2 1 2 1 1 3 1 1 0 1 1 1 3 2 1 2 2 2 1 1 1 1 1 2 1 1 1 1 0 0 2 0 0 2 3 1 2 0 0 0 1 1 0 1 1 3 1 1 0 2 1 1 2 3 1 1 1 1 1 4 1 1 2 1 4 0 3 1 3 0 3 3 1 3 1 3 0 1 1 1 0 0 2 0 1 1 2 1 0 0 1 1 0 1 1 1 2 1 2 2 3 1 0 1 1 1 0 2 3 1 2 2 1 1 2 1 0 1 1 0 2 3 3 0 0 2 2 4 1 2 1 2 2 2 0 1 0 1 2 2 0 0 1 1 0 2 1 1 0 1 1 1 2 0 1 1 2 2 1 1 3 2 1 1 2 1 0 2 0 0 2 3 2 2 2 0 0 1 0 0 3 1 2 1 1 1 2 2 1 2 1 3 2 1 0 0 0 3 1 2 1 3 0 1 1 2 1 2 1 0 3 3 0 2 3 1 1 0 0 0 3 1 1 4 1 1 1 0 1 2 2 2 0 2 2 2 1 2 0 2 0 0 2 0 2 1 2 2 1 3 1 2 2 0 1 2 1 2 1 3 1 3 2 3 1 0 1 2 0 1 1 0 2 2 0 5 1 0 2 1 1 1 1 2 3 2 2 0 0 2 1 0 2 1 1 1 1 1 2 1 2 0 0 0 1 1 0 2 0 1 0 1 2 2 2 2 1 1 3 0 1 3 3 1 0 2 1 1 0 2 2 0 1 1 1 1 1 1 1 0 3 1 2 1 0 1 2 0 0 3 1 0 1 3 0 2 1 2 1 0 1 3 0 0 2 1 2 1 2 0 4 1 0 2 3 1 0 2 2 2 1 0 0 2 3 1 1 1 2 0 0 0 3 1 3 0 1 3 2 1 0 2 1 1 2 1 1 1 2 2 0 0 0 2 1 1 0 1 1 1 1 3 3 1 2 1 2 2 1 4 1 2 0 2 1 0 1 2 2 0 2 1 0 2 0 1 2 0 0 3 1 0 3 1 2 1 2 2 1 0 1 1 0 1 1 0 1 2 2 0 0 2 0 0 1 1 3 1 1 1 1 1 2 2 2 1 1 1 2 1 1 0 2 1 1 0 1 1 1 0 3 2 2 1 1 2 1 3 0 3 0 0 0 0 1 0 1 1 2 1 1 1 2 1 1 0 1 2 1 2 1 1 1 2 2 0 0 2 0 1 1 0 0 1 1 1 1 2 2 2 0 0 1 1 2 1 0 0 2 2 4 1 2 4 1 0 1 2 2 1 1 1 2 2 0 2 3 2 1 3 1 0 0 1 1 0 3 1 1 1 0 3 1 0 0 1 1 0 3 2 1 1 1 3 1 1 0 2 3 3 1 2 3 0 1 2 0 0 3 0 1 1 0 2 1 0 1 0 1 2 1 1 2 2 1 3 0 3 1 4 1 2 2 0 0 0 1 1 1 1 2 1 2 2 2 1 3 1 1 1 0 1 1 3 0 1 1 0 0 1 1 1 1 1 2 1 1 1 1 1 1 1 1 2 3 2 0 2 0 2 0 2 2 1 1 0 2 0 2 0 1 1 1 1 1 2 1 1 0 2 1 2 1 1 1 0 2 0 1 2 1 3 1 2 2 1 0 2 1 1 0 0 4 3 1 1 2 0 2 1 2 0 1 1 3 3 0 2 1 1 2 2 1 0 1 0 1 0 0 1 2 0 1 3 3 1 3 1 1 2 1 2 1 0 1 2 1 0 2 4 2 3 0 2 2 2 2 1 1 0 1 1 0 1 3 0 0 2 3 1 1 1 2 0 1 0 1 0 3 1 2 1 1 1 0 1 2 2 1 2 1 1 2 1 2 2 2 1 0 1 2 1 1 2 1 1 1 1 2 1 0 4 1 2 2 0 0 1 0 0 0 2 3 2 0 2 1 1 1 1 2 0 1 2 3 1 2 0 1 1 1 2 3 0 0 1 2 2 1 2 0 1 1 3 2 3 2 3 3 2 4 1 2 0 1 1 0 1 0 1 1 1 2 3 1 1 2 1 0 0 0 0 2 1 1 2 1 1 0 0 2 1 1 1 0 1 2 2 2 1 3 1 1 3 1 2 1 2 0 1 0 1 1 1 2 1 4 3 0 3 1 3 2 1 0 0 1 1 1 2 0 1 0 3 2 0 0 2 0 1 0 5 0 0 0 1 1 1 1 1 2 0 2 1 1 3 2 1 1 2 2 2 1 1 1 1 1 2 2 1 1 0 2 2 2 0 1 1 1 1 0 1 1 4 1 1 1 2 2 1 1 1 1 0 2 0 1 1 1 3 2 2 1 1 2 1 2 2 1 3 1 1 0 1 0 1 1 1 0 1 2 2 2 2 1 1 1 2 0 0 1 1 1 0 1 1 1 1 2 0 2 1 0 1 1 1 0 3 1 3 1 2 0 1 2 1 1 2 2 1 0 2 2 0 0 1 1 0 2 0 1 4 1 1 0 2 1 1 2 0 1 1 0 2 0 1 1 3 0 2 0 0 3 0 2 2 1 2 0 2 0 2 0 1 1 1 0 2 2 1 1 2 2 0 1 0 0 0 0 2 2 2 0 1 2 1 1 2 1 0 1 2 0 3 2 1 3 1 0 2 1 1 1 1 2 1 1 1 1 0 1 1 2 1 0 1 1 1 1 0 3 0 2 0 1 2 2 2 1 1 2 1 0 0 4 1 1 1 2 4 2 1 1 2 1 2 3 2 2 1 1 1 1 0 1 1 0 2 3 0 0 0 1 1 3 2 2 2 1 4 2 0 2 2 1 1 3 0 3 2 2 1 1 1 2 4 2 0 0 2 3 0 2 2 0 1 1 2 0 1 2 1 1 1 1 0 1 0 0 0 1 1 1 1 1 1 2 0 2 0 2 1 0 2 1 2 1 1 1 3 1 0 0 3 0 0 1 1 2 1 0 2 1 1 1 1 2 1 0 1 0 3 0 2 1 1 0 1 2 0 2 2 0 3 0 1 0 1 1 1 1 2 1 1 1 1 2 1 0 0 1 2 0 1 1 2 1 1 1 2 1 1 3 2 2 2 2 2 3 1 0 0 1 0 0 1 1 2 1 0 2 4 1 3 1 1 0 0 1 0 2 1 0 0 1 1 1 1 1 2 0 0 3 2 0 2 1 1 2 1 4 2 1 2 2 2 1 1 2 1 0 0 1 3 0 2 1 1 2 1 1 1 1 3 2 0 1 0 2 1 0 2 3 1 1 0 1 1 1 1 1 1 2 1 2 1 2 1 1 0 1 2 0 0 2 0 2 1 3 0 0 0 2 2 4 1 1 2 1 0 0 2 1 3 2 2 2 1 0 2 1 1 2 2 1 1 1 1 2 2 1 3 1 1 2 2 2 1 1 1 3 1 2 3 1 4 1 2 1 1 1 0 0 0 2 1 1 4 2 1 3 1 1 1 2 1 1 3 3 2 1 3 2 0 0 1 2 2 2 1 1 1 1 1 1 2 1 0 0 0 1 1 1 1 0 2 2 2 1 1 1 1 2 0 3 1 1 1 1 1 2 2 1 1 1 1 1 2 0 4 1 0 2 0 0 3 1 1 0 2 1 2 2 0 0 0 1 2 0 3 0 1 2 2 0 2 1 2 1 1 1 1 3 2 1 1 0 1 1 2 1 1 1 2 1 1 2 2 2 1 1 0 2 2 1 2 1 2 1 2 1 1 1 3 0 1 2 1 1 3 0 1 1 1 1 0 2 1 2 1 1 3 1 1 0 3 1 0 1 1 1 0 1 2 0 0 0 2 1 2 3 2 3 0 1 1 1 1 0 0 2 0 0 2 2 0 2 3 1 2 1 3 0 3 2 1 2 0 1 2 1 1 1 4 3 3 0 1 1 0 1 2 0 0 0 1 1 1 1 1 1 0 2 0 1 1 0 2 2 0 3 0 2 1 2 1 0 3 1 2 2 3 0 1 0 3 4 2 1 0 1 0 0 0 0 1 1 1 3 1 2 0 2 0 2 0 0 1 0 1 2 2 2 1 1 3 0 0 3 0 0 0 2 2 1 0 1 0 1 2 2 2 1 0 1 1 1 2 0 2 0 2 1 0 1 3 1 1 2 1 1 1 2 1 1 1 1 0 1 1 2 2 1 1 2 1 0 2 1 0 1 1 0 2 1 2 2 1 1 1 1 1 0 1 3 2 1 1 0 2 1 1 3 1 0 3 1 0 0 2 0 1 1 0 1 1 0 2 1 2 1 2 1 1 0 0 0 0 2 1 1 1 0 0 2 0 0 0 1 1 1 2 1 0 1 3 1 1 2 0 0 1 1 2 2 1 1 3 1 1 2 1 1 0 0 1 0 1 0 1 1 4 1 0 2 1 0 0 3 3 2 1 3 2 2 0 1 0 1 2 0 2 0 2 0 1 2 0 2 1 3 0 0 0 1 0 0 1 2 1 1 3 1 2 1 1 3 0 1 1 1 1 0 4 1 1 2 2 1 0 1 1 0 4 0 1 2 5 1 0 2 1 2 2 2 2 3 2 1 0 1 0 2 0 0 1 1 1 0 1 3 1 1 2 3 0 0 0 3 2 2 4 0 1 1 0 0 3 4 1 1 1 0 0 2 2 3 1 1 1 4 2 0 2 1 3 0 2 1 1 1 2 1 4 0 1 3 3 0 0 2 1 2 1 1 0 1 4 2 2 1 0 2 1 0 2 0 1 2 1 3 2 2 1 1 1 1 0 2 1 1 1 3 1 3 2 2 2 0 2 1 2 1 1 2 0 1 0 2 1 1 1 2 0 1 2 1 2 2 0 1 1 2 1 3 1 0 2 2 1 2 0 3 0 2 1 0 0 0 1 1 0 1 2 1 0 2 0 1 1 1 0 1 2 0 4 2 3 3 1 2 2 1 0 2 1 1 0 0 2 2 2 1 1 1 1 0 1 1 0 0 2 0 2 0 2 2 0 2 2 1 0 2 1 1 2 1 1 1 3 1 0 1 1 3 2 0 2 1 2 2 0 3 0 0 1 0 1 2 1 2 0 1 1 2 1 2 2 0 1 0 3 2 1 2 3 0 1 0 1 0 1 3 1 0 2 1 0 2 1 0 2 1 0 1 1 1 2 2 1 3 2 1 1 1 1 1 1 3 1 3 0 2 1 1 1 3 1 0 1 2 0 0 1 2 2 1 0 2 1 0 1 0 1 3 0 2 1 1 2 0 2 3 3 1 2 0 2 2 1 4 1 2 1 2 3 2 2 1 1 0 0 1 1 0 1 0 1 1 1 2 0 1 1 1 2 2 1 1 1 2 3 2 4 1 2 2 2 0 0 2 1 1 1 3 3 0 2 1 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 2 0 0 1 2 1 2 1 0 2 1 0 1 2 2 3 1 2 1 1 3 2 1 2 0 0 1 0 0 0 2 1 1 1 0 3 1 3 0 2 1 1 2 1 0 1 2 1 0 0 3 1 0 0 2 1 1 2 2 1 0 1 3 1 1 1 1 1 1 3 1 1 2 1 1 2 2 2 1 1 1 1 0 1 3 1 1 1 2 2 2 1 4 0 0 3 0 1 1 1 0 1 1 1 2 0 1 1 2 1 0 0 0 0 0 1 1 2 1 1 2 0 1 2 0 0 1 1 1 3 2 1 2 1 1 2 2 2 1 0 2 1 2 2 1 1 3 1 2 1 1 3 1 2 1 1 2 1 0 2 0 0 2 0 2 0 2 3 1 1 1 1 1 2 1 2 2 2 2 1 2 0 1 0 2 3 0 2 2 1 1 2 2 1 1 3 0 1 0 2 1 0 1 2 1 1 1 1 2 1 3 1 1 0 1 2 2 1 0 1 2 2 0 1 2 2 2 1 1 3 3 1 0 2 1 0 1 0 1 1 3 2 1 0 0 0 2 1 2 0 0 1 0 3 2 1 1 1 3 2 1 1 1 0 1 1 3 2 1 1 0 4 1 2 2 1 2 0 2 1 3 1 1 2 1 0 2 3 3 1 1 3 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 0 0 2 2 2 3 1 3 0 2 2 1 3 3 1 1 1 1 0 3 2 0 1 2 1 0 5 2 2 2 2 1 1 2 1 3 2 3 1 1 1 1 2 1 4 2 2 3 0 1 5 4 0 3 2 1 2 1 1 0 0 0 3 0 1 2 2 0 2 1 0 3 2 1 1 0 1 0 3 0 0 0 1 1 1 2 1 3 1 1 0 1 2 1 4 1 1 2 1 3 0 1 1 3 1 1 1 3 0 2 1 1 2 3 0 1 2 1 0 2 1 2 2 3 0 2 0 2 2 2 1 3 1 2 1 0 2 1 2 1 1 3 0 1 1 2 1 0 0 1 0 2 2 1 1 0 0 1 1 3 3 3 1 1 3 1 0 1 1 0 1 1 1 3 2 2 2 2 1 2 0 2 0 3 2 0 1 0 2 1 1 0 0 0 1 3 2 3 1 2 1 1 1 3 1 2 2 2 3 1 1 2 5 3 1 2 1 2 0 2 1 1 3 2 0 4 1 1 1 2 2 0 2 0 0 1 4 0 1 3 2 1 0 1 2 1 2 2 3 0 0 0 2 5 1 1 2 0 2 1 1 2 2 0 1 2 0 2 1 1 1 2 1 2 3 0 0 1 2 2 0 1 0 0 0 1 4 3 0 3 1 2 1 2 4 2 1 1 2 1 1 0 0 0 2 2 0 3 1 2 1 1 2 1 5 2 0 1 2 1 2 2 1 0 1 2 2 2 0 1 1 1 1 1 2 0 2 2 2 1 0 0 2 1 1 0 1 2 2 2 2 3 0 0 1 3 1 2 1 3 1 2 2 1 4 2 2 2 3 2 2 0 1 2 0 2 2 3 1 1 2 0 1 1 1 2 2 1 1 2 0 3 0 2 1 2 1 1 1 1 1 1 2 2 1 0 1 1 0 1 1 0 2 1 1 1 0 2 1 1 2 1 1 4 1 0 2 0 2 3 1 3 0 3 2 1 4 2 0 1 1 1 0 2 1 1 1 0 1 2 1 1 3 0 2 1 1 1 2 2 0 2 1 1 3 1 1 0 2 1 3 0 2 1 0 2 1 1 1 2 3 2 0 3 1 1 2 0 0 0 1 1 0 1 1 3 0 2 3 1 1 1 3 1 2 4 0 1 2 2 1 0 0 1 2 0 1 2 1 1 1 3 2 1 1 1 0 3 2 2 2 2 1 0 3 3 1 0 2 2 3 1 0 0 1 1 1 3 1 1 0 1 3 0 1 1 1 0 0 4 3 2 0 3 1 2 2 0 3 2 1 1 1 1 4 1 0 1 1 1 1 4 2 0 0 2 0 1 1 2 2 1 1 2 1 0 1 2 0 3 0 1 1 2 0 0 0 2 2 3 1 0 1 0 1 0 0 1 1 2 1 3 2 1 1 2 2 2 1 1 1 0 1 0 3 2 1 1 1 1 1 0 2 2 1 2 1 0 2 1 3 1 1 2 1 1 1 1 1 2 3 1 1 1 1 1 3 1 1 0 1 2 1 2 3 2 2 1 2 0 0 0 0 2 0 3 4 2 2 3 3 1 2 0 1 1 2 2 1 1 1 1 1 1 0 1 1 1 2 1 4 1 3 1 0 2 1 1 1 3 0 1 4 2 2 0 0 1 2 2 1 0 0 1 1 2 1 2 1 2 2 1 2 0 1 1 1 1 4 2 0 2 1 2 2 2 0 1 3 1 0 2 2 1 1 1 1 0 0 0 3 0 3 1 2 1 1 1 1 2 0 0 0 1 0 1 0 0 3 0 2 2 2 2 2 1 1 1 0 1 1 0 4 1 0 1 1 3 2 2 0 0 2 1 3 1 2 3 1 2 1 2 1 1 1 1 0 1 3 0 0 1 3 3 0 3 1 1 1 1 2 1 0 0 1 0 0 3 1 2 3 1 0 2 1 2 1 2 2 1 1 1 0 2 3 0 3</t>
-  </si>
-  <si>
-    <t>GAM(0.4838126633556169, -8.704350646800277e-27, 0.6534374248667578)</t>
-  </si>
-  <si>
-    <t>2 1 0 0 0 0 1 1 3 1 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 1 0 1 0 2 1 1 0 1 1 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 3 0 0 1 0 1 0 3 1 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 2 0 1 1 0 0 1 0 2 2 0 0 0 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 1 0 2 1 3 0 0 0 0 0 0 2 0 0 2 0 0 0 1 0 1 0 0 2 0 1 0 0 0 0 1 0 1 0 0 0 2 0 1 2 1 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 2 0 0 0 0 1 0 1 1 0 0 0 1 0 1 1 1 1 1 1 1 2 1 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 1 0 2 1 1 1 3 0 1 2 2 0 0 2 1 0 0 0 0 0 0 0 0 0 0 2 1 2 0 2 1 2 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 2 2 1 1 1 0 2 0 0 0 0 0 1 0 0 1 1 0 2 0 0 1 0 1 0 1 0 2 0 0 1 0 0 0 0 1 0 1 0 0 2 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 1 1 1 0 2 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 1 2 0 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 1 0 1 3 2 0 0 1 0 0 0 0 1 1 2 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 0 2 0 2 1 0 4 1 0 0 1 0 0 0 0 0 2 1 1 0 0 0 0 1 2 1 0 2 0 0 0 0 1 0 1 0 0 0 1 0 0 1 3 1 0 1 0 3 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 1 2 0 0 1 0 1 3 0 1 1 2 0 2 1 1 1 0 0 1 0 3 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 2 0 1 1 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 3 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 2 2 0 0 1 1 0 0 1 2 0 1 2 0 0 0 2 0 2 0 0 1 0 0 1 1 0 2 1 1 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 2 1 1 3 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 1 0 1 1 0 1 2 1 0 0 2 0 0 0 1 0 1 2 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 0 3 0 2 0 0 0 0 3 1 0 0 0 1 0 1 0 1 0 0 0 1 0 3 0 0 1 0 0 1 1 0 0 0 0 2 1 0 0 2 1 1 0 0 0 2 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 2 1 0 0 0 1 0 1 1 0 1 0 1 0 2 1 0 2 2 0 0 2 0 2 0 0 1 2 0 0 1 1 2 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 0 0 0 0 3 1 3 0 1 0 1 0 0 0 1 0 0 3 1 0 1 1 0 0 2 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 2 0 1 0 0 1 0 1 0 0 0 3 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 3 0 2 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 2 0 2 0 1 1 3 1 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 1 1 1 0 1 2 0 0 0 0 0 0 1 2 1 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 1 1 2 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 2 0 0 1 1 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 2 0 2 1 0 2 1 0 0 3 1 0 0 0 0 1 0 0 2 0 0 0 0 0 3 0 1 1 0 2 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 1 1 1 1 0 0 1 1 0 1 1 0 0 2 0 1 2 0 1 1 1 0 1 0 0 1 3 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 2 0 0 0 0 2 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 2 1 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 2 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 2 0 0 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 3 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 2 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 0 0 0 2 1 0 0 0 0 0 2 1 0 1 1 0 0 1 0 0 0 0 0 1 0 2 1 0 0 3 0 1 0 0 0 1 1 2 1 1 1 0 0 1 0 0 1 1 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 2 0 0 0 0 1 1 1 2 2 0 1 1 1 0 0 1 0 0 0 0 2 0 0 1 0 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 1 0 0 0 1 3 0 0 0 1 1 0 0 3 1 1 0 1 0 2 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 2 0 2 0 0 2 1 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 2 0 0 1 0 1 0 1 0 2 0 1 0 0 0 1 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 1 2 1 0 1 0 0 1 2 1 0 0 2 0 0 1 1 0 0 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 2 1 1 1 1 2 0 1 3 0 0 1 1 0 1 0 0 0 2 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 2 0 1 0 2 1 0 1 0 0 1 2 1 0 1 0 0 0 0 0 1 0 2 0 1 2 0 1 1 1 0 0 0 2 0 0 1 1 1 0 0 0 0 1 0 0 1 0 2 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 2 0 0 1 0 0 1 2 0 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0 1 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 1 0 0 2 0 1 0 0 2 1 0 0 1 0 0 1 1 1 0 2 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 1 1 3 0 0 2 1 2 0 1 2 1 1 1 0 0 2 0 2 1 2 0 0 1 1 0 0 0 2 0 1 0 1 3 2 0 0 1 1 0 0 2 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 1 0 0 1 2 0 0 2 1 0 0 0 0 0 1 0 1 0 0 1 0 0 2 1 3 1 2 3 0 2 0 1 1 2 0 0 0 0 1 0 0 1 1 1 1 0 0 0 2 0 1 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 1 2 0 1 2 0 0 2 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 2 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 4 1 1 1 0 0 0 0 1 0 1 0 0 2 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 1 2 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 0 2 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 2 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 2 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 2 2 0 1 0 0 1 1 0 0 2 0 0 0 1 1 2 0 0 1 1 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 3 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 2 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 2 0 1 1 1 0 1 1 0 0 0 0 0 1 3 0 0 2 0 0 1 0 0 1 1 0 0 2 1 1 0 0 0 1 0 0 1 1 1 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 3 0 0 0 1 0 1 1 2 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 1 1 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 1 2 0 1 1 1 0 0 0 0 0 2 0 1 1 0 2 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 3 1 0 1 1 1 0 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 2 1 0 1 1 1 1 0 0 1 1 2 3 0 2 0 0 1 1 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 1 0 0 2 1 1 0 0 0 1 0 0 0 2 1 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 4 0 0 1 1 0 0 1 0 0 0 0 0 0 2 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 1 0 2 1 0 0 0 0 1 0 1 0 2 0 0 0 0 0 2 0 1 1 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 2 1 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 4 2 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 2 1 1 1 2 0 0 0 1 2 0 0 1 0 0 0 1 0 0 1 1 0 0 0 2 0 0 2 1 0 0 0 1 0 1 0 0 1 2 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 2 0 2 0 0 0 1 1 1 0 1 1 0 0 0 0 0 1 1 1 3 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 2 0 0 1 0 2 1 0 1 0 0 0 1 1 2 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 1 1 2 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 0 2 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 1 0 2 1 0 0 1 0 0 0 1 1 1 0 0 2 1 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 3 0 1 0 1 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 2 1 0 1 0 2 1 1 0 1 0 0 1 0 1 3 1 1 0 0 0 1 1 1 0 1 2 1 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 0 2 0 1 0 1 0 0 0 0 2 0 1 0 1 1 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 2 1 0 0 0 0 0 2 1 0 0 2 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 2 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 2 1 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 2 1 1 0 0 0 1 0 0 0 1 0 1 0 2 0 1 0 2 0 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 2 1 0 1 0 1 0 0 2 2 0 1 0 0 1 0 0 0 0 0 1 0 1 2 1 0 0 0 3 0 1 0 2 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 1 0 0 1 0 1 0 0 1 1 0 3 1 0 0 2 2 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 1 0 0 1 0 1 2 1 1 0 2 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 3 0 0 0 1 1 1 1 1 0 2 0 3 0 1 1 0 0 2 1 0 1 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 1 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 2 0 0 0 1 1 0 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 2 2 0 0 1 0 1 0 0 0 1 0 0 0 0 1 2 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 2 2 0 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 0 1 1 0 0 0 2 0 0 0 1 0 2 0 0 1 1 0 2 0 0 0 0 0 1 0 1 0 0 1 2 0 3 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 1 0 1 1 1 0 0 3 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 2 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 2 0 1 2 1 4 0 0 0 1 0 0 1 1 1 0 0 0 1 1 2 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 1 0 1 1 1 0 1 2 1 3 0 0 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 2 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 2 0 4 1 0 2 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 2 1 1 1 0 0 1 0 0 1 0 2 1 0 2 0 0 0 1 3 3 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 1 0 0 1 0 0 0 2 1 1 1 0 1 2 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 0 2 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 1 2 0 1 1 1 0 1 0 0 3 0 0 0 0 0 2 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 3 0 2 1 0 3 1 0 0 2 1 1 0 0 1 0 0 2 1 0 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 1 1 1 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 0 1 1 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 2 1 1 0 1 1 1 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 2 1 0 0 1 1 1 0 2 1 1 0 0 0 0 0 1 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 2 0 0 0 1 1 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 1 2 0 1 0 0 2 1 1 2 0 1 1 1 0 3 0 0 0 1 0 1 0 2 0 1 0 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 3 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 1 1 0 1 2 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 2 0 0 2 0 0 1 2 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 3 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 2 1 0 1 0 1 1 1 3 0 0 0 0 1 2 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 1 1 0 1 0 3 0 3 1 1 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 2 0 0 1 0 0 0 0 1 2 0 1 0 0 1 0 2 1 1 0 0 0 1 1 1 0 0 1 2 1 0 1 0 1 1 0 0 1 0 1 0 0 1 2 1 0 2 0 0 0 1 0 1 0 1 0 1 0 0 1 0 3 0 1 0 0 1 2 0 0 0 1 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 2 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 1 2 2 0 1 0 1 0 1 1 0 1 0 0 0 0 1 0 3 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 1 0 2 0 1 0 1 0 1 0 2 0 0 1 1 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 1 1 2 0 1 2 1 0 0 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 2 0 2 0 0 1 1 1 0 0 1 0 0 3 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 1 0 1 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 2 2 0 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 2 0 0 1 1 0 2 0 1 0 1 3 0 0 2 1 0 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 2 0 0 1 0 0 0 1 1 0 1 0 1 2 0 1 2 2 1 0 2 1 0 2 2 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 2 2 0 0 0 0 0 3 0 1 1 0 1 1 0 0 1 2 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 2 0 0 0 0 1 1 2 0 2 0 1 2 2 0 0 1 0 0 1 0 0 0 1 2 0 0 1 0 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 2 1 2 2 1 0 1 1 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 1 1 2 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 2 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 2 2 0 1 1 1 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 2 1 0 1 0 0 1 0 1 1 2 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 3 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 1 0 2 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 1 0 0 1 1 1 1 0 2 1 0 2 0 0 1 1 2 0 0 0 0 0 1 0 0 3 1 1 2 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 2 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0 2 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 2 0 1 2 1 2 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 3 1 0 0 1 1 1 0 1 2 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 1 0 0 0 2 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 1 2 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 2 1 0 1 0 0 2 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 0 2 0 2 1 0 0 0 0 1 2 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 3 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 0 2 1 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 0 1 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 2 0 2 0 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 1 1 1 1 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 3 0 0 1 0 0 1 0 2 0 2 1 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 1 2 1 2 0 0 0 1 1 0 0 2 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 2 1 2 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 2 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 2 0 1 1 0 2 0 1 0 0 2 1 0 0 0 1 0 1 0 3 0 0 1 1 0 3 1 0 0 0 1 1 2 0 1 3 1 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 2 0 0 1 0 0 2 0 0 0 0 0 1 0 1 1 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 1 1 1 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 2 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 2 0 0 1 0 0 2 3 0 0 0 0 0 0 1 1 1 0 0 1 1 2 0 1 0 1 0 2 0 1 1 1 0 1 1 0 0 3 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 1 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 3 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 2 0 2 0 1 0 0 2 2 0 2 0 0 0 0 0 1 2 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 0 0 1 0 2 0 1 0 3 2 0 1 0 0 0 0 1 0 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 1 0 2 0 1 1 0 0 1 1 0 1 0 2 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 3 0 1 0 1 2 2 2 0 1 1 0 1 0 0 0 1 0 0 1 2 0 1 0 0 0 0 0 2 1 1 1 2 0 0 0 1 0 0 1 0 1 0 0 2 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 2 1 1 1 0 0 0 0 1 1 0 1 2 2 0 0 2 0 0 2 0 1 2 0 0 0 0 0 2 2 1 0 0 0 0 0 1 1 0 0 0 2 0 1 0 0 0 1 0 1 0 2 0 0 0 2 0 0 0 3 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 2 0 0 1 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 2 1 0 1 1 1 2 0 0 0 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 0 0 1 1 0 1 0 0 0 1 0 0 2 0 0 1 0 1 2 1 0 1 1 1 0 1 0 1 0 0 3 0 0 1 1 0 0 0 0 2 1 1 0 0 0 1 0 3 2 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 1 0 0 2 0 0 0 4 0 1 0 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 2 0 2 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 2 0 0 0 0 1 1 1 2 0 0 1 0 0 3 0 0 1 0 0 0 1 0 0 0 1 1 2 0 3 0 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 2 2 0 1 0 0 0 0 1 1 2 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 3 1 2 0 1 0 0 1 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 1 0 1 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 2 1 0 2 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 2 1 2 1 0 0 0 0 0 0 0 0 1 1 1 1 2 1 0 2 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 1 0 1 0 2 0 0 2 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 3 0 1 0 3 0 1 2 1 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 3 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 2 1 1 1 0 0 1 2 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 2 0 1 3 1 0 0 2 0 0 0 2 0 0 1 3 3 0 0 1 1 1 1 1 0 1 0 0 0 1 3 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 1 1 3 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 2 1 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 1 2 0 1 1 1 1 0 1 0 1 0 1 0 0 2 0 0 0 1 0 0 1 1 0 1 0 1 0 1 0 1 2 0 1 1 0 1 1 1 1 0 0 1 0 1 2 0 0 0 1 0 0 0 1 0 0 1 1 2 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 0 2 2 1 0 1 0 2 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 2 0 0 1 2 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 1 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 2 1 1 0 0 1 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 1 1 0 0 2 0 2 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 2 0 0 1 0 0 2 1 1 1 2 0 0 0 3 0 1 0 1 2 1 0 0 2 1 0 0 0 0 0 2 2 0 1 0 1 0 1 0 1 2 2 0 1 0 0 0 0 1 0 0 0 0 2 3 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 2 0 2 0 2 0 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 2 2 2 0 0 0 0 0 2 0 2 0 0 0 0 0 1 0 0 0 0 0 2 0 1 1 1 1 2 2 0 0 0 1 0 0 0 0 3 0 0 2 0 0 0 0 0 2 0 2 0 0 1 0 0 0 2 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 2 2 0 0 0 0 1 0 1 0 1 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0</t>
-  </si>
-  <si>
-    <t>NIG(24.334384733073183, 15.30634197154475, -1.0251789794627513, 118.01174748051295)</t>
-  </si>
-  <si>
-    <t>56 128 96 128 74 101 57 70 57 54 96 131 67 98 87 50 64 66 58 113 86 113 40 77 34 86 151 65 108 54 75 126 80 130 100 107 186 104 91 77 120 77 43 75 94 81 98 68 82 86 63 77 24 109 57 80 188 74 79 145 48 100 118 73 107 31 94 93 157 100 118 64 130 138 134 19 73 112 75 69 62 109 92 111 39 147 124 36 141 98 65 72 113 56 65 46 79 157 97 40 78 61 65 145 104 88 96 98 31 95 165 84 66 85 170 84 124 104 121 68 105 93 99 119 108 105 152 87 92 84 103 118 161 63 54 159 78 83 171 44 150 85 47 112 87 131 101 161 85 102 122 105 208 189 116 127 120 148 109 123 80 105 72 110 113 51 51 99 102 108 20 97 106 54 60 88 67 140 99 173 126 145 126 104 83 94 127 109 141 104 103 31 42 68 72 127 107 94 53 33 143 74 96 109 104 72 151 61 81 103 103 85 163 62 112 107 55 131 77 56 84 68 109 91 126 150 104 88 45 87 104 142 120 59 76 171 70 143 127 99 47 74 100 66 112 89 76 92 120 83 99 106 49 130 119 63 69 78 46 102 171 94 117 60 60 29 147 149 77 90 150 107 102 82 59 97 108 114 78 49 127 114 81 90 118 105 123 108 50 96 48 73 60 58 56 81 90 101 108 39 59 86 113 117 124 89 63 123 61 90 43 53 97 83 83 107 183 61 67 89 131 64 55 96 79 50 107 89 121 103 109 114 58 74 31 109 104 105 64 101 65 36 34 82 93 82 53 84 81 204 103 101 232 177 90 184 95 91 34 116 78 83 125 75 77 52 138 105 119 132 94 149 122 130 59 140 52 116 78 143 149 78 96 61 109 120 91 77 55 100 187 126 86 118 46 112 118 103 102 63 93 79 72 140 88 157 131 58 121 138 106 123 98 98 82 101 118 102 106 49 99 111 119 84 43 90 91 81 90 114 84 49 119 84 18 150 56 110 48 149 113 93 107 144 78 130 107 155 104 105 80 117 98 113 60 78 71 48 80 87 83 39 18 70 151 48 95 55 74 85 88 54 126 125 59 105 124 149 86 105 98 113 151 93 103 126 63 50 109 131 104 121 114 125 70 114 147 61 103 68 77 119 123 75 90 107 58 72 141 88 118 84 58 76 147 148 106 56 125 35 134 143 71 103 112 78 82 135 78 116 125 98 110 112 179 58 50 69 146 81 114 70 140 127 130 114 84 63 80 66 71 123 79 84 78 71 111 115 61 144 121 124 86 35 86 88 123 146 181 117 41 139 48 131 145 74 89 67 60 86 120 93 82 58 99 106 127 143 110 102 126 121 85 110 70 77 8 101 171 136 139 93 131 132 110 72 64 98 90 28 190 73 125 37 122 54 89 86 64 139 97 98 76 93 87 95 154 63 60 101 71 118 93 102 58 85 116 60 165 103 88 72 105 17 79 82 88 104 78 96 172 73 132 133 143 83 115 115 38 143 60 150 116 100 86 78 105 137 123 53 54 99 66 85 146 82 46 117 33 63 87 93 129 70 56 195 50 48 98 132 80 92 91 77 67 86 84 214 108 168 58 135 95 89 84 108 112 89 64 77 81 156 83 74 53 92 51 119 78 113 122 84 63 136 50 90 64 113 103 137 214 108 116 85 70 90 34 182 46 91 166 116 121 118 80 50 83 85 109 132 88 134 68 126 78 45 78 119 138 98 48 167 111 49 47 122 114 46 58 100 112 107 87 64 93 96 77 91 119 103 150 104 113 80 105 63 88 59 109 133 73 129 85 51 114 119 80 77 116 58 112 66 74 99 80 93 94 89 104 127 102 60 60 96 95 99 153 85 108 139 84 104 67 135 45 20 51 128 108 86 49 131 80 93 106 112 75 178 14 59 94 56 181 67 104 13 124 91 83 100 82 50 105 53 113 120 122 218 45 125 68 169 82 86 171 109 134 150 88 81 47 79 96 41 91 116 37 9 111 137 138 68 78 100 159 129 148 115 86 89 105 50 128 92 64 61 129 158 90 91 69 83 75 126 115 104 104 50 88 114 95 106 171 43 61 137 63 43 86 65 101 104 81 77 108 112 159 85 60 97 89 125 98 146 79 108 200 74 51 98 111 65 107 99 93 127 102 103 76 94 173 114 80 69 72 26 118 50 88 99 73 133 91 171 91 181 142 25 91 122 99 83 105 82 83 56 95 104 68 80 90 36 62 163 57 108 98 143 111 113 81 87 81 101 53 79 131 16 125 105 67 100 83 95 75 29 64 72 76 58 131 116 103 55 74 90 51 65 87 77 142 123 104 105 111 84 29 21 139 96 88 138 55 114 133 84 91 86 63 104 81 127 121 146 105 87 152 110 51 91 109 121 83 91 66 76 150 120 121 151 166 123 70 140 82 128 172 100 131 53 71 71 106 91 62 113 51 99 95 151 68 101 38 95 109 116 44 277 106 101 57 95 84 81 63 134 114 156 124 106 109 126 113 141 95 65 114 87 73 153 120 170 143 61 99 114 93 90 74 45 45 65 104 105 125 69 127 87 106 64 100 97 95 89 102 117 101 77 191 156 59 108 96 149 143 100 129 96 93 141 87 78 130 118 71 146 112 89 127 89 63 143 60 35 43 103 42 79 67 115 157 121 139 93 116 74 82 100 46 119 130 62 136 60 95 57 66 90 74 85 132 99 70 95 67 38 74 79 164 81 108 120 88 63 114 64 110 80 122 65 78 93 48 84 92 58 124 82 41 126 53 132 40 46 71 17 110 79 84 66 84 134 87 80 104 73 95 106 126 134 148 109 164 74 144 36 168 83 155 67 81 54 22 76 47 52 65 76 157 108 146 95 109 94 178 156 64 84 74 187 103 36 90 127 92 121 109 71 75 65 115 82 52 120 42 53 85 181 98 107 101 96 57 143 107 59 77 121 145 94 56 59 99 63 129 97 44 61 74 22 98 139 76 64 129 72 99 77 48 159 112 145 126 62 100 119 34 157 96 99 139 59 126 42 72 59 93 91 45 52 57 91 72 106 83 90 43 129 68 59 101 75 86 93 111 94 137 90 90 103 83 54 80 99 63 69 48 57 63 135 85 108 61 99 31 99 131 122 144 79 101 114 85 54 41 45 119 97 93 113 8 136 114 109 131 73 121 69 186 83 76 79 51 117 153 120 90 76 52 135 47 114 101 105 135 70 53 124 106 38 92 142 53 62 81 89 43 117 140 123 116 76 44 92 157 156 40 89 76 46 72 56 89 171 98 94 98 54 83 47 91 98 65 34 128 88 58 94 82 94 92 81 122 146 100 39 73 64 52 80 57 110 180 130 94 166 102 130 176 101 83 128 92 73 107 156 65 76 121 24 113 116 103 122 106 86 90 71 90 155 53 102 100 65 142 112 112 76 28 46 108 52 63 98 146 78 138 72 79 104 57 93 113 115 65 81 77 92 107 131 101 85 64 148 67 163 71 149 86 133 119 77 41 95 53 71 76 58 95 103 59 57 120 43 186 86 106 129 25 88 61 43 116 42 69 111 69 61 112 94 162 127 99 142 67 183 171 98 86 49 102 84 78 115 90 109 103 54 107 176 65 105 71 101 171 135 122 72 31 139 19 97 126 96 113 118 64 95 84 107 54 144 60 57 118 108 57 111 34 112 91 42 106 104 126 122 97 118 57 77 88 116 46 99 122 23 157 55 104 113 123 75 87 181 116 72 46 64 39 38 101 61 121 121 56 106 36 71 149 101 46 107 100 97 130 167 108 66 82 88 73 83 89 25 203 123 47 104 63 155 65 102 84 105 105 64 78 126 84 40 64 112 109 102 78 101 123 98 146 142 99 83 71 103 116 82 46 80 153 99 145 94 114 131 86 98 40 149 98 144 124 73 130 130 76 95 24 98 114 126 134 81 57 98 155 120 114 119 99 46 102 98 117 89 102 62 113 88 77 112 103 112 185 144 116 121 70 57 52 37 73 96 142 206 43 76 112 104 56 38 41 119 122 109 135 44 148 98 97 145 129 67 139 152 112 113 91 133 110 54 84 101 112 125 72 73 105 87 184 50 49 84 122 68 81 103 105 128 89 141 102 128 146 118 32 66 90 94 75 102 79 82 99 174 80 92 95 115 96 64 71 50 56 85 95 77 67 123 133 109 90 58 107 191 89 109 168 96 92 67 98 56 45 126 99 52 69 98 128 72 91 97 119 111 94 111 35 131 45 38 90 23 87 83 48 93 102 70 110 109 101 115 126 108 98 67 94 19 66 144 122 9 86 94 65 90 102 187 122 69 68 69 91 112 66 71 106 86 76 146 100 63 82 96 69 85 131 141 89 129 82 37 133 89 66 84 109 62 99 90 77 60 149 74 98 65 121 162 180 131 97 115 119 76 91 111 109 49 116 127 81 50 150 156 56 53 56 117 73 71 61 90 151 54 112 106 132 85 141 140 108 103 118 76 92 92 84 66 175 143 97 125 36 56 106 161 96 135 114 48 127 127 117 41 102 1 113 87 56 68 93 39 98 58 119 93 69 88 85 106 134 89 78 95 120 64 93 81 96 95 108 153 39 57 103 130 129 54 108 120 122 101 100 101 71 52 151 102 51 131 95 90 87 127 105 77 86 50 83 125 107 144 141 98 70 101 122 90 134 105 111 80 81 78 60 117 59 96 68 32 105 63 114 117 75 47 56 126 102 128 95 33 62 133 206 89 112 144 72 58 57 121 118 123 80 48 111 99 52 75 100 56 96 146 42 73 61 123 48 96 144 105 64 97 45 103 48 47 127 84 55 65 103 74 51 118 101 109 129 79 69 91 90 84 115 112 119 32 127 79 57 121 55 45 75 55 111 45 83 60 191 81 118 27 89 91 85 70 78 74 147 147 127 113 39 94 61 91 171 110 130 88 59 67 90 63 108 110 104 107 43 115 122 83 72 74 127 97 33 108 52 60 101 52 66 86 129 127 103 75 54 171 132 132 84 112 80 139 107 101 125 41 117 123 100 95 138 97 110 131 105 48 156 110 93 92 64 173 145 70 70 42 23 87 58 137 79 96 66 70 71 81 77 56 101 88 105 119 59 146 132 146 141 30 108 79 82 69 114 55 82 83 47 57 104 107 60 123 83 98 75 66 125 106 111 135 101 83 86 98 85 79 114 110 87 92 60 104 125 72 201 77 60 36 133 146 90 136 83 45 101 110 104 39 50 174 82 75 139 90 92 70 116 118 104 77 65 96 62 73 136 167 65 59 102 73 104 101 189 77 146 116 138 150 114 97 103 91 85 124 109 171 47 136 61 77 57 73 66 93 100 68 55 70 105 91 77 37 129 93 65 69 105 117 119 81 98 64 87 72 75 96 73 109 101 125 38 81 75 97 133 43 161 122 96 78 101 81 68 88 56 176 94 53 84 108 70 63 70 77 73 70 73 84 36 67 65 112 105 60 183 120 118 124 64 104 41 67 116 191 56 118 54 72 96 75 112 111 126 132 47 103 62 110 132 99 53 75 112 66 96 55 84 77 69 75 68 48 88 101 91 66 100 117 51 75 86 153 48 43 55 133 47 83 69 78 79 114 66 42 141 111 119 116 69 89 66 47 143 61 89 66 144 83 79 120 142 100 67 59 78 94 84 72 85 66 102 161 43 51 140 103 104 76 138 76 109 113 138 92 56 154 114 53 156 117 108 88 135 94 86 56 91 115 94 156 127 95 110 92 53 158 85 77 83 118 104 64 172 53 57 128 75 102 83 56 69 90 77 81 165 66 122 70 36 104 106 125 106 88 124 122 127 88 116 23 58 125 82 108 108 108 49 101 59 91 48 85 79 140 77 102 61 80 84 100 99 100 97 77 128 123 98 105 75 143 122 90 111 88 68 78 192 69 114 66 75 113 111 90 55 153 130 36 65 65 112 76 77 32 62 90 85 94 97 137 133 185 82 153 118 69 69 114 15 112 71 100 84 123 41 107 73 103 79 85 119 111 65 103 92 81 109 87 30 31 132 111 84 132 71 166 120 34 120 95 86 97 59 107 89 179 150 55 90 67 126 144 123 84 99 112 36 68 61 142 145 62 156 115 85 147 64 62 69 87 19 86 100 86 115 158 137 127 116 67 52 148 98 64 79 126 52 111 125 104 57 165 69 30 39 82 120 85 120 100 152 100 100 93 53 105 101 105 89 109 155 135 147 56 112 136 36 112 52 88 138 102 88 54 68 171 94 50 81 67 100 129 109 82 95 148 112 82 71 114 97 135 69 49 102 101 34 123 41 91 151 62 113 100 56 82 65 54 95 104 86 108 78 39 83 63 179 83 70 78 47 62 71 99 34 85 103 91 91 93 104 38 82 87 46 138 116 37 97 129 61 65 87 146 32 101 102 51 96 100 104 77 81 50 115 106 90 102 30 82 142 75 73 142 69 112 116 126 101 33 108 124 113 35 112 128 110 137 109 112 25 105 159 125 72 126 133 138 222 103 72 117 118 67 71 98 133 19 102 82 106 117 93 101 107 57 130 146 102 103 22 160 117 49 60 41 94 151 56 40 65 54 100 75 65 96 75 83 116 53 110 84 67 181 85 38 136 185 92 64 38 147 85 94 143 48 113 97 183 50 76 94 144 46 125 43 104 167 39 109 46 84 78 127 76 92 122 113 46 38 116 122 53 170 67 35 104 81 80 96 99 107 115 106 132 69 95 64 117 31 82 112 90 129 41 72 75 41 127 125 101 63 90 61 85 46 36 47 36 111 50 44 70 115 83 47 120 153 65 143 49 99 95 91 67 105 70 125 112 141 58 85 91 161 125 91 39 91 112 85 62 114 61 103 98 78 157 78 87 46 85 105 127 95 101 129 26 83 107 55 161 148 62 84 71 121 53 106 195 162 104 125 81 71 165 155 89 62 98 82 139 98 108 116 57 55 37 94 77 93 43 173 78 158 58 81 111 69 122 123 72 102 143 21 117 61 94 86 130 88 73 128 97 19 67 53 78 94 128 54 70 121 82 62 36 116 105 144 98 62 63 25 64 91 32 79 95 155 76 150 83 95 76 120 21 118 180 70 164 105 131 91 162 58 90 75 91 70 37 53 62 149 76 99 76 109 164 113 86 64 106 72 101 110 118 54 93 88 76 115 138 100 155 58 56 93 98 89 93 93 111 121 57 74 86 61 114 72 75 98 99 97 100 49 72 28 102 163 205 65 95 82 99 65 40 106 79 207 77 103 26 75 155 87 52 117 86 94 87 94 88 151 51 31 121 144 102 16 61 42 125 64 96 126 81 133 193 95 121 93 115 46 111 65 133 114 62 109 80 74 61 119 78 122 89 89 100 70 237 162 79 172 54 83 148 34 97 111 81 123 44 98 108 132 106 86 56 132 136 85 88 121 151 134 180 122 119 106 120 116 145 132 67 87 111 225 66 79 33 92 64 81 104 110 70 136 47 90 102 71 55 44 85 128 62 97 110 58 80 94 104 81 74 84 62 33 140 70 98 153 116 123 39 207 122 14 80 73 93 108 112 200 136 105 75 83 123 76 41 103 56 148 42 53 92 81 125 90 191 151 73 38 62 115 27 99 157 154 89 37 69 67 147 104 113 30 9 102 28 66 133 165 72 145 137 120 101 106 86 58 84 78 60 55 97 86 72 136 91 147 118 138 224 68 83 129 91 53 72 112 113 84 83 59 81 69 77 143 206 48 179 133 92 106 108 117 92 81 148 18 93 105 86 83 134 121 47 53 125 114 91 65 44 75 196 93 114 149 62 58 82 70 92 116 60 41 157 83 94 104 68 76 90 154 64 147 112 100 93 159 144 70 76 141 52 39 119 88 23 112 97 100 70 93 46 124 72 79 51 116 49 85 132 112 121 58 117 98 45 43 92 139 54 132 91 48 133 107 93 192 74 157 98 29 116 183 71 105 115 64 39 99 91 79 50 50 70 52 78 146 62 57 129 116 154 119 73 136 69 27 88 137 88 97 83 50 63 119 119 82 133 150 36 41 67 98 78 115 85 48 77 125 81 89 87 110 165 112 194 121 102 87 82 74 152 74 96 137 137 83 149 48 49 139 176 86 128 60 98 84 66 66 168 81 46 131 110 76 57 106 130 142 57 106 75 118 58 84 69 99 111 86 116 73 103 98 144 166 112 110 104 55 138 82 87 150 58 93 57 68 119 129 31 129 113 109 80 116 74 89 104 67 74 56 23 38 132 95 85 106 111 88 129 54 83 61 59 41 121 51 76 137 150 139 141 108 85 112 111 103 78 45 130 101 75 149 71 137 94 108 160 124 99 114 73 190 73 45 80 54 95 131 100 120 94 108 104 85 49 88 63 21 102 153 104 49 132 53 76 179 64 84 120 71 108 76 131 107 79 75 76 105 62 41 94 100 76 19 95 124 105 76 107 97 100 85 93 93 99 138 83 149 155 73 63 53 111 108 113 117 75 166 122 117 92 85 44 155 99 138 30 54 113 129 85 94 89 81 72 114 104 151 119 105 68 120 69 96 91 61 149 30 169 58 114 65 62 47 71 83 96 115 116 128 76 75 116 51 81 112 89 62 73 82 77 69 180 121 63 118 117 138 31 154 103 81 38 96 64 49 99 170 74 113 36 65 69 106 75 102 131 98 118 65 69 135 149 125 51 108 107 133 62 65 84 83 92 104 85 76 187 63 70 81 105 71 67 79 65 125 153 122 67 115 112 46 81 60 93 52 87 58 132 74 55 125 115 91 86 86 74 118 121 83 85 66 76 112 79 93 40 163 104 49 64 161 62 112 75 155 43 51 114 146 156 120 14 70 125 45 98 73 60 38 126 87 60 105 105 49 134 94 41 91 64 103 73 81 107 157 76 70 72 29 81 109 123 56 57 46 60 98 104 46 93 102 62 68 83 147 92 121 114 60 92 86 49 61 77 63 96 63 120 131 49 115 155 86 136 69 142 218 135 62 100 117 109 33 103 87 70 151 86 98 121 76 73 197 119 144 101 30 99 146 35 118 83 81 127 31 142 102 29 141 74 92 131 80 167 79 206 90 102 155 45 100 148 142 92 79 93 43 36 83 43 134 146 124 95 63 97 32 31 52 77 39 125 93 87 91 20 161 116 58 178 151 72 43 114 117 59 48 115 23 133 58 32 76 73 161 87 73 147 50 128 159 100 80 78 72 118 44 179 76 93 98 104 77 53 100 95 70 87 129 45 115 42 68 104 94 111 148 41 112 124 150 86 91 25 83 149 96 77 153 88 183 102 115 84 54 63 130 111 108 63 122 206 29 49 126 87 160 67 139 89 129 116 143 127 136 99 111 85 32 92 142 105 83 130 25 91 104 117 131 66 125 68 91 124 108 94 90 99 42 79 45 89 102 72 96 50 96 172 77 56 106 106 78 111 75 144 20 86 170 77 153 87 118 73 148 90 119 75 50 147 119 102 19 94 99 93 75 146 162 87 93 139 100 90 74 90 56 58 86 69 159 111 69 58 92 92 139 143 106 92 176 123 114 74 50 123 78 91 64 110 46 128 102 103 103 101 62 62 46 83 117 95 95 111 87 131 80 88 82 199 48 120 132 79 137 92 163 116 79 95 102 93 161 202 151 123 29 98 92 92 65 65 115 83 100 76 123 64 117 123 96 78 76 115 130 125 122 122 79 81 100 37 102 83 109 37 40 72 63 99 143 143 104 149 95 72 25 99 66 48 78 91 66 47 147 92 90 84 123 145 110 95 88 60 133 70 164 79 149 123 115 86 132 75 136 101 104 39 76 103 52 152 67 136 90 103 87 75 53 126 103 96 117 82 62 112 174 158 85 70 70 77 122 51 103 134 123 80 128 99 74 82 142 96 122 108 70 107 72 52 73 47 109 87 101 154 131 54 118 37 92 83 57 112 52 35 52 41 100 27 112 100 107 129 155 80 110 79 88 20 53 131 110 180 109 72 82 114 143 111 125 127 143 47 112 41 74 150 36 78 65 150 124 147 94 55 117 97 118 39 40 76 91 85 110 131 73 62 59 136 127 78 86 95 75 82 92 69 56 109 106 113 84 102 93 82 92 95 90 81 57 97 127 109 253 129 99 105 122 92 115 124 114 52 68 110 89 146 110 69 136 76 176 113 88 129 51 88 41 83 70 179 122 83 132 91 87 73 117 26 90 64 121 113 57 133 103 46 81 65 91 87 85 87 48 135 81 115 60 184 78 127 59 104 94 150 71 85 87 104 61 105 124 71 80 87 89 85 149 80 179 82 77 84 89 40 75 173 83 58 81 94 46 124 40 167 87 64 32 124 109 112 166 123 147 68 50 177 123 82 80 77 147 108 161 61 91 62 105 75 99 117 95 90 144 90 78 74 160 159 38 80 120 63 112 157 69 111 116 91 101 105 98 81 116 70 101 167 80 84 100 86 141 100 50 135 50 83 92 147 105 120 204 80 50 94 78 47 95 89 39 80 117 88 81 118 150 100 131 202 162 78 113 123 67 79 104 113 52 140 175 89 80 98 75 116 58 88 141 116 75 77 170 129 179 74 114 100 91 119 114 102 98 117 147 50 91 70 129 104 169 137 86 157 158 35 129 159 126 58 66 60 113 152 33 119 73 140 102 55 116 118 65 67 141 111 128 57 109 71 61 101 104 155 180 13 62 91 96 109 96 94 91 114 102 95 82 99 97 105 132 150 85 117 95 105 128 109 155 107 79 125 102 113 119 77 190 103 74 130 68 127 57 89 105 122 92 111 124 134 149 93 113 96 85 108 106 110 89 95 25 132 115 88 150 107 56 52 124 163 87 124 73 105 79 127 74 91 90 85 86 61 102 86 100 45 165 159 86 85 73 77 129 103 90 63 63 82 35 71 66 74 91 49 49 51 80 29 63 83 176 87 70 70 71 124 47 43 128 63 161 58 34 109 178 142 103 46 90 62 82 40 126 113 43 163 96 63 63 55 57 136 115 11 117 147 145 87 116 106 110 103 111 91 67 109 136 126 126 101 77 63 64 110 119 103 68 113 92 92 100 68 91 133 102 128 72 85 75 115 98 127 79 80 49 70 59 108 206 92 100 118 115 84 40 97 69 129 86 56 161 76 112 80 50 68 114 83 55 27 88 43 65 42 102 86 116 121 139 70 131 131 63 110 100 47 130 136 124 41 109 82 71 142 141 108 140 70 172 80 126 85 153 153 122 138 119 67 52 57 121 126 95 101 148 136 124 116 35 119 36 67 143 59 70 108 90 110 92 67 93 54 48 96 191 77 120 109 83 172 123 116 95 65 75 139 106 128 108 57 78 134 47 81 143 94 143 78 95 42 28 160 113 57 53 123 108 72 76 85 77 138 108 109 64 125 170 100 95 72 171 99 76 185 163 52 58 52 92 75 112 79 123 96 73 74 102 142 22 47 99 45 65 122 150 137 122 63 155 102 154 112 117 112 152 128 128 75 115 209 111 96 21 83 92 101 18 158 100 13 110 80 112 100 81 110 141 78 68 147 75 66 57 74 74 110 75 112 83 86 89 123 117 73 98 84 140 81 73 64 96 117 126 88 73 117 56 40 76 113 96 51 54 27 106 109 79 61 86 128 87 98 90 77 136 87 107 116 94 162 95 144 111 109 95 66 71 126 65 135 46 78 36 101 134 10 107 105 164 78 68 149 138 106 107 110 72 98 69 80 114 118 127 52 125 126 117 78 96 73 138 42 57 167 40 101 23 76 50 68 87 119 73 103 60 87 120 106 76 88 91 129 104 34 108 78 37 42 92 78 76 152 140 107 71 133 94 93 147 93 87 85 150 87 145 102 96 127 106 67 133 54 93 79 173 143 128 109 75 74 26 72 117 48 42 83 143 107 86 69 96 105 55 103 142 97 65 78 58 86 101 105 127 61 162 40 116 110 101 48 122 106 98 114 73 77 105 30 85 37 89 149 154 84 77 207 71 113 110 181 62 63 39 129 134 76 235 113 92 63 81 119 193 106 110 134 55 109 131 106 94 122 86 108 61 118 23 118 54 56 113 100 118 119 116 86 97 96 142 71 116 87 163 168 76 139 116 77 107 83 87 110 67 88 50 98 127 125 94 19 137 75 107 87 121 117 83 82 114 88 65 88 34 104 101 125 112 74 103 117 69 69 90 62 84 45 16 107 87 128 107 82 101 74 27 121 103 95 99 50 107 104 59 80 39 98 144 73 77 90 74 117 129 159 137 98 99 57 137 76 70 94 81 116 128 80 105 24 35 62 58 98 45 72 111 114 109 88 89 111 80 114 53 144 78 107 24 84 93 100 64 117 49 125 166 99 103 62 52 142 42 63 86 45 128 130 86 195 89 137 41 142 171 37 87 144 48 100 82 127 105 81 31 108 111 109 91 82 79 27 89 57 94 96 111 102 76 154 58 52 73 80 111 76 90 116 6 107 48 100 85 89 96 96 91 112 74 92 125 111 67 143 117 102 50 61 57 131 128 73 69 81 122 72 76 112 75 102 118 79 70 168 84 130 138 34 95 110 147 104 127 89 78 31 116 34 83 102 30 108 75 81 106 215 84 118 76 114 63 140 116 105 64 97 65 113 53 108 143 32 83 119 126 147 104 98 79 92 79 106 94 124 159 95 97 55 79 56 17 89 107 45 53 68 99 66 93 96 61 109 75 62 154 63 148 52 166 116 77 94 45 49 97 91 118 88 67 106 111 43 133 91 101 131 141 121 90 137 53 79 79 95 80 130 49 129 103 69 103 95 122 107 83 186 112 54 60 111 155 121 96 67 85 106 64 91 82 76 51 75 125 104 91 137 99 87 66 124 56 73 83 46 81 90 36 91 73 85 104 135 50 119 81 83 17 107 71 102 99 66 94 76 60 57 168 104 95 67 132 105 58 92 110 104 135 85 80 86 57 45 61 115 57 90 115 114 123 109 138 69 92 84 76 110 104 71 97 112 72 102 128 85 71 149 80 18 202 114 103 81 116 74 89 63 135 100 89 135 75 49 90 28 86 92 116 77 99 98 89 100 63 161 73 96 59 112 90 119 114 130 107 98 111 71 95 83 99 81 89 111 119 115 87 49 158 21 95 96 78 75 152 132 171 147 100 119 140 72 96 42 57 125 117 135 77 96 68 63 92 185 164 145 113 94 126 101 81 47 151 137 98 81 85 73 57 136 120 94 116 107 63 81 124 82 179 110 65 107 52 32 106 62 63 49 38 91 78 79 75 63 109 99 66 52 149 91 106 73 119 109 52 57 72 33 60 114 72 157 124 90 73 34 56 51 156 133 107 110 51 78 131 139 118 26 159 86 122 112 94 179 56 95 127 128 47 77 82 72 59 60 105 90 119 94 107 153 71 76 69 120 42 134 72 142 92 88 112 110 123 49 60 141 105 167 45 102 100 125 162 60 116 84 95 68 104 101 144 78 125 83 74 97 109 52 110 91 66 109 111 87 114 53 94 100 94 41 152 81 54 132 99 97 115 120 137 66 52 23 64 55 99 78 105 107 104 172 83 101 65 61 52 45 120 122 52 69 76 70 123 151 69 43 37 165 108 122 107 114 69 145 118 104 125 94 167 133 75 104 51 73 113 62 125 117 92 87 56 102 174 113 94 63 67 144 141 56 99 10 93 118 99 104 152 21 90 117 106 139 96 119 69 129 78 63 134 78 126 65 136 50 111 174 49 137 134 80 61 43 59 60 179 158 67 154 113 46 172 106 96 114 70 74 129 32 39 33 85 139 91 80 97 113 102 134 157 84 89 97 109 100 69 82 155 111 80 56 38 95 81 76 64 72 122 33 149 101 118 93 53 108 61 101 146 148 134 150 68 135 45 84 91 94 102 90 83 75 65 54 120 116 146 53 138 68 77 134 110 97 79 110 83 102 86 108 78 62 130 49 99 72 24 63 140 71 111 119 116 52 28 61 105 96 83 69 131 111 58 93 119 36 120 83 74 74 62 69 94 73 68 82 126 126 107 157 70 88 84 91 55 87 49 81 44 111 59 146 77 75 105 71 88 84 106 81 125 67 173 98 137 93 133 93 66 19 43 95 112 117 57 142 76 77 90 149 117 116 90 48 110 101 126 83 103 74 84 79 67 47 42 35 107 109 161 145 96 132 54 89 143 77 71 97 100 53 89 95 77 99 77 131 63 15 87 71 89 81 117 65 79 56 93 110 75 107 111 56 97 20 129 85 62 103 70 63 70 35 93 105 137 118 20 85 77 72 86 153 127 131 68 110 45 73 48 134 55 79 75 122 82 69 96 47 89 51 66 54 77 89 83 132 90 82 166 45 73 132 75 76 80 153 124 92 98 67 48 52 74 57 79 99 181 79 76 137 72 42 42 159 55 45 99 101 72 100 47 41 143 75 94 155 83 50 120 55 139 99 119 91 87 98 112 163 95 126 91 104 134 61 105 57 37 80 84 68 92 110 97 60 133 63 52 140 111 86 68 68 168 117 127 85 86 100 107 63 91 73 84 108 93 111 160 85 75 96 71 103 157 132 66 79 63 109 91 37 82 98 75 95 124 46 132 110 100 48 82 126 109 67 86 89 163 42 74 77 102 102 92 73 72 58 58 80 163 242 86 104 66 120 104 116 67 150 99 66 92 24 63 74 56 96 114 104 130 83 57 77 86 92 135 82 103 100 94 95 157 88 46 161 50 81 158 162 107 97 100 18 77 166 110 144 123 29 128 142 87 71 74 76 86 101 130 71 38 63 70 117 173 89 67 87 55 140 106 46 35 103 119 150 139 78 70 74 24 72 132 81 109 103 145 92 163 37 109 116 55 164 139 49 144 85 63 80 88 94 51 76 132 111 53 59 143 104 45 102 84 118 63 78 39 43 133 80 112 119 146 132 110 136 30 54 37 43 133 49 87 78 62 138 44 98 84 68 99 95 125 99 71 97 81 50 115 79 97 80 61 69 72 81 131 141 98 80 137 44 126 84 81 94 78 59 79 92 115 108 48 75 77 42 123 95 131 83 127 123 48 58 141 142 45 94 144 59 100 110 64 95 101 101 127 128 77 110 79 55 113 55 36 94 73 56 67 186 146 162 67 149 125 45 102 110 114 53 99 103 107 97 75 129 146 77 44 163 100 116 125 112 113 77 117 117 128 83 103 86 76 51 100 69 112 59 54 72 116 90 64 159 126 105 96 40 110 120 93 86 83 93 133 85 119 99 168 144 36 76 41 92 100 61 149 70 48 82 82 93 86 86 91 58 106 94 102 48 99 103 112 86 76 98 80 99 114 81 89 112 114 40 136 176 120 154 71 92 109 110 146 134 81 86 77 83 104 66 98 67 86 122 174 72 147 82 63 141 92 93 97 134 115 42 119 169 143 38 115 44 52 65 83 126 66 74 68 89 50 56 76 109 92 110 21 114 209 172 72 71 97 83 56 82 107 126 79 91 94 152 105 60 66 196 38 114 51 140 160 94 72 77 63 121 95 110 95 105 55 112 80 88 75 195 89 93 181 32 122 123 107 92 135 110 85 77 75 101 121 43 81 105 50 120 169 80 60 101 119 118 74 46 69 73 105 106 103 63 111 69 84 116 42 111 71 63 54 103 60 69 96 75 48 79 106 153 123 105 107 83 88 176 107 92 46 74 106 106 68 108 42 98 122 128 110 65 91 49 97 123 94 109 99 147 81 89 65 74 93 140 118 102 117 114 82 98 64 137 80 163 111 31 53 102 51 96 104 65 104 48 48 111 73 126 152 109 70 87 111 52 62 69 92 86 160 85 37 56 55 122 66 39 103 83 61 41 49 54 88 100 78 71 65 123 78 81 68 48 108 98 80 150 67 136 102 110 90 73 117 47 90 84 94 10 57 117 77 129 99 66 180 78 96 75 104 141 64 122 108 78 106 57 151 77 57 79 97 105 31 94 53 147 82 95 122 63 89 81 121 108 134 81 84 92 146 98 198 112 87 58 82 195 84 77 83 67 41 145 69 184 90 112 78 134 58 119 107 131 122 66 54 41 136 78 62 130 169 176 139 62 114 81 116 27 81 65 72 120 72 105 88 87 133 73 108 89 117 99 157 92 55 88 57 80 95 107 134 100 80 51 69 95 100 63 81 105 91 45 102 161 81 62 66 65 84 89 96 80 90 74 106 76 147 37 147 50 84 55 115 138 79 114 89 81 86 50 139 112 141 99 32 93 165 133 111 85 42 121 99 68 83 44 69 103 131 69 96 103 84 63 139 73 101 60 114 109 117 128 100 55 85 151 55 107 101 104 82 88 148 95 24 185 150 172 107 106 118 101 59 68 73 65 79 59 139 82 86 55 155 130 80 95 149 38 136 97 168 125 29 87 81 138 82 97 89 131 86 164 136 129 130 81 61 92 109 56 108 50 148 120 51 88 99 71 101 60 155 148 125 122 126 108 20 30 98 67 80 106 109 119 42 85 71 173 52 187 124 79 75 50 83 90 90 80 90 100 80 100 101 68 95 113 114 107 147 126 62 269 87 98 19 90 43 121 82 112 86 82 70 79 101 153 116 106 78 48 107 138 111 106 96 55 56 86 88 55 95 105 127 121 84 151 129 109 117 123 70 48 72 95 102 171 98 133 110 96 127 84 101 135 137 53 54 68 86 50 105 62 88 84 44 44 120 128 61 100 78 104 81 71 85 57 131 92 164 92 141 82 148 76 167 108 71 86 96 111 75 108 59 116 99 72 124 87 277 60 82 96 68 77 198 63 124 57 83 127 84 45 144 41 89 117 85 86 85 30 66 80 195 142 37 30 79 67 103 123 86 18 48 130 185 94 91 46 77 99 69 61 137 75 135 117 23 106 100 66 104 77 32 142 57 22 26 138 109 100 55 110 159 97 57 179 68 96 39 99 58 102 132 54 68 141 163 131 110 119 38 119 55 54 116 79 117 112 59 105 36 81 83 39 71 26 58 80 125 106 85 44 81 102 90 100 98 130 93 153 86 111 66 101 130 79 62 75 98 59 121 48 106 108 48 109 56 81 105 65 79 91 82 85 102 70 100 97 82 73 123 111 110 136 53 78 53 122 91 106 92 195 66 108 81 102 102 61 94 91 96 80 76 63 162 124 124 38 51 90 109 74 116 93 125 38 124 92 93 30 70 103 77 58 144 71 103 93 106 17 70 66 109 110 104 168 62 50 107 95 87 66 52 112 79 82 71 58 112 86 43 118 71 108 166 84 33 153 95 87 115 59 75 71 88 135 94 171 83 76 101 74 79 101 74 69 31 95 72 120 126 107 196 154 84 171 83 139 141 117 68 85 74 116 125 54 120 76 70 49 76 124 102 82 85 62 75 34 80 138 139 67 90 63 107 105 111 86 127 144 134 55 32 39 99 71 52 43 156 116 164 124 119 101 123 96 103 67 86 71 49 38 79 58 60 71 77 48 112 108 142 88 58 99 131 77 61 14 130 154 73 155 105 76 98 72 106 101 103 65 64 36 103 90 62 191 198 116 40 122 95 38 39 54 134 155 78 83 79 90 61 94 56 76 176 99 109 184 91 157 75 133 80 109 80 53 89 107 159 81 152 94 118 63 135 157 67 91 104 113 60 139 79 117 57 130 114 85 64 89 59 137 127 84 42 103 147 67 51 89 60 56 65 72 99 111 73 146 76 134 64 105 138 120 101 124 135 51 111 98 48 123 104 135 98 72 88 98 80 51 112 26 137 93 71 86 53 44 94 135 73 131 101 132 42 91 60 147 88 49 77 86 39 144 103 132 156 88 97 154 121 56 98 124 115 52 77 79 73 109 114 13 57 71 44 56 131 122 96 90 62 117 63 108 44 75 135 136 71 105 92 119 77 64 118 66 123 81 92 137 89 68 78 85 16 133 84 100 138 80 151 82 80 76 129 74 99 78 166 149 86 146 92 136 57 90 77 59 66 69 121 162 98 122 91 105 71 110 49 41 119 81 69 96 49 100 127 126 89 105 39 55 105 164 131 81 90 126 48 113 116 103 53 125 78 62 90 101 100 129 49 128 136 54 84 90 128 60 58 103 49 145 87 77 62 47 81 136 110 98 80 154 57 68 99 69 87 112 129 67 107 61 65 99 65 104 67 82 83 86 142 29 80 95 95 86 84 88 71 116 91 31 106 92 53 90 176 110 90 77 176 73 106 78 97 84 64 28 62 97 142 110 118 36 108 70 77 119 101 179 141 130 87 87 95 90 121 116 105 31 160 61 107 55 19 84 136 128 131 85 42 100 78 94 101 86 77 74 83 143 99 164 180 117 77 106 116 119 76 124 56 85 98 72 158 51 109 137 93 128 127 95 43 28 146 115 14 96 15 157 77 169 98 88 194 186 81 94 182 73 109 57 139 91 103 30 133 92 95 50 65 63 28 62 65 157 79 92 74 93 88 117 49 81 80 104 133 67 114 106 44 66 134 50 122 98 87 44 103 88 75 141 137 100 68 169 112 90 97 72 72 75 139 104 122 199 84 103 126 15 141 103 99 115 161 26 101 107 119 219 170 103 66 121 46 172 80 113 75 116 30 74 89 121 11 78 98 36 131 146 79 71 156 136 87 157 129 103 45 144 125 168 113 94 63 1 41 49 83 51 76 82 94 108 99 107 72 127 59 45 85 76 76 82 138 90 83 94 144 156 59 83 95 114 58 43 51 78 68 73 95 100 117 72 159 110 66 48 24 36 105 59 87 80 141 108 129 92 126 103 147 38 182 71 147 52 44 25 121 114 94 40 125 102 20 53 50 99 64 112 134 88 95 93 78 97 61 36 58 186 39 46 134 52 102 91 89 97 118 90 104 128 43 74 117 31 66 99 122 157 113 76 59 136 194 79 93 81 118 69 33 56 85 88 116 81 131 65 40 11 127 92 45 55 124 45 60 123 121 65 74 68 109 104 47 43 104 47 90 66 96 84 134 135 54 88 164 40 114 82 58 100 58 122 78 73 97 68 166 89 132 31 71 81 87 115 37 104 38 38 86 62 90 92 111 130 81 115 128 107 37 140 113 133 76 117 35 135 125 104 54 73 91 89 115 111 136 88 67 101 85 80 63 120 118 129 61 46 155 111 95 63 110 114 75 107 46 82 111 100 67 131 133 88 45 18 108 81 96 48 41 122 52 30 100 67 161 64 101 76 118 99 87 100 68 75 102 61 75 135 107 123 130 64 67 93 123 71 115 69 119 101 49 116 98 163 96 81 84 48 96 39 126 89 105 109 126 100 78 60 78 115 180 110 68 78 83 138 117 139 76 121 81 140 87 114 82 123 57 43 168 42 48 17 70 107 77 78 96 86 100 127 61 59 150 44 130 158 101 88 48 100 45 76 43 114 68 109 77 54 152 110 91 136 90 120 57 102 104 122 83 79 31 126 81 69 93 106 111 91 65 30 134 161 115 134 72 49 141 172 98 73 165 112 104 95 156 83 72 52 161 114 127 62 81 101 175 74 77 44 82 51 95 76 99 74 108 85 79 79 138 111 106 95 67 93 70 87 96 90 119 14 75 35 127 94 93 172 92 105 122 59 116 87 54 105 108 84 49 56 81 67 138 75 114 66 86 102 74 79 143 77 74 111 82 75 171 177 201 105 101 105 70 57 73 119 82 94 79 94 87 128 75 95 68 72 84 97 108 129 109 146 85 84 135 122 103 148 76 103 79 81 119 143 94 106 99 150 79 80 70 94 50 125 110 104 116 65 58 169 83 114 112 61 79 123 142 95 50 80 84 96 74 106 143 71 54 108 112 43 81 81 111 53 102 81 46 90 45 62 55 43 93 99 99 114 100 87 62 80 114 76 56 120 103 66 108 113 116 74 119 62 116 68 122 131 120 171 100 117 132 96 34 52 111 106 86 116 93 43 96 126 99 117 113 96 76 33 77 51 188 194 142 92 113 75 85 76 153 150 65 142 85 55 90 102 66 78 58 107 75 131 73 90 116 130 35 80 82 90 85 82 166 77 62 130 103 149 93 113 24 169 151 45 98 133 80 89 96 71 71 127 84 101 86 78 55 25 117 100 109 69 68 149 75 63 64 85 79 68 55 97 31 63 28 110 109 216 106 89 114 85 87 79 118 41 65 60 134 105 142 59 73 210 74 62 109 100 132 107 123 89 101 120 81 178 63 65 126 104 17 138 96 166 69 73 120 95 94 87 96 76 116 160 93 69 144 57 109 103 98 103 134 60 115 88 149 62 81 79 93 79 55 86 49 91 143 95 102 84 56 112 120 89 76 37 129 136 56 107 89 52 130 67 137 110 99 31 86 77 104 84 73 78 73 140 108 36 124 133 205 93 86 70 98 56 143 98 43 57 130 120 96 103 100 43 74 63 122 137 95 75 136 123 108 61 122 75 122 111 62 77 159 148 116 30 129 73 74 99 96 107 68 119 61 56 48 147 56 106 102 42 61 84 54 96 153 65 54 105 68 30 55 73 40 80 83 66 107 132 47 76 160 50 45 101 118 68 122 110 70 127 120 69 95 121 86 95 97 95 113 60 172 36 119 48 154 85 66 68 44 129 121 89 64 56 118 62 124 101 70 70 88 206 90 121 97 123 23 103 57 49 94 87 71 98 119 68 110 27 162 60 138 131 170 85 160 109 76 88 108 77 111 66 85 121 127 138 107 67 32 29 92 72 81 86 71 55 62 133 59 109 76 150 56 72 105 101 68 103 134 86 21 94 79 96 91 92 69 116 61 108 68 88 150 161 73 63 102 158 104 141 151 76 66 110 87 64 130 170 98 77 41 56 33 120 112 114 100 72 57 133 73 87 129 61 76 83 86 195 93 95 128 114 55 87 134 110 53 82 73 106 75 100 111 59 121 72 123 54 72 109 57 111 123 47 127 114 36 50 82 99 66 137 65 149 51 40 117 76 96 136 89 80 87 112 154 167 112 61 63 57 75 131 105 88 121 106 72 153 54 45 103 79 60 116 85 63 110 49 69 129 113 102 158 130 100 99 115 65 114 130 45 120 84 138 96 84 112 66 103 63 85 104 60 77 71 113 130 95 85 72 135 70 60 75 140 34 103 139 104 98 100 107 104 118 73 97 195 142 68 89 92 60 54 64 116 57 143 166 30 86 129 83 88 74 41 61 42 98 184 159 136 137 84 90 176 102 68 112 103 57 85 65 39 200 59 163 44 47 49 121 30 93 128 160 129 175 116 105 121 158 70 151 136 65 104 138 52 32 49 89 132 55 128 82 80 42 140 105 60 81 69 65 130 119 59 87 20 66 72 53 58 99 105 94 87 121 87 25 129 55 127 156 228 94 85 75 90 106 79 146 114 78 102 47 84 86 97 36 82 119 138 227 58 112 107 46 146 107 66 224 92 29 48 106 140 61 48 58 97 70 74 82 99 49 130 110 65 107 83 59 63 139 111 163 33 95 74 71 99 52 98 120 158 89 55 127 119 106 96 62 90 130 77 117 147 14 66 78 57 125 45 65 61 119 86 92 76 89 78 157 50 106 115 39 98 140 121 89 109 88 42 166 200 86 103 157 14 56 36 68 98 63 133 113 148 113 81 76 58 89 74 115 44 109 110 121 75 91 68 90 107 84 116 120 40 61 97 88 45 75 58 116 121 83 39 91 149 94 33 105 160 51 88 81 89 74 84 68 134 70 89 64 132 181 92 106 156 97 91 146 82 44 41 70 73 95 102 127 43 67 109 88 87 70 101</t>
-  </si>
-  <si>
-    <t>MIE(0.2694807893158452, 2.247394687647083, -5.244863423848715e-31, 1.482873781198799)</t>
-  </si>
-  <si>
-    <t>0 3 1 2 0 0 0 0 0 1 2 1 0 2 0 1 0 0 2 0 1 1 0 1 0 1 3 1 0 1 2 1 1 1 0 2 2 1 0 1 1 1 0 0 0 1 1 0 0 3 1 1 0 0 0 1 3 2 1 1 0 0 2 2 1 0 1 0 3 2 2 2 1 0 0 0 1 1 1 1 1 0 0 1 2 1 2 0 1 0 0 1 2 0 0 1 1 1 1 2 1 0 0 1 1 0 1 0 0 0 1 0 0 2 4 0 1 1 0 0 0 1 1 1 2 0 2 0 1 0 1 0 1 0 0 1 2 0 1 1 0 1 0 1 1 1 1 1 0 0 2 1 3 1 1 0 1 4 0 1 1 4 0 0 0 1 0 2 1 0 0 1 1 0 0 1 1 1 1 2 1 1 0 1 1 0 1 2 1 2 0 0 0 1 2 0 3 1 2 0 0 0 2 0 1 0 3 0 1 0 1 0 2 1 1 1 0 1 1 0 2 0 0 1 0 2 0 0 0 1 0 1 3 1 0 1 0 1 1 1 1 1 2 2 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 2 2 3 1 1 0 1 1 3 1 1 0 1 1 1 1 0 2 0 1 3 1 0 0 0 1 2 2 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 2 1 0 2 0 0 1 1 1 1 2 1 0 1 0 2 2 1 0 2 0 1 0 1 0 0 2 0 2 3 0 1 0 0 0 3 1 1 0 2 0 0 1 0 0 0 1 2 2 1 1 1 0 3 1 3 0 1 1 2 1 2 2 1 0 0 2 0 0 1 1 2 1 2 1 1 3 1 0 1 2 2 3 2 0 1 1 0 2 2 0 0 3 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 1 2 0 1 2 1 1 0 2 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 1 2 2 0 1 0 2 1 2 2 0 0 0 2 1 1 0 0 1 0 1 1 0 1 1 2 4 1 0 0 0 1 0 1 1 2 1 0 1 3 2 0 0 0 0 2 1 0 0 0 0 0 1 0 2 2 2 3 1 3 0 1 0 2 0 2 2 1 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 3 1 1 0 2 0 0 0 1 0 2 0 2 1 2 0 0 1 1 1 1 1 1 0 2 1 1 0 1 0 0 1 1 0 1 2 0 1 0 0 1 0 0 2 1 1 0 3 0 0 0 1 1 1 2 0 0 1 0 2 0 2 0 1 1 0 0 0 2 1 2 2 1 0 0 0 0 1 0 1 0 1 0 1 1 2 0 0 0 1 1 0 2 2 2 3 1 2 1 0 0 2 0 1 2 0 0 2 0 0 0 0 1 1 1 1 2 0 2 1 0 0 1 0 2 0 3 0 2 2 1 2 3 1 0 2 0 0 2 2 1 2 0 0 0 2 0 1 0 1 1 1 0 1 1 1 1 1 1 0 1 1 1 2 1 1 0 2 3 1 2 1 1 1 2 1 2 0 0 2 2 0 0 1 0 0 1 0 0 0 2 0 2 1 2 4 1 1 1 1 0 1 1 1 2 2 0 0 1 0 0 1 0 0 1 1 0 2 1 0 1 1 1 1 2 1 0 3 1 0 1 0 0 2 0 0 1 0 0 0 0 0 1 1 0 0 2 1 0 1 1 3 4 2 1 1 2 0 0 0 2 1 0 1 1 2 0 1 2 0 1 1 0 3 0 3 0 3 0 2 1 3 1 0 0 1 1 4 1 1 5 1 0 0 1 0 1 2 2 1 2 3 0 2 1 0 1 0 1 0 0 1 1 0 2 0 2 0 1 1 1 0 1 0 1 1 0 0 0 0 3 1 1 0 0 0 2 2 1 2 0 1 1 0 1 4 1 0 1 0 1 2 1 3 1 0 1 1 1 2 2 2 2 0 1 0 0 2 3 1 1 0 3 1 0 1 0 1 1 0 1 2 1 0 2 0 1 0 0 1 0 0 2 1 1 0 1 0 2 2 0 1 1 0 1 1 2 1 1 1 2 1 2 1 0 0 1 1 1 0 3 1 0 0 0 2 0 0 1 0 1 2 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 2 2 1 0 0 0 0 0 0 0 2 1 0 2 1 2 1 1 0 1 2 2 0 1 0 2 1 0 0 2 2 1 1 1 1 0 2 0 3 2 0 0 1 0 2 3 1 1 0 0 0 0 1 1 1 0 1 0 2 1 1 0 0 1 0 0 0 0 1 1 0 1 0 2 0 2 2 1 2 1 2 0 0 0 2 1 0 1 1 3 2 1 0 0 1 1 1 1 1 0 0 0 0 0 0 2 1 1 0 0 1 0 0 0 1 0 2 3 0 1 2 0 2 1 1 1 0 2 2 4 0 2 1 1 1 1 0 0 0 0 0 1 0 0 3 0 0 1 1 1 2 1 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 1 0 1 2 1 1 0 0 0 0 2 0 1 1 1 1 0 0 0 0 1 0 1 2 0 3 1 3 1 1 0 2 1 4 0 0 0 0 0 1 1 1 1 2 0 1 1 2 0 0 2 2 1 1 0 0 1 1 0 0 2 1 0 2 0 0 0 0 0 1 3 1 3 2 0 0 2 3 0 1 1 1 0 1 1 0 0 1 2 1 1 0 1 0 0 2 1 0 0 0 0 1 1 1 1 1 1 0 0 3 2 1 1 1 1 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 1 0 1 1 1 1 0 1 0 2 1 0 2 0 0 1 2 1 3 1 1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 2 1 1 1 1 1 0 0 0 1 2 2 0 1 1 1 1 0 0 1 0 0 2 2 1 1 0 0 0 0 0 0 1 0 2 0 0 2 3 0 0 0 0 0 1 2 2 0 1 0 1 1 1 1 1 3 0 0 3 3 0 0 1 1 2 0 3 2 0 0 1 1 1 1 2 1 0 0 0 2 1 2 0 0 0 1 1 0 1 1 0 1 2 0 1 1 2 3 1 0 3 1 0 2 1 0 1 1 2 1 3 0 1 0 0 2 0 2 1 1 0 2 1 2 2 1 1 1 0 0 1 2 1 1 1 0 1 1 0 2 1 0 0 1 0 0 0 0 1 1 3 2 1 0 1 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 0 1 1 0 1 2 0 0 0 1 1 1 0 2 1 1 0 0 0 0 0 2 2 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 2 1 3 0 1 1 1 1 1 2 0 0 3 1 1 1 0 4 3 0 2 0 0 2 2 0 1 0 2 0 1 0 2 1 0 1 1 1 0 1 2 0 1 1 1 1 1 0 0 0 0 2 0 1 0 1 1 0 0 0 2 0 1 0 0 1 2 1 1 0 0 1 0 1 0 1 1 0 1 1 1 0 1 0 0 0 0 2 1 1 2 0 1 4 1 1 0 2 0 1 1 1 0 1 1 0 1 0 1 2 0 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 2 2 3 1 0 1 0 2 0 0 0 0 1 2 1 1 1 1 3 0 1 2 2 1 2 1 1 0 1 0 1 2 0 2 1 0 2 1 1 1 2 2 0 1 0 2 1 3 2 0 0 1 1 1 1 2 0 2 2 1 0 0 1 1 0 1 2 0 0 0 1 0 0 2 2 1 1 2 1 0 1 1 2 0 0 0 4 1 1 1 2 1 1 0 0 1 2 1 0 3 0 1 1 0 0 1 0 0 0 1 0 0 3 0 1 3 1 0 0 0 1 0 2 2 5 1 1 0 2 1 0 3 1 2 2 0 0 1 0 1 1 1 1 1 1 0 2 0 1 1 0 1 0 0 0 0 0 3 1 1 1 1 1 1 1 3 2 1 1 0 0 0 0 2 0 0 2 0 1 1 0 0 1 1 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 2 2 2 0 1 2 0 0 0 2 1 0 1 2 3 0 1 1 0 1 0 1 1 1 1 2 1 1 4 1 2 0 1 0 1 0 2 0 1 0 3 1 0 1 0 2 0 0 1 0 3 1 3 1 0 0 2 1 1 0 0 1 1 1 0 1 0 0 0 0 2 0 1 3 1 1 2 1 1 1 1 0 1 1 2 1 0 0 1 1 1 1 3 0 3 0 1 1 0 0 1 2 1 0 0 0 1 0 2 0 0 0 0 1 0 2 0 1 0 2 1 1 0 2 0 1 1 1 1 1 1 0 0 2 0 1 2 0 1 2 3 1 0 3 0 1 2 2 0 0 1 1 0 0 1 1 2 1 0 0 2 1 1 0 1 2 0 1 0 2 1 2 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 3 1 0 1 1 0 0 0 0 1 1 0 0 2 2 2 1 0 0 2 2 1 0 2 1 0 0 1 1 0 2 0 0 0 0 1 0 0 0 1 0 0 2 2 2 1 0 1 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 1 2 1 0 1 1 0 2 0 1 0 0 1 0 0 2 0 1 1 3 1 1 0 1 0 1 0 2 1 3 0 3 0 0 0 1 4 0 1 2 0 1 1 0 1 1 1 0 2 1 0 1 0 1 0 1 2 1 0 0 1 1 0 1 1 1 1 0 1 0 0 0 1 1 1 0 1 3 1 0 1 0 0 1 0 2 2 1 1 2 0 0 0 0 2 0 2 1 1 2 2 0 2 0 2 0 1 1 0 0 2 0 1 1 1 0 1 1 1 0 0 1 2 0 2 3 1 1 0 1 0 0 3 2 0 1 1 1 0 1 3 3 0 1 3 4 0 0 0 0 0 0 3 0 0 2 1 0 0 0 0 0 2 1 0 1 0 0 1 1 0 0 1 0 1 1 0 1 2 0 2 2 1 2 0 0 1 0 1 2 0 2 0 1 1 0 1 0 0 2 0 0 1 1 0 1 2 0 2 2 0 0 2 1 0 1 0 0 2 0 1 0 0 2 0 0 0 0 0 1 2 0 1 2 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 2 0 3 2 3 0 2 1 0 1 2 2 3 0 0 1 1 1 1 0 0 1 0 2 0 0 1 1 0 0 2 0 1 0 1 1 1 1 1 1 1 0 1 1 2 0 1 0 0 0 0 0 0 0 0 1 1 2 1 2 0 0 1 1 0 0 0 1 2 1 1 1 0 0 4 0 0 0 0 1 1 1 0 0 0 1 0 0 0 2 0 0 2 0 2 0 1 0 2 1 1 1 0 0 3 1 2 2 0 2 1 1 1 0 1 3 0 1 2 1 0 2 1 3 1 1 0 2 1 0 3 1 0 3 3 2 3 1 0 1 0 1 1 0 2 0 0 1 1 2 0 1 1 1 1 0 0 0 1 0 0 1 3 0 0 1 0 0 0 1 0 1 1 2 0 2 1 1 1 1 1 0 2 0 0 3 1 1 0 1 1 0 1 1 2 2 2 2 1 1 2 1 1 1 0 0 0 0 0 0 1 0 0 1 2 1 0 2 2 4 1 2 3 0 1 0 0 3 0 0 2 1 0 1 2 1 0 0 2 1 1 1 1 2 1 1 2 0 2 3 2 2 0 2 1 0 0 3 1 0 0 3 1 4 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 1 2 0 0 1 0 0 1 3 0 1 0 1 1 1 0 1 0 2 1 1 0 0 0 2 0 1 1 1 2 2 1 1 1 0 0 2 2 0 1 1 0 1 0 0 1 1 3 3 0 0 1 1 1 3 0 1 0 1 0 2 0 0 1 2 1 0 0 1 0 1 1 1 1 3 2 0 0 2 0 1 1 1 1 1 0 1 0 2 1 0 3 0 1 0 1 1 0 1 1 2 1 0 0 0 1 1 0 1 0 1 0 1 1 0 0 3 0 2 2 1 1 0 0 3 0 1 1 1 1 1 0 0 0 0 0 0 1 1 2 1 0 0 1 0 1 1 0 0 1 1 1 1 0 1 1 2 0 0 1 0 1 0 0 2 0 0 2 3 0 1 0 0 0 1 1 2 2 1 0 1 1 0 0 0 3 0 0 0 2 0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 1 0 0 1 1 0 1 0 0 1 0 3 0 1 0 1 1 0 0 1 1 0 1 1 2 1 2 0 2 2 1 0 1 0 2 1 0 1 2 1 0 0 0 0 0 1 0 0 0 1 0 3 1 0 1 1 1 0 2 2 0 1 2 2 1 1 0 1 2 1 1 1 1 1 1 1 0 1 0 0 0 0 3 0 1 0 0 0 1 0 0 2 0 0 1 0 1 0 0 2 1 2 0 0 0 1 0 2 2 0 2 1 1 1 0 2 1 0 0 2 0 1 0 2 2 2 1 1 0 0 1 1 1 1 0 2 1 0 1 2 0 0 0 2 1 1 0 1 2 1 0 1 2 1 1 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 3 0 1 0 0 0 1 0 1 0 1 1 0 1 3 0 0 0 1 3 0 2 0 0 1 2 1 1 0 1 0 1 2 2 3 2 0 2 0 1 1 0 0 1 1 1 1 0 1 1 2 0 0 2 1 2 3 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 1 1 0 1 1 1 0 0 1 1 1 1 1 2 0 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 0 1 0 1 0 2 0 1 1 1 0 1 0 1 0 1 1 1 1 1 2 0 3 0 1 1 1 0 0 1 0 1 1 0 0 0 0 1 2 1 1 1 0 3 1 3 3 1 0 3 2 1 0 1 2 1 1 0 0 0 1 2 0 0 0 0 1 1 1 2 1 2 3 1 1 0 0 4 0 1 1 1 1 0 0 1 3 3 1 1 2 2 1 0 0 0 0 4 0 2 1 0 2 0 1 2 1 0 4 0 1 0 0 0 1 1 2 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 1 2 0 0 1 0 0 1 1 2 1 2 1 0 3 0 0 0 1 1 0 3 0 1 0 1 0 3 2 0 2 1 3 0 0 2 2 2 0 2 1 1 0 0 1 1 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 1 1 1 3 1 0 1 1 0 0 0 1 1 1 1 1 1 1 2 1 1 4 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 2 1 0 3 1 2 1 1 1 1 1 0 1 0 0 1 1 1 0 2 0 0 0 1 1 1 4 1 3 1 0 0 1 1 1 0 0 1 1 0 0 3 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 3 0 2 0 2 0 2 1 0 0 3 0 1 1 2 2 0 1 1 1 0 1 1 1 0 2 0 2 1 0 0 0 2 1 1 1 1 1 1 1 0 1 1 0 1 0 0 0 2 0 0 0 0 2 1 2 0 0 1 1 0 2 4 1 1 1 1 0 0 3 1 0 2 0 0 0 1 0 1 0 0 1 1 0 1 0 2 0 0 2 1 3 1 0 1 3 0 2 2 1 1 3 0 0 1 2 1 2 1 0 2 0 2 2 1 0 2 2 0 2 1 1 2 0 1 1 0 0 0 0 1 1 3 3 0 1 1 1 2 0 0 2 0 1 1 1 4 1 1 0 1 1 0 0 1 1 2 0 0 0 2 1 0 1 0 1 0 2 1 0 1 0 3 3 1 0 0 1 0 1 0 0 1 1 1 1 0 1 1 0 0 2 0 2 0 2 1 1 3 1 1 0 2 0 1 1 2 1 1 0 1 0 1 1 2 1 0 1 1 0 1 1 0 0 2 1 1 0 0 1 1 0 1 1 0 2 2 1 1 0 1 1 2 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 2 1 1 0 0 1 1 0 0 2 0 1 1 0 2 1 2 1 0 0 1 0 3 0 0 1 2 1 1 0 2 1 1 0 2 1 1 1 1 2 0 0 0 2 0 1 1 0 0 0 1 2 1 1 1 1 1 0 0 1 0 2 1 1 3 1 0 0 1 2 0 0 2 0 1 1 2 1 0 0 1 0 0 2 1 3 0 0 1 0 0 1 0 1 0 0 1 1 1 1 2 1 1 2 1 0 0 0 1 1 0 1 1 0 0 0 1 0 2 2 0 1 2 2 1 0 2 0 1 1 0 1 1 1 0 0 1 1 1 1 1 1 0 2 2 1 1 0 1 1 0 1 0 0 2 1 0 2 1 1 1 1 0 0 0 1 0 1 1 0 0 1 0 1 0 1 1 2 2 1 1 1 1 4 2 1 0 0 0 0 0 3 1 1 2 1 1 1 0 1 0 0 1 0 1 0 0 0 1 0 1 0 2 0 1 1 1 1 1 0 2 2 0 0 1 1 1 0 0 1 1 1 0 0 2 1 0 2 0 2 0 1 1 2 2 1 1 0 0 1 1 1 2 0 0 0 1 0 3 0 1 2 0 2 1 0 2 1 2 1 1 2 0 3 1 0 1 0 1 2 3 0 1 2 0 0 1 0 0 1 2 4 1 2 0 0 1 1 0 1 1 1 3 0 0 1 2 2 2 2 0 2 3 0 0 1 1 1 0 0 0 1 2 0 0 2 2 1 2 2 0 0 2 1 0 3 1 1 1 1 1 0 0 2 1 0 1 0 2 0 1 0 1 0 1 0 1 1 0 0 2 0 2 2 1 0 1 1 0 1 1 1 0 0 0 2 1 1 0 2 0 1 0 1 1 2 3 0 1 2 1 1 3 1 2 0 1 0 0 0 0 1 0 0 1 2 1 0 1 0 2 0 0 0 0 1 0 0 0 1 1 0 2 0 0 1 0 1 1 1 1 1 1 2 0 2 1 0 3 1 1 1 0 1 0 0 1 0 2 1 0 0 1 1 2 2 2 0 0 0 1 0 0 1 0 1 0 1 0 2 0 0 0 1 1 2 1 3 1 3 1 1 0 1 1 1 0 1 1 3 2 1 2 1 0 0 1 1 2 1 2 4 0 2 0 0 0 2 0 2 1 0 0 1 1 2 1 1 0 3 2 1 1 2 0 0 0 2 1 1 1 1 2 1 0 0 1 2 1 0 0 0 1 1 0 2 2 0 0 0 0 0 2 0 0 0 0 0 3 0 2 0 1 2 0 2 0 1 1 2 1 0 3 0 3 1 1 0 2 0 1 2 1 0 1 1 2 1 2 0 0 0 1 0 0 1 1 1 0 1 1 0 1 1 1 0 0 1 1 1 1 0 0 1 1 2 0 0 1 1 2 0 0 0 0 2 0 0 0 1 1 1 2 0 1 0 1 0 1 1 0 0 1 3 1 1 0 0 1 0 0 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 1 1 2 1 0 2 2 1 0 2 2 0 1 2 0 0 1 0 0 1 2 0 1 0 1 0 1 0 1 0 0 3 1 1 3 2 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 2 2 1 1 0 2 0 0 1 0 2 0 2 0 1 1 1 0 0 0 2 3 0 1 0 1 4 1 0 2 1 2 1 0 3 1 1 2 1 0 1 0 1 0 1 1 3 0 1 1 0 2 1 0 1 1 1 1 0 1 0 0 0 2 0 4 1 1 0 1 0 0 0 0 1 0 1 0 1 0 1 0 1 1 3 1 0 1 2 1 1 1 1 1 0 3 0 1 0 3 2 0 0 1 1 0 3 0 4 0 1 2 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 2 1 4 1 1 1 1 0 0 0 1 2 1 1 1 0 0 2 1 1 1 1 0 2 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 2 1 1 1 0 0 0 0 1 1 1 2 0 0 1 0 1 3 1 1 0 0 2 1 0 0 0 2 2 0 2 0 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 2 2 1 0 0 0 0 1 1 1 1 1 1 1 2 2 0 0 2 1 0 1 3 1 4 0 0 0 1 1 0 2 0 1 0 1 1 1 0 1 0 0 1 0 2 0 0 0 0 0 1 1 0 0 2 1 1 0 2 1 0 1 0 0 0 1 3 3 0 2 2 1 2 2 1 0 1 2 1 1 1 1 3 0 1 0 1 2 1 1 0 2 1 1 1 0 2 2 1 1 0 1 2 0 0 0 1 1 0 2 2 2 1 1 0 1 1 0 1 1 2 0 0 0 0 1 0 4 1 1 0 0 1 1 1 0 0 2 0 1 2 0 0 1 2 1 0 0 0 0 3 2 1 0 2 2 1 0 1 2 1 1 1 1 0 2 0 1 0 1 0 0 0 1 2 0 1 0 1 2 1 0 2 1 0 1 1 1 0 0 2 2 2 2 0 1 1 2 0 1 0 0 0 0 0 2 1 1 0 0 1 1 0 1 1 3 2 1 0 0 0 1 0 0 0 1 1 0 1 4 2 0 0 1 1 0 0 0 0 1 0 2 1 2 1 0 1 1 0 0 1 0 1 0 0 1 3 2 0 3 0 1 1 0 1 0 0 1 0 1 0 1 0 1 0 2 1 3 1 1 0 0 0 1 1 0 2 0 1 1 1 1 1 1 0 0 1 1 0 0 2 0 1 2 0 0 0 0 1 0 0 2 0 0 3 3 0 1 1 1 1 2 1 0 0 1 1 0 1 1 1 1 0 1 1 0 2 0 0 1 0 0 2 1 1 0 1 2 0 3 1 0 2 0 0 0 0 2 1 1 1 1 2 2 2 1 0 0 0 1 0 0 2 1 2 0 1 0 0 0 1 1 1 0 1 2 0 1 0 2 1 2 0 1 1 1 1 1 1 1 1 1 2 0 0 0 0 0 2 0 0 0 1 1 0 1 2 0 1 0 1 0 0 0 1 2 2 1 2 2 0 4 1 1 1 0 1 1 0 0 0 1 2 2 1 1 2 1 1 1 1 0 0 0 0 2 1 0 0 0 1 1 1 2 1 1 1 1 2 2 4 1 1 1 0 1 0 1 0 0 3 0 1 0 2 0 0 1 0 1 1 2 0 2 1 1 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 2 0 0 1 1 1 0 2 0 1 0 0 0 0 0 1 0 0 0 2 1 0 0 0 3 0 0 0 0 1 0 1 1 1 0 0 1 2 1 1 0 1 2 1 1 1 0 1 0 0 3 0 2 0 0 1 0 2 1 0 0 2 0 0 0 1 2 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 5 0 1 1 1 1 0 2 1 1 1 0 1 0 0 1 1 1 1 0 1 1 0 2 2 2 0 2 0 1 1 1 1 0 1 0 0 1 3 0 0 1 1 0 2 0 1 1 0 0 1 2 0 0 0 1 2 1 1 2 2 1 1 1 1 1 0 2 2 2 0 0 2 0 1 0 0 1 0 1 1 2 1 1 1 0 1 0 2 3 0 1 1 0 0 0 1 1 0 2 1 1 1 2 1 1 1 0 0 1 2 0 0 1 0 0 1 1 2 1 0 2 1 0 1 0 0 1 1 1 0 2 2 1 2 1 1 1 1 2 1 1 1 2 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 1 1 1 2 2 0 1 1 1 0 1 1 0 1 2 2 1 2 1 0 4 0 0 0 1 1 0 0 1 0 1 1 0 3 1 0 1 1 2 0 1 0 2 1 1 2 1 0 0 2 0 1 0 0 0 0 0 0 1 1 1 2 1 2 0 0 1 0 0 0 2 2 0 1 0 1 0 2 0 0 0 0 1 2 0 0 0 2 0 1 0 1 0 1 3 0 0 0 1 1 0 1 0 3 1 2 0 2 1 0 1 1 0 2 3 1 0 0 1 0 1 0 1 0 0 0 0 1 2 2 0 2 1 1 0 0 2 0 0 2 0 0 0 2 3 1 1 1 2 0 1 2 0 0 0 1 1 1 2 0 2 0 0 2 0 1 1 1 0 0 1 1 2 2 2 0 0 1 1 0 1 0 3 2 1 2 0 2 0 2 0 3 0 0 0 1 3 2 0 2 1 1 2 3 1 0 1 0 0 3 0 1 0 0 0 1 0 0 1 2 1 0 0 2 2 3 1 1 1 1 2 0 1 1 0 0 3 2 1 0 0 1 2 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 1 1 2 1 1 1 3 2 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 2 3 1 0 3 0 1 1 1 2 2 0 1 1 1 1 1 1 0 0 1 0 0 2 0 1 0 0 0 0 1 1 0 2 0 0 3 1 0 3 0 0 1 0 0 2 0 1 2 1 1 0 0 3 1 2 0 0 1 2 1 2 0 3 0 1 1 1 1 1 0 0 0 1 1 0 0 3 3 4 0 0 0 1 1 2 0 0 0 3 1 2 1 0 0 0 3 1 3 1 1 1 1 1 0 0 1 1 0 0 0 1 1 0 1 0 2 0 1 1 1 1 2 0 1 0 2 1 1 0 0 0 1 0 1 1 0 1 1 1 0 2 0 0 0 1 1 1 0 3 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 0 1 2 1 2 3 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 1 1 0 0 1 3 2 1 1 0 0 1 2 0 2 1 2 4 0 1 1 0 0 0 1 1 0 0 2 1 1 1 2 0 1 1 1 0 0 2 0 3 0 2 0 2 0 2 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 1 0 1 2 2 0 1 0 0 2 0 2 2 2 3 0 2 0 0 1 2 0 1 0 2 1 0 1 1 0 1 1 0 1 3 1 0 1 2 0 1 0 0 2 0 0 0 1 0 2 1 0 0 3 0 1 0 1 0 3 2 0 0 2 0 3 0 1 1 2 0 1 1 0 1 1 1 2 0 0 1 2 1 1 1 0 1 0 1 1 1 1 1 0 1 0 0 0 0 0 2 1 0 2 2 2 0 0 3 3 2 2 1 1 1 2 1 1 0 1 0 1 1 1 0 0 0 2 2 3 0 1 0 0 1 1 0 0 1 1 1 0 1 1 1 1 0 0 1 1 2 1 0 0 1 0 0 1 1 2 1 2 1 0 1 0 0 1 1 0 1 1 0 0 0 1 0 0 0 2 4 0 3 0 0 2 1 1 1 1 0 0 0 1 2 0 1 0 1 1 2 2 2 2 1 4 1 2 0 0 3 0 0 0 0 3 0 1 2 0 1 1 3 2 1 0 1 0 0 4 0 0 0 2 3 0 0 0 1 2 1 0 3 1 0 0 0 1 0 0 0 1 0 0 1 1 3 2 2 1 0 0 1 0 0 1 0 0 1 0 1 0 2 1 0 1 0 1 0 0 0 0 0 0 1 1 1 1 1 0 1 1 0 1 2 1 1 1 2 0 1 1 1 1 0 0 2 1 0 1 1 2 1 0 1 1 1 1 0 2 1 3 0 0 1 1 0 3 0 0 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 3 1 0 3 1 0 2 1 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 1 2 0 0 0 2 0 1 1 0 0 1 2 0 0 2 2 1 0 2 2 1 2 0 1 1 1 0 0 2 1 0 0 2 1 0 0 3 0 1 2 0 0 0 1 0 1 0 0 0 2 1 1 2 2 1 1 0 0 2 2 0 0 0 0 0 1 0 2 1 1 1 2 1 0 1 0 2 1 1 0 2 1 1 2 2 1 2 0 0 0 1 0 0 1 2 3 0 2 0 1 1 0 0 1 0 2 0 1 1 1 1 0 1 2 3 1 1 0 0 1 2 3 0 0 1 1 0 1 0 1 1 0 0 1 1 0 0 1 2 3 0 0 2 0 1 1 1 1 0 1 1 1 3 1 0 1 0 1 0 1 2 0 1 1 1 1 0 0 0 1 0 3 0 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 3 3 2 2 1 0 1 2 0 2 1 1 1 1 1 1 1 1 1 0 0 1 0 0 1 1 1 0 3 2 0 0 0 2 0 0 1 2 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 3 0 2 0 0 2 0 0 0 1 1 1 0 1 1 1 1 1 1 0 2 0 0 2 0 1 0 1 0 1 2 1 0 0 1 0 0 3 1 1 0 3 1 1 1 1 1 3 1 1 2 0 0 1 2 1 0 0 0 2 0 1 1 0 1 0 0 1 0 2 1 3 0 1 1 1 1 0 1 0 2 2 1 1 2 1 2 0 1 1 1 0 1 0 1 2 0 2 0 0 1 1 0 1 1 1 1 1 0 2 3 0 1 2 0 0 1 1 1 1 1 1 1 0 1 2 1 1 2 0 0 1 1 0 1 1 2 1 1 1 1 1 0 1 0 3 0 1 2 0 1 1 4 0 2 1 0 1 1 2 0 0 0 0 0 0 3 0 0 0 0 2 0 4 1 1 2 0 0 1 1 0 1 0 0 1 3 0 0 0 2 2 1 0 0 0 1 0 0 0 3 1 2 1 1 1 2 0 1 1 1 0 1 1 0 2 3 1 1 2 1 0 0 2 0 1 1 0 0 0 1 1 0 0 1 1 3 2 1 0 1 2 0 1 0 0 0 2 1 1 0 1 0 0 1 0 0 1 0 1 1 1 0 1 2 1 0 1 3 3 3 1 1 0 3 1 2 0 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 2 1 0 2 0 2 1 1 2 0 1 1 1 0 1 0 0 0 1 2 1 1 0 1 2 1 0 0 0 1 1 0 3 2 1 2 1 0 0 0 0 0 1 2 1 0 3 1 2 1 0 1 1 0 0 0 0 0 1 1 3 1 0 0 0 0 2 0 2 0 1 0 2 1 1 2 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 1 1 1 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 2 1 2 1 0 0 0 1 1 0 1 0 1 2 1 2 0 2 0 0 2 1 1 0 0 1 1 2 1 0 2 3 0 0 3 1 1 2 0 1 1 3 0 0 1 2 2 0 1 1 0 0 1 1 0 1 2 3 1 0 2 3 1 0 2 0 0 0 1 0 2 0 2 2 1 2 0 1 0 2 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 1 1 1 1 3 1 1 0 0 0 0 0 1 3 1 1 0 0 2 0 1 1 1 2 1 0 0 0 0 2 0 0 0 1 0 0 2 0 0 1 1 1 1 1 1 2 0 0 2 0 1 1 2 0 1 1 1 0 1 1 2 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 2 1 1 0 0 2 1 0 1 2 0 0 1 2 1 0 1 0 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 3 1 2 0 0 0 2 0 1 1 0 2 1 0 0 1 1 0 2 2 0 1 1 3 1 1 1 0 0 1 0 1 0 1 2 2 1 1 0 0 1 1 0 1 2 1 1 1 1 1 0 3 1 1 0 1 0 0 1 2 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 0 0 2 1 1 0 1 0 1 2 3 2 0 2 0 2 1 2 0 1 0 1 1 1 2 4 3 0 1 2 1 1 1 0 0 2 2 0 0 1 1 1 1 0 0 0 0 0 2 3 1 1 2 2 0 2 2 1 1 0 1 0 0 0 0 1 0 1 0 2 3 1 1 1 1 0 2 0 0 0 0 0 3 0 1 0 2 0 1 3 1 0 0 1 2 0 0 1 2 0 3 1 1 0 1 1 2 0 2 1 0 1 0 0 1 0 1 0 0 1 0 1 2 2 0 3 0 0 1 2 0 0 0 0 1 1 0 2 1 1 0 1 0 4 1 0 1 0 1 0 0 0 1 0 1 1 0 1 3 1 1 1 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 1 0 1 3 1 0 2 0 2 0 0 1 1 0 1 0 2 1 0 0 0 0 1 0 1 0 1 0 2 1 1 3 1 0 2 0 2 1 2 1 1 1 0 1 0 3 0 1 1 1 2 1 0 1 0 2 0 1 0 2 1 0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 1 1 2 2 2 0 0 1 0 1 0 3 0 0 0 1 0 1 0 1 1 2 1 0 0 0 0 0 0 2 1 1 0 1 1 2 2 0 0 0 1 3 1 1 0 2 0 0 5 1 0 0 0 0 0 2 1 0 2 1 3 2 2 0 1 0 0 1 1 2 0 1 1 2 1 1 0 0 1 0 1 1 1 0 1 0 2 1 0 0 1 0 2 0 1 0 1 1 0 0 0 1 1 0 2 3 2 0 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 0 1 2 2 0 0 0 1 0 1 1 2 3 0 1 3 2 1 1 1 1 2 0 0 1 2 0 0 2 2 1 0 2 0 0 0 0 0 2 0 2 0 2 1 2 0 1 2 1 0 3 1 0 1 1 0 1 1 0 0 1 2 0 0 1 3 0 1 2 0 0 1 2 1 3 2 1 3 0 1 1 0 0 0 1 3 0 0 3 1 0 1 0 0 0 0 1 1 1 0 1 1 2 0 0 3 1 2 1 1 0 2 4 0 1 1 2 1 0 0 1 0 1 0 2 2 1 1 1 2 1 1 1 0 0 1 4 0 1 0 2 1 1 0 1 0 1 0 1 2 0 1 0 2 0 0 1 1 2 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 1 1 1 0 2 1 2 1 0 1 1 0 1 0 0 2 0 1 1 1 1 0 1 0 2 0 0 0 3 1 0 2 0 2 0 1 0 0 0 2 1 1 2 3 0 1 0 2 1 1 2 0 0 0 0 1 0 1 1 3 0 0 1 3 1 1 2 1 0 2 1 0 1 1 1 0 0 0 2 1 0 0 0 0 2 1 1 0 0 1 1 2 0 0 1 0 1 1 2 1 3 1 0 0 0 0 1 2 0 1 0 1 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 2 2 0 0 4 1 1 1 2 1 1 0 0 1 1 0 1 1 2 2 0 1 1 3 0 0 1 1 0 2 1 1 1 1 0 2 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 1 0 0 1 2 1 0 0 1 3 0 1 2 1 0 2 2 2 1 2 2 0 2 2 0 0 1 3 0 0 1 0 2 0 2 0 0 2 2 2 3 2 1 0 1 2 1 1 0 3 2 2 0 0 1 0 0 0 3 1 0 1 1 0 1 0 1 1 0 2 0 0 0 0 0 1 0 1 1 0 1 0 1 0 2 1 1 0 2 2 3 0 0 0 0 1 3 1 0 0 2 1 0 2 1 1 2 1 0 0 1 0 3 2 2 1 0 2 2 0 0 0 0 0 1 0 1 0 0 0 0 3 1 1 0 3 2 0 2 1 3 0 0 0 2 1 0 0 0 1 1 2 0 3 1 2 2 2 2 1 0 1 1 1 2 2 1 0 0 0 1 0 0 1 0 2 1 1 1 2 1 1 1 1 1 1 1 1 1 2 2 0 0 0 1 1 0 1 2 2 0 2 0 1 1 3 0 0 0 2 0 0 0 2 0 0 1 0 0 0 4 0 2 3 0 3 1 1 1 1 0 1 2 0 1 1 0 0 0 3 0 0 3 2 3 0 1 0 0 0 0 2 1 0 1 1 1 1 1 1 3 1 1 0 0 0 1 3 1 1 2 1 0 2 1 1 1 1 1 0 2 1 0 1 1 0 0 0 2 0 1 1 2 1 2 1 0 0 1 0 0 1 1 1 0 0 1 0 3 1 0 3 1 1 0 1 0 0 0 0 0 0 0 1 1 1 2 0 1 0 2 1 2 0 2 2 1 0 1 0 1 1 0 1 0 1 1 0 1 1 0 1 1 0 0 1 4 2 1 0 0 1 1 2 1 0 1 1 1 0 1 3 1 1 0 1 1 2 0 1 0 1 0 1 1 1 1 2 0 1 0 1 1 1 1 1 1 1 0 2 0 0 0 0 2 1 1 2 0 0 1 1 1 2 0 0 0 1 1 0 3 1 0 0 0 1 0 0 1 1 0 0 0 1 0 2 2 0 1 2 2 2 2 0 0 0 0 2 0 1 1 1 1 3 0 0 0 0 0 0 0 0 0 0 1 1 0 3 1 1 1 1 1 0 1 2 2 0 0 1 2 1 0 2 0 0 2 0 1 0 2 2 1 1 0 0 3 1 1 1 0 2 0 1 0 0 1 2 1 0 1 1 2 0 2 1 2 2 3 2 0 1 0 2 1 0 1 0 2 1 0 0 0 0 0 0 2 1 0 2 1 2 3 0 0 0 1 1 0 1 2 2 0 3 0 0 0 1 0 0 1 2 0 1 1 1 1 1 1 0 0 0 1 0 2 1 1 3 1 2 0 1 1 1 2 0 0 0 1 3 2 2 1 0 1 0 0 2 1 0 0 0 0 0 1 0 2 1 0 2 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 1 2 0 1 2 0 0 1 0 0 0 2 2 1 1 0 1 1 2 1 0 0 0 0 2 1 0 1 0 1 3 0 1 0 0 1 1 1 1 0 1 2 1 1 0 1 0 0 2 1 0 0 1 3 1 0 1 0 1 2 0 1 0 1 1 1 0 1 1 1 0 1 1 0 1 3 1 0 0 0 0 0 2 1 1 0 1 0 0 2 0 1 0 0 0 0 0 0 2 0 1 1 1 0 0 1 3 1 0 0 0 0 2 2 1 0 0 1 1 2 2 0 3 1 0 0 0 2 0 2 2 1 0 0 2 3 1 1 0 3 2 2 1 2 1 1 1 1 1 0 0 1 1 1 0 0 1 0 0 0 2 2 1 0 0 1 1 0 0 0 0 0 0 0 0 4 0 1 0 0 1 1 2 0 1 1 3 0 4 0 1 2 1 0 0 0 0 2 2 1 2 0 0 3 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 1 1 2 0 1 1 1 0 1 0 1 1 1 2 2 2 1 1 2 2 0 1 0 0 2 2 0 1 1 0 2 1 1 0 0 0 1 1 0 2 1 3 0 1 2 1 0 0 0 1 0 0 1 0 0 0 0 0 1 2 1 0 1 1 0 1 0 1 0 3 2 1 0 0 0 1 1 1 2 0 1 2 0 2 1 1 0 1 1 1 2 2 1 0 0 0 0 0 1 1 2 1 1 0 3 0 2 1 1 0 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 2 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 2 2 0 0 1 0 2 1 1 1 0 2 1 1 2 0 0 1 1 0 2 0 0 2 0 0 1 0 0 0 2 1 1 0 2 0 1 1 0 0 1 1 0 2 1 2 1 1 0 0 1 2 1 1 0 0 1 1 0 1 0 1 0 0 3 1 1 0 1 0 1 1 1 2 0 1 0 1 0 1 0 1 1 0 0 0 2 2 1 0 2 1 0 0 0 1 0 2 2 1 0 0 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 2 0 0 1 3 1 1 0 0 0 0 4 0 3 0 0 1 0 0 0 0 1 0 2 1 0 3 1 0 1 0 0 1 2 0 0 1 0 1 1 2 1 2 1 0 0 1 0 0 0 0 1 2 2 0 0 2 2 1 2 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 0 1 0 2 2 1 0 2 1 0 3 0 2 0 1 1 0 1 0 1 0 0 0 1 0 1 0 2 1 0 0 1 0 2 3 0 0 0 0 1 2 3 1 4 2 2 1 0 0 0 0 1 0 1 1 1 0 4 1 4 0 0 0 1 3 2 3 2 1 1 1 2 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 2 1 0 1 3 2 3 0 0 2 0 0 1 0 0 1 2 0 1 1 0 3 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 1 0 1 1 3 1 0 1 0 0 1 1 0 1 0 1 1 1 0 0 2 3 5 0 1 2 0 1 1 0 2 1 0 0 2 0 0 0 0 0 1 0 1 1 1 2 2 1 0 1 0 0 1 1 0 0 2 0 0 0 0 1 0 2 2 2 2 2 1 2 1 0 2 0 0 0 0 0 1 1 2 0 1 0 1 1 1 1 1 0 2 0 1 1 0 0 1 2 0 1 0 1 1 2 1 0 3 0 0 0 0 1 0 2 0 4 2 2 0 0 2 2 2 1 1 2 0 1 2 0 1 1 1 2 1 0 1 1 0 0 0 0 1 0 2 0 1 1 1 0 1 1 0 0 0 1 1 2 0 1 0 2 1 2 1 0 1 0 3 0 2 0 0 0 0 0 0 0 4 0 1 0 1 1 0 1 2 1 2 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 0 0 2 2 2 1 0 1 2 1 1 0 0 0 2 0 0 1 0 3 1 2 0 1 2 0 1 1 0 1 2 1 0 2 1 1 1 0 0 0 2 0 0 1 1 0 0 0 2 2 0 0 0 0 0 1 2 0 1 2 1 1 2 0 0 1 0 0 1 2 0 0 0 0 1 1 1 0 1 1 2 0 4 0 3 1 2 2 0 1 1 1 0 1 1 0 3 0 0 1 1 2 0 3 2 0 0 2 0 1 3 1 0 1 1 2 0 1 0 1 1 1 2 2 3 1 0 1 0 2 1 0 1 1 1 1 0 2 1 1 3 1 1 0 0 2 0 0 1 1 2 0 1 1 0 0 2 0 0 0 4 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 2 2 1 1 2 1 1 0 1 0 0 2 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 2 0 0 1 0 2 0 1 1 1 0 0 0 0 1 0 0 0 0 1 4 1 1 0 0 1 2 1 2 1 0 0 0 1 0 1 0 0 0 1 1 2 2 1 0 0 2 0 0 0 0 2 0 2 4 0 1 0 1 1 0 1 2 1 2 0 1 1 1 1 2 2 3 1 1 0 1 0 0 1 2 1 1 1 2 5 0 0 3 2 0 1 1 0 0 0 0 0 0 2 0 1 1 1 0 1 0 1 0 0 0 4 2 1 1 0 0 0 0 2 0 1 1 1 0 0 0 0 3 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 1 2 0 0 1 2 1 1 0 1 2 1 0 0 0 0 1 0 0 2 1 1 3 0 1 1 0 2 0 0 0 1 1 0 2 1 2 0 0 2 0 2 1 1 1 3</t>
+    <t>EXN(0.6285295819433101, 15.353329989425461, 6.708624592577632)</t>
+  </si>
+  <si>
+    <t>15 20 14 24 24 19 6 31 23 25 27 23 19 34 17 9 6 34 29 26 19 25 13 24 26 10 17 10 28 18 12 10 37 22 28 24 16 24 24 16 38 13 17 13 16 23 21 21 29 24 28 27 12 17 16 21 16 13 21 23 26 16 16 17 20 7 16 27 16 10 31 23 22 30 26 21 22 34 20 30 15 21 21 16 16 21 6 42 6 6 10 23 7 9 21 19 26 24 38 6 9 10 20 21 27 24 20 24 6 17 13 23 24 37 26 6 12 20 9 27 27 20 23 16 17 23 20 19 23 9 10 34 20 17 31 14 29 10 19 16 20 17 19 45 15 24 13 27 22 24 15 37 14 37 6 34 12 26 34 20 22 26 15 15 19 20 19 26 17 15 12 26 27 40 31 10 30 17 36 33 12 24 41 13 30 29 17 25 23 27 9 23 30 13 15 30 13 26 33 6 9 24 19 18 7 21 15 20 17 18 6 21 20 10 13 10 17 16 13 34 28 21 23 30 19 16 16 23 26 18 17 9 9 17 22 32 18 31 25 20 14 7 18 10 27 22 13 25 23 16 33 29 23 14 19 27 6 14 22 7 7 10 17 3 26 17 19 0 16 17 27 10 33 24 17 10 18 25 27 3 27 15 7 20 17 31 18 24 21 37 6 16 26 27 13 19 27 31 16 10 20 6 27 24 38 19 24 15 20 3 9 24 22 14 15 6 7 33 27 13 13 29 16 13 16 13 24 12 22 39 16 28 14 13 16 33 20 27 3 18 14 24 22 24 30 23 19 33 29 18 22 10 21 17 7 9 25 30 28 24 7 23 7 12 24 13 19 21 25 10 13 13 7 43 20 13 20 19 3 18 23 13 39 30 19 26 12 32 26 13 28 24 10 10 16 19 23 23 20 13 13 30 34 31 19 24 16 16 20 19 29 37 25 34 27 6 0 37 24 17 23 16 19 20 16 14 21 24 39 30 10 6 6 12 27 30 13 44 10 19 6 6 13 9 32 17 19 23 13 17 15 12 7 17 27 29 26 13 23 20 14 15 45 23 16 13 13 17 16 7 27 23 24 9 23 15 10 16 13 20 16 31 18 20 18 14 13 40 20 27 12 16 17 16 12 21 20 17 22 13 23 16 15 27 27 23 9 21 16 26 28 17 20 14 34 22 23 17 22 3 26 17 14 16 17 14 22 17 13 13 36 7 9 20 35 13 29 23 3 17 25 20 20 23 6 25 27 19 37 16 17 10 6 22 34 23 13 19 22 7 34 23 31 32 24 17 8 23 28 22 19 17 27 9 22 24 16 13 12 28 14 14 20 12 26 28 20 23 21 16 9 26 16 21 29 27 23 23 26 16 24 13 26 23 24 27 30 7 29 12 15 23 24 16 38 17 26 20 31 20 35 36 26 27 16 24 10 34 13 15 15 27 17 19 14 17 27 6 20 20 27 15 0 7 20 31 27 30 19 23 9 21 28 23 19 13 27 25 9 9 23 26 13 22 20 17 16 20 20 19 22 9 32 15 27 18 26 17 22 33 24 30 17 27 33 26 27 17 17 10 30 31 22 36 9 19 6 20 13 33 19 21 12 17 15 16 15 9 29 19 31 27 10 20 19 13 20 24 29 19 10 21 16 34 12 35 10 20 19 17 19 17 13 10 30 28 26 13 27 10 14 13 38 17 19 18 14 13 29 33 23 16 13 10 16 24 17 31 14 22 16 24 3 24 29 26 33 37 12 16 29 26 31 20 13 19 20 20 20 12 17 23 3 12 13 17 17 13 30 13 31 22 26 19 19 25 34 17 24 17 20 24 10 19 23 19 6 26 24 22 21 23 17 27 29 12 23 15 13 16 21 7 3 28 20 23 17 31 0 13 15 16 11 16 20 6 27 23 17 19 17 16 3 24 17 29 13 16 17 16 24 21 23 13 27 16 33 34 17 24 13 12 23 20 23 16 26 32 13 30 19 33 14 10 21 19 13 27 20 24 19 14 26 35 23 24 33 19 23 23 16 17 14 6 21 33 20 35 31 15 16 17 19 13 12 26 3 23 20 20 13 17 16 30 34 18 22 18 23 23 39 23 23 16 12 23 16 16 10 15 13 17 17 29 29 23 7 9 19 14 10 24 13 27 31 21 6 20 6 20 16 33 11 16 23 17 16 20 20 26 26 28 13 17 16 13 16 12 21 5 25 26 23 16 9 18 22 9 27 22 26 21 20 10 10 23 37 16 23 17 17 33 24 34 15 41 16 16 19 20 10 6 20 16 17 6 38 30 28 26 16 16 23 19 18 14 33 36 17 20 13 37 20 3 18 29 23 30 11 16 10 22 18 24 21 7 30 20 35 27 27 9 29 13 20 35 21 24 17 32 17 27 17 17 7 14 23 6 10 9 25 13 19 44 20 30 19 31 13 9 30 18 13 17 19 13 13 24 38 46 16 28 6 26 17 27 18 13 20 10 21 26 34 13 13 6 41 11 17 16 9 18 17 27 19 31 21 16 26 9 20 22 21 18 6 21 23 27 13 6 17 20 16 22 20 24 27 33 18 20 20 27 6 21 16 23 17 22 23 20 13 36 17 17 20 3 6 17 33 15 14 7 24 17 21 12 27 24 15 20 17 17 7 27 10 26 33 17 6 20 27 30 20 22 16 27 20 10 33 16 33 0 13 19 6 14 36 28 6 20 14 10 21 14 18 13 27 6 21 8 30 23 17 12 27 17 22 35 16 17 27 21 30 10 23 15 27 23 13 27 3 36 19 14 33 10 19 21 22 21 20 19 31 10 7 16 33 35 12 29 26 24 3 13 20 24 16 18 20 16 26 13 16 17 28 30 24 10 6 27 34 18 20 23 13 20 12 31 8 6 21 22 28 24 23 24 26 33 22 13 3 9 15 27 19 14 15 20 34 17 30 20 31 16 24 17 27 42 16 20 20 26 10 13 21 27 13 19 19 22 20 27 20 33 23 41 31 10 25 24 20 23 9 13 22 21 12 26 19 14 28 31 13 34 27 14 20 23 13 17 17 26 12 26 23 10 19 34 10 30 16 24 34 14 13 13 16 13 16 7 13 30 20 16 35 13 26 20 10 19 16 17 17 6 31 36 13 10 34 14 24 6 21 23 6 23 23 10 14 16 16 20 13 7 24 26 35 13 27 20 23 23 25 34 13 16 19 29 21 19 27 9 41 6 9 26 13 16 24 19 14 12 21 24 9 19 46 24 19 27 49 21 20 26 21 34 20 20 24 20 21 31 20 23 23 9 21 8 13 16 18 13 31 17 21 24 23 25 27 24 16 21 25 0 37 21 3 13 19 17 16 9 10 6 7 6 34 6 23 13 26 12 23 12 16 35 3 24 19 10 20 24 10 12 3 3 20 19 21 27 17 13 17 21 17 28 26 38 18 12 32 19 16 14 38 24 20 17 6 18 23 27 33 18 17 13 17 13 15 17 20 26 13 37 29 21 29 28 13 20 24 23 20 28 17 23 27 17 10 21 25 13 23 29 16 31 17 20 17 16 22 20 14 31 6 29 24 39 20 22 19 15 17 18 17 27 25 12 34 19 14 18 10 24 3 23 24 23 13 27 25 12 19 16 13 30 16 29 17 19 41 23 12 19 17 13 22 17 28 16 19 18 15 3 41 8 30 15 18 19 17 20 18 30 0 34 9 6 10 10 30 20 13 21 24 15 23 27 12 12 25 21 17 24 22 30 34 10 9 26 19 20 13 12 13 7 13 16 27 17 24 6 27 15 29 19 16 7 10 19 20 18 20 10 13 17 17 27 13 28 23 26 31 6 20 16 13 34 37 17 13 10 17 17 20 14 13 31 28 10 21 10 23 13 23 16 39 31 19 30 3 14 16 6 17 15 20 22 17 12 34 33 31 24 6 24 16 10 24 3 10 9 29 3 8 21 23 9 28 17 19 26 13 16 28 18 26 27 10 24 9 18 20 22 27 24 9 23 9 26 13 28 31 10 22 30 9 17 24 16 30 34 27 14 14 19 19 23 7 25 12 28 21 16 15 9 30 27 24 21 10 16 10 16 6 3 20 24 19 7 3 20 10 16 6 30 40 13 14 28 29 28 19 17 14 34 23 15 23 16 3 22 21 33 14 17 19 27 12 16 19 10 34 36 18 26 30 28 27 22 6 19 6 17 21 20 9 10 9 17 16 11 23 31 38 27 32 23 19 27 23 23 34 22 14 25 22 16 18 14 40 17 38 7 16 23 22 14 26 17 10 27 19 10 16 20 12 27 33 30 9 16 17 17 24 10 20 24 16 17 37 34 24 13 23 12 7 24 20 30 17 20 22 10 24 15 19 38 20 19 27 29 27 18 20 36 16 6 26 16 27 9 44 10 17 44 9 13 19 19 18 6 18 17 17 7 9 9 17 10 10 22 23 16 20 27 16 26 21 19 27 21 13 17 30 24 23 21 12 24 23 14 17 20 7 24 28 16 23 19 23 22 16 16 28 17 21 9 27 19 14 24 14 13 33 16 17 7 35 19 6 24 16 16 18 16 9 29 3 40 13 13 20 27 28 16 3 13 33 9 20 24 27 15 7 20 22 3 17 22 7 10 25 17 6 15 10 25 13 6 23 24 22 17 16 19 3 16 21 17 14 19 27 22 16 31 34 27 27 24 17 27 17 21 17 9 26 19 26 22 27 7 13 26 23 37 24 42 20 19 24 28 10 23 16 13 7 15 32 23 9 13 20 24 15 33 17 14 16 24 33 12 13 34 26 0 23 33 16 31 10 41 16 30 17 30 13 26 29 17 31 30 28 16 23 18 22 12 16 17 22 21 24 12 17 9 20 16 30 16 24 26 31 6 35 20 20 9 24 36 10 24 13 20 17 24 13 22 27 15 6 18 16 13 17 20 34 10 17 13 30 23 30 24 16 17 17 10 31 24 34 12 24 24 28 34 20 31 31 24 30 17 19 7 22 32 9 20 22 15 7 14 13 13 19 19 37 30 17 30 14 16 27 27 24 23 19 31 29 9 17 14 27 13 17 24 3 29 7 26 31 17 20 21 26 16 10 16 16 24 16 10 20 23 19 25 22 22 17 19 27 27 3 35 14 15 7 6 19 9 37 15 16 6 30 0 20 11 10 30 13 27 22 22 26 16 19 23 7 24 23 27 7 24 17 31 11 13 10 26 13 17 13 16 13 27 37 26 11 47 20 26 16 19 16 9 20 23 16 20 26 24 23 13 17 27 18 23 0 20 16 19 23 19 20 20 19 17 24 9 22 20 8 13 17 32 36 19 27 19 28 16 10 21 13 27 37 22 10 24 16 29 16 18 25 19 22 29 16 16 20 9 18 24 23 13 22 17 22 13 23 26 9 21 22 10 17 6 9 10 16 26 14 10 23 10 29 24 33 30 24 20 26 13 24 14 24 20 15 10 17 23 27 20 45 19 38 32 20 3 33 13 18 23 28 20 6 13 24 8 24 20 24 20 10 26 19 19 28 17 22 20 23 28 12 30 21 13 20 23 13 17 34 16 10 26 10 27 20 9 6 16 37 17 22 20 23 16 30 35 15 17 13 20 33 31 25 8 20 20 14 14 20 17 17 24 23 27 21 29 3 0 36 18 9 19 16 35 17 18 22 9 17 9 22 19 24 16 3 17 13 17 24 13 26 7 12 14 37 21 17 17 23 22 21 10 15 13 27 17 12 7 23 19 15 10 24 14 31 23 23 36 20 24 30 15 10 19 36 30 20 30 37 23 23 20 19 33 17 17 28 13 31 13 9 24 30 26 0 30 10 22 33 20 7 28 18 10 24 7 19 16 6 29 12 21 30 27 20 9 16 19 16 19 16 23 7 13 16 17 3 14 9 20 19 19 16 24 28 23 27 16 22 3 38 13 31 24 13 17 24 16 6 27 14 17 20 29 20 37 13 14 19 13 16 20 24 27 10 27 10 22 34 18 24 16 12 6 38 16 13 9 12 20 17 21 28 19 28 37 16 8 10 16 9 20 7 14 30 16 26 26 25 13 28 18 21 27 34 17 29 28 24 19 17 13 10 17 35 16 10 25 15 9 16 13 13 16 17 28 26 13 3 9 10 17 27 17 17 20 24 15 15 17 10 9 17 19 13 23 24 20 16 9 16 27 23 19 20 26 23 15 30 7 17 30 27 10 13 27 18 26 31 19 10 9 32 15 16 19 29 16 17 37 21 31 26 27 16 10 3 14 16 15 19 16 26 32 10 19 16 24 20 29 12 23 13 7 20 23 22 20 23 0 13 9 23 22 23 16 7 29 30 9 31 19 19 27 10 19 21 29 14 23 37 23 10 9 14 13 13 26 9 23 35 20 18 17 27 26 37 19 12 20 23 0 32 19 27 10 20 17 15 37 30 18 10 18 22 30 21 3 17 10 20 23 20 31 17 19 14 6 27 14 22 25 19 16 24 10 26 23 6 18 18 10 43 24 3 17 12 20 13 9 18 20 20 24 6 15 18 33 20 26 30 37 19 17 27 30 27 22 16 19 20 16 10 12 14 22 16 21 23 28 20 30 6 17 34 21 25 23 27 17 23 27 13 26 23 6 19 19 21 33 23 29 19 30 10 26 34 26 14 29 9 38 10 16 13 26 14 31 6 27 28 29 14 16 26 19 31 12 29 23 21 14 10 18 13 37 9 25 15 12 22 9 13 23 30 17 23 25 19 12 19 20 18 36 10 28 10 23 14 23 19 25 20 24 11 22 34 19 21 13 12 7 27 23 14 30 9 30 15 20 15 23 20 21 24 3 20 23 15 29 14 19 28 24 17 27 16 22 19 24 24 19 24 16 19 10 23 38 26 22 30 16 6 14 34 21 28 20 38 23 31 6 13 24 16 22 19 14 17 18 3 30 15 20 10 20 13 29 9 10 24 28 10 13 17 27 10 12 31 17 19 23 19 9 21 16 23 24 27 23 23 24 19 6 21 7 19 24 15 31 21 19 17 10 3 31 19 12 16 13 19 24 24 27 16 28 23 20 16 25 22 12 17 30 20 22 17 3 9 26 10 26 24 22 20 21 16 19 13 23 27 13 22 12 10 24 3 22 9 27 26 26 26 27 17 17 20 19 20 12 31 27 20 17 45 26 27 42 16 19 13 27 26 35 24 41 30 27 40 28 13 21 19 20 9 27 35 20 24 17 31 17 19 14 17 21 12 38 17 20 12 17 16 21 33 19 9 24 8 30 32 35 23 17 20 23 33 20 9 24 31 13 16 15 24 13 14 10 26 10 16 24 12 19 13 19 16 10 10 13 12 19 19 14 10 24 20 19 16 10 35 13 31 10 10 10 27 28 24 20 30 16 17 14 30 20 23 24 18 26 16 19 14 23 3 15 19 17 7 17 10 35 14 26 17 16 25 3 23 18 13 7 11 19 28 17 16 33 13 0 20 27 27 16 21 34 16 17 21 22 3 24 19 28 20 26 24 21 23 29 23 23 24 23 10 27 28 16 35 17 17 9 16 12 21 34 29 8 21 21 25 34 16 23 12 28 10 27 16 14 15 10 19 20 12 20 21 12 17 0 19 15 31 15 28 17 29 27 9 14 16 22 36 17 22 3 17 16 37 28 18 22 16 26 26 27 28 23 30 24 6 16 26 10 13 9 32 26 30 13 12 17 19 10 27 26 20 13 14 24 13 9 19 26 18 22 17 33 26 26 23 37 16 19 17 13 12 20 23 21 34 9 24 17 29 3 24 9 17 23 32 23 24 16 32 19 19 20 17 14 16 9 19 20 27 13 19 16 20 20 34 19 17 19 17 7 23 13 30 13 30 17 23 17 20 17 27 37 33 13 22 32 12 11 21 19 25 21 14 31 13 15 9 6 17 12 26 21 20 6 24 13 17 14 21 13 19 13 27 7 10 23 13 28 27 26 20 17 12 7 16 20 23 31 13 28 20 22 44 15 10 38 22 23 23 7 36 10 20 9 12 24 29 30 18 12 17 13 20 16 28 37 6 24 30 20 31 27 31 18 30 11 9 13 6 30 30 22 23 26 26 17 28 19 21 38 27 20 37 16 35 13 19 47 6 10 28 16 13 13 18 17 9 19 13 20 17 10 7 24 16 30 23 17 33 28 20 17 16 19 9 16 19 24 28 42 17 27 9 17 19 21 23 14 23 10 35 15 6 13 19 34 9 22 13 33 21 12 20 12 16 23 12 25 27 15 7 24 16 19 20 24 20 34 9 17 29 17 17 30 16 19 27 31 20 13 30 27 10 14 20 17 6 0 13 27 20 16 9 9 33 24 17 20 15 27 13 13 10 23 23 12 17 23 23 20 3 20 24 37 14 17 20 19 3 23 17 22 8 37 7 20 30 22 13 17 25 29 23 6 7 12 31 12 10 33 27 10 17 20 31 17 10 10 25 17 24 17 14 22 22 6 23 26 14 17 17 24 29 28 13 17 9 20 26 33 6 10 20 20 7 16 29 20 39 23 19 17 20 31 20 7 22 30 23 9 31 21 13 30 21 20 34 30 6 30 14 22 18 13 19 10 27 22 21 23 26 24 26 10 33 3 20 10 16 21 6 27 16 36 30 19 6 30 30 28 17 17 24 13 23 26 19 28 22 16 10 17 17 14 27 26 26 20 38 3 20 9 17 27 17 16 19 29 6 17 20 21 10 23 19 27 17 31 47 16 24 17 21 9 43 25 23 34 16 13 21 16 23 23 27 10 19 9 23 20 31 23 20 16 16 28 23 13 14 27 11 19 14 27 26 26 27 19 27 20 19 25 24 17 9 18 6 13 12 20 12 27 15 20 3 16 27 22 9 13 36 38 23 26 31 13 23 17 25 22 20 13 43 21 29 16 23 16 27 16 3 26 30 27 25 17 6 21 6 6 9 17 23 19 15 10 3 23 24 41 9 16 17 34 33 3 33 20 19 15 16 14 17 23 30 19 23 26 23 12 16 26 14 13 29 33 17 13 14 20 20 17 23 21 24 28 24 12 24 12 15 0 21 33 20 29 26 19 26 20 20 24 20 6 9 14 20 16 20 23 17 30 16 25 3 19 6 10 6 27 24 18 3 35 16 9 9 12 31 26 27 16 26 21 29 20 21 14 24 18 20 24 16 24 6 29 37 20 23 24 29 17 3 29 10 9 23 16 21 19 17 13 51 17 30 18 19 23 33 10 17 13 9 21 40 30 24 16 26 16 16 34 6 27 11 17 17 20 10 9 24 28 27 20 20 23 6 30 20 23 38 26 28 14 19 24 17 7 7 12 9 16 20 34 16 17 31 16 20 21 13 28 9 23 16 23 17 33 27 29 21 32 28 19 25 26 13 35 26 9 15 13 12 17 7 17 29 17 17 13 13 10 16 18 26 17 7 17 16 17 36 30 24 13 17 10 17 24 20 19 13 26 13 20 3 15 19 24 16 16 23 13 33 16 24 18 23 20 25 28 17 19 20 13 13 13 20 13 16 26 7 26 21 23 16 22 3 23 20 22 20 9 21 20 28 26 17 17 17 13 14 26 30 9 29 19 31 27 29 27 10 9 33 15 13 13 19 23 28 20 16 6 20 30 31 24 17 38 9 14 10 20 19 9 3 27 23 15 20 17 21 10 10 28 28 16 24 20 13 22 18 20 20 27 14 27 30 19 19 23 16 26 10 23 6 10 21 30 17 18 27 12 20 13 13 13 6 51 16 7 28 13 23 24 18 23 17 17 19 19 22 19 19 32 16 25 27 12 19 24 33 31 13 0 27 6 14 44 31 19 17 35 24 17 28 13 31 17 10 16 3 16 9 6 12 20 20 33 24 20 19 27 22 24 15 9 19 28 34 33 17 18 23 26 20 21 20 16 22 27 24 9 14 24 23 20 23 26 19 22 17 13 21 16 26 26 11 19 19 27 13 27 16 23 24 14 18 30 20 13 28 34 36 20 3 13 20 6 17 15 24 23 15 23 10 28 28 26 14 6 20 10 19 24 10 27 25 23 30 20 35 17 17 12 17 21 15 13 20 20 17 19 14 14 27 10 19 12 33 10 34 16 25 13 19 13 10 19 11 24 23 31 17 19 17 20 27 23 46 13 26 16 21 43 10 24 27 26 16 21 20 17 10 20 20 17 26 14 28 27 26 15 22 27 19 9 33 31 22 13 17 16 6 16 23 20 10 6 10 20 10 6 29 21 34 23 26 23 24 9 15 10 20 17 17 26 13 14 23 17 19 3 27 28 14 9 24 23 14 31 23 14 16 17 24 12 21 23 16 31 22 19 14 23 17 16 17 14 13 25 23 16 27 20 16 37 20 13 12 6 16 16 34 7 17 7 14 19 30 7 24 19 13 26 18 9 10 14 20 26 6 16 7 26 22 13 27 13 14 33 26 24 25 17 20 29 14 27 16 16 10 30 38 23 33 20 14 21 26 13 10 13 17 34 40 20 23 25 29 18 12 24 7 13 13 23 28 26 13 38 19 18 10 20 20 27 9 18 34 19 17 10 22 31 16 10 30 14 24 15 17 9 16 21 18 30 10 7 19 3 17 10 26 17 21 13 20 16 16 13 17 24 16 9 12 20 33 37 20 24 11 16 26 17 7 16 16 23 20 14 28 26 21 3 10 23 30 13 10 16 3 33 18 13 24 20 16 31 13 14 24 17 23 15 26 10 16 23 41 24 16 13 13 9 10 13 29 33 22 20 6 24 28 14 27 10 20 14 24 14 13 6 17 16 13 16 27 19 12 23 14 17 19 20 6 9 31 23 26 19 23 14 7 23 16 13 28 26 26 14 28 16 30 14 36 34 19 20 17 30 13 15 30 21 20 27 16 21 17 28 17 26 27 26 20 19 20 28 37 6 14 14 27 6 20 26 20 12 20 16 44 29 16 13 10 17 25 24 15 9 16 20 20 36 9 15 16 23 7 19 23 33 16 17 24 22 14 15 27 26 16 13 10 10 30 24 21 14 23 38 24 13 23 28 16 21 10 21 6 34 23 26 21 13 10 22 7 19 3 41 16 19 21 3 21 6 23 10 19 13 16 23 13 21 20 16 19 13 23 34 13 26 7 20 20 13 16 30 23 13 31 12 21 16 20 13 25 31 31 10 26 6 30 17 17 20 20 13 24 14 21 20 27 20 23 26 13 24 16 20 7 17 13 12 10 0 16 29 3 13 20 6 28 20 9 13 22 16 17 28 17 17 16 24 19 23 31 16 19 13 12 17 16 26 17 15 16 21 10 12 20 14 19 16 15 21 16 27 34 17 20 22 34 17 16 28 26 23 13 40 14 17 10 25 22 13 12 26 9 15 3 29 17 23 24 19 29 23 20 17 10 3 30 3 11 31 19 17 20 17 32 19 17 23 17 10 10 24 23 14 20 24 31 37 13 14 12 25 37 33 22 16 17 16 13 20 35 14 15 7 20 6 29 22 28 19 10 29 22 20 27 10 32 20 33 6 13 12 29 22 27 19 35 9 10 27 23 40 10 17 20 6 20 37 12 17 16 20 27 13 20 13 15 12 27 23 18 17 3 28 18 19 19 30 38 27 13 13 27 12 15 28 28 23 14 33 33 20 19 36 17 12 23 15 9 21 13 34 21 30 3 6 13 24 13 13 23 10 17 16 13 21 17 16 40 14 16 6 31 3 16 10 19 26 10 7 13 30 10 6 13 30 6 25 10 27 12 18 16 12 15 15 37 13 27 16 17 23 24 20 24 16 10 21 13 3 20 22 3 23 9 32 19 6 13 9 19 25 10 11 20 23 16 20 20 24 16 29 21 41 27 27 17 16 34 13 19 13 20 16 26 20 20 20 7 17 6 24 23 12 10 21 10 19 10 9 22 10 17 17 20 23 13 38 35 22 16 16 17 17 28 40 17 25 15 10 23 9 32 9 17 25 24 12 20 7 23 17 19 29 9 20 30 26 16 13 15 22 19 12 20 20 13 13 21 37 24 20 15 41 30 28 16 14 11 24 14 28 23 27 20 3 16 21 19 25 24 9 13 13 14 26 16 30 24 23 7 16 18 20 28 13 23 23 19 21 27 16 19 10 10 19 18 28 0 12 30 27 13 19 23 16 17 21 20 10 12 6 17 19 14 9 28 17 26 7 26 22 9 20 23 13 17 14 26 13 36 13 9 28 20 36 30 17 35 16 27 10 30 17 6 43 36 20 18 13 17 34 16 31 17 23 13 10 26 6 26 3 14 9 16 24 3 16 13 37 16 6 33 16 17 13 10 3 17 13 23 10 0 16 16 13 34 24 23 21 25 20 16 13 26 23 26 31 30 19 23 17 23 28 20 3 14 23 13 24 27 19 17 9 27 3 16 21 17 19 27 16 10 10 17 26 21 23 23 26 27 30 26 13 14 21 10 38 23 20 20 18 14 22 15 30 17 28 21 18 10 7 7 27 13 17 9 17 7 20 16 17 13 26 10 22 37 33 16 13 19 17 10 30 17 13 17 16 23 34 25 22 31 21 27 12 17 20 33 20 23 27 34 9 29 16 11 24 15 33 33 7 23 17 20 13 25 23 22 14 13 17 23 16 20 23 20 20 30 10 12 33 3 6 16 20 16 10 38 33 19 19 7 36 26 28 27 19 27 13 23 30 12 25 21 13 45 10 28 9 16 34 23 21 20 7 40 26 14 24 34 6 6 12 26 13 15 23 16 22 23 21 27 6 6 23 26 20 29 23 16 16 33 34 34 16 9 13 7 33 20 23 23 20 18 17 27 27 20 13 15 16 22 31 32 23 19 20 24 15 3 10 10 24 27 27 16 10 31 23 12 20 26 23 25 19 17 17 7 28 28 17 3 15 13 34 8 18 27 17 20 32 6 20 27 22 26 19 15 18 7 9 11 24 13 20 13 20 44 12 17 23 24 20 24 19 27 3 3 10 23 9 16 24 9 27 20 17 13 12 3 23 24 14 34 29 10 17 6 20 19 27 31 20 17 20 9 21 30 17 16 21 13 24 16 21 17 28 13 30 16 24 14 34 17 17 24 10 20 21 13 32 26 20 30 15 6 23 23 23 10 10 12 17 24 24 35 24 18 16 21 24 16 9 27 21 22 33 23 10 20 24 16 30 17 24 14 24 18 20 24 27 30 20 27 24 13 14 6 27 20 24 17 6 29 20 16 19 27 20 22 10 27 23 10 25 26 20 30 18 12 19 17 17 23 23 17 23 31 23 30 15 13 14 9 14 16 17 10 19 10 14 13 23 14 20 17 21 28 12 19 16 30 32 10 23 12 22 21 10 12 31 17 30 23 22 16 26 9 27 10 22 28 21 6 23 20 12 29 14 35 22 24 25 16 21 37 20 21 12 13 3 20 29 20 20 21 9 10 29 9 27 23 19 15 18 23 21 9 6 22 21 26 17 24 22 30 12 27 20 19 19 30 19 40 14 19 27 17 16 24 20 20 26 38 6 3 27 6 21 27 25 27 29 13 13 20 17 7 10 13 21 24 14 24 15 17 17 3 19 16 24 13 19 22 27 39 24 3 19 21 23 29 21 25 16 18 21 26 16 13 20 24 37 14 14 20 7 27 14 13 11 10 12 10 24 20 30 23 16 13 10 16 3 3 16 29 26 6 26 3 13 24 6 20 34 18 19 13 6 22 16 19 10 23 27 14 9 27 17 24 13 28 17 27 25 24 26 7 27 16 7 13 19 25 23 31 13 24 24 7 30 13 21 9 17 12 6 27 24 19 26 20 17 26 26 12 13 19 29 22 24 6 20 14 23 19 24 27 14 30 38 20 23 13 11 0 16 19 28 20 20 26 10 10 27 14 25 13 13 15 9 31 23 14 15 17 20 12 16 14 35 6 10 27 34 29 28 19 20 12 16 19 9 13 34 13 34 9 21 19 33 28 22 14 20 26 30 19 18 30 13 17 27 13 7 15 7 16 20 9 26 32 15 17 23 7 30 17 3 21 21 44 23 24 3 13 18 16 27 17 31 10 36 34 34 29 17 17 16 21 31 19 11 23 10 3 13 20 23 17 23 31 18 14 13 23 27 16 26 14 10 21 16 9 10 20 16 24 14 25 10 18 31 16 13 48 20 24 33 9 24 25 20 17 30 17 23 13 23 13 24 6 27 16 24 28 16 20 16 31 22 23 13 9 23 21 30 7 9 13 7 16 10 13 14 16 30 35 32 21 12 14 16 23 12 20 15 26 19 24 13 40 24 10 19 6 9 17 27 23 40 35 31 12 17 27 23 10 9 9 34 21 22 27 9 10 13 39 17 6 19 13 26 33 15 24 6 17 13 14 13 21 21 14 23 0 25 13 28 29 17 27 16 31 34 11 29 30 33 20 20 24 24 19 11 9 20 6 16 34 37 26 26 18 34 15 24 10 15 20 29 20 26 41 17 24 20 21 21 14 40 16 17 36 9 40 21 27 20 3 34 9 16 20 14 30 19 7 13 19 14 27 13 12 23 10 16 19 25 13 31 12 13 12 20 38 30 28 20 23 27 30 22 30 23 21 20 10 6 20 6 26 24 20 36 6 26 16 22 25 12 20 17 16 23 22 14 17 17 12 16 23 27 9 20 15 33 17 14 19 10 15 20 21 10 22 13 27 21 36 10 33 13 16 28 14 18 16 27 19 18 30 20 23 22 18 16 19 3 19 35 17 6 15 33 36 30 17 21 7 13 10 9 20 13 29 16 16 12 21 10 28 0 6 30 22 11 13 23 21 20 13 35 13 17 35 12 10 14 19 23 13 31 8 9 12 30 31 37 15 10 20 17 7 31 17 26 28 19 24 16 30 19 22 23 20 24 29 16 20 10 26 13 10 12 34 26 10 12 12 20 16 24 6 20 34 26 10 12 26 20 13 23 13 17 8 16 3 7 20 26 36 9 20 17 23 20 10 30 20 27 20 10 13 16 19 40 20 13 16 27 21 15 10 25 20 10 13 24 13 20 34 21 16 37 27 19 26 15 24 38 19 33 13 6 6 17 28 24 20 23 24 22 13 31 20 17 23 16 16 21 13 25 16 30 23 28 16 20 17 26 30 19 21 17 22 23 14 10 12 16 30 17 12 10 14 14 26 16 14 14 6 17 12 21 29 23 24 13 3 10 42 13 13 19 12 3 24 6 19 34 27 13 19 3 26 27 37 9 26 12 17 19 28 27 10 21 29 24 19 25 35 13 24 20 26 34 21 24 23 28 28 12 6 9 24 23 17 41 24 16 30 17 17 16 30 17 34 29 14 28 13 12 12 17 19 13 30 19 17 13 17 17 17 20 13 9 10 31 21 14 20 6 20 10 17 20 24 20 15 14 17 19 26 3 23 36 26 12 13 16 17 17 20 19 20 10 21 18 19 13 17 14 16 10 22 19 30 13 37 18 22 20 16 17 23 21 20 13 34 23 19 16 20 31 10 22 10 10 9 20 30 19 13 20 22 36 19 10 28 13 9 20 30 24 14 31 17 18 16 17 20 20 33 6 20 22 23 33 23 18 9 27 14 29 31 16 14 35 25 23 16 14 12 32 24 20 23 13 23 12 15 10 27 7 23 27 12 30 12 26 41 26 24 23 18 20 23 20 20 3 13 16 10 23 19 17 17 22 23 17 10 12 14 26 31 27 13 13 19 20 13 16 20 9 9 27 16 20 20 22 40 16 16 23 27 38 31 27 10 21 33 31 23 16 9 24 16 13 13 17 22 13 33 21 16 19 28 17 20 27 14 12 9 40 25 19 14 23 19 22 19 30 39 18 29 7 15 13 23 20 28 13 22 33 17 9 26 21 14 16 31 27 31 23 16 20 14 28 19 23 21 17 20 26 17 35 6 19 22 24 17 14 9 30 10 18 25 23 20 13 9 18 16 10 9 24 21 19 23 30 0 24 23 34 29 20 15 19 16 12 10 25 23 23 19 20 26 13 24 12 16 15 37 16 14 17 23 21 21 31 19 17 10 16 6 20 29 13 21 47 23 24 15 10 15 27 20 13 7 13 24 20 16 7 20 13 7 31 28 16 22 13 28 19 16 24 12 23 30 19 16 13 20 20 31 14 27 10 27 20 19 17 14 24 25 24 13 11 29 34 20 19 15 24 27 24 13 20 24 17 41 26 24 17 30 20 1 31 23 10 23 16 10 20 10 13 13 16 20 21 28 27 19 16 13 32 12 9 11 17 27 23 19 26 16 36 33 16 17 37 15 23 17 24 25 6 23 37 26 22 16 28 27 41 31 15 22 14 10 6 18 27 20 22 27 29 20 14 22 30 15 16 10 10 10 17 16 40 24 28 23 25 26 9 19 24 3 14 15 10 17 17 22 24 20 16 33 17 26 36 28 38 25 27 17 0 17 22 14 14 27 23 19 23 20 27 17 23 6 27 23 24 23 20 27 24 25 13 10 23 28 10 24 30 20 46 24 27 16 13 12 16 16 30 23 20 24 9 13 20 24 0 20 20 17 9 26 15 20 6 20 10 33 20 16 24 17 6 14 3 20 15 31 23 17 12 10 16 32 10 23 9 23 30 6 10 31 15 18 17 26 7 27 15 17 9 13 20 17 20 26 16 27 28 23 27 21 10 14 19 15 24 27 21 17 22 13 24 14 19 7 20 10 17 28 30 48 37 29 18 18 26 23 16 26 16 19 16 23 16 15 9 16 30 9 6 13 24 27 16 19 21 23 13 12 30 14 9 11 16 9 21 13 16 21 16 9 21 16 23 17 22 9 31 21 15 23 10 18 37 6 28 19 13 21 27 0 19 21 9 29 23 10 30 22 15 10 26 32 20 16 12 5 33 16 24 13 20 16 3 24 27 15 14 30 19 9 19 19 26 16 16 16 28 24 10 3 16 16 36 27 19 19 9 12 19 42 7 34 12 37 12 6 16 34 15 22 14 27 33 33 12 6 6 21 14 17 38 10 17 33 20 17 27 24 16 23 14 20 14 27 17 19 33 27 10 15 14 31 15 30 21 23 25 17 14 27 18 17 13 17 9 10 21 3 43 12 10 18 20 20 27 26 30 17 16 17 13 14 24 29 19 23 22 24 20 17 16 8 18 16 24 16 19 17 25 13 13 3 13 7 17 16 19 22 22 27 22 17 16 7 13 17 20 40 21 28 24 26 26 16 17 15 17 17 22 28 28 29 9 27 6 20 16 13 27 17 27 22 27 41 27 30 12 10 30 25 13 16 22 10 29 27 19 26 37 13 26 28 16 22 13 20 31 6 16 29 33 16 21 24 9 19 27 20 27 23 7 30 23 6 30 20 14 13 19 13 7 10 16 21 31 20 17 31 21 23 13 13 27 9 9 25 16 19 20 20 23 10 23 25 27 24 17 17 9 13 30 28 9 12 27 20 19 9 24 20 13 25 24 3 27 6 17 17 13 16 37 22 16 10 24 40 6 19 24 21 31 12 23 13 24 15 22 16 3 13 13 16 16 28 26 20 27 8 24 16 19 14 13 7 19 9 11 27 34 17 9 29 6 13 22 14 14 19 20 10 20 11 16 15 22 16 19 3 29 19 13 22 16 26 9 21 16 37 15 24 37 22 19 14 10 24 16 17 20 22 6 16 6 20 15 21 26 18 20 27 22 10 13 7 20 22 24 20 19 3 16 27 16 38 25 13 13 24 21 13 25 19 10 9 28 3 23 6 20 16 30 19 21 18 31 44 20 6 16 18 30 10 30 13 24 21 20 23 10 17 21 18 32 20 23 34 21 20 14 12 22 27 19 13 23 13 27 16 32 19 12 29 27 23 20 20 17 6 16 13 19 17 17 23 26 12 9 28 19 16 3 20 28 19 23 23 17 10 13 10 17 6 30 16 23 25 34 18 24 26 22 42 13 27 22 9 3 12 10 26 15 10 10 20 16 3 10 21 22 22 6 6 23 28 15 16 6 25 20 6 23 27 19 21 9 36 22 6 16 30 20 23 19 16 30 24 16 16 13 15 12 20 16 33 16 21 24 27 20 6 19 31 25 13 26 34 19 27 10 13 21 13 8 28 14 24 23 16 15 28 10 16 19 34 14 16 17 22 21 13 23 19 41 10 33 20 23 10 27 27 20 18 24 18 18 21 16 23 20 23 23 19 10 28 20 14 22 19 3 21 13 17 27 23 27 22 20 14 16 20 30 27 19 21 12 0 33 19 24 9 17 23 13 17 13 17 17 26 16 24 27 3 14 36 30 19 25 30 16 12 32 20 13 19 16 33 10 20 18 20 23 19 24 27 23 19 12 23 27 6 10 23 34 9 37 17 17 16 37 37 20 25 37 20 19 27 17 20 10 21 22 30 20 41 17 16 19 10 19 29 20 16 20 6 9 24 10 22 6 10 9 30 12 25 13 29 33 20 22 10 10 10 13 24 24 9 9 27 14 6 13 5 9 24 26 20 17 22 13 16 17 17 28 24 23 27 20 27 34 12 27 20 10 16 3 20 19 24 10 27 10 17 13 13 13 21 17 6 10 12 13 9 26 19 13 10 21 20 24 24 19 16 15 17 22 20 14 15 17 24 16 23 27 26 20 9 31 23 13 7 10 21 19 23 41 17 13 24 6 28 12 22 24 13 16 15 28 16 16 20 16 12 21 16 17 13 17 17 26 16 23 17 24 30 15 6 24 40 37 20 27 17 30 20 16 19 19 20 12 31 23 18 23 29 13 20 31 20 13 13 37 17 13 38 19 10 47 23 30 16 32 44 17 26 12 29 14 11 24 20 19 23 12 13 17 21 37 21 24 19 17 17 14 27 28 23 26 13 24 16 9 22 34 23 10 14 26 33 3 33 14 10 16 10 17 19 16 16 19 12 29 26 31 20 17 7 9 10 13 17 24 23 16 22 16 27 13 27 31 3 19 30 30 16 11 13 20 33 13 17 20 23 13 16 9 19 28 12 6 19 19 28 19 23 10 9 14 24 17 10 23 9 13 16 13 37 13 13 30 12 20 16 17 21 26 22 16 17 10 21 6 19 28 16 27 14 18 17 23 20 23 20 17 18 14 13 15 21 23 15 25 21 20 13 12 17 16 21 10 6 16 23 17 12 33 25 14 20 20 16 17 24 22 12 19 17 14 30 30 16 27 23 10 21 12 19 30 19 10 12 23 28 17 33 3 16 27 9 15 13 16 23 13 16 3 13 31 15 23 14 17 25 9 21 10 6 35 14 24 19 22 17 32 13 14 19 23 14 23 26 26 25 21 14 16 28 11 17 9 3 16 13 7 7 16 19 16 13 20 17 19 13 17 20 17 12 20 10 29 22 17 23 28 14 7 20 12 25 34 10 34 22 19 22 17 24 16 17 10 24 18 23 7 16 33 30 28 49 17 17 3 24 23 18 20 12 6 20 22 24 17 24 14 34 20 6 29 39 20 6 36 23 13 22 34 22 15 24 34 19 12 27 9 12 3 19 20 10 22 24 20 27 10 35 17 16 20 16 45 22 30 14 20 13 7 27 3 7 19 31 13 31 23 3 17 17 16 14 14 19 26 20 24 33 9 26 35 24 20 17 13 20 13 17 27 31 20 22 30 30 31 27 20 13 23 26 51 23 7 16 20 22 27 31 26 32 14 17 6 16 22 29 17 33 10 20 15 20 29 20 17 21 39 10 21 26 27 22 43 12 15 24 16 31 15 17 3 26 10 26 25 14 25 10 27 13 26 9 21 23 9 12 19 15 19 16 13 16 19 21 21 7 19 19 19 19 15 7 24 23 16 22 21 17 16 24 40 10 9 19 15 13 28 40 14 16 16 13 30 7 17 12 10 12 13 12 10 15 17 21 29 14 20 16 20 10 19 15 23 9 30 16 27 17 16 24 16 0 30 14 24 23 31 20 10 19 16 31 24 14 41 23 34 19 13 9 25 10 17 26 23 21 34 27 16 13 10 30 20 16 23 20 17 22 10 17 13 17 10 17 19 24 24 20 34 15 31 13 24 10 30 15 14 15 30 12 33 7 37 20 23 23 14 16 26 10 9 24 10 10 15 17 24 20 34 5 20 24 16 16 16 13 23 26 21 26 22 13 14 16 19 6 9 38 30 27 3 22 23 24 23 24 9 17 13 30 17 23 10 15 6 27 17 28 19 24 17 12 35 19 31 23 12 20 22 24 13 27 30 20 17 14 13 22 38 20 36 24 17 14 20 23 10 16 13 31 26 15 23 23 23 27 10 29 18 14 17 10 16 24 10 26 19 24 19 9 27 15 13 27 6 7 17 16 41 16 24 31 9 21 10 16 26 23 10 29 23 12 23 16 24 30 24 17 15 23 13 17 26 28 33 40 28 9 13 17 30 20 34 18 20 20 6 20 12 13 19 13 13 13 23 17 23 20 10 23 24 20 16 29 23 26 37 28 14 23 17 23 24 20 3 13 23 19 24 30 23 16 12 10 34 13 24 37 17 31 12 19 9 17 10 19 12 17 27 19 33 13 23 20 24 16 21 28 10 18 20 35 24 13 13 37 13 19 34 19 27 11 22 24 22 10 6 20 16 17 16 17 27 23 26 30 20 24 10 21 23 15 24 21 23 10 12 24 16 16 27 12 23 17 22 24 20 23 43 19 23 24 22 13 27 12 6 13 16 3 27 16 27 25 17 22 19 21 17 17 27 20 30 10 30 24 6 16 18 9 19 23 17 15 23 12 24 16 19 22 44 16 16 20 22 21 23 20 25 10 0 36 29 35 3 26 10 9 13 6 20 10 6 16 19 24 27 6 31 19 27 34 23 17 20 26 20 21 19 17 24 20 23 20 27 15 22 23 15 10 27 37 16 20 26 17 16 20 13 10 28 23 23 23 14 14 30 28 17 6 17 16 20 29 20 10 14 17 27 19 27 20 19 14 38 31 24 7 12 26 25 19 17 33 13 17 36 22 27 14 12 13 26 16 23 15 29 17 20 20 17 19 20 18 30 9 27 29 26 24 16 23 24 25 25 6 16 10 13 20 7 21 33 11 21 23 16 26 20 14 27 28 24 13 26 20 26 6 27 15 20 6 17 16 19 10 26 10 16 21 17 19 30 31 36 20 13 16 13 3 17 17 13 14 37 21 10 21 30 12 10 17 26 23 23 27 14 12 20 17 19 31 21 22 23 15 13 13 23 23 15 29 16 23 20 10 28 24 13 20 24 17 24 35 9 10 27 20 15 6 12 23 37 12 41 35 34 23 24 17 21 18 19 26 32 23 16 17 20 18 21 34 18 24 22 0 31 13 23 17 26 22 17 24 3 20 7 31 24 23 27 24 23 19 30 32 14 20 19 23 26 20 21 16 23 14 23 13 6 16 18 13 23 24 9 32 17 26 15 11 19 15 32 20 23 25 23 20 20 23 12 13 24 24 14 13 27 13 28 28 25 24 30 13 17 24 23 13 13 17 16 23 31 13 17 16 24 17 9 16 24 16 27 3 10 16 19 13 23 10 9 13 10 34 10 16 20 18 17 27 20 10 10 9 20 23 16 16 17 9 19 22 27 20 13 13 7 13 23 7 16 10 15 6 23 23 35 20 23 20 10 33 30 20 21 19 0 19 14 14 23 24 31 3 20 16 21 27 30 6 20 26 16 16 20 6 28 20 26 10 20 17 22 19 31 20 13 31 27 20 17 20 27 23 7 30 30 26 23 19 30 14 25 9 28 13 3 13 24 24 27 30 20 17 26 17 20 21 0 23 17 20 27 13 17 19 9 19 18 26 16 13 20 19 13 16 23 20 20 27 23 16 26 27 17 30 16 20 3 24 10 10 3 22 22 6 21 23 21 16 16 16 17 34 23 27 15 20 10 13 10 21 9 30 9 10 21 22 27 16 23 13 10 26 29 10 10 37 16 19 20 17 20 14 23 29 20 15 13 37 31 27 27 3 19 14 12 10 29 19 27 16 16 27 7 23 16 30 19 30 23 15 21 34 25 18 19 10 26 10 17 16 18 6 6 27 33 20 16 6 19 13 17 10 19 10 15 10 30 19 14 26 24 20 27 27 21 15 27 6 26 23 22 13 18 29 21 29 10 10 30 21 10 10 19 16 21 26 17 22 15 17 13 16 20 19 20 26 14 16 25 26 20 7 0 20 22 29 17 13 20 34 19 35 10 3 26 13 6 13 7 20 20 23 15 31 6 0 19 24 30 26 19 17 35 16 30 14 16 7 31 22 23 36 26 30 31 17 20 20 28 23 27 26 13 10 26 23 21 15 37 22 7 19 20 16 21 23 13 31 10 3 29 33 21 30 24 19 27 13 22 13 20 20 24 17 23 16 16 20 15 21 15 19 14 13 14 16 23 14 20 28 21 20 27 24 22 19 18 19 20 14 16 27 18 27 13 33 23 3 37 20 30 20 32 20 19 21 30 16 18 20 9 34 13 30 9 19 19 24 21 19 7 29 25 27 47 23 9 20 23 21 13 26 35 12 13 27 19 26 26 16 16 38 17 7 20 24 23 19 32 32 13 16 10 16 13 12 19 16 27 32 16 16 17 22 6 16 49 26 10 16 13 19 19 9 20 10 3 30 30 13 27 17 16 17 20 24 26 17 14 34 27 27 19 37 34 30 12 22 38 10 10 6 20 6 20 24 23 30 10 33 24 21 12 7 21 28 18 12 31 10 13 6 6 3 23 31 7</t>
+  </si>
+  <si>
+    <t>NIG(16250.576505104356, 16246.972515626541, -59.177264848277105, 1.72021857622536)</t>
+  </si>
+  <si>
+    <t>15 31 19 19 26 14 17 16 22 23 19 23 20 29 21 12 15 28 26 29 15 24 25 25 26 15 26 15 21 18 23 20 29 24 26 21 17 25 21 23 25 18 28 23 20 22 37 25 26 26 27 27 22 16 26 17 18 21 8 19 21 20 21 26 16 17 23 19 20 17 31 27 26 21 15 23 22 32 20 14 24 30 23 29 19 22 16 28 22 18 29 31 17 13 26 18 23 16 25 20 18 16 23 21 23 21 21 22 11 17 18 18 22 22 21 21 25 22 17 26 26 20 21 27 23 23 25 20 29 20 20 29 19 22 30 19 36 20 28 30 17 21 19 28 25 19 25 28 16 24 25 23 20 30 23 24 15 29 24 25 23 22 20 26 17 27 25 23 27 23 17 27 29 28 27 22 22 21 23 24 27 23 21 18 31 22 11 21 28 28 14 27 21 17 18 27 27 25 32 22 16 25 11 21 21 24 22 19 22 23 23 23 26 14 22 15 28 23 22 26 28 23 25 22 17 22 19 24 24 19 22 18 13 16 22 27 18 24 20 24 21 28 24 19 19 22 15 22 23 15 21 16 25 17 24 34 25 24 20 17 15 18 28 21 18 19 27 24 24 20 22 20 21 20 18 21 23 19 20 19 22 19 26 23 28 20 18 26 23 21 20 18 25 27 20 27 30 20 26 20 30 18 22 20 27 21 28 22 11 14 19 23 17 22 14 25 26 22 23 23 25 30 27 20 25 29 16 19 24 27 21 20 21 24 27 20 23 22 24 24 21 23 17 21 19 25 21 24 31 19 17 15 24 25 16 26 20 31 31 22 19 27 17 18 27 19 25 17 18 18 21 15 21 28 29 13 31 21 12 17 25 19 27 17 18 19 31 26 21 18 23 26 23 24 13 29 16 21 19 19 19 24 32 18 28 23 30 20 12 21 26 35 30 25 19 19 20 28 23 23 24 24 22 18 21 19 22 21 18 22 22 17 21 17 18 20 20 35 23 29 22 20 25 14 28 25 30 20 19 26 18 26 18 22 24 26 29 21 18 23 20 19 29 26 28 19 22 28 15 20 28 29 23 16 15 19 21 33 22 26 21 27 21 26 18 16 24 31 16 26 21 24 20 20 14 21 15 19 23 15 29 19 20 24 31 19 21 18 24 31 22 21 19 18 33 28 33 25 26 16 25 19 23 18 18 25 19 24 19 28 25 16 9 24 30 19 34 24 23 22 30 27 26 26 17 15 24 23 25 21 23 25 17 21 24 19 21 24 25 25 27 31 25 27 26 29 23 19 32 23 23 18 26 25 19 17 23 13 27 24 20 11 22 16 26 23 24 18 19 25 23 28 20 18 23 27 32 25 26 22 24 25 22 32 19 31 30 15 30 18 20 21 26 21 29 22 24 19 26 23 27 36 25 24 18 21 25 27 29 24 18 26 27 20 19 22 25 23 24 20 25 20 12 13 25 22 18 25 25 20 26 28 19 24 22 26 22 28 19 27 24 20 17 27 25 21 20 31 22 22 26 21 28 22 21 24 27 28 19 25 26 22 31 15 26 27 30 24 29 16 25 27 22 28 20 24 22 26 22 21 22 24 23 20 25 23 23 25 27 25 23 25 16 20 23 22 26 28 28 24 22 23 21 36 22 32 18 25 18 23 27 20 21 20 27 25 27 25 23 21 17 19 25 21 27 26 20 22 22 27 26 25 20 21 28 18 23 21 28 26 24 24 19 17 31 25 27 28 20 24 34 25 24 16 21 25 21 19 21 24 23 21 18 24 16 18 22 19 21 12 26 13 28 22 22 25 27 19 25 19 28 29 12 14 28 20 19 25 21 25 20 22 21 24 23 20 21 24 27 27 17 21 18 26 20 23 20 29 22 14 25 23 20 22 20 14 19 24 21 26 23 22 16 23 18 25 17 17 17 21 25 24 19 20 19 19 20 24 13 25 17 25 25 25 23 27 22 21 22 21 28 27 29 16 19 16 17 20 25 26 28 23 21 18 22 23 18 24 30 29 22 27 23 16 25 28 19 25 21 23 22 19 24 28 25 22 18 21 25 24 25 25 15 30 30 26 30 25 23 22 30 23 23 24 24 25 22 11 20 20 21 18 19 29 24 21 28 20 24 18 20 23 16 27 28 20 15 23 15 30 24 27 23 20 20 24 23 25 25 31 25 20 23 16 20 18 21 25 18 21 22 25 21 31 24 19 22 18 26 26 19 22 22 14 23 15 25 26 26 22 18 22 25 36 28 25 19 23 26 23 17 15 19 24 26 26 31 26 29 18 19 18 21 21 17 21 27 29 21 21 26 24 17 21 25 25 23 30 20 16 23 21 20 21 19 24 26 25 28 27 24 19 25 20 22 21 30 28 14 23 25 22 17 23 16 21 21 22 27 17 26 23 17 19 25 31 23 23 19 27 26 24 15 21 30 25 25 24 24 26 17 30 18 24 19 26 13 27 20 22 18 31 27 19 29 24 32 14 16 20 20 23 24 23 18 25 22 26 24 20 25 23 23 18 16 19 23 26 24 21 19 22 25 29 25 18 25 27 23 21 19 25 17 23 20 19 21 21 31 18 22 35 14 24 26 26 19 22 22 18 26 14 26 22 17 18 25 20 16 23 17 30 22 19 21 30 27 26 16 18 28 22 21 18 17 25 19 14 25 22 25 15 30 25 20 23 28 17 20 33 21 25 24 21 23 11 30 18 21 13 31 16 22 21 29 22 24 29 25 20 27 27 23 23 29 21 31 19 21 26 17 28 22 22 28 23 22 23 21 27 21 20 30 19 15 22 31 21 25 23 23 28 12 22 20 24 21 31 19 27 28 19 24 17 25 25 28 18 24 17 28 23 16 23 19 29 23 25 20 17 26 21 23 27 25 32 21 28 27 26 19 23 19 23 23 19 23 17 30 27 24 26 20 20 23 26 26 28 17 19 22 30 17 21 20 26 22 27 22 23 22 20 19 29 22 26 22 17 23 17 24 25 16 22 26 26 16 23 21 15 25 26 25 30 27 26 26 26 20 24 18 27 15 20 27 21 29 29 22 21 14 16 19 20 17 22 20 18 21 16 16 26 19 23 24 17 25 24 21 27 26 28 22 14 26 26 23 18 19 25 24 18 20 21 18 22 18 23 28 16 25 26 26 23 25 20 18 23 14 19 23 18 24 31 27 22 23 25 20 28 28 20 34 15 19 24 18 14 22 16 18 21 15 27 17 27 30 24 27 37 32 14 20 28 18 27 28 26 21 23 12 27 26 30 22 14 20 20 23 20 21 24 26 29 22 27 25 28 24 24 23 22 27 23 21 24 15 23 14 26 22 8 23 19 25 19 22 15 22 27 25 24 19 20 17 27 26 24 21 18 24 30 14 21 30 16 36 18 26 27 25 24 24 21 21 21 23 26 21 22 30 23 18 21 29 24 28 20 25 25 24 17 26 19 17 22 27 21 22 13 24 36 22 26 25 29 22 26 18 23 21 19 20 28 22 24 28 29 22 20 23 18 25 26 23 21 22 23 19 28 17 23 25 28 21 27 20 36 24 22 24 21 21 27 22 23 26 24 32 18 20 27 20 16 22 29 25 15 19 25 24 20 24 19 17 28 17 30 22 21 30 18 17 22 19 19 20 18 29 24 23 16 30 21 26 23 23 23 25 14 13 27 24 26 22 28 19 22 19 18 22 21 20 20 29 24 20 29 17 26 22 26 23 31 24 22 31 19 16 31 20 21 21 20 16 19 22 20 24 19 28 20 20 18 32 20 22 16 23 19 25 24 21 20 16 19 28 27 22 18 28 18 27 21 21 22 20 29 29 16 26 18 24 26 17 22 21 27 25 18 22 25 14 18 28 22 31 31 22 19 24 23 25 14 29 21 15 33 27 24 19 24 32 23 14 24 22 17 21 18 20 20 28 21 19 23 28 15 29 23 18 20 25 21 24 23 29 23 22 26 18 26 26 21 27 19 18 18 11 34 17 24 23 21 26 19 20 14 21 19 25 21 28 22 19 19 23 17 16 27 29 12 24 22 24 17 24 20 23 20 24 21 15 23 20 16 21 19 18 30 16 24 17 17 21 20 26 21 22 24 23 32 24 17 13 21 21 21 22 17 21 21 23 23 18 26 29 25 17 27 26 13 25 31 27 20 30 26 23 24 20 21 17 21 18 30 19 19 24 23 22 20 27 20 30 26 28 24 23 26 22 22 34 25 24 23 22 13 26 19 26 28 25 26 26 30 20 24 28 18 17 18 24 18 22 21 19 22 19 22 15 27 25 19 25 16 25 22 21 18 26 22 25 10 25 36 25 24 16 23 17 22 24 22 24 24 21 28 27 23 25 29 21 23 30 29 23 15 22 10 23 20 31 27 17 31 22 21 25 22 26 18 26 21 20 24 18 21 22 19 25 23 17 21 26 32 23 24 22 18 23 27 24 20 20 23 21 19 17 31 29 17 20 26 19 23 19 21 24 19 29 24 19 20 29 18 17 19 19 22 25 25 20 21 24 18 25 19 32 17 22 21 18 20 17 24 16 27 15 28 21 23 19 25 31 22 25 28 26 19 22 23 21 23 22 22 18 21 22 24 19 20 25 20 22 25 14 20 20 26 20 21 23 20 21 17 19 27 21 15 24 21 18 21 20 27 32 23 24 25 25 23 13 21 22 23 31 19 27 22 24 17 20 25 16 28 28 27 22 27 21 27 26 26 18 22 20 21 24 21 17 24 21 19 21 25 26 25 21 20 26 21 22 23 30 10 25 31 19 23 21 32 29 23 16 29 15 27 24 21 30 25 31 10 20 24 32 28 18 22 19 21 21 23 20 21 23 26 26 25 21 24 20 16 26 36 17 23 26 31 17 24 19 21 19 25 24 21 29 21 26 31 24 31 22 24 32 18 24 15 23 24 36 23 20 20 18 19 19 25 21 29 21 26 30 31 23 23 27 22 18 24 20 19 23 24 20 25 20 27 24 18 12 24 18 16 23 26 24 22 24 22 24 28 18 17 18 26 26 16 20 29 25 29 22 19 14 28 18 30 27 18 27 21 21 30 25 15 19 23 26 11 14 22 26 28 23 21 25 24 28 28 21 26 25 18 17 29 19 15 27 18 24 13 23 15 28 27 18 28 25 23 28 19 28 23 18 31 17 23 25 22 10 25 24 24 17 24 22 22 26 27 25 26 18 27 28 28 28 35 23 24 24 33 23 19 20 20 26 24 29 17 23 26 18 29 30 21 14 20 26 26 17 16 26 25 18 33 19 25 19 17 22 19 25 26 18 20 20 23 23 27 22 29 23 27 31 35 9 28 19 29 28 21 23 24 20 24 20 19 21 21 29 19 25 19 23 18 26 27 19 27 21 21 17 17 19 20 23 27 18 23 28 15 25 24 16 16 26 28 21 22 28 18 22 20 21 22 20 20 22 23 22 22 32 25 25 22 21 24 25 26 31 27 27 25 20 19 14 14 28 22 23 19 18 27 22 26 30 25 19 22 30 19 22 30 27 22 30 24 23 27 30 24 28 20 20 29 24 14 17 20 31 25 21 21 16 23 32 23 23 19 21 20 29 22 18 20 18 27 21 20 18 17 31 23 25 26 26 29 15 15 22 22 23 24 15 25 22 20 19 17 23 18 24 26 24 25 18 22 23 22 22 29 24 17 20 21 25 25 21 27 16 20 18 16 22 19 21 23 24 12 25 25 18 22 27 23 29 24 25 31 20 23 22 25 24 21 23 25 20 26 25 29 20 18 26 25 19 15 27 17 24 27 20 19 23 18 18 21 37 20 21 21 17 24 22 18 24 23 25 23 14 27 19 17 22 18 20 21 23 26 17 23 18 26 17 15 20 24 16 24 19 24 25 20 21 19 25 22 28 20 17 18 27 21 30 22 27 32 28 31 25 24 16 24 24 31 25 30 17 23 23 24 26 31 15 27 24 20 21 21 23 20 22 21 27 18 27 20 24 22 28 22 16 30 22 27 27 32 17 13 16 25 25 28 24 18 24 15 19 21 28 18 22 18 17 15 28 23 24 17 20 29 21 20 22 33 25 18 24 29 23 18 24 19 27 27 19 19 19 23 23 27 17 22 21 20 23 19 20 21 17 20 19 22 21 20 19 25 22 31 20 16 20 25 16 20 23 24 17 22 23 16 20 21 19 19 18 25 19 24 26 20 18 17 31 20 17 25 27 15 24 26 28 20 22 22 21 21 17 13 23 20 19 22 20 23 24 20 24 19 24 20 24 26 24 19 26 18 25 17 25 28 29 25 21 23 21 22 20 29 26 19 28 23 19 17 28 16 16 31 18 14 19 35 20 17 19 27 22 23 19 26 25 30 20 20 21 26 28 23 16 23 25 23 24 23 27 16 27 24 19 30 19 22 24 24 24 23 21 18 20 17 24 24 22 26 16 21 19 15 21 23 31 23 21 19 19 20 23 16 26 20 29 24 32 29 20 19 18 20 22 20 24 20 17 24 24 26 19 25 13 28 18 30 21 19 19 29 23 20 14 21 21 16 17 17 33 22 24 21 21 24 25 23 16 23 22 18 36 22 22 19 21 33 19 24 21 19 18 24 25 29 30 27 24 31 25 21 26 19 16 28 21 30 24 20 21 23 19 26 18 20 29 29 23 23 27 26 24 27 18 19 19 14 22 23 17 34 21 24 22 16 28 27 15 22 24 23 24 27 19 23 24 26 29 28 18 26 22 17 20 21 22 21 16 26 27 25 30 19 21 19 23 24 22 23 18 28 20 21 14 22 20 21 23 22 19 24 18 29 28 26 28 30 28 23 24 27 23 23 21 26 20 21 21 21 24 9 24 21 20 20 22 24 13 17 26 25 15 17 22 29 27 21 15 26 21 21 26 20 21 22 20 22 19 21 23 16 19 25 25 16 22 27 23 23 26 22 12 19 24 18 20 25 23 20 21 21 23 24 18 23 26 24 25 11 22 20 25 25 23 26 23 20 18 23 19 20 10 23 17 22 17 31 22 17 27 23 22 24 26 26 22 19 18 30 22 24 26 13 19 20 19 20 16 19 21 23 18 24 21 21 22 21 30 16 21 22 21 22 16 23 22 25 24 23 30 27 18 21 23 27 34 20 27 21 32 23 25 25 24 23 25 23 31 23 30 35 23 22 26 29 20 23 20 20 18 28 26 20 36 20 29 22 24 19 29 20 23 26 20 16 19 15 17 25 34 26 22 25 25 26 30 25 18 21 22 22 21 27 19 20 28 17 22 18 23 17 16 18 24 12 26 22 22 21 19 29 27 21 22 17 18 21 18 23 23 26 28 22 25 25 24 11 23 18 14 14 25 22 18 19 12 20 21 25 27 19 23 26 23 32 20 24 17 24 18 27 23 15 23 26 24 29 16 30 22 31 24 18 23 20 16 28 21 25 23 29 16 29 20 15 24 18 19 24 24 31 20 18 17 19 17 18 22 28 19 19 26 29 20 28 19 20 18 23 18 32 20 15 27 21 32 23 21 23 24 29 26 21 18 18 21 31 19 21 15 19 29 21 25 24 20 19 19 27 18 30 22 20 27 11 23 26 25 24 33 22 23 22 22 18 25 20 24 13 21 15 24 23 23 22 24 18 24 29 32 24 22 25 21 24 14 23 28 20 19 23 20 27 24 25 20 28 29 22 28 22 26 25 16 19 19 17 19 23 23 22 15 29 17 24 25 27 17 21 21 17 20 17 17 23 20 24 26 20 24 15 18 14 21 22 20 28 24 17 24 20 21 26 21 22 20 22 18 21 22 17 16 19 18 23 24 24 23 19 21 24 24 21 30 15 22 19 26 15 21 28 22 32 31 19 29 23 19 17 15 24 28 26 20 26 26 21 21 22 17 19 16 23 26 20 27 16 18 19 23 22 25 20 32 13 20 18 22 22 24 29 22 20 19 24 19 17 26 20 28 29 21 29 21 23 21 32 25 19 26 23 23 20 19 23 23 24 22 26 27 17 21 25 20 21 23 25 22 34 29 22 27 24 22 27 28 20 23 18 21 20 26 23 18 19 20 27 18 26 27 27 20 21 29 17 24 18 20 34 28 23 20 22 21 24 28 20 18 23 23 15 19 32 19 24 23 31 23 21 28 23 16 21 24 15 16 24 22 16 27 31 23 21 20 21 17 25 29 23 23 17 22 18 26 18 24 20 24 27 20 20 28 34 21 17 21 27 35 13 21 19 12 18 23 27 23 18 22 21 23 26 23 16 24 16 20 23 27 25 24 21 23 20 18 24 19 21 21 18 22 31 21 17 27 25 30 29 25 16 25 30 23 21 17 23 22 19 20 26 21 19 20 23 16 29 16 19 22 27 17 20 23 13 26 27 22 27 29 22 23 14 20 22 18 14 21 17 31 26 12 25 25 22 23 23 26 17 23 21 17 25 19 17 21 24 32 21 20 17 12 23 24 17 20 25 23 24 23 22 22 22 21 24 19 24 20 25 23 22 26 24 21 21 28 25 17 14 25 22 20 24 21 23 18 29 17 28 27 24 20 20 16 30 23 24 25 33 15 31 27 22 24 20 25 26 27 19 19 14 25 29 21 23 23 29 30 28 25 29 24 32 21 20 21 23 25 27 30 29 29 33 21 23 25 19 26 21 30 13 26 16 22 25 15 17 23 24 20 24 17 24 16 26 23 26 17 27 24 22 28 24 20 20 31 22 21 27 25 27 27 26 22 21 29 27 25 24 16 22 21 25 25 21 24 15 21 28 33 24 26 25 15 21 24 22 22 30 25 29 20 30 25 25 22 19 16 18 15 21 25 20 21 26 17 25 18 23 28 21 19 18 23 26 16 27 21 21 18 18 25 24 27 24 21 20 21 27 23 26 20 22 8 24 28 26 32 16 15 19 14 26 25 25 29 17 26 30 16 28 20 35 20 24 23 26 21 21 27 20 23 30 12 18 16 22 23 27 21 30 23 18 24 24 23 19 25 19 20 18 17 21 23 19 19 23 20 25 25 31 24 24 25 17 25 23 26 24 28 23 17 22 22 22 20 20 28 23 18 18 24 19 18 28 20 16 22 18 21 20 22 31 26 21 14 19 28 22 27 26 21 22 21 28 21 27 24 26 23 17 17 26 22 21 18 23 21 26 28 20 23 28 21 29 22 14 17 19 21 18 27 25 29 19 34 26 25 15 22 23 27 14 18 22 22 22 24 27 16 18 25 18 22 22 23 16 21 18 24 20 16 27 23 26 30 24 21 19 23 20 19 22 33 26 20 16 28 23 23 19 21 23 21 22 15 29 22 25 26 24 23 15 19 21 20 24 33 29 17 26 27 28 21 26 27 19 22 21 26 25 24 19 22 16 22 30 27 22 25 19 19 18 20 30 23 20 21 14 27 20 17 23 22 22 24 18 20 27 25 21 30 22 23 21 22 16 20 22 27 25 25 21 24 27 28 24 25 23 19 20 16 25 23 13 22 26 18 23 28 13 25 24 19 30 25 21 22 22 19 32 25 22 26 17 17 25 24 28 20 22 27 29 27 26 29 32 24 24 26 21 29 21 22 21 23 10 17 18 28 26 23 26 17 23 20 22 32 30 19 29 21 26 22 17 21 26 14 24 26 29 19 23 18 19 23 25 24 21 25 16 19 18 29 24 23 25 20 20 29 19 25 22 21 25 24 25 24 20 17 25 16 14 25 19 21 20 19 21 23 30 32 18 26 16 16 21 24 22 18 21 22 21 18 14 28 22 14 14 26 15 27 17 30 21 23 14 24 12 26 33 31 15 19 18 19 16 29 17 25 19 17 26 22 22 27 25 20 18 27 22 25 30 29 24 23 24 16 21 22 27 24 20 18 24 28 28 24 24 19 17 26 19 21 23 21 23 21 19 28 24 28 26 23 19 27 24 28 21 19 27 25 19 24 26 19 18 25 21 28 28 19 16 32 26 30 22 16 24 23 26 20 24 22 28 23 25 23 26 22 27 27 18 26 21 21 25 20 25 21 27 28 28 23 23 23 26 20 26 22 17 20 23 28 23 21 23 22 23 25 16 20 23 30 22 25 17 14 17 18 25 15 24 27 18 25 27 30 29 22 25 34 22 31 25 27 32 23 27 20 22 17 25 24 19 20 21 21 25 26 21 23 27 30 21 28 18 24 22 30 21 23 21 17 21 14 20 24 17 16 30 15 24 15 30 26 21 25 16 27 21 26 21 20 22 18 22 23 21 28 21 29 16 20 14 26 26 11 20 22 26 22 25 19 17 25 20 25 27 24 18 16 18 26 22 24 26 14 10 26 21 28 30 29 29 20 25 20 31 25 25 25 18 16 22 29 22 15 18 22 22 25 16 25 20 22 24 24 18 16 26 24 18 21 24 18 23 26 21 28 20 19 33 30 25 22 23 16 22 25 21 18 16 21 20 27 22 34 27 16 24 28 21 21 16 18 23 25 24 20 22 24 18 16 21 13 23 18 25 21 20 23 23 21 21 17 20 17 22 17 28 28 24 17 23 23 26 17 19 22 26 33 20 24 20 31 17 19 28 19 14 26 20 22 21 32 22 24 21 23 20 27 22 22 27 21 28 20 29 24 26 23 19 13 22 23 25 22 28 21 25 27 25 21 21 24 21 21 18 21 20 21 20 18 33 24 29 20 27 20 17 17 20 22 18 24 19 25 24 21 17 28 24 22 21 27 12 19 24 24 26 21 22 28 31 23 19 26 23 23 27 22 21 19 15 16 21 22 22 32 18 26 16 24 23 24 17 22 19 22 24 25 22 24 18 18 18 22 24 26 28 19 21 17 15 21 20 19 24 22 22 13 27 18 21 18 19 23 28 13 23 27 18 25 26 27 20 20 21 20 16 28 14 24 21 21 20 16 25 16 17 21 24 31 36 21 23 24 21 28 17 17 25 18 20 16 29 20 21 21 24 20 18 21 21 18 19 22 18 23 24 31 23 18 25 21 15 28 27 23 18 27 27 24 21 17 23 22 23 19 34 17 24 16 21 22 15 24 25 16 25 19 29 29 23 27 27 25 21 23 23 24 15 18 21 13 24 22 20 20 21 17 32 19 38 15 22 17 25 22 25 21 22 31 17 18 24 28 22 19 30 20 21 20 22 31 24 24 20 22 22 21 20 21 21 24 20 25 28 26 21 24 18 20 20 19 21 26 21 19 24 13 27 22 18 23 22 24 23 20 26 22 30 19 24 28 25 22 24 33 23 22 18 21 24 19 26 26 26 18 17 20 22 20 23 22 26 23 22 24 21 34 30 19 21 20 21 25 28 26 20 18 25 21 26 27 21 18 20 28 28 26 28 23 29 23 29 20 16 24 25 18 15 23 12 27 25 17 34 23 29 26 23 22 26 25 27 16 12 21 25 27 26 17 24 24 23 15 23 18 22 31 32 27 21 20 20 24 16 26 20 17 19 27 17 25 27 26 13 26 24 24 22 25 31 25 18 29 20 24 11 29 22 23 22 28 20 20 26 23 25 20 18 24 31 25 28 24 19 21 23 28 16 23 16 25 29 23 26 37 19 20 21 22 32 13 26 31 27 22 21 20 25 18 22 28 11 19 27 19 26 26 31 28 25 25 27 26 26 21 32 23 21 24 20 18 25 22 29 16 28 27 18 24 24 27 31 31 19 24 18 21 17 24 17 22 21 21 17 22 31 19 24 22 23 23 23 17 23 17 22 15 26 23 23 26 19 24 19 21 26 24 29 27 24 18 19 22 17 24 27 16 22 23 20 17 18 26 24 26 23 13 15 18 20 18 29 15 23 21 25 23 30 23 25 19 19 30 27 20 21 14 21 20 16 25 28 17 22 23 18 29 24 18 20 19 24 21 17 29 21 15 21 30 23 18 24 25 20 23 18 14 19 19 30 22 25 27 22 22 21 31 21 30 28 25 15 35 19 29 17 25 23 24 26 24 23 19 20 22 21 25 11 23 23 20 24 21 31 25 17 23 26 25 23 16 23 19 23 16 27 25 28 23 15 23 26 14 23 29 19 23 19 21 27 25 34 19 24 19 17 23 22 15 21 25 16 24 20 27 21 20 20 21 22 28 21 15 20 24 21 30 27 20 23 24 22 25 23 26 19 21 26 14 29 25 20 23 22 24 21 24 21 24 14 25 19 23 22 25 21 18 22 16 34 25 21 22 12 25 18 29 12 21 33 30 28 26 20 22 32 26 23 32 20 28 21 28 21 24 16 18 18 23 23 15 17 18 25 20 22 24 14 22 19 25 16 22 21 20 21 15 22 21 18 26 24 20 23 19 23 18 23 25 19 19 21 24 20 24 23 22 27 17 25 20 23 20 20 16 25 16 17 27 12 19 27 23 21 29 25 18 14 28 25 28 23 25 25 33 25 17 17 21 27 30 26 20 26 26 17 25 23 20 25 21 26 26 22 25 21 19 21 15 29 27 17 16 23 17 25 16 18 20 20 18 26 25 20 20 23 16 21 19 20 16 15 27 24 32 19 25 24 21 29 16 18 28 25 28 23 21 20 26 21 26 23 31 25 22 21 20 28 20 28 22 27 26 24 24 23 23 29 12 15 16 22 26 25 28 28 20 12 16 27 21 16 26 30 27 21 21 33 19 22 21 20 23 18 23 27 23 21 26 21 38 18 28 13 21 27 21 23 15 20 28 24 18 22 28 32 20 25 19 17 21 24 25 28 15 25 24 20 16 26 26 22 29 29 20 21 27 26 24 17 18 23 11 21 22 19 22 20 15 22 21 24 29 19 21 23 20 24 28 24 29 20 29 18 11 19 19 26 26 29 23 17 31 22 21 14 27 26 20 27 16 17 22 21 30 23 17 25 14 29 21 19 29 23 24 25 25 22 26 23 23 36 20 18 22 17 18 23 18 18 13 24 29 21 19 23 25 26 18 22 31 14 12 22 29 32 18 29 18 20 32 21 17 24 22 19 25 19 29 27 17 14 15 26 24 17 22 22 15 21 18 23 20 19 19 23 22 24 24 25 22 24 34 19 19 27 22 24 14 22 25 27 20 23 22 32 24 23 23 23 23 22 24 23 15 14 14 23 19 21 26 31 31 27 27 19 25 25 19 24 29 27 19 20 21 24 21 31 24 22 23 27 22 24 26 29 27 19 17 23 18 26 12 28 24 22 20 14 30 20 22 20 23 19 22 20 26 25 21 33 22 22 22 17 20 25 20 17 22 29 21 18 20 18 21 27 18 20 17 19 19 23 19 26 20 22 16 21 17 25 25 20 29 19 23 22 22 20 21 18 26 26 27 27 21 20 20 30 28 27 27 19 23 23 19 22 27 24 18 20 25 22 25 21 29 21 16 21 19 21 25 26 27 17 21 19 27 30 26 31 27 25 24 37 18 26 29 26 18 26 27 25 21 26 24 23 23 20 18 20 21 23 26 16 27 22 31 24 35 18 24 24 22 19 23 26 25 26 31 12 21 21 16 21 18 18 17 19 24 22 20 27 15 15 22 24 23 16 24 26 18 15 23 29 22 17 24 21 24 18 24 22 16 29 21 32 27 29 22 20 15 29 33 19 21 27 19 30 18 25 19 18 23 23 25 25 25 18 21 23 21 24 26 22 17 16 19 16 17 21 29 27 18 24 23 21 21 19 23 26 21 20 19 15 19 24 19 23 26 24 20 23 25 23 24 20 27 16 23 21 24 24 19 24 20 16 23 16 28 20 20 22 22 25 15 25 22 27 30 20 20 20 24 23 15 26 22 15 18 27 22 17 22 23 29 30 22 22 19 23 28 18 24 28 26 24 27 17 22 16 23 18 26 24 23 21 21 20 27 22 15 20 22 19 19 21 25 22 26 19 18 20 25 21 22 28 22 16 27 23 22 23 22 23 28 17 23 23 25 25 14 30 16 16 23 23 18 22 27 23 31 23 19 24 19 25 18 22 15 20 17 18 20 24 20 20 24 14 21 24 20 31 22 21 20 24 30 28 23 16 12 29 23 25 32 27 15 22 28 21 29 28 18 22 31 23 28 16 24 22 27 23 26 18 21 26 23 23 26 16 25 22 21 26 23 19 19 18 17 23 29 22 30 22 29 21 19 21 23 31 33 23 25 21 20 25 22 23 20 26 27 29 20 22 17 21 11 21 21 12 25 21 14 20 26 29 19 22 22 24 16 23 20 19 19 13 21 24 21 24 22 22 29 24 25 22 19 30 18 16 29 20 18 21 33 24 30 26 25 28 23 13 25 28 32 30 25 26 29 21 30 27 27 23 17 27 19 22 28 16 20 21 25 18 24 21 26 27 23 21 28 15 13 22 17 27 21 23 19 26 24 24 17 27 19 17 23 27 26 17 21 26 16 28 21 21 20 22 28 20 19 18 22 23 26 28 20 23 27 32 21 28 17 24 17 23 21 20 28 24 23 22 19 26 25 27 17 18 20 20 30 19 32 26 12 29 16 28 18 28 27 25 22 20 30 22 22 21 16 28 13 27 21 16 17 29 21 22 23 20 26 22 23 22 17 26 21 28 25 25 17 26 26 21 24 16 29 23 28 28 15 24 29 20 23 24 24 20 17 19 19 24 21 23 19 22 30 21 15 24 24 27 25 27 19 21 23 27 16 23 27 24 26 23 33 12 28 22 27 26 24 19 22 26 16 27 21 18 21 20 18 22 19 22 25 32 18 22 30 30 30 21 17 27 21 23 30 20 20 20 22 17 23 24 18 22 23 18 16 21 24 25 21 23 18 18 17 28 16 16 33 23 19 25 23 25 14 26 16 21 30 26 32 30 21 24 21 22 25 28 25 25 23 29 19 29 25 17 27 15 24 23 29 20 18 27 19 19 20 22 18 23 24 15 16 19 20 21 21 17 23 18 22 16 20 15 18 20 19 18 21 23 19 16 28 26 25 27 18 22 19 19 21 26 25 19 23 12 21 18 26 21 25 21 23 21 19 16 20 25 23 21 25 32 17 19 21 24 29 24 31 25 24 21 32 26 30 26 21 11 23 32 23 25 24 26 28 24 20 29 18 24 21 14 18 17 21 28 21 23 26 30 19 27 17 23 25 26 24 15 25 21 25 21 20 16 28 28 19 16 15 26 27 29 23 17 19 23 22 21 26 25 25 19 26 15 30 18 12 22 24 18 17 20 22 23 17 21 18 21 24 22 29 21 19 19 22 21 28 28 22 19 21 32 29 27 26 16 21 24 23 26 16 20 19 26 24 17 26 23 21 18 18 21 27 24 27 15 17 21 25 19 21 24 18 28 22 26 19 10 26 24 21 25 20 17 24 24 13 22 17 25 23 25 22 20 29 16 27 24 24 24 24 20 26 30 17 15 25 24 24 29 28 26 29 30 19 28 24 21 19 16 16 17 21 20 27 16 25 22 30 25 30 20 23 21 18 15 21 20 20 27 17 23 28 27 25 28 18 26 24 19 20 13 20 27 22 20 21 23 26 31 26 28 25 23 22 14 23 23 19 24 20 29 24 22 22 14 24 22 33 22 21 22 19 19 25 25 22 19 25 22 18 27 20 24 18 22 24 23 23 24 23 20 20 17 24 21 29 13 28 22 17 22 25 24 26 17 19 31 25 24 32 31 21 20 26 23 20 20 24 17 24 34 25 21 19 23 17 25 19 24 19 23 25 21 17 22 20 21 20 24 31 24 19 31 33 20 18 26 14 27 27 24 18 23 30 22 19 22 22 28 31 18 15 25 23 20 28 19 18 20 28 26 21 24 16 20 18 31 29 22 21 21 17 24 18 25 27 18 19 23 20 18 26 31 23 30 19 29 17 18 18 23 22 16 24 31 26 24 24 23 16 20 25 28 14 13 22 24 21 24 14 22 21 23 23 26 24 22 18 22 19 22 26 26 17 21 20 14 21 20 22 18 25 22 27 23 23 22 26 24 22 23 29 19 14 25 16 13 27 21 23 21 25 24 20 22 30 18 20 20 28 18 21 27 20 23 19 24 26 16 33 21 25 32 23 25 22 24 20 22 22 16 10 18 21 30 14 18 26 24 17 23 25 21 23 26 18 20 28 27 21 19 28 25 22 23 30 25 25 29 24 18 25 28 14 21 23 27 25 27 17 22 18 28 21 22 24 27 24 22 18 29 22 27 27 23 23 17 21 20 18 22 21 15 28 23 26 26 23 22 20 21 15 17 28 31 29 30 19 27 22 19 22 19 20 22 26 21 19 32 31 21 21 20 28 27 19 22 21 22 24 28 27 21 23 26 25 33 17 23 27 23 24 18 24 22 21 18 21 24 24 27 19 25 24 14 23 15 17 26 14 29 23 29 21 24 26 24 25 23 24 21 23 20 23 19 26 21 19 18 17 20 19 29 30 28 18 25 29 16 27 34 22 26 27 29 16 24 26 25 24 23 16 33 19 22 28 22 30 22 26 25 24 27 23 17 18 21 18 21 23 17 17 27 22 16 18 28 24 25 26 16 22 22 13 12 28 22 26 20 25 20 24 23 26 22 23 24 26 27 16 26 20 17 19 23 25 20 21 16 29 22 19 27 23 24 22 26 20 18 35 19 23 19 24 31 16 18 23 22 18 28 26 20 22 24 24 26 22 25 23 18 25 20 17 21 27 25 20 20 18 20 25 27 16 18 24 17 21 30 35 27 16 22 27 28 26 21 18 19 33 15 29 20 17 22 23 26 25 23 16 25 27 22 24 27 21 20 19 21 21 15 21 23 36 15 23 25 26 22 20 22 16 24 24 21 25 24 17 22 27 28 27 24 15 24 22 22 19 28 15 25 19 20 20 26 28 22 26 17 21 21 21 27 23 18 22 27 22 26 25 26 18 21 17 26 29 24 29 26 23 30 24 26 18 19 25 25 16 21 16 21 25 29 26 16 14 15 21 23 26 23 28 17 23 24 21 21 29 19 24 16 19 29 25 23 30 21 23 19 23 28 21 20 31 20 25 28 27 20 22 24 17 28 23 20 22 30 27 21 21 15 31 27 28 27 23 26 18 20 19 19 22 20 25 20 25 18 19 30 24 17 24 16 27 23 17 22 21 20 22 22 20 25 26 20 19 30 27 25 21 30 21 25 19 25 32 27 18 31 18 24 22 16 16 18 28 22 22 20 28 24 25 20 17 16 21 24 26 23 22 21 22 25 21 28 26 22 18 26 24 24 28 24 30 16 20 23 27 18 25 17 23 26 26 25 27 20 26 19 23 16 20 27 13 21 27 25 20 27 19 23 21 28 23 16 25 18 22 20 26 23 16 23 19 19 23 22 19 24 28 20 20 22 18 28 16 16 15 27 20 17 18 14 20 27 25 26 23 28 23 13 19 29 25 21 27 29 13 20 28 17 20 20 29 28 23 22 21 21 20 20 22 20 16 16 21 29 28 25 31 16 19 22 19 18 16 30 19 22 27 29 27 21 23 27 24 12 23 28 21 25 27 24 22 26 28 17 30 25 20 27 16 18 21 23 22 26 25 19 14 28 21 22 16 19 20 22 22 25 21 17 33 20 22 25 20 25 21 13 20 26 23 20 17 27 26 18 14 26 25 23 24 25 23 23 22 23 27 24 14 29 23 16 21 23 20 20 23 29 19 18 18 18 19 24 28 23 15 19 29 29 19 20 20 21 26 22 23 22 21 24 21 26 20 30 20 17 17 23 18 20 27 22 24 24 15 18 22 19 22 23 18 19 24 25 32 22 22 12 23 29 20 27 21 32 27 20 20 16 16 20 23 34 23 26 22 16 22 22 21 24 23 24 24 22 25 27 22 27 24 25 29 26 16 22 29 24 14 15 23 33 16 24 26 19 20 23 27 19 27 13 31 27 27 24 21 19 13 18 16 29 17 33 21 12 21 29 28 17 30 20 22 22 29 25 23 27 18 21 24 19 17 25 23 27 18 26 25 22 22 16 26 30 25 17 19 9 27 29 13 23 24 26 25 24 31 19 15 17 25 18 20 15 16 25 24 23 23 22 23 14 21 19 20 21 29 25 23 29 26 23 26 16 14 24 27 22 23 20 17 20 23 20 23 19 19 23 33 21 27 23 27 18 33 23 17 23 21 18 25 26 20 29 22 35 18 22 14 24 21 18 20 21 22 21 24 19 21 23 18 17 20 29 22 20 25 18 25 26 23 21 19 25 25 24 21 26 26 28 13 28 25 21 22 21 20 33 24 22 16 13 26 18 17 25 21 19 24 26 28 23 20 21 27 23 18 27 28 16 21 24 26 19 26 22 26 21 23 20 16 24 21 21 25 26 22 23 26 20 19 17 31 27 19 19 19 24 21 27 25 16 17 26 27 20 22 17 26 10 20 29 31 19 17 18 21 22 24 30 28 21 33 26 20 25 26 23 18 17 30 24 25 25 20 17 26 35 19 19 21 26 19 25 23 29 18 19 18 19 25 26 15 14 23 29 30 25 29 19 28 21 23 26 21 24 26 26 30 25 18 25 18 16 12 27 20 23 22 11 28 19 24 21 14 20 19 25 22 13 24 23 21 22 27 16 13 29 22 27 26 20 23 22 19 21 21 20 26 27 21 21 26 26 19 21 26 25 29 28 26 17 29 20 26 33 24 17 24 23 28 27 24 20 26 23 14 29 20 24 21 17 20 23 17 21 14 18 18 22 17 30 20 26 33 19 12 19 23 31 23 22 26 26 23 21 16 20 22 19 22 20 21 25 18 21 35 24 23 24 15 27 21 21 30 17 17 27 24 24 27 25 30 22 29 16 23 20 19 26 21 18 18 21 22 25 18 28 19 22 19 24 27 28 16 23 22 36 22 19 22 25 19 22 24 25 23 24 28 23 31 19 24 27 17 18 28 21 23 27 19 26 20 28 21 20 18 14 18 26 24 17 30 20 22 21 21 20 18 26 24 22 21 30 22 25 26 23 29 15 19 22 18 16 25 30 21 32 24 19 20 23 24 19 20 12 22 23 23 17 16 21 18 21 17 20 27 13 11 24 18 27 13 16 19 24 19 19 12 22 31 23 19 29 24 23 23 22 24 26 24 26 25 26 23 26 23 18 22 20 20 27 23 23 13 23 21 23 13 21 22 27 16 19 19 21 32 20 24 27 24 18 19 31 23 20 20 14 29 20 25 19 18 18 26 20 22 33 25 18 24 17 24 22 19 13 24 28 20 24 20 26 19 21 19 20 21 21 20 33 19 27 25 20 21 17 19 23 16 26 22 27 23 27 23 18 21 24 20 30 24 22 26 26 21 25 30 26 29 24 17 24 17 18 18 21 17 25 17 27 20 26 26 18 29 18 23 25 18 28 23 15 14 25 22 25 18 16 27 29 12 38 24 20 14 22 15 19 22 19 29 20 23 23 20 27 23 26 33 19 17 19 23 25 19 24 29 17 15 23 21 17 21 26 24 23 20 19 21 18 21 23 18 19 19 28 24 20 31 23 21 21 24 20 20 25 15 15 19 21 24 18 23 18 36 18 23 23 22 28 16 23 20 26 26 20 17 17 20 21 28 16 27 18 19 21 27 19 17 24 23 27 22 21 29 16 25 17 15 24 25 25 20 28 25 21 24 22 30 24 31 21 27 22 9 23 20 33 22 19 24 23 21 23 22 20 23 23 17 14 25 28 27 24 28 15 19 21 24 22 18 18 19 23 22 27 32 26 21 26 20 19 21 22 21 24 21 19 26 22 23 27 16 25 29 24 23 22 13 16 21 20 22 24 23 21 25 17 26 29 19 24 18 24 20 25 20 22 16 29 19 22 20 29 20 29 25 30 17 21 22 15 24 24 30 17 29 21 19 28 9 17 27 17 16 24 17 13 27 18 23 26 18 23 19 23 19 23 23 26 21 28 19 26 13 19 21 23 14 27 25 24 23 25 22 15 20 23 30 22 20 24 26 26 19 21 24 23 13 21 25 25 24 22 27 29 15 20 26 22 23 21 21 28 21 25 22 22 24 18 28 24 27 21 20 23 15 32 21 22 16 22 25 21 18 29 29 24 23 18 19 27 25 16 21 28 37 17 26 17 20 24 24 14 19 32 15 25 24 22 24 22 23 26 16 23 19 22 22 18 25 17 17 22 31 25 24 20 12 27 23 27 24 17 22 22 32 21 20 21 27 29 24 22 32 26 24 20 24 27 11 28 20 15 16 24 19 17 19 19 13 24 23 18 26 27 21 28 23 26 19 22 24 24 23 14 24 23 22 26 25 28 22 22 28 25 22 26 15 24 23 13 32 24 27 25 21 23 23 28 24 24 16 16 21 30 20 22 25 18 17 19 26 21 22 20 26 18 26 28 24 30 24 25 24 17 25 29 25 31 24 27 25 23 32 20 25 27 31 23 24 24 22 21 22 21 19 16 30 18 21 26 27 24 17 20 24 28 24 22 25 21 40 25 22 18 29 26 17 26 24 21 24 23 22 24 21 22 19 18 23 22 27 25 31 18 24 19 28 18 18 16 26 29 26 36 23 29 19 24 21 32 23 26 22 18 22 20 27 21 13 20 27 24 25 24 27 25 12 23 29 30 21 19 28 29 23 22 26 25 26 24 25 20 19 19 13 21 16 17 23 23 19 18 21 25 18 21 18 23 22 23 28 18 25 22 20 30 23 27 19 21 14 23 22 22 24 27 18 24 27 27 21 21 16 19 25 23 25 28 24 27 29 21 31 18 18 26 20 21 15 26 28 25 23 24 26 27 21 21 20 22 17 25 23 21 20 17 30 28 23 18 24 17 29 24 18 25 18 21 24 18 19 22 23 19 25 30 25 25 20 17 25 27 25 17 27 26 12 29 23 25 23 27 26 21 20 26 22 23 27 29 26 19 22 28 16 27 20 24 22 29 10 23 24 16 21 18 15 18 28 22 22 19 25 30 19 23 22 30 17 33 23 19 15 14 18 30 24 19 35 13 32 30 25 22 19 23 16 20 18 28 23 26 17 18 19 15 19 18 19 31 21 28 26 27 18 25 24 28 20 24 14 22 17 26 22 21 21 22 23 24 21 21 26 19 34 28 27 22 21 32 31 24 14 31 25 25 16 25 19 28 16 19 21 22 32 21 25 22 27 28 22 22 22 25 23 18 22 16 23 28 23 17 17 20 22 23 20 25 27 22 25 18 27 33 27 19 32 32 34 28 15 22 22 18 23 21 28 24 31 20 20 23 28 20 19 30 29 28 27 23 23 17 21 28 21 23 23 26 24 36 28 31 21 16 19 26 25 21 27 28 21 17 28 16 24 22 30 19 19 25 20 19 22 24 19 23 20 16 18 27 22 15 24 26 25 25 22 22 17 20 21 12 20 22 28 25 29 22 20 22 23 26 17 31 14 17 21 20 31 18 25 29 21 19 27 20 21 24 21 23 24 30 24 25 26 15 20 35 23 20 19 36 16 27 23 24 24 24 22 21 20 32 26 18 23 20 29 19 24 23 25 19 15 23 23 17 17 15 21 21 22 19 21 20 25 13 27 15 25 16 25 20 23 23 20 29 19 29 21 28 20 18 23 22 17 23 21 20 27 25 14 21 22 19 12 22 18 19 17 26 20 25 21 26 29 19 36 23 20 21 23 12 24 24 18 19 25 24 18 15 17 24 30 28 20 21 21 21 23 22 16 22 20 24 19 26 28 24 22 29 25 27 31 22 18 20 22 27 20 21 28 25 20 23 21 28 11 26 19 26 25 22 17 31 25 24 23 21 23 31 26 24 27 20 26 20 20 22 16 20 21 15 20 19 25 29 19 22 29 28 20 19 17 21 17 20 20 20 24 20 28 24 25 17 25 21 20 20 20 24 14 21 18 23 23 25 27 27 35 27 24 22 18 17 19 25 19 22 24 25 21 18 25 32 22 21 28 14 22 20 17 19 26 20 19 22 21 23 15 25 27 30 25 21 33 26 28 21 22 30 22 24 21 29 17 19 19 15 22 21 23 26 22 24 31 21 21 18 33 25 18 25 17 22 23 22 29 24 26 20 23 23 26 29 24 23 18 23 27 20 19 19 19 31 23 21 21 26 25 31 28 23 15 17 22 30 19 21 22 16 27 24 11 27 14 24 22 26 21 19 18 20 33 12 24 28 21 27 17 23 24 19 18 22 17 19 23 19 21 20 21 23 23 17 23 15 25 20 21 20 14 22 14 28 25 17 22 21 18 21 27 16 22 21 18 21 25 27 20 24 18 29 25 23 15 21 31 18 25 20 29 27 23 25 20 38 27 25 23 16 20 29 28 25 22 26 28 17 15 27 16 25 20 26 26 19 20 18 30 24 23 30 23 27 20 23 20 28 28 32 19 27 18 24 28 19 24 20 25 26 22 21 23 23 20 20 27 20 21 28 31 24 19 16 21 27 22 20 19 13 30 20 22 24 17 21 26 27 20 23 19 21 28 26 22 19 20 17 31 10 25 25 18 23 20 29 24 17 26 25 25 31 18 21 21 25 25 27 20 32 25 25 21 21 22 24 22 17 23 18 18 22 26 19 22 19 28 22 23 21 19 17 18 23 17 24 24 16 31 25 25 21 18 27 19 22 18 21 21 19 23 13 16 18 25 29 24 28 26 26 27 23 22 25 18 28 33 27 26 19 21 30 30 15 24 35 28 18 15 22 28 25 23 23 31 12 27 25 23 15 11 25 19 27 33 33 13 22 16 26 21 23 30 24</t>
+  </si>
+  <si>
+    <t>JSU(-1.720394535066462, 5.172201497983549, 24.24924744741601, 27.356019406328706)</t>
+  </si>
+  <si>
+    <t>26 50 33 24 39 24 34 24 30 31 30 32 31 41 39 22 27 32 44 42 26 41 36 40 34 25 35 23 30 27 31 34 46 35 32 34 29 36 31 33 31 30 37 40 30 30 51 38 38 40 37 37 37 28 36 25 39 32 12 29 33 36 30 37 25 29 38 29 31 36 43 37 41 36 28 33 33 42 25 26 37 40 31 41 26 28 30 39 35 27 42 43 29 27 33 28 35 23 39 42 27 30 37 30 29 37 34 30 22 29 26 31 33 27 28 32 38 33 28 33 30 29 27 41 34 33 32 30 44 38 31 41 32 30 39 30 50 34 42 41 23 28 35 35 38 30 40 36 28 35 33 33 34 41 37 36 25 39 32 40 36 34 29 37 25 40 37 37 32 32 30 37 36 38 40 39 25 35 34 35 40 31 33 28 37 31 21 29 39 39 28 34 24 26 29 41 39 33 41 35 26 36 20 32 35 36 34 31 35 34 31 37 40 25 28 24 37 38 35 39 45 32 35 27 29 33 34 38 32 32 37 32 26 24 34 40 31 33 32 31 34 49 36 31 26 33 27 31 33 31 29 31 33 30 30 43 41 37 33 30 20 29 42 34 32 34 40 37 32 32 34 33 26 34 25 32 36 21 32 35 32 31 42 32 44 29 36 33 36 31 39 28 34 35 37 38 41 30 37 34 43 30 36 31 35 35 37 30 23 32 28 31 26 34 22 42 33 31 31 32 37 44 36 29 42 45 28 34 31 36 27 30 34 36 36 33 34 39 42 35 35 31 38 26 29 36 34 34 40 27 28 27 39 39 36 39 31 42 47 32 30 40 26 28 37 27 31 22 28 33 28 23 32 35 46 22 44 29 28 30 31 35 40 26 29 30 47 35 33 29 32 42 36 39 25 38 27 34 27 30 29 39 40 24 35 29 39 33 29 29 38 45 45 35 28 35 36 34 26 35 38 34 34 32 35 32 34 29 26 29 47 37 32 30 28 38 31 46 33 44 31 35 36 27 36 33 46 24 30 34 34 41 28 36 32 37 44 32 24 29 37 34 37 33 40 35 40 44 25 34 38 38 31 27 24 29 30 43 38 36 33 42 33 43 31 23 35 43 29 34 28 37 33 25 27 32 27 31 31 31 36 28 38 33 48 29 29 22 27 45 27 31 25 30 39 39 44 32 38 27 35 27 30 30 30 45 32 33 39 42 33 31 15 39 35 34 43 31 35 32 47 38 35 32 28 23 31 36 37 34 36 32 34 24 29 26 35 33 33 48 38 43 32 36 32 42 32 32 45 34 37 31 38 39 33 28 34 26 38 32 30 22 33 27 30 33 35 34 31 39 37 41 34 35 32 38 42 37 38 31 31 33 31 42 35 38 39 26 42 34 31 35 35 29 34 33 35 32 31 34 40 46 35 34 24 34 38 33 49 38 27 42 41 27 34 36 32 44 30 29 34 32 30 24 35 31 30 38 34 32 41 37 30 37 31 37 32 38 33 30 34 34 30 39 34 25 34 42 33 32 38 38 42 29 35 34 37 43 35 35 35 35 45 30 40 42 36 46 41 32 39 38 32 39 29 34 34 36 37 35 38 40 32 30 33 35 34 37 44 41 34 36 29 29 32 33 37 40 35 34 38 39 31 45 34 39 24 39 23 34 44 33 30 31 38 33 34 41 34 34 29 25 33 37 37 38 29 29 30 38 34 30 35 31 42 24 32 28 45 40 37 40 34 30 37 36 41 42 30 34 46 35 33 25 34 33 30 27 30 31 35 39 32 39 28 21 38 31 32 26 37 21 36 33 35 40 36 27 36 32 36 37 22 22 45 29 37 33 32 35 35 38 34 33 30 33 34 39 36 39 30 33 26 31 32 37 31 39 38 21 35 33 32 32 34 22 29 30 30 43 33 34 28 37 27 35 28 24 23 32 41 35 35 32 26 28 34 25 19 40 27 39 36 32 46 35 34 27 28 28 44 34 42 35 35 25 33 33 44 33 43 35 28 29 35 32 26 35 39 42 32 46 33 30 37 39 27 30 29 37 32 32 36 37 35 40 34 26 34 33 37 33 24 40 41 43 40 32 38 30 42 36 34 36 32 33 34 24 42 34 36 28 29 40 35 33 42 32 38 31 37 31 24 36 36 30 28 34 30 45 38 38 37 33 33 43 34 37 31 45 34 27 31 26 38 28 35 33 27 29 30 32 33 44 33 27 42 27 34 36 27 28 34 22 36 19 33 35 40 31 28 33 33 44 34 32 27 32 40 40 27 25 31 44 41 41 35 38 40 30 26 30 40 33 28 38 39 39 32 30 38 32 28 31 34 34 33 43 32 32 35 31 28 35 28 36 41 36 41 39 42 28 33 36 32 29 42 47 24 37 33 30 30 32 24 35 37 36 39 28 35 31 23 24 33 39 41 34 29 42 33 38 24 30 40 35 38 31 33 32 22 39 30 31 31 36 31 48 31 34 26 39 37 33 39 30 42 30 25 26 33 31 39 31 24 37 34 45 35 33 39 35 39 30 30 35 34 37 43 34 31 32 36 44 38 30 43 37 38 35 28 37 30 30 28 33 35 30 42 28 33 49 23 33 34 54 27 35 32 27 38 35 39 34 30 26 32 30 32 36 32 42 39 28 34 44 46 40 32 28 39 31 34 30 28 37 31 17 39 32 38 29 46 35 36 30 42 25 36 47 31 39 35 28 34 21 43 27 30 27 37 22 34 35 36 29 32 31 43 31 39 33 29 38 39 31 47 35 34 36 29 46 33 34 38 37 30 33 31 40 31 30 39 29 27 34 44 31 41 38 28 35 27 34 31 32 30 50 25 52 40 28 33 31 33 31 37 32 37 23 38 32 23 31 40 39 41 32 34 30 41 25 35 38 35 39 35 41 38 37 32 33 33 35 36 26 37 26 42 37 36 28 33 33 34 36 38 36 27 27 32 41 27 31 29 35 31 34 35 40 36 35 29 38 33 33 33 29 34 25 32 32 26 30 36 38 26 38 40 21 32 32 37 45 38 38 38 41 27 36 33 34 26 36 39 33 47 37 42 28 23 24 29 33 27 37 31 29 35 25 25 33 31 34 33 30 35 38 38 35 38 35 30 24 41 31 44 34 29 41 35 32 25 29 31 40 29 29 41 26 39 43 34 34 31 30 29 34 16 31 31 23 35 46 42 32 38 36 29 41 38 39 47 28 28 32 31 24 32 30 27 33 21 35 34 35 42 29 37 49 45 26 28 42 24 39 40 43 33 38 20 38 40 42 28 21 26 35 36 31 28 35 36 46 29 36 32 48 32 31 44 31 37 39 33 36 31 35 23 38 28 14 31 39 39 28 35 21 29 37 34 37 27 31 25 35 36 36 32 29 33 38 22 27 51 31 50 30 31 39 37 43 33 29 32 28 28 37 28 43 41 37 31 36 36 34 43 35 41 46 33 26 40 29 24 27 41 34 35 28 38 44 31 40 35 39 32 34 28 31 31 29 30 35 28 41 38 42 33 33 33 35 34 34 38 28 28 32 28 40 34 28 44 41 33 35 25 46 32 33 37 30 33 41 36 28 32 35 38 28 34 46 32 27 35 40 38 30 35 41 37 30 33 33 28 35 28 38 32 30 41 29 30 37 29 29 33 30 33 41 37 34 41 36 36 45 32 32 33 25 28 36 44 41 42 36 30 35 31 28 38 28 31 27 40 31 33 38 29 44 34 39 36 39 33 31 38 30 30 41 36 30 37 32 29 32 31 25 29 29 44 34 30 32 39 25 32 26 40 28 41 34 29 30 27 27 36 36 36 31 42 21 33 32 32 31 31 42 40 26 38 35 33 35 30 32 27 39 32 28 27 50 20 34 41 29 40 42 32 30 35 35 35 24 46 36 25 43 37 34 28 32 36 31 20 30 32 24 32 36 31 40 46 39 37 37 39 29 37 32 35 39 32 29 32 31 39 32 37 35 24 35 38 30 45 27 31 25 17 41 27 35 32 35 34 33 32 27 33 28 33 31 37 39 30 34 34 30 35 36 35 21 33 32 32 30 38 32 36 31 38 30 25 34 30 30 32 29 26 46 29 39 24 28 39 29 36 27 33 35 29 40 48 23 20 30 30 33 33 20 34 27 35 27 25 40 39 41 26 39 37 24 38 43 36 36 46 36 34 35 33 27 37 31 27 39 30 29 36 36 32 33 38 32 32 37 33 36 43 35 28 36 43 37 36 32 33 23 36 34 44 42 36 36 44 41 37 32 38 31 29 28 30 32 32 32 31 31 30 33 22 38 35 33 32 27 34 33 27 27 32 37 39 20 41 50 36 41 29 36 29 35 37 28 34 30 26 40 40 35 32 38 30 37 36 36 38 35 34 23 37 32 41 38 28 43 36 30 30 31 39 33 36 31 26 41 29 36 33 39 41 40 30 28 36 43 46 35 27 28 30 39 38 29 34 31 29 32 33 40 37 27 24 36 31 28 27 33 36 33 40 43 38 24 42 29 22 39 37 31 34 32 32 29 35 25 31 31 44 26 43 30 29 32 28 45 24 39 23 44 36 34 26 32 44 31 42 36 32 31 34 34 31 31 42 34 30 34 35 37 37 27 33 35 33 32 25 31 33 37 28 28 30 29 32 25 33 40 35 20 32 37 25 29 29 34 42 32 33 37 29 35 22 24 41 39 49 29 43 33 32 32 29 36 25 37 43 42 27 36 29 36 37 37 29 33 35 32 35 35 29 34 26 29 33 36 33 33 36 32 41 34 37 29 38 24 39 45 29 34 38 42 44 32 26 43 27 33 29 29 39 39 47 20 32 33 49 39 31 33 27 31 32 29 32 32 32 45 34 37 31 31 26 32 34 54 28 31 39 41 29 29 28 34 37 35 41 33 40 29 39 52 34 47 34 36 44 32 29 27 32 39 47 30 28 32 29 31 35 31 28 46 30 36 39 38 32 27 37 38 27 34 25 35 40 33 34 37 34 38 38 30 23 37 29 23 32 29 39 34 38 33 28 40 25 28 30 34 37 31 27 43 33 39 31 28 23 47 30 39 36 29 44 32 27 39 39 34 30 31 31 25 30 32 35 37 36 28 37 38 38 40 30 35 32 24 30 42 28 32 32 32 36 26 34 25 40 44 34 40 41 31 41 31 40 32 29 39 28 35 35 27 25 35 35 32 33 39 33 32 39 40 35 41 29 37 34 36 40 47 32 35 36 49 33 30 29 32 35 34 41 26 32 43 28 43 37 30 25 34 36 40 31 28 39 35 29 56 28 37 35 28 34 34 35 42 31 33 32 37 34 38 37 42 36 44 46 50 19 40 32 36 38 35 29 33 34 30 36 26 32 35 48 30 37 31 34 31 31 44 30 37 34 31 28 29 28 34 36 40 31 36 37 28 36 43 24 28 42 35 33 31 37 28 30 36 31 29 32 31 34 34 32 29 42 32 30 30 28 46 33 39 42 36 37 31 34 29 23 29 39 29 32 28 27 34 39 40 46 34 28 33 42 24 49 42 35 43 36 33 35 41 39 39 41 33 34 42 29 26 34 29 46 38 35 33 26 34 43 31 38 29 32 32 37 31 29 35 22 35 33 29 26 29 39 33 39 30 38 40 31 28 29 37 40 39 26 35 29 33 30 27 32 39 35 37 35 40 30 33 35 32 33 41 35 29 32 33 38 36 31 32 24 33 27 30 36 31 29 33 34 24 38 35 28 30 43 30 42 37 38 42 30 33 32 37 33 35 30 31 31 34 32 39 26 31 36 33 35 31 38 26 31 41 28 30 34 30 42 31 59 29 33 38 31 33 32 30 34 31 36 33 25 35 32 26 32 27 34 34 31 48 25 34 30 36 28 25 30 32 30 40 28 31 35 30 36 29 31 34 36 36 32 31 38 27 40 33 44 42 36 39 36 31 28 34 34 40 37 39 28 40 35 38 38 44 25 41 40 28 38 35 29 27 29 27 43 34 34 35 32 28 40 30 26 40 26 40 37 42 32 22 30 42 37 37 37 30 33 28 31 31 40 32 27 33 26 27 42 29 38 32 30 41 32 27 28 47 31 24 41 42 40 38 38 31 38 37 33 25 26 38 33 34 28 30 26 29 32 34 33 39 28 30 38 32 32 30 26 40 31 43 33 28 25 40 32 30 39 37 29 33 34 25 29 32 25 29 34 37 29 32 33 29 25 28 38 28 25 33 36 31 39 37 42 29 32 32 30 32 38 25 25 31 27 43 25 33 44 31 37 24 41 27 39 38 33 31 41 27 33 25 40 47 38 40 33 31 32 35 36 40 31 27 38 33 30 24 38 25 28 44 27 23 27 51 32 24 34 40 38 36 30 32 36 40 27 35 28 35 40 34 25 38 34 41 30 32 31 28 37 36 33 39 26 35 41 37 38 31 31 39 30 32 37 32 35 36 28 30 32 27 29 31 50 30 32 30 31 34 38 28 36 34 46 38 41 39 33 31 33 29 38 36 35 28 27 40 40 41 32 38 16 40 27 43 36 26 28 41 33 34 25 35 32 33 29 29 50 35 37 29 28 32 35 32 26 35 27 28 45 33 30 25 29 43 27 34 36 35 28 37 42 38 41 32 37 39 38 35 39 25 26 41 30 39 38 32 30 39 24 36 30 34 36 38 37 41 38 36 35 42 26 23 25 24 33 42 26 47 35 33 35 30 35 40 21 31 33 32 32 34 31 39 30 32 41 36 28 37 35 27 30 37 33 29 21 37 39 40 37 28 34 31 32 40 30 37 28 34 37 27 23 33 31 33 35 34 32 44 25 39 41 35 39 46 31 37 38 41 39 35 28 38 30 32 34 30 38 20 38 26 38 31 33 33 32 34 32 32 29 30 34 35 35 41 26 34 32 28 30 31 36 35 37 28 27 36 33 26 28 33 38 29 31 36 33 36 37 33 22 33 29 23 36 38 40 35 28 31 35 37 26 31 38 31 36 25 28 37 42 38 38 32 32 35 28 34 34 27 19 37 31 34 29 47 33 24 43 33 30 29 39 33 33 30 24 45 35 38 40 31 34 34 32 30 23 32 40 32 30 37 28 34 33 38 43 27 35 34 30 35 31 29 32 33 34 34 46 39 22 33 32 39 47 30 46 31 43 32 34 40 39 32 38 30 39 32 42 44 31 25 35 41 33 36 27 28 28 39 40 33 52 30 44 39 36 24 36 29 34 37 34 26 35 27 25 33 46 44 31 39 36 34 42 36 31 37 31 33 31 34 26 23 44 29 31 28 32 25 27 27 33 23 38 38 33 36 32 37 41 27 30 28 33 35 31 36 33 34 41 32 36 38 35 17 34 28 22 24 39 31 27 31 30 32 27 30 37 28 34 40 34 43 27 40 30 33 35 43 35 29 29 42 36 41 29 38 33 43 34 33 32 30 32 44 35 33 34 47 25 43 29 29 38 19 26 36 31 45 25 26 32 26 34 26 35 36 22 32 35 46 28 39 35 31 28 32 32 40 28 26 41 29 47 35 37 33 35 39 34 32 35 29 34 39 29 34 25 26 36 31 39 36 31 32 33 35 35 43 31 31 39 26 35 34 34 33 36 30 36 29 29 26 37 29 35 27 32 27 35 32 33 33 35 29 39 50 46 37 28 33 28 36 29 37 36 32 31 35 29 40 32 34 38 43 44 30 36 34 38 39 24 27 36 32 32 34 33 27 24 35 24 31 33 33 32 40 33 26 33 26 25 40 35 33 30 31 43 32 22 26 32 31 30 40 33 33 37 38 27 31 27 36 33 29 30 27 37 31 32 33 28 36 35 40 33 26 30 35 36 31 41 20 26 34 38 23 28 44 28 38 40 32 42 29 29 22 23 32 37 32 33 30 34 27 36 38 28 36 26 34 39 38 38 24 25 27 30 29 38 28 42 24 35 30 32 34 35 43 28 37 29 40 38 25 37 28 37 41 29 39 35 44 41 45 36 31 40 41 35 30 27 35 33 30 38 36 42 28 32 34 31 26 39 32 29 44 37 32 36 32 30 44 40 46 35 29 36 30 34 31 23 29 33 46 25 50 41 35 39 30 36 30 31 35 25 43 39 38 31 31 27 41 40 32 30 35 33 27 25 46 32 37 33 41 33 27 41 30 26 33 37 32 21 34 36 22 37 47 34 32 27 32 25 33 43 34 33 32 35 30 32 32 34 31 34 50 27 30 44 53 33 36 32 37 52 21 39 36 19 28 38 41 28 25 32 33 41 36 31 24 31 29 27 39 33 35 36 37 33 36 32 32 29 28 29 33 38 46 36 35 38 45 36 38 35 27 36 36 40 29 30 32 34 27 33 38 34 36 36 41 23 37 25 28 30 36 33 29 36 21 37 41 39 44 43 29 34 23 28 31 23 24 36 30 43 38 26 38 33 29 34 29 32 32 35 34 25 32 30 23 31 37 54 30 26 26 21 35 42 28 31 30 34 39 38 29 33 27 33 34 26 35 30 38 41 32 38 34 33 29 34 32 27 30 43 32 38 47 31 31 27 40 25 35 34 30 37 27 29 47 34 36 36 48 24 45 30 32 34 32 39 41 41 37 28 25 37 45 35 31 36 38 43 38 40 41 39 36 36 29 34 32 31 38 43 36 42 52 29 31 40 29 37 24 37 23 32 35 34 42 26 29 33 35 32 43 21 35 26 36 33 40 27 41 38 30 37 32 27 24 50 33 28 33 36 34 38 38 28 37 43 40 34 32 26 35 30 38 32 33 37 27 29 41 45 32 38 39 33 37 33 36 33 40 33 41 28 40 40 32 30 33 30 29 29 35 41 33 34 44 36 36 31 36 41 30 41 24 34 32 24 44 33 28 32 27 34 35 36 38 32 30 30 39 31 38 27 32 21 34 49 33 47 28 30 31 29 40 36 37 42 25 45 40 31 39 30 46 32 33 33 35 30 31 33 31 36 40 27 30 29 30 31 42 35 37 35 32 41 38 36 30 33 28 28 22 29 31 31 28 30 32 30 38 42 45 29 32 33 34 42 33 31 38 43 33 26 34 29 39 26 33 39 37 27 29 36 23 27 39 28 25 33 35 33 38 43 43 30 37 22 23 39 35 40 37 30 31 36 39 33 37 31 39 30 29 27 37 33 30 31 34 30 39 39 32 34 35 25 45 32 23 28 36 33 30 42 37 36 32 43 37 36 25 34 31 37 24 31 38 39 36 34 35 23 36 34 25 32 32 32 25 31 30 38 25 24 35 36 36 42 31 34 29 37 30 26 36 39 32 30 26 34 25 34 41 29 40 27 33 27 35 40 34 33 32 34 23 31 27 35 38 49 40 27 31 36 44 31 33 40 33 32 31 37 35 37 33 38 29 35 44 41 31 36 29 29 33 26 49 35 28 36 23 41 28 27 40 36 37 36 31 26 35 34 28 42 34 34 33 39 26 41 34 39 39 42 33 32 34 39 31 40 40 32 29 21 32 34 24 36 37 23 38 35 21 42 46 27 38 33 28 37 33 35 40 32 34 34 40 28 43 35 40 34 35 35 45 40 37 41 49 34 36 33 31 37 30 30 34 38 26 24 27 39 35 30 38 27 41 37 31 47 41 29 38 37 34 40 27 28 45 26 40 38 40 23 41 26 25 32 37 30 41 36 24 33 27 38 39 35 36 33 32 36 32 38 32 31 36 43 34 42 29 29 39 29 21 42 36 34 33 32 28 39 37 47 29 31 28 23 35 41 35 25 28 36 39 28 22 41 29 29 21 39 21 36 27 42 35 41 26 33 24 35 47 40 25 28 28 29 26 40 24 35 31 28 40 34 36 41 32 33 25 42 36 37 41 43 37 32 35 27 29 31 37 32 30 28 33 39 31 32 43 22 29 38 30 27 39 39 33 31 32 36 31 39 41 35 33 36 42 39 33 37 43 43 33 41 39 29 26 34 36 42 43 31 22 45 37 38 34 26 31 35 47 33 33 28 42 32 33 32 38 37 41 42 30 40 34 27 36 27 45 30 41 42 41 35 32 32 43 34 41 30 32 32 34 37 31 34 36 34 30 38 26 28 35 35 34 34 25 24 29 25 34 37 30 38 25 33 37 40 46 25 38 41 32 45 35 34 38 36 40 28 28 24 34 35 33 29 31 30 38 33 33 36 35 43 31 37 27 34 43 42 28 36 29 28 35 24 33 33 25 30 48 20 35 28 42 37 29 39 27 42 31 31 35 30 37 28 34 40 32 44 34 40 20 29 34 40 49 17 35 31 36 29 32 26 33 32 28 34 38 34 21 27 25 34 41 35 37 24 19 44 38 42 42 38 44 29 36 33 42 33 39 37 31 27 37 39 41 27 30 40 27 35 25 43 29 35 34 41 32 23 40 31 28 36 34 36 37 35 29 36 31 32 38 45 40 31 43 18 29 39 33 29 31 28 30 32 34 49 39 24 32 39 34 35 27 25 36 35 35 28 27 29 39 36 28 30 36 35 36 26 26 36 29 45 38 25 31 28 28 27 39 39 41 28 32 37 36 27 34 30 40 49 31 34 36 37 36 24 36 35 23 40 40 36 30 45 33 31 32 28 27 36 36 34 45 32 37 35 42 35 38 34 24 27 30 32 36 38 35 34 34 34 30 28 29 36 30 31 27 32 30 33 34 29 40 33 43 28 39 31 25 30 32 38 25 37 30 39 31 35 30 34 31 36 35 43 17 34 39 34 36 27 29 52 43 41 29 38 37 37 40 32 38 29 25 30 26 37 28 40 23 33 28 33 32 34 34 31 35 30 44 34 32 34 24 34 26 33 41 32 35 24 35 24 21 30 41 30 34 36 34 24 42 35 32 31 30 39 36 26 33 42 26 35 42 32 30 27 35 24 25 35 21 35 30 26 33 26 35 23 27 32 30 39 40 33 36 37 28 36 26 30 42 27 32 27 38 33 35 29 44 32 27 29 33 26 33 36 30 29 31 39 33 29 38 36 22 34 38 38 35 35 35 37 33 25 33 32 35 33 44 27 36 22 32 31 28 46 34 27 35 37 42 36 35 41 52 35 35 33 34 35 27 31 33 23 34 35 34 30 29 30 47 31 48 30 34 26 39 41 33 29 34 36 36 32 35 39 38 29 38 30 36 31 41 44 36 33 30 34 35 32 26 30 28 35 32 35 37 35 27 39 31 29 32 34 30 37 25 31 36 27 39 31 37 33 32 39 32 30 42 30 45 31 40 38 31 38 32 43 31 30 26 34 39 25 41 38 39 32 31 30 31 29 27 33 40 38 40 36 35 41 42 24 35 33 36 35 37 33 25 34 31 33 35 34 30 25 31 42 41 39 40 42 37 35 36 24 28 35 36 30 28 38 22 39 34 22 44 36 41 39 37 35 36 35 39 21 25 33 26 41 38 26 37 31 35 26 35 29 29 43 43 43 33 29 33 33 20 35 31 28 31 37 36 36 36 35 21 47 30 36 35 39 45 33 23 34 35 38 18 37 28 36 33 39 37 36 33 35 36 33 32 37 45 36 39 39 29 37 32 37 27 35 26 35 38 35 38 52 39 33 28 32 44 26 37 40 36 25 33 33 37 27 30 44 29 31 33 33 39 35 39 43 34 38 36 37 31 33 44 32 30 36 37 25 34 43 37 28 50 33 32 33 39 39 44 39 29 36 32 29 27 34 26 35 27 36 24 27 41 29 44 30 37 35 36 22 26 20 39 29 41 35 38 31 34 33 26 35 36 34 42 37 48 26 27 33 29 34 36 39 30 39 32 28 28 42 33 36 35 24 28 33 30 31 46 29 32 29 33 35 36 35 32 33 33 47 37 33 30 22 29 31 23 29 44 28 33 39 32 42 34 31 30 35 38 27 27 46 31 24 31 42 31 31 35 38 34 33 30 29 30 30 41 31 38 36 33 31 34 38 31 47 38 36 28 49 30 40 24 38 33 41 36 33 36 26 34 35 29 37 20 33 34 30 41 34 38 38 26 38 38 37 36 23 33 41 37 29 32 31 40 37 27 35 36 26 36 37 34 31 39 34 32 38 42 31 31 32 28 45 28 21 38 38 27 39 33 40 31 30 30 30 42 43 29 33 35 36 29 38 39 29 37 40 28 31 37 42 33 33 42 26 43 35 30 31 30 37 28 34 33 43 32 41 29 30 38 31 33 24 32 25 41 34 29 29 17 44 27 41 17 42 48 41 44 41 31 34 50 39 30 41 35 39 28 43 35 33 32 38 29 35 31 30 25 26 33 32 42 28 28 42 37 39 31 34 35 35 31 35 31 32 36 32 34 35 30 28 31 30 30 35 31 31 29 34 33 33 32 28 37 35 37 30 34 33 27 28 36 22 29 38 21 31 36 33 32 43 40 25 22 40 37 38 34 40 32 46 35 31 34 31 41 40 37 34 35 38 26 40 35 33 32 27 35 38 35 37 37 30 28 26 43 37 28 24 33 33 33 23 21 39 29 21 34 36 32 29 30 30 35 26 36 27 27 41 34 48 36 40 36 33 45 26 30 41 34 46 32 28 34 32 33 43 32 40 37 26 31 31 41 34 42 34 35 36 38 33 33 34 38 21 29 23 28 42 39 44 37 34 22 24 41 42 31 35 39 39 32 37 45 28 33 31 31 33 35 38 43 41 29 35 36 49 28 39 23 35 35 24 36 24 26 38 34 31 27 36 43 35 36 26 25 34 38 37 42 25 41 36 33 29 41 41 29 45 37 34 29 38 34 35 25 42 31 22 32 38 28 33 33 27 34 29 32 42 34 33 37 31 33 35 36 43 28 39 31 17 31 29 33 34 44 44 31 41 34 35 23 33 44 32 47 26 32 34 33 41 33 28 38 21 38 32 30 38 41 36 33 50 30 41 30 37 53 38 27 37 30 29 33 27 29 17 46 36 34 33 30 37 34 28 33 44 27 24 36 36 42 29 42 25 33 44 30 29 38 39 31 37 30 38 49 28 23 31 39 39 23 32 31 24 29 30 28 31 27 33 38 32 30 31 37 27 31 53 29 25 37 33 40 18 34 37 40 31 34 31 37 31 34 30 35 33 30 32 32 27 29 27 32 26 31 35 41 41 36 41 32 45 34 35 37 43 40 27 32 32 36 27 42 39 36 33 32 34 35 36 38 35 31 26 34 27 35 36 35 29 32 29 24 42 28 42 27 34 33 32 30 36 33 34 41 38 34 34 24 36 38 28 27 29 37 33 29 28 26 31 44 29 33 23 28 31 39 25 37 37 33 34 27 27 33 34 32 39 27 33 35 34 26 35 32 40 34 40 36 36 32 26 38 41 33 40 29 31 33 31 39 38 34 34 29 31 36 36 31 43 38 31 31 31 35 35 39 36 34 29 35 40 36 35 44 36 38 32 43 27 31 38 36 29 35 33 34 36 33 37 33 40 32 26 31 28 30 38 27 36 31 45 36 48 29 42 33 38 28 33 44 39 43 35 24 34 33 32 29 26 28 30 34 37 35 27 36 20 28 34 35 36 26 35 40 30 27 34 37 32 27 45 29 36 25 27 27 26 38 29 44 38 45 40 32 27 39 47 35 34 39 25 43 35 33 24 38 30 36 38 36 36 34 34 33 32 32 38 36 21 33 27 32 34 35 37 36 31 35 34 31 29 33 36 36 33 29 37 28 31 33 29 34 38 39 28 36 33 35 32 28 47 26 32 31 32 34 31 38 35 24 33 24 41 36 29 40 40 38 33 35 28 40 48 35 31 28 34 34 27 35 33 23 26 39 30 29 28 34 39 40 39 33 30 31 35 30 33 39 31 39 37 28 39 26 34 29 39 33 30 34 24 29 41 30 22 29 37 32 31 41 36 35 41 29 31 29 40 40 30 43 35 30 35 35 35 30 33 37 37 25 27 33 37 31 23 36 25 30 35 31 27 36 34 34 42 31 26 33 27 34 26 32 27 32 35 30 41 37 35 28 35 22 36 32 34 41 26 37 30 34 35 34 39 35 22 42 34 36 49 37 26 33 39 32 42 42 30 37 40 33 42 31 35 36 43 35 37 29 28 40 29 42 39 26 33 30 31 40 34 34 30 31 32 32 41 37 42 33 34 31 35 32 32 41 47 34 36 26 32 36 29 34 28 37 38 44 33 34 36 32 22 29 37 20 27 31 29 33 35 38 30 32 31 35 23 31 31 38 37 21 31 49 35 39 27 30 38 39 35 34 30 37 30 32 37 28 29 27 44 38 40 31 39 41 35 27 36 34 48 39 31 36 47 33 44 34 48 34 33 39 35 37 39 29 33 37 32 30 48 35 39 36 30 30 35 24 21 36 31 39 35 33 37 32 43 34 34 35 31 30 37 32 38 29 33 32 22 40 34 36 28 33 45 39 35 23 41 29 45 35 31 39 33 40 38 37 28 36 25 30 34 29 36 33 32 29 27 37 37 32 28 32 35 34 39 27 42 38 22 48 25 46 26 42 33 37 36 36 45 32 34 27 31 40 23 42 31 34 27 37 30 33 40 29 34 31 29 28 23 33 31 40 34 37 22 38 40 34 36 31 44 32 41 37 38 37 43 26 38 31 39 36 31 29 29 34 30 33 28 29 37 27 28 35 39 33 46 37 29 25 36 39 22 38 37 40 37 35 51 20 42 41 42 36 38 32 27 35 30 40 28 35 38 31 26 31 29 44 34 40 26 38 40 39 37 28 28 31 36 33 44 24 28 30 32 28 42 33 28 33 38 41 26 34 35 36 33 34 32 25 36 30 29 23 41 33 29 34 33 40 28 43 30 36 41 43 41 44 32 40 30 33 41 37 36 35 35 41 33 40 32 31 30 22 33 32 40 33 32 37 32 33 35 34 28 33 32 24 27 30 31 32 34 27 27 32 29 26 28 22 33 36 28 27 42 35 28 25 38 30 37 42 24 34 31 23 33 36 35 30 32 30 30 37 34 27 39 33 33 32 30 30 33 35 30 36 40 42 22 28 30 30 39 32 44 33 35 37 41 33 39 46 37 16 46 47 28 33 35 37 37 32 29 35 24 35 31 27 29 25 37 40 32 37 40 38 33 37 22 34 30 37 33 23 38 29 39 35 39 28 37 39 31 29 24 39 38 41 35 28 31 34 40 30 37 36 35 33 39 18 38 26 27 29 43 32 28 31 29 27 34 33 31 37 35 27 41 36 28 31 35 36 36 36 33 22 32 42 38 35 36 26 29 38 30 32 29 35 27 33 35 27 42 37 27 27 31 28 39 40 37 27 35 40 33 30 38 35 34 45 32 44 29 27 39 42 31 41 35 29 35 37 29 31 28 44 39 30 31 26 54 27 41 39 29 37 33 33 40 41 22 25 36 47 34 40 39 36 43 40 35 38 30 31 29 30 27 29 37 29 40 26 45 34 42 41 35 27 32 37 26 19 34 36 27 35 34 38 36 46 38 45 29 36 40 31 33 28 33 40 33 28 32 32 37 41 35 42 29 33 37 20 34 31 31 32 26 42 32 37 34 26 34 35 48 35 32 35 29 26 37 36 40 32 32 36 30 44 29 35 25 32 36 34 33 37 32 34 33 29 38 33 35 24 35 32 25 27 44 31 35 26 25 40 41 33 42 38 26 39 36 35 24 32 31 24 33 50 36 28 34 33 29 34 34 36 28 39 42 35 27 35 25 39 31 38 50 36 30 41 40 31 34 37 21 38 36 40 31 37 41 36 24 34 38 34 48 35 26 38 34 33 35 29 26 33 35 40 37 32 30 29 28 39 41 35 43 30 25 33 27 38 33 25 31 38 37 27 40 37 30 43 39 44 25 23 26 30 32 25 35 44 32 39 35 33 33 32 32 37 22 30 36 35 26 35 28 32 29 31 30 39 34 27 34 29 21 31 39 44 30 36 31 25 33 31 31 32 34 34 41 35 33 35 40 31 34 31 42 29 19 36 30 25 37 31 36 36 45 43 33 31 38 30 35 30 34 23 32 39 32 35 31 39 41 28 39 33 42 45 31 34 36 32 31 29 32 25 29 33 26 44 28 29 37 32 37 29 42 35 34 33 30 29 41 37 33 34 39 37 33 37 43 40 30 43 34 29 37 36 20 31 32 40 35 41 29 32 29 40 35 30 39 41 33 29 32 35 30 34 38 37 30 27 30 27 34 39 36 27 41 31 35 37 39 34 37 33 23 25 41 42 49 38 30 40 37 37 32 32 28 36 50 28 36 42 43 32 31 30 44 37 31 31 33 36 37 36 39 32 34 37 33 47 24 32 39 36 34 34 32 29 33 25 32 36 43 41 34 37 35 23 36 29 27 38 26 39 31 40 30 37 36 36 40 31 42 35 30 32 34 36 34 28 29 30 30 25 33 38 40 36 28 36 44 33 39 44 36 40 45 40 22 32 38 37 41 33 26 44 28 32 37 33 39 35 40 35 35 36 31 30 29 30 28 32 29 27 26 49 34 30 30 32 34 34 37 31 33 31 22 27 38 36 31 36 37 34 37 34 39 36 39 40 36 37 27 37 30 32 28 28 32 27 33 27 41 35 28 41 36 38 42 32 34 30 45 26 30 30 33 48 22 34 37 33 26 41 34 33 29 38 36 37 32 34 40 35 38 24 34 31 38 34 35 27 35 31 38 35 32 31 34 28 30 41 44 35 27 35 33 36 31 28 25 30 51 26 45 31 34 32 35 43 36 31 24 35 45 29 36 38 29 31 42 36 34 28 35 36 52 23 34 32 35 28 28 30 26 32 34 32 44 31 24 36 42 43 38 35 26 30 33 35 27 45 38 35 25 30 30 36 37 27 36 34 32 34 34 37 36 35 38 32 29 33 38 33 22 36 26 29 44 41 49 37 38 42 38 36 30 38 45 33 25 32 31 31 38 36 36 29 24 32 34 45 38 32 35 33 36 34 38 38 39 37 38 25 28 41 34 34 46 31 34 30 33 43 34 32 37 26 35 40 35 31 31 33 29 52 41 28 35 42 34 33 35 22 46 33 37 36 38 44 28 32 21 31 34 32 36 30 35 26 34 40 33 27 34 29 40 28 35 36 42 27 42 34 31 34 34 27 32 36 41 38 29 50 33 28 28 31 47 42 27 43 33 36 41 25 26 30 38 31 33 28 44 38 34 27 29 26 32 34 37 34 34 30 36 32 34 40 36 36 28 40 36 38 34 35 44 30 31 36 38 26 36 24 35 37 36 32 41 31 45 32 36 30 32 40 24 28 34 36 27 33 25 33 33 42 35 28 36 25 38 29 33 37 21 33 33 31 36 38 31 33 36 36 27 33 36 35 27 26 24 35 34 25 35 25 33 36 33 33 34 41 29 26 27 38 38 37 45 39 22 29 42 24 38 31 39 41 46 29 32 33 37 32 31 31 34 27 33 43 39 38 45 25 34 33 28 24 33 39 26 36 43 37 41 34 32 35 31 20 27 37 33 35 42 37 38 35 43 26 45 42 30 36 24 28 28 31 30 31 40 27 26 35 33 38 22 33 35 36 31 33 28 22 43 23 36 38 25 35 28 22 30 35 43 30 25 36 38 24 25 36 38 38 36 45 35 40 40 31 37 39 23 37 29 30 34 31 29 32 30 36 25 36 29 28 30 29 44 35 28 31 37 44 31 30 32 36 37 37 33 28 44 33 34 39 31 47 30 25 25 29 29 29 41 38 37 27 25 33 36 34 32 27 27 28 36 38 43 35 35 17 29 35 34 39 34 42 38 27 31 25 26 22 34 47 32 35 27 26 34 33 32 31 38 35 40 31 34 42 40 40 33 36 41 36 23 32 36 31 32 24 38 40 26 34 34 28 36 42 35 31 44 30 45 42 40 30 28 31 30 27 26 47 29 42 30 20 30 39 41 26 48 28 29 39 42 32 37 44 30 35 37 27 24 39 31 37 28 54 33 30 32 38 40 41 35 27 27 23 37 43 29 35 34 29 35 43 43 31 30 31 34 30 34 21 31 30 32 36 34 31 41 23 33 27 29 30 41 28 32 36 38 31 35 25 23 35 44 35 45 32 30 30 37 35 35 25 28 28 50 33 34 36 37 26 40 36 29 35 30 27 36 37 27 38 35 43 28 33 30 43 31 35 33 30 33 30 32 38 30 34 24 26 29 38 36 28 46 26 42 37 38 37 32 36 41 32 30 39 42 42 19 35 35 31 31 42 30 47 33 30 25 32 35 34 29 40 29 28 31 41 35 31 31 26 34 33 37 34 42 26 40 38 39 33 40 34 41 35 38 37 25 31 32 32 32 34 30 34 40 30 37 23 39 35 34 25 30 37 30 34 30 25 24 43 42 32 30 26 36 19 32 35 42 33 27 34 34 34 34 41 41 33 46 33 33 36 33 35 27 31 41 35 35 39 28 38 35 47 25 26 31 37 29 35 43 37 27 30 32 36 42 41 29 31 37 40 45 40 44 25 40 33 37 39 35 35 33 41 39 31 31 30 28 23 35 48 31 35 30 27 41 31 39 28 26 29 29 36 36 24 42 31 33 30 36 27 20 42 35 36 36 32 38 30 29 31 27 29 45 42 30 31 37 36 31 29 43 39 45 50 35 33 42 28 35 42 36 25 33 28 38 41 33 28 41 30 24 43 29 31 28 30 35 34 30 27 23 30 28 33 27 46 27 35 51 30 28 28 29 42 32 27 36 39 35 33 21 36 31 35 28 33 31 34 24 33 44 31 34 33 31 33 32 29 42 35 35 33 40 37 39 33 37 36 40 24 38 28 25 37 33 26 30 35 32 31 26 36 28 30 31 34 43 45 29 30 33 50 35 27 35 38 28 34 33 49 39 39 42 43 45 30 40 39 33 33 37 35 39 41 30 35 29 35 35 32 36 25 31 40 30 27 44 37 34 36 32 30 28 37 33 31 30 38 36 33 46 35 36 22 28 32 24 28 32 44 27 41 32 28 35 33 35 30 30 24 38 38 38 24 25 37 28 31 23 29 38 25 16 37 34 33 24 28 31 33 26 28 22 31 38 32 26 37 36 36 35 35 41 38 31 33 32 41 34 44 37 38 30 31 32 37 32 42 31 39 31 34 20 38 37 34 24 36 37 27 42 34 36 36 41 27 37 42 34 30 36 28 42 32 36 28 30 29 32 31 35 46 42 24 36 29 31 35 26 26 36 40 33 39 32 32 30 37 40 33 40 36 31 41 32 39 33 29 31 33 25 34 19 38 30 37 36 35 41 29 38 34 31 42 34 33 35 44 29 42 35 39 37 36 35 39 23 30 30 28 26 35 31 35 25 40 34 33 41 27 30 41 33 39 29 29 22 32 33 32 26 30 39 36 23 44 30 34 23 29 24 32 32 25 39 31 32 33 30 36 32 39 41 28 27 33 33 33 30 38 42 26 26 30 29 30 31 39 33 32 30 30 33 22 34 35 23 26 27 38 37 29 39 26 27 35 30 35 33 35 22 21 40 32 32 24 32 29 49 20 38 32 32 40 22 32 29 43 37 33 21 31 31 29 37 29 37 32 32 31 37 30 25 40 32 36 38 26 38 27 35 27 26 38 47 41 27 36 36 34 29 33 40 34 41 33 34 31 13 30 30 43 29 28 37 36 32 31 29 28 40 30 27 23 39 38 33 34 41 31 30 24 36 36 28 30 32 32 43 39 45 44 31 36 33 31 29 26 31 38 33 32 33 32 34 41 28 41 40 31 31 26 24 24 35 31 35 33 42 31 36 27 38 48 26 34 32 33 34 29 30 34 29 37 27 32 31 38 29 39 41 36 22 29 40 23 41 33 36 20 45 33 32 30 23 29 41 23 29 30 27 22 37 27 35 28 26 33 29 29 28 36 34 39 33 34 30 35 20 24 29 31 26 42 46 33 28 33 33 24 32 31 43 32 31 31 42 35 24 30 42 40 20 33 35 39 32 29 41 43 31 34 36 29 29 30 30 41 36 30 33 38 34 27 43 35 36 33 26 32 25 40 30 34 28 39 35 28 34 41 41 34 40 29 37 35 27 31 39 39 55 36 31 29 37 31 37 23 33 49 29 37 36 32 35 35 39 32 24 31 26 32 29 32 35 27 24 32 34 31 33 35 21 33 30 45 39 28 33 31 39 36 30 37 39 40 31 26 40 33 36 27 37 39 24 39 27 20 25 32 34 27 35 28 25 38 40 28 35 34 36 40 33 33 23 29 33 38 38 28 38 30 33 36 30 38 38 33 42 38 31 38 24 30 31 19 45 38 38 33 41 35 37 39 33 38 29 30 30 36 29 29 34 36 25 31 41 31 35 37 35 28 39 39 37 47 37 37 36 28 33 36 38 45 36 33 37 29 48 31 30 37 41 33 37 33 32 39 26 33 36 22 46 28 28 36 36 34 26 29 34 41 33 38 35 37 56 34 42 32 39 37 28 33 35 33 36 32 33 35 30 36 32 36 40 28 31 34 37 31 36 29 38 36 35 27 35 37 32 47 34 42 30 32 31 37 30 32 30 41 30 33 36 29 26 34 38 37 43 32 40 31 28 38 40 40 31 33 34 34 32 32 36 32 37 31 32 33 29 32 23 31 26 26 28 34 31 27 34 35 23 34 28 37 36 31 41 32 36 31 28 43 33 37 32 36 21 35 32 33 34 37 35 32 37 43 34 35 27 28 36 29 37 43 33 37 35 34 44 29 28 37 31 34 23 37 45 33 33 31 34 34 31 40 34 32 28 35 34 31 31 31 41 37 38 31 36 22 45 33 30 47 30 34 39 20 36 38 33 27 34 46 35 34 29 29 34 37 36 24 39 45 22 39 32 33 33 37 34 33 30 33 29 28 41 39 44 34 34 42 27 34 28 32 31 44 23 26 34 23 31 31 29 31 41 36 33 27 41 42 29 35 37 37 31 48 35 31 27 28 31 47 35 33 44 21 42 42 39 32 38 35 24 24 33 36 36 37 23 32 29 25 34 26 38 46 31 40 38 33 28 34 36 33 35 38 29 33 27 39 35 35 30 36 33 33 27 29 32 29 47 40 37 36 39 37 42 38 27 45 43 35 25 36 29 51 29 30 32 29 40 27 35 37 38 41 31 32 36 40 32 33 31 24 33 37 40 30 31 29 28 32 30 37 38 33 35 31 42 42 31 30 44 43 48 43 25 26 35 30 30 36 45 36 48 37 29 32 36 28 26 39 45 33 36 35 32 28 32 46 39 40 27 32 41 46 42 41 35 28 31 42 33 29 37 46 29 27 37 23 37 37 42 32 25 36 25 28 38 41 26 36 27 31 22 42 29 32 34 37 28 32 31 32 26 23 34 23 31 33 45 41 42 36 34 30 36 35 29 49 23 34 35 24 43 31 45 44 41 27 39 29 30 35 31 32 32 41 33 43 31 30 35 47 34 30 31 50 31 43 32 34 34 27 37 27 32 38 42 30 42 28 42 30 30 33 39 27 27 39 34 33 23 24 34 32 34 31 32 28 45 24 37 23 37 33 40 30 37 38 22 41 31 42 37 35 29 31 43 29 31 34 39 36 37 35 25 28 43 30 18 37 24 31 29 37 30 35 36 32 40 32 46 35 34 37 44 22 38 34 30 27 35 30 31 27 26 39 42 37 35 29 28 34 32 37 28 29 32 33 35 40 49 37 35 36 34 43 44 36 29 36 32 34 35 30 46 34 31 34 33 36 23 35 34 41 46 39 27 39 33 33 35 34 38 46 36 39 45 34 34 25 31 33 26 30 34 28 31 35 36 42 30 30 40 46 34 27 29 28 31 27 26 33 39 28 34 31 33 35 37 30 35 33 33 37 27 30 34 30 36 36 37 36 48 36 30 38 22 30 38 36 31 35 29 39 33 31 38 40 36 32 42 26 29 31 36 29 34 33 36 32 33 33 27 40 38 40 36 30 46 38 42 32 35 41 34 30 35 43 27 23 33 29 33 34 36 40 35 42 40 28 37 29 45 36 25 36 29 31 35 39 44 31 42 28 30 30 36 44 35 34 27 45 41 29 38 28 30 37 33 44 28 39 36 42 38 31 31 27 39 40 30 31 39 36 39 38 24 40 34 36 32 37 35 36 30 28 39 21 29 38 29 39 28 35 35 26 32 31 34 23 36 34 31 43 27 30 40 27 28 23 36 30 29 34 26 33 18 45 36 29 35 31 33 38 34 33 37 34 30 32 33 33 31 31 24 40 30 36 24 32 41 32 40 32 42 37 35 37 35 50 42 36 37 30 29 42 38 33 29 41 39 31 34 33 25 40 30 37 35 31 34 28 43 29 31 42 31 44 28 39 41 38 38 42 32 39 29 35 36 32 33 34 36 36 39 31 31 29 36 30 37 29 28 34 42 34 40 20 30 40 34 26 30 23 36 33 28 33 34 33 34 39 22 29 30 33 36 44 33 28 27 30 37 21 36 45 28 29 30 41 42 29 33 41 39 38 33 38 37 36 34 39 30 39 44 45 33 37 36 31 33 34 32 34 28 29 30 33 34 33 42 31 31 25 32 35 31 37 30 31 34 27 40 32 38 39 25 33 37 34 28 28 30 30 34 18 27 29 35 37 32 40 36 37 37 31 33 32 35 35 46 35 38 30 32 41 42 24 31 44 38 27 24 27 41 39 31 31 43 29 33 34 37 24 25 30 32 42 46 46 25 36 34 46 30 31 40 35</t>
+  </si>
+  <si>
+    <t>JSU(-12.483373219959379, 13.719511637486729, -249.51706416143332, 466.7702798103676)</t>
+  </si>
+  <si>
+    <t>159 347 186 223 275 129 159 157 230 256 228 273 244 317 249 141 146 293 256 308 169 284 254 308 284 174 230 156 258 191 235 232 312 238 263 244 185 279 208 245 268 192 297 242 244 230 381 205 260 282 296 286 244 173 260 184 208 229 70 183 247 216 208 257 172 157 225 192 229 172 311 281 241 254 166 248 247 318 223 157 223 315 252 266 171 263 176 311 212 148 274 342 191 160 268 163 286 201 306 204 195 168 232 231 189 245 225 230 101 162 209 178 213 256 249 169 275 251 185 269 279 206 221 241 264 243 237 223 299 197 228 276 201 213 332 211 409 213 292 308 180 255 217 258 272 179 275 316 175 265 271 250 217 322 198 273 149 314 243 287 229 244 199 266 201 309 283 241 306 249 177 267 270 337 302 260 265 233 250 269 283 222 235 184 338 236 106 217 297 286 157 284 235 183 165 289 285 300 366 260 169 260 119 226 217 248 249 206 245 235 243 240 264 183 230 163 264 222 216 273 328 237 261 231 186 230 187 271 272 192 228 180 141 168 221 293 193 247 213 275 209 292 272 195 208 211 154 263 272 132 239 194 270 193 238 362 276 257 234 191 144 160 336 217 205 232 281 244 239 201 285 202 220 211 167 232 244 202 210 213 234 208 252 227 306 221 177 217 223 204 213 202 299 269 228 275 281 218 292 179 275 191 239 227 257 217 291 196 112 159 202 249 200 216 162 241 264 239 232 219 237 301 287 225 289 314 169 193 253 303 212 184 224 266 258 224 245 204 250 256 227 262 203 216 233 274 208 231 349 186 212 175 271 289 142 268 195 346 348 224 187 287 208 199 276 183 239 216 182 180 200 176 200 318 263 150 332 178 124 173 249 202 323 188 209 193 341 286 228 188 270 288 234 281 100 332 210 202 208 198 200 300 330 192 294 224 288 245 115 253 288 360 320 287 203 205 215 326 241 215 262 251 209 198 226 235 245 198 217 255 232 176 241 181 213 249 265 368 257 322 217 236 245 152 326 244 351 229 192 244 220 262 202 218 212 294 311 250 171 234 253 209 299 271 296 203 218 274 158 219 298 285 257 174 186 215 244 308 254 271 212 276 216 242 204 176 263 300 161 290 213 250 206 195 132 216 133 207 245 171 283 198 222 244 352 215 229 173 240 337 233 251 213 202 338 273 366 262 290 164 280 197 265 194 190 217 199 271 223 263 303 176 111 254 320 219 348 279 236 261 325 276 256 284 172 163 237 274 250 208 231 225 191 218 246 199 225 268 248 291 299 304 253 291 274 276 219 199 353 258 212 168 289 268 205 209 231 156 263 261 250 101 259 171 306 272 276 182 185 279 253 319 175 220 238 306 334 245 306 204 234 263 234 354 241 331 373 178 321 217 174 224 258 212 290 221 232 185 304 220 268 391 265 287 174 221 239 305 321 284 198 264 273 229 206 222 249 229 289 212 296 196 123 138 255 213 219 227 305 256 281 303 205 267 250 274 262 294 219 263 229 188 206 298 280 198 182 359 238 233 281 209 316 246 214 253 264 280 210 305 252 291 313 150 284 291 292 267 310 172 287 273 231 304 218 250 226 301 220 250 244 236 217 218 239 246 215 250 318 278 273 281 173 207 248 203 258 297 306 280 224 252 247 364 231 342 188 263 182 218 258 185 235 248 276 244 276 281 225 222 167 188 259 233 327 264 189 244 237 282 281 262 199 205 278 230 235 211 308 296 282 269 207 176 342 268 273 338 225 260 398 230 234 208 237 251 219 220 229 220 268 250 184 275 153 181 208 192 230 142 251 118 297 207 213 263 298 197 281 217 282 302 129 162 307 219 235 319 208 281 227 255 251 261 240 211 200 261 253 260 193 210 179 276 213 249 215 338 213 157 260 234 192 248 210 165 188 251 198 261 237 221 173 274 183 276 208 197 146 220 281 230 203 230 216 195 226 261 123 271 131 259 267 270 224 247 257 205 256 225 309 308 294 143 219 170 194 190 257 292 291 236 215 180 216 244 184 248 280 308 226 294 253 160 270 302 226 259 246 248 228 160 264 299 230 227 160 266 284 242 244 257 154 320 356 270 320 281 250 233 320 272 213 261 242 263 225 118 195 222 231 187 192 289 257 234 310 223 248 187 209 243 172 298 317 235 150 220 162 303 259 316 209 186 219 262 247 262 268 313 263 219 228 165 223 213 223 260 191 209 212 247 246 324 234 198 217 146 290 254 224 268 248 137 231 158 282 255 292 279 209 256 224 381 304 262 208 207 247 258 183 141 219 245 252 249 322 251 297 218 191 189 236 202 161 203 304 310 185 199 256 217 207 216 256 269 236 314 238 149 259 203 195 241 201 231 271 253 314 304 301 185 280 204 248 207 346 278 139 270 262 233 178 242 202 204 215 243 270 178 295 248 165 199 222 322 233 275 197 250 266 286 144 220 312 253 273 265 244 260 169 301 176 248 182 277 155 294 196 202 176 317 306 194 320 216 335 137 197 186 230 252 236 211 185 272 221 224 266 184 257 297 236 187 166 207 262 273 273 239 177 232 246 319 298 167 318 301 264 220 195 262 152 269 238 192 222 262 331 229 244 360 157 258 273 240 168 253 233 194 254 152 297 241 185 184 244 209 182 293 182 318 249 205 238 287 283 280 152 180 320 263 211 221 196 266 179 122 291 226 256 153 303 278 200 213 317 180 206 340 219 254 240 184 242 136 292 230 237 141 350 183 240 214 254 226 268 330 259 177 285 299 280 198 294 226 316 207 236 296 184 328 213 207 275 242 228 244 244 312 260 201 341 221 155 217 349 253 280 264 233 286 146 252 213 257 249 333 220 295 299 214 233 210 244 257 301 178 242 147 290 258 191 249 221 318 240 273 214 224 255 259 227 319 253 344 241 319 295 284 180 254 209 275 247 198 231 201 296 277 260 273 234 256 248 313 283 327 200 201 236 297 166 244 235 297 231 258 237 234 223 216 173 312 252 309 218 225 247 176 231 262 159 232 238 286 160 242 260 165 257 264 266 315 275 294 243 296 182 245 182 290 155 215 266 273 307 340 260 239 151 184 223 197 192 237 174 195 192 189 187 284 198 218 254 174 285 250 227 276 234 285 255 154 291 255 267 192 223 226 255 163 200 208 207 222 218 254 275 157 281 268 239 224 221 234 219 239 136 201 223 210 238 317 298 216 244 241 220 279 292 213 367 139 194 279 182 164 278 177 180 250 148 278 171 290 300 237 279 381 387 162 243 277 208 313 312 252 189 210 139 267 287 288 248 149 252 278 239 221 217 250 289 351 218 281 237 315 240 228 269 210 320 227 230 247 139 220 161 234 210 76 250 195 266 174 183 129 251 249 286 236 185 205 162 264 267 251 200 168 225 294 180 209 317 141 393 218 241 295 298 251 237 227 221 220 261 240 216 235 288 242 189 247 305 270 324 205 289 253 300 171 317 195 188 238 277 238 220 108 248 357 235 334 251 343 248 285 206 264 250 209 248 280 224 244 315 275 195 217 255 193 271 307 240 220 222 261 179 260 215 262 234 343 203 290 201 404 233 285 230 216 206 319 221 249 277 258 340 205 204 299 228 173 225 302 305 175 198 257 289 200 237 210 188 307 164 310 239 191 353 181 192 219 188 178 227 230 285 259 263 208 304 207 305 242 240 257 285 159 152 271 247 293 200 297 185 249 194 203 239 220 234 215 296 256 192 291 174 275 244 266 245 296 252 254 325 202 148 343 226 191 245 195 157 203 278 220 264 222 306 218 227 204 335 210 244 173 256 217 276 272 224 218 161 199 250 275 230 209 297 191 287 229 188 230 225 318 296 147 275 179 243 255 192 265 245 301 262 188 232 280 157 176 296 261 318 346 233 193 256 259 258 159 304 216 151 334 272 242 217 257 327 256 119 251 240 160 250 214 173 201 315 193 181 243 262 153 312 253 207 212 242 207 264 255 305 236 226 274 172 241 294 232 304 230 190 212 115 364 170 249 273 226 307 224 185 159 215 182 279 234 301 251 177 181 215 180 187 276 257 132 224 257 223 192 239 242 251 200 232 237 164 268 198 172 236 204 164 312 190 253 194 178 231 229 272 226 226 270 240 325 269 171 106 249 238 236 232 199 202 223 236 242 192 273 283 240 185 282 303 139 263 350 276 216 288 280 234 208 210 264 200 194 195 279 222 186 214 252 231 195 288 191 321 272 301 248 248 259 211 256 329 250 232 258 229 138 253 200 265 281 266 269 272 304 233 270 324 198 148 217 227 184 248 226 210 229 183 231 149 272 251 239 237 183 244 231 221 204 273 248 292 114 271 364 256 275 144 284 188 228 255 180 263 262 192 335 287 277 268 332 187 246 352 311 251 156 236 109 235 177 336 280 190 318 211 285 269 229 270 167 266 225 215 242 168 209 254 210 283 289 184 241 269 317 230 295 221 186 258 265 270 209 256 269 225 172 190 276 331 192 199 268 200 235 226 217 272 211 278 295 200 193 311 206 181 212 198 187 237 268 245 202 242 223 247 195 354 174 259 222 191 215 172 259 178 252 139 345 219 231 175 279 353 232 247 287 314 181 228 232 229 241 230 209 207 223 220 267 168 212 283 215 213 235 148 206 195 296 197 237 264 200 265 160 197 261 197 165 238 218 171 225 202 310 304 261 294 238 246 258 137 212 240 246 351 224 280 281 239 161 225 246 207 353 263 268 236 288 207 289 258 285 205 239 182 245 255 208 172 271 204 183 235 274 255 265 211 226 271 215 225 248 351 104 230 326 178 258 231 330 291 240 163 305 160 298 244 210 286 262 309 101 240 227 324 295 203 216 186 253 218 239 182 214 223 251 314 220 196 227 220 164 270 387 182 216 308 336 170 242 197 245 210 263 224 215 317 230 264 323 228 338 217 255 345 191 238 177 241 253 386 220 231 216 187 175 203 311 251 309 233 270 341 330 240 264 262 220 178 259 233 194 221 238 193 253 215 321 258 184 119 224 201 149 272 269 256 223 266 244 274 310 199 191 204 265 285 171 201 301 241 285 242 215 150 278 195 319 274 175 265 202 222 308 264 158 227 231 288 97 158 248 305 315 245 197 251 274 277 292 182 283 269 171 159 307 196 151 325 187 300 130 254 147 289 316 210 257 275 243 301 182 297 226 191 333 176 258 241 270 97 254 289 271 182 233 202 244 261 240 271 265 179 287 331 293 291 376 264 248 231 328 234 211 224 242 260 243 319 186 246 312 203 309 307 228 145 192 250 282 185 170 247 240 178 333 200 240 185 193 253 198 250 260 199 222 224 234 278 273 214 330 240 317 326 380 104 266 202 301 261 244 284 258 219 245 231 214 222 221 291 212 262 188 240 203 270 254 218 272 221 210 174 147 241 177 248 276 188 241 297 141 278 269 157 166 248 313 261 267 274 171 210 218 215 233 200 208 238 246 220 234 333 288 250 226 194 226 307 240 316 276 272 263 185 183 169 154 278 213 225 198 181 300 234 302 326 247 226 229 286 226 220 344 262 240 284 289 263 246 326 246 306 200 215 329 262 123 159 213 352 274 206 241 174 252 345 237 227 198 242 252 304 290 181 198 177 282 228 192 211 195 310 284 281 289 274 313 157 162 233 255 241 261 167 248 232 203 198 176 265 183 273 263 258 279 178 238 233 232 230 300 272 170 199 233 276 281 238 269 156 226 203 202 198 198 215 240 223 163 311 245 182 236 250 259 286 276 271 384 187 230 220 265 232 231 242 268 207 280 263 319 208 201 257 250 197 174 280 162 236 240 192 180 268 178 189 242 354 202 227 213 198 237 255 184 231 220 280 245 175 314 214 172 230 215 198 220 227 264 202 260 204 302 177 197 194 247 147 277 192 254 246 232 214 188 284 244 275 196 192 197 333 221 335 225 277 333 312 345 249 270 150 230 263 333 273 329 192 221 255 210 299 313 177 284 261 219 226 228 233 194 235 242 279 219 291 217 260 228 305 262 145 331 246 265 286 340 176 130 192 260 265 277 231 189 240 184 195 209 293 216 223 175 186 176 325 239 225 189 211 307 236 209 233 344 263 222 278 303 234 181 241 179 286 276 206 235 199 244 243 279 157 203 202 209 256 186 221 237 177 190 253 220 204 164 220 313 224 322 195 177 219 236 127 205 223 227 232 224 250 159 225 235 186 231 173 289 161 224 280 252 198 154 362 216 177 250 296 181 273 300 333 210 235 262 212 226 178 111 237 220 211 259 246 232 235 228 225 202 261 233 245 274 229 207 281 203 278 191 290 255 291 251 273 222 233 220 205 309 271 200 291 245 202 180 266 152 194 325 195 160 190 313 234 176 210 281 224 252 191 267 282 296 225 204 245 277 323 229 163 249 297 241 306 240 299 174 286 280 179 313 203 248 244 254 287 244 202 187 228 199 264 248 268 265 158 218 162 152 191 241 329 229 206 159 231 228 252 195 276 225 321 249 378 256 175 220 191 220 262 203 292 193 180 266 225 307 185 274 136 309 189 302 191 196 210 302 237 212 142 226 236 166 223 168 326 216 243 213 237 277 274 255 179 209 228 188 378 238 251 195 223 341 214 276 262 188 190 234 276 287 345 276 244 303 253 219 284 212 183 306 193 319 250 198 248 254 195 261 186 245 310 306 224 251 290 278 233 257 199 204 232 132 246 251 191 403 235 250 244 169 286 281 132 259 246 248 268 310 186 209 253 248 334 297 179 267 230 188 237 241 264 259 161 246 298 269 296 202 218 235 257 263 264 234 178 317 200 242 165 247 225 216 266 239 189 238 204 338 278 254 273 282 249 281 232 297 237 233 217 290 218 217 233 214 287 105 267 249 194 201 240 255 117 160 298 256 161 170 247 355 278 220 130 280 213 250 297 210 192 233 183 236 200 238 212 167 190 301 252 162 213 310 224 212 263 251 133 209 251 184 234 225 267 172 191 196 233 256 193 244 265 244 277 87 226 216 269 284 259 288 245 204 186 207 208 201 104 263 165 223 193 336 229 190 322 232 224 271 285 263 236 199 207 336 210 249 274 161 198 214 164 199 173 197 230 269 182 233 217 227 217 246 329 177 234 233 215 225 192 223 261 253 241 244 339 242 230 248 205 282 360 223 257 230 333 211 260 265 254 276 282 220 341 259 266 364 230 225 276 287 221 276 213 214 202 297 289 243 346 210 313 209 236 195 310 229 233 285 203 192 205 174 206 274 339 310 240 272 286 283 312 277 194 221 222 243 210 297 196 214 293 168 262 195 225 167 171 175 231 125 289 256 219 215 186 283 268 218 224 189 218 234 190 263 213 278 262 236 257 232 224 108 244 196 122 138 291 235 177 171 138 219 213 266 279 171 272 276 240 318 190 252 180 282 210 254 237 175 234 320 256 349 155 291 230 306 280 200 213 246 153 261 219 246 257 289 197 294 210 167 247 177 225 269 234 287 211 205 190 189 148 207 257 306 213 247 279 322 230 296 195 212 188 267 201 300 199 156 288 257 334 224 227 236 249 299 271 179 188 175 235 306 211 238 151 192 316 193 275 286 194 178 189 236 165 331 244 198 292 87 216 293 228 248 309 231 214 251 239 170 258 203 300 132 283 184 263 213 249 259 287 184 258 299 328 246 209 261 249 254 162 255 313 197 195 210 232 295 236 258 234 306 279 203 252 214 289 247 170 215 230 206 197 249 222 247 167 300 205 290 274 303 205 198 215 172 184 194 177 243 266 231 279 219 237 154 166 188 254 223 223 289 285 199 264 182 235 261 214 236 213 228 203 250 244 199 221 214 216 229 261 271 241 190 248 230 262 246 301 161 238 200 299 155 197 286 237 341 294 201 306 250 202 204 152 266 299 293 193 282 292 199 222 208 189 209 226 239 286 200 283 155 176 168 270 228 246 227 320 137 202 164 212 229 262 320 234 181 190 261 227 184 292 209 298 299 215 289 268 208 223 328 251 213 271 233 232 198 187 196 278 287 253 259 283 184 195 267 236 216 281 273 209 371 311 224 289 230 255 293 305 219 235 210 259 199 283 210 191 204 214 282 206 237 292 270 197 200 347 151 257 203 178 384 262 238 225 202 205 249 289 230 201 238 240 177 211 316 212 235 265 307 234 217 311 229 181 230 197 138 189 252 213 175 315 319 239 233 210 227 223 277 290 202 218 147 236 172 242 198 256 189 253 281 222 207 290 340 235 187 216 324 381 136 241 207 117 196 260 272 238 188 265 250 226 264 260 179 279 197 215 235 298 292 219 199 257 189 176 265 219 206 233 195 220 344 230 180 285 248 314 294 249 189 260 298 247 224 168 222 204 191 230 278 207 222 215 246 166 312 175 176 226 274 158 225 235 149 298 290 249 288 264 241 259 149 234 257 181 150 192 170 375 282 136 249 281 204 242 230 273 196 239 205 168 225 208 185 239 251 287 234 188 195 112 252 241 177 208 253 242 248 259 230 207 239 241 245 153 262 201 306 245 256 279 222 244 202 271 294 189 158 244 226 237 235 201 235 202 308 198 297 284 220 217 231 181 305 261 233 244 325 189 330 297 216 266 217 264 277 283 214 214 151 274 304 231 225 234 294 304 279 276 284 262 324 220 210 213 217 268 254 302 307 284 329 211 209 260 192 271 199 333 146 266 185 257 264 176 188 253 231 196 277 203 246 180 264 255 293 169 288 230 240 269 235 182 204 294 250 240 277 273 270 311 266 208 199 275 300 269 207 185 219 220 277 261 211 270 167 181 289 382 218 268 252 160 198 244 230 228 299 271 316 195 281 270 270 263 208 190 192 152 245 291 202 212 295 170 227 149 248 281 207 191 199 269 296 178 277 255 223 184 172 281 274 303 253 228 219 272 310 273 251 205 237 98 268 303 277 301 165 140 196 150 295 284 242 308 200 248 301 180 281 190 345 228 243 248 278 233 210 304 244 229 260 133 195 182 244 235 294 213 333 252 180 275 261 241 195 284 209 219 203 181 224 263 212 185 248 210 277 255 266 221 243 230 166 268 285 256 256 295 286 187 228 215 212 226 214 304 234 162 195 266 232 174 288 218 140 240 209 195 182 224 321 278 198 138 210 292 234 290 281 212 230 214 267 209 253 270 284 257 183 163 262 250 233 217 224 215 293 300 234 273 235 222 285 210 162 192 183 218 173 291 247 255 200 352 293 298 141 305 253 255 146 184 242 209 220 258 303 185 196 293 200 253 241 216 192 218 205 242 185 137 273 226 264 280 262 205 224 234 241 199 233 358 260 215 155 274 263 250 214 212 292 190 179 185 324 202 225 281 231 248 169 202 222 233 258 340 296 193 262 269 274 221 276 265 211 225 239 302 265 235 207 218 179 192 272 262 234 293 196 203 196 204 298 246 218 257 152 290 213 181 200 249 210 294 194 218 310 265 245 320 213 200 234 219 164 198 270 285 271 290 228 248 285 301 245 286 258 221 225 192 297 235 142 236 259 196 234 285 118 236 214 177 268 233 218 227 237 195 332 265 260 251 152 172 268 258 309 202 242 306 308 286 315 289 311 263 289 264 181 339 222 221 210 267 108 204 164 309 263 261 253 161 266 217 260 305 330 199 306 222 275 243 189 229 266 138 260 269 327 234 226 176 175 240 290 247 235 260 175 189 186 301 261 216 302 218 179 301 184 262 217 250 259 237 272 230 230 158 300 141 150 281 233 215 220 197 219 252 325 316 187 291 165 174 255 280 231 221 225 236 238 205 127 288 261 145 151 267 156 302 218 360 198 240 128 256 113 232 333 349 171 221 191 208 165 310 174 243 193 172 315 202 210 270 263 202 184 331 244 263 292 310 264 251 239 185 220 227 249 228 229 155 214 302 273 258 288 193 189 267 214 288 237 228 243 274 209 292 234 289 273 255 207 267 299 308 230 225 294 260 188 243 253 213 205 250 197 306 288 221 183 334 264 309 223 164 244 258 253 230 246 230 290 267 230 242 334 215 296 314 227 243 215 208 228 187 264 210 301 324 282 264 233 224 279 207 263 229 184 187 253 278 233 202 230 240 228 264 155 213 272 319 220 239 176 130 208 156 273 140 244 255 204 268 253 307 259 230 294 364 213 320 248 285 337 225 307 211 220 172 274 257 204 202 238 201 261 262 235 253 339 311 211 303 203 252 231 375 202 260 218 166 234 131 213 250 190 182 270 163 274 178 335 303 227 283 170 274 200 234 248 220 207 190 247 252 247 271 255 305 186 194 119 269 283 104 214 297 280 241 293 186 184 222 204 257 281 275 179 180 192 245 241 237 265 123 117 272 214 291 280 307 339 198 301 216 330 235 240 240 209 165 214 300 226 138 160 215 235 273 140 281 197 227 241 251 182 174 283 261 170 218 272 204 226 275 237 268 268 210 360 310 256 259 302 171 247 266 222 201 222 200 230 246 242 344 305 169 262 271 204 211 173 167 249 264 244 211 258 310 171 165 218 139 238 183 243 214 236 233 209 263 207 185 217 172 219 187 290 276 271 144 225 256 246 172 216 225 260 369 219 258 231 318 165 234 283 212 149 276 193 242 214 341 249 236 235 223 185 261 240 224 289 179 290 213 272 230 264 220 220 153 235 266 266 217 263 211 293 312 256 199 238 243 216 208 209 248 222 210 225 193 372 262 301 211 238 199 190 175 216 255 186 271 236 280 247 235 217 307 266 271 228 237 147 190 287 248 283 230 229 261 341 258 198 274 229 251 273 237 218 204 138 171 224 220 215 358 190 257 161 235 294 286 177 239 212 235 233 280 218 239 194 194 207 211 242 281 290 213 207 181 136 223 191 206 268 238 206 138 321 152 213 223 204 263 281 137 275 315 211 248 290 273 219 212 197 258 160 266 151 234 225 220 224 144 279 149 189 244 268 338 384 204 245 239 203 283 161 186 243 177 217 200 297 207 234 233 256 202 208 214 236 163 193 242 171 219 236 314 230 179 265 202 169 308 297 213 175 301 335 242 203 172 254 218 234 229 363 168 261 165 225 223 137 282 262 169 240 181 353 312 258 288 247 301 199 251 278 274 171 191 204 146 260 196 231 241 198 189 361 200 385 172 213 175 296 219 295 238 244 346 191 193 244 288 221 207 321 236 240 228 226 332 264 231 174 236 250 235 231 240 192 253 218 255 292 245 197 243 190 202 194 175 222 254 195 181 258 133 279 258 204 266 223 215 234 226 281 231 304 224 253 287 273 244 246 375 229 252 206 202 291 205 253 250 289 197 185 209 231 215 231 261 281 202 238 236 208 352 326 207 216 203 223 244 280 243 215 182 259 210 265 266 245 169 230 293 315 247 279 251 321 261 295 205 197 239 319 188 185 246 133 273 251 166 412 224 303 284 234 248 303 264 262 184 120 227 274 295 286 231 269 264 288 175 277 186 211 307 376 306 229 211 218 237 174 257 170 196 208 276 218 299 257 291 150 245 264 237 226 269 341 320 194 298 205 261 117 297 215 243 249 291 205 198 282 248 273 250 186 213 329 324 295 259 211 227 183 288 172 243 151 259 273 277 277 347 206 212 251 249 329 148 285 289 285 233 217 214 253 176 213 303 114 178 303 199 279 261 349 297 271 244 256 265 266 198 339 237 244 230 223 209 229 245 294 164 248 272 190 230 253 310 322 307 191 258 165 207 153 255 157 232 254 264 195 226 342 182 205 213 250 247 198 173 230 170 208 186 237 216 251 280 219 275 193 212 292 224 292 278 261 200 220 243 174 260 304 207 231 252 226 189 196 255 249 307 269 152 147 180 237 179 267 152 238 196 269 252 323 274 272 188 190 295 277 208 233 160 219 229 178 268 250 178 212 236 225 321 253 194 232 206 247 237 173 323 210 144 209 300 230 207 244 233 216 233 194 146 203 239 310 231 289 319 209 240 201 381 238 300 301 274 173 380 179 271 183 274 249 271 249 245 251 209 251 247 213 281 111 257 245 242 298 238 346 262 212 234 287 247 200 133 224 193 248 162 302 285 268 278 164 260 277 168 229 269 239 245 182 238 256 276 364 224 242 214 165 249 232 158 217 266 155 245 236 264 240 217 186 210 214 338 222 157 203 252 203 336 249 204 227 257 263 269 204 293 199 241 254 145 296 279 191 277 194 248 188 292 220 261 152 288 213 255 271 294 212 180 232 165 357 264 194 231 116 309 179 329 129 221 333 269 303 217 219 190 328 284 198 388 203 278 214 304 227 273 168 193 171 240 230 147 196 186 256 199 227 232 149 193 186 234 155 245 212 219 216 158 193 216 214 292 257 231 245 211 227 203 249 256 176 191 233 285 225 234 256 266 302 182 282 191 228 178 231 185 261 155 180 297 127 216 259 223 251 332 265 178 152 280 245 313 241 230 277 313 277 170 192 231 251 323 289 197 304 292 193 257 282 194 290 205 250 258 239 253 229 174 196 177 315 268 174 149 214 183 251 182 151 202 224 194 245 278 194 206 240 168 229 182 234 201 152 271 239 330 206 257 264 226 249 151 204 292 260 315 216 211 215 286 199 248 268 327 253 219 207 215 307 205 316 251 282 279 283 274 233 301 318 142 155 169 261 271 208 280 321 231 123 147 253 224 174 284 300 304 247 229 305 237 260 255 175 267 189 253 308 231 228 283 212 417 162 300 100 258 307 232 232 197 237 327 248 190 239 302 326 221 263 213 172 212 271 236 305 149 244 252 228 137 252 291 267 301 295 202 226 278 271 236 188 208 222 114 235 256 200 243 193 194 248 252 248 315 170 239 272 239 249 285 229 320 203 302 174 108 204 187 323 270 298 244 184 353 235 215 151 277 232 197 276 177 159 227 205 277 222 184 249 171 311 194 220 334 237 257 259 277 206 254 229 253 370 257 201 216 173 189 295 173 186 156 258 297 214 218 214 307 280 180 216 306 155 121 218 328 342 221 298 202 223 331 241 166 229 228 191 302 200 300 292 180 163 172 255 267 208 268 231 157 229 195 228 207 179 184 228 245 267 249 240 220 264 361 181 195 309 211 275 153 266 296 310 230 284 213 296 278 219 275 252 223 232 257 251 169 130 143 236 208 223 291 291 342 268 287 203 262 218 232 256 287 280 200 220 257 280 221 326 245 229 231 302 227 240 265 292 263 199 187 241 200 227 116 326 237 225 207 126 335 198 261 212 324 211 216 194 317 276 231 334 268 223 229 187 204 282 196 178 226 288 264 204 250 162 251 275 185 217 199 196 196 240 231 270 210 223 188 207 169 278 235 237 280 217 267 223 246 212 190 185 258 269 253 289 213 196 226 295 292 272 284 208 247 237 167 254 257 267 173 195 260 227 262 196 357 241 138 212 232 212 277 252 296 162 237 185 294 300 239 344 261 254 265 384 173 296 291 253 192 270 294 258 238 271 243 256 230 212 228 188 210 242 268 152 280 226 338 239 343 189 257 260 273 236 241 272 245 251 323 132 215 237 165 219 183 197 156 180 229 239 188 310 148 157 205 247 249 160 256 263 206 146 228 307 225 206 259 248 229 223 272 232 168 290 244 319 301 277 240 193 151 288 351 214 213 300 171 311 198 296 156 182 251 243 224 254 268 222 214 265 252 263 278 220 184 163 214 179 180 205 318 296 213 256 224 220 250 229 266 268 219 226 178 152 199 236 225 243 294 292 227 233 255 229 247 211 282 167 206 252 240 246 220 299 217 155 250 177 255 227 223 215 248 267 155 288 222 291 309 238 195 203 267 231 169 272 218 136 197 300 219 174 238 210 327 303 232 213 173 235 251 219 279 253 284 269 275 196 218 151 236 185 279 203 215 216 213 211 284 226 146 209 228 194 173 230 266 233 237 222 173 225 257 223 228 290 222 167 283 245 230 230 218 232 288 177 219 264 252 278 168 334 159 214 301 253 220 207 279 246 309 218 190 253 187 236 164 270 157 194 158 167 212 253 214 226 266 126 232 244 209 335 232 221 195 262 351 287 239 169 143 283 285 253 322 278 169 241 328 210 376 299 152 243 305 227 295 156 264 218 293 240 271 224 250 283 247 247 268 189 255 263 208 247 245 211 185 200 184 236 312 243 308 248 303 227 201 191 223 316 342 285 282 226 208 235 224 216 236 291 265 288 182 244 209 224 120 229 202 140 275 225 169 217 290 343 206 225 213 256 199 277 206 212 192 116 195 241 203 247 233 233 265 280 256 241 194 303 204 184 294 181 163 216 378 278 342 254 229 347 243 139 267 263 343 280 272 295 356 219 353 270 304 242 174 325 193 230 285 177 178 199 261 178 232 231 288 304 263 199 345 167 143 235 197 258 237 206 169 266 208 318 178 277 184 184 272 268 258 180 229 265 189 316 213 218 220 245 286 216 197 216 199 228 276 296 222 233 278 302 234 322 161 254 155 257 270 194 336 243 257 253 185 303 258 305 184 166 228 211 290 177 296 250 103 264 168 303 206 293 282 278 233 236 369 194 243 207 165 294 133 270 213 200 189 287 246 218 231 214 263 271 292 239 179 262 228 312 300 273 202 260 245 210 220 144 301 273 270 277 150 240 281 225 232 257 257 229 170 218 205 265 225 228 225 220 331 228 135 238 273 334 238 234 200 212 255 282 194 238 305 254 279 229 360 128 278 199 263 286 219 240 240 274 195 267 252 198 204 207 190 250 230 198 270 376 187 248 339 337 292 224 192 277 205 238 293 198 244 189 217 158 232 238 168 219 236 187 144 197 273 214 204 242 201 182 191 285 165 198 331 219 196 242 230 237 157 310 161 234 322 277 350 305 218 237 213 255 256 285 252 280 262 286 211 305 261 172 268 159 258 259 335 195 226 282 221 201 203 246 200 234 250 146 192 200 218 219 195 175 242 195 208 175 214 170 188 191 198 189 209 227 187 156 290 236 249 283 184 192 220 224 247 252 236 194 249 124 267 182 250 241 276 236 283 215 187 158 211 249 243 216 268 360 175 222 235 222 317 244 318 253 262 217 362 289 314 267 216 110 269 348 264 286 284 275 301 269 190 306 165 256 208 169 213 202 222 303 219 245 264 353 210 270 170 240 280 278 267 168 270 228 256 253 227 187 318 268 194 171 162 256 300 317 208 170 223 254 258 215 261 291 275 199 275 150 315 179 137 231 230 189 174 209 235 232 184 241 198 210 244 254 259 238 211 220 226 240 308 285 248 201 235 325 282 291 284 195 221 244 262 283 159 218 225 299 266 181 254 202 238 171 195 241 293 256 285 179 183 190 252 212 228 270 191 284 233 282 180 96 304 256 214 220 202 190 248 273 141 198 179 276 231 285 267 224 309 187 279 312 250 287 240 227 268 304 181 161 262 246 227 305 308 270 306 328 201 274 238 216 215 183 156 205 213 225 246 178 288 231 307 235 349 186 264 242 194 149 212 204 216 263 228 250 301 281 253 278 154 296 227 233 195 157 234 296 276 214 200 241 252 318 272 261 234 244 233 150 210 213 214 264 188 287 268 219 230 161 272 214 392 217 209 254 207 198 270 277 211 221 309 240 194 277 204 262 178 236 251 266 258 272 228 234 237 188 274 213 307 117 296 226 152 234 242 252 279 180 186 323 268 252 316 355 224 179 268 279 172 235 271 176 261 340 229 227 179 289 200 279 197 285 228 225 290 254 176 250 220 193 198 233 327 242 181 331 303 179 201 252 168 341 280 267 193 286 301 247 186 226 258 278 331 165 140 272 225 237 341 220 193 201 264 256 212 263 184 191 150 360 326 248 233 217 181 238 232 256 312 172 166 248 203 170 264 332 237 277 242 333 198 180 179 232 231 177 269 340 252 298 253 225 169 217 225 261 150 119 214 244 211 244 142 204 233 246 267 232 224 233 175 244 231 220 249 291 184 219 218 136 250 193 222 202 290 237 306 248 255 233 260 241 244 225 329 208 158 289 162 132 318 211 240 193 269 270 209 218 323 189 218 232 279 186 211 278 233 256 205 243 285 150 340 223 281 298 253 281 271 247 211 237 238 155 106 167 221 335 139 179 260 267 166 257 268 199 233 259 224 222 304 277 218 197 285 233 231 256 288 259 290 319 287 213 283 290 174 199 242 295 255 265 206 237 264 294 236 232 232 299 254 238 176 310 208 290 306 253 233 198 213 199 191 221 193 163 300 258 257 271 221 241 200 230 146 186 297 355 287 327 203 274 228 206 232 186 221 258 290 186 191 387 306 221 214 239 286 294 208 249 213 221 271 272 318 278 242 298 310 339 174 236 239 234 265 180 259 260 220 188 195 245 257 275 218 279 237 177 249 136 181 282 161 304 246 285 222 230 258 250 274 220 256 232 264 209 265 157 246 212 185 215 197 239 192 294 307 318 206 268 297 137 285 308 239 283 286 339 191 238 257 249 261 238 178 319 195 238 265 237 334 256 302 261 248 282 255 158 226 212 204 204 249 172 173 265 231 167 213 267 240 297 265 191 211 274 154 123 272 258 279 186 266 222 294 245 279 230 243 238 272 287 189 282 186 175 161 255 241 155 209 174 262 251 198 296 243 230 263 296 192 192 360 209 200 213 241 334 136 172 227 262 209 290 230 230 262 246 257 277 248 250 253 196 252 197 179 196 284 272 185 213 199 244 242 272 156 190 205 182 263 333 337 321 151 234 269 323 247 205 208 210 331 183 335 223 195 224 222 307 245 227 175 222 274 223 262 247 235 191 186 228 184 162 228 253 400 194 230 290 264 196 211 266 189 246 258 234 242 250 181 229 272 299 307 249 142 255 240 214 225 291 145 255 189 232 232 289 313 276 286 162 220 243 205 295 226 215 260 310 257 241 240 235 227 229 187 261 304 240 313 259 251 329 263 309 173 210 290 258 199 225 187 199 247 284 302 187 151 161 240 249 294 214 306 207 242 256 222 248 291 194 268 156 213 299 265 222 323 206 252 179 260 300 216 196 319 193 264 318 268 185 223 242 182 278 270 250 246 307 297 263 233 174 357 285 303 298 248 299 189 191 194 213 210 240 284 228 214 173 196 354 238 166 224 196 257 214 199 271 258 191 268 221 195 252 310 239 194 326 268 261 203 318 241 271 176 229 295 309 199 322 182 241 198 177 163 174 286 238 222 196 306 228 250 192 202 163 205 253 289 224 243 237 210 309 193 272 272 213 212 297 251 221 347 285 304 152 205 235 303 236 233 185 231 278 291 246 244 189 301 229 222 152 220 269 152 220 283 259 230 271 193 281 252 334 233 151 254 192 249 189 295 227 177 252 191 231 253 237 193 251 311 215 192 238 204 344 172 160 152 281 210 172 189 146 209 274 233 260 241 300 246 156 215 313 276 226 282 294 139 181 275 183 203 275 304 281 235 237 195 224 198 243 250 217 175 167 210 248 302 267 299 150 206 210 194 197 144 294 155 226 269 282 255 221 245 302 264 119 217 305 219 277 265 261 198 288 284 178 321 229 197 299 182 191 248 248 256 309 222 207 127 318 229 244 187 176 198 222 227 292 194 157 343 238 214 267 195 289 241 150 219 307 218 204 182 287 306 208 152 273 253 213 231 266 245 255 258 260 294 241 134 310 254 167 214 219 237 225 217 318 179 212 188 200 202 208 303 267 169 227 306 326 186 228 209 218 329 223 270 253 191 209 231 247 224 304 174 165 189 237 187 247 273 207 230 269 168 211 228 192 243 279 166 187 242 267 341 234 229 156 224 297 227 310 197 307 307 231 214 166 162 221 226 402 247 257 232 192 240 231 209 253 234 260 267 246 287 314 213 283 261 235 316 296 164 216 329 286 154 146 228 324 187 251 274 210 224 214 283 157 278 144 295 253 305 267 224 202 128 211 164 306 179 297 221 121 201 314 259 180 333 209 217 204 281 283 245 285 185 216 236 196 181 254 206 318 193 279 250 251 242 168 271 296 317 150 204 119 297 283 146 283 232 250 234 274 311 188 162 182 286 176 234 151 165 230 239 241 258 207 261 139 223 207 221 226 284 252 253 307 279 231 256 202 155 228 305 239 261 212 195 213 221 198 248 198 213 220 353 232 253 248 280 168 340 237 185 253 219 194 262 296 191 304 225 363 186 232 153 264 236 189 191 204 293 243 243 225 192 256 185 159 188 307 259 194 247 189 274 304 262 228 241 280 291 230 207 266 248 314 138 325 243 215 214 274 186 314 231 228 159 127 259 188 170 241 242 206 274 293 274 251 183 153 299 221 194 275 292 174 232 266 289 192 269 215 299 208 265 218 165 240 240 249 295 291 218 245 284 203 185 166 325 270 216 203 226 252 202 292 267 154 179 323 294 234 233 170 256 102 220 310 361 209 170 213 230 240 213 366 281 200 383 272 208 270 268 261 212 187 316 269 309 287 215 137 293 376 218 185 218 311 197 247 255 283 187 204 176 210 255 264 167 133 289 315 311 228 347 198 289 244 238 241 230 267 284 282 331 262 175 282 204 177 135 264 211 261 195 125 265 192 280 216 151 209 209 253 223 119 232 232 206 221 277 183 132 301 249 318 255 214 232 262 173 241 205 204 257 290 220 235 256 278 199 235 274 300 292 316</t>
+  </si>
+  <si>
+    <t>MIE(0.23612229798824302, 2.0275857531780046, -7.416629845754311e-32, 1.4883209143272573)</t>
+  </si>
+  <si>
+    <t>0 2 2 1 1 1 0 3 1 1 2 0 1 4 1 0 0 4 2 1 2 2 2 2 1 0 1 1 2 2 0 1 0 1 3 2 2 2 2 0 2 0 1 1 1 0 1 2 2 2 2 1 0 2 1 2 0 0 2 1 1 1 1 1 3 1 2 2 1 1 3 3 2 3 0 1 2 4 0 1 0 3 2 1 1 2 0 4 0 0 1 2 0 0 2 1 2 3 1 0 0 0 1 2 2 1 1 2 0 0 1 0 2 1 1 1 0 1 1 3 3 1 2 1 2 2 1 2 3 0 1 1 2 1 4 1 3 0 1 2 2 1 1 3 0 2 1 3 1 2 1 1 1 3 1 1 0 2 3 2 1 1 1 1 0 1 0 3 1 2 0 3 3 4 2 0 1 1 3 3 1 3 5 0 2 2 2 1 2 1 0 2 3 0 0 3 1 2 3 0 1 3 0 1 1 1 1 1 2 2 0 1 1 1 2 0 2 0 1 2 2 1 3 2 1 1 0 2 1 2 0 0 0 0 1 2 2 2 3 1 2 1 2 0 0 2 0 2 2 2 3 1 1 2 1 2 0 0 2 0 1 1 2 0 2 1 1 0 1 2 1 1 2 2 0 0 1 3 3 0 1 1 0 1 0 2 1 1 3 2 0 0 0 1 0 1 3 2 2 0 3 0 3 2 4 1 3 1 1 0 1 3 1 1 0 0 1 3 2 1 1 2 0 1 1 0 1 1 3 3 2 1 1 0 1 2 1 3 0 0 1 1 1 1 2 3 0 4 3 0 1 0 1 0 0 0 1 2 2 1 1 1 1 0 3 2 0 1 1 1 1 1 1 4 2 1 2 1 0 0 2 1 3 1 1 1 1 2 1 1 2 3 1 0 2 0 1 2 1 0 1 1 2 2 1 2 2 2 0 1 1 4 3 4 1 0 0 3 3 0 1 2 1 1 2 1 2 0 1 2 1 0 1 0 2 2 0 3 1 1 0 0 1 0 3 1 1 1 0 1 1 1 1 2 2 1 3 0 1 2 1 2 5 0 2 1 1 1 1 0 2 1 1 0 2 1 1 1 0 1 1 4 0 1 1 2 1 4 1 2 1 2 2 1 1 3 2 1 2 1 1 1 2 3 2 3 0 2 1 2 3 1 1 2 3 1 2 2 1 0 1 0 1 1 2 2 1 2 0 1 3 1 1 1 3 0 3 1 0 2 2 2 2 1 0 1 2 1 4 1 2 1 0 1 3 1 0 1 2 1 3 2 2 2 2 2 1 2 3 2 1 1 2 1 0 2 1 0 0 3 1 0 0 1 2 2 2 2 1 0 1 2 1 0 3 1 2 1 2 1 2 1 1 2 1 3 3 1 2 0 1 1 2 1 4 0 2 1 3 1 3 1 2 3 1 2 1 1 1 2 1 1 2 1 1 2 1 0 1 0 3 1 0 1 2 1 1 4 0 1 0 2 3 0 2 0 2 0 1 0 2 2 1 3 1 2 1 1 0 0 2 0 1 1 1 1 2 1 2 1 2 1 2 2 1 1 3 1 2 0 2 3 0 3 0 1 1 1 1 0 2 2 1 1 1 1 1 1 2 1 0 2 0 1 2 1 1 1 3 1 1 1 0 3 0 4 1 1 2 2 0 2 0 1 3 2 3 1 2 1 0 1 3 2 1 1 1 0 2 2 1 1 0 1 2 1 0 3 2 1 0 2 0 1 2 1 2 2 0 0 3 3 3 0 0 1 3 2 0 0 2 1 0 1 1 1 1 1 2 0 2 1 2 2 2 1 2 1 3 2 2 2 1 1 1 1 0 2 0 2 0 1 1 1 3 0 1 1 1 1 0 0 0 2 0 3 2 0 0 0 2 1 1 0 1 0 2 2 1 1 1 2 0 1 2 3 1 1 2 1 0 2 1 0 2 0 2 2 2 2 1 1 1 2 2 2 0 2 1 1 0 1 1 1 1 1 0 1 1 2 0 1 2 2 1 1 5 1 2 1 1 1 1 0 3 2 2 1 3 0 1 1 1 1 1 2 0 1 2 3 1 2 1 2 3 1 2 0 2 2 4 0 2 0 1 1 0 1 1 1 0 0 2 3 2 0 0 0 2 2 1 0 0 2 2 2 0 2 0 1 1 0 0 0 2 2 1 2 1 3 1 2 0 2 1 1 0 1 1 0 2 1 0 2 0 0 3 0 2 0 0 3 0 0 1 2 2 2 0 1 1 1 2 3 1 5 1 1 2 2 0 1 2 1 1 1 2 2 3 1 1 0 1 1 1 1 3 4 1 1 1 3 1 0 0 2 3 2 1 2 1 2 1 2 1 1 3 2 4 2 1 0 3 0 2 2 2 3 0 2 2 2 2 2 0 2 2 0 1 0 1 1 0 2 2 2 1 1 0 0 1 1 1 1 2 1 1 1 2 4 1 3 0 1 1 2 1 1 2 0 2 2 1 0 0 1 5 0 2 1 0 1 2 1 2 0 3 1 2 0 2 0 2 1 0 1 1 4 1 0 2 1 2 1 1 2 1 2 2 0 1 2 0 2 1 1 1 1 3 1 0 3 1 0 2 0 1 0 2 1 2 0 3 1 2 0 2 2 1 0 1 2 1 2 0 1 2 1 0 1 2 3 1 1 2 2 1 1 3 1 2 0 1 1 0 2 1 2 0 1 2 1 3 2 1 1 2 1 3 0 2 0 0 1 2 1 0 2 2 0 2 1 0 0 2 0 2 0 0 2 0 2 0 1 2 0 0 2 2 2 1 0 3 1 0 1 1 2 0 3 2 3 0 0 2 1 1 1 1 2 2 1 1 1 2 4 0 1 1 2 2 0 0 3 1 1 0 3 1 0 1 1 2 0 1 3 2 2 1 0 0 0 1 2 1 1 1 2 4 2 2 2 2 1 1 1 3 3 0 1 0 2 1 0 2 2 1 2 1 1 1 2 3 1 0 2 0 1 2 1 0 2 0 1 2 1 0 2 1 1 2 2 1 3 1 1 2 1 1 2 1 1 0 2 1 0 2 2 1 1 0 2 2 1 1 1 2 1 1 1 1 3 1 0 3 2 2 2 0 2 1 1 1 0 3 1 1 0 2 1 1 0 2 2 0 2 1 1 2 0 1 1 1 1 3 1 1 1 2 2 1 0 2 2 0 1 0 4 0 2 2 0 5 0 0 2 0 1 2 0 2 1 1 2 0 1 5 2 1 3 4 1 0 2 1 3 1 2 0 2 2 2 2 0 3 1 2 0 1 1 2 0 2 1 2 2 2 1 0 2 0 1 0 0 1 1 0 1 0 2 1 0 0 0 1 1 2 0 1 1 1 0 1 0 1 3 0 2 0 1 2 1 1 1 0 0 1 0 2 0 2 2 0 2 1 3 1 3 0 1 1 0 1 2 2 1 1 0 0 2 3 3 1 2 0 1 2 0 0 0 2 2 0 2 1 2 1 1 1 2 2 1 0 3 2 3 2 2 0 1 3 1 2 2 1 3 1 1 1 2 1 3 1 2 0 3 3 3 1 1 1 0 0 1 1 2 2 0 2 0 2 1 1 3 0 1 2 0 0 3 2 1 0 0 0 4 1 3 2 2 4 1 0 1 1 2 2 2 2 2 1 1 1 0 1 1 1 1 1 1 0 1 1 0 0 3 0 0 1 0 2 0 0 2 1 1 0 2 0 1 2 2 2 3 2 2 2 1 1 2 2 2 0 0 0 1 1 0 1 0 1 0 1 1 2 1 2 0 1 1 2 1 2 1 1 1 2 0 1 2 1 2 2 0 0 2 0 3 1 2 2 1 1 2 1 2 0 3 4 0 2 1 2 1 2 1 4 2 0 3 0 2 1 0 2 1 1 2 1 0 1 1 3 2 0 1 0 0 0 0 0 0 0 0 1 1 3 0 2 2 0 1 1 1 4 0 2 2 0 2 0 1 0 1 4 1 1 1 0 2 0 1 2 0 2 2 1 1 2 0 2 1 3 1 1 1 0 1 1 1 0 2 1 1 1 1 1 2 1 1 1 0 0 2 0 0 2 2 1 1 0 1 0 1 0 3 3 1 2 3 1 2 0 1 1 1 2 2 1 1 0 2 2 2 0 1 2 3 1 0 2 0 1 3 1 1 3 2 1 2 0 0 0 1 2 1 0 1 0 1 1 1 1 3 3 2 2 1 1 1 1 0 4 2 1 0 1 1 2 2 2 2 3 1 1 3 1 1 3 2 1 0 1 1 1 1 0 1 3 1 0 0 2 2 1 1 2 2 1 1 4 2 2 1 2 0 1 0 1 0 0 2 0 1 2 1 0 2 2 2 0 2 2 1 0 3 1 1 2 0 2 0 4 1 0 1 0 1 1 2 1 1 0 0 2 1 0 0 2 0 1 1 1 1 2 3 1 0 1 2 3 3 1 1 1 3 2 3 1 3 1 2 1 2 1 3 1 1 1 2 1 1 0 2 1 2 0 0 2 1 1 3 2 2 3 0 2 1 1 1 0 2 0 0 1 1 0 1 0 4 1 0 2 2 2 1 0 1 3 0 0 0 2 1 1 3 2 0 2 2 0 1 1 1 0 1 1 2 0 1 1 0 1 1 2 1 0 1 2 1 1 2 1 0 1 3 2 2 2 1 2 3 2 0 1 0 3 1 1 2 3 1 1 4 1 4 2 4 2 0 2 2 0 0 2 1 1 1 2 1 1 1 1 2 1 2 2 2 1 1 2 1 2 3 3 0 1 4 1 3 1 4 1 0 0 2 1 1 2 0 4 1 1 0 1 1 2 1 1 2 2 2 2 1 2 0 0 1 1 1 2 2 1 0 1 2 2 1 1 1 0 3 1 1 1 2 1 2 2 0 0 1 2 0 1 2 3 0 1 1 2 2 3 2 1 2 1 1 2 1 1 0 3 2 2 3 1 2 2 2 3 1 1 1 0 3 1 2 2 1 0 1 2 1 1 0 1 4 0 2 1 0 2 1 0 1 0 2 2 0 1 2 1 1 1 2 0 2 1 0 3 1 1 2 1 1 1 0 1 2 0 1 1 1 0 1 0 2 1 0 3 3 0 4 2 0 1 0 1 0 1 2 0 0 2 0 2 1 0 2 1 2 0 1 1 0 2 1 1 1 2 2 0 2 1 3 1 0 1 0 1 1 1 1 1 2 4 3 1 3 0 2 1 2 1 0 0 1 1 2 1 1 1 0 1 2 0 1 0 2 1 1 2 0 2 2 1 1 2 0 1 1 0 1 1 1 2 1 0 0 2 1 1 3 0 3 3 2 1 3 0 3 1 0 2 1 0 2 1 1 3 1 2 2 2 1 2 2 1 1 1 1 1 2 3 1 2 0 0 0 0 0 1 0 1 0 1 2 1 2 2 0 2 1 2 1 1 0 2 0 2 2 1 2 4 2 1 2 1 0 2 1 2 1 3 1 0 1 1 0 1 3 2 2 0 2 1 0 3 2 2 2 3 2 0 2 1 1 3 2 1 1 3 1 1 2 0 1 2 0 0 0 2 2 2 1 2 0 2 2 1 0 0 0 4 2 3 0 1 2 1 2 0 1 1 3 0 3 2 2 0 0 3 1 0 1 0 3 2 2 1 1 1 0 2 0 2 0 0 1 0 1 1 2 2 1 0 1 2 0 1 2 3 0 2 1 0 0 1 2 1 0 2 2 1 1 1 2 4 2 2 3 1 1 3 0 1 1 3 3 1 3 2 2 2 1 0 1 1 1 2 0 3 1 0 2 1 2 0 3 1 1 2 1 1 3 2 1 2 1 1 0 1 1 1 2 4 1 1 1 2 1 2 1 1 1 1 0 1 2 0 2 1 1 2 1 1 0 1 2 2 1 1 0 2 0 1 1 1 2 2 1 0 3 1 1 2 2 1 3 1 2 1 1 1 1 1 3 1 2 1 1 2 1 1 1 1 0 4 1 0 0 1 2 0 1 1 1 4 3 0 0 1 0 1 1 1 2 2 0 0 1 1 1 3 2 1 2 4 1 0 1 0 1 2 0 1 1 3 1 1 0 0 0 1 0 1 2 1 2 3 1 0 1 0 0 2 1 1 0 2 0 0 0 1 0 1 1 1 1 2 2 1 1 1 2 2 0 1 1 1 2 2 0 2 2 1 0 1 1 1 2 4 0 1 0 2 0 2 2 1 2 2 2 1 3 0 1 1 0 0 1 2 1 0 2 1 3 1 0 2 2 1 1 0 3 0 1 2 1 2 2 1 0 1 1 2 1 2 0 0 2 1 0 3 1 2 1 1 1 3 3 1 1 1 3 1 0 2 1 1 2 1 0 2 2 0 0 1 1 1 0 1 1 1 0 1 1 2 1 2 2 1 2 3 2 1 2 1 2 3 0 1 1 2 0 2 1 0 1 1 0 2 2 0 1 2 1 2 1 0 2 1 0 2 1 4 1 0 1 1 1 0 0 1 2 1 2 1 1 0 2 2 0 4 4 1 1 1 2 2 2 1 1 2 0 0 0 2 2 0 2 0 2 0 1 0 2 2 2 0 1 2 1 1 2 0 1 2 0 1 1 2 3 2 3 2 2 1 1 3 1 2 2 0 3 1 1 1 0 1 1 0 3 3 2 2 2 1 0 3 1 2 2 0 1 1 1 1 4 0 2 0 0 2 0 1 3 1 0 0 3 1 1 1 1 2 4 1 2 0 3 1 2 1 3 0 2 1 1 2 1 1 1 1 1 1 2 2 2 0 3 0 1 1 1 1 2 1 0 1 3 0 1 1 1 4 0 1 1 1 2 1 0 2 2 3 0 1 0 0 1 2 2 3 0 0 1 3 1 2 2 3 1 2 0 1 3 0 1 2 1 2 1 0 3 0 2 1 1 1 3 0 1 2 1 0 1 1 2 1 1 3 1 0 2 1 0 1 0 2 1 1 1 2 1 1 0 2 0 2 2 1 4 3 1 2 1 0 2 0 1 1 2 1 3 1 0 0 1 2 1 1 0 2 1 2 2 1 0 1 0 1 1 1 2 0 0 2 2 0 0 0 2 1 1 1 0 1 2 0 0 1 3 2 1 0 2 1 1 2 2 1 0 3 3 1 2 2 2 1 2 1 2 1 4 3 2 3 4 3 1 3 4 1 1 2 1 0 1 2 1 1 1 4 0 2 2 1 1 1 3 1 1 0 0 1 1 4 2 0 1 0 1 2 2 2 1 2 2 1 2 0 2 4 0 2 1 3 1 1 1 2 1 1 1 1 0 0 3 0 1 1 2 0 2 1 2 0 2 2 1 2 1 2 1 3 0 1 1 3 2 2 2 1 1 2 1 2 0 2 3 1 2 1 1 0 2 0 1 0 2 0 2 1 4 0 2 0 0 2 0 1 2 1 1 0 2 4 1 0 3 0 0 1 1 1 2 2 3 0 2 2 2 0 2 2 3 1 2 2 1 2 2 0 3 1 1 1 2 2 1 4 2 1 0 0 1 2 3 2 0 0 2 3 2 1 1 1 2 1 2 1 2 1 1 1 2 2 1 2 0 2 0 0 2 2 0 2 1 3 0 0 1 2 2 2 1 2 0 0 1 1 2 1 1 2 3 2 2 1 3 1 1 0 0 1 0 1 0 1 3 2 1 0 2 0 1 3 1 1 1 1 2 1 1 1 2 2 2 1 2 1 1 2 3 0 2 1 1 1 1 2 0 0 1 2 0 2 0 1 0 2 2 0 2 1 2 0 0 0 2 0 2 0 1 0 1 1 0 1 0 1 1 4 1 0 2 1 1 1 2 3 1 3 2 1 1 3 0 1 5 3 0 1 3 0 0 1 0 2 2 2 3 1 1 1 0 1 0 0 2 3 1 1 1 1 1 2 1 2 1 2 0 1 2 1 4 1 1 2 1 0 1 1 1 0 1 0 4 1 2 2 2 1 4 2 0 1 1 2 0 1 1 1 3 1 3 2 0 2 0 2 2 0 2 0 2 3 2 1 0 2 2 1 1 0 1 0 2 2 1 1 1 1 2 2 2 2 2 2 0 4 1 2 0 1 4 0 1 3 2 0 1 1 0 0 2 0 2 1 1 1 1 1 1 1 1 2 1 2 2 2 0 0 1 1 3 0 3 1 2 1 2 3 1 2 2 2 1 1 0 0 1 1 2 0 1 0 2 1 1 1 1 1 3 1 1 0 0 0 0 0 1 2 1 0 3 1 2 1 0 1 1 0 2 2 2 0 0 1 2 1 2 0 2 0 0 0 1 0 0 0 0 3 3 2 1 1 4 1 2 1 1 3 0 2 1 1 1 0 1 1 3 2 1 1 2 0 0 2 1 0 2 1 1 3 0 1 0 0 3 1 0 0 1 3 0 1 2 2 0 1 1 3 0 0 1 1 2 2 0 0 1 2 0 3 2 2 1 1 0 3 3 0 1 1 0 1 2 0 1 0 1 0 0 2 1 3 2 0 0 1 2 1 0 2 3 2 1 4 2 1 2 1 1 3 3 0 1 0 2 1 0 2 1 2 2 3 1 1 0 0 0 1 0 2 1 1 2 1 1 1 3 3 1 0 2 4 2 2 2 0 0 2 3 1 2 0 1 1 1 1 1 2 3 3 1 3 0 2 0 1 2 1 1 1 0 0 0 2 1 1 0 2 3 2 1 6 1 1 2 1 0 4 3 2 4 1 1 2 0 1 1 2 1 1 1 1 1 2 2 0 0 2 2 1 2 1 2 0 1 1 3 1 1 1 0 2 2 2 2 2 1 0 1 0 1 0 2 0 2 1 2 0 1 2 2 0 1 2 3 1 2 0 1 0 1 2 1 1 1 2 1 2 1 0 2 2 1 0 2 0 1 1 2 1 1 0 0 1 2 1 1 1 1 0 1 1 6 0 1 1 4 1 0 2 0 0 2 0 1 1 1 1 1 1 2 2 0 0 2 1 0 2 0 0 1 1 1 2 2 1 0 2 1 3 2 3 1 1 0 3 1 1 2 3 1 1 1 0 1 3 0 1 2 1 0 2 1 1 3 1 2 0 0 0 1 0 3 0 1 0 2 1 1 1 1 2 1 1 1 3 3 2 3 1 2 2 2 1 2 0 0 0 2 3 0 2 1 1 2 0 2 1 0 1 1 2 2 1 0 5 1 2 2 2 0 3 1 1 0 1 0 3 1 2 1 2 0 2 3 1 2 0 1 2 2 1 0 3 2 3 2 2 1 1 1 1 1 4 1 1 1 2 0 1 0 1 0 0 1 1 3 1 0 1 1 0 2 1 3 0 2 1 2 0 2 3 2 1 3 2 0 2 2 0 5 1 0 1 1 0 1 1 0 1 1 2 1 0 0 2 0 1 1 0 1 1 2 5 2 3 0 1 0 2 2 0 2 1 2 0 1 0 0 2 2 1 0 2 1 3 2 2 2 0 1 0 2 1 0 1 1 0 1 1 0 1 1 1 2 2 2 0 1 0 1 0 1 1 0 2 1 4 1 0 2 1 1 1 1 3 1 4 1 3 2 1 1 1 1 0 1 0 2 1 2 2 1 1 0 2 4 3 3 2 2 0 1 0 2 0 0 0 2 1 0 2 0 0 0 1 3 0 0 1 0 1 2 1 0 1 3 2 3 2 1 1 1 0 2 1 2 1 1 3 2 1 2 1 0 1 2 0 2 0 2 1 1 4 0 1 3 1 1 0 0 0 1 0 1 1 2 1 1 2 0 2 0 2 3 1 0 1 1 0 2 3 1 1 4 3 2 1 1 2 1 0 1 0 2 0 0 0 0 3 1 1 3 2 3 2 2 2 1 0 1 3 2 1 2 0 1 0 3 0 1 2 2 2 1 1 2 2 0 2 2 0 2 0 1 2 1 0 1 0 1 1 1 2 2 1 0 2 2 2 2 1 0 3 3 2 2 0 1 3 0 0 2 3 2 0 1 1 1 4 1 1 0 2 1 0 2 0 1 0 1 3 1 3 2 2 1 2 2 1 1 2 1 1 1 1 1 0 0 1 0 2 1 4 1 2 1 1 1 1 2 1 1 1 2 2 1 2 2 1 1 5 1 2 1 2 1 1 3 2 1 1 2 0 1 0 3 2 1 1 1 2 2 4 1 2 1 1 0 2 4 0 1 1 1 0 2 3 0 0 0 1 2 1 0 2 1 3 0 2 0 3 1 0 1 2 1 1 1 2 1 3 2 0 0 3 0 2 0 0 1 2 2 0 1 1 2 1 0 2 3 1 1 1 0 1 0 0 1 2 2 0 0 1 2 1 1 1 3 2 1 0 0 0 1 1 1 1 1 1 1 2 1 0 0 0 2 2 1 1 0 1 2 0 1 1 2 2 1 2 0 1 5 1 2 1 1 1 1 2 3 1 0 0 2 2 2 3 1 0 2 2 1 1 0 2 2 2 0 3 1 1 1 1 1 0 1 1 2 2 3 0 2 1 2 1 1 1 2 0 2 1 0 1 0 1 1 0 1 3 1 1 1 1 0 1 3 0 1 1 0 1 0 2 0 2 2 2 0 2 1 0 1 1 1 1 1 0 2 1 3 1 0 1 0 2 2 1 1 1 1 1 1 3 1 2 0 1 1 1 1 1 2 0 4 0 1 3 2 0 3 1 2 0 1 2 1 0 1 1 1 2 2 0 1 2 0 0 1 2 2 2 1 0 1 2 1 2 0 1 1 0 2 0 0 2 1 1 2 1 1 1 2 1 2 0 0 0 1 2 1 1 2 2 2 1 1 2 1 2 1 0 1 1 0 2 2 2 3 0 2 2 2 1 1 2 1 2 3 1 1 2 3 1 2 1 2 0 1 1 2 3 0 2 1 1 0 1 1 1 1 1 0 5 3 1 0 1 1 2 2 0 0 2 2 3 3 0 1 0 2 0 0 2 2 0 1 3 1 1 0 4 3 0 1 1 1 2 2 2 2 1 3 2 1 1 2 1 0 1 2 0 4 1 1 3 1 0 1 1 1 0 3 2 2 2 0 2 0 2 1 2 0 1 2 2 2 2 1 2 1 1 1 1 2 1 1 0 0 1 2 1 1 3 0 1 0 1 1 2 2 1 1 2 0 3 0 1 1 2 0 3 1 1 1 4 2 2 3 1 1 1 2 0 1 0 0 1 0 1 1 0 1 1 0 2 2 0 1 1 0 1 4 1 2 1 2 0 1 2 0 0 0 1 2 2 2 2 0 1 1 1 0 2 1 1 0 2 1 1 3 4 0 0 2 2 2 1 2 3 1 1 1 2 2 1 1 0 1 0 1 1 2 0 2 1 3 0 0 1 3 1 1 1 0 2 0 1 1 1 2 1 2 1 2 2 1 0 1 1 1 0 2 0 1 2 0 1 1 1 2 4 1 3 0 2 1 1 1 3 2 0 1 2 0 2 0 4 0 0 2 0 2 2 1 4 3 4 0 1 1 2 1 2 1 3 0 1 2 1 1 0 1 2 0 2 5 0 1 2 1 1 1 2 1 0 1 2 0 2 2 0 1 1 2 1 1 2 1 1 1 2 1 0 3 2 1 2 4 2 2 0 3 1 1 0 2 0 3 2 2 2 2 0 0 2 0 0 1 1 1 2 1 0 3 1 0 3 2 1 0 3 0 1 1 1 2 0 1 0 3 1 0 1 2 0 2 1 1 0 0 1 1 2 1 1 0 2 0 1 1 3 2 3 2 1 1 1 0 2 3 0 2 1 3 0 0 1 1 1 0 1 1 1 0 0 0 0 1 1 1 3 3 3 2 2 2 1 2 0 1 1 1 1 1 2 2 1 0 0 0 1 1 1 0 0 2 1 0 2 1 1 2 2 1 0 4 2 1 1 0 1 1 1 3 1 2 2 0 1 0 3 1 2 0 2 0 1 1 2 1 1 0 0 1 2 2 1 1 0 1 0 0 1 1 0 1 1 1 2 0 1 6 2 1 0 2 1 1 1 3 2 2 2 0 1 0 1 3 2 0 2 1 1 3 1 3 0 2 1 1 1 3 3 1 2 2 1 2 3 0 1 1 1 1 0 2 0 0 2 2 1 2 3 1 1 1 1 0 1 0 2 2 0 0 1 1 3 1 2 2 1 3 2 0 2 1 2 1 3 1 0 4 2 2 2 1 2 1 3 0 4 0 1 4 2 1 0 0 2 3 1 2 2 1 1 1 1 0 1 0 0 0 1 2 0 1 0 0 0 1 2 0 2 1 1 0 1 1 0 1 0 1 0 0 2 2 1 1 1 2 2 2 3 2 1 1 2 1 3 2 2 1 2 0 2 1 1 1 2 1 2 0 1 0 1 1 1 2 2 1 0 1 1 1 2 0 2 2 3 2 0 0 2 2 1 3 1 2 2 1 1 0 0 1 1 3 2 1 0 1 1 1 0 1 0 0 1 1 0 2 1 2 1 2 3 5 1 1 1 1 1 2 1 0 2 1 1 3 2 2 3 2 1 1 1 2 1 0 2 1 3 1 2 1 0 3 1 3 2 0 2 0 2 1 1 2 2 1 2 2 1 2 1 1 1 1 2 1 1 3 0 0 1 3 1 1 3 2 2 2 1 2 2 1 2 0 3 0 2 1 1 2 1 0 2 1 1 0 0 4 1 1 2 0 3 1 2 0 2 0 0 1 0 2 1 1 1 2 3 2 1 0 0 2 2 2 2 0 1 0 3 3 2 1 0 0 0 2 0 1 0 2 0 1 3 2 1 1 0 1 0 3 4 1 1 1 2 1 0 1 1 2 2 3 1 1 2 2 0 1 3 2 2 1 2 1 0 0 2 1 0 0 0 3 1 2 2 1 1 0 1 0 2 1 0 2 2 0 1 0 1 2 0 0 0 2 6 1 2 2 2 0 2 2 2 0 0 1 2 1 2 2 1 2 0 2 1 0 0 2 2 1 2 2 1 2 0 2 0 2 3 1 0 1 0 1 2 1 0 1 1 3 0 2 1 2 1 2 1 2 2 1 1 2 1 0 2 2 1 3 0 2 2 0 0 0 1 1 0 1 0 1 1 3 3 3 1 2 1 1 1 1 3 2 2 2 2 0 0 2 1 2 2 3 0 3 2 2 3 3 2 1 1 2 1 1 0 1 1 1 1 0 1 2 1 0 1 1 1 1 1 2 1 3 1 1 3 0 1 0 2 1 1 1 1 0 2 0 2 2 1 1 1 2 1 2 0 1 0 1 1 1 1 2 2 1 4 0 2 0 2 2 1 1 1 1 2 0 1 1 1 2 2 2 1 2 1 3 1 0 0 3 0 2 0 0 2 2 4 1 2 2 2 2 3 1 2 1 2 0 2 2 1 3 2 0 1 3 0 2 2 1 0 1 2 2 0 1 0 2 1 1 2 1 2 2 1 1 1 2 2 2 3 1 2 2 1 0 1 2 2 1 3 0 0 3 0 2 2 1 2 2 0 1 2 0 1 0 1 1 2 1 1 1 2 1 0 0 2 2 1 1 1 1 2 2 0 2 2 2 2 2 0 1 1 1 2 0 1 1 1 2 1 1 2 1 1 2 1 1 0 0 1 2 2 1 3 1 1 1 0 0 0 2 1 3 0 2 0 0 3 0 1 2 0 1 0 0 1 1 0 1 0 2 1 0 2 2 3 1 3 0 3 0 1 2 0 3 1 1 0 1 2 2 2 1 0 1 1 1 0 2 0 1 0 0 0 1 1 2 3 2 1 2 1 1 1 3 2 1 0 2 1 2 1 0 1 2 3 2 2 1 1 1 0 1 1 1 1 2 3 1 1 1 2 1 1 0 2 0 3 2 1 0 1 2 1 1 2 3 1 1 2 3 2 1 2 1 0 1 2 0 1 3 2 1 0 1 1 2 2 2 1 1 0 2 2 2 3 1 2 2 2 0 0 1 1 1 0 1 2 0 1 1 1 2 0 0 0 2 3 1 2 0 0 2 0 2 1 4 1 2 4 2 0 2 1 1 3 0 2 1 2 0 0 0 2 1 1 0 2 0 1 1 2 1 2 2 1 0 2 0 0 1 2 1 2 2 1 1 1 4 0 0 1 1 2 1 0 2 2 2 2 2 1 1 1 1 0 2 0 3 1 1 3 0 1 0 2 1 2 0 1 1 1 1 1 1 1 1 1 1 0 2 1 2 3 2 2 0 1 1 0 0 1 1 1 1 2 1 3 3 1 1 0 1 1 4 3 3 3 2 0 0 3 0 1 1 1 4 3 1 2 0 1 1 4 2 1 2 1 1 2 0 2 0 2 0 1 1 2 2 2 2 0 1 0 4 0 0 3 2 2 0 1 3 2 2 1 0 2 2 1 1 0 1 0 1 4 3 1 2 1 2 2 3 1 0 0 3 0 1 2 1 1 2 3 3 2 4 1 1 3 0 3 2 4 2 0 3 0 2 2 1 2 0 0 1 0 1 1 1 1 2 0 1 1 2 1 1 1 1 0 0 4 4 3 3 0 2 3 1 2 2 1 2 0 0 1 0 1 2 2 4 0 2 0 1 1 0 1 0 0 1 2 1 2 0 0 0 0 0 0 2 0 1 1 1 0 1 2 2 1 1 1 2 2 3 4 1 2 2 1 3 1 0 2 2 0 1 3 1 2 1 1 0 0 0 2 4 1 0 1 2 3 1 0 3 0 0 1 0 1 1 2 1 1 1 2 0 3 0 0 1 0 0 1 2 2 1 0 2 0 0 3 0 1 2 0 2 1 4 0 1 1 0 3 3 1 1 1 2 1 3 2 3 1 1 1 0 0 2 2 1 1 2 1 0 0 1 1 1 1 0 2 2 0 1 1 1 1 3 0 2 1 2 1 0 2 0 1 2 0 0 0 0 0 1 2 1 2 0 1 2 2 0 1 3 2 2 0 1 1 1 3 2 2 2 2 3 2 0 0 2 0 0 1 1 1 2 1 1 2 3 3 1 2 0 2 3 1 3 1 1 0 2 2 1 2 1 3 1 1 3 1 2 2 1 1 3 0 1 1 3 1 1 0 2 1 3 2 1 2 0 2 2 2 1 0 1 1 2 1 0 2 1 2 2 1 2 0 1 1 1 2 1 1 1 0 1 2 1 0 2 0 0 2 0 0 2 1 1 2 0 1 2 2 0 1 0 1 0 2 3 0 3 3 3 2 1 3 1 2 0 2 3 2 1 1 3 1 1 0 0 3 1 2 3 3 1 2 0 2 0 2 2 2 3 1 1 0 0 1 1 2 1 0 1 2 1 1 2 1 1 1 0 0 2 2 1 2 0 1 0 2 1 2 1 1 1 2 0 2 0 2 2 2 1 2 1 1 0 2 2 1 0 0 2 1 2 1 0 1 1 2 1 0 1 2 1 1 2 1 1 3 2 1 0 3 2 2 1 2 2 1 2 1 0 0 2 0 1 1 1 1 2 1 0 3 0 1 0 2 2 1 3 2 1 2 1 1 2 1 0 2 2 2 3 2 0 1 3 0 2 1 0 1 0 1 2 2 0 0 1 1 2 2 1 1 0 2 1 2 1 2 1 2 2 1 3 1 1 2 3 0 2 2 0 2 0 1 1 0 2 1 1 1 3 0 1 1 0 2 1 3 1 1 1 0 0 1 0 1 1 0 3 1 2 1 1 4 1 1 2 3 2 2 3 1 2 3 2 3 1 0 3 2 0 0 1 2 0 2 3 1 0 2 1 0 2 1 0 0 3 3 1 1 2 2 1 1 0 3 2 1 1 2 2 2 2 1 0 0 2 2 0 1 1 1 1 4 2 3 1 0 2 2 2 1 1 1 1 0 3 2 3 0 1 2 2 2 2 0 3 0 1 1 1 1 1 1 2 2 0 0 2 2 0 2 2 0 0 1 4 2 0 1 2 1 1 0 0 0 0 1 2 0 1 2 0 2 2 2 1 2 1 2 2 1 2 0 2 0 1 0 1 4 0 3 4 2 2 0 1 1 0 1 0 1 0 1 2 1 1 1 1 1 3 4 0 2 1 1 3 0 2 1 1 3 2 1 1 3 1 3 0 1 1 2 1 1 1 1 2 1 3 2 1 2 2 2 1 0 2 0 2 1 1 2 2 2 1 2 1 1 2 0 2 1 0 2 2 1 2 0 0 1 2 0 1 1 1 2 1 1 1 0 1 1 1 0 1 1 0 0 2 1 1 2 0 0 1 2 1 3 0 3 2 2 2 1 1 2 3 4 1 2 0 1 0 1 3 2 0 2 3 0 1 0 3 0 1 0 1 0 2 0 3 3 3 2 1 2 0 2 2 0 1 2 1 2 1 2 2 1 1 3 1 2 3 4 3 1 1 2 0 0 2 2 1 1 2 0 0 1 3 1 1 0 3 3 1 2 3 2 0 1 0 0 1 3 1 1 2 2 5 2 2 0 2 0 1 1 1 1 2 3 0 1 2 1 0 3 2 1 0 3 1 2 0 2 1 3 2 2 3 0 1 1 0 2 0 3 1 2 0 1 1 2 1 1 0 2 1 0 1 4 0 1 1 2 1 1 1 0 0 1 2 1 1 2 1 2 3 1 3 3 0 2 1 1 3 2 2 1 1 1 2 0 2 0 2 0 2 2 3 2 2 4 2 0 1 1 0 3 1 1 1 2 0 1 1 2 2 1 0 1 3 1 1 1 2 1 1 1 3 2 0 1 1 0 0 1 1 2 2 0 2 1 3 1 2 1 0 2 0 1 1 2 1 0 4 1 1 2 1 0 0 2 0 0 1 1 1 1 0 1 2 3 3 1 0 0 3 1 2 1 2 1 0 1 1 1 1 2 0 0 0 0 3 0 1 0 2 0 1 0 0 1 4 2 0 1 0 0 0 4 1 4 0 2 1 0 0 3 2 2 0 2 3 2 1 0 0 1 1 2 2 1 2 4 0 1 2 3 1 1 1 1 1 3 1 2 2 2 1 2 1 2 0 3 2 1 1 1 1 1 1 1 1 2 0 1 1 0 5 1 1 2 2 1 4 1 3 1 0 1 0 1 2 0 1 2 0 3 2 1 1 0 0 2 3 1 1 1 1 1 0 0 0 0 0 1 1 2 1 3 3 1 1 1 2 1 1 3 3 4 2 1 1 1 2 1 1 1 0 2 2 1 1 2 1 1 0 2 0 1 0 2 2 3 0 2 1 1 1 2 1 0 1 0 2 3 2 1 3 1 0 3 0 2 0 1 4 0 2 2 4 1 2 2 1 0 2 1 2 2 1 1 1 0 3 2 1 1 3 1 1 1 0 2 3 2 1 3 0 1 1 1 3 1 0 2 0 1 2 2 1 1 1 2 2 3 2 1 1 0 2 3 0 0 1 0 1 0 3 2 1 1 3 0 2 0 2 2 1 1 2 1 2 0 3 3 0 3 2 1 3 0 1 2 2 0 3 1 0 0 1 1 1 2 1 2 2 1 1 1 1 1 0 1 1 0 0 2 2 1 1 2 0 1 1 1 1 2 1 1 1 1 2 1 0 2 3 0 3 0 1 1 1 3 0 0 1 2 1 0 4 2 0 1 1 1 1 0 1 2 0 1 0 0 2 2 1 0 2 3 3 1 0 0 1 2 1 2 1 0 0 0 1 2 2 1 1 2 2 1 1 2 1 1 3 0 2 1 2 1 3 2 1 2 1 4 1 0 2 1 4 0 1 0 3 1 1 2 0 1 1 2 1 2 1 2 1 1 1 1 2 1 0 0 1 1 3 0 1 1 0 1 2 2 1 0 2 0 1 1 2 2 1 3 1 1 1 1 1 1 0 2 1 0 3 2 1 1 0 1 1 1 4 1 3 2 1 1 1 2 1 4 0 1 1 0 0 1 0 2 2 0 0 1 2 0 1 1 2 1 0 1 2 0 2 1 0 3 2 0 2 2 1 3 0 2 1 0 1 1 2 1 1 0 2 2 1 1 1 2 0 1 0 4 0 3 3 1 1 0 0 2 1 1 0 3 1 1 1 1 2 1 1 0 1 2 1 1 1 3 0 2 2 3 2 0 0 2 3 1 2 1 0 1 2 2 1 1 1 3 2 1 1 1 2 1 1 2 1 2 2 0 1 2 2 1 0 0 0 2 2 0 1 1 3 2 1 2 1 1 3 2 0 1 0 0 4 2 2 0 2 3 0 2 1 1 1 1 1 2 0 0 2 3 0 1 3 2 1 0 3 1 1 1 1 2 0 0 1 1 2 1 1 2 1 2 1 0 1 0 0 2 4 0 3 2 2 0 3 2 0 0 2 2 1 0 1 2 0 1 1 3 1 3 0 1 1 1 1 2 0 1 1 0 0 2 1 2 0 0 0 2 0 1 1 2 5 0 1 0 1 1 0 0 3 0 0 2 1 0 1 0 0 1 2 1 1 1 1 1 1 1 1 3 1 3 2 0 1 0 1 1 1 0 0 1 1 2 1 1 1 1 2 1 1 1 2 0 0 0 0 0 2 1 0 0 3 1 1 3 2 1 1 2 2 1 1 2 2 1 2 2 2 1 2 0 2 2 0 1 1 1 1 2 4 1 1 2 0 2 1 1 1 1 0 0 2 0 2 1 0 0 2 0 1 1 2 1 0 0 2 0 1 2 1 0 2 1 1 1 2 1 2 1 0 1 2 1 0 3 1 0 2 2 0 0 2 1 1 1 3 1 1 4 2 1 3 1 1 1 3 2 2 2 1 2 2 1 1 2 3 1 0 1 2 1 4 1 2 1 2 2 2 2 2 0 3 1 0 1 0 0 4 0 1 1 0 3 0 1 0 1 2 0 0 2 1 1 2 0 1 1 1 1 0 1 0 1 1 0 2 1 2 1 1 2 0 1 2 0 0 2 2 1 1 1 2 2 0 1 0 1 0 1 1 1 3 1 0 0 1 3 2 1 1 0 1 1 1 0 2 0 1 1 0 0 0 0 2 0 1 2 0 3 2 2 1 1 1 2 0 2 2 1 1 1 1 2 2 2 1 2 2 2 2 1 2 1 1 0 2 1 2 1 1 1 1 3 1 0 1 3 1 1 4 2 2 0 0 2 0 2 1 0 1 1 1 1 2 1 1 1 1 1 0 1 2 1 0 1 0 2 2 2 0 1 2 0 1 2 0 0 1 1 0 1 2 0 2 2 1 1 0 2 0 0 4 1 2 3 0 1 3 0 1 0 0 1 1 1 1 2 2 1 2 3 1 1 0 0 1 2 0 0 0 0 0 1 1 2 0 1 1 2 1 0 1 0 2 1 1 0 0 0 1 1 1 1 3 1 4 3 1 1 2 1 2 2 0 2 0 0 1 2 2 1 2 3 1 1 0 2 2 2 1 0 0 1 0 0 1 1 2 2 1 0 1 1 1 0 1 0 1 2 3 3 1 2 1 0 0 2 0 0 0 0 2 1 1 1 1 1 1 5 1 1 3 1 3 1 2 1 2 1 1 1 0 0 0 1 0 3 0 0 0 1 0 2 2 2 1 2 1 2 1 2 5 1 2 0 2 1 1 1 2 2 1 1 3 2 2 3 1 0 1 1 3 1 1 0 1 1 3 3 2 2 0 0 0 1 3 4 1 1 0 0 1 2 0 2 2 2 0 1 1 1 1 1 5 0 1 2 0 3 0 1 0 1 1 2 3 2 2 1 1 0 1 0 1 1 0 1 1 0 0 1 0 0 2 2 2 1 1 0 1 1 1 1 1 2 0 2 2 1 2 3 1 0 0 2 1 1 2 3 0 1 1 0 2 0 0 1 0 0 1 2 1 0 1 2 3 1 0 1 2 1 2 2 1 0 3 1 3 0 1 1 1 0 3 2 2 1 3 2 1 1 0 2 3 1 2 2 1 0 0 1 1 1 1 1 1 1 1 2 1 0 1 2 1 1 0 1 2 1 1 0 0 1 1 1 1 2 2 1 3 0 3 1 1 1 2 2 2 1 2 1 1 1 0 1 1 2 1 0 2 1 1 1 1 1 0 0 1 2 4 0 1 3 0 0 1 1 2 2 1 3 1 0 1 1 0 1 0 4 2 1 0 2 1 1 2 2 0 2 1 3 1 3 1 1 0 2 1 2 2 2 0 1 3 1 4 2 0 2 2 2 1 0 1 1 2 2 1 1 3 2 4 1 1 2 2 2 1 2 2 2 1 0 2 2 1 2 1 3 2 1 0 1 1 3 1 1 2 3 1 0 3 0 1 1 0 1 1 1 1 1 3 2 0 1 1 1 4 2 1 3 0 0 1 1 3 0 3 2 0 2 1 2 3 3 1 4 0 1 1 1 1 1 1 2 1 2 0 1 0 1 0 2 0 0 1 2 1 0 1 2 2 1 2 3 2 1 2 3 1 0 1 0 1 1 0 1 2 0 2 2 1 0 0 1 3 1 1 4 1 4 2 1 0 1 1 0 1 1 3 1 4 0 3 2 1 1 3 1 1 0 1 2 2 1 1 2 0 1 3 2 3 0 2 3 2 1 1 0 0 1 0 0 1 1 2 1 0 2 1 0 0 1 1 3 2 1 0 2 1 2 1 1 2 1 3 3 1 2 1 1 3 0 2 1 2 1 0 1 1 0 2 2 2 2 1 3 1 2 1 0 2 2 1 1 1 3 0 2 2 1 2 0 1 1 2 0 2 0 2 2 3 1 0 0 1 2 1 0 1 0 0 4 2 3 0 0 0 0 1 0 2 1 0 0 1 3 2 1 3 1 1 4 2 1 1 2 2 3 1 1 2 2 3 2 1 2 2 0 1 1 3 3 0 2 3 2 1 2 1 1 1 0 2 0 1 1 1 4 2 1 0 1 1 1 0 0 2 1 3 1 2 1 2 1 5 3 2 0 0 1 3 2 1 3 1 2 2 1 2 1 1 1 2 0 1 2 2 1 1 0 1 1 1 1 3 0 2 2 1 2 0 1 1 1 0 1 1 1 1 1 1 2 1 1 2 2 0 2 1 1 1 2 0 0 1 1 2 0 3 1 2 0 1 1 2 0 2 1 2 3 1 1 2 2 3 1 2 1 0 0 0 2 1 1 4 2 1 3 2 0 1 1 2 2 1 3 1 1 2 1 1 1 0 1 2 0 1 2 0 3 0 3 0 2 1 1 3 1 1 1 3 2 3 4 0 1 1 1 2 0 1 1 3 1 4 3 3 2 1 1 2 2 1 3 1 3 1 2 2 1 2 3 1 3 2 0 2 1 2 1 3 0 0 0 0 2 1 3 1 3 1 2 2 1 3 1 1 1 2 0 1 1 1 1 1 2 3 1 1 1 2 1 1 3 1 2 2 0 1 1 1 0 1 3 1 2 1 2 0 1 1 0 2 2 0 0 2 0 3 2 2 2 3 1 2 1 3 1 1 2 0 2 3 0 1 0 1 2 1 0 2 0 2 0 1 1 3 1 1 1 0 0 0 0 0 0 2 0 1 1 3 0 0 1 0 2 1 1 0 0 1 1 0 1 1 0 1 1 2 0 0 0 1 0 3 2 3 1 0 1 1 3 2 1 1 2 0 2 0 1 1 2 1 0 0 1 2 3 1 0 1 1 1 2 1 0 2 2 1 1 1 1 0 2 3 2 1 1 0 2 1 2 2 2 0 3 2 2 1 2 0 1 3 0 2 0 0 1 3 3 2 2 1 1 3 1 2 2 0 1 2 1 2 0 0 0 0 2 2 2 0 1 1 2 1 1 2 1 2 0 2 1 1 2 2 3 1 2 0 2 1 0 0 1 2 0 2 2 3 1 1 0 1 4 2 3 1 1 0 1 1 0 0 1 0 0 1 2 3 1 1 1 1 1 2 0 1 4 2 2 1 0 1 1 1 3 1 1 2 4 2 3 4 0 1 1 1 1 2 2 1 1 2 2 1 1 1 2 0 3 1 1 1 3 1 1 1 0 0 0 1 0 0 1 0 1 3 1 1 0 1 0 2 1 0 1 2 0 2 2 1 1 2 0 2 3 0 0 2 0 1 1 2 1 1 3 1 2 0 1 2 1 1 0 0 0 2 1 1 1 1 2 1 2 2 2 1 2 1 1 1 1 2 1 0 1 2 2 2 1 1 2 2 1 1 0 2 0 1 1 1 0 1 1 0 3 0 0 1 1 3 2 2 1 2 1 2 1 1 1 2 2 2 2 1 1 3 1 1 2 3 2 2 0 0 1 2 0 1 1 1 0 1 0 1 1 1 0 0 2 0 0 2 4 2 2 2 0 2 2 2 0 2 3 3 1 2 1 2 2 0 2 0 1 1 1 1 1 2 2 1 4 1 2 3 1 1 1 1 1 2 2 1 3 1 2 1 2 1 0 2 2 2 2 3 1 2 3 2 0 1 0 0 3 0 2 0 0 2 3 3 1 1 2 2 3 3 2 0 1 2 1 1 1 4 1 1 1 0 0 2 1 0 1 1 1 1 3 2 0 3 3 2 0 0 1 2 1 2 1 2 2 1 1 2 0 0 0 3 3 1 0 1 1 1 0 2 0 0 1 2 1 1 1 0 1 0 1 2 1 2 2 3 1 1 4 2 1 0 1 3 0 1 0 1 0 1 2 3 2 1 2 1 2 1 0 3 1 2 1 3 1 1 0 0 0 0 0 1</t>
+  </si>
+  <si>
+    <t>GAM(0.33110874058394146, -8.718590905053617e-29, 0.6022470232622665)</t>
+  </si>
+  <si>
+    <t>0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 1 0 2 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 2 0 0 2 2 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 0 2 1 0 0 2 0 1 0 1 0 0 1 1 1 2 0 0 1 1 0 0 1 0 2 1 0 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 1 0 1 2 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 2 1 1 0 0 0 0 0 1 0 0 0 2 3 0 0 0 0 0 1 0 1 2 0 0 0 1 1 0 1 0 0 1 0 0 3 1 0 0 0 0 0 0 0 0 0 0 1 1 2 2 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 2 0 3 0 0 2 1 0 1 0 0 0 2 3 0 1 0 1 0 1 0 2 1 0 0 2 0 1 0 1 0 0 1 1 0 1 0 0 2 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 0 1 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 2 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 2 1 1 0 1 0 1 0 2 0 1 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 2 1 0 0 0 0 1 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 0 1 2 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 2 1 0 0 0 0 0 0 2 0 2 2 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 2 1 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 3 0 0 1 0 0 0 1 0 2 0 1 0 0 2 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 2 1 0 1 0 0 1 0 0 0 0 1 0 2 1 0 0 1 0 0 1 1 0 1 2 0 0 1 1 0 1 0 1 0 2 0 0 1 0 1 1 0 0 2 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 2 0 1 0 1 0 1 0 2 1 1 0 0 0 0 0 0 1 0 0 2 1 0 1 0 0 0 1 1 1 2 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 1 0 0 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 1 0 0 1 1 3 1 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 1 1 1 0 0 3 0 0 0 0 0 0 0 1 1 2 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 2 0 0 2 0 0 0 0 0 1 0 2 0 2 0 0 1 0 0 0 1 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 3 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 2 0 0 0 0 1 1 2 0 2 0 0 1 2 2 0 0 0 1 0 1 0 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 2 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 2 2 0 0 0 1 0 1 0 0 0 2 2 2 1 1 0 0 1 1 0 0 1 0 0 1 0 1 2 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 1 1 1 1 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 3 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 3 1 1 1 0 2 0 2 1 2 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 0 0 2 2 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 3 1 1 0 1 0 0 0 1 1 0 0 1 3 1 0 0 2 0 0 1 2 0 2 1 0 0 0 1 0 1 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 2 1 3 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 3 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 2 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 1 2 2 0 2 0 2 0 1 0 0 0 0 3 0 1 1 1 2 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 1 0 1 0 1 0 0 2 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 3 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 0 1 0 1 2 2 0 0 1 0 1 0 0 1 0 1 2 0 2 0 1 1 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 2 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 2 1 2 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 2 0 0 2 0 3 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 1 1 1 0 0 0 0 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 3 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 1 2 0 1 2 0 1 0 1 0 2 1 1 0 0 0 0 1 2 0 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 0 0 2 1 1 0 2 1 0 0 1 0 3 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 2 2 0 1 2 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 2 1 0 0 1 0 0 0 2 1 0 2 0 1 3 0 0 0 0 0 1 0 0 2 1 2 1 0 1 0 0 1 0 1 1 0 0 2 0 3 0 0 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 2 1 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 2 0 1 0 0 0 1 1 0 2 0 2 2 1 0 1 1 2 0 0 0 2 0 1 1 0 2 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 2 3 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 2 0 0 0 0 1 0 0 0 1 1 0 1 3 1 1 0 1 1 0 0 2 0 1 1 0 0 2 1 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 2 0 0 1 0 0 0 1 2 1 1 1 3 1 1 0 1 0 0 2 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 2 0 0 2 1 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 2 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 3 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 1 2 0 0 0 0 0 0 0 1 1 0 1 2 1 0 1 3 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 2 3 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 2 1 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 0 2 1 1 0 0 0 0 0 2 2 0 2 1 0 1 0 0 1 1 1 0 1 2 4 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 0 0 1 2 0 1 2 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 2 0 1 0 0 2 0 0 1 3 0 0 0 0 0 0 0 1 0 0 0 2 1 1 1 0 0 2 1 0 0 1 1 0 1 1 1 1 1 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 2 0 0 0 0 0 0 0 2 0 0 0 3 1 1 0 0 0 0 0 0 0 0 4 0 1 1 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 2 1 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 2 2 0 0 0 2 0 0 0 1 0 1 0 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 2 3 0 0 0 1 2 1 1 1 0 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 2 0 1 1 0 1 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1 3 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 2 0 2 0 1 1 0 1 0 0 0 0 1 0 1 2 1 3 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 1 2 1 0 0 0 1 0 1 0 0 0 2 0 0 1 1 1 0 0 0 0 0 0 1 0 2 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 2 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 0 1 1 2 1 1 1 0 1 0 0 1 0 3 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 2 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 1 0 0 2 1 0 1 2 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 3 0 1 1 0 2 1 0 0 2 0 1 0 0 0 1 1 0 0 1 0 0 1 3 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 3 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 2 1 0 1 1 2 1 1 0 0 0 1 0 0 2 1 0 1 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 1 0 2 0 1 2 1 2 0 0 0 1 0 0 2 0 0 0 1 0 0 0 1 2 0 1 0 1 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 2 1 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 3 1 0 0 0 0 0 0 0 1 1 0 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 1 0 2 0 0 0 0 0 0 1 1 1 0 0 0 3 0 0 1 1 0 0 0 1 0 0 0 2 0 0 1 0 1 1 1 0 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 2 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 2 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 2 1 1 0 4 0 0 0 1 1 1 3 0 1 1 1 4 0 1 0 1 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 0 1 2 0 0 1 0 0 1 2 0 1 0 0 2 0 1 0 0 0 1 0 2 0 0 0 0 1 0 1 0 1 0 0 0 2 3 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 2 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 2 1 1 0 0 1 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 2 0 1 0 1 1 1 0 2 1 0 0 0 0 1 1 1 0 2 0 0 0 2 0 1 0 0 0 0 3 1 0 1 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 1 0 2 2 1 0 1 2 1 1 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 2 0 0 1 1 1 1 0 1 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 2 0 1 0 0 0 0 0 1 1 2 0 0 1 0 0 1 1 2 0 0 1 0 1 1 0 2 1 1 0 1 0 2 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 2 2 1 0 2 0 1 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 2 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 1 2 0 1 1 0 0 0 1 2 0 0 1 1 0 1 0 1 1 0 0 0 1 0 1 1 0 1 2 1 2 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 2 1 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 1 0 3 2 0 1 0 0 0 1 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 2 0 0 0 2 0 0 3 0 1 1 0 1 0 0 0 0 2 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 1 1 1 0 0 0 0 2 0 0 0 2 0 0 0 2 0 0 1 0 0 0 0 2 0 1 0 3 0 0 3 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 0 2 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 1 0 0 2 0 1 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 2 1 0 0 0 0 0 0 0 2 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 1 0 0 1 0 0 3 2 0 2 0 1 0 1 0 1 2 2 1 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 0 1 2 1 1 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 1 3 0 1 0 1 1 1 2 0 1 2 0 1 0 0 0 0 1 1 0 2 0 0 2 0 1 1 1 1 1 1 2 0 0 0 1 1 0 0 0 1 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 2 0 1 2 0 2 0 0 0 0 0 0 0 3 1 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 1 1 0 1 1 1 0 2 0 1 0 0 1 0 1 2 0 1 0 3 1 0 1 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 2 0 1 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 2 2 0 0 1 0 0 1 0 0 1 1 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 1 0 0 0 0 2 0 1 0 0 0 1 2 1 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 2 0 1 0 0 1 1 0 1 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 2 0 0 1 0 0 0 1 0 0 2 0 0 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 3 0 2 1 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 1 0 1 0 1 2 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 2 0 0 0 1 0 2 1 0 0 0 1 0 2 0 0 0 3 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 2 0 0 0 0 0 2 1 0 0 1 0 0 1 0 1 2 0 1 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 0 0 1 0 1 0 3 0 1 1 0 2 1 0 0 0 0 2 1 0 2 1 0 0 0 0 0 1 0 1 2 1 1 0 1 0 0 0 0 0 0 2 1 0 2 1 1 1 1 1 1 0 2 0 2 1 1 1 0 0 0 1 0 1 2 0 0 0 1 0 0 0 3 0 0 0 0 2 0 1 0 1 0 1 2 1 0 0 0 0 2 0 0 0 0 1 1 1 1 0 3 0 1 0 0 2 0 1 0 1 0 1 2 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 3 2 2 1 1 2 1 1 1 0 0 1 0 0 0 2 0 0 0 0 1 0 3 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 2 1 1 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 2 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 1 0 0 2 0 2 2 0 2 0 0 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 1 0 0 0 0 0 2 0 0 1 1 1 0 1 1 0 1 3 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 1 0 0 1 1 0 0 0 2 0 1 0 1 1 1 1 3 1 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 3 2 0 1 0 0 0 0 0 1 1 0 0 0 3 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 1 3 0 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 0 0 2 0 3 0 0 1 2 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 1 1 0 0 1 0 3 0 1 2 1 0 0 0 2 0 0 2 2 0 0 1 0 0 0 2 1 0 0 1 2 1 0 0 1 1 2 0 0 2 0 1 0 0 1 0 1 1 1 1 0 1 0 1 1 1 0 1 1 0 1 0 2 0 3 0 2 0 2 0 0 0 0 1 1 1 0 0 1 0 2 0 3 0 0 1 0 0 1 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 3 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 0 1 1 0 0 1 1 1 1 0 1 2 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 2 0 0 2 0 1 1 0 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 2 0 2 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 1 0 1 0 1 1 2 0 1 0 0 1 1 0 1 2 0 1 1 1 0 1 1 2 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 2 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 3 0 0 1 2 0 0 0 0 1 0 0 0 1 1 0 2 0 4 1 0 0 0 1 2 0 0 1 0 0 0 0 0 0 0 1 0 2 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 2 0 2 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 1 2 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 3 0 2 0 1 2 0 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 2 0 2 0 0 0 3 0 2 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 2 2 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 1 1 0 0 0 2 0 1 0 1 2 0 0 1 2 0 0 0 1 1 0 1 0 1 0 0 0 0 0 3 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 2 0 2 0 0 0 2 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 2 0 1 0 1 1 0 1 0 1 1 0 1 0 0 1 1 0 1 4 0 0 0 1 0 0 1 0 0 1 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 1 1 0 1 0 1 2 1 0 1 0 0 0 0 0 0 1 2 0 2 0 0 0 2 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 0 1 0 0 0 3 0 1 0 0 1 2 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 3 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 2 0 0 2 0 0 1 0 1 0 1 1 2 0 0 0 1 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 1 0 1 0 2 0 1 0 0 0 2 0 1 1 2 0 0 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 2 0 1 0 0 0 0 1 1 1 0 0 1 1 1 0 1 0 0 0 2 0 1 0 0 0 2 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 2 1 0 0 0 0 0 1 0 1 2 0 2 1 2 2 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 1 1 0 0 1 0 1 1 0 0 1 0 3 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 1 1 1 1 0 0 1 1 0 3 0 0 0 1 1 1 0 0 1 0 0 1 1 0 2 1 0 0 0 1 1 0 1 2 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 1 1 1 1 1 1 1 3 0 0 1 0 0 0 1 0 1 1 1 2 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 2 1 0 1 0 0 2 0 1 0 0 1 0 1 0 2 2 2 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 2 0 1 2 0 0 1 0 0 1 0 0 1 1 2 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 2 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 2 0 0 0 1 3 0 0 0 0 0 0 0 1 0 1 1 0 0 1 2 0 0 1 0 0 3 0 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 2 2 1 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 2 1 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 2 2 1 1 0 4 0 0 0 1 0 2 0 0 1 0 2 1 0 0 0 0 0 2 0 0 1 1 3 0 0 2 3 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 2 1 2 2 0 0 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 3 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 1 0 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 1 0 2 0 0 2 0 1 1 1 0 0 0 1 0 0 0 1 2 1 1 0 1 1 0 1 0 0 1 2 2 0 1 3 0 0 1 2 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 2 1 0 1 0 0 0 1 2 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 3 0 0 1 0 0 1 1 1 0 0 0 1 2 1 3 0 0 0 0 0 1 1 1 2 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 2 2 1 0 0 0 0 0 1 2 2 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 2 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 2 1 1 0 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 2 1 0 1 0 1 0 1 2 0 0 0 1 1 0 1 0 2 0 1 1 0 0 0 1 0 2 1 0 0 0 1 0 1 0 0 0 0 1 1 1 1 2 0 1 0 0 0 0 0 2 0 1 0 2 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 0 0 1 1 0 1 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 2 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 2 2 0 0 0 0 0 0 0 1 2 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 2 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 1 0 1 1 0 0 0 2 3 0 0 1 0 0 0 0 0 1 0 1 0 3 2 1 0 0 1 0 0 0 0 2 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 2 2 0 1 1 0 0 0 1 1 1 1 2 0 1 0 1 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 1 1 2 1 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 2 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 2 1 0 1 0 0 1 0 1 0 1 2 0 1 0 0 1 0 1 1 1 1 0 0 0 0 0 3 0 2 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 2 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 0 1 0 1 0 0 3 1 0 0 1 1 1 1 0 0 1 0 0 1 2 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 2 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 3 0 0 0 0 0 0 1 1 3 2 0 1 0 1 1 0 0 0 0 1 1 0 0 2 1 0 0 1 0 0 1 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 1 0 3 1 2 2 0 0 0 0 1 2 1 1 1 0 0 0 1 0 1 1 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 2 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 2 3 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 2 1 0 0 1 0 1 1 1 0 0 0 2 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 1 1 0 0 0 3 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 1 0 1 1 0 2 0 0 1 1 0 0 0 0 1 3 0 2 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 1 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 2 1 1 1 1 0 0 0 0 0 0 0 1 1 3 0 1 2 1 0 0 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 2 1 2 1 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 2 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 3 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 1 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 2 1 3 0 1 2 0 0 0 1 1 0 0 3 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 1 0 0 0</t>
+  </si>
+  <si>
+    <t>JSB(3.0030952352050613, 3.190284750007412, -61.4539567986528, 547.5056327477848)</t>
+  </si>
+  <si>
+    <t>137 20 40 95 117 108 107 124 82 150 61 132 149 93 105 129 87 120 93 74 107 129 51 88 115 44 78 47 138 120 40 62 153 83 83 139 75 159 159 100 110 82 37 62 87 75 74 87 92 82 115 89 65 77 128 119 116 48 162 75 113 30 68 85 90 69 55 139 139 48 78 90 84 83 120 97 112 125 121 171 123 69 85 54 74 97 63 76 58 120 92 76 73 40 82 172 83 75 109 64 91 82 127 93 105 87 91 69 39 101 58 120 103 118 97 72 83 126 74 62 184 100 65 58 49 84 82 107 58 67 40 92 83 113 59 79 71 125 64 37 117 90 56 133 49 138 87 116 126 63 99 105 94 67 31 138 100 98 112 89 74 53 106 127 94 116 77 95 59 71 83 133 87 113 112 119 95 80 107 93 38 93 194 100 52 107 107 146 152 62 121 120 118 131 95 73 66 133 115 133 56 142 102 73 90 133 43 129 56 75 66 97 95 23 65 92 102 118 74 116 87 153 64 113 120 80 118 100 48 76 49 63 80 134 106 118 91 213 76 73 40 39 56 74 173 141 111 151 114 60 119 109 116 44 125 81 38 87 96 54 54 73 103 28 165 92 77 43 59 137 92 44 132 47 108 68 116 127 119 79 108 103 57 110 100 65 121 153 126 171 86 102 59 117 90 94 96 123 49 93 141 40 98 100 120 35 50 79 149 53 49 137 168 93 110 20 59 132 92 74 78 97 97 59 76 32 109 82 87 178 113 107 82 79 60 119 84 88 36 147 125 94 82 87 84 81 87 106 104 99 119 66 127 126 60 40 145 93 141 154 77 161 35 84 97 58 103 115 156 85 127 98 52 108 28 64 85 49 67 151 78 62 127 162 53 101 23 89 118 125 101 47 44 74 137 92 132 110 71 124 39 120 140 108 192 153 64 54 144 75 145 103 57 134 171 60 23 152 105 73 145 106 129 110 56 74 86 126 174 139 53 40 109 69 155 132 43 172 102 40 39 71 66 76 121 70 54 147 69 102 38 48 57 90 139 94 29 66 91 82 83 60 200 70 107 94 88 76 85 56 134 124 72 102 63 66 58 65 95 62 74 124 95 47 83 107 98 152 124 93 87 56 79 166 41 89 143 76 69 107 76 84 36 60 56 76 100 121 52 72 71 36 101 56 109 119 49 128 64 98 99 125 66 79 91 79 55 146 143 53 94 57 44 104 103 67 85 99 45 76 108 41 46 177 65 151 80 98 195 80 86 121 36 100 151 114 125 115 74 37 136 123 138 93 57 68 52 87 74 112 65 102 132 51 96 97 60 116 60 110 84 155 106 49 108 94 70 159 72 68 60 146 66 130 173 111 128 112 92 103 160 108 76 86 155 95 108 79 110 118 128 120 112 59 149 117 158 131 132 96 175 63 100 88 162 70 34 108 56 48 108 99 72 59 28 75 77 64 97 115 93 104 11 60 134 199 63 159 64 66 78 73 84 143 118 78 117 126 31 96 126 82 59 83 142 31 123 69 115 101 61 24 141 113 135 77 92 94 179 177 190 88 48 159 113 94 131 43 64 43 157 116 102 98 96 93 82 77 81 182 100 111 40 83 87 84 93 60 94 71 148 126 34 88 24 66 100 92 87 55 73 123 88 93 36 101 96 70 111 118 123 73 86 50 102 70 87 92 136 108 79 102 135 39 152 82 121 82 210 122 102 49 89 66 38 128 94 121 18 85 57 108 52 120 111 98 154 138 116 106 157 100 198 97 25 125 103 102 158 79 59 107 116 91 92 88 115 116 134 117 77 162 104 120 190 113 135 94 77 19 111 143 86 91 129 141 62 102 165 132 140 73 72 150 94 67 134 97 52 82 133 49 94 75 104 76 117 93 48 118 60 89 46 125 89 78 125 124 84 66 64 79 52 156 67 70 55 73 89 96 99 81 134 107 64 137 118 156 127 193 134 78 112 90 97 59 63 119 127 74 48 111 58 48 54 104 114 69 90 120 91 82 116 115 114 124 128 62 143 90 70 59 94 52 67 147 104 143 63 75 79 140 109 58 113 79 118 84 49 64 118 67 106 116 130 43 93 84 184 62 91 113 108 99 25 129 122 139 43 59 91 137 126 93 86 113 72 40 161 94 93 77 76 95 66 82 96 69 146 60 83 161 80 60 86 47 59 34 142 82 67 65 102 102 117 129 76 130 106 119 118 85 84 65 62 74 104 104 101 125 177 84 131 127 60 151 154 74 99 108 88 84 104 77 140 169 52 39 56 71 64 30 114 106 72 48 171 128 136 95 108 71 96 115 165 90 73 124 69 118 79 116 58 49 60 125 89 126 59 94 26 137 79 113 139 55 121 59 123 113 49 31 123 78 98 128 78 122 122 129 101 105 80 71 59 51 114 51 39 56 49 72 112 138 119 93 126 102 133 41 125 92 90 104 67 51 108 95 107 92 71 80 31 97 68 152 82 64 179 73 64 78 133 77 40 44 149 47 110 82 41 74 54 102 75 96 111 63 82 62 136 125 203 80 58 151 102 56 75 60 111 126 83 68 76 83 153 154 41 143 136 78 72 92 111 57 99 105 51 152 72 97 71 51 103 74 83 118 151 102 104 64 82 98 112 100 93 126 57 102 85 98 86 97 99 108 75 44 64 161 73 88 113 96 91 70 131 84 83 75 189 74 33 103 96 56 96 219 70 68 65 49 68 117 26 47 74 24 53 80 104 159 61 70 48 111 64 126 90 93 52 84 145 64 42 66 167 86 39 95 56 126 121 62 145 111 58 116 80 83 58 114 71 56 29 80 80 142 94 86 102 66 75 84 78 91 130 57 126 26 99 102 117 61 94 109 97 81 63 161 107 70 107 103 43 43 60 121 84 76 45 119 139 103 36 58 119 121 83 57 44 43 112 129 86 108 88 93 130 28 158 140 104 147 87 86 118 133 133 94 132 94 94 83 92 121 77 79 107 117 84 142 140 95 108 127 111 77 208 97 122 67 68 89 119 123 83 132 60 88 99 116 56 97 74 5 111 95 102 68 97 142 122 125 101 96 17 93 6 151 106 104 156 84 115 99 126 40 97 70 69 113 108 76 137 115 109 125 92 89 75 57 77 50 127 212 48 62 161 73 137 85 126 100 97 91 94 33 87 107 40 103 32 48 106 117 137 74 195 66 115 119 55 50 87 108 127 177 86 100 89 71 93 46 46 111 104 127 82 118 74 28 82 134 85 88 130 154 102 110 103 85 90 109 139 121 74 121 109 49 93 109 102 148 76 62 95 35 26 120 75 113 139 136 87 134 88 77 103 194 61 101 128 52 193 108 66 95 134 35 103 81 79 50 50 61 188 61 113 26 93 88 134 90 130 145 87 94 121 46 56 81 86 81 80 123 77 120 99 45 59 25 122 126 99 136 137 160 100 80 72 83 61 50 87 93 89 102 52 29 73 146 140 79 138 66 121 123 102 168 71 114 65 99 133 91 131 126 126 52 119 88 123 82 134 86 120 40 72 100 110 139 68 103 102 137 109 90 71 34 126 41 87 108 68 80 129 93 89 97 98 88 81 85 58 88 92 94 141 97 46 61 63 139 70 92 107 105 64 75 160 99 76 117 67 98 95 86 47 58 60 124 115 94 92 36 92 65 102 49 112 78 53 77 60 27 158 48 93 151 93 44 68 87 18 150 100 44 57 113 120 67 78 119 61 75 93 97 67 123 115 65 70 91 52 87 126 69 69 135 88 87 70 66 92 39 74 100 142 73 63 36 103 80 128 56 165 91 64 139 66 64 68 86 83 99 52 109 76 98 110 115 93 92 162 38 92 127 100 97 52 58 91 81 65 85 72 87 70 88 127 20 175 67 68 83 200 81 59 144 53 47 72 59 91 85 87 50 38 64 205 186 114 129 105 121 78 131 132 35 75 74 123 101 70 118 15 129 146 66 102 98 116 46 128 152 94 183 106 112 84 54 107 135 68 90 26 117 73 44 94 133 137 91 66 89 46 78 100 105 140 137 69 34 82 100 106 104 85 118 155 181 97 61 122 132 133 141 109 75 69 95 140 110 32 48 100 101 103 65 49 102 71 94 61 152 132 68 121 71 120 133 155 90 110 186 97 92 103 117 70 72 109 65 60 65 58 192 69 78 137 74 124 56 68 117 79 62 206 125 74 101 76 98 102 114 85 77 89 40 99 40 46 114 139 62 107 77 97 64 99 115 84 103 62 147 60 136 118 146 124 91 96 74 84 91 131 138 70 62 67 93 68 85 97 78 79 158 133 118 53 66 103 101 66 74 93 85 116 103 127 102 121 90 45 70 49 101 66 144 72 92 102 58 86 107 149 89 103 123 185 100 131 88 101 119 76 96 41 160 134 68 114 113 112 138 53 31 125 96 52 40 153 129 95 44 76 56 60 80 59 107 133 112 113 136 99 78 213 112 70 52 88 74 153 84 101 56 57 106 66 37 154 61 64 95 160 90 113 156 85 85 93 51 136 106 138 85 112 123 67 97 79 75 169 116 62 55 85 105 79 112 123 136 121 88 71 117 38 103 90 123 148 161 61 79 14 91 105 53 125 131 128 70 105 99 122 36 93 65 124 50 70 68 43 54 75 197 63 72 75 78 174 76 80 163 105 36 90 88 79 78 166 150 122 137 136 89 173 146 80 71 36 154 63 95 89 91 85 80 110 49 134 80 100 87 67 132 82 73 123 33 74 117 117 82 73 53 93 107 62 50 122 95 66 204 64 117 132 70 118 124 76 150 59 79 85 77 71 119 74 131 130 125 120 142 88 87 114 123 144 148 108 144 36 114 104 64 111 126 134 123 125 35 127 77 145 97 106 53 107 76 138 36 134 89 77 67 53 179 76 154 53 184 43 136 98 92 99 134 52 91 100 118 104 71 108 64 79 71 65 138 129 98 112 81 132 104 83 99 112 131 143 66 88 112 97 71 139 113 196 106 147 71 128 118 42 71 102 38 98 81 117 43 114 157 139 119 93 169 64 113 79 116 92 126 99 92 147 51 108 27 103 111 80 151 64 125 99 68 86 102 66 44 131 57 66 80 71 90 104 119 97 57 43 136 108 104 47 74 121 107 67 108 90 145 62 42 120 91 77 57 91 73 66 137 55 55 53 139 58 113 86 155 139 58 75 53 32 117 97 62 55 97 107 89 87 52 112 92 101 147 77 102 104 79 109 89 35 139 58 121 124 48 114 98 111 79 85 67 64 160 64 72 119 106 88 132 74 115 115 114 93 138 74 154 144 123 80 102 113 78 28 98 112 142 197 93 110 63 105 127 15 55 129 81 102 67 94 63 105 76 71 124 148 68 101 123 99 100 78 59 30 95 73 60 130 44 77 43 111 176 51 117 118 62 135 56 98 40 100 84 44 90 92 65 182 142 139 76 100 60 99 113 140 84 157 160 64 40 99 79 137 85 108 113 194 164 126 65 152 105 83 138 48 140 68 42 123 63 27 89 160 97 113 156 124 83 26 97 102 63 89 100 51 108 59 84 100 58 68 61 128 98 54 137 135 87 105 90 29 45 90 95 58 73 135 51 76 156 56 117 56 110 82 90 148 49 100 92 96 35 74 76 128 72 96 63 59 107 37 55 144 80 126 90 152 160 46 41 90 41 64 141 103 48 127 95 98 69 108 80 108 27 68 109 88 92 134 89 78 79 105 105 90 56 48 91 170 95 52 69 121 90 113 59 84 42 113 36 70 99 132 89 103 57 32 55 142 51 101 149 129 80 108 79 142 175 102 120 108 106 105 108 61 103 140 181 48 129 25 77 126 119 89 107 41 83 96 44 90 70 51 167 44 72 89 97 72 58 68 95 92 96 89 88 81 97 136 78 86 45 71 64 86 149 77 160 108 100 150 135 140 57 82 147 85 169 76 80 95 88 68 118 85 123 81 70 56 85 78 14 50 59 73 71 115 123 19 86 129 116 127 141 100 81 38 36 92 125 36 124 111 45 98 104 95 92 89 137 86 63 42 93 53 143 62 18 124 118 133 102 105 99 133 62 216 111 87 65 118 145 147 76 76 61 104 54 71 87 31 87 135 78 63 57 50 75 92 87 73 79 52 54 38 95 103 83 81 100 96 72 110 78 45 66 113 133 71 117 137 77 109 46 41 86 113 66 168 78 45 63 105 55 33 121 114 76 123 99 156 92 68 80 43 98 95 92 67 118 134 96 102 147 60 123 73 153 89 95 55 133 69 85 121 50 165 110 22 99 87 178 57 138 81 77 89 86 32 167 85 107 94 91 78 6 116 161 107 92 74 106 121 65 141 88 142 158 96 82 102 98 32 118 125 85 84 74 18 46 75 59 14 93 116 118 157 71 119 76 102 139 131 62 105 32 95 123 111 100 113 106 46 105 82 72 66 59 94 94 121 18 196 94 131 105 131 159 110 86 125 70 138 75 106 69 146 139 83 77 94 71 77 72 68 41 93 152 72 62 60 85 88 100 65 88 145 95 95 90 98 123 158 130 120 181 86 104 141 98 118 116 131 59 89 53 96 73 48 59 60 173 160 112 109 159 53 50 80 82 111 84 105 79 93 171 67 135 138 151 90 73 45 123 72 128 76 102 42 110 81 105 83 119 112 136 80 76 139 154 81 141 56 128 75 101 69 85 68 79 145 86 189 179 96 83 65 73 82 170 60 162 54 131 102 96 74 89 128 73 68 144 155 57 106 80 71 94 97 93 71 148 72 107 100 158 95 136 83 126 87 94 144 50 122 41 140 100 78 111 4 81 80 89 77 132 122 68 143 57 114 51 85 96 95 67 72 75 59 96 85 93 60 104 119 72 82 97 79 85 91 90 127 103 102 130 67 96 165 78 107 108 108 85 92 47 136 84 110 80 153 71 98 81 52 97 109 73 40 145 100 133 97 71 113 56 72 80 105 71 52 61 90 103 70 85 59 77 121 69 97 115 138 109 89 102 97 149 108 59 58 96 68 132 85 57 160 79 36 117 149 63 121 87 111 83 95 105 77 110 99 97 81 80 122 147 155 89 99 70 37 95 55 160 47 128 120 134 95 56 85 121 103 80 163 62 49 162 139 147 43 128 71 128 134 106 127 110 97 139 79 86 80 45 95 121 118 60 105 128 92 233 93 48 111 115 99 77 132 88 107 66 146 128 99 80 140 110 87 75 105 71 101 144 102 52 55 139 92 84 89 120 108 122 136 140 95 55 51 92 77 110 35 91 88 111 142 116 129 101 182 80 133 121 69 101 67 66 72 53 53 82 88 143 53 56 115 103 138 65 116 134 30 123 27 106 149 89 109 67 83 72 102 49 133 91 74 125 61 98 138 151 104 78 118 50 62 63 101 120 53 79 98 111 147 113 72 91 49 54 131 88 98 77 51 141 75 91 46 55 94 85 92 124 95 92 88 106 99 120 116 76 61 70 73 124 92 46 45 126 106 73 126 112 63 81 100 96 70 98 96 78 62 99 135 91 101 126 97 110 139 76 141 74 125 69 54 71 36 126 114 132 139 82 82 106 116 65 79 156 77 123 66 26 44 70 148 75 76 77 53 33 76 29 89 83 134 75 99 157 85 123 56 37 88 112 123 137 112 43 83 81 167 38 73 110 58 59 78 130 151 73 108 143 86 85 86 47 66 71 197 80 136 79 66 49 76 60 90 163 60 90 90 97 73 66 101 106 81 122 70 104 177 174 121 89 118 95 80 85 125 93 86 82 155 117 69 89 92 82 100 55 71 88 93 74 77 69 146 61 85 71 94 35 113 36 89 83 116 120 68 96 114 54 109 99 78 72 80 91 143 94 89 71 132 54 56 154 72 89 125 102 96 91 101 209 66 46 115 85 67 117 82 135 84 78 42 56 146 75 131 76 104 81 114 76 123 89 108 45 36 70 96 87 72 159 31 82 91 60 79 54 104 71 81 75 79 187 86 90 94 91 143 72 121 176 90 82 85 44 115 95 83 101 65 68 190 105 75 139 79 86 48 47 117 123 46 99 82 40 170 154 150 33 103 30 26 126 97 155 107 120 116 97 59 118 127 55 42 114 126 153 95 80 162 141 64 132 57 112 86 70 109 67 100 63 89 81 84 70 130 56 84 132 111 78 125 89 117 102 129 67 148 138 68 132 122 83 85 107 93 114 79 47 59 38 93 121 144 71 82 75 88 97 84 155 83 68 54 184 91 67 121 109 66 78 16 71 116 107 100 86 96 60 105 81 93 99 41 109 146 65 122 179 86 122 111 99 88 80 131 135 52 88 130 131 44 103 59 90 99 75 52 54 151 74 92 128 77 110 85 28 63 145 75 70 45 102 117 105 58 85 136 117 92 66 71 78 24 87 90 91 49 128 40 120 115 69 82 163 98 138 114 82 60 71 67 75 89 116 113 127 42 124 100 132 65 110 169 97 169 78 117 180 66 57 115 142 113 106 102 95 114 147 87 70 44 93 150 155 42 54 117 75 108 90 96 71 127 71 57 128 157 117 107 46 110 122 80 55 152 106 78 93 144 102 117 107 54 132 127 101 39 80 93 68 83 27 88 65 121 120 80 36 183 35 65 101 84 105 31 81 79 129 105 67 39 148 163 89 94 77 117 53 128 45 84 93 93 73 54 56 63 70 78 107 91 129 135 91 70 79 90 96 102 121 52 111 85 111 62 68 65 128 85 116 49 188 189 141 131 120 71 59 200 94 114 171 75 83 106 65 68 142 124 35 75 51 70 117 101 156 58 81 104 73 114 48 69 128 90 127 57 79 66 94 103 72 126 99 139 136 81 24 96 65 63 26 106 102 74 77 115 126 17 107 133 132 63 92 145 122 90 72 131 42 106 94 80 139 96 106 256 57 72 113 55 78 189 86 66 51 147 109 55 134 98 135 100 104 43 47 71 67 65 83 47 108 144 107 51 74 52 167 106 37 110 108 85 47 140 100 72 126 91 71 57 66 56 83 112 100 64 42 109 101 132 98 126 98 112 61 149 92 79 126 56 97 94 116 187 14 112 197 65 113 28 74 121 109 144 49 89 80 63 65 98 55 93 95 113 50 104 121 36 80 50 110 72 105 44 119 51 98 120 36 102 72 174 130 114 103 130 80 150 45 102 53 133 90 83 54 105 102 117 171 150 91 101 111 91 35 42 145 76 54 117 114 43 56 93 123 158 64 100 90 85 134 132 100 67 77 52 50 85 131 56 104 84 90 86 154 23 105 70 46 87 73 53 77 49 132 59 68 64 61 11 120 85 88 115 87 137 115 61 101 80 65 94 48 111 103 98 87 111 133 112 122 108 72 113 141 25 94 65 83 83 139 113 117 105 114 76 92 106 69 63 115 116 53 71 90 110 78 55 80 123 94 109 80 71 65 107 72 176 109 26 73 76 64 94 185 71 103 92 93 98 81 133 69 72 85 91 119 110 96 86 65 99 88 87 102 105 116 97 56 90 83 123 138 82 148 56 97 118 50 63 63 101 135 79 151 98 145 141 130 19 73 132 76 163 94 110 59 79 48 122 88 97 35 46 93 87 46 79 79 153 106 102 177 63 38 130 77 85 106 91 109 137 110 80 65 49 131 83 136 77 166 44 53 80 104 128 77 55 91 98 53 81 132 112 110 83 79 102 102 117 116 81 113 90 109 123 39 84 80 133 75 147 131 72 82 51 40 73 59 176 124 135 74 104 71 134 26 117 75 15 87 55 55 98 90 93 97 101 42 77 120 93 69 96 143 107 93 76 152 134 61 79 120 97 152 52 60 99 94 53 139 113 74 81 161 79 136 158 112 102 24 64 135 52 77 52 106 66 78 86 193 106 71 57 61 68 68 48 63 106 198 137 134 130 85 95 98 136 128 107 90 92 108 73 44 73 91 60 104 123 126 87 116 76 85 42 44 155 118 75 97 102 109 57 89 70 144 112 51 16 49 80 45 71 90 79 131 65 97 71 36 84 86 126 100 91 150 101 123 97 62 54 95 85 56 193 148 102 63 80 97 119 84 195 81 84 101 50 99 69 69 84 102 120 144 125 83 124 50 58 117 129 58 89 88 121 100 126 138 93 86 119 71 80 111 58 77 72 40 64 94 128 91 81 47 107 145 100 99 111 175 128 80 142 46 46 64 70 97 120 61 64 87 34 125 60 106 85 62 144 186 95 62 141 138 70 172 73 127 86 82 89 147 62 90 120 113 91 159 82 90 104 52 79 24 71 42 51 128 56 82 138 102 100 55 100 115 111 77 110 94 92 68 108 64 62 112 81 60 113 93 61 157 84 144 59 93 53 139 82 74 98 103 94 74 142 109 96 110 155 89 99 79 113 54 147 69 141 61 61 72 129 71 67 99 107 108 66 28 50 41 98 168 90 78 34 79 90 64 108 113 103 110 79 95 123 70 86 98 40 93 72 148 73 121 175 145 120 76 172 63 153 98 104 105 42 98 113 93 61 115 135 112 99 114 58 64 58 90 98 139 94 131 77 66 93 110 76 104 46 116 89 57 122 73 107 85 156 50 111 20 116 131 21 103 73 99 79 96 44 89 76 27 69 62 80 112 148 102 106 41 86 50 101 75 88 70 68 110 113 222 94 162 49 114 88 65 33 83 138 63 69 60 103 111 92 83 56 83 175 33 39 93 83 111 130 109 109 105 88 132 94 63 119 52 43 90 81 64 115 118 159 80 119 74 50 134 125 61 121 111 129 73 67 84 90 86 93 43 118 76 81 74 96 120 50 61 76 105 61 109 105 139 45 56 77 93 49 31 156 127 135 50 114 68 85 56 50 74 155 113 96 71 189 126 194 30 107 135 139 95 109 125 185 51 134 94 30 71 88 85 73 135 120 108 103 97 75 109 73 143 183 105 56 62 147 52 124 120 114 86 65 124 148 56 94 106 77 102 112 134 105 63 118 93 116 134 63 107 72 68 47 99 31 102 102 122 155 47 119 79 110 157 74 89 113 55 96 82 79 70 81 117 108 83 179 129 64 110 130 43 100 76 142 145 76 90 72 89 75 80 63 108 75 166 88 27 73 62 103 41 105 56 98 62 73 134 92 97 109 67 115 113 74 86 96 90 114 51 60 118 87 71 83 45 137 106 69 55 95 70 113 112 104 45 81 58 90 120 117 88 82 88 111 116 59 120 177 91 38 107 120 85 98 85 166 72 34 37 98 102 98 48 126 55 78 119 43 91 48 38 95 67 82 79 76 101 84 117 122 108 85 90 79 52 61 137 39 101 107 102 98 77 136 124 100 92 49 89 80 101 85 109 47 61 148 119 53 105 87 79 49 151 63 103 83 152 214 63 60 114 55 36 10 62 98 85 146 134 111 77 119 83 97 85 142 31 31 77 142 94 91 44 89 93 88 100 92 94 62 149 111 81 121 98 108 101 102 59 70 181 122 146 61 49 100 55 125 152 112 110 129 44 15 69 96 97 66 106 42 127 93 65 133 104 110 116 116 99 59 62 70 122 161 157 50 82 57 71 114 106 38 96 140 42 26 153 48 101 117 115 80 102 98 125 150 68 82 83 42 45 126 75 77 16 45 113 136 108 109 81 97 69 73 76 94 106 55 98 131 72 95 153 47 72 114 46 146 75 93 75 115 132 50 44 105 113 92 81 151 46 74 193 162 94 136 116 105 87 121 76 173 31 91 102 95 131 56 56 133 97 111 25 77 67 90 149 127 202 122 112 112 108 65 68 105 91 74 75 62 55 97 45 171 57 44 106 63 79 38 116 110 129 127 103 125 67 107 48 96 114 102 60 95 137 75 73 104 134 48 120 120 140 55 111 152 155 157 46 128 105 127 86 86 97 34 40 50 78 75 125 124 53 123 93 71 37 51 98 74 83 48 119 55 78 88 142 136 126 77 110 86 73 138 112 150 102 106 164 126 106 71 71 30 57 80 75 73 46 108 70 88 145 88 128 97 117 61 74 98 124 101 113 158 51 72 53 59 131 129 147 77 64 125 152 101 71 65 98 103 98 102 80 80 36 123 168 140 103 45 127 69 153 51 123 75 29 89 134 41 115 62 89 100 63 123 98 82 83 79 123 117 132 52 110 87 86 110 60 123 165 85 126 75 58 38 77 85 146 26 121 83 137 119 71 105 128 107 83 112 71 47 117 161 86 76 87 75 71 89 93 123 141 85 87 106 102 201 107 95 67 115 121 62 102 68 56 80 95 93 95 80 157 96 106 40 87 102 84 97 55 106 83 102 149 97 70 63 147 85 65 93 197 108 79 47 59 141 92 130 63 57 93 129 70 116 113 114 111 112 92 65 127 96 191 103 129 89 42 115 109 81 120 118 45 89 60 102 118 116 95 99 75 123 57 120 60 67 91 58 60 106 100 95 105 145 183 101 78 75 129 118 39 74 56 42 132 149 92 47 110 50 63 66 62 90 128 91 109 86 65 115 132 77 84 79 41 38 119 54 92 143 137 48 122 235 124 97 75 79 145 45 163 62 68 78 102 81 154 85 73 102 137 108 51 87 100 62 150 16 98 107 75 103 88 101 105 67 109 132 62 70 95 45 87 78 65 128 61 48 115 142 106 99 65 79 99 108 46 9 98 28 86 107 31 50 48 124 137 71 69 59 105 174 70 160 107 64 105 99 86 36 97 112 61 108 85 70 38 92 165 57 81 152 115 120 166 91 160 126 28 68 62 143 102 150 151 100 95 172 80 102 66 97 96 68 109 91 117 82 95 58 117 154 68 42 84 112 78 148 104 100 70 88 98 114 81 46 53 86 60 106 151 87 127 81 84 73 174 105 93 92 28 126 100 76 92 151 148 90 126 93 47 95 186 91 105 37 128 83 108 15 92 95 103 72 56 96 130 69 145 38 88 59 137 101 83 33 113 57 47 64 70 86 91 120 86 144 110 44 86 151 45 206 116 75 83 31 56 104 52 62 45 39 101 99 94 111 107 101 111 78 64 144 104 79 111 51 127 125 115 60 85 103 161 121 117 122 125 95 71 88 103 100 85 160 103 27 153 147 105 64 136 72 57 131 112 78 98 126 193 93 86 117 119 146 124 121 87 124 71 90 97 168 82 140 150 88 29 73 128 96 62 126 46 111 186 65 64 89 113 93 66 81 165 149 86 76 65 86 94 111 82 98 207 92 92 67 136 93 108 108 64 122 92 68 134 99 94 127 87 120 98 56 38 116 75 106 66 52 94 99 85 146 123 108 118 152 194 101 65 84 101 74 55 77 53 41 109 108 37 132 50 111 60 81 68 84 103 153 122 120 120 82 139 82 97 30 86 68 127 88 121 104 80 60 134 73 104 99 37 103 83 44 130 150 84 79 138 122 138 112 99 146 74 132 98 85 50 64 98 74 103 78 60 98 44 65 103 70 89 90 144 105 106 96 44 55 35 198 98 74 97 83 112 102 66 108 115 69 112 137 78 87 31 61 120 72 60 104 99 136 149 129 91 93 152 75 101 119 178 114 119 105 89 155 155 78 132 137 118 86 114 80 49 97 93 107 61 149 74 128 110 126 137 199 82 52 77 96 93 95 57 137 105 119 62 60 134 86 67 111 118 80 50 85 54 103 77 80 55 87 45 35 140 150 125 89 74 98 36 89 31 36 56 104 90 144 91 39 95 121 32 96 114 127 94 78 98 129 78 77 92 117 111 61 67 84 85 84 50 83 78 100 108 63 90 64 57 86 69 129 129 73 97 112 89 154 99 108 168 114 47 84 140 128 73 115 139 77 114 74 131 145 79 143 65 104 164 28 110 59 106 147 53 94 122 88 47 85 106 90 127 126 75 53 79 63 160 101 71 59 117 90 92 84 138 51 109 38 70 59 83 53 67 93 47 44 110 60 121 19 65 94 115 168 99 108 78 57 121 141 76 63 117 93 96 79 116 39 96 147 106 69 78 89 125 159 83 117 136 64 109 67 105 87 60 130 82 93 118 78 130 89 67 49 114 93 45 155 71 139 117 131 31 87 85 127 147 75 95 77 175 123 164 140 90 120 26 146 150 78 52 113 63 47 98 94 108 58 130 117 95 127 97 61 39 73 138 60 90 138 94 68 47 75 107 69 91 103 29 88 97 96 86 187 123 90 187 102 115 92 90 79 151 98 79 62 69 120 166 17 177 62 174 56 142 107 149 122 143 68 101 51 153 89 118 58 142 103 79 83 82 53 53 128 150 148 79 108 21 89 88 144 111 109 105 102 93 71 59 87 124 85 47 65 43 75 98 48 139 106 118 56 73 69 84 95 64 63 80 142 87 121 49 36 135 69 98 30 104 69 43 134 58 57 99 138 69 92 95 118 153 86 89 38 68 80 141 160 124 101 63 193 169 89 112 156 108 139 157 102 108 37 66 56 74 38 94 110 93 115 112 77 58 115 99 66 92 75 101 75 106 129 80 124 53 78 58 47 142 56 123 134 104 153 117 62 57 83 118 99 47 158 57 67 81 54 78 85 77 65 68 51 92 68 31 59 124 132 74 76 26 56 173 113 73 85 69 149 144 134 122 125 114 93 104 69 13 114 120 91 96 39 94 53 61 65 103 67 135 86 131 93 111 121 99 101 76 77 102 136 155 123 136 85 128 73 58 93 134 90 69 154 95 139 69 107 126 68 22 73 103 112 90 76 113 68 112 84 58 98 135 135 59 60 123 93 37 57 130 80 65 71 157 110 97 99 48 67 68 89 98 156 90 140 178 92 131 59 75 81 41 61 147 125 75 129 55 123 159 91 160 132 91 132 75 62 78 48 118 86 121 36 85 51 198 83 129 84 69 152 46 59 86 103 48 172 79 105 76 139 126 116 109 100 133 101 118 103 74 163 48 93 72 219 121 99 98 77 89 58 101 43 188 141 102 114 67 118 85 47 134 93 92 24 79 53 48 56 126 130 37 144 47 88 114 82 78 70 129 158 44 116 81 84 176 94 85 63 72 129 163 89 56 118 55 97 65 93 92 122 151 28 150 112 123 126 122 163 127 90 152 86 35 15 46 77 96 69 124 60 109 125 91 111 89 142 124 75 110 91 47 136 133 101 102 87 47 106 142 72 66 68 110 83 128 65 67 55 47 146 110 75 86 87 76 116 42 73 89 124 85 117 96 85 132 112 65 48 126 141 118 76 122 62 63 167 68 75 115 138 80 123 69 113 98 142 67 115 124 108 80 70 118 74 106 142 60 57 84 150 150 113 109 134 118 85 146 111 131 76 111 49 54 159 93 145 152 101 143 132 104 71 67 122 69 136 143 95 124 98 43 94 149 53 27 104 139 79 122 135 55 136 55 108 22 45 82 124 126 38 45 95 72 61 55 74 114 60 75 110 119 83 23 116 190 64 36 49 88 99 76 116 70 111 27 144 74 96 46 150 77 74 58 75 72 130 96 183 93 149 103 78 122 122 97 132 95 180 92 121 49 66 107 63 92 50 113 85 111 46 80 41 70 115 123 90 108 62 74 29 115 64 124 91 115 78 113 92 85 89 91 176 66 150 88 156 96 121 153 104 77 83 143 141 77 44 144 124 115 66 89 104 137 75 66 83 87 87 139 72 38 114 57 111 109 35 94 48 103 145 169 123 108 97 130 110 54 137 68 83 69 90 123 133 33 62 46 108 79 92 51 58 167 115 120 69 71 115 92 110 51 96 19 87 83 66 68 141 104 172 143 75 138 127 85 123 144 72 94 110 89 120 55 97 71 56 71 63 153 139 92 91 82 128 135 108 62 78 72 72 50 51 103 80 87 29 94 135 82 111 158 131 107 122 17 83 86 89 73 158 123 103 90 92 67 165 128 109 94 97 44 137 99 115 147 65 113 54 79 102 95 144 101 64 147 36 86 70 123 86 65 130 102 111 65 123 74 83 68 70 104 75 59 98 127 40 95 66 87 23 99 82 161 83 139 74 92 49 67 135 131 131 103 126 94 131 88 112 78 54 66 155 73 110 81 61 130 84 182 86 64 56 85 15 129 84 74 37 120 142 115 95 46 78 140 91 102 34 75 126 94 101 60 48 90 25 75 74 96 100 86 164 89 59 103 57 125 122 98 56 40 138 104 102 78 69 41 83 104 137 59 92 103 106 91 76 35 76 84 77 70 96 89 97 121 77 96 118 65 109 116 70 120 126 74 30 100 115 97 104 60 34 77 96 133 100 134 136 136 130 78 66 48 109 159 90 106 73 86 105 84 51 96 84 77 58 81 102 103 113 131 109 63 36 91 83 121 94 96 149 119 94 78 75 110 78 53 50 45 115 122 99 143 158 113 96 81 137 145 53 94 86 96 98 124 112 115 139 82 127 95 120 107 86 105 50 65 43 91 90 88 126 151 112 97 140 141 103 138 66 163 82 155 119 14 126 49 73 78 69 94 97 102 75 148 109 128 57 139 52 30 63 91 128 98 101 83 76 156 81 71 71 104 80 226 123 142 86 53 62 70 91 95 151 113 28 58 89 78 131 62 79 95 65 54 83 161 103 53 83 48 64 101 66 126 133 80 90 34 121 63 122 91 91 86 98 55 151 65 139 60 162 164 67 121 155 71 102 112 116 14 100 106 89 87 116 90 152 53 79 117 78 98 104 104 81 75 53 73 53 100 107 114 119 121 75 156 114 59 34 125 121 74 75 122 152 116 150 109 55 91 100 82 123 94 82 50 73 114 77 51 65 124 96 159 80 92 74 133 150 97 99 132 40 67 99 66 39 97 46 140 75 73 128 65 80 87 135 95 28 106 54 165 92 96 118 84 45 181 90 125 110 81 151 141 37 129 140 113 175 126 111 108 69 63 84 82 176 148 147 106 79 102 42 84 41 76 97 33 125 124 72 45 144 70 29 89 89 43 63 94 142 56 127 59 76 130 101 124 66 174 130 95 66 58 135 61 105 76 112 64 30 102 77 126 67 165 139 143 128 124 19 54 76 163 57 168 85 66 102 170 54 98 79 121 65 85 85 46 32 100 82 119 74 101 77 98 99 51 50 90 57 79 92 115 113 121 122 73 32 96 50 122 58 134 59 90 84 89 99 128 108 111 61 131 83 95 63 108 99 108 82 137 120 76 126 44 56 73 72 145 81 77 77 94 67 56 91 118 58 74 53 112 48 132 69 29 106 74 34 120 96 69 121 47 53 99 130 120 116 103 87 105 92 104 114 116 110 43 70 59 153 127 40 135 62 216 100 176 101 103 105 117 44 117 65 74 58 102 91 137 97 82 93 130 79 91 95 86 110 48 95 144 111 110 101 92 144 148 95 91 90 121 85 172 81 35 152 113 40 74 126 82 63 74 121 34 112 157 125 114 49 102 84 47 132 88 69 74 104 87 73 69 92 124 94 89 66 70 76 90 26 81 43 65 136 126 81 86 60 158 125 50 68 78 89 58 118 151 85 158 77 115 85 35 71 150 115 72 94 142 92 60 93 44 92 121 128 124 25 146 44 68 79 27 120 76 92 133 145 123 166 102 35 142 114 113 130 86 76 91 102 89 130 136 50 96 50 98 77 106 116 65 119 68 94 111 25 76 58 100 79 87 49 130 97 3 117 49 91 75 89 98 154 75 113 132 140 98 57 77 69 95 122 150 115 94 106 55 127 76 53 68 126 71 80 114 92 117 110 88 132 142 100 96 47 71 86 84 155 148 120 39 154 100 98 142 42 38 94 171 58 91 10 129 144 168 91 115 66 134 81 127 47 89 93 144 55 111 140 68 74 110 97 101 103 90 68 110 96 147 59 170 61 115 127 92 106 53 105 103 78 56 90 142 67 62 79 108 99 112 98 46 157 89 90 61 87 63 71 129 102 84 78 61 64 17 75 127 46 57 58 73 113 67 70 76 112 101 62 97 116 153 92 20 43 55 143 90 85 96 127 60 103 154 81 90 63 81 90 61 56 80 87 136 65 62 54 141 100 69 47 44 137 74 75 112 99 84 88 68 94 79 64 108 153 106 104 148 83 136 75 52 82 73 36 52 91 108 160 82 84 108 95 125 67 137 88 58 90 119 139 98 193 136 54 117 91 69 51 86 131 96 28 25 131 83 109 182 163 71 121 113 84 72 76 43 120 105 86 128 140 91 34 132 59 69 53 124 72 49 73 72 92 101 116 117 106 74 174 123 95 127 139 67 91 43 76 127 74 100 92 101 81 27 97 151 123 95 91 76 21 142 119 148 64 136 130 136 80 65 87 99 136 72 94 82 73 110 100 203 129 90 63 144 57 124 108 57 86 80 141 60 100 73 101 112 99 75 147 94 124 52 75 153 42 111 102 95 66 125 83 114 85 106 133 135 165 88 107 49 195 87 88 75 117 116 128 172 196 87 125 81 60 99 57 46 93 80 81 39 72 48 83 59 66 119 119 26 160 113 105 79 166 81 99 59 48 63 59 102 48 65 96 20 101 42 80 76 93 68 88 68 101 48 87 118 78 88 97 46 100 46 95 193 50 85 84 106 57 30 62 81 113 41 146 77 101 50 121 77 108 80 39 64 122 117 51 92 105 99 107 83 72 97 55 106 71 74 70 86 71 103 32 44 141 47 66 80 102 123 68 174 46 14 61 147 115 86 131 94 107 67 149 68 79 30 143 124 62 93 59 93 58 70 109 93 128 115 84 147 44 62 79 102 59 56 83 71 62 91 67 105 182 79 78 116 93 89 55 65 54 96 119 118 103 122 92 56 156 127 124 109 87 81 163 94 66 52 143 71 44 133 78 140 60 142 150 56 57 120 123 124 66 145 109 93 109 64 117 30 98 100 136 103 126 113 70 35 173 139 72 101 43 87 91 51 144 118 92 62 99 92 112 55 78 187 30 41 54 63 109 71 66 100 104 71 154 147 83 92 82 86 96 85 97 81 46 44 130 78 142 88 138 108 30 79 84 99 108 54 17 72 135 122 90 91 107 48 84 15 57 43 24 105 121 97 130 79 137 25 64 64 142 152 112 108 67 67 151 144 166 115 59 110 73 86 127 110 86 113 50 58 145 64 95 83 117 165 87 112 54 88 69 47 145 94 74 103 88 89 71 41 66 114 81 75 73 108 95 77 131 122 125 77 40 78 88 87 96 109 99 135 102 131 133 97 121 94 72 104 41 83 150 123 47 132 146 85 98 105 102 87 120 107 65 118 101 85 224 60 69 60 55 111 47 78 128 43 120 78 92 84 57 47 73 37 102 60 100 108 65 111 83 101 71 112 94 142 131 52 74 82 18 88 124 88 83 92 63 83 68 123 95 69 88 95 65 91 142 88 148 112 50 79 76 68 66 79 87 124 111 95 107 73 57 67 116 87 53 72 138 133 67 86 63 83 85 154 130 120 153 76 101 24 84 73 59 65 115 158 67 74 131 104 176 97 113 62 67 92 125 115 108 69 128 79 102 72 162 47 123 190 138 148 50 166 105 109 78 119 112 117 63 98 84 81 69 74 127 82 113 114 49 97 72 110 93 54 117 121 91 88 122 125 199 142 52 90 88 4 139 12 57 104 170 65 84 137 83 74 104 128 64 70 131 111 164 71 115 75 134 57 127 100 37 72 163 52 73 138 137 100 67 183 97 121 58 148 102 147 91 98 112 85 133 115 71 80 136 140 141 45 124 91 136 43 90 92 118 107 114 129 130 118 103 120 130 114 37 100 79 81 71 131 80 79 161 102 82 119 89 91 84 67 105 15 83 108 75 106 40 96 118 98 96 73 83 97 100 133 93 136 80 82 100 111 124 166 61 88 115 58 49 57 100 95 38 64 163 86 55 189 73 79 126 82 54 121 98 119 122 76 79 85 120 62 17 127 120 66 122 52 68 69 124 105 85 144 64 102 65 123 71 69 76 126 93 146 67 89 93 146 63 115 68 103 83 47 92 76 69 52 98 150 77 163 107 92 139 83 70 122 83 97 104 106 77 186 97 68 119 49 116 116 72 97 107 43 167 37 135 53 99 101 61 74 62 84 162 104 101 75 107 98 94 155 104 103 145 86 79 141 42 179 41 144 82 87 118 103 57 60 113 84 75 50 81 97 151 81 51 102 50 108 50 56 75 104 115 79 164 115 98 47 91 79 74 75 87 144 115 49 102 132 163 66 153 72 55 65 106 63 112 70 61 74 98 53 103 46 76 72 49 119 87 122 159 135 102 62 82 108 154 117 52 80 74 110 68 161 51 113 84 118 43 111 112 43 113 65 142 111 95 149 133 61 170 26 75 150 60 42 105 97 56 65 30 91 77 111 70 121 70 104 108 41 110 77 96 92 149 87 96 87 62 81 70 124 87 80 135 90 87 70 108 63 143 46 60 103 75 35 109 42 81 90 182 174 22 91 92 149 104 169 38 111 99 130 118 101 110 135 51 105 82 95 111 119 76 81 89 82 68 58 111 102 110 143 93 115 104 55 205 91 87 75 94 97 88 69 188 121 123 70 46 146 69 132 89 128 119 51 84 123 64 109 76 104 70 128 64 124 80 76 109 102 99 55 98 42 88 92 139 104 128 86 128 71 88 135 135 75 132 118 60 111 101 49 146 120 67 116 101 106 118 77 105 142 112 25 184 97 127 144 83 108 40 73 111 131 86 122 85 108 124 96 91 110 127 134 179 100 133 87 68 161 167 70 26 77 65 93 77 149 104 45 118 61 49 103 85 96 127 95 125 213 78 87 90 137 58 103 98 88 127 91 60 63 117 122 111 207 52 97 93 111 96 89 111 102 85 19 126 93 141 62 97 40 71 66 90 62 107 30 74 67 86 123 63 90 102 80 178 103 141 96 91 98 79 76 69 118 92 100 107 93 51 125 117 57 56 86 157 71 121 126 102 84 70 56 89 82 107 111 95 19 135 117 99 193 71 110 129 130 74 104 63 72 145 102 96 117 140 125 60 62 98 73 85 42 198 16 116 86 94 96 79 135 114 135 83 102 60 128 60 110 33 120 86 165 114 81 162 131 111 28 44 106 166 116 146 41 94 82 120 97 51 98 127 62 108 123 131 162 47 131 114 83 131 109 67 141 65 108 107 96 82 168 46 86 62 84 33 126 132 62 81 83 73 96 80 53 71 91 135 175 132 96 102 112 57 74 67 80 69 205 40 26 77 138 102 118 92 124 80 93 72 82 78 105 99 109 111 82 119 48 104 87 95 135 87 84 124 111 95 143 83 100 76 69 88 77 73 77 113 64 37 115 69 21 107 45 71 146 69 109 154 87 57 111 113 115 71 86 102 160 90 98 88 145 82 106 125 105 126 116 62 203 63 84 82 116 143 70 133 60 66 63 117 136 48 80 87 125 159 142 179 124 129 136 126 95 105 79 95 118 109 52 149 38 85 63 101 94 67 70 145 66 152 135 29 81 90 180 43 143 79 77 90 184 139 77 122 103 89 100 117 87 85 70 124 105 64 83 72 47 105 92 61 73 106 83 88 121 50 62 109 98 108 86 76 87 171 130 31 52 165 78 82 90 76 88 52 170 158 88 90 96 93 96 162 55 120 53 36 135 146 132 126 88 98 78 100 149 71 30 89 24 64 98 127 105 106 105 68 93 63 86 107 94 99 47 75 139 105 142 54 48 94 109 80 123 41 159 55 133 82 58 70 100 68 93 167 93 47 84 67 168 45 136 79 73 130 103 63 81 93 113 105 154 106 55 113 54 86 59 156 152 125 138 125 168 84 109 65 87 67 51 60 41 25 82 181 71 133 57 65 71 83 55 82 104 100 153 58 142 141 52 87 52 72 46 103 81 94 19 75 53 7</t>
+  </si>
+  <si>
+    <t>MIE(0.2810702221646968, 2.319183233666389, -2.013981970229645e-30, 1.4303758187051259)</t>
+  </si>
+  <si>
+    <t>1 0 0 2 2 1 0 1 1 2 1 2 1 1 1 1 0 0 1 2 0 1 0 1 2 0 1 0 1 0 1 0 4 1 1 1 0 1 1 2 3 1 1 0 0 2 2 0 2 1 1 2 0 0 0 1 1 1 1 1 2 0 0 1 0 0 0 1 0 0 1 0 0 0 3 1 1 0 2 2 1 0 1 0 1 1 1 2 0 0 0 0 1 0 1 1 0 0 4 0 0 1 1 1 2 2 1 1 0 2 0 2 1 4 3 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 0 3 1 1 0 1 1 1 0 0 0 1 0 3 1 1 0 0 1 1 0 4 1 1 0 3 0 0 1 0 1 1 0 1 2 2 1 0 1 0 0 0 0 1 2 1 2 1 2 1 0 0 1 2 1 2 0 2 0 3 0 0 1 1 1 0 0 2 1 0 0 0 1 1 0 2 0 1 0 0 0 1 1 0 0 1 0 2 0 2 0 1 0 1 0 1 1 1 1 0 2 1 1 2 0 1 0 2 0 1 0 0 0 1 3 1 1 1 0 0 1 1 1 0 0 1 0 2 0 1 0 0 0 0 0 1 1 0 1 0 2 0 3 1 2 1 1 0 0 0 2 1 1 1 2 1 1 2 0 2 0 2 3 2 1 1 0 2 0 1 0 0 0 1 1 0 0 1 1 0 0 0 2 1 1 0 0 1 2 1 0 2 1 0 0 1 2 0 0 3 0 3 1 1 1 1 1 0 0 1 1 2 1 2 1 0 1 0 0 0 1 1 1 2 1 0 0 2 1 2 0 2 0 0 0 0 2 1 2 0 0 0 0 2 0 0 0 0 0 2 0 0 1 3 1 2 0 2 2 0 2 0 0 1 0 2 1 0 1 1 0 2 2 2 0 1 0 0 2 1 2 0 0 1 2 0 0 1 0 2 1 0 0 1 0 1 1 3 4 1 0 0 0 1 2 1 1 2 0 0 1 0 0 0 1 1 1 2 1 1 0 0 0 0 1 2 0 1 2 1 1 0 1 3 0 0 0 1 0 1 1 1 2 0 1 1 0 1 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 2 1 1 0 0 0 0 1 0 1 0 0 1 2 1 0 1 0 0 0 0 1 2 0 1 2 0 0 1 0 0 0 2 1 1 1 1 1 0 1 0 2 0 1 0 0 1 1 1 1 1 1 0 2 1 1 1 1 1 1 2 2 0 0 2 0 0 1 1 0 1 0 2 0 3 1 1 1 0 1 0 2 0 2 0 1 0 1 1 0 1 1 1 1 2 1 2 1 1 2 3 1 0 0 1 0 3 0 0 0 2 0 1 1 0 2 0 2 2 0 0 0 0 1 3 1 0 1 2 0 0 1 3 0 1 1 1 0 1 0 1 0 0 1 0 1 1 3 1 0 0 1 0 3 0 0 1 1 3 1 2 0 1 2 2 0 1 0 1 1 1 2 1 0 1 0 1 0 3 0 0 0 1 0 0 1 0 0 1 4 2 1 1 0 0 1 2 1 1 0 1 1 1 2 1 0 1 0 0 1 0 1 0 0 2 1 0 1 0 2 0 2 0 0 0 1 1 1 1 1 1 1 0 0 2 2 1 0 0 2 1 0 2 1 2 2 2 0 1 1 0 1 2 1 2 0 0 2 0 0 1 0 0 0 1 1 0 1 1 2 1 1 0 1 2 2 1 0 0 0 1 0 1 1 0 0 0 2 0 2 2 1 2 1 0 1 0 0 1 3 1 0 2 2 0 0 4 0 1 0 0 0 1 1 0 1 1 1 1 1 0 0 2 0 1 1 0 0 0 3 1 1 1 1 1 2 3 0 1 0 0 1 1 1 0 2 2 0 2 1 3 1 0 0 1 1 2 1 1 1 1 1 2 2 2 0 1 1 1 0 1 1 0 0 2 1 4 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 1 2 1 0 0 1 0 1 3 0 1 0 2 1 1 0 0 1 2 0 1 2 2 1 0 0 0 0 3 1 1 2 1 0 0 0 1 1 4 1 1 1 0 0 0 2 0 1 2 1 0 0 0 1 0 2 0 1 2 2 0 0 1 0 1 1 2 2 0 2 1 0 1 3 0 2 1 1 2 1 1 1 0 0 0 0 1 1 0 0 1 0 0 3 2 0 2 0 1 1 1 0 1 1 1 1 1 0 1 1 0 1 2 0 2 0 0 0 0 1 1 2 0 1 0 1 2 2 0 0 1 0 3 1 0 2 2 0 1 0 0 1 0 0 0 0 0 0 1 2 4 0 1 0 3 1 0 3 0 0 1 0 0 0 2 3 2 1 1 0 2 1 1 1 0 1 1 1 1 3 2 2 0 1 1 0 1 0 1 0 2 0 4 0 0 1 0 0 2 1 1 0 2 1 0 0 1 0 1 0 1 1 1 2 2 0 2 1 2 0 1 1 1 1 1 0 1 1 1 1 2 1 0 0 2 2 0 0 1 0 1 1 0 1 1 0 2 1 0 0 0 1 1 1 0 1 1 1 1 2 1 0 1 1 0 1 0 2 0 0 0 0 0 3 2 0 2 0 0 0 0 1 0 1 0 0 1 1 3 2 0 2 1 1 3 0 1 0 1 3 1 1 1 2 3 1 1 0 2 1 0 3 1 1 1 1 0 1 3 1 0 1 0 2 2 0 0 0 0 0 1 0 2 0 1 1 0 1 1 0 1 2 0 3 0 0 1 2 1 2 0 0 1 0 1 0 0 1 1 2 1 1 0 1 2 1 1 0 0 0 1 1 1 0 0 1 0 2 1 2 1 2 1 1 1 2 1 2 1 0 2 1 1 1 0 0 1 1 2 0 2 2 3 4 0 0 2 2 1 0 0 0 2 1 0 1 1 2 2 0 2 2 0 0 1 0 0 1 1 0 1 1 1 0 2 0 3 2 1 2 1 1 0 0 0 0 0 0 0 2 1 1 0 1 0 1 0 0 0 1 0 1 4 0 1 2 1 2 0 1 1 0 1 2 0 0 2 1 1 0 0 0 1 4 0 2 0 1 2 1 2 1 0 1 0 3 0 2 0 0 0 0 0 1 1 1 1 0 0 2 1 0 1 0 1 0 0 1 0 2 1 2 2 1 0 3 0 1 2 0 2 0 0 1 0 0 0 0 1 2 1 0 1 1 1 3 1 1 1 2 0 3 2 0 0 2 0 0 0 1 0 0 0 2 0 1 0 2 0 2 0 0 1 0 1 1 0 1 2 0 0 0 0 1 2 1 3 0 0 2 0 1 0 3 2 2 0 3 1 1 0 3 2 1 2 0 0 0 0 2 0 1 0 0 1 1 2 0 1 1 3 1 1 2 3 0 1 1 2 3 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 1 0 1 0 1 2 0 0 0 2 1 1 1 0 2 1 1 1 1 0 2 2 0 1 0 0 0 1 1 2 1 0 1 0 1 1 2 0 0 0 0 0 2 1 1 1 1 0 0 0 0 0 0 1 0 0 4 0 2 1 1 1 2 1 0 3 0 2 0 0 0 1 1 3 1 1 2 0 2 1 0 0 1 1 0 0 1 2 3 0 0 1 0 1 1 1 1 0 0 1 2 2 2 0 3 0 2 0 0 1 0 1 0 1 0 0 0 1 0 2 1 1 2 1 1 0 2 0 1 1 4 0 0 0 1 0 2 0 1 1 0 1 1 0 1 0 0 0 1 2 2 0 0 0 1 0 0 1 1 0 1 1 3 2 1 1 0 2 1 1 3 0 1 0 2 0 0 2 0 0 2 0 2 1 0 1 0 0 0 2 1 1 1 1 2 0 0 2 0 1 0 1 1 2 2 1 0 1 0 1 1 2 2 4 0 1 1 1 1 1 0 2 0 2 2 1 0 0 2 1 2 2 0 1 1 0 0 0 0 1 1 0 0 1 1 0 0 1 2 1 0 1 2 2 1 1 1 3 0 0 2 1 0 1 1 1 2 1 0 0 1 1 0 1 3 0 0 2 0 2 2 1 0 2 0 1 1 1 0 0 0 1 0 0 1 1 2 1 2 1 1 2 1 2 0 0 1 2 1 1 0 0 3 0 2 0 1 0 1 1 0 0 0 3 1 0 0 1 0 3 1 2 0 1 0 0 2 0 1 1 0 1 1 2 1 1 0 0 0 3 1 3 2 0 2 0 1 0 2 3 0 0 3 1 1 0 2 1 0 0 1 1 1 1 2 0 2 4 0 0 1 0 1 0 1 2 0 0 0 0 0 1 0 0 2 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 3 0 1 0 1 0 1 0 2 0 3 0 1 0 1 0 0 0 1 2 0 0 4 0 0 1 1 1 2 0 0 2 0 1 0 2 0 2 2 0 0 0 2 0 2 2 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 2 0 1 3 1 1 0 1 0 0 1 1 1 0 2 3 0 1 3 1 1 2 0 1 0 2 1 0 0 0 1 0 1 0 0 0 1 1 1 2 0 2 1 2 1 3 0 0 0 1 2 1 0 0 2 1 0 2 0 0 1 2 2 0 0 1 0 0 1 0 1 1 0 2 0 4 2 1 0 2 2 2 0 2 3 1 1 0 0 0 0 0 0 1 1 0 0 0 2 0 3 1 1 0 3 0 3 0 0 0 2 3 1 0 1 1 1 1 0 0 1 2 0 0 0 1 1 0 1 1 1 0 2 1 1 1 1 0 1 0 2 2 3 0 0 1 2 1 1 2 2 1 0 1 1 0 2 1 0 1 0 1 1 1 0 0 0 1 4 0 2 2 1 1 1 2 3 1 1 2 0 1 1 0 2 1 1 1 0 1 0 2 0 1 2 1 1 1 0 2 0 1 1 0 1 1 2 1 2 1 1 2 0 0 0 1 0 2 0 0 1 0 4 0 1 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 0 2 0 1 1 1 1 1 0 1 0 3 0 1 1 0 0 1 1 0 0 3 2 1 0 0 1 0 2 1 0 0 1 2 1 1 1 1 1 1 0 0 0 1 1 2 0 1 1 1 1 0 1 1 1 0 1 2 2 0 3 2 2 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 1 0 0 0 0 0 1 1 2 1 1 1 1 2 1 2 1 1 2 0 0 1 1 2 2 0 1 0 0 2 0 2 0 4 2 1 0 2 0 0 2 1 2 0 0 2 0 1 0 1 0 1 1 1 1 1 0 1 0 0 2 0 1 2 0 0 1 0 1 1 0 0 1 1 1 1 0 0 1 2 0 1 1 0 1 2 2 0 2 1 2 0 1 0 0 1 0 1 0 2 1 0 0 2 1 1 0 0 0 2 0 0 0 1 1 0 0 1 0 1 0 1 1 1 1 0 0 1 1 2 0 2 0 0 1 2 2 1 0 0 2 0 0 1 1 2 0 0 1 1 0 1 0 2 0 0 0 0 2 1 2 1 0 0 0 2 1 1 0 3 0 0 1 2 3 1 1 1 2 1 0 0 1 2 1 0 0 0 1 2 1 0 1 0 0 0 0 2 1 0 1 0 1 0 2 1 0 0 1 0 2 1 1 0 1 1 0 0 0 0 1 0 1 0 3 3 0 1 0 0 0 3 1 2 2 0 0 1 1 0 1 0 1 0 1 1 1 0 0 0 0 1 1 2 0 0 0 0 1 2 1 2 1 0 0 1 0 2 0 0 0 2 2 2 2 0 2 1 0 0 1 0 1 0 0 1 2 3 1 1 0 1 0 1 1 0 1 3 2 2 1 0 1 0 1 2 1 0 2 1 0 0 1 0 0 1 2 0 0 0 0 1 2 2 1 1 2 1 0 1 2 0 0 1 1 0 1 1 0 0 0 1 1 0 1 0 2 1 0 1 1 0 2 3 1 0 2 0 0 0 2 0 1 3 0 0 0 2 0 0 2 2 1 3 2 1 1 0 1 0 0 2 0 3 0 0 2 0 1 1 2 1 0 1 0 0 2 1 1 2 0 1 0 1 1 0 1 1 0 3 1 1 0 0 3 0 1 0 1 1 1 3 0 0 0 0 0 0 0 0 2 1 0 0 0 2 1 4 1 0 1 2 0 3 1 1 0 1 0 0 2 1 0 0 0 0 2 0 0 1 0 0 2 0 3 1 1 0 0 1 0 2 2 0 0 1 0 3 0 0 0 0 0 2 2 0 1 0 1 1 0 0 1 1 1 0 0 1 2 1 3 0 0 0 1 2 1 1 0 0 1 0 1 1 1 0 0 2 1 3 1 2 2 0 0 2 1 3 2 1 0 2 1 1 2 0 0 1 1 0 1 1 1 0 1 0 2 1 1 0 1 1 2 0 1 0 2 1 2 0 0 1 2 0 0 2 1 1 0 2 1 3 1 0 0 0 1 0 1 0 1 1 0 0 0 2 2 2 0 1 0 1 1 0 0 0 1 1 0 1 0 0 0 2 1 0 1 2 0 0 0 0 0 2 0 0 2 0 0 1 2 0 2 1 1 2 0 1 0 0 2 1 0 0 3 1 1 0 1 1 3 1 0 0 2 1 1 3 4 1 1 1 1 0 1 1 2 2 1 1 0 2 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 2 1 0 1 1 0 0 1 1 1 0 1 0 2 2 0 2 2 1 0 2 1 0 1 1 0 0 1 0 0 1 0 0 0 2 1 0 1 0 1 0 2 4 2 2 1 1 0 2 1 0 0 1 2 1 1 0 0 1 0 1 3 1 0 1 2 1 1 1 2 0 1 0 0 1 0 1 0 0 0 2 3 2 1 1 0 0 2 1 1 0 1 0 4 0 2 4 0 0 0 0 0 3 0 2 1 2 2 0 0 2 0 1 1 2 3 1 2 1 0 2 0 0 1 2 0 2 1 1 0 2 1 2 0 0 1 1 0 2 1 1 1 1 0 0 2 0 0 1 0 1 0 1 0 0 1 0 1 0 1 2 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 3 0 1 1 0 0 0 2 1 0 2 0 0 1 1 2 1 0 0 1 1 1 2 1 0 0 1 0 1 0 0 1 1 1 2 1 1 0 1 0 0 0 0 0 0 1 1 0 1 0 1 2 2 0 1 1 1 0 1 1 0 1 0 1 1 1 1 2 1 2 2 0 2 1 0 1 2 1 1 0 1 1 1 0 1 1 1 0 3 0 0 2 0 1 0 2 0 1 1 0 0 0 0 0 0 1 1 0 0 0 2 0 2 2 2 1 0 3 0 0 0 1 2 1 1 0 2 0 4 1 1 1 0 0 1 2 3 0 2 2 0 2 1 1 0 1 2 0 2 0 0 0 1 0 0 1 1 0 1 1 0 0 1 1 0 1 1 2 3 1 1 1 2 0 1 0 0 1 1 2 4 0 1 2 0 0 2 0 0 1 3 0 2 0 3 2 2 0 2 0 1 0 1 1 2 1 1 1 1 1 0 0 2 0 1 0 2 0 1 1 1 0 1 1 0 1 3 0 1 1 1 1 0 1 2 2 1 1 0 1 0 1 0 0 1 0 2 1 0 0 2 0 1 1 1 0 0 0 1 1 0 0 0 0 2 1 0 1 0 0 0 1 3 3 1 0 2 1 3 0 0 1 0 3 1 0 3 1 1 0 0 0 1 0 0 0 0 1 0 0 1 2 0 1 1 0 3 3 2 0 2 0 0 0 0 1 2 1 1 1 2 0 2 0 0 3 1 2 0 0 3 1 0 2 0 0 1 0 1 0 1 2 0 0 1 0 1 0 0 2 0 2 1 1 2 3 1 0 0 1 0 1 1 0 3 2 1 1 0 0 0 2 1 0 1 0 1 0 0 0 1 2 0 1 1 1 0 0 1 0 0 0 1 1 2 1 1 3 1 0 1 2 2 2 0 0 1 2 1 2 1 1 1 2 2 1 3 1 0 0 2 0 0 0 1 2 2 2 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 1 2 0 1 1 0 0 2 0 1 0 3 0 1 0 1 0 2 3 0 2 0 1 0 1 0 0 1 2 1 1 1 1 1 1 0 2 0 1 2 2 1 0 0 0 1 0 1 1 2 0 1 1 1 0 2 2 2 0 0 2 1 1 1 1 1 2 0 3 2 2 2 1 1 0 1 0 0 0 1 0 1 2 1 1 0 0 2 2 0 1 1 0 0 1 1 0 1 2 2 2 1 3 0 0 0 1 1 0 3 0 1 1 1 0 2 0 2 0 0 3 1 0 1 1 2 2 0 0 1 1 1 1 0 0 2 2 0 0 0 1 1 1 0 0 3 0 2 1 0 0 3 0 1 0 3 1 0 2 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0 1 1 2 1 2 1 0 2 1 0 1 1 0 1 1 0 1 2 2 2 2 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 2 2 1 0 4 0 2 1 0 1 2 0 4 1 1 0 1 0 2 1 0 0 3 2 1 0 0 2 0 0 0 0 1 0 1 0 0 1 2 0 0 1 1 0 3 0 2 3 1 0 1 0 1 1 2 1 1 1 0 0 1 1 1 1 1 3 2 1 1 2 0 0 1 3 1 3 0 0 0 0 0 0 0 3 1 1 0 0 2 1 2 1 0 0 0 0 1 1 0 2 1 1 1 1 0 1 0 0 0 0 3 1 0 3 1 0 0 0 2 1 2 1 0 0 2 0 2 0 1 0 1 1 1 3 0 1 2 2 1 2 3 0 0 1 0 0 1 0 1 0 1 1 1 1 1 0 0 2 1 0 1 1 0 2 1 3 1 0 1 1 0 2 0 1 1 1 0 1 0 1 0 2 0 0 0 2 0 3 1 1 1 2 2 1 0 3 1 1 0 0 0 0 2 2 0 2 3 0 2 1 0 1 1 1 0 1 2 2 0 0 2 1 1 1 0 2 1 0 3 0 0 0 1 0 0 2 2 1 0 0 1 1 0 1 2 1 1 1 0 0 0 1 0 1 1 1 0 1 2 0 1 1 1 1 0 1 0 1 1 1 1 0 1 0 0 0 3 1 2 1 1 2 1 0 1 0 1 1 1 1 0 1 0 0 2 2 0 1 2 1 1 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1 1 1 2 2 0 0 3 1 1 0 1 0 2 0 0 0 0 0 1 0 0 3 0 1 1 0 2 0 0 1 2 0 0 2 3 1 0 1 2 1 1 2 0 1 0 2 2 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 1 0 1 1 1 0 1 0 0 5 1 0 0 1 2 0 0 1 2 2 1 0 2 2 0 2 1 1 1 0 1 3 2 1 0 0 2 0 2 4 1 1 1 1 0 0 0 0 2 0 1 1 0 0 0 0 0 2 0 3 2 0 0 0 1 1 0 0 1 3 1 3 1 1 2 2 2 0 2 0 1 1 1 0 1 1 0 2 1 1 1 0 2 0 0 0 3 1 0 1 1 2 0 1 0 2 1 0 0 1 1 1 1 1 3 1 0 0 0 0 2 0 0 0 1 1 0 1 0 1 0 0 0 0 1 1 1 2 3 2 1 2 2 0 0 0 0 0 0 0 0 1 1 1 1 1 3 1 0 0 3 0 1 0 1 0 0 0 0 0 0 2 2 2 0 1 0 0 2 1 1 0 0 0 1 5 0 0 1 2 0 1 2 1 1 0 1 1 2 1 2 1 0 1 1 2 1 0 2 0 1 0 1 0 0 0 0 2 1 0 0 1 0 0 2 1 1 2 1 2 0 0 1 0 0 1 0 2 0 0 0 0 1 0 0 2 0 0 3 2 0 2 2 1 0 0 2 0 1 0 1 2 1 1 1 2 2 1 0 0 1 2 1 0 2 1 1 2 0 0 1 0 2 1 3 0 1 0 1 1 2 0 2 2 1 1 0 0 0 1 1 1 0 0 0 1 1 0 1 1 0 0 2 1 1 1 2 2 0 0 1 1 1 2 3 0 1 2 2 0 1 0 0 1 0 2 3 2 0 2 3 1 0 2 1 0 0 0 2 0 1 2 1 0 0 2 1 1 0 0 3 2 1 1 2 2 1 0 1 1 2 0 0 0 0 0 1 2 0 1 1 0 0 1 1 0 1 1 0 1 1 1 1 2 0 0 0 1 3 1 1 3 0 1 1 0 0 0 0 1 0 1 1 2 1 0 0 1 2 1 0 0 0 1 1 0 0 0 1 1 0 0 2 1 0 1 2 0 0 2 3 1 1 1 0 0 1 1 0 1 1 1 0 2 1 1 1 1 1 1 3 0 1 0 0 1 0 0 2 1 0 1 0 0 2 2 0 0 2 1 1 0 1 0 0 1 0 0 2 2 3 1 3 1 2 0 2 1 1 1 0 2 0 1 1 2 0 0 0 1 0 1 1 1 3 1 2 1 1 2 2 0 0 1 2 0 1 2 1 0 1 2 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 2 1 0 2 2 0 2 0 0 0 1 2 2 0 0 1 1 0 0 0 3 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 1 3 0 0 0 2 2 1 1 1 1 0 1 1 2 1 1 0 1 2 3 0 0 0 1 1 1 1 0 1 0 1 1 1 0 0 1 0 0 2 1 0 1 1 1 0 0 0 1 2 0 0 2 0 2 0 0 0 1 1 1 0 1 0 0 1 1 2 2 1 2 2 0 0 0 0 0 0 0 2 0 1 0 1 1 1 0 2 1 0 0 2 2 0 2 0 0 2 0 2 0 3 0 0 0 0 2 1 0 2 0 0 0 0 1 0 3 1 2 0 1 1 0 0 2 0 0 3 1 0 1 0 3 0 0 2 2 0 0 2 2 0 2 1 2 4 0 1 0 2 1 2 0 1 0 1 0 1 2 0 1 0 0 0 1 2 0 2 1 2 2 0 1 0 0 0 0 0 0 0 2 1 1 1 0 0 0 1 1 4 1 1 0 0 0 0 0 1 0 1 2 0 0 0 1 0 1 2 0 0 0 3 1 0 1 2 3 2 1 0 1 0 2 1 1 0 0 1 2 0 3 2 1 0 2 0 0 0 0 2 1 1 0 0 0 3 1 0 1 0 0 1 1 0 1 1 2 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 0 0 0 0 3 1 2 1 1 2 0 0 0 0 0 2 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 1 2 2 2 2 1 0 2 0 2 0 1 0 0 3 0 1 0 1 0 1 1 0 0 0 1 0 3 1 0 0 3 1 0 0 0 1 0 1 0 0 2 1 1 2 1 0 1 1 1 2 2 1 1 0 1 1 0 1 0 0 3 1 0 1 0 1 1 1 4 0 1 1 1 0 0 1 1 2 1 1 1 1 0 1 4 1 2 0 0 2 1 1 0 0 2 1 1 1 2 0 0 0 2 0 0 1 0 0 0 0 1 1 1 3 1 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 3 1 1 3 1 1 1 0 2 0 2 1 1 1 1 0 1 0 2 0 1 0 0 2 0 2 0 1 1 0 1 0 1 1 4 1 0 1 1 0 0 0 0 1 0 2 0 0 0 2 1 2 0 2 2 1 0 0 0 0 1 2 3 1 0 0 0 0 2 1 0 0 1 0 2 1 1 0 1 2 0 0 2 1 0 2 0 1 0 1 2 1 3 0 1 0 2 3 1 0 0 0 2 1 0 0 1 1 2 0 3 1 1 0 1 1 0 0 3 1 1 0 2 0 1 1 0 0 0 0 0 2 0 1 0 1 1 0 1 1 1 0 0 1 1 0 1 1 1 2 0 1 0 2 2 0 2 1 0 1 0 0 0 0 1 2 1 1 2 1 0 0 1 1 1 0 0 2 0 2 1 1 1 1 0 0 2 0 0 0 0 0 0 2 2 0 0 0 2 1 3 1 1 0 1 1 2 0 0 2 1 4 0 3 0 1 1 2 2 0 1 2 2 0 3 2 0 0 0 3 0 0 1 0 0 0 1 2 0 0 1 0 1 1 2 1 1 0 1 2 0 0 1 1 2 3 2 3 1 2 1 0 1 1 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 2 0 0 0 2 1 0 2 0 1 1 0 0 1 1 4 2 1 0 0 1 1 0 0 1 1 1 4 0 2 1 1 2 0 0 2 0 1 0 1 2 2 1 0 0 0 0 0 1 2 1 0 1 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 1 1 2 2 0 0 0 0 1 1 1 1 2 1 0 1 1 1 1 2 1 0 1 1 1 2 0 2 0 1 0 3 1 0 2 1 0 1 0 1 3 0 2 0 0 2 1 1 1 0 1 1 2 0 2 0 0 0 1 2 0 0 0 0 0 2 1 1 2 1 0 2 0 0 2 0 0 1 0 0 1 2 2 1 0 1 0 2 1 2 1 0 3 1 0 1 2 1 1 0 2 0 0 0 1 1 1 3 0 1 0 1 2 1 1 2 2 3 1 0 0 1 0 0 0 0 1 1 1 1 0 2 1 1 0 1 0 1 0 1 1 2 0 1 0 0 1 1 0 3 1 2 1 0 0 1 0 0 0 1 3 0 0 0 2 0 1 0 0 1 0 0 0 1 2 0 1 0 0 0 0 2 1 0 1 0 0 1 0 1 0 1 1 0 1 1 0 0 1 1 1 1 1 2 1 0 2 1 0 0 1 0 1 1 1 1 1 1 2 0 0 2 2 0 0 1 0 1 1 2 0 1 1 0 0 2 0 1 0 1 1 1 2 0 0 1 0 2 0 1 0 0 1 3 4 1 0 0 1 1 1 1 3 0 1 0 1 2 0 1 2 2 1 1 0 0 2 0 0 0 1 0 0 1 0 3 0 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 2 1 0 1 0 0 1 1 0 2 1 1 0 2 0 0 0 1 2 0 3 2 1 1 0 0 0 1 0 0 1 2 0 2 2 0 3 1 1 0 1 0 0 3 2 0 1 0 0 2 1 0 0 1 0 0 2 0 0 0 0 0 3 2 0 1 3 0 1 0 0 0 0 1 3 2 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 2 2 3 0 1 0 0 0 1 0 1 0 3 0 2 1 2 1 0 1 1 3 2 0 0 1 0 0 1 0 1 1 0 0 1 0 2 1 2 1 2 0 1 2 0 3 1 2 1 1 0 1 0 2 1 1 0 0 2 1 2 3 0 1 0 0 4 0 0 1 1 0 1 1 1 1 2 2 2 1 0 0 2 0 0 1 1 1 1 0 0 0 0 0 0 2 0 0 0 1 1 5 1 1 3 0 1 0 0 0 1 1 2 0 1 1 1 0 0 0 2 1 2 1 1 2 1 1 1 0 1 2 2 0 0 0 0 1 0 1 0 1 2 2 1 0 1 1 0 2 1 1 0 2 0 1 0 1 0 0 1 0 0 1 0 0 2 2 2 0 2 1 2 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 2 1 1 1 0 0 1 0 0 1 1 0 0 0 1 1 0 3 2 0 0 2 5 0 0 2 2 1 2 1 1 0 0 0 1 0 1 1 2 2 1 1 2 0 0 0 1 2 1 2 2 4 1 2 1 0 0 0 1 0 1 2 0 1 1 0 1 0 1 1 0 1 0 1 2 1 0 2 0 2 0 0 0 1 1 1 0 0 3 0 1 0 2 1 0 1 0 2 2 1 2 2 0 2 0 1 0 1 0 2 1 0 0 0 1 2 1 1 1 2 2 2 2 0 1 0 2 0 1 3 3 0 0 1 3 0 1 1 0 0 0 2 0 1 0 2 0 1 0 2 0 0 1 0 1 0 1 2 1 1 1 1 2 1 1 1 0 1 1 1 0 0 2 1 3 2 0 1 1 0 1 1 0 1 0 0 0 1 1 1 0 0 2 2 1 0 0 1 1 1 3 1 2 2 0 0 0 1 1 0 0 1 0 0 3 1 2 0 0 1 0 0 1 0 0 2 0 2 1 4 0 0 1 1 1 3 1 2 0 2 0 0 1 2 1 1 0 0 1 0 0 0 0 3 1 0 0 1 2 0 1 1 2 1 1 0 0 0 3 2 0 1 0 0 2 0 0 1 1 2 0 0 1 0 3 0 0 0 1 1 1 1 0 2 1 1 2 0 0 3 2 0 2 1 1 1 1 1 2 0 0 0 0 0 0 2 2 0 2 0 1 0 1 1 0 1 1 0 0 1 1 1 0 1 3 2 0 1 0 1 0 1 2 0 1 0 0 0 1 3 0 0 1 0 0 1 0 1 0 0 1 0 2 2 1 1 0 0 0 3 0 1 1 1 0 1 0 2 2 2 0 0 0 2 1 2 0 2 0 1 2 2 0 1 0 1 0 0 1 2 0 1 2 1 1 1 0 0 1 3 0 0 0 0 1 0 2 0 1 2 2 0 1 1 0 2 1 1 0 1 0 0 1 0 0 3 1 0 0 1 0 1 1 1 0 1 2 1 1 0 0 1 1 0 1 1 1 0 0 0 1 1 0 1 2 0 0 0 1 1 2 1 0 1 1 3 0 1 0 1 2 1 0 1 1 4 1 2 0 1 0 0 1 0 0 1 1 1 0 0 0 0 2 0 0 0 1 0 0 2 1 0 1 0 3 0 1 1 1 0 2 1 1 1 1 0 1 0 1 1 0 3 0 0 0 0 2 0 2 0 0 2 1 3 1 0 5 1 0 0 2 0 3 2 0 0 0 1 1 0 0 1 0 0 2 0 2 0 0 4 3 1 0 0 0 1 2 1 0 0 0 1 1 1 1 0 0 3 1 0 0 0 2 1 2 0 1 1 1 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 3 2 0 0 1 1 2 0 0 0 0 0 1 1 1 0 1 2 0 1 1 2 0 2 1 1 0 0 3 0 1 0 1 0 0 1 3 3 0 2 0 0 0 0 0 2 1 2 1 0 1 2 2 1 0 0 1 1 1 1 0 0 1 0 2 2 1 2 0 0 0 0 0 0 1 0 0 0 1 1 1 2 2 1 0 0 0 0 1 1 1 0 2 0 1 0 2 1 0 1 3 0 0 0 0 1 2 2 2 1 0 3 0 1 1 0 0 3 1 0 1 0 1 2 2 2 0 1 1 1 1 0 1 0 2 0 1 1 0 0 3 1 2 0 1 2 0 0 0 1 0 0 1 0 2 0 0 3 0 1 1 0 1 1 0 0 0 0 0 1 2 2 0 2 1 1 1 1 1 1 0 0 0 2 2 1 1 1 1 3 1 0 1 1 0 4 2 1 1 2 0 0 2 1 1 1 0 0 0 1 1 0 0 2 2 1 2 0 0 1 2 0 0 0 1 3 2 0 2 1 2 2 0 0 4 0 1 0 2 0 0 0 2 1 0 0 3 1 2 0 1 0 2 0 0 1 0 0 3 1 0 2 0 1 0 2 1 1 0 1 0 1 2 0 0 1 2 1 0 0 1 0 1 0 0 0 1 1 1 1 1 0 1 1 2 0 2 2 2 0 0 2 0 0 1 2 1 1 2 1 1 1 0 0 0 0 2 0 0 1 2 0 1 1 2 1 0 2 1 0 1 1 1 2 0 0 0 1 2 1 0 0 0 0 1 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 0 3 0 0 0 0 1 1 1 0 2 0 2 0 0 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 1 0 2 0 1 2 0 1 0 1 0 1 1 4 2 0 0 2 2 2 1 0 1 1 0 0 1 0 0 0 2 0 0 0 0 2 1 1 1 1 0 0 1 0 0 0 0 0 3 0 1 1 0 1 1 0 0 1 0 0 4 1 1 1 0 0 3 0 0 1 0 1 2 0 1 1 1 3 2 0 2 1 1 0 1 1 0 0 0 0 2 0 1 0 1 1 0 2 2 0 0 1 1 1 2 2 0 1 0 1 2 3 0 0 1 0 0 2 2 1 0 0 1 2 0 1 0 2 0 0 1 1 0 1 2 1 1 1 1 0 0 1 1 0 3 0 0 0 3 1 1 0 1 2 1 2 0 1 1 0 2 1 0 0 1 2 1 1 1 1 2 1 0 3 0 1 0 0 0 0 2 0 1 0 0 0 0 1 0 2 1 1 1 1 1 1 1 3 1 1 2 0 1 1 0 0 2 0 0 0 0 1 2 0 1 0 1 1 2 1 1 0 2 0 0 1 0 0 0 1 1 1 0 0 0 3 2 0 0 0 0 1 2 2 1 1 0 1 0 1 1 0 3 1 4 1 1 2 3 2 0 0 2 0 0 1 0 1 0 0 0 2 2 0 2 0 1 0 1 1 0 0 0 2 0 1 0 1 0 1 1 1 1 1 0 2 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 2 0 0 1 0 0 0 2 1 0 0 1 0 1 1 1 0 0 1 0 1 1 1 0 1 3 2 1 0 0 0 0 1 0 0 1 0 0 0 0 1 3 1 0 1 0 3 0 0 1 2 0 0 1 0 1 1 0 0 0 1 0 0 0 2 1 0 1 0 2 0 0 1 1 0 1 0 0 1 2 1 0 0 0 0 1 1 1 0 1 0 1 0 0 1 2 0 0 0 1 1 0 0 0 0 0 2 1 2 0 3 1 1 1 1 0 2 0 2 2 1 0 1 0 2 0 0 1 1 0 1 0 0 1 1 1 1 2 0 1 0 1 3 0 3 1 1 0 1 1 1 2 0 0 0 1 0 1 0 0 1 1 0 2 0 3 2 1 1 0 0 0 1 2 1 0 2 0 0 1 1 2 0 3 1 2 2 2 1 1 0 1 2 1 1 2 0 0 1 2 0 0 2 1 1 1 2 0 0 0 1 0 0 1 0 2 0 0 2 0 0 0 0 1 2 0 0 1 0 1 0 1 0 0 0 0 1 3 0 1 0 2 2 1 2 1 0 0 0 1 1 0 1 1 1 0 0 0 2 1 1 0 0 1 2 0 0 0 1 1 0 1 1 0 0 0 2 0 0 1 2 0 1 1 2 1 1 1 1 0 0 1 1 1 1 1 0 0 1 1 0 1 2 2 1 2 1 1 2 0 0 0 0 0 2 1 1 1 1 1 1 1 0 0 2 0 1 2 1 0 1 1 1 3 0 1 0 1 0 2 0 0 1 2 0 0 1 0 0 1 0 1 2 0 2 0 1 2 0 0 0 0 2 3 1 0 1 1 0 0 1 1 2 1 2 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 1 3 0 0 2 4 0 0 1 0 0 1 1 0 0 0 2 1 2 1 1 1 1 2 1 1 0 0 2 2 0 1 1 1 0 2 0 0 1 2 3 2 3 3 1 1 3 1 0 1 1 1 0 1 2 2 1 0 0 1 0 2 1 2 0 1 1 0 1 0 1 1 2 0 1 0 1 0 2 2 1 0 0 1 3 0 1 1 1 0 0 0 0 0 2 0 1 1 1 0 1 1 1 1 0 1 1 0 3 3 0 2 2 0 1 0 1 1 1 0 2 0 1 0 0 0 2 0 0 1 0 1 0 0 1 1 1 0 1 2 0 0 0 0 0 0 1 1 0 0 2 0 1 2 1 0 0 2 0 1 0 0 1 1 1 1 1 0 1 0 2 0 1 2 0 1 0 1 2 0 1 1 1 1 1 1 0 0 1 3 1 0 2 2 2 1 0 1 3 3 2 2 1 1 1 1 1 0 1 1 1 1 0 1 1 1 2 2 1 0 1 2 1 1 1 0 0 4 0 2 1 1 4 0 0 1 1 0 0 2 0 0 1 1 0 0 2 1 2 1 1 0 0 0 1 2 2 0 0 3 0 0 2 0 3 0 1 2 0 0 2 2 0 0 1 2 0 1 0 0 0 2 1 3 1 2 0 0 0 0 2 1 2 0 1 0 1 1 2 2 0 2 1 2 0 0 0 0 2 1 1 2 1 1 0 0 1 0 0 0 1 1 1 0 1 0 1 1 2 1 1 0 0 0 0 1 4 1 1 2 0 1 0 2 0 1 1 0 1 0 1 0 0 2 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 2 2 0 2 1 1 0 0 1 1 3 1 1 2 1 0 2 1 0 1 0 1 0 2 1 0 2 0 0 1 0 0 0 2 2 0 0 0 0 1 1 1 0 0 2 0 1 1 0 1 1 1 0 3 1 1 1 1 1 3 1 2 1 1 1 0 1 0 0 0 1 0 0 1 0 1 1 1 1 2 1 1 0 1 0 1 0 1 0 1 1 1 1 1 2 4 2 0 1 0 1 1 0 1 0 0 2 0 2 0 0 1 1 2 2 0 0 1 2 2 4 1 1 0 1 1 0 1 0 0 1 2 2 1 2 0 2 1 0 1 3 2 0 4 2 0 1 1 0 0 1 4 1 0 1 1 1 0 2 0 0 1 2 1 2 0 0 1 0 0 0 3 1 2 1 0 1 0 3 0 1 2 3 1 1 3 0 2 1 1 0 0 0 2 0 2 1 0 2 0 1 0 2 0 1 1 1 1 2 1 1 0 1 2 0 1 2 1 1 4 1 0 2 1 0 0 1 1 2 2 2 0 0 0 0 1 3 1 2 1 1 3 0 0 1 4 0 2 1 2 2 1 0 0 1 1 1 0 1 0 2 0 0 0 0 1 0 2 1 1 0 2 1 0 0 0 1 2 1 1 1 0 1 1 0 0 2 1 1 0 0 2 1 1 1 0 1 0 0 4 1 0 0 0 0 2 2 2 1 0 1 2 1 2 0 1 0 0 0 0 1 1 1 1 1 2 1 0 0 0 0 2 0 1 1 0 2 1 2 0 0 0 0 1 1 1 0 0 1 1 2 0 1 3 1 3 2 2 0 0 0 1 2 1 2 2 1 0 1 0 2 1 0 2 1 0 1 0 2 1 1 0 1 2 1 1 1 2 1 1 0 2 0 1 0 0 0 2 0 3 0 4 0 1 1 1 2 1 0 0 2 0 0 1 2 2 0 0 0 1 0 1 1 0 0 1 1 2 1 1 1 1 0 1 0 0 1 2 2 0 1 1 1 0 1 0 0 0 1 1 0 0 0 0 2 1 2 0 1 2 0 2 1 0 1 1 1 0 1 0 3 3 1 0 0 0 0 2 0 1 2 1 0 0 0 0 0 0 1 2 2 1 0 1 1 0 1 0 0 2 0 0 0 0 2 0 0 1 0 0 0 0 2 0 0 1 0 5 1 0 2 0 2 0 0 0 0 0 0 2 0 1 1 0 2 0 0 0 1 0 0 0 1 4 1 4 0 0 1 3 1 3 0 1 0 0 1 1 0 1 0 1 1 1 0 2 3 0 1 1 1 0 0 1 1 3 0 1 1 1 3 2 1 0 0 1 2 1 1 1 1 1 0 1 0 1 1 1 0 0 0 1 1 0 2 0 1 0 0 0 1 0 1 2 1 0 2 0 1 1 3 1 0 0 3 1 0 2 0 1 1 0 0 0 0 0 2 1 1 1 2 2 2 1 2 2 1 0 2 2 0 2 0 0 0 1 1 0 0 2 1 0 1 0 0 1 0 5 1 0 3 1 0 1 0 0 1 0 0 1 0 2 0 0 0 0 1 1 2 1 0 2 0 2 0 0 0 1 0 0 2 1 1 0 0 1 1 0 0 3 0 1 2 1 1 1 2 1 1 0 1 2 2 0 2 1 0 0 0 0 0 0 1 2 0 1 0 1 1 2 0 0 1 2 1 0 0 0 1 1 0 0 0 2 0 1 2 0 0 0 2 1 0 0 0 1 0 1 0 2 2 1 2 0 1 2 0 0 0 2 1 1 2 2 1 0 1 0 1 1 1 0 1 0 1 1 1 1 2 0 1 1 1 0 0 3 1 1 1 0 0 1 2 2 0 1 1 1 2 1 0 2 0 1 1 1 1 2 1 1 2 2 1 2 0 0 0 0 1 0 1 3 0 1 1 1 1 2 1 2 2 3 1 2 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 2 2 2 0 1 1 0 2 0 0 1 0 1 0 0 1 1 0 1 1 1 1 1 1 0 0 1 1 2 2 0 0 0 0 0 3 0 0 0 2 0 1 0 1 2 0 1 0 0 0 1 0 0 3 1 0 0 0 1 1 0 1 2 1 0 2 1 1 0 1 1 3 0 1 0 1 0 1 1 1 0 1 0 2 0 0 1 1 1 2 3 0 0 0 1 2 0 2 1 1 1 1 3 1 2 0 2 1 1 2 1 2 0 0 0 0 1 0 0 1 0 0 2 0 3 1 0 0 0 3 0 1 1 2 0 2 1 0 1 0 1 2 1 2 1 1 1 1 1 1 0 0 2 0 0 1 0 1 0 1 2 1 1 2 0 0 1 1 2 1 0 0 0 0 0 1 0 1 1 1 4 1 1 0 1 1 3 0 1 1 0 2 1 0 0 2 1 0 1 3 0 0 1 0 0 1 1 1 1 0 0 0 0 1 1 2 1 0 1 2 1 2 0 0 0 2 1 2 1 3 0 2 0 0 0 2 1 1 2 0 0 1 0 2 0 2 0 1 1 1 0 1 0 0 3 3 1 1 0 1 1 1 0 2 0 2 0 3 0 0 0 2 1 0 0 0 0 2 2 1 1 0 1 1 1 0 1 0 1 2 1 1 2 0 0 0 1 1 0 1 0 0 1 1 1 0 3 1 0 2 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 2 1 0 0 1 0 3 0 1 2 1 0 0 2 0 0 2 1 1 0 1 0 0 1 2 1 1 1 1 1 0 0 0 1 0 0 0 0 1 0 0 2 0 2 1 0 2 0 1 1 1 1 1 1 0 1 1 2 1 0 1 2 1 1 1 0 0 1 2 1 1 0 0 0 1 0 0 2 0 0 1 2 0 1 2 1 2 1 0 1 1 1 0 1 1 1 0 0 0 2 1 1 0 1 2 0 1 1 1 1 1 1 2 0 0 0 0 0 0 1 0 1 1 2 1 0 0 0 2 1 2 0 0 1 2 0 4 0 0 1 1 0 0 0 2 1 2 1 1 0 0 0 2 1 0 0 1 3 1 1 1 1 0 2 0 0 1 2 2 1 1 1 0 1 1 2 2 1 0 0 3 2 0 3 2 0 1 1 0 2 2 1 2 1 0 1 0 1 2 1 2 1 0 0 1 1 0 0 1 0 1 0 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1 0 2 0 1 1 1 0 0 0 0 1 1 0 3 1 0 2 0 1 0 1 1 0 0 1 1 1 2 0 1 1 2 0 2 0 0 0 0 0 1 1 0 3 0 0 1 1 2 0 1 1 0 0 2 2 3 1 1 1 4 1 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 1 3 0 0 0 1 0 2 3 0 0 2 0 1 0 0 1 1 0 2 2 0 2 0 1 1 2 2 1 1 0 2 0 2 1 1 2 3 0 1 2 1 0 0 2 0 2 1 0 1 0 2 2 0 0 1 0 1 0 0 1 0 0 0 0 0 2 3 0</t>
   </si>
   <si>
     <t>Z.Wilson</t>
@@ -315,12 +315,12 @@
     <t>J.Johnson</t>
   </si>
   <si>
+    <t>J.Flacco</t>
+  </si>
+  <si>
     <t>M.White</t>
   </si>
   <si>
-    <t>J.Flacco</t>
-  </si>
-  <si>
     <t>M.Carter</t>
   </si>
   <si>
@@ -348,10 +348,10 @@
     <t>D.Mims</t>
   </si>
   <si>
+    <t>J.Smith</t>
+  </si>
+  <si>
     <t>A.Walter</t>
-  </si>
-  <si>
-    <t>J.Smith</t>
   </si>
   <si>
     <t>D.Montgomery</t>
@@ -776,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="C2">
-        <v>59.3</v>
+        <v>59.6</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -803,10 +803,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>4.92</v>
+        <v>4.8</v>
       </c>
       <c r="L2">
-        <v>5.81</v>
+        <v>5.73</v>
       </c>
     </row>
   </sheetData>
@@ -853,25 +853,25 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="E2">
-        <v>228.52</v>
+        <v>229.6</v>
       </c>
       <c r="F2">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="H2">
-        <v>108.26</v>
+        <v>108.45</v>
       </c>
       <c r="I2">
         <v>0.74</v>
@@ -994,28 +994,28 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="E2">
-        <v>228.51</v>
+        <v>229.59</v>
       </c>
       <c r="F2">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="H2">
         <v>0.12</v>
       </c>
       <c r="I2">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2">
-        <v>16.61</v>
+        <v>16.27</v>
       </c>
       <c r="K2">
         <v>0.12</v>
@@ -1024,7 +1024,7 @@
         <v>0.06</v>
       </c>
       <c r="M2">
-        <v>15.13</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1056,7 +1056,7 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1124,22 +1124,22 @@
         <v>54</v>
       </c>
       <c r="C2">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="D2">
-        <v>25.32</v>
+        <v>25.72</v>
       </c>
       <c r="E2">
         <v>0.12</v>
       </c>
       <c r="F2">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="G2">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="H2">
-        <v>57.58</v>
+        <v>57.62</v>
       </c>
       <c r="I2">
         <v>0.39</v>
@@ -1148,10 +1148,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>13.33</v>
+        <v>13.44</v>
       </c>
       <c r="L2">
-        <v>10.71</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1162,22 +1162,22 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>4.48</v>
+        <v>4.52</v>
       </c>
       <c r="D3">
-        <v>44.31</v>
+        <v>44.62</v>
       </c>
       <c r="E3">
         <v>0.21</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G3">
         <v>0.9</v>
       </c>
       <c r="H3">
-        <v>3.88</v>
+        <v>3.96</v>
       </c>
       <c r="I3">
         <v>0.03</v>
@@ -1186,10 +1186,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>10.54</v>
+        <v>10.61</v>
       </c>
       <c r="L3">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1200,10 +1200,10 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="D4">
-        <v>40.19</v>
+        <v>39.89</v>
       </c>
       <c r="E4">
         <v>0.19</v>
@@ -1224,10 +1224,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.960000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="L4">
-        <v>5.02</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1241,7 +1241,7 @@
         <v>1.24</v>
       </c>
       <c r="D5">
-        <v>11.91</v>
+        <v>12.12</v>
       </c>
       <c r="E5">
         <v>0.06</v>
@@ -1250,10 +1250,10 @@
         <v>0.14</v>
       </c>
       <c r="G5">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H5">
-        <v>24.78</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>0.17</v>
@@ -1262,10 +1262,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>6.03</v>
+        <v>6.08</v>
       </c>
       <c r="L5">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1276,10 +1276,10 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="D6">
-        <v>25.36</v>
+        <v>25.7</v>
       </c>
       <c r="E6">
         <v>0.12</v>
@@ -1300,10 +1300,10 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>5.79</v>
+        <v>5.85</v>
       </c>
       <c r="L6">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1314,10 +1314,10 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D7">
-        <v>19.21</v>
+        <v>19.01</v>
       </c>
       <c r="E7">
         <v>0.09</v>
@@ -1329,7 +1329,7 @@
         <v>0.6</v>
       </c>
       <c r="H7">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="I7">
         <v>0.02</v>
@@ -1341,7 +1341,7 @@
         <v>4.63</v>
       </c>
       <c r="L7">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1352,13 +1352,13 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="D8">
-        <v>14.48</v>
+        <v>14.62</v>
       </c>
       <c r="E8">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F8">
         <v>0.03</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
       <c r="L8">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1393,7 +1393,7 @@
         <v>1.35</v>
       </c>
       <c r="D9">
-        <v>13.71</v>
+        <v>13.81</v>
       </c>
       <c r="E9">
         <v>0.07000000000000001</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="L9">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1428,10 +1428,10 @@
         <v>62</v>
       </c>
       <c r="C10">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="D10">
-        <v>13.34</v>
+        <v>13.57</v>
       </c>
       <c r="E10">
         <v>0.06</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.01</v>
+        <v>3.06</v>
       </c>
       <c r="L10">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1469,7 +1469,7 @@
         <v>0.53</v>
       </c>
       <c r="D11">
-        <v>5.09</v>
+        <v>5.2</v>
       </c>
       <c r="E11">
         <v>0.02</v>
@@ -1481,19 +1481,19 @@
         <v>0.5</v>
       </c>
       <c r="H11">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="I11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="L11">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1504,10 +1504,10 @@
         <v>64</v>
       </c>
       <c r="C12">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="D12">
-        <v>4.38</v>
+        <v>4.18</v>
       </c>
       <c r="E12">
         <v>0.02</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="L12">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1542,10 +1542,10 @@
         <v>65</v>
       </c>
       <c r="C13">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="D13">
-        <v>4.31</v>
+        <v>4.1</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L13">
         <v>0.53</v>
@@ -1583,7 +1583,7 @@
         <v>0.41</v>
       </c>
       <c r="D14">
-        <v>4.08</v>
+        <v>4.14</v>
       </c>
       <c r="E14">
         <v>0.02</v>
@@ -1604,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L14">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1621,7 +1621,7 @@
         <v>0.14</v>
       </c>
       <c r="D15">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="E15">
         <v>0.01</v>
@@ -1633,7 +1633,7 @@
         <v>0.1</v>
       </c>
       <c r="H15">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="L15">
         <v>0.25</v>
@@ -1656,10 +1656,10 @@
         <v>68</v>
       </c>
       <c r="C16">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D16">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="E16">
         <v>0.01</v>
@@ -1680,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="L16">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1847,25 +1847,25 @@
         <v>78</v>
       </c>
       <c r="C2">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="D2">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F2">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G2">
         <v>0.38</v>
       </c>
       <c r="H2">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I2">
-        <v>6.28</v>
+        <v>6.24</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +1912,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="C2">
         <v>22.5</v>
@@ -1921,19 +1921,19 @@
         <v>33.7</v>
       </c>
       <c r="E2">
-        <v>236.91</v>
+        <v>237.58</v>
       </c>
       <c r="F2">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="H2">
-        <v>94.45999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="I2">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2059,13 +2059,13 @@
         <v>33.7</v>
       </c>
       <c r="E2">
-        <v>236.9</v>
+        <v>237.58</v>
       </c>
       <c r="F2">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="H2">
         <v>0.03</v>
@@ -2074,16 +2074,16 @@
         <v>1.3</v>
       </c>
       <c r="J2">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="K2">
         <v>0.03</v>
       </c>
       <c r="L2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M2">
-        <v>14.09</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2156,7 +2156,7 @@
         <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="K4">
         <v>0.01</v>
@@ -2197,7 +2197,7 @@
         <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2268,7 @@
         <v>2.72</v>
       </c>
       <c r="D2">
-        <v>27.89</v>
+        <v>28.06</v>
       </c>
       <c r="E2">
         <v>0.15</v>
@@ -2280,19 +2280,19 @@
         <v>10.8</v>
       </c>
       <c r="H2">
-        <v>43.42</v>
+        <v>43.43</v>
       </c>
       <c r="I2">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>12.88</v>
+        <v>12.85</v>
       </c>
       <c r="L2">
-        <v>10.16</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2306,10 +2306,10 @@
         <v>4.79</v>
       </c>
       <c r="D3">
-        <v>50.12</v>
+        <v>50.01</v>
       </c>
       <c r="E3">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F3">
         <v>0.04</v>
@@ -2327,10 +2327,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>11.29</v>
+        <v>11.36</v>
       </c>
       <c r="L3">
-        <v>6.5</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2341,31 +2341,31 @@
         <v>67</v>
       </c>
       <c r="C4">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="D4">
-        <v>26.21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0.14</v>
       </c>
       <c r="F4">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>16.29</v>
+        <v>16.28</v>
       </c>
       <c r="I4">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="J4">
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.390000000000001</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L4">
         <v>5.86</v>
@@ -2379,10 +2379,10 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="D5">
-        <v>33.33</v>
+        <v>33.83</v>
       </c>
       <c r="E5">
         <v>0.19</v>
@@ -2394,19 +2394,19 @@
         <v>0.4</v>
       </c>
       <c r="H5">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="I5">
         <v>0.01</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.71</v>
+        <v>7.81</v>
       </c>
       <c r="L5">
-        <v>4.63</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2420,7 +2420,7 @@
         <v>2.22</v>
       </c>
       <c r="D6">
-        <v>23.35</v>
+        <v>23.36</v>
       </c>
       <c r="E6">
         <v>0.13</v>
@@ -2432,7 +2432,7 @@
         <v>0.3</v>
       </c>
       <c r="H6">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="I6">
         <v>0.01</v>
@@ -2444,7 +2444,7 @@
         <v>5.48</v>
       </c>
       <c r="L6">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2455,34 +2455,34 @@
         <v>103</v>
       </c>
       <c r="C7">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
-        <v>7.8</v>
+        <v>7.59</v>
       </c>
       <c r="E7">
         <v>0.04</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>4.9</v>
       </c>
       <c r="H7">
-        <v>19.99</v>
+        <v>20.06</v>
       </c>
       <c r="I7">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.71</v>
+        <v>4.74</v>
       </c>
       <c r="L7">
-        <v>3.95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2493,16 +2493,16 @@
         <v>104</v>
       </c>
       <c r="C8">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="D8">
-        <v>20.91</v>
+        <v>21.07</v>
       </c>
       <c r="E8">
         <v>0.11</v>
       </c>
       <c r="F8">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.7</v>
+        <v>4.74</v>
       </c>
       <c r="L8">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2531,10 +2531,10 @@
         <v>105</v>
       </c>
       <c r="C9">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="D9">
-        <v>18.8</v>
+        <v>18.95</v>
       </c>
       <c r="E9">
         <v>0.1</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.18</v>
+        <v>4.21</v>
       </c>
       <c r="L9">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2569,10 +2569,10 @@
         <v>106</v>
       </c>
       <c r="C10">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="D10">
-        <v>8.84</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="L10">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2607,10 +2607,10 @@
         <v>107</v>
       </c>
       <c r="C11">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
-        <v>7.91</v>
+        <v>7.82</v>
       </c>
       <c r="E11">
         <v>0.04</v>
@@ -2631,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="L11">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2645,34 +2645,34 @@
         <v>108</v>
       </c>
       <c r="C12">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="D12">
-        <v>1.67</v>
+        <v>3.91</v>
       </c>
       <c r="E12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H12">
-        <v>3.77</v>
+        <v>0.31</v>
       </c>
       <c r="I12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L12">
-        <v>0.79</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2683,34 +2683,34 @@
         <v>109</v>
       </c>
       <c r="C13">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="D13">
-        <v>3.84</v>
+        <v>1.63</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H13">
-        <v>0.32</v>
+        <v>3.79</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="L13">
-        <v>0.54</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2724,7 +2724,7 @@
         <v>0.32</v>
       </c>
       <c r="D14">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="E14">
         <v>0.02</v>
@@ -2745,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="L14">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2759,13 +2759,13 @@
         <v>111</v>
       </c>
       <c r="C15">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="D15">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="E15">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="L15">
         <v>0.37</v>
@@ -2812,7 +2812,7 @@
         <v>0.7</v>
       </c>
       <c r="H16">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="I16">
         <v>0.02</v>
@@ -2821,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="L16">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2838,7 +2838,7 @@
         <v>0.01</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L17">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2988,25 +2988,25 @@
         <v>116</v>
       </c>
       <c r="C2">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="D2">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="F2">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G2">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="H2">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="I2">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
     </row>
   </sheetData>
